--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -218,12 +218,33 @@
   </si>
   <si>
     <t>Nº</t>
+  </si>
+  <si>
+    <t>England EFL League One</t>
+  </si>
+  <si>
+    <t>2024/2025</t>
+  </si>
+  <si>
+    <t>Barnsley</t>
+  </si>
+  <si>
+    <t>Mansfield Town</t>
+  </si>
+  <si>
+    <t>['32']</t>
+  </si>
+  <si>
+    <t>['13', '18']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -276,11 +297,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,7 +597,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP1"/>
+  <dimension ref="A1:BP2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -787,6 +809,212 @@
         <v>66</v>
       </c>
     </row>
+    <row r="2" spans="1:68">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>7477774</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45513.66666666666</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2" t="s">
+        <v>72</v>
+      </c>
+      <c r="P2" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q2">
+        <v>2.6</v>
+      </c>
+      <c r="R2">
+        <v>2.2</v>
+      </c>
+      <c r="S2">
+        <v>4</v>
+      </c>
+      <c r="T2">
+        <v>1.36</v>
+      </c>
+      <c r="U2">
+        <v>3</v>
+      </c>
+      <c r="V2">
+        <v>2.75</v>
+      </c>
+      <c r="W2">
+        <v>1.4</v>
+      </c>
+      <c r="X2">
+        <v>7</v>
+      </c>
+      <c r="Y2">
+        <v>1.1</v>
+      </c>
+      <c r="Z2">
+        <v>1.93</v>
+      </c>
+      <c r="AA2">
+        <v>3.56</v>
+      </c>
+      <c r="AB2">
+        <v>3.73</v>
+      </c>
+      <c r="AC2">
+        <v>1.04</v>
+      </c>
+      <c r="AD2">
+        <v>13</v>
+      </c>
+      <c r="AE2">
+        <v>1.28</v>
+      </c>
+      <c r="AF2">
+        <v>3.75</v>
+      </c>
+      <c r="AG2">
+        <v>1.88</v>
+      </c>
+      <c r="AH2">
+        <v>1.91</v>
+      </c>
+      <c r="AI2">
+        <v>1.75</v>
+      </c>
+      <c r="AJ2">
+        <v>2</v>
+      </c>
+      <c r="AK2">
+        <v>1.3</v>
+      </c>
+      <c r="AL2">
+        <v>1.22</v>
+      </c>
+      <c r="AM2">
+        <v>1.83</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>3</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>5</v>
+      </c>
+      <c r="AV2">
+        <v>5</v>
+      </c>
+      <c r="AW2">
+        <v>10</v>
+      </c>
+      <c r="AX2">
+        <v>4</v>
+      </c>
+      <c r="AY2">
+        <v>15</v>
+      </c>
+      <c r="AZ2">
+        <v>9</v>
+      </c>
+      <c r="BA2">
+        <v>3</v>
+      </c>
+      <c r="BB2">
+        <v>6</v>
+      </c>
+      <c r="BC2">
+        <v>9</v>
+      </c>
+      <c r="BD2">
+        <v>1.75</v>
+      </c>
+      <c r="BE2">
+        <v>8</v>
+      </c>
+      <c r="BF2">
+        <v>2.44</v>
+      </c>
+      <c r="BG2">
+        <v>1.21</v>
+      </c>
+      <c r="BH2">
+        <v>3.74</v>
+      </c>
+      <c r="BI2">
+        <v>1.42</v>
+      </c>
+      <c r="BJ2">
+        <v>2.65</v>
+      </c>
+      <c r="BK2">
+        <v>1.77</v>
+      </c>
+      <c r="BL2">
+        <v>1.95</v>
+      </c>
+      <c r="BM2">
+        <v>2.19</v>
+      </c>
+      <c r="BN2">
+        <v>1.6</v>
+      </c>
+      <c r="BO2">
+        <v>2.91</v>
+      </c>
+      <c r="BP2">
+        <v>1.33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="113">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -229,13 +229,130 @@
     <t>Barnsley</t>
   </si>
   <si>
+    <t>Wrexham</t>
+  </si>
+  <si>
+    <t>Wigan Athletic</t>
+  </si>
+  <si>
+    <t>Stockport County</t>
+  </si>
+  <si>
+    <t>Peterborough United</t>
+  </si>
+  <si>
+    <t>Leyton Orient</t>
+  </si>
+  <si>
+    <t>Stevenage</t>
+  </si>
+  <si>
+    <t>Crawley Town</t>
+  </si>
+  <si>
+    <t>Burton Albion</t>
+  </si>
+  <si>
+    <t>Bristol Rovers</t>
+  </si>
+  <si>
+    <t>Birmingham City</t>
+  </si>
+  <si>
+    <t>Exeter City</t>
+  </si>
+  <si>
     <t>Mansfield Town</t>
   </si>
   <si>
+    <t>Wycombe Wanderers</t>
+  </si>
+  <si>
+    <t>Charlton Athletic</t>
+  </si>
+  <si>
+    <t>Cambridge United</t>
+  </si>
+  <si>
+    <t>Huddersfield Town</t>
+  </si>
+  <si>
+    <t>Bolton Wanderers</t>
+  </si>
+  <si>
+    <t>Shrewsbury Town</t>
+  </si>
+  <si>
+    <t>Blackpool</t>
+  </si>
+  <si>
+    <t>Lincoln City</t>
+  </si>
+  <si>
+    <t>Northampton Town</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Rotherham United</t>
+  </si>
+  <si>
     <t>['32']</t>
   </si>
   <si>
+    <t>['9', '29', '83']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['5', '76']</t>
+  </si>
+  <si>
+    <t>['38']</t>
+  </si>
+  <si>
+    <t>['58']</t>
+  </si>
+  <si>
+    <t>['16', '33']</t>
+  </si>
+  <si>
+    <t>['5', '41']</t>
+  </si>
+  <si>
+    <t>['90+2']</t>
+  </si>
+  <si>
+    <t>['87']</t>
+  </si>
+  <si>
+    <t>['71']</t>
+  </si>
+  <si>
     <t>['13', '18']</t>
+  </si>
+  <si>
+    <t>['58', '89']</t>
+  </si>
+  <si>
+    <t>['81']</t>
+  </si>
+  <si>
+    <t>['36', '45+1']</t>
+  </si>
+  <si>
+    <t>['8', '75']</t>
+  </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
+    <t>['9', '22', '86']</t>
+  </si>
+  <si>
+    <t>['42']</t>
   </si>
 </sst>
 </file>
@@ -597,7 +714,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP2"/>
+  <dimension ref="A1:BP13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -832,7 +949,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -853,10 +970,10 @@
         <v>3</v>
       </c>
       <c r="O2" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>73</v>
+        <v>105</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1013,6 +1130,2272 @@
       </c>
       <c r="BP2">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:68">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>7477790</v>
+      </c>
+      <c r="C3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45514.5625</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>71</v>
+      </c>
+      <c r="H3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3">
+        <v>2</v>
+      </c>
+      <c r="N3">
+        <v>5</v>
+      </c>
+      <c r="O3" t="s">
+        <v>95</v>
+      </c>
+      <c r="P3" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q3">
+        <v>2.6</v>
+      </c>
+      <c r="R3">
+        <v>2.3</v>
+      </c>
+      <c r="S3">
+        <v>4</v>
+      </c>
+      <c r="T3">
+        <v>1.33</v>
+      </c>
+      <c r="U3">
+        <v>3.25</v>
+      </c>
+      <c r="V3">
+        <v>2.5</v>
+      </c>
+      <c r="W3">
+        <v>1.5</v>
+      </c>
+      <c r="X3">
+        <v>6.5</v>
+      </c>
+      <c r="Y3">
+        <v>1.11</v>
+      </c>
+      <c r="Z3">
+        <v>2</v>
+      </c>
+      <c r="AA3">
+        <v>3.5</v>
+      </c>
+      <c r="AB3">
+        <v>3.5</v>
+      </c>
+      <c r="AC3">
+        <v>1.03</v>
+      </c>
+      <c r="AD3">
+        <v>13</v>
+      </c>
+      <c r="AE3">
+        <v>1.25</v>
+      </c>
+      <c r="AF3">
+        <v>3.75</v>
+      </c>
+      <c r="AG3">
+        <v>1.73</v>
+      </c>
+      <c r="AH3">
+        <v>2</v>
+      </c>
+      <c r="AI3">
+        <v>1.62</v>
+      </c>
+      <c r="AJ3">
+        <v>2.2</v>
+      </c>
+      <c r="AK3">
+        <v>1.3</v>
+      </c>
+      <c r="AL3">
+        <v>1.22</v>
+      </c>
+      <c r="AM3">
+        <v>1.83</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>3</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>7</v>
+      </c>
+      <c r="AV3">
+        <v>5</v>
+      </c>
+      <c r="AW3">
+        <v>3</v>
+      </c>
+      <c r="AX3">
+        <v>10</v>
+      </c>
+      <c r="AY3">
+        <v>10</v>
+      </c>
+      <c r="AZ3">
+        <v>15</v>
+      </c>
+      <c r="BA3">
+        <v>5</v>
+      </c>
+      <c r="BB3">
+        <v>7</v>
+      </c>
+      <c r="BC3">
+        <v>12</v>
+      </c>
+      <c r="BD3">
+        <v>1.45</v>
+      </c>
+      <c r="BE3">
+        <v>9</v>
+      </c>
+      <c r="BF3">
+        <v>3.19</v>
+      </c>
+      <c r="BG3">
+        <v>1.2</v>
+      </c>
+      <c r="BH3">
+        <v>3.95</v>
+      </c>
+      <c r="BI3">
+        <v>1.35</v>
+      </c>
+      <c r="BJ3">
+        <v>2.9</v>
+      </c>
+      <c r="BK3">
+        <v>1.57</v>
+      </c>
+      <c r="BL3">
+        <v>2.23</v>
+      </c>
+      <c r="BM3">
+        <v>1.95</v>
+      </c>
+      <c r="BN3">
+        <v>1.77</v>
+      </c>
+      <c r="BO3">
+        <v>2.33</v>
+      </c>
+      <c r="BP3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:68">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>7477788</v>
+      </c>
+      <c r="C4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45514.5625</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>96</v>
+      </c>
+      <c r="P4" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q4">
+        <v>3.2</v>
+      </c>
+      <c r="R4">
+        <v>2.1</v>
+      </c>
+      <c r="S4">
+        <v>3.4</v>
+      </c>
+      <c r="T4">
+        <v>1.4</v>
+      </c>
+      <c r="U4">
+        <v>2.75</v>
+      </c>
+      <c r="V4">
+        <v>3</v>
+      </c>
+      <c r="W4">
+        <v>1.36</v>
+      </c>
+      <c r="X4">
+        <v>8</v>
+      </c>
+      <c r="Y4">
+        <v>1.08</v>
+      </c>
+      <c r="Z4">
+        <v>2.39</v>
+      </c>
+      <c r="AA4">
+        <v>3.21</v>
+      </c>
+      <c r="AB4">
+        <v>2.98</v>
+      </c>
+      <c r="AC4">
+        <v>1.02</v>
+      </c>
+      <c r="AD4">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE4">
+        <v>1.28</v>
+      </c>
+      <c r="AF4">
+        <v>3.18</v>
+      </c>
+      <c r="AG4">
+        <v>2.02</v>
+      </c>
+      <c r="AH4">
+        <v>1.78</v>
+      </c>
+      <c r="AI4">
+        <v>1.75</v>
+      </c>
+      <c r="AJ4">
+        <v>2</v>
+      </c>
+      <c r="AK4">
+        <v>1.47</v>
+      </c>
+      <c r="AL4">
+        <v>1.25</v>
+      </c>
+      <c r="AM4">
+        <v>1.5</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>3</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>2</v>
+      </c>
+      <c r="AV4">
+        <v>4</v>
+      </c>
+      <c r="AW4">
+        <v>4</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>6</v>
+      </c>
+      <c r="AZ4">
+        <v>4</v>
+      </c>
+      <c r="BA4">
+        <v>7</v>
+      </c>
+      <c r="BB4">
+        <v>6</v>
+      </c>
+      <c r="BC4">
+        <v>13</v>
+      </c>
+      <c r="BD4">
+        <v>1.75</v>
+      </c>
+      <c r="BE4">
+        <v>8</v>
+      </c>
+      <c r="BF4">
+        <v>2.44</v>
+      </c>
+      <c r="BG4">
+        <v>1.25</v>
+      </c>
+      <c r="BH4">
+        <v>3.45</v>
+      </c>
+      <c r="BI4">
+        <v>1.44</v>
+      </c>
+      <c r="BJ4">
+        <v>2.55</v>
+      </c>
+      <c r="BK4">
+        <v>1.7</v>
+      </c>
+      <c r="BL4">
+        <v>2.05</v>
+      </c>
+      <c r="BM4">
+        <v>2.1</v>
+      </c>
+      <c r="BN4">
+        <v>1.64</v>
+      </c>
+      <c r="BO4">
+        <v>2.65</v>
+      </c>
+      <c r="BP4">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:68">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>7477786</v>
+      </c>
+      <c r="C5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45514.5625</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5" t="s">
+        <v>97</v>
+      </c>
+      <c r="P5" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q5">
+        <v>2.3</v>
+      </c>
+      <c r="R5">
+        <v>2.2</v>
+      </c>
+      <c r="S5">
+        <v>5.5</v>
+      </c>
+      <c r="T5">
+        <v>1.4</v>
+      </c>
+      <c r="U5">
+        <v>2.75</v>
+      </c>
+      <c r="V5">
+        <v>2.75</v>
+      </c>
+      <c r="W5">
+        <v>1.4</v>
+      </c>
+      <c r="X5">
+        <v>8</v>
+      </c>
+      <c r="Y5">
+        <v>1.08</v>
+      </c>
+      <c r="Z5">
+        <v>1.75</v>
+      </c>
+      <c r="AA5">
+        <v>3.6</v>
+      </c>
+      <c r="AB5">
+        <v>4.6</v>
+      </c>
+      <c r="AC5">
+        <v>1.01</v>
+      </c>
+      <c r="AD5">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE5">
+        <v>1.27</v>
+      </c>
+      <c r="AF5">
+        <v>3.28</v>
+      </c>
+      <c r="AG5">
+        <v>1.85</v>
+      </c>
+      <c r="AH5">
+        <v>1.85</v>
+      </c>
+      <c r="AI5">
+        <v>1.91</v>
+      </c>
+      <c r="AJ5">
+        <v>1.91</v>
+      </c>
+      <c r="AK5">
+        <v>1.17</v>
+      </c>
+      <c r="AL5">
+        <v>1.22</v>
+      </c>
+      <c r="AM5">
+        <v>2.2</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>3</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>7</v>
+      </c>
+      <c r="AV5">
+        <v>3</v>
+      </c>
+      <c r="AW5">
+        <v>13</v>
+      </c>
+      <c r="AX5">
+        <v>3</v>
+      </c>
+      <c r="AY5">
+        <v>20</v>
+      </c>
+      <c r="AZ5">
+        <v>6</v>
+      </c>
+      <c r="BA5">
+        <v>5</v>
+      </c>
+      <c r="BB5">
+        <v>3</v>
+      </c>
+      <c r="BC5">
+        <v>8</v>
+      </c>
+      <c r="BD5">
+        <v>1.51</v>
+      </c>
+      <c r="BE5">
+        <v>8.5</v>
+      </c>
+      <c r="BF5">
+        <v>3.16</v>
+      </c>
+      <c r="BG5">
+        <v>1.32</v>
+      </c>
+      <c r="BH5">
+        <v>3</v>
+      </c>
+      <c r="BI5">
+        <v>1.55</v>
+      </c>
+      <c r="BJ5">
+        <v>2.25</v>
+      </c>
+      <c r="BK5">
+        <v>1.91</v>
+      </c>
+      <c r="BL5">
+        <v>1.8</v>
+      </c>
+      <c r="BM5">
+        <v>2.33</v>
+      </c>
+      <c r="BN5">
+        <v>1.5</v>
+      </c>
+      <c r="BO5">
+        <v>3.05</v>
+      </c>
+      <c r="BP5">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:68">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>7477783</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45514.5625</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" t="s">
+        <v>86</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>2</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6" t="s">
+        <v>96</v>
+      </c>
+      <c r="P6" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q6">
+        <v>2.75</v>
+      </c>
+      <c r="R6">
+        <v>2.25</v>
+      </c>
+      <c r="S6">
+        <v>3.75</v>
+      </c>
+      <c r="T6">
+        <v>1.33</v>
+      </c>
+      <c r="U6">
+        <v>3.25</v>
+      </c>
+      <c r="V6">
+        <v>2.63</v>
+      </c>
+      <c r="W6">
+        <v>1.44</v>
+      </c>
+      <c r="X6">
+        <v>7</v>
+      </c>
+      <c r="Y6">
+        <v>1.1</v>
+      </c>
+      <c r="Z6">
+        <v>2</v>
+      </c>
+      <c r="AA6">
+        <v>3.5</v>
+      </c>
+      <c r="AB6">
+        <v>3.6</v>
+      </c>
+      <c r="AC6">
+        <v>1.03</v>
+      </c>
+      <c r="AD6">
+        <v>14</v>
+      </c>
+      <c r="AE6">
+        <v>1.22</v>
+      </c>
+      <c r="AF6">
+        <v>3.8</v>
+      </c>
+      <c r="AG6">
+        <v>1.7</v>
+      </c>
+      <c r="AH6">
+        <v>2.05</v>
+      </c>
+      <c r="AI6">
+        <v>1.62</v>
+      </c>
+      <c r="AJ6">
+        <v>2.2</v>
+      </c>
+      <c r="AK6">
+        <v>1.32</v>
+      </c>
+      <c r="AL6">
+        <v>1.25</v>
+      </c>
+      <c r="AM6">
+        <v>1.68</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>0</v>
+      </c>
+      <c r="AQ6">
+        <v>3</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>3</v>
+      </c>
+      <c r="AV6">
+        <v>6</v>
+      </c>
+      <c r="AW6">
+        <v>4</v>
+      </c>
+      <c r="AX6">
+        <v>5</v>
+      </c>
+      <c r="AY6">
+        <v>7</v>
+      </c>
+      <c r="AZ6">
+        <v>11</v>
+      </c>
+      <c r="BA6">
+        <v>3</v>
+      </c>
+      <c r="BB6">
+        <v>10</v>
+      </c>
+      <c r="BC6">
+        <v>13</v>
+      </c>
+      <c r="BD6">
+        <v>1.64</v>
+      </c>
+      <c r="BE6">
+        <v>8.5</v>
+      </c>
+      <c r="BF6">
+        <v>2.66</v>
+      </c>
+      <c r="BG6">
+        <v>1.17</v>
+      </c>
+      <c r="BH6">
+        <v>4.3</v>
+      </c>
+      <c r="BI6">
+        <v>1.3</v>
+      </c>
+      <c r="BJ6">
+        <v>3.05</v>
+      </c>
+      <c r="BK6">
+        <v>1.5</v>
+      </c>
+      <c r="BL6">
+        <v>2.35</v>
+      </c>
+      <c r="BM6">
+        <v>1.85</v>
+      </c>
+      <c r="BN6">
+        <v>1.85</v>
+      </c>
+      <c r="BO6">
+        <v>2.23</v>
+      </c>
+      <c r="BP6">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:68">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>7477782</v>
+      </c>
+      <c r="C7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45514.5625</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q7">
+        <v>4</v>
+      </c>
+      <c r="R7">
+        <v>2.1</v>
+      </c>
+      <c r="S7">
+        <v>2.75</v>
+      </c>
+      <c r="T7">
+        <v>1.4</v>
+      </c>
+      <c r="U7">
+        <v>2.75</v>
+      </c>
+      <c r="V7">
+        <v>3</v>
+      </c>
+      <c r="W7">
+        <v>1.36</v>
+      </c>
+      <c r="X7">
+        <v>8</v>
+      </c>
+      <c r="Y7">
+        <v>1.08</v>
+      </c>
+      <c r="Z7">
+        <v>3.51</v>
+      </c>
+      <c r="AA7">
+        <v>3.42</v>
+      </c>
+      <c r="AB7">
+        <v>2.04</v>
+      </c>
+      <c r="AC7">
+        <v>1.02</v>
+      </c>
+      <c r="AD7">
+        <v>9.1</v>
+      </c>
+      <c r="AE7">
+        <v>1.27</v>
+      </c>
+      <c r="AF7">
+        <v>3.28</v>
+      </c>
+      <c r="AG7">
+        <v>1.91</v>
+      </c>
+      <c r="AH7">
+        <v>1.88</v>
+      </c>
+      <c r="AI7">
+        <v>1.8</v>
+      </c>
+      <c r="AJ7">
+        <v>1.95</v>
+      </c>
+      <c r="AK7">
+        <v>1.62</v>
+      </c>
+      <c r="AL7">
+        <v>1.33</v>
+      </c>
+      <c r="AM7">
+        <v>1.25</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>3</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>6</v>
+      </c>
+      <c r="AV7">
+        <v>4</v>
+      </c>
+      <c r="AW7">
+        <v>4</v>
+      </c>
+      <c r="AX7">
+        <v>3</v>
+      </c>
+      <c r="AY7">
+        <v>10</v>
+      </c>
+      <c r="AZ7">
+        <v>7</v>
+      </c>
+      <c r="BA7">
+        <v>7</v>
+      </c>
+      <c r="BB7">
+        <v>2</v>
+      </c>
+      <c r="BC7">
+        <v>9</v>
+      </c>
+      <c r="BD7">
+        <v>2.2</v>
+      </c>
+      <c r="BE7">
+        <v>8</v>
+      </c>
+      <c r="BF7">
+        <v>1.91</v>
+      </c>
+      <c r="BG7">
+        <v>1.21</v>
+      </c>
+      <c r="BH7">
+        <v>3.8</v>
+      </c>
+      <c r="BI7">
+        <v>1.38</v>
+      </c>
+      <c r="BJ7">
+        <v>2.7</v>
+      </c>
+      <c r="BK7">
+        <v>1.7</v>
+      </c>
+      <c r="BL7">
+        <v>2.05</v>
+      </c>
+      <c r="BM7">
+        <v>2</v>
+      </c>
+      <c r="BN7">
+        <v>1.71</v>
+      </c>
+      <c r="BO7">
+        <v>2.55</v>
+      </c>
+      <c r="BP7">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:68">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7477785</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45514.5625</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>99</v>
+      </c>
+      <c r="P8" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q8">
+        <v>2.5</v>
+      </c>
+      <c r="R8">
+        <v>2.05</v>
+      </c>
+      <c r="S8">
+        <v>5</v>
+      </c>
+      <c r="T8">
+        <v>1.5</v>
+      </c>
+      <c r="U8">
+        <v>2.5</v>
+      </c>
+      <c r="V8">
+        <v>3.4</v>
+      </c>
+      <c r="W8">
+        <v>1.3</v>
+      </c>
+      <c r="X8">
+        <v>10</v>
+      </c>
+      <c r="Y8">
+        <v>1.06</v>
+      </c>
+      <c r="Z8">
+        <v>1.8</v>
+      </c>
+      <c r="AA8">
+        <v>3.47</v>
+      </c>
+      <c r="AB8">
+        <v>4.4</v>
+      </c>
+      <c r="AC8">
+        <v>1.08</v>
+      </c>
+      <c r="AD8">
+        <v>7.5</v>
+      </c>
+      <c r="AE8">
+        <v>1.42</v>
+      </c>
+      <c r="AF8">
+        <v>2.8</v>
+      </c>
+      <c r="AG8">
+        <v>2.2</v>
+      </c>
+      <c r="AH8">
+        <v>1.6</v>
+      </c>
+      <c r="AI8">
+        <v>2.05</v>
+      </c>
+      <c r="AJ8">
+        <v>1.7</v>
+      </c>
+      <c r="AK8">
+        <v>1.17</v>
+      </c>
+      <c r="AL8">
+        <v>1.25</v>
+      </c>
+      <c r="AM8">
+        <v>2.05</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>3</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>5</v>
+      </c>
+      <c r="AV8">
+        <v>2</v>
+      </c>
+      <c r="AW8">
+        <v>9</v>
+      </c>
+      <c r="AX8">
+        <v>2</v>
+      </c>
+      <c r="AY8">
+        <v>14</v>
+      </c>
+      <c r="AZ8">
+        <v>4</v>
+      </c>
+      <c r="BA8">
+        <v>4</v>
+      </c>
+      <c r="BB8">
+        <v>1</v>
+      </c>
+      <c r="BC8">
+        <v>5</v>
+      </c>
+      <c r="BD8">
+        <v>1.45</v>
+      </c>
+      <c r="BE8">
+        <v>9</v>
+      </c>
+      <c r="BF8">
+        <v>3.19</v>
+      </c>
+      <c r="BG8">
+        <v>1.25</v>
+      </c>
+      <c r="BH8">
+        <v>3.45</v>
+      </c>
+      <c r="BI8">
+        <v>1.44</v>
+      </c>
+      <c r="BJ8">
+        <v>2.55</v>
+      </c>
+      <c r="BK8">
+        <v>1.7</v>
+      </c>
+      <c r="BL8">
+        <v>2.05</v>
+      </c>
+      <c r="BM8">
+        <v>2.05</v>
+      </c>
+      <c r="BN8">
+        <v>1.7</v>
+      </c>
+      <c r="BO8">
+        <v>2.65</v>
+      </c>
+      <c r="BP8">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:68">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>7477779</v>
+      </c>
+      <c r="C9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45514.5625</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>77</v>
+      </c>
+      <c r="H9" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9" t="s">
+        <v>100</v>
+      </c>
+      <c r="P9" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q9">
+        <v>3.75</v>
+      </c>
+      <c r="R9">
+        <v>2.1</v>
+      </c>
+      <c r="S9">
+        <v>2.88</v>
+      </c>
+      <c r="T9">
+        <v>1.4</v>
+      </c>
+      <c r="U9">
+        <v>2.75</v>
+      </c>
+      <c r="V9">
+        <v>3</v>
+      </c>
+      <c r="W9">
+        <v>1.36</v>
+      </c>
+      <c r="X9">
+        <v>8</v>
+      </c>
+      <c r="Y9">
+        <v>1.08</v>
+      </c>
+      <c r="Z9">
+        <v>3.21</v>
+      </c>
+      <c r="AA9">
+        <v>3.31</v>
+      </c>
+      <c r="AB9">
+        <v>2.21</v>
+      </c>
+      <c r="AC9">
+        <v>1.05</v>
+      </c>
+      <c r="AD9">
+        <v>11</v>
+      </c>
+      <c r="AE9">
+        <v>1.3</v>
+      </c>
+      <c r="AF9">
+        <v>3.4</v>
+      </c>
+      <c r="AG9">
+        <v>1.95</v>
+      </c>
+      <c r="AH9">
+        <v>1.84</v>
+      </c>
+      <c r="AI9">
+        <v>1.8</v>
+      </c>
+      <c r="AJ9">
+        <v>1.95</v>
+      </c>
+      <c r="AK9">
+        <v>1.72</v>
+      </c>
+      <c r="AL9">
+        <v>1.25</v>
+      </c>
+      <c r="AM9">
+        <v>1.33</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>3</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>5</v>
+      </c>
+      <c r="AV9">
+        <v>5</v>
+      </c>
+      <c r="AW9">
+        <v>5</v>
+      </c>
+      <c r="AX9">
+        <v>10</v>
+      </c>
+      <c r="AY9">
+        <v>10</v>
+      </c>
+      <c r="AZ9">
+        <v>15</v>
+      </c>
+      <c r="BA9">
+        <v>2</v>
+      </c>
+      <c r="BB9">
+        <v>10</v>
+      </c>
+      <c r="BC9">
+        <v>12</v>
+      </c>
+      <c r="BD9">
+        <v>2.2</v>
+      </c>
+      <c r="BE9">
+        <v>8</v>
+      </c>
+      <c r="BF9">
+        <v>1.91</v>
+      </c>
+      <c r="BG9">
+        <v>1.24</v>
+      </c>
+      <c r="BH9">
+        <v>3.55</v>
+      </c>
+      <c r="BI9">
+        <v>1.43</v>
+      </c>
+      <c r="BJ9">
+        <v>2.55</v>
+      </c>
+      <c r="BK9">
+        <v>1.77</v>
+      </c>
+      <c r="BL9">
+        <v>1.95</v>
+      </c>
+      <c r="BM9">
+        <v>2.1</v>
+      </c>
+      <c r="BN9">
+        <v>1.63</v>
+      </c>
+      <c r="BO9">
+        <v>2.65</v>
+      </c>
+      <c r="BP9">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:68">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>7477777</v>
+      </c>
+      <c r="C10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45514.5625</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10">
+        <v>2</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>5</v>
+      </c>
+      <c r="O10" t="s">
+        <v>101</v>
+      </c>
+      <c r="P10" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q10">
+        <v>3.75</v>
+      </c>
+      <c r="R10">
+        <v>2.05</v>
+      </c>
+      <c r="S10">
+        <v>3.1</v>
+      </c>
+      <c r="T10">
+        <v>1.44</v>
+      </c>
+      <c r="U10">
+        <v>2.63</v>
+      </c>
+      <c r="V10">
+        <v>3.25</v>
+      </c>
+      <c r="W10">
+        <v>1.33</v>
+      </c>
+      <c r="X10">
+        <v>10</v>
+      </c>
+      <c r="Y10">
+        <v>1.06</v>
+      </c>
+      <c r="Z10">
+        <v>3.13</v>
+      </c>
+      <c r="AA10">
+        <v>3.17</v>
+      </c>
+      <c r="AB10">
+        <v>2.32</v>
+      </c>
+      <c r="AC10">
+        <v>1.06</v>
+      </c>
+      <c r="AD10">
+        <v>10</v>
+      </c>
+      <c r="AE10">
+        <v>1.35</v>
+      </c>
+      <c r="AF10">
+        <v>2.95</v>
+      </c>
+      <c r="AG10">
+        <v>2.05</v>
+      </c>
+      <c r="AH10">
+        <v>1.7</v>
+      </c>
+      <c r="AI10">
+        <v>1.91</v>
+      </c>
+      <c r="AJ10">
+        <v>1.91</v>
+      </c>
+      <c r="AK10">
+        <v>1.62</v>
+      </c>
+      <c r="AL10">
+        <v>1.28</v>
+      </c>
+      <c r="AM10">
+        <v>1.38</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>3</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>6</v>
+      </c>
+      <c r="AV10">
+        <v>4</v>
+      </c>
+      <c r="AW10">
+        <v>2</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
+      </c>
+      <c r="AY10">
+        <v>8</v>
+      </c>
+      <c r="AZ10">
+        <v>4</v>
+      </c>
+      <c r="BA10">
+        <v>4</v>
+      </c>
+      <c r="BB10">
+        <v>4</v>
+      </c>
+      <c r="BC10">
+        <v>8</v>
+      </c>
+      <c r="BD10">
+        <v>2.1</v>
+      </c>
+      <c r="BE10">
+        <v>7.5</v>
+      </c>
+      <c r="BF10">
+        <v>2</v>
+      </c>
+      <c r="BG10">
+        <v>1.27</v>
+      </c>
+      <c r="BH10">
+        <v>3.28</v>
+      </c>
+      <c r="BI10">
+        <v>1.52</v>
+      </c>
+      <c r="BJ10">
+        <v>2.36</v>
+      </c>
+      <c r="BK10">
+        <v>1.95</v>
+      </c>
+      <c r="BL10">
+        <v>1.77</v>
+      </c>
+      <c r="BM10">
+        <v>2.46</v>
+      </c>
+      <c r="BN10">
+        <v>1.48</v>
+      </c>
+      <c r="BO10">
+        <v>3.34</v>
+      </c>
+      <c r="BP10">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:68">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>7477776</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45514.5625</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>102</v>
+      </c>
+      <c r="P11" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q11">
+        <v>2.63</v>
+      </c>
+      <c r="R11">
+        <v>2.1</v>
+      </c>
+      <c r="S11">
+        <v>4.33</v>
+      </c>
+      <c r="T11">
+        <v>1.4</v>
+      </c>
+      <c r="U11">
+        <v>2.75</v>
+      </c>
+      <c r="V11">
+        <v>3</v>
+      </c>
+      <c r="W11">
+        <v>1.36</v>
+      </c>
+      <c r="X11">
+        <v>8</v>
+      </c>
+      <c r="Y11">
+        <v>1.08</v>
+      </c>
+      <c r="Z11">
+        <v>1.95</v>
+      </c>
+      <c r="AA11">
+        <v>3.39</v>
+      </c>
+      <c r="AB11">
+        <v>3.81</v>
+      </c>
+      <c r="AC11">
+        <v>1.05</v>
+      </c>
+      <c r="AD11">
+        <v>10</v>
+      </c>
+      <c r="AE11">
+        <v>1.33</v>
+      </c>
+      <c r="AF11">
+        <v>3.25</v>
+      </c>
+      <c r="AG11">
+        <v>1.91</v>
+      </c>
+      <c r="AH11">
+        <v>1.8</v>
+      </c>
+      <c r="AI11">
+        <v>1.8</v>
+      </c>
+      <c r="AJ11">
+        <v>1.95</v>
+      </c>
+      <c r="AK11">
+        <v>1.28</v>
+      </c>
+      <c r="AL11">
+        <v>1.25</v>
+      </c>
+      <c r="AM11">
+        <v>1.75</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>3</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>0</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>6</v>
+      </c>
+      <c r="AV11">
+        <v>2</v>
+      </c>
+      <c r="AW11">
+        <v>4</v>
+      </c>
+      <c r="AX11">
+        <v>2</v>
+      </c>
+      <c r="AY11">
+        <v>10</v>
+      </c>
+      <c r="AZ11">
+        <v>4</v>
+      </c>
+      <c r="BA11">
+        <v>6</v>
+      </c>
+      <c r="BB11">
+        <v>6</v>
+      </c>
+      <c r="BC11">
+        <v>12</v>
+      </c>
+      <c r="BD11">
+        <v>1.75</v>
+      </c>
+      <c r="BE11">
+        <v>8</v>
+      </c>
+      <c r="BF11">
+        <v>2.42</v>
+      </c>
+      <c r="BG11">
+        <v>1.32</v>
+      </c>
+      <c r="BH11">
+        <v>3.05</v>
+      </c>
+      <c r="BI11">
+        <v>1.56</v>
+      </c>
+      <c r="BJ11">
+        <v>2.23</v>
+      </c>
+      <c r="BK11">
+        <v>1.91</v>
+      </c>
+      <c r="BL11">
+        <v>1.8</v>
+      </c>
+      <c r="BM11">
+        <v>2.4</v>
+      </c>
+      <c r="BN11">
+        <v>1.49</v>
+      </c>
+      <c r="BO11">
+        <v>3.1</v>
+      </c>
+      <c r="BP11">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:68">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>7477775</v>
+      </c>
+      <c r="C12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45514.5625</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>80</v>
+      </c>
+      <c r="H12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+      <c r="N12">
+        <v>2</v>
+      </c>
+      <c r="O12" t="s">
+        <v>103</v>
+      </c>
+      <c r="P12" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q12">
+        <v>2.1</v>
+      </c>
+      <c r="R12">
+        <v>2.3</v>
+      </c>
+      <c r="S12">
+        <v>5.5</v>
+      </c>
+      <c r="T12">
+        <v>1.33</v>
+      </c>
+      <c r="U12">
+        <v>3.25</v>
+      </c>
+      <c r="V12">
+        <v>2.63</v>
+      </c>
+      <c r="W12">
+        <v>1.44</v>
+      </c>
+      <c r="X12">
+        <v>7</v>
+      </c>
+      <c r="Y12">
+        <v>1.1</v>
+      </c>
+      <c r="Z12">
+        <v>1.57</v>
+      </c>
+      <c r="AA12">
+        <v>4</v>
+      </c>
+      <c r="AB12">
+        <v>5.5</v>
+      </c>
+      <c r="AC12">
+        <v>1.01</v>
+      </c>
+      <c r="AD12">
+        <v>10.25</v>
+      </c>
+      <c r="AE12">
+        <v>1.22</v>
+      </c>
+      <c r="AF12">
+        <v>3.66</v>
+      </c>
+      <c r="AG12">
+        <v>1.73</v>
+      </c>
+      <c r="AH12">
+        <v>2</v>
+      </c>
+      <c r="AI12">
+        <v>1.91</v>
+      </c>
+      <c r="AJ12">
+        <v>1.91</v>
+      </c>
+      <c r="AK12">
+        <v>1.14</v>
+      </c>
+      <c r="AL12">
+        <v>1.18</v>
+      </c>
+      <c r="AM12">
+        <v>2.45</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>1</v>
+      </c>
+      <c r="AQ12">
+        <v>1</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>6</v>
+      </c>
+      <c r="AV12">
+        <v>5</v>
+      </c>
+      <c r="AW12">
+        <v>4</v>
+      </c>
+      <c r="AX12">
+        <v>1</v>
+      </c>
+      <c r="AY12">
+        <v>10</v>
+      </c>
+      <c r="AZ12">
+        <v>6</v>
+      </c>
+      <c r="BA12">
+        <v>3</v>
+      </c>
+      <c r="BB12">
+        <v>6</v>
+      </c>
+      <c r="BC12">
+        <v>9</v>
+      </c>
+      <c r="BD12">
+        <v>1.59</v>
+      </c>
+      <c r="BE12">
+        <v>8.5</v>
+      </c>
+      <c r="BF12">
+        <v>2.78</v>
+      </c>
+      <c r="BG12">
+        <v>1.25</v>
+      </c>
+      <c r="BH12">
+        <v>3.45</v>
+      </c>
+      <c r="BI12">
+        <v>1.43</v>
+      </c>
+      <c r="BJ12">
+        <v>2.55</v>
+      </c>
+      <c r="BK12">
+        <v>1.7</v>
+      </c>
+      <c r="BL12">
+        <v>2.05</v>
+      </c>
+      <c r="BM12">
+        <v>2.05</v>
+      </c>
+      <c r="BN12">
+        <v>1.7</v>
+      </c>
+      <c r="BO12">
+        <v>2.65</v>
+      </c>
+      <c r="BP12">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:68">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>7477780</v>
+      </c>
+      <c r="C13" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45514.5625</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H13" t="s">
+        <v>93</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13" t="s">
+        <v>104</v>
+      </c>
+      <c r="P13" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q13">
+        <v>3.5</v>
+      </c>
+      <c r="R13">
+        <v>2.2</v>
+      </c>
+      <c r="S13">
+        <v>3</v>
+      </c>
+      <c r="T13">
+        <v>1.4</v>
+      </c>
+      <c r="U13">
+        <v>2.75</v>
+      </c>
+      <c r="V13">
+        <v>2.75</v>
+      </c>
+      <c r="W13">
+        <v>1.4</v>
+      </c>
+      <c r="X13">
+        <v>8</v>
+      </c>
+      <c r="Y13">
+        <v>1.08</v>
+      </c>
+      <c r="Z13">
+        <v>3.07</v>
+      </c>
+      <c r="AA13">
+        <v>3.36</v>
+      </c>
+      <c r="AB13">
+        <v>2.26</v>
+      </c>
+      <c r="AC13">
+        <v>1.02</v>
+      </c>
+      <c r="AD13">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE13">
+        <v>1.27</v>
+      </c>
+      <c r="AF13">
+        <v>3.28</v>
+      </c>
+      <c r="AG13">
+        <v>1.92</v>
+      </c>
+      <c r="AH13">
+        <v>1.87</v>
+      </c>
+      <c r="AI13">
+        <v>1.75</v>
+      </c>
+      <c r="AJ13">
+        <v>2</v>
+      </c>
+      <c r="AK13">
+        <v>1.6</v>
+      </c>
+      <c r="AL13">
+        <v>1.25</v>
+      </c>
+      <c r="AM13">
+        <v>1.42</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>3</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>8</v>
+      </c>
+      <c r="AV13">
+        <v>3</v>
+      </c>
+      <c r="AW13">
+        <v>7</v>
+      </c>
+      <c r="AX13">
+        <v>8</v>
+      </c>
+      <c r="AY13">
+        <v>15</v>
+      </c>
+      <c r="AZ13">
+        <v>11</v>
+      </c>
+      <c r="BA13">
+        <v>2</v>
+      </c>
+      <c r="BB13">
+        <v>4</v>
+      </c>
+      <c r="BC13">
+        <v>6</v>
+      </c>
+      <c r="BD13">
+        <v>1.69</v>
+      </c>
+      <c r="BE13">
+        <v>8.5</v>
+      </c>
+      <c r="BF13">
+        <v>2.53</v>
+      </c>
+      <c r="BG13">
+        <v>1.2</v>
+      </c>
+      <c r="BH13">
+        <v>3.95</v>
+      </c>
+      <c r="BI13">
+        <v>1.35</v>
+      </c>
+      <c r="BJ13">
+        <v>2.9</v>
+      </c>
+      <c r="BK13">
+        <v>1.57</v>
+      </c>
+      <c r="BL13">
+        <v>2.23</v>
+      </c>
+      <c r="BM13">
+        <v>1.91</v>
+      </c>
+      <c r="BN13">
+        <v>1.8</v>
+      </c>
+      <c r="BO13">
+        <v>2.38</v>
+      </c>
+      <c r="BP13">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="128">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -262,42 +262,42 @@
     <t>Exeter City</t>
   </si>
   <si>
+    <t>Shrewsbury Town</t>
+  </si>
+  <si>
+    <t>Charlton Athletic</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Rotherham United</t>
+  </si>
+  <si>
+    <t>Wycombe Wanderers</t>
+  </si>
+  <si>
+    <t>Northampton Town</t>
+  </si>
+  <si>
+    <t>Cambridge United</t>
+  </si>
+  <si>
+    <t>Lincoln City</t>
+  </si>
+  <si>
+    <t>Huddersfield Town</t>
+  </si>
+  <si>
+    <t>Blackpool</t>
+  </si>
+  <si>
     <t>Mansfield Town</t>
   </si>
   <si>
-    <t>Wycombe Wanderers</t>
-  </si>
-  <si>
-    <t>Charlton Athletic</t>
-  </si>
-  <si>
-    <t>Cambridge United</t>
-  </si>
-  <si>
-    <t>Huddersfield Town</t>
-  </si>
-  <si>
     <t>Bolton Wanderers</t>
   </si>
   <si>
-    <t>Shrewsbury Town</t>
-  </si>
-  <si>
-    <t>Blackpool</t>
-  </si>
-  <si>
-    <t>Lincoln City</t>
-  </si>
-  <si>
-    <t>Northampton Town</t>
-  </si>
-  <si>
-    <t>Reading</t>
-  </si>
-  <si>
-    <t>Rotherham United</t>
-  </si>
-  <si>
     <t>['32']</t>
   </si>
   <si>
@@ -331,6 +331,27 @@
     <t>['71']</t>
   </si>
   <si>
+    <t>['21']</t>
+  </si>
+  <si>
+    <t>['7', '57']</t>
+  </si>
+  <si>
+    <t>['22', '90']</t>
+  </si>
+  <si>
+    <t>['65', '77']</t>
+  </si>
+  <si>
+    <t>['70']</t>
+  </si>
+  <si>
+    <t>['26', '52']</t>
+  </si>
+  <si>
+    <t>['4', '45+1', '90+7']</t>
+  </si>
+  <si>
     <t>['13', '18']</t>
   </si>
   <si>
@@ -353,6 +374,30 @@
   </si>
   <si>
     <t>['42']</t>
+  </si>
+  <si>
+    <t>['23', '58', '87', '88']</t>
+  </si>
+  <si>
+    <t>['31', '68', '82']</t>
+  </si>
+  <si>
+    <t>['8']</t>
+  </si>
+  <si>
+    <t>['86']</t>
+  </si>
+  <si>
+    <t>['13', '47']</t>
+  </si>
+  <si>
+    <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['67', '84', '90+4']</t>
+  </si>
+  <si>
+    <t>['7', '69', '81']</t>
   </si>
 </sst>
 </file>
@@ -714,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP13"/>
+  <dimension ref="A1:BP24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -949,7 +994,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -973,7 +1018,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1155,7 +1200,7 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -1179,7 +1224,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1361,7 +1406,7 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -1385,7 +1430,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -1567,7 +1612,7 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1773,7 +1818,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1797,7 +1842,7 @@
         <v>96</v>
       </c>
       <c r="P6" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -1979,7 +2024,7 @@
         <v>75</v>
       </c>
       <c r="H7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -2003,7 +2048,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2185,7 +2230,7 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2391,7 +2436,7 @@
         <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -2415,7 +2460,7 @@
         <v>100</v>
       </c>
       <c r="P9" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2597,7 +2642,7 @@
         <v>78</v>
       </c>
       <c r="H10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -2621,7 +2666,7 @@
         <v>101</v>
       </c>
       <c r="P10" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -2803,7 +2848,7 @@
         <v>79</v>
       </c>
       <c r="H11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -3009,7 +3054,7 @@
         <v>80</v>
       </c>
       <c r="H12" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -3033,7 +3078,7 @@
         <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="Q12">
         <v>2.1</v>
@@ -3215,7 +3260,7 @@
         <v>81</v>
       </c>
       <c r="H13" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -3396,6 +3441,2272 @@
       </c>
       <c r="BP13">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:68">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>7477806</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E14" s="2">
+        <v>45521.35416666666</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>82</v>
+      </c>
+      <c r="H14" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>4</v>
+      </c>
+      <c r="N14">
+        <v>5</v>
+      </c>
+      <c r="O14" t="s">
+        <v>105</v>
+      </c>
+      <c r="P14" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q14">
+        <v>4</v>
+      </c>
+      <c r="R14">
+        <v>2.2</v>
+      </c>
+      <c r="S14">
+        <v>2.75</v>
+      </c>
+      <c r="T14">
+        <v>1.4</v>
+      </c>
+      <c r="U14">
+        <v>2.75</v>
+      </c>
+      <c r="V14">
+        <v>3</v>
+      </c>
+      <c r="W14">
+        <v>1.36</v>
+      </c>
+      <c r="X14">
+        <v>8</v>
+      </c>
+      <c r="Y14">
+        <v>1.08</v>
+      </c>
+      <c r="Z14">
+        <v>2.9</v>
+      </c>
+      <c r="AA14">
+        <v>3.11</v>
+      </c>
+      <c r="AB14">
+        <v>2.2</v>
+      </c>
+      <c r="AC14">
+        <v>1.02</v>
+      </c>
+      <c r="AD14">
+        <v>8.9</v>
+      </c>
+      <c r="AE14">
+        <v>1.28</v>
+      </c>
+      <c r="AF14">
+        <v>3.22</v>
+      </c>
+      <c r="AG14">
+        <v>1.98</v>
+      </c>
+      <c r="AH14">
+        <v>1.78</v>
+      </c>
+      <c r="AI14">
+        <v>1.8</v>
+      </c>
+      <c r="AJ14">
+        <v>1.95</v>
+      </c>
+      <c r="AK14">
+        <v>1.81</v>
+      </c>
+      <c r="AL14">
+        <v>1.3</v>
+      </c>
+      <c r="AM14">
+        <v>1.28</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>3</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>-1</v>
+      </c>
+      <c r="AV14">
+        <v>-1</v>
+      </c>
+      <c r="AW14">
+        <v>-1</v>
+      </c>
+      <c r="AX14">
+        <v>-1</v>
+      </c>
+      <c r="AY14">
+        <v>-1</v>
+      </c>
+      <c r="AZ14">
+        <v>-1</v>
+      </c>
+      <c r="BA14">
+        <v>-1</v>
+      </c>
+      <c r="BB14">
+        <v>-1</v>
+      </c>
+      <c r="BC14">
+        <v>-1</v>
+      </c>
+      <c r="BD14">
+        <v>2.4</v>
+      </c>
+      <c r="BE14">
+        <v>6.75</v>
+      </c>
+      <c r="BF14">
+        <v>1.6</v>
+      </c>
+      <c r="BG14">
+        <v>1.17</v>
+      </c>
+      <c r="BH14">
+        <v>4.3</v>
+      </c>
+      <c r="BI14">
+        <v>1.3</v>
+      </c>
+      <c r="BJ14">
+        <v>3.05</v>
+      </c>
+      <c r="BK14">
+        <v>1.5</v>
+      </c>
+      <c r="BL14">
+        <v>2.35</v>
+      </c>
+      <c r="BM14">
+        <v>1.8</v>
+      </c>
+      <c r="BN14">
+        <v>2</v>
+      </c>
+      <c r="BO14">
+        <v>2.23</v>
+      </c>
+      <c r="BP14">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:68">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>7477796</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45521.35416666666</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H15" t="s">
+        <v>75</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+      <c r="O15" t="s">
+        <v>102</v>
+      </c>
+      <c r="P15" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q15">
+        <v>2.5</v>
+      </c>
+      <c r="R15">
+        <v>2.2</v>
+      </c>
+      <c r="S15">
+        <v>4.5</v>
+      </c>
+      <c r="T15">
+        <v>1.4</v>
+      </c>
+      <c r="U15">
+        <v>2.75</v>
+      </c>
+      <c r="V15">
+        <v>2.75</v>
+      </c>
+      <c r="W15">
+        <v>1.4</v>
+      </c>
+      <c r="X15">
+        <v>8</v>
+      </c>
+      <c r="Y15">
+        <v>1.08</v>
+      </c>
+      <c r="Z15">
+        <v>1.94</v>
+      </c>
+      <c r="AA15">
+        <v>3.15</v>
+      </c>
+      <c r="AB15">
+        <v>3.47</v>
+      </c>
+      <c r="AC15">
+        <v>1.05</v>
+      </c>
+      <c r="AD15">
+        <v>9</v>
+      </c>
+      <c r="AE15">
+        <v>1.3</v>
+      </c>
+      <c r="AF15">
+        <v>3.35</v>
+      </c>
+      <c r="AG15">
+        <v>2</v>
+      </c>
+      <c r="AH15">
+        <v>1.8</v>
+      </c>
+      <c r="AI15">
+        <v>1.8</v>
+      </c>
+      <c r="AJ15">
+        <v>1.95</v>
+      </c>
+      <c r="AK15">
+        <v>1.22</v>
+      </c>
+      <c r="AL15">
+        <v>1.25</v>
+      </c>
+      <c r="AM15">
+        <v>1.85</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>3</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>-1</v>
+      </c>
+      <c r="AV15">
+        <v>-1</v>
+      </c>
+      <c r="AW15">
+        <v>-1</v>
+      </c>
+      <c r="AX15">
+        <v>-1</v>
+      </c>
+      <c r="AY15">
+        <v>-1</v>
+      </c>
+      <c r="AZ15">
+        <v>-1</v>
+      </c>
+      <c r="BA15">
+        <v>-1</v>
+      </c>
+      <c r="BB15">
+        <v>-1</v>
+      </c>
+      <c r="BC15">
+        <v>-1</v>
+      </c>
+      <c r="BD15">
+        <v>1.49</v>
+      </c>
+      <c r="BE15">
+        <v>6.75</v>
+      </c>
+      <c r="BF15">
+        <v>2.65</v>
+      </c>
+      <c r="BG15">
+        <v>1.24</v>
+      </c>
+      <c r="BH15">
+        <v>3.55</v>
+      </c>
+      <c r="BI15">
+        <v>1.43</v>
+      </c>
+      <c r="BJ15">
+        <v>2.6</v>
+      </c>
+      <c r="BK15">
+        <v>1.7</v>
+      </c>
+      <c r="BL15">
+        <v>2.02</v>
+      </c>
+      <c r="BM15">
+        <v>2.07</v>
+      </c>
+      <c r="BN15">
+        <v>1.66</v>
+      </c>
+      <c r="BO15">
+        <v>2.55</v>
+      </c>
+      <c r="BP15">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:68">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>7477804</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>69</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45521.45833333334</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>84</v>
+      </c>
+      <c r="H16" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="O16" t="s">
+        <v>106</v>
+      </c>
+      <c r="P16" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q16">
+        <v>2.88</v>
+      </c>
+      <c r="R16">
+        <v>2.2</v>
+      </c>
+      <c r="S16">
+        <v>3.75</v>
+      </c>
+      <c r="T16">
+        <v>1.4</v>
+      </c>
+      <c r="U16">
+        <v>2.75</v>
+      </c>
+      <c r="V16">
+        <v>2.75</v>
+      </c>
+      <c r="W16">
+        <v>1.4</v>
+      </c>
+      <c r="X16">
+        <v>8</v>
+      </c>
+      <c r="Y16">
+        <v>1.08</v>
+      </c>
+      <c r="Z16">
+        <v>2.15</v>
+      </c>
+      <c r="AA16">
+        <v>3.4</v>
+      </c>
+      <c r="AB16">
+        <v>3.1</v>
+      </c>
+      <c r="AC16">
+        <v>1.05</v>
+      </c>
+      <c r="AD16">
+        <v>9</v>
+      </c>
+      <c r="AE16">
+        <v>1.3</v>
+      </c>
+      <c r="AF16">
+        <v>3.35</v>
+      </c>
+      <c r="AG16">
+        <v>1.98</v>
+      </c>
+      <c r="AH16">
+        <v>1.88</v>
+      </c>
+      <c r="AI16">
+        <v>1.75</v>
+      </c>
+      <c r="AJ16">
+        <v>2</v>
+      </c>
+      <c r="AK16">
+        <v>1.35</v>
+      </c>
+      <c r="AL16">
+        <v>1.25</v>
+      </c>
+      <c r="AM16">
+        <v>1.65</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>3</v>
+      </c>
+      <c r="AQ16">
+        <v>0</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>0</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>9</v>
+      </c>
+      <c r="AV16">
+        <v>4</v>
+      </c>
+      <c r="AW16">
+        <v>8</v>
+      </c>
+      <c r="AX16">
+        <v>1</v>
+      </c>
+      <c r="AY16">
+        <v>17</v>
+      </c>
+      <c r="AZ16">
+        <v>5</v>
+      </c>
+      <c r="BA16">
+        <v>6</v>
+      </c>
+      <c r="BB16">
+        <v>5</v>
+      </c>
+      <c r="BC16">
+        <v>11</v>
+      </c>
+      <c r="BD16">
+        <v>1.73</v>
+      </c>
+      <c r="BE16">
+        <v>5.8</v>
+      </c>
+      <c r="BF16">
+        <v>2.25</v>
+      </c>
+      <c r="BG16">
+        <v>1.44</v>
+      </c>
+      <c r="BH16">
+        <v>2.55</v>
+      </c>
+      <c r="BI16">
+        <v>1.72</v>
+      </c>
+      <c r="BJ16">
+        <v>1.98</v>
+      </c>
+      <c r="BK16">
+        <v>1.95</v>
+      </c>
+      <c r="BL16">
+        <v>1.85</v>
+      </c>
+      <c r="BM16">
+        <v>2.8</v>
+      </c>
+      <c r="BN16">
+        <v>1.37</v>
+      </c>
+      <c r="BO16">
+        <v>3.8</v>
+      </c>
+      <c r="BP16">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:68">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>7479307</v>
+      </c>
+      <c r="C17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45521.45833333334</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17" t="s">
+        <v>96</v>
+      </c>
+      <c r="P17" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q17">
+        <v>2.75</v>
+      </c>
+      <c r="R17">
+        <v>2.1</v>
+      </c>
+      <c r="S17">
+        <v>4</v>
+      </c>
+      <c r="T17">
+        <v>1.4</v>
+      </c>
+      <c r="U17">
+        <v>2.75</v>
+      </c>
+      <c r="V17">
+        <v>3</v>
+      </c>
+      <c r="W17">
+        <v>1.36</v>
+      </c>
+      <c r="X17">
+        <v>8</v>
+      </c>
+      <c r="Y17">
+        <v>1.08</v>
+      </c>
+      <c r="Z17">
+        <v>1.83</v>
+      </c>
+      <c r="AA17">
+        <v>3.5</v>
+      </c>
+      <c r="AB17">
+        <v>4</v>
+      </c>
+      <c r="AC17">
+        <v>1.02</v>
+      </c>
+      <c r="AD17">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE17">
+        <v>1.28</v>
+      </c>
+      <c r="AF17">
+        <v>3.18</v>
+      </c>
+      <c r="AG17">
+        <v>2</v>
+      </c>
+      <c r="AH17">
+        <v>1.85</v>
+      </c>
+      <c r="AI17">
+        <v>1.8</v>
+      </c>
+      <c r="AJ17">
+        <v>1.95</v>
+      </c>
+      <c r="AK17">
+        <v>1.31</v>
+      </c>
+      <c r="AL17">
+        <v>1.31</v>
+      </c>
+      <c r="AM17">
+        <v>1.76</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>1</v>
+      </c>
+      <c r="AQ17">
+        <v>1</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>6</v>
+      </c>
+      <c r="AV17">
+        <v>2</v>
+      </c>
+      <c r="AW17">
+        <v>11</v>
+      </c>
+      <c r="AX17">
+        <v>3</v>
+      </c>
+      <c r="AY17">
+        <v>17</v>
+      </c>
+      <c r="AZ17">
+        <v>5</v>
+      </c>
+      <c r="BA17">
+        <v>5</v>
+      </c>
+      <c r="BB17">
+        <v>0</v>
+      </c>
+      <c r="BC17">
+        <v>5</v>
+      </c>
+      <c r="BD17">
+        <v>1.61</v>
+      </c>
+      <c r="BE17">
+        <v>6.5</v>
+      </c>
+      <c r="BF17">
+        <v>2.4</v>
+      </c>
+      <c r="BG17">
+        <v>1.24</v>
+      </c>
+      <c r="BH17">
+        <v>3.55</v>
+      </c>
+      <c r="BI17">
+        <v>1.41</v>
+      </c>
+      <c r="BJ17">
+        <v>2.65</v>
+      </c>
+      <c r="BK17">
+        <v>1.66</v>
+      </c>
+      <c r="BL17">
+        <v>2.05</v>
+      </c>
+      <c r="BM17">
+        <v>2</v>
+      </c>
+      <c r="BN17">
+        <v>1.8</v>
+      </c>
+      <c r="BO17">
+        <v>2.55</v>
+      </c>
+      <c r="BP17">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:68">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>7477807</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45521.45833333334</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>86</v>
+      </c>
+      <c r="H18" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>2</v>
+      </c>
+      <c r="M18">
+        <v>3</v>
+      </c>
+      <c r="N18">
+        <v>5</v>
+      </c>
+      <c r="O18" t="s">
+        <v>107</v>
+      </c>
+      <c r="P18" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q18">
+        <v>4.33</v>
+      </c>
+      <c r="R18">
+        <v>2.1</v>
+      </c>
+      <c r="S18">
+        <v>2.63</v>
+      </c>
+      <c r="T18">
+        <v>1.4</v>
+      </c>
+      <c r="U18">
+        <v>2.75</v>
+      </c>
+      <c r="V18">
+        <v>3</v>
+      </c>
+      <c r="W18">
+        <v>1.36</v>
+      </c>
+      <c r="X18">
+        <v>8</v>
+      </c>
+      <c r="Y18">
+        <v>1.08</v>
+      </c>
+      <c r="Z18">
+        <v>3.3</v>
+      </c>
+      <c r="AA18">
+        <v>3.04</v>
+      </c>
+      <c r="AB18">
+        <v>1.93</v>
+      </c>
+      <c r="AC18">
+        <v>1.03</v>
+      </c>
+      <c r="AD18">
+        <v>9</v>
+      </c>
+      <c r="AE18">
+        <v>1.3</v>
+      </c>
+      <c r="AF18">
+        <v>3.2</v>
+      </c>
+      <c r="AG18">
+        <v>1.98</v>
+      </c>
+      <c r="AH18">
+        <v>1.78</v>
+      </c>
+      <c r="AI18">
+        <v>1.8</v>
+      </c>
+      <c r="AJ18">
+        <v>1.95</v>
+      </c>
+      <c r="AK18">
+        <v>1.78</v>
+      </c>
+      <c r="AL18">
+        <v>1.3</v>
+      </c>
+      <c r="AM18">
+        <v>1.3</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>0</v>
+      </c>
+      <c r="AQ18">
+        <v>3</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>3</v>
+      </c>
+      <c r="AV18">
+        <v>8</v>
+      </c>
+      <c r="AW18">
+        <v>5</v>
+      </c>
+      <c r="AX18">
+        <v>1</v>
+      </c>
+      <c r="AY18">
+        <v>8</v>
+      </c>
+      <c r="AZ18">
+        <v>9</v>
+      </c>
+      <c r="BA18">
+        <v>1</v>
+      </c>
+      <c r="BB18">
+        <v>9</v>
+      </c>
+      <c r="BC18">
+        <v>10</v>
+      </c>
+      <c r="BD18">
+        <v>2.4</v>
+      </c>
+      <c r="BE18">
+        <v>6.4</v>
+      </c>
+      <c r="BF18">
+        <v>1.63</v>
+      </c>
+      <c r="BG18">
+        <v>1.26</v>
+      </c>
+      <c r="BH18">
+        <v>3.4</v>
+      </c>
+      <c r="BI18">
+        <v>1.47</v>
+      </c>
+      <c r="BJ18">
+        <v>2.48</v>
+      </c>
+      <c r="BK18">
+        <v>1.75</v>
+      </c>
+      <c r="BL18">
+        <v>1.95</v>
+      </c>
+      <c r="BM18">
+        <v>2</v>
+      </c>
+      <c r="BN18">
+        <v>1.8</v>
+      </c>
+      <c r="BO18">
+        <v>2.8</v>
+      </c>
+      <c r="BP18">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:68">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>7477802</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45521.45833333334</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>3</v>
+      </c>
+      <c r="O19" t="s">
+        <v>108</v>
+      </c>
+      <c r="P19" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q19">
+        <v>3.25</v>
+      </c>
+      <c r="R19">
+        <v>2.05</v>
+      </c>
+      <c r="S19">
+        <v>3.4</v>
+      </c>
+      <c r="T19">
+        <v>1.44</v>
+      </c>
+      <c r="U19">
+        <v>2.63</v>
+      </c>
+      <c r="V19">
+        <v>3.25</v>
+      </c>
+      <c r="W19">
+        <v>1.33</v>
+      </c>
+      <c r="X19">
+        <v>9</v>
+      </c>
+      <c r="Y19">
+        <v>1.07</v>
+      </c>
+      <c r="Z19">
+        <v>2.15</v>
+      </c>
+      <c r="AA19">
+        <v>3.3</v>
+      </c>
+      <c r="AB19">
+        <v>3.2</v>
+      </c>
+      <c r="AC19">
+        <v>1.07</v>
+      </c>
+      <c r="AD19">
+        <v>8</v>
+      </c>
+      <c r="AE19">
+        <v>1.38</v>
+      </c>
+      <c r="AF19">
+        <v>3</v>
+      </c>
+      <c r="AG19">
+        <v>2.08</v>
+      </c>
+      <c r="AH19">
+        <v>1.65</v>
+      </c>
+      <c r="AI19">
+        <v>1.8</v>
+      </c>
+      <c r="AJ19">
+        <v>1.95</v>
+      </c>
+      <c r="AK19">
+        <v>1.44</v>
+      </c>
+      <c r="AL19">
+        <v>1.3</v>
+      </c>
+      <c r="AM19">
+        <v>1.48</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>3</v>
+      </c>
+      <c r="AQ19">
+        <v>0</v>
+      </c>
+      <c r="AR19">
+        <v>0</v>
+      </c>
+      <c r="AS19">
+        <v>0</v>
+      </c>
+      <c r="AT19">
+        <v>0</v>
+      </c>
+      <c r="AU19">
+        <v>7</v>
+      </c>
+      <c r="AV19">
+        <v>6</v>
+      </c>
+      <c r="AW19">
+        <v>3</v>
+      </c>
+      <c r="AX19">
+        <v>4</v>
+      </c>
+      <c r="AY19">
+        <v>10</v>
+      </c>
+      <c r="AZ19">
+        <v>10</v>
+      </c>
+      <c r="BA19">
+        <v>3</v>
+      </c>
+      <c r="BB19">
+        <v>8</v>
+      </c>
+      <c r="BC19">
+        <v>11</v>
+      </c>
+      <c r="BD19">
+        <v>1.9</v>
+      </c>
+      <c r="BE19">
+        <v>6.4</v>
+      </c>
+      <c r="BF19">
+        <v>1.98</v>
+      </c>
+      <c r="BG19">
+        <v>1.26</v>
+      </c>
+      <c r="BH19">
+        <v>3.4</v>
+      </c>
+      <c r="BI19">
+        <v>1.46</v>
+      </c>
+      <c r="BJ19">
+        <v>2.5</v>
+      </c>
+      <c r="BK19">
+        <v>1.72</v>
+      </c>
+      <c r="BL19">
+        <v>1.98</v>
+      </c>
+      <c r="BM19">
+        <v>2.12</v>
+      </c>
+      <c r="BN19">
+        <v>1.63</v>
+      </c>
+      <c r="BO19">
+        <v>2.7</v>
+      </c>
+      <c r="BP19">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:68">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>7477794</v>
+      </c>
+      <c r="C20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45521.45833333334</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>88</v>
+      </c>
+      <c r="H20" t="s">
+        <v>77</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20" t="s">
+        <v>96</v>
+      </c>
+      <c r="P20" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q20">
+        <v>2.88</v>
+      </c>
+      <c r="R20">
+        <v>2.1</v>
+      </c>
+      <c r="S20">
+        <v>4</v>
+      </c>
+      <c r="T20">
+        <v>1.4</v>
+      </c>
+      <c r="U20">
+        <v>2.75</v>
+      </c>
+      <c r="V20">
+        <v>3</v>
+      </c>
+      <c r="W20">
+        <v>1.36</v>
+      </c>
+      <c r="X20">
+        <v>9</v>
+      </c>
+      <c r="Y20">
+        <v>1.07</v>
+      </c>
+      <c r="Z20">
+        <v>1.95</v>
+      </c>
+      <c r="AA20">
+        <v>3.4</v>
+      </c>
+      <c r="AB20">
+        <v>3.6</v>
+      </c>
+      <c r="AC20">
+        <v>1.02</v>
+      </c>
+      <c r="AD20">
+        <v>8.6</v>
+      </c>
+      <c r="AE20">
+        <v>1.3</v>
+      </c>
+      <c r="AF20">
+        <v>3.1</v>
+      </c>
+      <c r="AG20">
+        <v>2.03</v>
+      </c>
+      <c r="AH20">
+        <v>1.83</v>
+      </c>
+      <c r="AI20">
+        <v>1.8</v>
+      </c>
+      <c r="AJ20">
+        <v>1.95</v>
+      </c>
+      <c r="AK20">
+        <v>1.36</v>
+      </c>
+      <c r="AL20">
+        <v>1.25</v>
+      </c>
+      <c r="AM20">
+        <v>1.68</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>0</v>
+      </c>
+      <c r="AQ20">
+        <v>3</v>
+      </c>
+      <c r="AR20">
+        <v>0</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>0</v>
+      </c>
+      <c r="AU20">
+        <v>7</v>
+      </c>
+      <c r="AV20">
+        <v>4</v>
+      </c>
+      <c r="AW20">
+        <v>6</v>
+      </c>
+      <c r="AX20">
+        <v>4</v>
+      </c>
+      <c r="AY20">
+        <v>13</v>
+      </c>
+      <c r="AZ20">
+        <v>8</v>
+      </c>
+      <c r="BA20">
+        <v>2</v>
+      </c>
+      <c r="BB20">
+        <v>5</v>
+      </c>
+      <c r="BC20">
+        <v>7</v>
+      </c>
+      <c r="BD20">
+        <v>1.65</v>
+      </c>
+      <c r="BE20">
+        <v>6.1</v>
+      </c>
+      <c r="BF20">
+        <v>2.38</v>
+      </c>
+      <c r="BG20">
+        <v>1.38</v>
+      </c>
+      <c r="BH20">
+        <v>2.7</v>
+      </c>
+      <c r="BI20">
+        <v>1.65</v>
+      </c>
+      <c r="BJ20">
+        <v>2.08</v>
+      </c>
+      <c r="BK20">
+        <v>2.05</v>
+      </c>
+      <c r="BL20">
+        <v>1.67</v>
+      </c>
+      <c r="BM20">
+        <v>2.65</v>
+      </c>
+      <c r="BN20">
+        <v>1.41</v>
+      </c>
+      <c r="BO20">
+        <v>3.45</v>
+      </c>
+      <c r="BP20">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:68">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>7477799</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45521.45833333334</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>89</v>
+      </c>
+      <c r="H21" t="s">
+        <v>70</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2</v>
+      </c>
+      <c r="N21">
+        <v>3</v>
+      </c>
+      <c r="O21" t="s">
+        <v>109</v>
+      </c>
+      <c r="P21" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q21">
+        <v>2.75</v>
+      </c>
+      <c r="R21">
+        <v>2.2</v>
+      </c>
+      <c r="S21">
+        <v>3.75</v>
+      </c>
+      <c r="T21">
+        <v>1.4</v>
+      </c>
+      <c r="U21">
+        <v>2.75</v>
+      </c>
+      <c r="V21">
+        <v>2.75</v>
+      </c>
+      <c r="W21">
+        <v>1.4</v>
+      </c>
+      <c r="X21">
+        <v>8</v>
+      </c>
+      <c r="Y21">
+        <v>1.08</v>
+      </c>
+      <c r="Z21">
+        <v>2.15</v>
+      </c>
+      <c r="AA21">
+        <v>3.4</v>
+      </c>
+      <c r="AB21">
+        <v>3.1</v>
+      </c>
+      <c r="AC21">
+        <v>1.06</v>
+      </c>
+      <c r="AD21">
+        <v>8.5</v>
+      </c>
+      <c r="AE21">
+        <v>1.3</v>
+      </c>
+      <c r="AF21">
+        <v>3.35</v>
+      </c>
+      <c r="AG21">
+        <v>1.98</v>
+      </c>
+      <c r="AH21">
+        <v>1.88</v>
+      </c>
+      <c r="AI21">
+        <v>1.75</v>
+      </c>
+      <c r="AJ21">
+        <v>2</v>
+      </c>
+      <c r="AK21">
+        <v>1.3</v>
+      </c>
+      <c r="AL21">
+        <v>1.25</v>
+      </c>
+      <c r="AM21">
+        <v>1.7</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>0</v>
+      </c>
+      <c r="AQ21">
+        <v>3</v>
+      </c>
+      <c r="AR21">
+        <v>0</v>
+      </c>
+      <c r="AS21">
+        <v>0</v>
+      </c>
+      <c r="AT21">
+        <v>0</v>
+      </c>
+      <c r="AU21">
+        <v>9</v>
+      </c>
+      <c r="AV21">
+        <v>4</v>
+      </c>
+      <c r="AW21">
+        <v>6</v>
+      </c>
+      <c r="AX21">
+        <v>2</v>
+      </c>
+      <c r="AY21">
+        <v>15</v>
+      </c>
+      <c r="AZ21">
+        <v>6</v>
+      </c>
+      <c r="BA21">
+        <v>4</v>
+      </c>
+      <c r="BB21">
+        <v>7</v>
+      </c>
+      <c r="BC21">
+        <v>11</v>
+      </c>
+      <c r="BD21">
+        <v>1.55</v>
+      </c>
+      <c r="BE21">
+        <v>8</v>
+      </c>
+      <c r="BF21">
+        <v>2.93</v>
+      </c>
+      <c r="BG21">
+        <v>1.25</v>
+      </c>
+      <c r="BH21">
+        <v>3.45</v>
+      </c>
+      <c r="BI21">
+        <v>1.44</v>
+      </c>
+      <c r="BJ21">
+        <v>2.55</v>
+      </c>
+      <c r="BK21">
+        <v>1.73</v>
+      </c>
+      <c r="BL21">
+        <v>1.97</v>
+      </c>
+      <c r="BM21">
+        <v>2.15</v>
+      </c>
+      <c r="BN21">
+        <v>1.61</v>
+      </c>
+      <c r="BO21">
+        <v>2.75</v>
+      </c>
+      <c r="BP21">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:68">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>7477797</v>
+      </c>
+      <c r="C22" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45521.45833333334</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22" t="s">
+        <v>90</v>
+      </c>
+      <c r="H22" t="s">
+        <v>76</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>3</v>
+      </c>
+      <c r="O22" t="s">
+        <v>110</v>
+      </c>
+      <c r="P22" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q22">
+        <v>2.3</v>
+      </c>
+      <c r="R22">
+        <v>2.2</v>
+      </c>
+      <c r="S22">
+        <v>5.5</v>
+      </c>
+      <c r="T22">
+        <v>1.4</v>
+      </c>
+      <c r="U22">
+        <v>2.75</v>
+      </c>
+      <c r="V22">
+        <v>3</v>
+      </c>
+      <c r="W22">
+        <v>1.36</v>
+      </c>
+      <c r="X22">
+        <v>9</v>
+      </c>
+      <c r="Y22">
+        <v>1.07</v>
+      </c>
+      <c r="Z22">
+        <v>1.77</v>
+      </c>
+      <c r="AA22">
+        <v>3.25</v>
+      </c>
+      <c r="AB22">
+        <v>4.03</v>
+      </c>
+      <c r="AC22">
+        <v>1.06</v>
+      </c>
+      <c r="AD22">
+        <v>10</v>
+      </c>
+      <c r="AE22">
+        <v>1.33</v>
+      </c>
+      <c r="AF22">
+        <v>3.4</v>
+      </c>
+      <c r="AG22">
+        <v>2.02</v>
+      </c>
+      <c r="AH22">
+        <v>1.71</v>
+      </c>
+      <c r="AI22">
+        <v>1.95</v>
+      </c>
+      <c r="AJ22">
+        <v>1.8</v>
+      </c>
+      <c r="AK22">
+        <v>1.17</v>
+      </c>
+      <c r="AL22">
+        <v>1.25</v>
+      </c>
+      <c r="AM22">
+        <v>2.1</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>3</v>
+      </c>
+      <c r="AQ22">
+        <v>0</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>0</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <v>5</v>
+      </c>
+      <c r="AV22">
+        <v>4</v>
+      </c>
+      <c r="AW22">
+        <v>4</v>
+      </c>
+      <c r="AX22">
+        <v>2</v>
+      </c>
+      <c r="AY22">
+        <v>9</v>
+      </c>
+      <c r="AZ22">
+        <v>6</v>
+      </c>
+      <c r="BA22">
+        <v>8</v>
+      </c>
+      <c r="BB22">
+        <v>4</v>
+      </c>
+      <c r="BC22">
+        <v>12</v>
+      </c>
+      <c r="BD22">
+        <v>1.48</v>
+      </c>
+      <c r="BE22">
+        <v>6.75</v>
+      </c>
+      <c r="BF22">
+        <v>2.7</v>
+      </c>
+      <c r="BG22">
+        <v>1.3</v>
+      </c>
+      <c r="BH22">
+        <v>3.05</v>
+      </c>
+      <c r="BI22">
+        <v>1.52</v>
+      </c>
+      <c r="BJ22">
+        <v>2.32</v>
+      </c>
+      <c r="BK22">
+        <v>1.83</v>
+      </c>
+      <c r="BL22">
+        <v>1.85</v>
+      </c>
+      <c r="BM22">
+        <v>2.3</v>
+      </c>
+      <c r="BN22">
+        <v>1.54</v>
+      </c>
+      <c r="BO22">
+        <v>2.9</v>
+      </c>
+      <c r="BP22">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:68">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>7477791</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45521.45833333334</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>91</v>
+      </c>
+      <c r="H23" t="s">
+        <v>73</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>3</v>
+      </c>
+      <c r="N23">
+        <v>3</v>
+      </c>
+      <c r="O23" t="s">
+        <v>96</v>
+      </c>
+      <c r="P23" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q23">
+        <v>2.75</v>
+      </c>
+      <c r="R23">
+        <v>2.2</v>
+      </c>
+      <c r="S23">
+        <v>4</v>
+      </c>
+      <c r="T23">
+        <v>1.4</v>
+      </c>
+      <c r="U23">
+        <v>2.75</v>
+      </c>
+      <c r="V23">
+        <v>2.75</v>
+      </c>
+      <c r="W23">
+        <v>1.4</v>
+      </c>
+      <c r="X23">
+        <v>8</v>
+      </c>
+      <c r="Y23">
+        <v>1.08</v>
+      </c>
+      <c r="Z23">
+        <v>2.23</v>
+      </c>
+      <c r="AA23">
+        <v>3.13</v>
+      </c>
+      <c r="AB23">
+        <v>2.82</v>
+      </c>
+      <c r="AC23">
+        <v>1.01</v>
+      </c>
+      <c r="AD23">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE23">
+        <v>1.26</v>
+      </c>
+      <c r="AF23">
+        <v>3.34</v>
+      </c>
+      <c r="AG23">
+        <v>1.93</v>
+      </c>
+      <c r="AH23">
+        <v>1.83</v>
+      </c>
+      <c r="AI23">
+        <v>1.75</v>
+      </c>
+      <c r="AJ23">
+        <v>2</v>
+      </c>
+      <c r="AK23">
+        <v>1.33</v>
+      </c>
+      <c r="AL23">
+        <v>1.25</v>
+      </c>
+      <c r="AM23">
+        <v>1.72</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>0</v>
+      </c>
+      <c r="AQ23">
+        <v>3</v>
+      </c>
+      <c r="AR23">
+        <v>0</v>
+      </c>
+      <c r="AS23">
+        <v>0</v>
+      </c>
+      <c r="AT23">
+        <v>0</v>
+      </c>
+      <c r="AU23">
+        <v>0</v>
+      </c>
+      <c r="AV23">
+        <v>6</v>
+      </c>
+      <c r="AW23">
+        <v>4</v>
+      </c>
+      <c r="AX23">
+        <v>3</v>
+      </c>
+      <c r="AY23">
+        <v>4</v>
+      </c>
+      <c r="AZ23">
+        <v>9</v>
+      </c>
+      <c r="BA23">
+        <v>3</v>
+      </c>
+      <c r="BB23">
+        <v>2</v>
+      </c>
+      <c r="BC23">
+        <v>5</v>
+      </c>
+      <c r="BD23">
+        <v>1.74</v>
+      </c>
+      <c r="BE23">
+        <v>6.25</v>
+      </c>
+      <c r="BF23">
+        <v>2.2</v>
+      </c>
+      <c r="BG23">
+        <v>1.3</v>
+      </c>
+      <c r="BH23">
+        <v>3.05</v>
+      </c>
+      <c r="BI23">
+        <v>1.55</v>
+      </c>
+      <c r="BJ23">
+        <v>2.28</v>
+      </c>
+      <c r="BK23">
+        <v>1.8</v>
+      </c>
+      <c r="BL23">
+        <v>2</v>
+      </c>
+      <c r="BM23">
+        <v>2.35</v>
+      </c>
+      <c r="BN23">
+        <v>1.5</v>
+      </c>
+      <c r="BO23">
+        <v>3.05</v>
+      </c>
+      <c r="BP23">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:68">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>7477801</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45521.45833333334</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" t="s">
+        <v>78</v>
+      </c>
+      <c r="I24">
+        <v>2</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>3</v>
+      </c>
+      <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="N24">
+        <v>6</v>
+      </c>
+      <c r="O24" t="s">
+        <v>111</v>
+      </c>
+      <c r="P24" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q24">
+        <v>2.5</v>
+      </c>
+      <c r="R24">
+        <v>2.25</v>
+      </c>
+      <c r="S24">
+        <v>4.33</v>
+      </c>
+      <c r="T24">
+        <v>1.36</v>
+      </c>
+      <c r="U24">
+        <v>3</v>
+      </c>
+      <c r="V24">
+        <v>2.63</v>
+      </c>
+      <c r="W24">
+        <v>1.44</v>
+      </c>
+      <c r="X24">
+        <v>7</v>
+      </c>
+      <c r="Y24">
+        <v>1.1</v>
+      </c>
+      <c r="Z24">
+        <v>2.1</v>
+      </c>
+      <c r="AA24">
+        <v>3.4</v>
+      </c>
+      <c r="AB24">
+        <v>3.2</v>
+      </c>
+      <c r="AC24">
+        <v>1.01</v>
+      </c>
+      <c r="AD24">
+        <v>10</v>
+      </c>
+      <c r="AE24">
+        <v>1.22</v>
+      </c>
+      <c r="AF24">
+        <v>3.64</v>
+      </c>
+      <c r="AG24">
+        <v>1.98</v>
+      </c>
+      <c r="AH24">
+        <v>1.88</v>
+      </c>
+      <c r="AI24">
+        <v>1.75</v>
+      </c>
+      <c r="AJ24">
+        <v>2</v>
+      </c>
+      <c r="AK24">
+        <v>1.25</v>
+      </c>
+      <c r="AL24">
+        <v>1.27</v>
+      </c>
+      <c r="AM24">
+        <v>1.94</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>1</v>
+      </c>
+      <c r="AQ24">
+        <v>1</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>0</v>
+      </c>
+      <c r="AT24">
+        <v>0</v>
+      </c>
+      <c r="AU24">
+        <v>8</v>
+      </c>
+      <c r="AV24">
+        <v>8</v>
+      </c>
+      <c r="AW24">
+        <v>5</v>
+      </c>
+      <c r="AX24">
+        <v>7</v>
+      </c>
+      <c r="AY24">
+        <v>13</v>
+      </c>
+      <c r="AZ24">
+        <v>15</v>
+      </c>
+      <c r="BA24">
+        <v>5</v>
+      </c>
+      <c r="BB24">
+        <v>3</v>
+      </c>
+      <c r="BC24">
+        <v>8</v>
+      </c>
+      <c r="BD24">
+        <v>1.5</v>
+      </c>
+      <c r="BE24">
+        <v>6.5</v>
+      </c>
+      <c r="BF24">
+        <v>2.65</v>
+      </c>
+      <c r="BG24">
+        <v>1.3</v>
+      </c>
+      <c r="BH24">
+        <v>3.15</v>
+      </c>
+      <c r="BI24">
+        <v>1.52</v>
+      </c>
+      <c r="BJ24">
+        <v>2.33</v>
+      </c>
+      <c r="BK24">
+        <v>1.83</v>
+      </c>
+      <c r="BL24">
+        <v>1.85</v>
+      </c>
+      <c r="BM24">
+        <v>2.3</v>
+      </c>
+      <c r="BN24">
+        <v>1.54</v>
+      </c>
+      <c r="BO24">
+        <v>2.95</v>
+      </c>
+      <c r="BP24">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="128">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -759,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP24"/>
+  <dimension ref="A1:BP25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3583,31 +3583,31 @@
         <v>0</v>
       </c>
       <c r="AU14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV14">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AW14">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX14">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AZ14">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BA14">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB14">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BC14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD14">
         <v>2.4</v>
@@ -3789,31 +3789,31 @@
         <v>0</v>
       </c>
       <c r="AU15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV15">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW15">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX15">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AZ15">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BA15">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BB15">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BC15">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD15">
         <v>1.49</v>
@@ -5707,6 +5707,212 @@
       </c>
       <c r="BP24">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:68">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>7477793</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45522.45833333334</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25" t="s">
+        <v>93</v>
+      </c>
+      <c r="H25" t="s">
+        <v>71</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25" t="s">
+        <v>96</v>
+      </c>
+      <c r="P25" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q25">
+        <v>2.63</v>
+      </c>
+      <c r="R25">
+        <v>2.2</v>
+      </c>
+      <c r="S25">
+        <v>4</v>
+      </c>
+      <c r="T25">
+        <v>1.36</v>
+      </c>
+      <c r="U25">
+        <v>3</v>
+      </c>
+      <c r="V25">
+        <v>2.75</v>
+      </c>
+      <c r="W25">
+        <v>1.4</v>
+      </c>
+      <c r="X25">
+        <v>7</v>
+      </c>
+      <c r="Y25">
+        <v>1.1</v>
+      </c>
+      <c r="Z25">
+        <v>2.02</v>
+      </c>
+      <c r="AA25">
+        <v>3.65</v>
+      </c>
+      <c r="AB25">
+        <v>3.4</v>
+      </c>
+      <c r="AC25">
+        <v>1.01</v>
+      </c>
+      <c r="AD25">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE25">
+        <v>1.24</v>
+      </c>
+      <c r="AF25">
+        <v>3.5</v>
+      </c>
+      <c r="AG25">
+        <v>1.77</v>
+      </c>
+      <c r="AH25">
+        <v>1.93</v>
+      </c>
+      <c r="AI25">
+        <v>1.7</v>
+      </c>
+      <c r="AJ25">
+        <v>2.05</v>
+      </c>
+      <c r="AK25">
+        <v>1.28</v>
+      </c>
+      <c r="AL25">
+        <v>1.25</v>
+      </c>
+      <c r="AM25">
+        <v>1.85</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>1</v>
+      </c>
+      <c r="AQ25">
+        <v>1</v>
+      </c>
+      <c r="AR25">
+        <v>0</v>
+      </c>
+      <c r="AS25">
+        <v>0</v>
+      </c>
+      <c r="AT25">
+        <v>0</v>
+      </c>
+      <c r="AU25">
+        <v>9</v>
+      </c>
+      <c r="AV25">
+        <v>3</v>
+      </c>
+      <c r="AW25">
+        <v>3</v>
+      </c>
+      <c r="AX25">
+        <v>4</v>
+      </c>
+      <c r="AY25">
+        <v>12</v>
+      </c>
+      <c r="AZ25">
+        <v>7</v>
+      </c>
+      <c r="BA25">
+        <v>8</v>
+      </c>
+      <c r="BB25">
+        <v>8</v>
+      </c>
+      <c r="BC25">
+        <v>16</v>
+      </c>
+      <c r="BD25">
+        <v>1.64</v>
+      </c>
+      <c r="BE25">
+        <v>6.75</v>
+      </c>
+      <c r="BF25">
+        <v>2.33</v>
+      </c>
+      <c r="BG25">
+        <v>1.21</v>
+      </c>
+      <c r="BH25">
+        <v>3.8</v>
+      </c>
+      <c r="BI25">
+        <v>1.38</v>
+      </c>
+      <c r="BJ25">
+        <v>2.75</v>
+      </c>
+      <c r="BK25">
+        <v>1.62</v>
+      </c>
+      <c r="BL25">
+        <v>2.14</v>
+      </c>
+      <c r="BM25">
+        <v>1.98</v>
+      </c>
+      <c r="BN25">
+        <v>1.82</v>
+      </c>
+      <c r="BO25">
+        <v>2.45</v>
+      </c>
+      <c r="BP25">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="144">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -352,6 +352,39 @@
     <t>['4', '45+1', '90+7']</t>
   </si>
   <si>
+    <t>['39', '64']</t>
+  </si>
+  <si>
+    <t>['70', '87']</t>
+  </si>
+  <si>
+    <t>['23', '33', '49']</t>
+  </si>
+  <si>
+    <t>['29', '45+2', '47', '51']</t>
+  </si>
+  <si>
+    <t>['30']</t>
+  </si>
+  <si>
+    <t>['20']</t>
+  </si>
+  <si>
+    <t>['4']</t>
+  </si>
+  <si>
+    <t>['26', '46']</t>
+  </si>
+  <si>
+    <t>['10', '88']</t>
+  </si>
+  <si>
+    <t>['28', '59', '72', '75']</t>
+  </si>
+  <si>
+    <t>['14']</t>
+  </si>
+  <si>
     <t>['13', '18']</t>
   </si>
   <si>
@@ -398,6 +431,21 @@
   </si>
   <si>
     <t>['7', '69', '81']</t>
+  </si>
+  <si>
+    <t>['69']</t>
+  </si>
+  <si>
+    <t>['7', '45']</t>
+  </si>
+  <si>
+    <t>['73', '78']</t>
+  </si>
+  <si>
+    <t>['5', '38', '39', '53']</t>
+  </si>
+  <si>
+    <t>['7', '20']</t>
   </si>
 </sst>
 </file>
@@ -759,7 +807,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP25"/>
+  <dimension ref="A1:BP37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1018,7 +1066,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1096,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ2">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1224,7 +1272,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1430,7 +1478,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -1508,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ4">
         <v>3</v>
@@ -1842,7 +1890,7 @@
         <v>96</v>
       </c>
       <c r="P6" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2048,7 +2096,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2129,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="AQ7">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2460,7 +2508,7 @@
         <v>100</v>
       </c>
       <c r="P9" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2541,7 +2589,7 @@
         <v>3</v>
       </c>
       <c r="AQ9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2666,7 +2714,7 @@
         <v>101</v>
       </c>
       <c r="P10" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -2744,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ10">
         <v>3</v>
@@ -2953,7 +3001,7 @@
         <v>3</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3078,7 +3126,7 @@
         <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="Q12">
         <v>2.1</v>
@@ -3159,7 +3207,7 @@
         <v>1</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3362,7 +3410,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13">
         <v>0</v>
@@ -3490,7 +3538,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4189,7 +4237,7 @@
         <v>1</v>
       </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4314,7 +4362,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4392,7 +4440,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ18">
         <v>3</v>
@@ -4520,7 +4568,7 @@
         <v>108</v>
       </c>
       <c r="P19" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="Q19">
         <v>3.25</v>
@@ -4726,7 +4774,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -4804,10 +4852,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ20">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -4932,7 +4980,7 @@
         <v>109</v>
       </c>
       <c r="P21" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5010,7 +5058,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ21">
         <v>3</v>
@@ -5138,7 +5186,7 @@
         <v>110</v>
       </c>
       <c r="P22" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -5219,7 +5267,7 @@
         <v>3</v>
       </c>
       <c r="AQ22">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5344,7 +5392,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="Q23">
         <v>2.75</v>
@@ -5550,7 +5598,7 @@
         <v>111</v>
       </c>
       <c r="P24" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -5913,6 +5961,2478 @@
       </c>
       <c r="BP25">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:68">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>7477819</v>
+      </c>
+      <c r="C26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45528.35416666666</v>
+      </c>
+      <c r="F26">
+        <v>3</v>
+      </c>
+      <c r="G26" t="s">
+        <v>73</v>
+      </c>
+      <c r="H26" t="s">
+        <v>79</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>2</v>
+      </c>
+      <c r="O26" t="s">
+        <v>112</v>
+      </c>
+      <c r="P26" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q26">
+        <v>2.5</v>
+      </c>
+      <c r="R26">
+        <v>2.2</v>
+      </c>
+      <c r="S26">
+        <v>4.5</v>
+      </c>
+      <c r="T26">
+        <v>1.4</v>
+      </c>
+      <c r="U26">
+        <v>2.75</v>
+      </c>
+      <c r="V26">
+        <v>2.75</v>
+      </c>
+      <c r="W26">
+        <v>1.4</v>
+      </c>
+      <c r="X26">
+        <v>8</v>
+      </c>
+      <c r="Y26">
+        <v>1.08</v>
+      </c>
+      <c r="Z26">
+        <v>1.73</v>
+      </c>
+      <c r="AA26">
+        <v>3.55</v>
+      </c>
+      <c r="AB26">
+        <v>4.4</v>
+      </c>
+      <c r="AC26">
+        <v>1.06</v>
+      </c>
+      <c r="AD26">
+        <v>8.5</v>
+      </c>
+      <c r="AE26">
+        <v>1.3</v>
+      </c>
+      <c r="AF26">
+        <v>3.35</v>
+      </c>
+      <c r="AG26">
+        <v>1.97</v>
+      </c>
+      <c r="AH26">
+        <v>1.79</v>
+      </c>
+      <c r="AI26">
+        <v>1.8</v>
+      </c>
+      <c r="AJ26">
+        <v>1.95</v>
+      </c>
+      <c r="AK26">
+        <v>1.22</v>
+      </c>
+      <c r="AL26">
+        <v>1.25</v>
+      </c>
+      <c r="AM26">
+        <v>1.9</v>
+      </c>
+      <c r="AN26">
+        <v>3</v>
+      </c>
+      <c r="AO26">
+        <v>1</v>
+      </c>
+      <c r="AP26">
+        <v>3</v>
+      </c>
+      <c r="AQ26">
+        <v>0.5</v>
+      </c>
+      <c r="AR26">
+        <v>2.06</v>
+      </c>
+      <c r="AS26">
+        <v>0.68</v>
+      </c>
+      <c r="AT26">
+        <v>2.74</v>
+      </c>
+      <c r="AU26">
+        <v>-1</v>
+      </c>
+      <c r="AV26">
+        <v>-1</v>
+      </c>
+      <c r="AW26">
+        <v>-1</v>
+      </c>
+      <c r="AX26">
+        <v>-1</v>
+      </c>
+      <c r="AY26">
+        <v>-1</v>
+      </c>
+      <c r="AZ26">
+        <v>-1</v>
+      </c>
+      <c r="BA26">
+        <v>-1</v>
+      </c>
+      <c r="BB26">
+        <v>-1</v>
+      </c>
+      <c r="BC26">
+        <v>-1</v>
+      </c>
+      <c r="BD26">
+        <v>1.58</v>
+      </c>
+      <c r="BE26">
+        <v>5.8</v>
+      </c>
+      <c r="BF26">
+        <v>2.48</v>
+      </c>
+      <c r="BG26">
+        <v>1.38</v>
+      </c>
+      <c r="BH26">
+        <v>2.7</v>
+      </c>
+      <c r="BI26">
+        <v>1.65</v>
+      </c>
+      <c r="BJ26">
+        <v>2.08</v>
+      </c>
+      <c r="BK26">
+        <v>2.04</v>
+      </c>
+      <c r="BL26">
+        <v>1.68</v>
+      </c>
+      <c r="BM26">
+        <v>2.65</v>
+      </c>
+      <c r="BN26">
+        <v>1.41</v>
+      </c>
+      <c r="BO26">
+        <v>3.4</v>
+      </c>
+      <c r="BP26">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:68">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>7477810</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45528.35416666666</v>
+      </c>
+      <c r="F27">
+        <v>3</v>
+      </c>
+      <c r="G27" t="s">
+        <v>78</v>
+      </c>
+      <c r="H27" t="s">
+        <v>76</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27" t="s">
+        <v>96</v>
+      </c>
+      <c r="P27" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q27">
+        <v>3.6</v>
+      </c>
+      <c r="R27">
+        <v>2.05</v>
+      </c>
+      <c r="S27">
+        <v>3.1</v>
+      </c>
+      <c r="T27">
+        <v>1.44</v>
+      </c>
+      <c r="U27">
+        <v>2.63</v>
+      </c>
+      <c r="V27">
+        <v>3.25</v>
+      </c>
+      <c r="W27">
+        <v>1.33</v>
+      </c>
+      <c r="X27">
+        <v>9</v>
+      </c>
+      <c r="Y27">
+        <v>1.07</v>
+      </c>
+      <c r="Z27">
+        <v>2.8</v>
+      </c>
+      <c r="AA27">
+        <v>3.15</v>
+      </c>
+      <c r="AB27">
+        <v>2.35</v>
+      </c>
+      <c r="AC27">
+        <v>1.07</v>
+      </c>
+      <c r="AD27">
+        <v>8</v>
+      </c>
+      <c r="AE27">
+        <v>1.38</v>
+      </c>
+      <c r="AF27">
+        <v>3</v>
+      </c>
+      <c r="AG27">
+        <v>2.15</v>
+      </c>
+      <c r="AH27">
+        <v>1.61</v>
+      </c>
+      <c r="AI27">
+        <v>1.91</v>
+      </c>
+      <c r="AJ27">
+        <v>1.91</v>
+      </c>
+      <c r="AK27">
+        <v>1.53</v>
+      </c>
+      <c r="AL27">
+        <v>1.28</v>
+      </c>
+      <c r="AM27">
+        <v>1.38</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>0.5</v>
+      </c>
+      <c r="AQ27">
+        <v>0.5</v>
+      </c>
+      <c r="AR27">
+        <v>1.26</v>
+      </c>
+      <c r="AS27">
+        <v>0.91</v>
+      </c>
+      <c r="AT27">
+        <v>2.17</v>
+      </c>
+      <c r="AU27">
+        <v>-1</v>
+      </c>
+      <c r="AV27">
+        <v>-1</v>
+      </c>
+      <c r="AW27">
+        <v>-1</v>
+      </c>
+      <c r="AX27">
+        <v>-1</v>
+      </c>
+      <c r="AY27">
+        <v>-1</v>
+      </c>
+      <c r="AZ27">
+        <v>-1</v>
+      </c>
+      <c r="BA27">
+        <v>-1</v>
+      </c>
+      <c r="BB27">
+        <v>-1</v>
+      </c>
+      <c r="BC27">
+        <v>-1</v>
+      </c>
+      <c r="BD27">
+        <v>1.97</v>
+      </c>
+      <c r="BE27">
+        <v>5.8</v>
+      </c>
+      <c r="BF27">
+        <v>1.95</v>
+      </c>
+      <c r="BG27">
+        <v>1.47</v>
+      </c>
+      <c r="BH27">
+        <v>2.48</v>
+      </c>
+      <c r="BI27">
+        <v>1.79</v>
+      </c>
+      <c r="BJ27">
+        <v>1.9</v>
+      </c>
+      <c r="BK27">
+        <v>2.25</v>
+      </c>
+      <c r="BL27">
+        <v>1.55</v>
+      </c>
+      <c r="BM27">
+        <v>2.95</v>
+      </c>
+      <c r="BN27">
+        <v>1.33</v>
+      </c>
+      <c r="BO27">
+        <v>3.95</v>
+      </c>
+      <c r="BP27">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:68">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>7477822</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45528.45833333334</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
+      </c>
+      <c r="G28" t="s">
+        <v>86</v>
+      </c>
+      <c r="H28" t="s">
+        <v>85</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>2</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+      <c r="N28">
+        <v>2</v>
+      </c>
+      <c r="O28" t="s">
+        <v>113</v>
+      </c>
+      <c r="P28" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q28">
+        <v>3.2</v>
+      </c>
+      <c r="R28">
+        <v>2.05</v>
+      </c>
+      <c r="S28">
+        <v>3.6</v>
+      </c>
+      <c r="T28">
+        <v>1.44</v>
+      </c>
+      <c r="U28">
+        <v>2.63</v>
+      </c>
+      <c r="V28">
+        <v>3.25</v>
+      </c>
+      <c r="W28">
+        <v>1.33</v>
+      </c>
+      <c r="X28">
+        <v>9</v>
+      </c>
+      <c r="Y28">
+        <v>1.07</v>
+      </c>
+      <c r="Z28">
+        <v>2.4</v>
+      </c>
+      <c r="AA28">
+        <v>3.3</v>
+      </c>
+      <c r="AB28">
+        <v>2.9</v>
+      </c>
+      <c r="AC28">
+        <v>1.07</v>
+      </c>
+      <c r="AD28">
+        <v>8</v>
+      </c>
+      <c r="AE28">
+        <v>1.38</v>
+      </c>
+      <c r="AF28">
+        <v>3</v>
+      </c>
+      <c r="AG28">
+        <v>2.05</v>
+      </c>
+      <c r="AH28">
+        <v>1.7</v>
+      </c>
+      <c r="AI28">
+        <v>1.91</v>
+      </c>
+      <c r="AJ28">
+        <v>1.91</v>
+      </c>
+      <c r="AK28">
+        <v>1.4</v>
+      </c>
+      <c r="AL28">
+        <v>1.28</v>
+      </c>
+      <c r="AM28">
+        <v>1.53</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>1.5</v>
+      </c>
+      <c r="AQ28">
+        <v>0</v>
+      </c>
+      <c r="AR28">
+        <v>0.87</v>
+      </c>
+      <c r="AS28">
+        <v>1.26</v>
+      </c>
+      <c r="AT28">
+        <v>2.13</v>
+      </c>
+      <c r="AU28">
+        <v>7</v>
+      </c>
+      <c r="AV28">
+        <v>9</v>
+      </c>
+      <c r="AW28">
+        <v>4</v>
+      </c>
+      <c r="AX28">
+        <v>7</v>
+      </c>
+      <c r="AY28">
+        <v>11</v>
+      </c>
+      <c r="AZ28">
+        <v>16</v>
+      </c>
+      <c r="BA28">
+        <v>4</v>
+      </c>
+      <c r="BB28">
+        <v>8</v>
+      </c>
+      <c r="BC28">
+        <v>12</v>
+      </c>
+      <c r="BD28">
+        <v>1.89</v>
+      </c>
+      <c r="BE28">
+        <v>5.8</v>
+      </c>
+      <c r="BF28">
+        <v>2.02</v>
+      </c>
+      <c r="BG28">
+        <v>1.43</v>
+      </c>
+      <c r="BH28">
+        <v>2.55</v>
+      </c>
+      <c r="BI28">
+        <v>1.72</v>
+      </c>
+      <c r="BJ28">
+        <v>1.97</v>
+      </c>
+      <c r="BK28">
+        <v>2.17</v>
+      </c>
+      <c r="BL28">
+        <v>1.6</v>
+      </c>
+      <c r="BM28">
+        <v>2.8</v>
+      </c>
+      <c r="BN28">
+        <v>1.37</v>
+      </c>
+      <c r="BO28">
+        <v>3.65</v>
+      </c>
+      <c r="BP28">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:68">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>7477821</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45528.45833333334</v>
+      </c>
+      <c r="F29">
+        <v>3</v>
+      </c>
+      <c r="G29" t="s">
+        <v>71</v>
+      </c>
+      <c r="H29" t="s">
+        <v>84</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>3</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>3</v>
+      </c>
+      <c r="O29" t="s">
+        <v>114</v>
+      </c>
+      <c r="P29" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q29">
+        <v>2.63</v>
+      </c>
+      <c r="R29">
+        <v>2.3</v>
+      </c>
+      <c r="S29">
+        <v>3.75</v>
+      </c>
+      <c r="T29">
+        <v>1.3</v>
+      </c>
+      <c r="U29">
+        <v>3.4</v>
+      </c>
+      <c r="V29">
+        <v>2.5</v>
+      </c>
+      <c r="W29">
+        <v>1.5</v>
+      </c>
+      <c r="X29">
+        <v>6</v>
+      </c>
+      <c r="Y29">
+        <v>1.13</v>
+      </c>
+      <c r="Z29">
+        <v>2.15</v>
+      </c>
+      <c r="AA29">
+        <v>3.35</v>
+      </c>
+      <c r="AB29">
+        <v>3.1</v>
+      </c>
+      <c r="AC29">
+        <v>1.04</v>
+      </c>
+      <c r="AD29">
+        <v>10</v>
+      </c>
+      <c r="AE29">
+        <v>1.22</v>
+      </c>
+      <c r="AF29">
+        <v>4.2</v>
+      </c>
+      <c r="AG29">
+        <v>1.62</v>
+      </c>
+      <c r="AH29">
+        <v>2.15</v>
+      </c>
+      <c r="AI29">
+        <v>1.57</v>
+      </c>
+      <c r="AJ29">
+        <v>2.25</v>
+      </c>
+      <c r="AK29">
+        <v>1.3</v>
+      </c>
+      <c r="AL29">
+        <v>1.22</v>
+      </c>
+      <c r="AM29">
+        <v>1.77</v>
+      </c>
+      <c r="AN29">
+        <v>3</v>
+      </c>
+      <c r="AO29">
+        <v>1</v>
+      </c>
+      <c r="AP29">
+        <v>3</v>
+      </c>
+      <c r="AQ29">
+        <v>0.5</v>
+      </c>
+      <c r="AR29">
+        <v>1.43</v>
+      </c>
+      <c r="AS29">
+        <v>0.97</v>
+      </c>
+      <c r="AT29">
+        <v>2.4</v>
+      </c>
+      <c r="AU29">
+        <v>8</v>
+      </c>
+      <c r="AV29">
+        <v>2</v>
+      </c>
+      <c r="AW29">
+        <v>4</v>
+      </c>
+      <c r="AX29">
+        <v>7</v>
+      </c>
+      <c r="AY29">
+        <v>12</v>
+      </c>
+      <c r="AZ29">
+        <v>9</v>
+      </c>
+      <c r="BA29">
+        <v>2</v>
+      </c>
+      <c r="BB29">
+        <v>3</v>
+      </c>
+      <c r="BC29">
+        <v>5</v>
+      </c>
+      <c r="BD29">
+        <v>1.68</v>
+      </c>
+      <c r="BE29">
+        <v>6.25</v>
+      </c>
+      <c r="BF29">
+        <v>2.32</v>
+      </c>
+      <c r="BG29">
+        <v>1.34</v>
+      </c>
+      <c r="BH29">
+        <v>2.9</v>
+      </c>
+      <c r="BI29">
+        <v>1.57</v>
+      </c>
+      <c r="BJ29">
+        <v>2.2</v>
+      </c>
+      <c r="BK29">
+        <v>1.93</v>
+      </c>
+      <c r="BL29">
+        <v>1.76</v>
+      </c>
+      <c r="BM29">
+        <v>2.43</v>
+      </c>
+      <c r="BN29">
+        <v>1.47</v>
+      </c>
+      <c r="BO29">
+        <v>3.15</v>
+      </c>
+      <c r="BP29">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:68">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>7477817</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45528.45833333334</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+      <c r="G30" t="s">
+        <v>89</v>
+      </c>
+      <c r="H30" t="s">
+        <v>92</v>
+      </c>
+      <c r="I30">
+        <v>2</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>4</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>5</v>
+      </c>
+      <c r="O30" t="s">
+        <v>115</v>
+      </c>
+      <c r="P30" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q30">
+        <v>2.88</v>
+      </c>
+      <c r="R30">
+        <v>2.2</v>
+      </c>
+      <c r="S30">
+        <v>3.5</v>
+      </c>
+      <c r="T30">
+        <v>1.36</v>
+      </c>
+      <c r="U30">
+        <v>3</v>
+      </c>
+      <c r="V30">
+        <v>2.75</v>
+      </c>
+      <c r="W30">
+        <v>1.4</v>
+      </c>
+      <c r="X30">
+        <v>7</v>
+      </c>
+      <c r="Y30">
+        <v>1.1</v>
+      </c>
+      <c r="Z30">
+        <v>2.3</v>
+      </c>
+      <c r="AA30">
+        <v>3.2</v>
+      </c>
+      <c r="AB30">
+        <v>2.62</v>
+      </c>
+      <c r="AC30">
+        <v>1.05</v>
+      </c>
+      <c r="AD30">
+        <v>9.5</v>
+      </c>
+      <c r="AE30">
+        <v>1.28</v>
+      </c>
+      <c r="AF30">
+        <v>3.65</v>
+      </c>
+      <c r="AG30">
+        <v>1.83</v>
+      </c>
+      <c r="AH30">
+        <v>1.91</v>
+      </c>
+      <c r="AI30">
+        <v>1.67</v>
+      </c>
+      <c r="AJ30">
+        <v>2.1</v>
+      </c>
+      <c r="AK30">
+        <v>1.38</v>
+      </c>
+      <c r="AL30">
+        <v>1.25</v>
+      </c>
+      <c r="AM30">
+        <v>1.6</v>
+      </c>
+      <c r="AN30">
+        <v>0</v>
+      </c>
+      <c r="AO30">
+        <v>3</v>
+      </c>
+      <c r="AP30">
+        <v>1.5</v>
+      </c>
+      <c r="AQ30">
+        <v>1.5</v>
+      </c>
+      <c r="AR30">
+        <v>1.84</v>
+      </c>
+      <c r="AS30">
+        <v>1.24</v>
+      </c>
+      <c r="AT30">
+        <v>3.08</v>
+      </c>
+      <c r="AU30">
+        <v>9</v>
+      </c>
+      <c r="AV30">
+        <v>4</v>
+      </c>
+      <c r="AW30">
+        <v>5</v>
+      </c>
+      <c r="AX30">
+        <v>6</v>
+      </c>
+      <c r="AY30">
+        <v>14</v>
+      </c>
+      <c r="AZ30">
+        <v>10</v>
+      </c>
+      <c r="BA30">
+        <v>8</v>
+      </c>
+      <c r="BB30">
+        <v>3</v>
+      </c>
+      <c r="BC30">
+        <v>11</v>
+      </c>
+      <c r="BD30">
+        <v>1.75</v>
+      </c>
+      <c r="BE30">
+        <v>7.5</v>
+      </c>
+      <c r="BF30">
+        <v>2.45</v>
+      </c>
+      <c r="BG30">
+        <v>1.35</v>
+      </c>
+      <c r="BH30">
+        <v>2.9</v>
+      </c>
+      <c r="BI30">
+        <v>1.61</v>
+      </c>
+      <c r="BJ30">
+        <v>2.15</v>
+      </c>
+      <c r="BK30">
+        <v>1.98</v>
+      </c>
+      <c r="BL30">
+        <v>1.72</v>
+      </c>
+      <c r="BM30">
+        <v>2.55</v>
+      </c>
+      <c r="BN30">
+        <v>1.44</v>
+      </c>
+      <c r="BO30">
+        <v>3.3</v>
+      </c>
+      <c r="BP30">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:68">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>7477820</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45528.45833333334</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+      <c r="G31" t="s">
+        <v>72</v>
+      </c>
+      <c r="H31" t="s">
+        <v>77</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>1</v>
+      </c>
+      <c r="O31" t="s">
+        <v>116</v>
+      </c>
+      <c r="P31" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q31">
+        <v>2.5</v>
+      </c>
+      <c r="R31">
+        <v>2.2</v>
+      </c>
+      <c r="S31">
+        <v>4.75</v>
+      </c>
+      <c r="T31">
+        <v>1.4</v>
+      </c>
+      <c r="U31">
+        <v>2.75</v>
+      </c>
+      <c r="V31">
+        <v>3</v>
+      </c>
+      <c r="W31">
+        <v>1.36</v>
+      </c>
+      <c r="X31">
+        <v>8</v>
+      </c>
+      <c r="Y31">
+        <v>1.08</v>
+      </c>
+      <c r="Z31">
+        <v>1.85</v>
+      </c>
+      <c r="AA31">
+        <v>3.6</v>
+      </c>
+      <c r="AB31">
+        <v>4.2</v>
+      </c>
+      <c r="AC31">
+        <v>1.05</v>
+      </c>
+      <c r="AD31">
+        <v>9</v>
+      </c>
+      <c r="AE31">
+        <v>1.3</v>
+      </c>
+      <c r="AF31">
+        <v>3.4</v>
+      </c>
+      <c r="AG31">
+        <v>1.95</v>
+      </c>
+      <c r="AH31">
+        <v>1.8</v>
+      </c>
+      <c r="AI31">
+        <v>1.91</v>
+      </c>
+      <c r="AJ31">
+        <v>1.91</v>
+      </c>
+      <c r="AK31">
+        <v>1.22</v>
+      </c>
+      <c r="AL31">
+        <v>1.22</v>
+      </c>
+      <c r="AM31">
+        <v>1.95</v>
+      </c>
+      <c r="AN31">
+        <v>0</v>
+      </c>
+      <c r="AO31">
+        <v>3</v>
+      </c>
+      <c r="AP31">
+        <v>1.5</v>
+      </c>
+      <c r="AQ31">
+        <v>1.5</v>
+      </c>
+      <c r="AR31">
+        <v>0.89</v>
+      </c>
+      <c r="AS31">
+        <v>1.15</v>
+      </c>
+      <c r="AT31">
+        <v>2.04</v>
+      </c>
+      <c r="AU31">
+        <v>2</v>
+      </c>
+      <c r="AV31">
+        <v>4</v>
+      </c>
+      <c r="AW31">
+        <v>1</v>
+      </c>
+      <c r="AX31">
+        <v>7</v>
+      </c>
+      <c r="AY31">
+        <v>3</v>
+      </c>
+      <c r="AZ31">
+        <v>11</v>
+      </c>
+      <c r="BA31">
+        <v>4</v>
+      </c>
+      <c r="BB31">
+        <v>9</v>
+      </c>
+      <c r="BC31">
+        <v>13</v>
+      </c>
+      <c r="BD31">
+        <v>1.58</v>
+      </c>
+      <c r="BE31">
+        <v>6.25</v>
+      </c>
+      <c r="BF31">
+        <v>2.48</v>
+      </c>
+      <c r="BG31">
+        <v>1.4</v>
+      </c>
+      <c r="BH31">
+        <v>2.7</v>
+      </c>
+      <c r="BI31">
+        <v>1.68</v>
+      </c>
+      <c r="BJ31">
+        <v>2.02</v>
+      </c>
+      <c r="BK31">
+        <v>2.1</v>
+      </c>
+      <c r="BL31">
+        <v>1.64</v>
+      </c>
+      <c r="BM31">
+        <v>2.7</v>
+      </c>
+      <c r="BN31">
+        <v>1.4</v>
+      </c>
+      <c r="BO31">
+        <v>3.55</v>
+      </c>
+      <c r="BP31">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:68">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>7477815</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45528.45833333334</v>
+      </c>
+      <c r="F32">
+        <v>3</v>
+      </c>
+      <c r="G32" t="s">
+        <v>90</v>
+      </c>
+      <c r="H32" t="s">
+        <v>82</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>1</v>
+      </c>
+      <c r="O32" t="s">
+        <v>117</v>
+      </c>
+      <c r="P32" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q32">
+        <v>1.95</v>
+      </c>
+      <c r="R32">
+        <v>2.38</v>
+      </c>
+      <c r="S32">
+        <v>7</v>
+      </c>
+      <c r="T32">
+        <v>1.36</v>
+      </c>
+      <c r="U32">
+        <v>3</v>
+      </c>
+      <c r="V32">
+        <v>2.75</v>
+      </c>
+      <c r="W32">
+        <v>1.4</v>
+      </c>
+      <c r="X32">
+        <v>7</v>
+      </c>
+      <c r="Y32">
+        <v>1.1</v>
+      </c>
+      <c r="Z32">
+        <v>1.4</v>
+      </c>
+      <c r="AA32">
+        <v>4.5</v>
+      </c>
+      <c r="AB32">
+        <v>7.25</v>
+      </c>
+      <c r="AC32">
+        <v>1.04</v>
+      </c>
+      <c r="AD32">
+        <v>10</v>
+      </c>
+      <c r="AE32">
+        <v>1.25</v>
+      </c>
+      <c r="AF32">
+        <v>3.75</v>
+      </c>
+      <c r="AG32">
+        <v>1.86</v>
+      </c>
+      <c r="AH32">
+        <v>1.9</v>
+      </c>
+      <c r="AI32">
+        <v>2.05</v>
+      </c>
+      <c r="AJ32">
+        <v>1.7</v>
+      </c>
+      <c r="AK32">
+        <v>1.1</v>
+      </c>
+      <c r="AL32">
+        <v>1.17</v>
+      </c>
+      <c r="AM32">
+        <v>2.7</v>
+      </c>
+      <c r="AN32">
+        <v>3</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <v>3</v>
+      </c>
+      <c r="AQ32">
+        <v>0</v>
+      </c>
+      <c r="AR32">
+        <v>1.14</v>
+      </c>
+      <c r="AS32">
+        <v>0.77</v>
+      </c>
+      <c r="AT32">
+        <v>1.91</v>
+      </c>
+      <c r="AU32">
+        <v>6</v>
+      </c>
+      <c r="AV32">
+        <v>4</v>
+      </c>
+      <c r="AW32">
+        <v>5</v>
+      </c>
+      <c r="AX32">
+        <v>4</v>
+      </c>
+      <c r="AY32">
+        <v>11</v>
+      </c>
+      <c r="AZ32">
+        <v>8</v>
+      </c>
+      <c r="BA32">
+        <v>5</v>
+      </c>
+      <c r="BB32">
+        <v>2</v>
+      </c>
+      <c r="BC32">
+        <v>7</v>
+      </c>
+      <c r="BD32">
+        <v>1.35</v>
+      </c>
+      <c r="BE32">
+        <v>6.75</v>
+      </c>
+      <c r="BF32">
+        <v>3.3</v>
+      </c>
+      <c r="BG32">
+        <v>1.37</v>
+      </c>
+      <c r="BH32">
+        <v>2.8</v>
+      </c>
+      <c r="BI32">
+        <v>1.65</v>
+      </c>
+      <c r="BJ32">
+        <v>2.08</v>
+      </c>
+      <c r="BK32">
+        <v>2.04</v>
+      </c>
+      <c r="BL32">
+        <v>1.67</v>
+      </c>
+      <c r="BM32">
+        <v>2.55</v>
+      </c>
+      <c r="BN32">
+        <v>1.43</v>
+      </c>
+      <c r="BO32">
+        <v>3.4</v>
+      </c>
+      <c r="BP32">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:68">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>7477814</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45528.45833333334</v>
+      </c>
+      <c r="F33">
+        <v>3</v>
+      </c>
+      <c r="G33" t="s">
+        <v>81</v>
+      </c>
+      <c r="H33" t="s">
+        <v>74</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>2</v>
+      </c>
+      <c r="N33">
+        <v>3</v>
+      </c>
+      <c r="O33" t="s">
+        <v>118</v>
+      </c>
+      <c r="P33" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q33">
+        <v>3.75</v>
+      </c>
+      <c r="R33">
+        <v>2.25</v>
+      </c>
+      <c r="S33">
+        <v>2.63</v>
+      </c>
+      <c r="T33">
+        <v>1.33</v>
+      </c>
+      <c r="U33">
+        <v>3.25</v>
+      </c>
+      <c r="V33">
+        <v>2.63</v>
+      </c>
+      <c r="W33">
+        <v>1.44</v>
+      </c>
+      <c r="X33">
+        <v>6.5</v>
+      </c>
+      <c r="Y33">
+        <v>1.11</v>
+      </c>
+      <c r="Z33">
+        <v>3.25</v>
+      </c>
+      <c r="AA33">
+        <v>3.6</v>
+      </c>
+      <c r="AB33">
+        <v>2.1</v>
+      </c>
+      <c r="AC33">
+        <v>1.04</v>
+      </c>
+      <c r="AD33">
+        <v>10</v>
+      </c>
+      <c r="AE33">
+        <v>1.25</v>
+      </c>
+      <c r="AF33">
+        <v>3.95</v>
+      </c>
+      <c r="AG33">
+        <v>1.7</v>
+      </c>
+      <c r="AH33">
+        <v>2.05</v>
+      </c>
+      <c r="AI33">
+        <v>1.67</v>
+      </c>
+      <c r="AJ33">
+        <v>2.1</v>
+      </c>
+      <c r="AK33">
+        <v>1.75</v>
+      </c>
+      <c r="AL33">
+        <v>1.25</v>
+      </c>
+      <c r="AM33">
+        <v>1.3</v>
+      </c>
+      <c r="AN33">
+        <v>3</v>
+      </c>
+      <c r="AO33">
+        <v>3</v>
+      </c>
+      <c r="AP33">
+        <v>1.5</v>
+      </c>
+      <c r="AQ33">
+        <v>3</v>
+      </c>
+      <c r="AR33">
+        <v>1.76</v>
+      </c>
+      <c r="AS33">
+        <v>2.1</v>
+      </c>
+      <c r="AT33">
+        <v>3.86</v>
+      </c>
+      <c r="AU33">
+        <v>3</v>
+      </c>
+      <c r="AV33">
+        <v>9</v>
+      </c>
+      <c r="AW33">
+        <v>7</v>
+      </c>
+      <c r="AX33">
+        <v>2</v>
+      </c>
+      <c r="AY33">
+        <v>10</v>
+      </c>
+      <c r="AZ33">
+        <v>11</v>
+      </c>
+      <c r="BA33">
+        <v>11</v>
+      </c>
+      <c r="BB33">
+        <v>4</v>
+      </c>
+      <c r="BC33">
+        <v>15</v>
+      </c>
+      <c r="BD33">
+        <v>2.28</v>
+      </c>
+      <c r="BE33">
+        <v>6.25</v>
+      </c>
+      <c r="BF33">
+        <v>1.7</v>
+      </c>
+      <c r="BG33">
+        <v>1.36</v>
+      </c>
+      <c r="BH33">
+        <v>2.8</v>
+      </c>
+      <c r="BI33">
+        <v>1.61</v>
+      </c>
+      <c r="BJ33">
+        <v>2.15</v>
+      </c>
+      <c r="BK33">
+        <v>2</v>
+      </c>
+      <c r="BL33">
+        <v>1.71</v>
+      </c>
+      <c r="BM33">
+        <v>2.55</v>
+      </c>
+      <c r="BN33">
+        <v>1.43</v>
+      </c>
+      <c r="BO33">
+        <v>3.3</v>
+      </c>
+      <c r="BP33">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:68">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>7477808</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45528.45833333334</v>
+      </c>
+      <c r="F34">
+        <v>3</v>
+      </c>
+      <c r="G34" t="s">
+        <v>70</v>
+      </c>
+      <c r="H34" t="s">
+        <v>87</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>2</v>
+      </c>
+      <c r="M34">
+        <v>2</v>
+      </c>
+      <c r="N34">
+        <v>4</v>
+      </c>
+      <c r="O34" t="s">
+        <v>119</v>
+      </c>
+      <c r="P34" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q34">
+        <v>2.2</v>
+      </c>
+      <c r="R34">
+        <v>2.3</v>
+      </c>
+      <c r="S34">
+        <v>5</v>
+      </c>
+      <c r="T34">
+        <v>1.33</v>
+      </c>
+      <c r="U34">
+        <v>3.25</v>
+      </c>
+      <c r="V34">
+        <v>2.63</v>
+      </c>
+      <c r="W34">
+        <v>1.44</v>
+      </c>
+      <c r="X34">
+        <v>6.5</v>
+      </c>
+      <c r="Y34">
+        <v>1.11</v>
+      </c>
+      <c r="Z34">
+        <v>1.65</v>
+      </c>
+      <c r="AA34">
+        <v>4</v>
+      </c>
+      <c r="AB34">
+        <v>5</v>
+      </c>
+      <c r="AC34">
+        <v>1.05</v>
+      </c>
+      <c r="AD34">
+        <v>9.5</v>
+      </c>
+      <c r="AE34">
+        <v>1.25</v>
+      </c>
+      <c r="AF34">
+        <v>3.8</v>
+      </c>
+      <c r="AG34">
+        <v>1.73</v>
+      </c>
+      <c r="AH34">
+        <v>2.05</v>
+      </c>
+      <c r="AI34">
+        <v>1.75</v>
+      </c>
+      <c r="AJ34">
+        <v>2</v>
+      </c>
+      <c r="AK34">
+        <v>1.17</v>
+      </c>
+      <c r="AL34">
+        <v>1.2</v>
+      </c>
+      <c r="AM34">
+        <v>2.2</v>
+      </c>
+      <c r="AN34">
+        <v>0</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>0.5</v>
+      </c>
+      <c r="AQ34">
+        <v>0.5</v>
+      </c>
+      <c r="AR34">
+        <v>1.62</v>
+      </c>
+      <c r="AS34">
+        <v>0.78</v>
+      </c>
+      <c r="AT34">
+        <v>2.4</v>
+      </c>
+      <c r="AU34">
+        <v>6</v>
+      </c>
+      <c r="AV34">
+        <v>6</v>
+      </c>
+      <c r="AW34">
+        <v>9</v>
+      </c>
+      <c r="AX34">
+        <v>6</v>
+      </c>
+      <c r="AY34">
+        <v>15</v>
+      </c>
+      <c r="AZ34">
+        <v>12</v>
+      </c>
+      <c r="BA34">
+        <v>2</v>
+      </c>
+      <c r="BB34">
+        <v>3</v>
+      </c>
+      <c r="BC34">
+        <v>5</v>
+      </c>
+      <c r="BD34">
+        <v>1.31</v>
+      </c>
+      <c r="BE34">
+        <v>9</v>
+      </c>
+      <c r="BF34">
+        <v>4.32</v>
+      </c>
+      <c r="BG34">
+        <v>1.41</v>
+      </c>
+      <c r="BH34">
+        <v>2.65</v>
+      </c>
+      <c r="BI34">
+        <v>1.71</v>
+      </c>
+      <c r="BJ34">
+        <v>2</v>
+      </c>
+      <c r="BK34">
+        <v>2.12</v>
+      </c>
+      <c r="BL34">
+        <v>1.63</v>
+      </c>
+      <c r="BM34">
+        <v>2.7</v>
+      </c>
+      <c r="BN34">
+        <v>1.38</v>
+      </c>
+      <c r="BO34">
+        <v>3.65</v>
+      </c>
+      <c r="BP34">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:68">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>7477813</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45528.45833333334</v>
+      </c>
+      <c r="F35">
+        <v>3</v>
+      </c>
+      <c r="G35" t="s">
+        <v>83</v>
+      </c>
+      <c r="H35" t="s">
+        <v>93</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="L35">
+        <v>2</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>2</v>
+      </c>
+      <c r="O35" t="s">
+        <v>120</v>
+      </c>
+      <c r="P35" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q35">
+        <v>3.6</v>
+      </c>
+      <c r="R35">
+        <v>2.1</v>
+      </c>
+      <c r="S35">
+        <v>3.1</v>
+      </c>
+      <c r="T35">
+        <v>1.44</v>
+      </c>
+      <c r="U35">
+        <v>2.63</v>
+      </c>
+      <c r="V35">
+        <v>3.25</v>
+      </c>
+      <c r="W35">
+        <v>1.33</v>
+      </c>
+      <c r="X35">
+        <v>9</v>
+      </c>
+      <c r="Y35">
+        <v>1.07</v>
+      </c>
+      <c r="Z35">
+        <v>2.85</v>
+      </c>
+      <c r="AA35">
+        <v>3.15</v>
+      </c>
+      <c r="AB35">
+        <v>2.35</v>
+      </c>
+      <c r="AC35">
+        <v>1.07</v>
+      </c>
+      <c r="AD35">
+        <v>8</v>
+      </c>
+      <c r="AE35">
+        <v>1.35</v>
+      </c>
+      <c r="AF35">
+        <v>3.1</v>
+      </c>
+      <c r="AG35">
+        <v>1.93</v>
+      </c>
+      <c r="AH35">
+        <v>1.83</v>
+      </c>
+      <c r="AI35">
+        <v>1.8</v>
+      </c>
+      <c r="AJ35">
+        <v>1.95</v>
+      </c>
+      <c r="AK35">
+        <v>1.55</v>
+      </c>
+      <c r="AL35">
+        <v>1.28</v>
+      </c>
+      <c r="AM35">
+        <v>1.38</v>
+      </c>
+      <c r="AN35">
+        <v>3</v>
+      </c>
+      <c r="AO35">
+        <v>3</v>
+      </c>
+      <c r="AP35">
+        <v>3</v>
+      </c>
+      <c r="AQ35">
+        <v>1.5</v>
+      </c>
+      <c r="AR35">
+        <v>1.31</v>
+      </c>
+      <c r="AS35">
+        <v>0.98</v>
+      </c>
+      <c r="AT35">
+        <v>2.29</v>
+      </c>
+      <c r="AU35">
+        <v>5</v>
+      </c>
+      <c r="AV35">
+        <v>4</v>
+      </c>
+      <c r="AW35">
+        <v>2</v>
+      </c>
+      <c r="AX35">
+        <v>7</v>
+      </c>
+      <c r="AY35">
+        <v>7</v>
+      </c>
+      <c r="AZ35">
+        <v>11</v>
+      </c>
+      <c r="BA35">
+        <v>3</v>
+      </c>
+      <c r="BB35">
+        <v>3</v>
+      </c>
+      <c r="BC35">
+        <v>6</v>
+      </c>
+      <c r="BD35">
+        <v>2.05</v>
+      </c>
+      <c r="BE35">
+        <v>5.8</v>
+      </c>
+      <c r="BF35">
+        <v>1.88</v>
+      </c>
+      <c r="BG35">
+        <v>1.41</v>
+      </c>
+      <c r="BH35">
+        <v>2.65</v>
+      </c>
+      <c r="BI35">
+        <v>1.71</v>
+      </c>
+      <c r="BJ35">
+        <v>2</v>
+      </c>
+      <c r="BK35">
+        <v>2.15</v>
+      </c>
+      <c r="BL35">
+        <v>1.61</v>
+      </c>
+      <c r="BM35">
+        <v>2.75</v>
+      </c>
+      <c r="BN35">
+        <v>1.38</v>
+      </c>
+      <c r="BO35">
+        <v>3.65</v>
+      </c>
+      <c r="BP35">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:68">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>7477811</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45528.45833333334</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+      <c r="G36" t="s">
+        <v>88</v>
+      </c>
+      <c r="H36" t="s">
+        <v>91</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>3</v>
+      </c>
+      <c r="K36">
+        <v>4</v>
+      </c>
+      <c r="L36">
+        <v>4</v>
+      </c>
+      <c r="M36">
+        <v>4</v>
+      </c>
+      <c r="N36">
+        <v>8</v>
+      </c>
+      <c r="O36" t="s">
+        <v>121</v>
+      </c>
+      <c r="P36" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q36">
+        <v>4.5</v>
+      </c>
+      <c r="R36">
+        <v>2.1</v>
+      </c>
+      <c r="S36">
+        <v>2.6</v>
+      </c>
+      <c r="T36">
+        <v>1.44</v>
+      </c>
+      <c r="U36">
+        <v>2.63</v>
+      </c>
+      <c r="V36">
+        <v>3.25</v>
+      </c>
+      <c r="W36">
+        <v>1.33</v>
+      </c>
+      <c r="X36">
+        <v>9</v>
+      </c>
+      <c r="Y36">
+        <v>1.07</v>
+      </c>
+      <c r="Z36">
+        <v>3.9</v>
+      </c>
+      <c r="AA36">
+        <v>3.5</v>
+      </c>
+      <c r="AB36">
+        <v>1.95</v>
+      </c>
+      <c r="AC36">
+        <v>1.06</v>
+      </c>
+      <c r="AD36">
+        <v>8.5</v>
+      </c>
+      <c r="AE36">
+        <v>1.35</v>
+      </c>
+      <c r="AF36">
+        <v>3.1</v>
+      </c>
+      <c r="AG36">
+        <v>2.05</v>
+      </c>
+      <c r="AH36">
+        <v>1.7</v>
+      </c>
+      <c r="AI36">
+        <v>1.95</v>
+      </c>
+      <c r="AJ36">
+        <v>1.8</v>
+      </c>
+      <c r="AK36">
+        <v>1.83</v>
+      </c>
+      <c r="AL36">
+        <v>1.25</v>
+      </c>
+      <c r="AM36">
+        <v>1.25</v>
+      </c>
+      <c r="AN36">
+        <v>0</v>
+      </c>
+      <c r="AO36">
+        <v>0</v>
+      </c>
+      <c r="AP36">
+        <v>0.5</v>
+      </c>
+      <c r="AQ36">
+        <v>0.5</v>
+      </c>
+      <c r="AR36">
+        <v>1.53</v>
+      </c>
+      <c r="AS36">
+        <v>1.88</v>
+      </c>
+      <c r="AT36">
+        <v>3.41</v>
+      </c>
+      <c r="AU36">
+        <v>7</v>
+      </c>
+      <c r="AV36">
+        <v>8</v>
+      </c>
+      <c r="AW36">
+        <v>2</v>
+      </c>
+      <c r="AX36">
+        <v>3</v>
+      </c>
+      <c r="AY36">
+        <v>9</v>
+      </c>
+      <c r="AZ36">
+        <v>11</v>
+      </c>
+      <c r="BA36">
+        <v>2</v>
+      </c>
+      <c r="BB36">
+        <v>10</v>
+      </c>
+      <c r="BC36">
+        <v>12</v>
+      </c>
+      <c r="BD36">
+        <v>2.4</v>
+      </c>
+      <c r="BE36">
+        <v>6.1</v>
+      </c>
+      <c r="BF36">
+        <v>1.65</v>
+      </c>
+      <c r="BG36">
+        <v>1.44</v>
+      </c>
+      <c r="BH36">
+        <v>2.55</v>
+      </c>
+      <c r="BI36">
+        <v>1.72</v>
+      </c>
+      <c r="BJ36">
+        <v>1.98</v>
+      </c>
+      <c r="BK36">
+        <v>2.17</v>
+      </c>
+      <c r="BL36">
+        <v>1.6</v>
+      </c>
+      <c r="BM36">
+        <v>2.8</v>
+      </c>
+      <c r="BN36">
+        <v>1.37</v>
+      </c>
+      <c r="BO36">
+        <v>3.7</v>
+      </c>
+      <c r="BP36">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:68">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>7477816</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45528.45833333334</v>
+      </c>
+      <c r="F37">
+        <v>3</v>
+      </c>
+      <c r="G37" t="s">
+        <v>75</v>
+      </c>
+      <c r="H37" t="s">
+        <v>80</v>
+      </c>
+      <c r="I37">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>2</v>
+      </c>
+      <c r="N37">
+        <v>3</v>
+      </c>
+      <c r="O37" t="s">
+        <v>122</v>
+      </c>
+      <c r="P37" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q37">
+        <v>4.33</v>
+      </c>
+      <c r="R37">
+        <v>2.2</v>
+      </c>
+      <c r="S37">
+        <v>2.5</v>
+      </c>
+      <c r="T37">
+        <v>1.4</v>
+      </c>
+      <c r="U37">
+        <v>2.75</v>
+      </c>
+      <c r="V37">
+        <v>2.75</v>
+      </c>
+      <c r="W37">
+        <v>1.4</v>
+      </c>
+      <c r="X37">
+        <v>8</v>
+      </c>
+      <c r="Y37">
+        <v>1.08</v>
+      </c>
+      <c r="Z37">
+        <v>4.1</v>
+      </c>
+      <c r="AA37">
+        <v>3.5</v>
+      </c>
+      <c r="AB37">
+        <v>1.8</v>
+      </c>
+      <c r="AC37">
+        <v>1.05</v>
+      </c>
+      <c r="AD37">
+        <v>9</v>
+      </c>
+      <c r="AE37">
+        <v>1.3</v>
+      </c>
+      <c r="AF37">
+        <v>3.4</v>
+      </c>
+      <c r="AG37">
+        <v>1.88</v>
+      </c>
+      <c r="AH37">
+        <v>1.88</v>
+      </c>
+      <c r="AI37">
+        <v>1.8</v>
+      </c>
+      <c r="AJ37">
+        <v>1.95</v>
+      </c>
+      <c r="AK37">
+        <v>1.92</v>
+      </c>
+      <c r="AL37">
+        <v>1.28</v>
+      </c>
+      <c r="AM37">
+        <v>1.24</v>
+      </c>
+      <c r="AN37">
+        <v>0</v>
+      </c>
+      <c r="AO37">
+        <v>3</v>
+      </c>
+      <c r="AP37">
+        <v>0</v>
+      </c>
+      <c r="AQ37">
+        <v>3</v>
+      </c>
+      <c r="AR37">
+        <v>1.32</v>
+      </c>
+      <c r="AS37">
+        <v>1.47</v>
+      </c>
+      <c r="AT37">
+        <v>2.79</v>
+      </c>
+      <c r="AU37">
+        <v>4</v>
+      </c>
+      <c r="AV37">
+        <v>4</v>
+      </c>
+      <c r="AW37">
+        <v>4</v>
+      </c>
+      <c r="AX37">
+        <v>3</v>
+      </c>
+      <c r="AY37">
+        <v>8</v>
+      </c>
+      <c r="AZ37">
+        <v>7</v>
+      </c>
+      <c r="BA37">
+        <v>6</v>
+      </c>
+      <c r="BB37">
+        <v>5</v>
+      </c>
+      <c r="BC37">
+        <v>11</v>
+      </c>
+      <c r="BD37">
+        <v>2.4</v>
+      </c>
+      <c r="BE37">
+        <v>6.4</v>
+      </c>
+      <c r="BF37">
+        <v>1.63</v>
+      </c>
+      <c r="BG37">
+        <v>1.38</v>
+      </c>
+      <c r="BH37">
+        <v>2.7</v>
+      </c>
+      <c r="BI37">
+        <v>1.66</v>
+      </c>
+      <c r="BJ37">
+        <v>2.07</v>
+      </c>
+      <c r="BK37">
+        <v>2.05</v>
+      </c>
+      <c r="BL37">
+        <v>1.67</v>
+      </c>
+      <c r="BM37">
+        <v>2.63</v>
+      </c>
+      <c r="BN37">
+        <v>1.41</v>
+      </c>
+      <c r="BO37">
+        <v>3.45</v>
+      </c>
+      <c r="BP37">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -6103,31 +6103,31 @@
         <v>2.74</v>
       </c>
       <c r="AU26">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AV26">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW26">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AY26">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AZ26">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BA26">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BB26">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC26">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BD26">
         <v>1.58</v>
@@ -6309,31 +6309,31 @@
         <v>2.17</v>
       </c>
       <c r="AU27">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AV27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AW27">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX27">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY27">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AZ27">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BA27">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB27">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC27">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BD27">
         <v>1.97</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -6536,10 +6536,10 @@
         <v>4</v>
       </c>
       <c r="BB28">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BC28">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD28">
         <v>1.89</v>
@@ -7566,10 +7566,10 @@
         <v>11</v>
       </c>
       <c r="BB33">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC33">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD33">
         <v>2.28</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -229,24 +229,24 @@
     <t>Barnsley</t>
   </si>
   <si>
+    <t>Wigan Athletic</t>
+  </si>
+  <si>
+    <t>Stockport County</t>
+  </si>
+  <si>
+    <t>Stevenage</t>
+  </si>
+  <si>
+    <t>Peterborough United</t>
+  </si>
+  <si>
+    <t>Leyton Orient</t>
+  </si>
+  <si>
     <t>Wrexham</t>
   </si>
   <si>
-    <t>Wigan Athletic</t>
-  </si>
-  <si>
-    <t>Stockport County</t>
-  </si>
-  <si>
-    <t>Peterborough United</t>
-  </si>
-  <si>
-    <t>Leyton Orient</t>
-  </si>
-  <si>
-    <t>Stevenage</t>
-  </si>
-  <si>
     <t>Crawley Town</t>
   </si>
   <si>
@@ -268,54 +268,54 @@
     <t>Charlton Athletic</t>
   </si>
   <si>
+    <t>Cambridge United</t>
+  </si>
+  <si>
+    <t>Blackpool</t>
+  </si>
+  <si>
+    <t>Huddersfield Town</t>
+  </si>
+  <si>
+    <t>Lincoln City</t>
+  </si>
+  <si>
+    <t>Mansfield Town</t>
+  </si>
+  <si>
+    <t>Northampton Town</t>
+  </si>
+  <si>
     <t>Reading</t>
   </si>
   <si>
+    <t>Wycombe Wanderers</t>
+  </si>
+  <si>
     <t>Rotherham United</t>
   </si>
   <si>
-    <t>Wycombe Wanderers</t>
-  </si>
-  <si>
-    <t>Northampton Town</t>
-  </si>
-  <si>
-    <t>Cambridge United</t>
-  </si>
-  <si>
-    <t>Lincoln City</t>
-  </si>
-  <si>
-    <t>Huddersfield Town</t>
-  </si>
-  <si>
-    <t>Blackpool</t>
-  </si>
-  <si>
-    <t>Mansfield Town</t>
-  </si>
-  <si>
     <t>Bolton Wanderers</t>
   </si>
   <si>
     <t>['32']</t>
   </si>
   <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['5', '76']</t>
+  </si>
+  <si>
+    <t>['58']</t>
+  </si>
+  <si>
+    <t>['38']</t>
+  </si>
+  <si>
     <t>['9', '29', '83']</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['5', '76']</t>
-  </si>
-  <si>
-    <t>['38']</t>
-  </si>
-  <si>
-    <t>['58']</t>
-  </si>
-  <si>
     <t>['16', '33']</t>
   </si>
   <si>
@@ -334,72 +334,72 @@
     <t>['21']</t>
   </si>
   <si>
+    <t>['26', '52']</t>
+  </si>
+  <si>
+    <t>['70']</t>
+  </si>
+  <si>
+    <t>['4', '45+1', '90+7']</t>
+  </si>
+  <si>
+    <t>['65', '77']</t>
+  </si>
+  <si>
     <t>['7', '57']</t>
   </si>
   <si>
     <t>['22', '90']</t>
   </si>
   <si>
-    <t>['65', '77']</t>
-  </si>
-  <si>
-    <t>['70']</t>
-  </si>
-  <si>
-    <t>['26', '52']</t>
-  </si>
-  <si>
-    <t>['4', '45+1', '90+7']</t>
-  </si>
-  <si>
     <t>['39', '64']</t>
   </si>
   <si>
+    <t>['28', '59', '72', '75']</t>
+  </si>
+  <si>
+    <t>['10', '88']</t>
+  </si>
+  <si>
+    <t>['4']</t>
+  </si>
+  <si>
+    <t>['20']</t>
+  </si>
+  <si>
+    <t>['14']</t>
+  </si>
+  <si>
+    <t>['29', '45+2', '47', '51']</t>
+  </si>
+  <si>
+    <t>['26', '46']</t>
+  </si>
+  <si>
+    <t>['30']</t>
+  </si>
+  <si>
+    <t>['23', '33', '49']</t>
+  </si>
+  <si>
     <t>['70', '87']</t>
   </si>
   <si>
-    <t>['23', '33', '49']</t>
-  </si>
-  <si>
-    <t>['29', '45+2', '47', '51']</t>
-  </si>
-  <si>
-    <t>['30']</t>
-  </si>
-  <si>
-    <t>['20']</t>
-  </si>
-  <si>
-    <t>['4']</t>
-  </si>
-  <si>
-    <t>['26', '46']</t>
-  </si>
-  <si>
-    <t>['10', '88']</t>
-  </si>
-  <si>
-    <t>['28', '59', '72', '75']</t>
-  </si>
-  <si>
-    <t>['14']</t>
-  </si>
-  <si>
     <t>['13', '18']</t>
   </si>
   <si>
+    <t>['81']</t>
+  </si>
+  <si>
+    <t>['36', '45+1']</t>
+  </si>
+  <si>
+    <t>['8', '75']</t>
+  </si>
+  <si>
     <t>['58', '89']</t>
   </si>
   <si>
-    <t>['81']</t>
-  </si>
-  <si>
-    <t>['36', '45+1']</t>
-  </si>
-  <si>
-    <t>['8', '75']</t>
-  </si>
-  <si>
     <t>['74']</t>
   </si>
   <si>
@@ -412,40 +412,40 @@
     <t>['23', '58', '87', '88']</t>
   </si>
   <si>
+    <t>['86']</t>
+  </si>
+  <si>
+    <t>['67', '84', '90+4']</t>
+  </si>
+  <si>
+    <t>['90+5']</t>
+  </si>
+  <si>
+    <t>['13', '47']</t>
+  </si>
+  <si>
+    <t>['7', '69', '81']</t>
+  </si>
+  <si>
+    <t>['8']</t>
+  </si>
+  <si>
     <t>['31', '68', '82']</t>
   </si>
   <si>
-    <t>['8']</t>
-  </si>
-  <si>
-    <t>['86']</t>
-  </si>
-  <si>
-    <t>['13', '47']</t>
-  </si>
-  <si>
-    <t>['90+5']</t>
-  </si>
-  <si>
-    <t>['67', '84', '90+4']</t>
-  </si>
-  <si>
-    <t>['7', '69', '81']</t>
+    <t>['5', '38', '39', '53']</t>
+  </si>
+  <si>
+    <t>['7', '45']</t>
+  </si>
+  <si>
+    <t>['7', '20']</t>
   </si>
   <si>
     <t>['69']</t>
   </si>
   <si>
-    <t>['7', '45']</t>
-  </si>
-  <si>
     <t>['73', '78']</t>
-  </si>
-  <si>
-    <t>['5', '38', '39', '53']</t>
-  </si>
-  <si>
-    <t>['7', '20']</t>
   </si>
 </sst>
 </file>
@@ -1042,7 +1042,7 @@
         <v>70</v>
       </c>
       <c r="H2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -1230,7 +1230,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>7477790</v>
+        <v>7477788</v>
       </c>
       <c r="C3" t="s">
         <v>68</v>
@@ -1248,25 +1248,25 @@
         <v>71</v>
       </c>
       <c r="H3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O3" t="s">
         <v>95</v>
@@ -1275,160 +1275,160 @@
         <v>124</v>
       </c>
       <c r="Q3">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="R3">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="S3">
+        <v>3.4</v>
+      </c>
+      <c r="T3">
+        <v>1.4</v>
+      </c>
+      <c r="U3">
+        <v>2.75</v>
+      </c>
+      <c r="V3">
+        <v>3</v>
+      </c>
+      <c r="W3">
+        <v>1.36</v>
+      </c>
+      <c r="X3">
+        <v>8</v>
+      </c>
+      <c r="Y3">
+        <v>1.08</v>
+      </c>
+      <c r="Z3">
+        <v>2.39</v>
+      </c>
+      <c r="AA3">
+        <v>3.21</v>
+      </c>
+      <c r="AB3">
+        <v>2.98</v>
+      </c>
+      <c r="AC3">
+        <v>1.02</v>
+      </c>
+      <c r="AD3">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE3">
+        <v>1.28</v>
+      </c>
+      <c r="AF3">
+        <v>3.18</v>
+      </c>
+      <c r="AG3">
+        <v>2.02</v>
+      </c>
+      <c r="AH3">
+        <v>1.78</v>
+      </c>
+      <c r="AI3">
+        <v>1.75</v>
+      </c>
+      <c r="AJ3">
+        <v>2</v>
+      </c>
+      <c r="AK3">
+        <v>1.47</v>
+      </c>
+      <c r="AL3">
+        <v>1.25</v>
+      </c>
+      <c r="AM3">
+        <v>1.5</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>1.5</v>
+      </c>
+      <c r="AQ3">
+        <v>3</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>2</v>
+      </c>
+      <c r="AV3">
         <v>4</v>
       </c>
-      <c r="T3">
-        <v>1.33</v>
-      </c>
-      <c r="U3">
-        <v>3.25</v>
-      </c>
-      <c r="V3">
-        <v>2.5</v>
-      </c>
-      <c r="W3">
-        <v>1.5</v>
-      </c>
-      <c r="X3">
-        <v>6.5</v>
-      </c>
-      <c r="Y3">
-        <v>1.11</v>
-      </c>
-      <c r="Z3">
-        <v>2</v>
-      </c>
-      <c r="AA3">
-        <v>3.5</v>
-      </c>
-      <c r="AB3">
-        <v>3.5</v>
-      </c>
-      <c r="AC3">
-        <v>1.03</v>
-      </c>
-      <c r="AD3">
+      <c r="AW3">
+        <v>4</v>
+      </c>
+      <c r="AX3">
+        <v>0</v>
+      </c>
+      <c r="AY3">
+        <v>6</v>
+      </c>
+      <c r="AZ3">
+        <v>4</v>
+      </c>
+      <c r="BA3">
+        <v>7</v>
+      </c>
+      <c r="BB3">
+        <v>6</v>
+      </c>
+      <c r="BC3">
         <v>13</v>
       </c>
-      <c r="AE3">
+      <c r="BD3">
+        <v>1.75</v>
+      </c>
+      <c r="BE3">
+        <v>8</v>
+      </c>
+      <c r="BF3">
+        <v>2.44</v>
+      </c>
+      <c r="BG3">
         <v>1.25</v>
       </c>
-      <c r="AF3">
-        <v>3.75</v>
-      </c>
-      <c r="AG3">
-        <v>1.73</v>
-      </c>
-      <c r="AH3">
-        <v>2</v>
-      </c>
-      <c r="AI3">
-        <v>1.62</v>
-      </c>
-      <c r="AJ3">
-        <v>2.2</v>
-      </c>
-      <c r="AK3">
-        <v>1.3</v>
-      </c>
-      <c r="AL3">
-        <v>1.22</v>
-      </c>
-      <c r="AM3">
-        <v>1.83</v>
-      </c>
-      <c r="AN3">
-        <v>0</v>
-      </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>3</v>
-      </c>
-      <c r="AQ3">
-        <v>0</v>
-      </c>
-      <c r="AR3">
-        <v>0</v>
-      </c>
-      <c r="AS3">
-        <v>0</v>
-      </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
-        <v>7</v>
-      </c>
-      <c r="AV3">
-        <v>5</v>
-      </c>
-      <c r="AW3">
-        <v>3</v>
-      </c>
-      <c r="AX3">
-        <v>10</v>
-      </c>
-      <c r="AY3">
-        <v>10</v>
-      </c>
-      <c r="AZ3">
-        <v>15</v>
-      </c>
-      <c r="BA3">
-        <v>5</v>
-      </c>
-      <c r="BB3">
-        <v>7</v>
-      </c>
-      <c r="BC3">
-        <v>12</v>
-      </c>
-      <c r="BD3">
-        <v>1.45</v>
-      </c>
-      <c r="BE3">
-        <v>9</v>
-      </c>
-      <c r="BF3">
-        <v>3.19</v>
-      </c>
-      <c r="BG3">
-        <v>1.2</v>
-      </c>
       <c r="BH3">
-        <v>3.95</v>
+        <v>3.45</v>
       </c>
       <c r="BI3">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="BJ3">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="BK3">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="BL3">
-        <v>2.23</v>
+        <v>2.05</v>
       </c>
       <c r="BM3">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="BN3">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="BO3">
-        <v>2.33</v>
+        <v>2.65</v>
       </c>
       <c r="BP3">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="4" spans="1:68">
@@ -1436,7 +1436,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>7477788</v>
+        <v>7477786</v>
       </c>
       <c r="C4" t="s">
         <v>68</v>
@@ -1454,40 +1454,40 @@
         <v>72</v>
       </c>
       <c r="H4" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O4" t="s">
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="Q4">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="R4">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S4">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="T4">
         <v>1.4</v>
@@ -1496,10 +1496,10 @@
         <v>2.75</v>
       </c>
       <c r="V4">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W4">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X4">
         <v>8</v>
@@ -1508,133 +1508,133 @@
         <v>1.08</v>
       </c>
       <c r="Z4">
-        <v>2.39</v>
+        <v>1.75</v>
       </c>
       <c r="AA4">
-        <v>3.21</v>
+        <v>3.6</v>
       </c>
       <c r="AB4">
-        <v>2.98</v>
+        <v>4.6</v>
       </c>
       <c r="AC4">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD4">
-        <v>8.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AE4">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="AF4">
-        <v>3.18</v>
+        <v>3.28</v>
       </c>
       <c r="AG4">
-        <v>2.02</v>
+        <v>1.85</v>
       </c>
       <c r="AH4">
-        <v>1.78</v>
+        <v>1.85</v>
       </c>
       <c r="AI4">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="AJ4">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AK4">
-        <v>1.47</v>
+        <v>1.17</v>
       </c>
       <c r="AL4">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AM4">
+        <v>2.2</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>3</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>7</v>
+      </c>
+      <c r="AV4">
+        <v>3</v>
+      </c>
+      <c r="AW4">
+        <v>13</v>
+      </c>
+      <c r="AX4">
+        <v>3</v>
+      </c>
+      <c r="AY4">
+        <v>20</v>
+      </c>
+      <c r="AZ4">
+        <v>6</v>
+      </c>
+      <c r="BA4">
+        <v>5</v>
+      </c>
+      <c r="BB4">
+        <v>3</v>
+      </c>
+      <c r="BC4">
+        <v>8</v>
+      </c>
+      <c r="BD4">
+        <v>1.51</v>
+      </c>
+      <c r="BE4">
+        <v>8.5</v>
+      </c>
+      <c r="BF4">
+        <v>3.16</v>
+      </c>
+      <c r="BG4">
+        <v>1.32</v>
+      </c>
+      <c r="BH4">
+        <v>3</v>
+      </c>
+      <c r="BI4">
+        <v>1.55</v>
+      </c>
+      <c r="BJ4">
+        <v>2.25</v>
+      </c>
+      <c r="BK4">
+        <v>1.91</v>
+      </c>
+      <c r="BL4">
+        <v>1.8</v>
+      </c>
+      <c r="BM4">
+        <v>2.33</v>
+      </c>
+      <c r="BN4">
         <v>1.5</v>
       </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>1.5</v>
-      </c>
-      <c r="AQ4">
-        <v>3</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>2</v>
-      </c>
-      <c r="AV4">
-        <v>4</v>
-      </c>
-      <c r="AW4">
-        <v>4</v>
-      </c>
-      <c r="AX4">
-        <v>0</v>
-      </c>
-      <c r="AY4">
-        <v>6</v>
-      </c>
-      <c r="AZ4">
-        <v>4</v>
-      </c>
-      <c r="BA4">
-        <v>7</v>
-      </c>
-      <c r="BB4">
-        <v>6</v>
-      </c>
-      <c r="BC4">
-        <v>13</v>
-      </c>
-      <c r="BD4">
-        <v>1.75</v>
-      </c>
-      <c r="BE4">
-        <v>8</v>
-      </c>
-      <c r="BF4">
-        <v>2.44</v>
-      </c>
-      <c r="BG4">
-        <v>1.25</v>
-      </c>
-      <c r="BH4">
-        <v>3.45</v>
-      </c>
-      <c r="BI4">
-        <v>1.44</v>
-      </c>
-      <c r="BJ4">
-        <v>2.55</v>
-      </c>
-      <c r="BK4">
-        <v>1.7</v>
-      </c>
-      <c r="BL4">
-        <v>2.05</v>
-      </c>
-      <c r="BM4">
-        <v>2.1</v>
-      </c>
-      <c r="BN4">
-        <v>1.64</v>
-      </c>
       <c r="BO4">
-        <v>2.65</v>
+        <v>3.05</v>
       </c>
       <c r="BP4">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="5" spans="1:68">
@@ -1642,7 +1642,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>7477786</v>
+        <v>7477785</v>
       </c>
       <c r="C5" t="s">
         <v>68</v>
@@ -1660,100 +1660,100 @@
         <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O5" t="s">
         <v>97</v>
       </c>
       <c r="P5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q5">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="R5">
+        <v>2.05</v>
+      </c>
+      <c r="S5">
+        <v>5</v>
+      </c>
+      <c r="T5">
+        <v>1.5</v>
+      </c>
+      <c r="U5">
+        <v>2.5</v>
+      </c>
+      <c r="V5">
+        <v>3.4</v>
+      </c>
+      <c r="W5">
+        <v>1.3</v>
+      </c>
+      <c r="X5">
+        <v>10</v>
+      </c>
+      <c r="Y5">
+        <v>1.06</v>
+      </c>
+      <c r="Z5">
+        <v>1.8</v>
+      </c>
+      <c r="AA5">
+        <v>3.47</v>
+      </c>
+      <c r="AB5">
+        <v>4.4</v>
+      </c>
+      <c r="AC5">
+        <v>1.08</v>
+      </c>
+      <c r="AD5">
+        <v>7.5</v>
+      </c>
+      <c r="AE5">
+        <v>1.42</v>
+      </c>
+      <c r="AF5">
+        <v>2.8</v>
+      </c>
+      <c r="AG5">
         <v>2.2</v>
       </c>
-      <c r="S5">
-        <v>5.5</v>
-      </c>
-      <c r="T5">
-        <v>1.4</v>
-      </c>
-      <c r="U5">
-        <v>2.75</v>
-      </c>
-      <c r="V5">
-        <v>2.75</v>
-      </c>
-      <c r="W5">
-        <v>1.4</v>
-      </c>
-      <c r="X5">
-        <v>8</v>
-      </c>
-      <c r="Y5">
-        <v>1.08</v>
-      </c>
-      <c r="Z5">
-        <v>1.75</v>
-      </c>
-      <c r="AA5">
-        <v>3.6</v>
-      </c>
-      <c r="AB5">
-        <v>4.6</v>
-      </c>
-      <c r="AC5">
-        <v>1.01</v>
-      </c>
-      <c r="AD5">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AE5">
-        <v>1.27</v>
-      </c>
-      <c r="AF5">
-        <v>3.28</v>
-      </c>
-      <c r="AG5">
-        <v>1.85</v>
-      </c>
       <c r="AH5">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="AI5">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="AJ5">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="AK5">
         <v>1.17</v>
       </c>
       <c r="AL5">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AM5">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="AN5">
         <v>0</v>
@@ -1777,70 +1777,70 @@
         <v>0</v>
       </c>
       <c r="AU5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW5">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AX5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY5">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AZ5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BA5">
+        <v>4</v>
+      </c>
+      <c r="BB5">
+        <v>1</v>
+      </c>
+      <c r="BC5">
         <v>5</v>
       </c>
-      <c r="BB5">
-        <v>3</v>
-      </c>
-      <c r="BC5">
-        <v>8</v>
-      </c>
       <c r="BD5">
-        <v>1.51</v>
+        <v>1.45</v>
       </c>
       <c r="BE5">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="BF5">
-        <v>3.16</v>
+        <v>3.19</v>
       </c>
       <c r="BG5">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="BH5">
-        <v>3</v>
+        <v>3.45</v>
       </c>
       <c r="BI5">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
       <c r="BJ5">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="BK5">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="BL5">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="BM5">
-        <v>2.33</v>
+        <v>2.05</v>
       </c>
       <c r="BN5">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="BO5">
-        <v>3.05</v>
+        <v>2.65</v>
       </c>
       <c r="BP5">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="6" spans="1:68">
@@ -1866,7 +1866,7 @@
         <v>74</v>
       </c>
       <c r="H6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1887,10 +1887,10 @@
         <v>2</v>
       </c>
       <c r="O6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2096,7 +2096,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2260,7 +2260,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>7477785</v>
+        <v>7477790</v>
       </c>
       <c r="C8" t="s">
         <v>68</v>
@@ -2278,148 +2278,148 @@
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O8" t="s">
         <v>99</v>
       </c>
       <c r="P8" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="Q8">
+        <v>2.6</v>
+      </c>
+      <c r="R8">
+        <v>2.3</v>
+      </c>
+      <c r="S8">
+        <v>4</v>
+      </c>
+      <c r="T8">
+        <v>1.33</v>
+      </c>
+      <c r="U8">
+        <v>3.25</v>
+      </c>
+      <c r="V8">
         <v>2.5</v>
       </c>
-      <c r="R8">
-        <v>2.05</v>
-      </c>
-      <c r="S8">
+      <c r="W8">
+        <v>1.5</v>
+      </c>
+      <c r="X8">
+        <v>6.5</v>
+      </c>
+      <c r="Y8">
+        <v>1.11</v>
+      </c>
+      <c r="Z8">
+        <v>2</v>
+      </c>
+      <c r="AA8">
+        <v>3.5</v>
+      </c>
+      <c r="AB8">
+        <v>3.5</v>
+      </c>
+      <c r="AC8">
+        <v>1.03</v>
+      </c>
+      <c r="AD8">
+        <v>13</v>
+      </c>
+      <c r="AE8">
+        <v>1.25</v>
+      </c>
+      <c r="AF8">
+        <v>3.75</v>
+      </c>
+      <c r="AG8">
+        <v>1.73</v>
+      </c>
+      <c r="AH8">
+        <v>2</v>
+      </c>
+      <c r="AI8">
+        <v>1.62</v>
+      </c>
+      <c r="AJ8">
+        <v>2.2</v>
+      </c>
+      <c r="AK8">
+        <v>1.3</v>
+      </c>
+      <c r="AL8">
+        <v>1.22</v>
+      </c>
+      <c r="AM8">
+        <v>1.83</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>3</v>
+      </c>
+      <c r="AQ8">
+        <v>0</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>7</v>
+      </c>
+      <c r="AV8">
         <v>5</v>
       </c>
-      <c r="T8">
-        <v>1.5</v>
-      </c>
-      <c r="U8">
-        <v>2.5</v>
-      </c>
-      <c r="V8">
-        <v>3.4</v>
-      </c>
-      <c r="W8">
-        <v>1.3</v>
-      </c>
-      <c r="X8">
+      <c r="AW8">
+        <v>3</v>
+      </c>
+      <c r="AX8">
         <v>10</v>
       </c>
-      <c r="Y8">
-        <v>1.06</v>
-      </c>
-      <c r="Z8">
-        <v>1.8</v>
-      </c>
-      <c r="AA8">
-        <v>3.47</v>
-      </c>
-      <c r="AB8">
-        <v>4.4</v>
-      </c>
-      <c r="AC8">
-        <v>1.08</v>
-      </c>
-      <c r="AD8">
-        <v>7.5</v>
-      </c>
-      <c r="AE8">
-        <v>1.42</v>
-      </c>
-      <c r="AF8">
-        <v>2.8</v>
-      </c>
-      <c r="AG8">
-        <v>2.2</v>
-      </c>
-      <c r="AH8">
-        <v>1.6</v>
-      </c>
-      <c r="AI8">
-        <v>2.05</v>
-      </c>
-      <c r="AJ8">
-        <v>1.7</v>
-      </c>
-      <c r="AK8">
-        <v>1.17</v>
-      </c>
-      <c r="AL8">
-        <v>1.25</v>
-      </c>
-      <c r="AM8">
-        <v>2.05</v>
-      </c>
-      <c r="AN8">
-        <v>0</v>
-      </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>3</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>0</v>
-      </c>
-      <c r="AS8">
-        <v>0</v>
-      </c>
-      <c r="AT8">
-        <v>0</v>
-      </c>
-      <c r="AU8">
+      <c r="AY8">
+        <v>10</v>
+      </c>
+      <c r="AZ8">
+        <v>15</v>
+      </c>
+      <c r="BA8">
         <v>5</v>
       </c>
-      <c r="AV8">
-        <v>2</v>
-      </c>
-      <c r="AW8">
-        <v>9</v>
-      </c>
-      <c r="AX8">
-        <v>2</v>
-      </c>
-      <c r="AY8">
-        <v>14</v>
-      </c>
-      <c r="AZ8">
-        <v>4</v>
-      </c>
-      <c r="BA8">
-        <v>4</v>
-      </c>
       <c r="BB8">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BC8">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="BD8">
         <v>1.45</v>
@@ -2431,34 +2431,34 @@
         <v>3.19</v>
       </c>
       <c r="BG8">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="BH8">
-        <v>3.45</v>
+        <v>3.95</v>
       </c>
       <c r="BI8">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="BJ8">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="BK8">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="BL8">
-        <v>2.05</v>
+        <v>2.23</v>
       </c>
       <c r="BM8">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="BN8">
-        <v>1.7</v>
+        <v>1.77</v>
       </c>
       <c r="BO8">
-        <v>2.65</v>
+        <v>2.33</v>
       </c>
       <c r="BP8">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="9" spans="1:68">
@@ -2484,7 +2484,7 @@
         <v>77</v>
       </c>
       <c r="H9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -2690,7 +2690,7 @@
         <v>78</v>
       </c>
       <c r="H10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -2896,7 +2896,7 @@
         <v>79</v>
       </c>
       <c r="H11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -2920,7 +2920,7 @@
         <v>102</v>
       </c>
       <c r="P11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q11">
         <v>2.63</v>
@@ -3102,7 +3102,7 @@
         <v>80</v>
       </c>
       <c r="H12" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -3308,7 +3308,7 @@
         <v>81</v>
       </c>
       <c r="H13" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -3332,7 +3332,7 @@
         <v>104</v>
       </c>
       <c r="P13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q13">
         <v>3.5</v>
@@ -3744,7 +3744,7 @@
         <v>102</v>
       </c>
       <c r="P15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q15">
         <v>2.5</v>
@@ -3908,7 +3908,7 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>7477804</v>
+        <v>7477794</v>
       </c>
       <c r="C16" t="s">
         <v>68</v>
@@ -3926,40 +3926,40 @@
         <v>84</v>
       </c>
       <c r="H16" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O16" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
       </c>
       <c r="R16">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S16">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T16">
         <v>1.4</v>
@@ -3968,58 +3968,58 @@
         <v>2.75</v>
       </c>
       <c r="V16">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W16">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X16">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y16">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z16">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="AA16">
         <v>3.4</v>
       </c>
       <c r="AB16">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="AC16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="AD16">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AE16">
         <v>1.3</v>
       </c>
       <c r="AF16">
-        <v>3.35</v>
+        <v>3.1</v>
       </c>
       <c r="AG16">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="AH16">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AI16">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AJ16">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AK16">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="AL16">
         <v>1.25</v>
       </c>
       <c r="AM16">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="AN16">
         <v>0</v>
@@ -4028,10 +4028,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="AQ16">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4043,70 +4043,70 @@
         <v>0</v>
       </c>
       <c r="AU16">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AV16">
         <v>4</v>
       </c>
       <c r="AW16">
+        <v>6</v>
+      </c>
+      <c r="AX16">
+        <v>4</v>
+      </c>
+      <c r="AY16">
+        <v>13</v>
+      </c>
+      <c r="AZ16">
         <v>8</v>
       </c>
-      <c r="AX16">
-        <v>1</v>
-      </c>
-      <c r="AY16">
-        <v>17</v>
-      </c>
-      <c r="AZ16">
-        <v>5</v>
-      </c>
       <c r="BA16">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BB16">
         <v>5</v>
       </c>
       <c r="BC16">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BD16">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="BE16">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="BF16">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="BG16">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="BH16">
-        <v>2.55</v>
+        <v>2.7</v>
       </c>
       <c r="BI16">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="BJ16">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="BK16">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="BL16">
-        <v>1.85</v>
+        <v>1.67</v>
       </c>
       <c r="BM16">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="BN16">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="BO16">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="BP16">
-        <v>1.21</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="17" spans="1:68">
@@ -4114,7 +4114,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>7479307</v>
+        <v>7477791</v>
       </c>
       <c r="C17" t="s">
         <v>68</v>
@@ -4132,7 +4132,7 @@
         <v>85</v>
       </c>
       <c r="H17" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -4147,22 +4147,22 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P17" t="s">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
       </c>
       <c r="R17">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S17">
         <v>4</v>
@@ -4174,10 +4174,10 @@
         <v>2.75</v>
       </c>
       <c r="V17">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W17">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X17">
         <v>8</v>
@@ -4186,133 +4186,133 @@
         <v>1.08</v>
       </c>
       <c r="Z17">
+        <v>2.23</v>
+      </c>
+      <c r="AA17">
+        <v>3.13</v>
+      </c>
+      <c r="AB17">
+        <v>2.82</v>
+      </c>
+      <c r="AC17">
+        <v>1.01</v>
+      </c>
+      <c r="AD17">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AE17">
+        <v>1.26</v>
+      </c>
+      <c r="AF17">
+        <v>3.34</v>
+      </c>
+      <c r="AG17">
+        <v>1.93</v>
+      </c>
+      <c r="AH17">
         <v>1.83</v>
       </c>
-      <c r="AA17">
-        <v>3.5</v>
-      </c>
-      <c r="AB17">
+      <c r="AI17">
+        <v>1.75</v>
+      </c>
+      <c r="AJ17">
+        <v>2</v>
+      </c>
+      <c r="AK17">
+        <v>1.33</v>
+      </c>
+      <c r="AL17">
+        <v>1.25</v>
+      </c>
+      <c r="AM17">
+        <v>1.72</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>0</v>
+      </c>
+      <c r="AQ17">
+        <v>3</v>
+      </c>
+      <c r="AR17">
+        <v>0</v>
+      </c>
+      <c r="AS17">
+        <v>0</v>
+      </c>
+      <c r="AT17">
+        <v>0</v>
+      </c>
+      <c r="AU17">
+        <v>0</v>
+      </c>
+      <c r="AV17">
+        <v>6</v>
+      </c>
+      <c r="AW17">
         <v>4</v>
       </c>
-      <c r="AC17">
-        <v>1.02</v>
-      </c>
-      <c r="AD17">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AE17">
-        <v>1.28</v>
-      </c>
-      <c r="AF17">
-        <v>3.18</v>
-      </c>
-      <c r="AG17">
-        <v>2</v>
-      </c>
-      <c r="AH17">
-        <v>1.85</v>
-      </c>
-      <c r="AI17">
-        <v>1.8</v>
-      </c>
-      <c r="AJ17">
-        <v>1.95</v>
-      </c>
-      <c r="AK17">
-        <v>1.31</v>
-      </c>
-      <c r="AL17">
-        <v>1.31</v>
-      </c>
-      <c r="AM17">
-        <v>1.76</v>
-      </c>
-      <c r="AN17">
-        <v>0</v>
-      </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
-      <c r="AP17">
-        <v>1</v>
-      </c>
-      <c r="AQ17">
-        <v>0.5</v>
-      </c>
-      <c r="AR17">
-        <v>0</v>
-      </c>
-      <c r="AS17">
-        <v>0</v>
-      </c>
-      <c r="AT17">
-        <v>0</v>
-      </c>
-      <c r="AU17">
-        <v>6</v>
-      </c>
-      <c r="AV17">
-        <v>2</v>
-      </c>
-      <c r="AW17">
-        <v>11</v>
-      </c>
       <c r="AX17">
         <v>3</v>
       </c>
       <c r="AY17">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="AZ17">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BA17">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BB17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC17">
         <v>5</v>
       </c>
       <c r="BD17">
-        <v>1.61</v>
+        <v>1.74</v>
       </c>
       <c r="BE17">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="BF17">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="BG17">
-        <v>1.24</v>
+        <v>1.3</v>
       </c>
       <c r="BH17">
-        <v>3.55</v>
+        <v>3.05</v>
       </c>
       <c r="BI17">
-        <v>1.41</v>
+        <v>1.55</v>
       </c>
       <c r="BJ17">
-        <v>2.65</v>
+        <v>2.28</v>
       </c>
       <c r="BK17">
-        <v>1.66</v>
+        <v>1.8</v>
       </c>
       <c r="BL17">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="BM17">
-        <v>2</v>
+        <v>2.35</v>
       </c>
       <c r="BN17">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="BO17">
-        <v>2.55</v>
+        <v>3.05</v>
       </c>
       <c r="BP17">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="18" spans="1:68">
@@ -4320,7 +4320,7 @@
         <v>17</v>
       </c>
       <c r="B18">
-        <v>7477807</v>
+        <v>7477797</v>
       </c>
       <c r="C18" t="s">
         <v>68</v>
@@ -4338,40 +4338,40 @@
         <v>86</v>
       </c>
       <c r="H18" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L18">
         <v>2</v>
       </c>
       <c r="M18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N18">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="P18" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q18">
-        <v>4.33</v>
+        <v>2.3</v>
       </c>
       <c r="R18">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S18">
-        <v>2.63</v>
+        <v>5.5</v>
       </c>
       <c r="T18">
         <v>1.4</v>
@@ -4386,139 +4386,139 @@
         <v>1.36</v>
       </c>
       <c r="X18">
+        <v>9</v>
+      </c>
+      <c r="Y18">
+        <v>1.07</v>
+      </c>
+      <c r="Z18">
+        <v>1.77</v>
+      </c>
+      <c r="AA18">
+        <v>3.25</v>
+      </c>
+      <c r="AB18">
+        <v>4.03</v>
+      </c>
+      <c r="AC18">
+        <v>1.06</v>
+      </c>
+      <c r="AD18">
+        <v>10</v>
+      </c>
+      <c r="AE18">
+        <v>1.33</v>
+      </c>
+      <c r="AF18">
+        <v>3.4</v>
+      </c>
+      <c r="AG18">
+        <v>2.02</v>
+      </c>
+      <c r="AH18">
+        <v>1.71</v>
+      </c>
+      <c r="AI18">
+        <v>1.95</v>
+      </c>
+      <c r="AJ18">
+        <v>1.8</v>
+      </c>
+      <c r="AK18">
+        <v>1.17</v>
+      </c>
+      <c r="AL18">
+        <v>1.25</v>
+      </c>
+      <c r="AM18">
+        <v>2.1</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>3</v>
+      </c>
+      <c r="AQ18">
+        <v>0.5</v>
+      </c>
+      <c r="AR18">
+        <v>0</v>
+      </c>
+      <c r="AS18">
+        <v>0</v>
+      </c>
+      <c r="AT18">
+        <v>0</v>
+      </c>
+      <c r="AU18">
+        <v>5</v>
+      </c>
+      <c r="AV18">
+        <v>4</v>
+      </c>
+      <c r="AW18">
+        <v>4</v>
+      </c>
+      <c r="AX18">
+        <v>2</v>
+      </c>
+      <c r="AY18">
+        <v>9</v>
+      </c>
+      <c r="AZ18">
+        <v>6</v>
+      </c>
+      <c r="BA18">
         <v>8</v>
       </c>
-      <c r="Y18">
-        <v>1.08</v>
-      </c>
-      <c r="Z18">
-        <v>3.3</v>
-      </c>
-      <c r="AA18">
-        <v>3.04</v>
-      </c>
-      <c r="AB18">
-        <v>1.93</v>
-      </c>
-      <c r="AC18">
-        <v>1.03</v>
-      </c>
-      <c r="AD18">
-        <v>9</v>
-      </c>
-      <c r="AE18">
+      <c r="BB18">
+        <v>4</v>
+      </c>
+      <c r="BC18">
+        <v>12</v>
+      </c>
+      <c r="BD18">
+        <v>1.48</v>
+      </c>
+      <c r="BE18">
+        <v>6.75</v>
+      </c>
+      <c r="BF18">
+        <v>2.7</v>
+      </c>
+      <c r="BG18">
         <v>1.3</v>
       </c>
-      <c r="AF18">
-        <v>3.2</v>
-      </c>
-      <c r="AG18">
-        <v>1.98</v>
-      </c>
-      <c r="AH18">
-        <v>1.78</v>
-      </c>
-      <c r="AI18">
-        <v>1.8</v>
-      </c>
-      <c r="AJ18">
-        <v>1.95</v>
-      </c>
-      <c r="AK18">
-        <v>1.78</v>
-      </c>
-      <c r="AL18">
-        <v>1.3</v>
-      </c>
-      <c r="AM18">
-        <v>1.3</v>
-      </c>
-      <c r="AN18">
-        <v>0</v>
-      </c>
-      <c r="AO18">
-        <v>0</v>
-      </c>
-      <c r="AP18">
-        <v>1.5</v>
-      </c>
-      <c r="AQ18">
-        <v>3</v>
-      </c>
-      <c r="AR18">
-        <v>0</v>
-      </c>
-      <c r="AS18">
-        <v>0</v>
-      </c>
-      <c r="AT18">
-        <v>0</v>
-      </c>
-      <c r="AU18">
-        <v>3</v>
-      </c>
-      <c r="AV18">
-        <v>8</v>
-      </c>
-      <c r="AW18">
-        <v>5</v>
-      </c>
-      <c r="AX18">
-        <v>1</v>
-      </c>
-      <c r="AY18">
-        <v>8</v>
-      </c>
-      <c r="AZ18">
-        <v>9</v>
-      </c>
-      <c r="BA18">
-        <v>1</v>
-      </c>
-      <c r="BB18">
-        <v>9</v>
-      </c>
-      <c r="BC18">
-        <v>10</v>
-      </c>
-      <c r="BD18">
-        <v>2.4</v>
-      </c>
-      <c r="BE18">
-        <v>6.4</v>
-      </c>
-      <c r="BF18">
-        <v>1.63</v>
-      </c>
-      <c r="BG18">
-        <v>1.26</v>
-      </c>
       <c r="BH18">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="BI18">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="BJ18">
-        <v>2.48</v>
+        <v>2.32</v>
       </c>
       <c r="BK18">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="BL18">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="BM18">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="BN18">
-        <v>1.8</v>
+        <v>1.54</v>
       </c>
       <c r="BO18">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="BP18">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="19" spans="1:68">
@@ -4526,7 +4526,7 @@
         <v>18</v>
       </c>
       <c r="B19">
-        <v>7477802</v>
+        <v>7477799</v>
       </c>
       <c r="C19" t="s">
         <v>68</v>
@@ -4544,7 +4544,7 @@
         <v>87</v>
       </c>
       <c r="H19" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -4556,88 +4556,88 @@
         <v>1</v>
       </c>
       <c r="L19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N19">
         <v>3</v>
       </c>
       <c r="O19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="P19" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q19">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="R19">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S19">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="T19">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U19">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V19">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="W19">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="X19">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y19">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Z19">
         <v>2.15</v>
       </c>
       <c r="AA19">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AB19">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AC19">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AD19">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE19">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="AF19">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="AG19">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="AH19">
-        <v>1.65</v>
+        <v>1.88</v>
       </c>
       <c r="AI19">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AJ19">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AK19">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AL19">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AM19">
-        <v>1.48</v>
+        <v>1.7</v>
       </c>
       <c r="AN19">
         <v>0</v>
@@ -4646,10 +4646,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4661,70 +4661,70 @@
         <v>0</v>
       </c>
       <c r="AU19">
+        <v>9</v>
+      </c>
+      <c r="AV19">
+        <v>4</v>
+      </c>
+      <c r="AW19">
+        <v>6</v>
+      </c>
+      <c r="AX19">
+        <v>2</v>
+      </c>
+      <c r="AY19">
+        <v>15</v>
+      </c>
+      <c r="AZ19">
+        <v>6</v>
+      </c>
+      <c r="BA19">
+        <v>4</v>
+      </c>
+      <c r="BB19">
         <v>7</v>
-      </c>
-      <c r="AV19">
-        <v>6</v>
-      </c>
-      <c r="AW19">
-        <v>3</v>
-      </c>
-      <c r="AX19">
-        <v>4</v>
-      </c>
-      <c r="AY19">
-        <v>10</v>
-      </c>
-      <c r="AZ19">
-        <v>10</v>
-      </c>
-      <c r="BA19">
-        <v>3</v>
-      </c>
-      <c r="BB19">
-        <v>8</v>
       </c>
       <c r="BC19">
         <v>11</v>
       </c>
       <c r="BD19">
-        <v>1.9</v>
+        <v>1.55</v>
       </c>
       <c r="BE19">
-        <v>6.4</v>
+        <v>8</v>
       </c>
       <c r="BF19">
-        <v>1.98</v>
+        <v>2.93</v>
       </c>
       <c r="BG19">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="BH19">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="BI19">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="BJ19">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="BK19">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="BL19">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="BM19">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="BN19">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="BO19">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="BP19">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="20" spans="1:68">
@@ -4732,7 +4732,7 @@
         <v>19</v>
       </c>
       <c r="B20">
-        <v>7477794</v>
+        <v>7477801</v>
       </c>
       <c r="C20" t="s">
         <v>68</v>
@@ -4750,100 +4750,100 @@
         <v>88</v>
       </c>
       <c r="H20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N20">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O20" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="P20" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q20">
-        <v>2.88</v>
+        <v>2.5</v>
       </c>
       <c r="R20">
+        <v>2.25</v>
+      </c>
+      <c r="S20">
+        <v>4.33</v>
+      </c>
+      <c r="T20">
+        <v>1.36</v>
+      </c>
+      <c r="U20">
+        <v>3</v>
+      </c>
+      <c r="V20">
+        <v>2.63</v>
+      </c>
+      <c r="W20">
+        <v>1.44</v>
+      </c>
+      <c r="X20">
+        <v>7</v>
+      </c>
+      <c r="Y20">
+        <v>1.1</v>
+      </c>
+      <c r="Z20">
         <v>2.1</v>
-      </c>
-      <c r="S20">
-        <v>4</v>
-      </c>
-      <c r="T20">
-        <v>1.4</v>
-      </c>
-      <c r="U20">
-        <v>2.75</v>
-      </c>
-      <c r="V20">
-        <v>3</v>
-      </c>
-      <c r="W20">
-        <v>1.36</v>
-      </c>
-      <c r="X20">
-        <v>9</v>
-      </c>
-      <c r="Y20">
-        <v>1.07</v>
-      </c>
-      <c r="Z20">
-        <v>1.95</v>
       </c>
       <c r="AA20">
         <v>3.4</v>
       </c>
       <c r="AB20">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="AC20">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD20">
-        <v>8.6</v>
+        <v>10</v>
       </c>
       <c r="AE20">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="AF20">
-        <v>3.1</v>
+        <v>3.64</v>
       </c>
       <c r="AG20">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="AH20">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="AI20">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AJ20">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AK20">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AL20">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="AM20">
-        <v>1.68</v>
+        <v>1.94</v>
       </c>
       <c r="AN20">
         <v>0</v>
@@ -4852,10 +4852,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ20">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -4867,70 +4867,70 @@
         <v>0</v>
       </c>
       <c r="AU20">
+        <v>8</v>
+      </c>
+      <c r="AV20">
+        <v>8</v>
+      </c>
+      <c r="AW20">
+        <v>5</v>
+      </c>
+      <c r="AX20">
         <v>7</v>
-      </c>
-      <c r="AV20">
-        <v>4</v>
-      </c>
-      <c r="AW20">
-        <v>6</v>
-      </c>
-      <c r="AX20">
-        <v>4</v>
       </c>
       <c r="AY20">
         <v>13</v>
       </c>
       <c r="AZ20">
+        <v>15</v>
+      </c>
+      <c r="BA20">
+        <v>5</v>
+      </c>
+      <c r="BB20">
+        <v>3</v>
+      </c>
+      <c r="BC20">
         <v>8</v>
       </c>
-      <c r="BA20">
-        <v>2</v>
-      </c>
-      <c r="BB20">
-        <v>5</v>
-      </c>
-      <c r="BC20">
-        <v>7</v>
-      </c>
       <c r="BD20">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="BE20">
-        <v>6.1</v>
+        <v>6.5</v>
       </c>
       <c r="BF20">
-        <v>2.38</v>
+        <v>2.65</v>
       </c>
       <c r="BG20">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="BH20">
-        <v>2.7</v>
+        <v>3.15</v>
       </c>
       <c r="BI20">
-        <v>1.65</v>
+        <v>1.52</v>
       </c>
       <c r="BJ20">
-        <v>2.08</v>
+        <v>2.33</v>
       </c>
       <c r="BK20">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="BL20">
-        <v>1.67</v>
+        <v>1.85</v>
       </c>
       <c r="BM20">
-        <v>2.65</v>
+        <v>2.3</v>
       </c>
       <c r="BN20">
-        <v>1.41</v>
+        <v>1.54</v>
       </c>
       <c r="BO20">
-        <v>3.45</v>
+        <v>2.95</v>
       </c>
       <c r="BP20">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="21" spans="1:68">
@@ -4938,7 +4938,7 @@
         <v>20</v>
       </c>
       <c r="B21">
-        <v>7477799</v>
+        <v>7477802</v>
       </c>
       <c r="C21" t="s">
         <v>68</v>
@@ -4956,7 +4956,7 @@
         <v>89</v>
       </c>
       <c r="H21" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -4968,10 +4968,10 @@
         <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N21">
         <v>3</v>
@@ -4980,76 +4980,76 @@
         <v>109</v>
       </c>
       <c r="P21" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q21">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="R21">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="S21">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="T21">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U21">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V21">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="W21">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="X21">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y21">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z21">
         <v>2.15</v>
       </c>
       <c r="AA21">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AB21">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AC21">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="AD21">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE21">
+        <v>1.38</v>
+      </c>
+      <c r="AF21">
+        <v>3</v>
+      </c>
+      <c r="AG21">
+        <v>2.08</v>
+      </c>
+      <c r="AH21">
+        <v>1.65</v>
+      </c>
+      <c r="AI21">
+        <v>1.8</v>
+      </c>
+      <c r="AJ21">
+        <v>1.95</v>
+      </c>
+      <c r="AK21">
+        <v>1.44</v>
+      </c>
+      <c r="AL21">
         <v>1.3</v>
       </c>
-      <c r="AF21">
-        <v>3.35</v>
-      </c>
-      <c r="AG21">
-        <v>1.98</v>
-      </c>
-      <c r="AH21">
-        <v>1.88</v>
-      </c>
-      <c r="AI21">
-        <v>1.75</v>
-      </c>
-      <c r="AJ21">
-        <v>2</v>
-      </c>
-      <c r="AK21">
-        <v>1.3</v>
-      </c>
-      <c r="AL21">
-        <v>1.25</v>
-      </c>
       <c r="AM21">
-        <v>1.7</v>
+        <v>1.48</v>
       </c>
       <c r="AN21">
         <v>0</v>
@@ -5058,10 +5058,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AQ21">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5073,70 +5073,70 @@
         <v>0</v>
       </c>
       <c r="AU21">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AV21">
+        <v>6</v>
+      </c>
+      <c r="AW21">
+        <v>3</v>
+      </c>
+      <c r="AX21">
         <v>4</v>
       </c>
-      <c r="AW21">
-        <v>6</v>
-      </c>
-      <c r="AX21">
-        <v>2</v>
-      </c>
       <c r="AY21">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AZ21">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BA21">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BC21">
         <v>11</v>
       </c>
       <c r="BD21">
-        <v>1.55</v>
+        <v>1.9</v>
       </c>
       <c r="BE21">
-        <v>8</v>
+        <v>6.4</v>
       </c>
       <c r="BF21">
-        <v>2.93</v>
+        <v>1.98</v>
       </c>
       <c r="BG21">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="BH21">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="BI21">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="BJ21">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="BK21">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="BL21">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="BM21">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="BN21">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="BO21">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="BP21">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="22" spans="1:68">
@@ -5144,7 +5144,7 @@
         <v>21</v>
       </c>
       <c r="B22">
-        <v>7477797</v>
+        <v>7477804</v>
       </c>
       <c r="C22" t="s">
         <v>68</v>
@@ -5162,7 +5162,7 @@
         <v>90</v>
       </c>
       <c r="H22" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -5177,25 +5177,25 @@
         <v>2</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O22" t="s">
         <v>110</v>
       </c>
       <c r="P22" t="s">
-        <v>136</v>
+        <v>95</v>
       </c>
       <c r="Q22">
-        <v>2.3</v>
+        <v>2.88</v>
       </c>
       <c r="R22">
         <v>2.2</v>
       </c>
       <c r="S22">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="T22">
         <v>1.4</v>
@@ -5204,58 +5204,58 @@
         <v>2.75</v>
       </c>
       <c r="V22">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W22">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X22">
+        <v>8</v>
+      </c>
+      <c r="Y22">
+        <v>1.08</v>
+      </c>
+      <c r="Z22">
+        <v>2.15</v>
+      </c>
+      <c r="AA22">
+        <v>3.4</v>
+      </c>
+      <c r="AB22">
+        <v>3.1</v>
+      </c>
+      <c r="AC22">
+        <v>1.05</v>
+      </c>
+      <c r="AD22">
         <v>9</v>
       </c>
-      <c r="Y22">
-        <v>1.07</v>
-      </c>
-      <c r="Z22">
-        <v>1.77</v>
-      </c>
-      <c r="AA22">
-        <v>3.25</v>
-      </c>
-      <c r="AB22">
-        <v>4.03</v>
-      </c>
-      <c r="AC22">
-        <v>1.06</v>
-      </c>
-      <c r="AD22">
-        <v>10</v>
-      </c>
       <c r="AE22">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AF22">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="AG22">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="AH22">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AI22">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="AJ22">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AK22">
-        <v>1.17</v>
+        <v>1.35</v>
       </c>
       <c r="AL22">
         <v>1.25</v>
       </c>
       <c r="AM22">
-        <v>2.1</v>
+        <v>1.65</v>
       </c>
       <c r="AN22">
         <v>0</v>
@@ -5267,7 +5267,7 @@
         <v>3</v>
       </c>
       <c r="AQ22">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5279,70 +5279,70 @@
         <v>0</v>
       </c>
       <c r="AU22">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AV22">
         <v>4</v>
       </c>
       <c r="AW22">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AX22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY22">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AZ22">
+        <v>5</v>
+      </c>
+      <c r="BA22">
         <v>6</v>
       </c>
-      <c r="BA22">
-        <v>8</v>
-      </c>
       <c r="BB22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC22">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD22">
-        <v>1.48</v>
+        <v>1.73</v>
       </c>
       <c r="BE22">
-        <v>6.75</v>
+        <v>5.8</v>
       </c>
       <c r="BF22">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="BG22">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="BH22">
-        <v>3.05</v>
+        <v>2.55</v>
       </c>
       <c r="BI22">
-        <v>1.52</v>
+        <v>1.72</v>
       </c>
       <c r="BJ22">
-        <v>2.32</v>
+        <v>1.98</v>
       </c>
       <c r="BK22">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="BL22">
         <v>1.85</v>
       </c>
       <c r="BM22">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="BN22">
-        <v>1.54</v>
+        <v>1.37</v>
       </c>
       <c r="BO22">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="BP22">
-        <v>1.34</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="23" spans="1:68">
@@ -5350,7 +5350,7 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>7477791</v>
+        <v>7477807</v>
       </c>
       <c r="C23" t="s">
         <v>68</v>
@@ -5368,40 +5368,40 @@
         <v>91</v>
       </c>
       <c r="H23" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M23">
         <v>3</v>
       </c>
       <c r="N23">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O23" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="P23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q23">
-        <v>2.75</v>
+        <v>4.33</v>
       </c>
       <c r="R23">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S23">
-        <v>4</v>
+        <v>2.63</v>
       </c>
       <c r="T23">
         <v>1.4</v>
@@ -5410,10 +5410,10 @@
         <v>2.75</v>
       </c>
       <c r="V23">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W23">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X23">
         <v>8</v>
@@ -5422,46 +5422,46 @@
         <v>1.08</v>
       </c>
       <c r="Z23">
-        <v>2.23</v>
+        <v>3.3</v>
       </c>
       <c r="AA23">
-        <v>3.13</v>
+        <v>3.04</v>
       </c>
       <c r="AB23">
-        <v>2.82</v>
+        <v>1.93</v>
       </c>
       <c r="AC23">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD23">
-        <v>9.300000000000001</v>
+        <v>9</v>
       </c>
       <c r="AE23">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="AF23">
-        <v>3.34</v>
+        <v>3.2</v>
       </c>
       <c r="AG23">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="AH23">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="AI23">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AJ23">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AK23">
-        <v>1.33</v>
+        <v>1.78</v>
       </c>
       <c r="AL23">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AM23">
-        <v>1.72</v>
+        <v>1.3</v>
       </c>
       <c r="AN23">
         <v>0</v>
@@ -5470,7 +5470,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ23">
         <v>3</v>
@@ -5485,70 +5485,70 @@
         <v>0</v>
       </c>
       <c r="AU23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AV23">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AW23">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AY23">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AZ23">
         <v>9</v>
       </c>
       <c r="BA23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BB23">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BC23">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BD23">
-        <v>1.74</v>
+        <v>2.4</v>
       </c>
       <c r="BE23">
-        <v>6.25</v>
+        <v>6.4</v>
       </c>
       <c r="BF23">
-        <v>2.2</v>
+        <v>1.63</v>
       </c>
       <c r="BG23">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="BH23">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="BI23">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="BJ23">
-        <v>2.28</v>
+        <v>2.48</v>
       </c>
       <c r="BK23">
+        <v>1.75</v>
+      </c>
+      <c r="BL23">
+        <v>1.95</v>
+      </c>
+      <c r="BM23">
+        <v>2</v>
+      </c>
+      <c r="BN23">
         <v>1.8</v>
       </c>
-      <c r="BL23">
-        <v>2</v>
-      </c>
-      <c r="BM23">
-        <v>2.35</v>
-      </c>
-      <c r="BN23">
-        <v>1.5</v>
-      </c>
       <c r="BO23">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="BP23">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="24" spans="1:68">
@@ -5556,7 +5556,7 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>7477801</v>
+        <v>7479307</v>
       </c>
       <c r="C24" t="s">
         <v>68</v>
@@ -5574,187 +5574,187 @@
         <v>92</v>
       </c>
       <c r="H24" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I24">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24" t="s">
+        <v>95</v>
+      </c>
+      <c r="P24" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q24">
+        <v>2.75</v>
+      </c>
+      <c r="R24">
+        <v>2.1</v>
+      </c>
+      <c r="S24">
+        <v>4</v>
+      </c>
+      <c r="T24">
+        <v>1.4</v>
+      </c>
+      <c r="U24">
+        <v>2.75</v>
+      </c>
+      <c r="V24">
+        <v>3</v>
+      </c>
+      <c r="W24">
+        <v>1.36</v>
+      </c>
+      <c r="X24">
+        <v>8</v>
+      </c>
+      <c r="Y24">
+        <v>1.08</v>
+      </c>
+      <c r="Z24">
+        <v>1.83</v>
+      </c>
+      <c r="AA24">
+        <v>3.5</v>
+      </c>
+      <c r="AB24">
+        <v>4</v>
+      </c>
+      <c r="AC24">
+        <v>1.02</v>
+      </c>
+      <c r="AD24">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AE24">
+        <v>1.28</v>
+      </c>
+      <c r="AF24">
+        <v>3.18</v>
+      </c>
+      <c r="AG24">
+        <v>2</v>
+      </c>
+      <c r="AH24">
+        <v>1.85</v>
+      </c>
+      <c r="AI24">
+        <v>1.8</v>
+      </c>
+      <c r="AJ24">
+        <v>1.95</v>
+      </c>
+      <c r="AK24">
+        <v>1.31</v>
+      </c>
+      <c r="AL24">
+        <v>1.31</v>
+      </c>
+      <c r="AM24">
+        <v>1.76</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>1</v>
+      </c>
+      <c r="AQ24">
+        <v>0.5</v>
+      </c>
+      <c r="AR24">
+        <v>0</v>
+      </c>
+      <c r="AS24">
+        <v>0</v>
+      </c>
+      <c r="AT24">
+        <v>0</v>
+      </c>
+      <c r="AU24">
         <v>6</v>
       </c>
-      <c r="O24" t="s">
-        <v>111</v>
-      </c>
-      <c r="P24" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q24">
-        <v>2.5</v>
-      </c>
-      <c r="R24">
-        <v>2.25</v>
-      </c>
-      <c r="S24">
-        <v>4.33</v>
-      </c>
-      <c r="T24">
-        <v>1.36</v>
-      </c>
-      <c r="U24">
-        <v>3</v>
-      </c>
-      <c r="V24">
-        <v>2.63</v>
-      </c>
-      <c r="W24">
-        <v>1.44</v>
-      </c>
-      <c r="X24">
-        <v>7</v>
-      </c>
-      <c r="Y24">
-        <v>1.1</v>
-      </c>
-      <c r="Z24">
-        <v>2.1</v>
-      </c>
-      <c r="AA24">
-        <v>3.4</v>
-      </c>
-      <c r="AB24">
-        <v>3.2</v>
-      </c>
-      <c r="AC24">
-        <v>1.01</v>
-      </c>
-      <c r="AD24">
-        <v>10</v>
-      </c>
-      <c r="AE24">
-        <v>1.22</v>
-      </c>
-      <c r="AF24">
-        <v>3.64</v>
-      </c>
-      <c r="AG24">
-        <v>1.98</v>
-      </c>
-      <c r="AH24">
-        <v>1.88</v>
-      </c>
-      <c r="AI24">
-        <v>1.75</v>
-      </c>
-      <c r="AJ24">
-        <v>2</v>
-      </c>
-      <c r="AK24">
-        <v>1.25</v>
-      </c>
-      <c r="AL24">
-        <v>1.27</v>
-      </c>
-      <c r="AM24">
-        <v>1.94</v>
-      </c>
-      <c r="AN24">
-        <v>0</v>
-      </c>
-      <c r="AO24">
-        <v>0</v>
-      </c>
-      <c r="AP24">
-        <v>1</v>
-      </c>
-      <c r="AQ24">
-        <v>1</v>
-      </c>
-      <c r="AR24">
-        <v>0</v>
-      </c>
-      <c r="AS24">
-        <v>0</v>
-      </c>
-      <c r="AT24">
-        <v>0</v>
-      </c>
-      <c r="AU24">
-        <v>8</v>
-      </c>
       <c r="AV24">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AW24">
+        <v>11</v>
+      </c>
+      <c r="AX24">
+        <v>3</v>
+      </c>
+      <c r="AY24">
+        <v>17</v>
+      </c>
+      <c r="AZ24">
         <v>5</v>
-      </c>
-      <c r="AX24">
-        <v>7</v>
-      </c>
-      <c r="AY24">
-        <v>13</v>
-      </c>
-      <c r="AZ24">
-        <v>15</v>
       </c>
       <c r="BA24">
         <v>5</v>
       </c>
       <c r="BB24">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BC24">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BD24">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="BE24">
         <v>6.5</v>
       </c>
       <c r="BF24">
+        <v>2.4</v>
+      </c>
+      <c r="BG24">
+        <v>1.24</v>
+      </c>
+      <c r="BH24">
+        <v>3.55</v>
+      </c>
+      <c r="BI24">
+        <v>1.41</v>
+      </c>
+      <c r="BJ24">
         <v>2.65</v>
       </c>
-      <c r="BG24">
-        <v>1.3</v>
-      </c>
-      <c r="BH24">
-        <v>3.15</v>
-      </c>
-      <c r="BI24">
-        <v>1.52</v>
-      </c>
-      <c r="BJ24">
-        <v>2.33</v>
-      </c>
       <c r="BK24">
-        <v>1.83</v>
+        <v>1.66</v>
       </c>
       <c r="BL24">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="BM24">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="BN24">
-        <v>1.54</v>
+        <v>1.8</v>
       </c>
       <c r="BO24">
-        <v>2.95</v>
+        <v>2.55</v>
       </c>
       <c r="BP24">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="25" spans="1:68">
@@ -5780,7 +5780,7 @@
         <v>93</v>
       </c>
       <c r="H25" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -5801,10 +5801,10 @@
         <v>0</v>
       </c>
       <c r="O25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q25">
         <v>2.63</v>
@@ -5983,7 +5983,7 @@
         <v>3</v>
       </c>
       <c r="G26" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H26" t="s">
         <v>79</v>
@@ -6010,7 +6010,7 @@
         <v>112</v>
       </c>
       <c r="P26" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q26">
         <v>2.5</v>
@@ -6192,7 +6192,7 @@
         <v>78</v>
       </c>
       <c r="H27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -6213,10 +6213,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="P27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q27">
         <v>3.6</v>
@@ -6380,7 +6380,7 @@
         <v>27</v>
       </c>
       <c r="B28">
-        <v>7477822</v>
+        <v>7477811</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
@@ -6395,43 +6395,43 @@
         <v>3</v>
       </c>
       <c r="G28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H28" t="s">
         <v>85</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N28">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="O28" t="s">
         <v>113</v>
       </c>
       <c r="P28" t="s">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="Q28">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="R28">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S28">
-        <v>3.6</v>
+        <v>2.6</v>
       </c>
       <c r="T28">
         <v>1.44</v>
@@ -6452,25 +6452,25 @@
         <v>1.07</v>
       </c>
       <c r="Z28">
-        <v>2.4</v>
+        <v>3.9</v>
       </c>
       <c r="AA28">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="AB28">
-        <v>2.9</v>
+        <v>1.95</v>
       </c>
       <c r="AC28">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="AD28">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE28">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AF28">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AG28">
         <v>2.05</v>
@@ -6479,79 +6479,79 @@
         <v>1.7</v>
       </c>
       <c r="AI28">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AJ28">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AK28">
-        <v>1.4</v>
+        <v>1.83</v>
       </c>
       <c r="AL28">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AM28">
+        <v>1.25</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>0.5</v>
+      </c>
+      <c r="AQ28">
+        <v>0.5</v>
+      </c>
+      <c r="AR28">
         <v>1.53</v>
       </c>
-      <c r="AN28">
-        <v>0</v>
-      </c>
-      <c r="AO28">
-        <v>0</v>
-      </c>
-      <c r="AP28">
-        <v>1.5</v>
-      </c>
-      <c r="AQ28">
-        <v>0</v>
-      </c>
-      <c r="AR28">
-        <v>0.87</v>
-      </c>
       <c r="AS28">
-        <v>1.26</v>
+        <v>1.88</v>
       </c>
       <c r="AT28">
-        <v>2.13</v>
+        <v>3.41</v>
       </c>
       <c r="AU28">
         <v>7</v>
       </c>
       <c r="AV28">
+        <v>8</v>
+      </c>
+      <c r="AW28">
+        <v>2</v>
+      </c>
+      <c r="AX28">
+        <v>3</v>
+      </c>
+      <c r="AY28">
         <v>9</v>
       </c>
-      <c r="AW28">
-        <v>4</v>
-      </c>
-      <c r="AX28">
-        <v>7</v>
-      </c>
-      <c r="AY28">
+      <c r="AZ28">
         <v>11</v>
       </c>
-      <c r="AZ28">
-        <v>16</v>
-      </c>
       <c r="BA28">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BB28">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BC28">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD28">
-        <v>1.89</v>
+        <v>2.4</v>
       </c>
       <c r="BE28">
-        <v>5.8</v>
+        <v>6.1</v>
       </c>
       <c r="BF28">
-        <v>2.02</v>
+        <v>1.65</v>
       </c>
       <c r="BG28">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="BH28">
         <v>2.55</v>
@@ -6560,7 +6560,7 @@
         <v>1.72</v>
       </c>
       <c r="BJ28">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="BK28">
         <v>2.17</v>
@@ -6575,10 +6575,10 @@
         <v>1.37</v>
       </c>
       <c r="BO28">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="BP28">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="29" spans="1:68">
@@ -6586,7 +6586,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>7477821</v>
+        <v>7477813</v>
       </c>
       <c r="C29" t="s">
         <v>68</v>
@@ -6601,190 +6601,190 @@
         <v>3</v>
       </c>
       <c r="G29" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="H29" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M29">
         <v>0</v>
       </c>
       <c r="N29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O29" t="s">
         <v>114</v>
       </c>
       <c r="P29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q29">
+        <v>3.6</v>
+      </c>
+      <c r="R29">
+        <v>2.1</v>
+      </c>
+      <c r="S29">
+        <v>3.1</v>
+      </c>
+      <c r="T29">
+        <v>1.44</v>
+      </c>
+      <c r="U29">
         <v>2.63</v>
       </c>
-      <c r="R29">
-        <v>2.3</v>
-      </c>
-      <c r="S29">
-        <v>3.75</v>
-      </c>
-      <c r="T29">
-        <v>1.3</v>
-      </c>
-      <c r="U29">
-        <v>3.4</v>
-      </c>
       <c r="V29">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="W29">
+        <v>1.33</v>
+      </c>
+      <c r="X29">
+        <v>9</v>
+      </c>
+      <c r="Y29">
+        <v>1.07</v>
+      </c>
+      <c r="Z29">
+        <v>2.85</v>
+      </c>
+      <c r="AA29">
+        <v>3.15</v>
+      </c>
+      <c r="AB29">
+        <v>2.35</v>
+      </c>
+      <c r="AC29">
+        <v>1.07</v>
+      </c>
+      <c r="AD29">
+        <v>8</v>
+      </c>
+      <c r="AE29">
+        <v>1.35</v>
+      </c>
+      <c r="AF29">
+        <v>3.1</v>
+      </c>
+      <c r="AG29">
+        <v>1.93</v>
+      </c>
+      <c r="AH29">
+        <v>1.83</v>
+      </c>
+      <c r="AI29">
+        <v>1.8</v>
+      </c>
+      <c r="AJ29">
+        <v>1.95</v>
+      </c>
+      <c r="AK29">
+        <v>1.55</v>
+      </c>
+      <c r="AL29">
+        <v>1.28</v>
+      </c>
+      <c r="AM29">
+        <v>1.38</v>
+      </c>
+      <c r="AN29">
+        <v>3</v>
+      </c>
+      <c r="AO29">
+        <v>3</v>
+      </c>
+      <c r="AP29">
+        <v>3</v>
+      </c>
+      <c r="AQ29">
         <v>1.5</v>
       </c>
-      <c r="X29">
-        <v>6</v>
-      </c>
-      <c r="Y29">
-        <v>1.13</v>
-      </c>
-      <c r="Z29">
-        <v>2.15</v>
-      </c>
-      <c r="AA29">
-        <v>3.35</v>
-      </c>
-      <c r="AB29">
-        <v>3.1</v>
-      </c>
-      <c r="AC29">
-        <v>1.04</v>
-      </c>
-      <c r="AD29">
-        <v>10</v>
-      </c>
-      <c r="AE29">
-        <v>1.22</v>
-      </c>
-      <c r="AF29">
-        <v>4.2</v>
-      </c>
-      <c r="AG29">
-        <v>1.62</v>
-      </c>
-      <c r="AH29">
-        <v>2.15</v>
-      </c>
-      <c r="AI29">
-        <v>1.57</v>
-      </c>
-      <c r="AJ29">
-        <v>2.25</v>
-      </c>
-      <c r="AK29">
-        <v>1.3</v>
-      </c>
-      <c r="AL29">
-        <v>1.22</v>
-      </c>
-      <c r="AM29">
-        <v>1.77</v>
-      </c>
-      <c r="AN29">
-        <v>3</v>
-      </c>
-      <c r="AO29">
-        <v>1</v>
-      </c>
-      <c r="AP29">
-        <v>3</v>
-      </c>
-      <c r="AQ29">
-        <v>0.5</v>
-      </c>
       <c r="AR29">
-        <v>1.43</v>
+        <v>1.31</v>
       </c>
       <c r="AS29">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="AT29">
-        <v>2.4</v>
+        <v>2.29</v>
       </c>
       <c r="AU29">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AV29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX29">
         <v>7</v>
       </c>
       <c r="AY29">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="AZ29">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA29">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB29">
         <v>3</v>
       </c>
       <c r="BC29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD29">
-        <v>1.68</v>
+        <v>2.05</v>
       </c>
       <c r="BE29">
-        <v>6.25</v>
+        <v>5.8</v>
       </c>
       <c r="BF29">
-        <v>2.32</v>
+        <v>1.88</v>
       </c>
       <c r="BG29">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="BH29">
-        <v>2.9</v>
+        <v>2.65</v>
       </c>
       <c r="BI29">
-        <v>1.57</v>
+        <v>1.71</v>
       </c>
       <c r="BJ29">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="BK29">
-        <v>1.93</v>
+        <v>2.15</v>
       </c>
       <c r="BL29">
-        <v>1.76</v>
+        <v>1.61</v>
       </c>
       <c r="BM29">
-        <v>2.43</v>
+        <v>2.75</v>
       </c>
       <c r="BN29">
-        <v>1.47</v>
+        <v>1.38</v>
       </c>
       <c r="BO29">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="BP29">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="30" spans="1:68">
@@ -6792,7 +6792,7 @@
         <v>29</v>
       </c>
       <c r="B30">
-        <v>7477817</v>
+        <v>7477814</v>
       </c>
       <c r="C30" t="s">
         <v>68</v>
@@ -6807,88 +6807,88 @@
         <v>3</v>
       </c>
       <c r="G30" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H30" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="I30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N30">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O30" t="s">
         <v>115</v>
       </c>
       <c r="P30" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q30">
-        <v>2.88</v>
+        <v>3.75</v>
       </c>
       <c r="R30">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S30">
-        <v>3.5</v>
+        <v>2.63</v>
       </c>
       <c r="T30">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U30">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V30">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W30">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X30">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y30">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="Z30">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="AA30">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="AB30">
-        <v>2.62</v>
+        <v>2.1</v>
       </c>
       <c r="AC30">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AD30">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE30">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AF30">
-        <v>3.65</v>
+        <v>3.95</v>
       </c>
       <c r="AG30">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="AH30">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="AI30">
         <v>1.67</v>
@@ -6897,16 +6897,16 @@
         <v>2.1</v>
       </c>
       <c r="AK30">
-        <v>1.38</v>
+        <v>1.75</v>
       </c>
       <c r="AL30">
         <v>1.25</v>
       </c>
       <c r="AM30">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
       <c r="AN30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO30">
         <v>3</v>
@@ -6915,58 +6915,58 @@
         <v>1.5</v>
       </c>
       <c r="AQ30">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AR30">
-        <v>1.84</v>
+        <v>1.76</v>
       </c>
       <c r="AS30">
-        <v>1.24</v>
+        <v>2.1</v>
       </c>
       <c r="AT30">
-        <v>3.08</v>
+        <v>3.86</v>
       </c>
       <c r="AU30">
+        <v>3</v>
+      </c>
+      <c r="AV30">
         <v>9</v>
       </c>
-      <c r="AV30">
-        <v>4</v>
-      </c>
       <c r="AW30">
+        <v>7</v>
+      </c>
+      <c r="AX30">
+        <v>2</v>
+      </c>
+      <c r="AY30">
+        <v>10</v>
+      </c>
+      <c r="AZ30">
+        <v>11</v>
+      </c>
+      <c r="BA30">
+        <v>11</v>
+      </c>
+      <c r="BB30">
         <v>5</v>
       </c>
-      <c r="AX30">
-        <v>6</v>
-      </c>
-      <c r="AY30">
-        <v>14</v>
-      </c>
-      <c r="AZ30">
-        <v>10</v>
-      </c>
-      <c r="BA30">
-        <v>8</v>
-      </c>
-      <c r="BB30">
-        <v>3</v>
-      </c>
       <c r="BC30">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="BD30">
-        <v>1.75</v>
+        <v>2.28</v>
       </c>
       <c r="BE30">
-        <v>7.5</v>
+        <v>6.25</v>
       </c>
       <c r="BF30">
-        <v>2.45</v>
+        <v>1.7</v>
       </c>
       <c r="BG30">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="BH30">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="BI30">
         <v>1.61</v>
@@ -6975,16 +6975,16 @@
         <v>2.15</v>
       </c>
       <c r="BK30">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="BL30">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="BM30">
         <v>2.55</v>
       </c>
       <c r="BN30">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="BO30">
         <v>3.3</v>
@@ -6998,7 +6998,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>7477820</v>
+        <v>7477815</v>
       </c>
       <c r="C31" t="s">
         <v>68</v>
@@ -7013,10 +7013,10 @@
         <v>3</v>
       </c>
       <c r="G31" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="H31" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -7040,163 +7040,163 @@
         <v>116</v>
       </c>
       <c r="P31" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q31">
-        <v>2.5</v>
+        <v>1.95</v>
       </c>
       <c r="R31">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="S31">
-        <v>4.75</v>
+        <v>7</v>
       </c>
       <c r="T31">
+        <v>1.36</v>
+      </c>
+      <c r="U31">
+        <v>3</v>
+      </c>
+      <c r="V31">
+        <v>2.75</v>
+      </c>
+      <c r="W31">
         <v>1.4</v>
       </c>
-      <c r="U31">
-        <v>2.75</v>
-      </c>
-      <c r="V31">
-        <v>3</v>
-      </c>
-      <c r="W31">
-        <v>1.36</v>
-      </c>
       <c r="X31">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y31">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z31">
-        <v>1.85</v>
+        <v>1.4</v>
       </c>
       <c r="AA31">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="AB31">
-        <v>4.2</v>
+        <v>7.25</v>
       </c>
       <c r="AC31">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AD31">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE31">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AF31">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="AG31">
-        <v>1.95</v>
+        <v>1.86</v>
       </c>
       <c r="AH31">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AI31">
+        <v>2.05</v>
+      </c>
+      <c r="AJ31">
+        <v>1.7</v>
+      </c>
+      <c r="AK31">
+        <v>1.1</v>
+      </c>
+      <c r="AL31">
+        <v>1.17</v>
+      </c>
+      <c r="AM31">
+        <v>2.7</v>
+      </c>
+      <c r="AN31">
+        <v>3</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
+      <c r="AP31">
+        <v>3</v>
+      </c>
+      <c r="AQ31">
+        <v>0</v>
+      </c>
+      <c r="AR31">
+        <v>1.14</v>
+      </c>
+      <c r="AS31">
+        <v>0.77</v>
+      </c>
+      <c r="AT31">
         <v>1.91</v>
       </c>
-      <c r="AJ31">
-        <v>1.91</v>
-      </c>
-      <c r="AK31">
-        <v>1.22</v>
-      </c>
-      <c r="AL31">
-        <v>1.22</v>
-      </c>
-      <c r="AM31">
-        <v>1.95</v>
-      </c>
-      <c r="AN31">
-        <v>0</v>
-      </c>
-      <c r="AO31">
-        <v>3</v>
-      </c>
-      <c r="AP31">
-        <v>1.5</v>
-      </c>
-      <c r="AQ31">
-        <v>1.5</v>
-      </c>
-      <c r="AR31">
-        <v>0.89</v>
-      </c>
-      <c r="AS31">
-        <v>1.15</v>
-      </c>
-      <c r="AT31">
-        <v>2.04</v>
-      </c>
       <c r="AU31">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV31">
         <v>4</v>
       </c>
       <c r="AW31">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AX31">
+        <v>4</v>
+      </c>
+      <c r="AY31">
+        <v>11</v>
+      </c>
+      <c r="AZ31">
+        <v>8</v>
+      </c>
+      <c r="BA31">
+        <v>5</v>
+      </c>
+      <c r="BB31">
+        <v>2</v>
+      </c>
+      <c r="BC31">
         <v>7</v>
       </c>
-      <c r="AY31">
-        <v>3</v>
-      </c>
-      <c r="AZ31">
-        <v>11</v>
-      </c>
-      <c r="BA31">
-        <v>4</v>
-      </c>
-      <c r="BB31">
-        <v>9</v>
-      </c>
-      <c r="BC31">
-        <v>13</v>
-      </c>
       <c r="BD31">
-        <v>1.58</v>
+        <v>1.35</v>
       </c>
       <c r="BE31">
-        <v>6.25</v>
+        <v>6.75</v>
       </c>
       <c r="BF31">
-        <v>2.48</v>
+        <v>3.3</v>
       </c>
       <c r="BG31">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="BH31">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="BI31">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="BJ31">
-        <v>2.02</v>
+        <v>2.08</v>
       </c>
       <c r="BK31">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="BL31">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="BM31">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="BN31">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="BO31">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="BP31">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="32" spans="1:68">
@@ -7204,7 +7204,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>7477815</v>
+        <v>7477816</v>
       </c>
       <c r="C32" t="s">
         <v>68</v>
@@ -7219,49 +7219,49 @@
         <v>3</v>
       </c>
       <c r="G32" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="H32" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I32">
         <v>1</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O32" t="s">
         <v>117</v>
       </c>
       <c r="P32" t="s">
-        <v>96</v>
+        <v>141</v>
       </c>
       <c r="Q32">
-        <v>1.95</v>
+        <v>4.33</v>
       </c>
       <c r="R32">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="S32">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="T32">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U32">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V32">
         <v>2.75</v>
@@ -7270,139 +7270,139 @@
         <v>1.4</v>
       </c>
       <c r="X32">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y32">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z32">
-        <v>1.4</v>
+        <v>4.1</v>
       </c>
       <c r="AA32">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="AB32">
-        <v>7.25</v>
+        <v>1.8</v>
       </c>
       <c r="AC32">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AD32">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AE32">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AF32">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="AG32">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="AH32">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="AI32">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="AJ32">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="AK32">
-        <v>1.1</v>
+        <v>1.92</v>
       </c>
       <c r="AL32">
-        <v>1.17</v>
+        <v>1.28</v>
       </c>
       <c r="AM32">
-        <v>2.7</v>
+        <v>1.24</v>
       </c>
       <c r="AN32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AQ32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR32">
-        <v>1.14</v>
+        <v>1.32</v>
       </c>
       <c r="AS32">
-        <v>0.77</v>
+        <v>1.47</v>
       </c>
       <c r="AT32">
-        <v>1.91</v>
+        <v>2.79</v>
       </c>
       <c r="AU32">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AV32">
         <v>4</v>
       </c>
       <c r="AW32">
+        <v>4</v>
+      </c>
+      <c r="AX32">
+        <v>3</v>
+      </c>
+      <c r="AY32">
+        <v>8</v>
+      </c>
+      <c r="AZ32">
+        <v>7</v>
+      </c>
+      <c r="BA32">
+        <v>6</v>
+      </c>
+      <c r="BB32">
         <v>5</v>
       </c>
-      <c r="AX32">
-        <v>4</v>
-      </c>
-      <c r="AY32">
+      <c r="BC32">
         <v>11</v>
       </c>
-      <c r="AZ32">
-        <v>8</v>
-      </c>
-      <c r="BA32">
-        <v>5</v>
-      </c>
-      <c r="BB32">
-        <v>2</v>
-      </c>
-      <c r="BC32">
-        <v>7</v>
-      </c>
       <c r="BD32">
-        <v>1.35</v>
+        <v>2.4</v>
       </c>
       <c r="BE32">
-        <v>6.75</v>
+        <v>6.4</v>
       </c>
       <c r="BF32">
-        <v>3.3</v>
+        <v>1.63</v>
       </c>
       <c r="BG32">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="BH32">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="BI32">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="BJ32">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="BK32">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="BL32">
         <v>1.67</v>
       </c>
       <c r="BM32">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="BN32">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="BO32">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="BP32">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="33" spans="1:68">
@@ -7410,7 +7410,7 @@
         <v>32</v>
       </c>
       <c r="B33">
-        <v>7477814</v>
+        <v>7477817</v>
       </c>
       <c r="C33" t="s">
         <v>68</v>
@@ -7425,88 +7425,88 @@
         <v>3</v>
       </c>
       <c r="G33" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="H33" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L33">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N33">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O33" t="s">
         <v>118</v>
       </c>
       <c r="P33" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q33">
-        <v>3.75</v>
+        <v>2.88</v>
       </c>
       <c r="R33">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S33">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="T33">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U33">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V33">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W33">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X33">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y33">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Z33">
-        <v>3.25</v>
+        <v>2.3</v>
       </c>
       <c r="AA33">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="AB33">
-        <v>2.1</v>
+        <v>2.62</v>
       </c>
       <c r="AC33">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AD33">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE33">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AF33">
-        <v>3.95</v>
+        <v>3.65</v>
       </c>
       <c r="AG33">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="AH33">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="AI33">
         <v>1.67</v>
@@ -7515,16 +7515,16 @@
         <v>2.1</v>
       </c>
       <c r="AK33">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="AL33">
         <v>1.25</v>
       </c>
       <c r="AM33">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
       <c r="AN33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO33">
         <v>3</v>
@@ -7533,58 +7533,58 @@
         <v>1.5</v>
       </c>
       <c r="AQ33">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR33">
-        <v>1.76</v>
+        <v>1.84</v>
       </c>
       <c r="AS33">
-        <v>2.1</v>
+        <v>1.24</v>
       </c>
       <c r="AT33">
-        <v>3.86</v>
+        <v>3.08</v>
       </c>
       <c r="AU33">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AV33">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AW33">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AX33">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AY33">
+        <v>14</v>
+      </c>
+      <c r="AZ33">
         <v>10</v>
       </c>
-      <c r="AZ33">
+      <c r="BA33">
+        <v>8</v>
+      </c>
+      <c r="BB33">
+        <v>3</v>
+      </c>
+      <c r="BC33">
         <v>11</v>
       </c>
-      <c r="BA33">
-        <v>11</v>
-      </c>
-      <c r="BB33">
-        <v>5</v>
-      </c>
-      <c r="BC33">
-        <v>16</v>
-      </c>
       <c r="BD33">
-        <v>2.28</v>
+        <v>1.75</v>
       </c>
       <c r="BE33">
-        <v>6.25</v>
+        <v>7.5</v>
       </c>
       <c r="BF33">
-        <v>1.7</v>
+        <v>2.45</v>
       </c>
       <c r="BG33">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="BH33">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="BI33">
         <v>1.61</v>
@@ -7593,16 +7593,16 @@
         <v>2.15</v>
       </c>
       <c r="BK33">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="BL33">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="BM33">
         <v>2.55</v>
       </c>
       <c r="BN33">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="BO33">
         <v>3.3</v>
@@ -7634,7 +7634,7 @@
         <v>70</v>
       </c>
       <c r="H34" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -7658,7 +7658,7 @@
         <v>119</v>
       </c>
       <c r="P34" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q34">
         <v>2.2</v>
@@ -7822,7 +7822,7 @@
         <v>34</v>
       </c>
       <c r="B35">
-        <v>7477813</v>
+        <v>7477820</v>
       </c>
       <c r="C35" t="s">
         <v>68</v>
@@ -7837,10 +7837,10 @@
         <v>3</v>
       </c>
       <c r="G35" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="H35" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -7852,175 +7852,175 @@
         <v>1</v>
       </c>
       <c r="L35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M35">
         <v>0</v>
       </c>
       <c r="N35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O35" t="s">
         <v>120</v>
       </c>
       <c r="P35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q35">
+        <v>2.5</v>
+      </c>
+      <c r="R35">
+        <v>2.2</v>
+      </c>
+      <c r="S35">
+        <v>4.75</v>
+      </c>
+      <c r="T35">
+        <v>1.4</v>
+      </c>
+      <c r="U35">
+        <v>2.75</v>
+      </c>
+      <c r="V35">
+        <v>3</v>
+      </c>
+      <c r="W35">
+        <v>1.36</v>
+      </c>
+      <c r="X35">
+        <v>8</v>
+      </c>
+      <c r="Y35">
+        <v>1.08</v>
+      </c>
+      <c r="Z35">
+        <v>1.85</v>
+      </c>
+      <c r="AA35">
         <v>3.6</v>
       </c>
-      <c r="R35">
-        <v>2.1</v>
-      </c>
-      <c r="S35">
-        <v>3.1</v>
-      </c>
-      <c r="T35">
-        <v>1.44</v>
-      </c>
-      <c r="U35">
-        <v>2.63</v>
-      </c>
-      <c r="V35">
-        <v>3.25</v>
-      </c>
-      <c r="W35">
-        <v>1.33</v>
-      </c>
-      <c r="X35">
+      <c r="AB35">
+        <v>4.2</v>
+      </c>
+      <c r="AC35">
+        <v>1.05</v>
+      </c>
+      <c r="AD35">
         <v>9</v>
       </c>
-      <c r="Y35">
-        <v>1.07</v>
-      </c>
-      <c r="Z35">
-        <v>2.85</v>
-      </c>
-      <c r="AA35">
-        <v>3.15</v>
-      </c>
-      <c r="AB35">
-        <v>2.35</v>
-      </c>
-      <c r="AC35">
-        <v>1.07</v>
-      </c>
-      <c r="AD35">
-        <v>8</v>
-      </c>
       <c r="AE35">
-        <v>1.35</v>
+        <v>1.3</v>
       </c>
       <c r="AF35">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="AG35">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="AH35">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AI35">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AJ35">
+        <v>1.91</v>
+      </c>
+      <c r="AK35">
+        <v>1.22</v>
+      </c>
+      <c r="AL35">
+        <v>1.22</v>
+      </c>
+      <c r="AM35">
         <v>1.95</v>
       </c>
-      <c r="AK35">
-        <v>1.55</v>
-      </c>
-      <c r="AL35">
-        <v>1.28</v>
-      </c>
-      <c r="AM35">
-        <v>1.38</v>
-      </c>
       <c r="AN35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO35">
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ35">
         <v>1.5</v>
       </c>
       <c r="AR35">
-        <v>1.31</v>
+        <v>0.89</v>
       </c>
       <c r="AS35">
-        <v>0.98</v>
+        <v>1.15</v>
       </c>
       <c r="AT35">
-        <v>2.29</v>
+        <v>2.04</v>
       </c>
       <c r="AU35">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AV35">
         <v>4</v>
       </c>
       <c r="AW35">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX35">
         <v>7</v>
       </c>
       <c r="AY35">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AZ35">
         <v>11</v>
       </c>
       <c r="BA35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB35">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="BC35">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BD35">
-        <v>2.05</v>
+        <v>1.58</v>
       </c>
       <c r="BE35">
-        <v>5.8</v>
+        <v>6.25</v>
       </c>
       <c r="BF35">
-        <v>1.88</v>
+        <v>2.48</v>
       </c>
       <c r="BG35">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="BH35">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="BI35">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="BJ35">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="BK35">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="BL35">
-        <v>1.61</v>
+        <v>1.64</v>
       </c>
       <c r="BM35">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="BN35">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="BO35">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="BP35">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="36" spans="1:68">
@@ -8028,7 +8028,7 @@
         <v>35</v>
       </c>
       <c r="B36">
-        <v>7477811</v>
+        <v>7477821</v>
       </c>
       <c r="C36" t="s">
         <v>68</v>
@@ -8043,190 +8043,190 @@
         <v>3</v>
       </c>
       <c r="G36" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="H36" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M36">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N36">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="O36" t="s">
         <v>121</v>
       </c>
       <c r="P36" t="s">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="Q36">
-        <v>4.5</v>
+        <v>2.63</v>
       </c>
       <c r="R36">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="S36">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="T36">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="U36">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="V36">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="W36">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="X36">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Y36">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="Z36">
-        <v>3.9</v>
+        <v>2.15</v>
       </c>
       <c r="AA36">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="AB36">
-        <v>1.95</v>
+        <v>3.1</v>
       </c>
       <c r="AC36">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="AD36">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AE36">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="AF36">
-        <v>3.1</v>
+        <v>4.2</v>
       </c>
       <c r="AG36">
-        <v>2.05</v>
+        <v>1.62</v>
       </c>
       <c r="AH36">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="AI36">
-        <v>1.95</v>
+        <v>1.57</v>
       </c>
       <c r="AJ36">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="AK36">
-        <v>1.83</v>
+        <v>1.3</v>
       </c>
       <c r="AL36">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AM36">
-        <v>1.25</v>
+        <v>1.77</v>
       </c>
       <c r="AN36">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP36">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AQ36">
         <v>0.5</v>
       </c>
       <c r="AR36">
-        <v>1.53</v>
+        <v>1.43</v>
       </c>
       <c r="AS36">
-        <v>1.88</v>
+        <v>0.97</v>
       </c>
       <c r="AT36">
-        <v>3.41</v>
+        <v>2.4</v>
       </c>
       <c r="AU36">
+        <v>8</v>
+      </c>
+      <c r="AV36">
+        <v>2</v>
+      </c>
+      <c r="AW36">
+        <v>4</v>
+      </c>
+      <c r="AX36">
         <v>7</v>
       </c>
-      <c r="AV36">
-        <v>8</v>
-      </c>
-      <c r="AW36">
-        <v>2</v>
-      </c>
-      <c r="AX36">
-        <v>3</v>
-      </c>
       <c r="AY36">
+        <v>12</v>
+      </c>
+      <c r="AZ36">
         <v>9</v>
       </c>
-      <c r="AZ36">
-        <v>11</v>
-      </c>
       <c r="BA36">
         <v>2</v>
       </c>
       <c r="BB36">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="BC36">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="BD36">
-        <v>2.4</v>
+        <v>1.68</v>
       </c>
       <c r="BE36">
-        <v>6.1</v>
+        <v>6.25</v>
       </c>
       <c r="BF36">
-        <v>1.65</v>
+        <v>2.32</v>
       </c>
       <c r="BG36">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
       <c r="BH36">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="BI36">
-        <v>1.72</v>
+        <v>1.57</v>
       </c>
       <c r="BJ36">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="BK36">
-        <v>2.17</v>
+        <v>1.93</v>
       </c>
       <c r="BL36">
-        <v>1.6</v>
+        <v>1.76</v>
       </c>
       <c r="BM36">
-        <v>2.8</v>
+        <v>2.43</v>
       </c>
       <c r="BN36">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="BO36">
-        <v>3.7</v>
+        <v>3.15</v>
       </c>
       <c r="BP36">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="37" spans="1:68">
@@ -8234,7 +8234,7 @@
         <v>36</v>
       </c>
       <c r="B37">
-        <v>7477816</v>
+        <v>7477822</v>
       </c>
       <c r="C37" t="s">
         <v>68</v>
@@ -8249,190 +8249,190 @@
         <v>3</v>
       </c>
       <c r="G37" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="H37" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O37" t="s">
         <v>122</v>
       </c>
       <c r="P37" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="Q37">
-        <v>4.33</v>
+        <v>3.2</v>
       </c>
       <c r="R37">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="S37">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="T37">
+        <v>1.44</v>
+      </c>
+      <c r="U37">
+        <v>2.63</v>
+      </c>
+      <c r="V37">
+        <v>3.25</v>
+      </c>
+      <c r="W37">
+        <v>1.33</v>
+      </c>
+      <c r="X37">
+        <v>9</v>
+      </c>
+      <c r="Y37">
+        <v>1.07</v>
+      </c>
+      <c r="Z37">
+        <v>2.4</v>
+      </c>
+      <c r="AA37">
+        <v>3.3</v>
+      </c>
+      <c r="AB37">
+        <v>2.9</v>
+      </c>
+      <c r="AC37">
+        <v>1.07</v>
+      </c>
+      <c r="AD37">
+        <v>8</v>
+      </c>
+      <c r="AE37">
+        <v>1.38</v>
+      </c>
+      <c r="AF37">
+        <v>3</v>
+      </c>
+      <c r="AG37">
+        <v>2.05</v>
+      </c>
+      <c r="AH37">
+        <v>1.7</v>
+      </c>
+      <c r="AI37">
+        <v>1.91</v>
+      </c>
+      <c r="AJ37">
+        <v>1.91</v>
+      </c>
+      <c r="AK37">
         <v>1.4</v>
-      </c>
-      <c r="U37">
-        <v>2.75</v>
-      </c>
-      <c r="V37">
-        <v>2.75</v>
-      </c>
-      <c r="W37">
-        <v>1.4</v>
-      </c>
-      <c r="X37">
-        <v>8</v>
-      </c>
-      <c r="Y37">
-        <v>1.08</v>
-      </c>
-      <c r="Z37">
-        <v>4.1</v>
-      </c>
-      <c r="AA37">
-        <v>3.5</v>
-      </c>
-      <c r="AB37">
-        <v>1.8</v>
-      </c>
-      <c r="AC37">
-        <v>1.05</v>
-      </c>
-      <c r="AD37">
-        <v>9</v>
-      </c>
-      <c r="AE37">
-        <v>1.3</v>
-      </c>
-      <c r="AF37">
-        <v>3.4</v>
-      </c>
-      <c r="AG37">
-        <v>1.88</v>
-      </c>
-      <c r="AH37">
-        <v>1.88</v>
-      </c>
-      <c r="AI37">
-        <v>1.8</v>
-      </c>
-      <c r="AJ37">
-        <v>1.95</v>
-      </c>
-      <c r="AK37">
-        <v>1.92</v>
       </c>
       <c r="AL37">
         <v>1.28</v>
       </c>
       <c r="AM37">
-        <v>1.24</v>
+        <v>1.53</v>
       </c>
       <c r="AN37">
         <v>0</v>
       </c>
       <c r="AO37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP37">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR37">
-        <v>1.32</v>
+        <v>0.87</v>
       </c>
       <c r="AS37">
-        <v>1.47</v>
+        <v>1.26</v>
       </c>
       <c r="AT37">
-        <v>2.79</v>
+        <v>2.13</v>
       </c>
       <c r="AU37">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV37">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AW37">
         <v>4</v>
       </c>
       <c r="AX37">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AY37">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ37">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="BA37">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BB37">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BC37">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BD37">
-        <v>2.4</v>
+        <v>1.89</v>
       </c>
       <c r="BE37">
-        <v>6.4</v>
+        <v>5.8</v>
       </c>
       <c r="BF37">
-        <v>1.63</v>
+        <v>2.02</v>
       </c>
       <c r="BG37">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="BH37">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="BI37">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="BJ37">
-        <v>2.07</v>
+        <v>1.97</v>
       </c>
       <c r="BK37">
-        <v>2.05</v>
+        <v>2.17</v>
       </c>
       <c r="BL37">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="BM37">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="BN37">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="BO37">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="BP37">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="158">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -385,6 +385,27 @@
     <t>['70', '87']</t>
   </si>
   <si>
+    <t>['77', '90']</t>
+  </si>
+  <si>
+    <t>['32', '84']</t>
+  </si>
+  <si>
+    <t>['30', '48']</t>
+  </si>
+  <si>
+    <t>['22']</t>
+  </si>
+  <si>
+    <t>['66', '76']</t>
+  </si>
+  <si>
+    <t>['18', '90+1']</t>
+  </si>
+  <si>
+    <t>['22', '82', '90+5']</t>
+  </si>
+  <si>
     <t>['13', '18']</t>
   </si>
   <si>
@@ -446,6 +467,27 @@
   </si>
   <si>
     <t>['73', '78']</t>
+  </si>
+  <si>
+    <t>['10', '78']</t>
+  </si>
+  <si>
+    <t>['34', '49']</t>
+  </si>
+  <si>
+    <t>['12', '23', '45+2']</t>
+  </si>
+  <si>
+    <t>['37']</t>
+  </si>
+  <si>
+    <t>['28', '39']</t>
+  </si>
+  <si>
+    <t>['66']</t>
+  </si>
+  <si>
+    <t>['72']</t>
   </si>
 </sst>
 </file>
@@ -807,7 +849,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP37"/>
+  <dimension ref="A1:BP49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1066,7 +1108,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1272,7 +1314,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="Q3">
         <v>3.2</v>
@@ -1353,7 +1395,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ3">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1762,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ5">
         <v>0</v>
@@ -1890,7 +1932,7 @@
         <v>95</v>
       </c>
       <c r="P6" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -1971,7 +2013,7 @@
         <v>0</v>
       </c>
       <c r="AQ6">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2096,7 +2138,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2302,7 +2344,7 @@
         <v>99</v>
       </c>
       <c r="P8" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2383,7 +2425,7 @@
         <v>3</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2508,7 +2550,7 @@
         <v>100</v>
       </c>
       <c r="P9" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2586,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ9">
         <v>0.5</v>
@@ -2714,7 +2756,7 @@
         <v>101</v>
       </c>
       <c r="P10" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3126,7 +3168,7 @@
         <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="Q12">
         <v>2.1</v>
@@ -3204,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
         <v>0.5</v>
@@ -3538,7 +3580,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3616,7 +3658,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AQ14">
         <v>3</v>
@@ -3950,7 +3992,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4156,7 +4198,7 @@
         <v>95</v>
       </c>
       <c r="P17" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -4234,10 +4276,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4362,7 +4404,7 @@
         <v>106</v>
       </c>
       <c r="P18" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="Q18">
         <v>2.3</v>
@@ -4568,7 +4610,7 @@
         <v>107</v>
       </c>
       <c r="P19" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="Q19">
         <v>2.75</v>
@@ -4774,7 +4816,7 @@
         <v>108</v>
       </c>
       <c r="P20" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="Q20">
         <v>2.5</v>
@@ -4980,7 +5022,7 @@
         <v>109</v>
       </c>
       <c r="P21" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="Q21">
         <v>3.25</v>
@@ -5058,10 +5100,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ21">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5392,7 +5434,7 @@
         <v>111</v>
       </c>
       <c r="P23" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="Q23">
         <v>4.33</v>
@@ -5676,7 +5718,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ24">
         <v>0.5</v>
@@ -5882,10 +5924,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR25">
         <v>0</v>
@@ -6422,7 +6464,7 @@
         <v>113</v>
       </c>
       <c r="P28" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="Q28">
         <v>4.5</v>
@@ -6834,7 +6876,7 @@
         <v>115</v>
       </c>
       <c r="P30" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7246,7 +7288,7 @@
         <v>117</v>
       </c>
       <c r="P32" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="Q32">
         <v>4.33</v>
@@ -7452,7 +7494,7 @@
         <v>118</v>
       </c>
       <c r="P33" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="Q33">
         <v>2.88</v>
@@ -7658,7 +7700,7 @@
         <v>119</v>
       </c>
       <c r="P34" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="Q34">
         <v>2.2</v>
@@ -8433,6 +8475,2478 @@
       </c>
       <c r="BP37">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:68">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>7477835</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45535.35416666666</v>
+      </c>
+      <c r="F38">
+        <v>4</v>
+      </c>
+      <c r="G38" t="s">
+        <v>92</v>
+      </c>
+      <c r="H38" t="s">
+        <v>86</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>2</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38">
+        <v>3</v>
+      </c>
+      <c r="O38" t="s">
+        <v>123</v>
+      </c>
+      <c r="P38" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q38">
+        <v>3.2</v>
+      </c>
+      <c r="R38">
+        <v>2.1</v>
+      </c>
+      <c r="S38">
+        <v>3.4</v>
+      </c>
+      <c r="T38">
+        <v>1.4</v>
+      </c>
+      <c r="U38">
+        <v>2.75</v>
+      </c>
+      <c r="V38">
+        <v>3</v>
+      </c>
+      <c r="W38">
+        <v>1.36</v>
+      </c>
+      <c r="X38">
+        <v>8</v>
+      </c>
+      <c r="Y38">
+        <v>1.08</v>
+      </c>
+      <c r="Z38">
+        <v>2.5</v>
+      </c>
+      <c r="AA38">
+        <v>3.3</v>
+      </c>
+      <c r="AB38">
+        <v>2.7</v>
+      </c>
+      <c r="AC38">
+        <v>1.02</v>
+      </c>
+      <c r="AD38">
+        <v>8.6</v>
+      </c>
+      <c r="AE38">
+        <v>1.3</v>
+      </c>
+      <c r="AF38">
+        <v>3.1</v>
+      </c>
+      <c r="AG38">
+        <v>1.98</v>
+      </c>
+      <c r="AH38">
+        <v>1.72</v>
+      </c>
+      <c r="AI38">
+        <v>1.8</v>
+      </c>
+      <c r="AJ38">
+        <v>1.95</v>
+      </c>
+      <c r="AK38">
+        <v>1.44</v>
+      </c>
+      <c r="AL38">
+        <v>1.33</v>
+      </c>
+      <c r="AM38">
+        <v>1.49</v>
+      </c>
+      <c r="AN38">
+        <v>1</v>
+      </c>
+      <c r="AO38">
+        <v>3</v>
+      </c>
+      <c r="AP38">
+        <v>2</v>
+      </c>
+      <c r="AQ38">
+        <v>1.5</v>
+      </c>
+      <c r="AR38">
+        <v>2.14</v>
+      </c>
+      <c r="AS38">
+        <v>1.47</v>
+      </c>
+      <c r="AT38">
+        <v>3.61</v>
+      </c>
+      <c r="AU38">
+        <v>6</v>
+      </c>
+      <c r="AV38">
+        <v>3</v>
+      </c>
+      <c r="AW38">
+        <v>4</v>
+      </c>
+      <c r="AX38">
+        <v>5</v>
+      </c>
+      <c r="AY38">
+        <v>10</v>
+      </c>
+      <c r="AZ38">
+        <v>8</v>
+      </c>
+      <c r="BA38">
+        <v>17</v>
+      </c>
+      <c r="BB38">
+        <v>3</v>
+      </c>
+      <c r="BC38">
+        <v>20</v>
+      </c>
+      <c r="BD38">
+        <v>1.86</v>
+      </c>
+      <c r="BE38">
+        <v>6.75</v>
+      </c>
+      <c r="BF38">
+        <v>1.98</v>
+      </c>
+      <c r="BG38">
+        <v>1.18</v>
+      </c>
+      <c r="BH38">
+        <v>4.1</v>
+      </c>
+      <c r="BI38">
+        <v>1.33</v>
+      </c>
+      <c r="BJ38">
+        <v>2.95</v>
+      </c>
+      <c r="BK38">
+        <v>1.54</v>
+      </c>
+      <c r="BL38">
+        <v>2.3</v>
+      </c>
+      <c r="BM38">
+        <v>1.85</v>
+      </c>
+      <c r="BN38">
+        <v>1.83</v>
+      </c>
+      <c r="BO38">
+        <v>2.32</v>
+      </c>
+      <c r="BP38">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:68">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>7477825</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45535.35416666666</v>
+      </c>
+      <c r="F39">
+        <v>4</v>
+      </c>
+      <c r="G39" t="s">
+        <v>85</v>
+      </c>
+      <c r="H39" t="s">
+        <v>91</v>
+      </c>
+      <c r="I39">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>2</v>
+      </c>
+      <c r="L39">
+        <v>2</v>
+      </c>
+      <c r="M39">
+        <v>2</v>
+      </c>
+      <c r="N39">
+        <v>4</v>
+      </c>
+      <c r="O39" t="s">
+        <v>124</v>
+      </c>
+      <c r="P39" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q39">
+        <v>2.63</v>
+      </c>
+      <c r="R39">
+        <v>2.2</v>
+      </c>
+      <c r="S39">
+        <v>4</v>
+      </c>
+      <c r="T39">
+        <v>1.4</v>
+      </c>
+      <c r="U39">
+        <v>2.75</v>
+      </c>
+      <c r="V39">
+        <v>2.75</v>
+      </c>
+      <c r="W39">
+        <v>1.4</v>
+      </c>
+      <c r="X39">
+        <v>8</v>
+      </c>
+      <c r="Y39">
+        <v>1.08</v>
+      </c>
+      <c r="Z39">
+        <v>2</v>
+      </c>
+      <c r="AA39">
+        <v>3.4</v>
+      </c>
+      <c r="AB39">
+        <v>3.6</v>
+      </c>
+      <c r="AC39">
+        <v>1.03</v>
+      </c>
+      <c r="AD39">
+        <v>9</v>
+      </c>
+      <c r="AE39">
+        <v>1.3</v>
+      </c>
+      <c r="AF39">
+        <v>3.2</v>
+      </c>
+      <c r="AG39">
+        <v>2.02</v>
+      </c>
+      <c r="AH39">
+        <v>1.7</v>
+      </c>
+      <c r="AI39">
+        <v>1.8</v>
+      </c>
+      <c r="AJ39">
+        <v>1.95</v>
+      </c>
+      <c r="AK39">
+        <v>1.3</v>
+      </c>
+      <c r="AL39">
+        <v>1.3</v>
+      </c>
+      <c r="AM39">
+        <v>1.73</v>
+      </c>
+      <c r="AN39">
+        <v>0</v>
+      </c>
+      <c r="AO39">
+        <v>0</v>
+      </c>
+      <c r="AP39">
+        <v>0.5</v>
+      </c>
+      <c r="AQ39">
+        <v>0.5</v>
+      </c>
+      <c r="AR39">
+        <v>0.68</v>
+      </c>
+      <c r="AS39">
+        <v>1.65</v>
+      </c>
+      <c r="AT39">
+        <v>2.33</v>
+      </c>
+      <c r="AU39">
+        <v>10</v>
+      </c>
+      <c r="AV39">
+        <v>6</v>
+      </c>
+      <c r="AW39">
+        <v>7</v>
+      </c>
+      <c r="AX39">
+        <v>3</v>
+      </c>
+      <c r="AY39">
+        <v>17</v>
+      </c>
+      <c r="AZ39">
+        <v>9</v>
+      </c>
+      <c r="BA39">
+        <v>6</v>
+      </c>
+      <c r="BB39">
+        <v>1</v>
+      </c>
+      <c r="BC39">
+        <v>7</v>
+      </c>
+      <c r="BD39">
+        <v>1.67</v>
+      </c>
+      <c r="BE39">
+        <v>6.5</v>
+      </c>
+      <c r="BF39">
+        <v>2.3</v>
+      </c>
+      <c r="BG39">
+        <v>1.21</v>
+      </c>
+      <c r="BH39">
+        <v>3.8</v>
+      </c>
+      <c r="BI39">
+        <v>1.38</v>
+      </c>
+      <c r="BJ39">
+        <v>2.7</v>
+      </c>
+      <c r="BK39">
+        <v>1.65</v>
+      </c>
+      <c r="BL39">
+        <v>2.08</v>
+      </c>
+      <c r="BM39">
+        <v>2.02</v>
+      </c>
+      <c r="BN39">
+        <v>1.7</v>
+      </c>
+      <c r="BO39">
+        <v>2.55</v>
+      </c>
+      <c r="BP39">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:68">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>7477826</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45535.45833333334</v>
+      </c>
+      <c r="F40">
+        <v>4</v>
+      </c>
+      <c r="G40" t="s">
+        <v>93</v>
+      </c>
+      <c r="H40" t="s">
+        <v>81</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>1</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>2</v>
+      </c>
+      <c r="N40">
+        <v>2</v>
+      </c>
+      <c r="O40" t="s">
+        <v>95</v>
+      </c>
+      <c r="P40" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q40">
+        <v>2.05</v>
+      </c>
+      <c r="R40">
+        <v>2.3</v>
+      </c>
+      <c r="S40">
+        <v>6.5</v>
+      </c>
+      <c r="T40">
+        <v>1.36</v>
+      </c>
+      <c r="U40">
+        <v>3</v>
+      </c>
+      <c r="V40">
+        <v>2.75</v>
+      </c>
+      <c r="W40">
+        <v>1.4</v>
+      </c>
+      <c r="X40">
+        <v>7</v>
+      </c>
+      <c r="Y40">
+        <v>1.1</v>
+      </c>
+      <c r="Z40">
+        <v>1.52</v>
+      </c>
+      <c r="AA40">
+        <v>4.2</v>
+      </c>
+      <c r="AB40">
+        <v>5.75</v>
+      </c>
+      <c r="AC40">
+        <v>1.01</v>
+      </c>
+      <c r="AD40">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE40">
+        <v>1.24</v>
+      </c>
+      <c r="AF40">
+        <v>3.5</v>
+      </c>
+      <c r="AG40">
+        <v>1.77</v>
+      </c>
+      <c r="AH40">
+        <v>1.92</v>
+      </c>
+      <c r="AI40">
+        <v>2</v>
+      </c>
+      <c r="AJ40">
+        <v>1.75</v>
+      </c>
+      <c r="AK40">
+        <v>1.12</v>
+      </c>
+      <c r="AL40">
+        <v>1.18</v>
+      </c>
+      <c r="AM40">
+        <v>2.5</v>
+      </c>
+      <c r="AN40">
+        <v>1</v>
+      </c>
+      <c r="AO40">
+        <v>0</v>
+      </c>
+      <c r="AP40">
+        <v>0.5</v>
+      </c>
+      <c r="AQ40">
+        <v>1.5</v>
+      </c>
+      <c r="AR40">
+        <v>1.76</v>
+      </c>
+      <c r="AS40">
+        <v>1.4</v>
+      </c>
+      <c r="AT40">
+        <v>3.16</v>
+      </c>
+      <c r="AU40">
+        <v>4</v>
+      </c>
+      <c r="AV40">
+        <v>3</v>
+      </c>
+      <c r="AW40">
+        <v>10</v>
+      </c>
+      <c r="AX40">
+        <v>2</v>
+      </c>
+      <c r="AY40">
+        <v>14</v>
+      </c>
+      <c r="AZ40">
+        <v>5</v>
+      </c>
+      <c r="BA40">
+        <v>5</v>
+      </c>
+      <c r="BB40">
+        <v>7</v>
+      </c>
+      <c r="BC40">
+        <v>12</v>
+      </c>
+      <c r="BD40">
+        <v>1.32</v>
+      </c>
+      <c r="BE40">
+        <v>7</v>
+      </c>
+      <c r="BF40">
+        <v>3.4</v>
+      </c>
+      <c r="BG40">
+        <v>1.19</v>
+      </c>
+      <c r="BH40">
+        <v>4.1</v>
+      </c>
+      <c r="BI40">
+        <v>1.33</v>
+      </c>
+      <c r="BJ40">
+        <v>2.95</v>
+      </c>
+      <c r="BK40">
+        <v>1.54</v>
+      </c>
+      <c r="BL40">
+        <v>2.3</v>
+      </c>
+      <c r="BM40">
+        <v>1.86</v>
+      </c>
+      <c r="BN40">
+        <v>1.82</v>
+      </c>
+      <c r="BO40">
+        <v>2.3</v>
+      </c>
+      <c r="BP40">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:68">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>7477827</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45535.45833333334</v>
+      </c>
+      <c r="F41">
+        <v>4</v>
+      </c>
+      <c r="G41" t="s">
+        <v>79</v>
+      </c>
+      <c r="H41" t="s">
+        <v>84</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>2</v>
+      </c>
+      <c r="M41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <v>2</v>
+      </c>
+      <c r="O41" t="s">
+        <v>125</v>
+      </c>
+      <c r="P41" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q41">
+        <v>2.63</v>
+      </c>
+      <c r="R41">
+        <v>2.1</v>
+      </c>
+      <c r="S41">
+        <v>4.33</v>
+      </c>
+      <c r="T41">
+        <v>1.44</v>
+      </c>
+      <c r="U41">
+        <v>2.63</v>
+      </c>
+      <c r="V41">
+        <v>3</v>
+      </c>
+      <c r="W41">
+        <v>1.36</v>
+      </c>
+      <c r="X41">
+        <v>9</v>
+      </c>
+      <c r="Y41">
+        <v>1.07</v>
+      </c>
+      <c r="Z41">
+        <v>2</v>
+      </c>
+      <c r="AA41">
+        <v>3.4</v>
+      </c>
+      <c r="AB41">
+        <v>3.6</v>
+      </c>
+      <c r="AC41">
+        <v>1.03</v>
+      </c>
+      <c r="AD41">
+        <v>8.5</v>
+      </c>
+      <c r="AE41">
+        <v>1.28</v>
+      </c>
+      <c r="AF41">
+        <v>3.3</v>
+      </c>
+      <c r="AG41">
+        <v>2</v>
+      </c>
+      <c r="AH41">
+        <v>1.7</v>
+      </c>
+      <c r="AI41">
+        <v>1.8</v>
+      </c>
+      <c r="AJ41">
+        <v>1.95</v>
+      </c>
+      <c r="AK41">
+        <v>1.28</v>
+      </c>
+      <c r="AL41">
+        <v>1.31</v>
+      </c>
+      <c r="AM41">
+        <v>1.81</v>
+      </c>
+      <c r="AN41">
+        <v>3</v>
+      </c>
+      <c r="AO41">
+        <v>0</v>
+      </c>
+      <c r="AP41">
+        <v>3</v>
+      </c>
+      <c r="AQ41">
+        <v>0</v>
+      </c>
+      <c r="AR41">
+        <v>1.46</v>
+      </c>
+      <c r="AS41">
+        <v>0.83</v>
+      </c>
+      <c r="AT41">
+        <v>2.29</v>
+      </c>
+      <c r="AU41">
+        <v>4</v>
+      </c>
+      <c r="AV41">
+        <v>2</v>
+      </c>
+      <c r="AW41">
+        <v>4</v>
+      </c>
+      <c r="AX41">
+        <v>6</v>
+      </c>
+      <c r="AY41">
+        <v>8</v>
+      </c>
+      <c r="AZ41">
+        <v>8</v>
+      </c>
+      <c r="BA41">
+        <v>5</v>
+      </c>
+      <c r="BB41">
+        <v>8</v>
+      </c>
+      <c r="BC41">
+        <v>13</v>
+      </c>
+      <c r="BD41">
+        <v>1.56</v>
+      </c>
+      <c r="BE41">
+        <v>6.4</v>
+      </c>
+      <c r="BF41">
+        <v>2.55</v>
+      </c>
+      <c r="BG41">
+        <v>1.29</v>
+      </c>
+      <c r="BH41">
+        <v>3.2</v>
+      </c>
+      <c r="BI41">
+        <v>1.5</v>
+      </c>
+      <c r="BJ41">
+        <v>2.35</v>
+      </c>
+      <c r="BK41">
+        <v>1.81</v>
+      </c>
+      <c r="BL41">
+        <v>1.88</v>
+      </c>
+      <c r="BM41">
+        <v>2.3</v>
+      </c>
+      <c r="BN41">
+        <v>1.54</v>
+      </c>
+      <c r="BO41">
+        <v>2.9</v>
+      </c>
+      <c r="BP41">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:68">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>7477829</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45535.45833333334</v>
+      </c>
+      <c r="F42">
+        <v>4</v>
+      </c>
+      <c r="G42" t="s">
+        <v>77</v>
+      </c>
+      <c r="H42" t="s">
+        <v>70</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>3</v>
+      </c>
+      <c r="K42">
+        <v>3</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>3</v>
+      </c>
+      <c r="N42">
+        <v>3</v>
+      </c>
+      <c r="O42" t="s">
+        <v>95</v>
+      </c>
+      <c r="P42" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q42">
+        <v>3.6</v>
+      </c>
+      <c r="R42">
+        <v>2.2</v>
+      </c>
+      <c r="S42">
+        <v>2.88</v>
+      </c>
+      <c r="T42">
+        <v>1.36</v>
+      </c>
+      <c r="U42">
+        <v>3</v>
+      </c>
+      <c r="V42">
+        <v>2.63</v>
+      </c>
+      <c r="W42">
+        <v>1.44</v>
+      </c>
+      <c r="X42">
+        <v>7</v>
+      </c>
+      <c r="Y42">
+        <v>1.1</v>
+      </c>
+      <c r="Z42">
+        <v>3</v>
+      </c>
+      <c r="AA42">
+        <v>3.5</v>
+      </c>
+      <c r="AB42">
+        <v>2.2</v>
+      </c>
+      <c r="AC42">
+        <v>1.05</v>
+      </c>
+      <c r="AD42">
+        <v>9.5</v>
+      </c>
+      <c r="AE42">
+        <v>1.25</v>
+      </c>
+      <c r="AF42">
+        <v>3.7</v>
+      </c>
+      <c r="AG42">
+        <v>1.83</v>
+      </c>
+      <c r="AH42">
+        <v>1.85</v>
+      </c>
+      <c r="AI42">
+        <v>1.67</v>
+      </c>
+      <c r="AJ42">
+        <v>2.1</v>
+      </c>
+      <c r="AK42">
+        <v>1.67</v>
+      </c>
+      <c r="AL42">
+        <v>1.3</v>
+      </c>
+      <c r="AM42">
+        <v>1.38</v>
+      </c>
+      <c r="AN42">
+        <v>3</v>
+      </c>
+      <c r="AO42">
+        <v>3</v>
+      </c>
+      <c r="AP42">
+        <v>1.5</v>
+      </c>
+      <c r="AQ42">
+        <v>3</v>
+      </c>
+      <c r="AR42">
+        <v>1.22</v>
+      </c>
+      <c r="AS42">
+        <v>0.82</v>
+      </c>
+      <c r="AT42">
+        <v>2.04</v>
+      </c>
+      <c r="AU42">
+        <v>0</v>
+      </c>
+      <c r="AV42">
+        <v>6</v>
+      </c>
+      <c r="AW42">
+        <v>0</v>
+      </c>
+      <c r="AX42">
+        <v>2</v>
+      </c>
+      <c r="AY42">
+        <v>0</v>
+      </c>
+      <c r="AZ42">
+        <v>8</v>
+      </c>
+      <c r="BA42">
+        <v>2</v>
+      </c>
+      <c r="BB42">
+        <v>9</v>
+      </c>
+      <c r="BC42">
+        <v>11</v>
+      </c>
+      <c r="BD42">
+        <v>2.18</v>
+      </c>
+      <c r="BE42">
+        <v>6.5</v>
+      </c>
+      <c r="BF42">
+        <v>1.74</v>
+      </c>
+      <c r="BG42">
+        <v>1.19</v>
+      </c>
+      <c r="BH42">
+        <v>4.1</v>
+      </c>
+      <c r="BI42">
+        <v>1.33</v>
+      </c>
+      <c r="BJ42">
+        <v>2.95</v>
+      </c>
+      <c r="BK42">
+        <v>1.55</v>
+      </c>
+      <c r="BL42">
+        <v>2.25</v>
+      </c>
+      <c r="BM42">
+        <v>1.88</v>
+      </c>
+      <c r="BN42">
+        <v>1.81</v>
+      </c>
+      <c r="BO42">
+        <v>2.33</v>
+      </c>
+      <c r="BP42">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:68">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>7477830</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45535.45833333334</v>
+      </c>
+      <c r="F43">
+        <v>4</v>
+      </c>
+      <c r="G43" t="s">
+        <v>88</v>
+      </c>
+      <c r="H43" t="s">
+        <v>72</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>2</v>
+      </c>
+      <c r="L43">
+        <v>1</v>
+      </c>
+      <c r="M43">
+        <v>1</v>
+      </c>
+      <c r="N43">
+        <v>2</v>
+      </c>
+      <c r="O43" t="s">
+        <v>126</v>
+      </c>
+      <c r="P43" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q43">
+        <v>3</v>
+      </c>
+      <c r="R43">
+        <v>2.3</v>
+      </c>
+      <c r="S43">
+        <v>3.25</v>
+      </c>
+      <c r="T43">
+        <v>1.33</v>
+      </c>
+      <c r="U43">
+        <v>3.25</v>
+      </c>
+      <c r="V43">
+        <v>2.5</v>
+      </c>
+      <c r="W43">
+        <v>1.5</v>
+      </c>
+      <c r="X43">
+        <v>6.5</v>
+      </c>
+      <c r="Y43">
+        <v>1.11</v>
+      </c>
+      <c r="Z43">
+        <v>2.55</v>
+      </c>
+      <c r="AA43">
+        <v>3.4</v>
+      </c>
+      <c r="AB43">
+        <v>2.55</v>
+      </c>
+      <c r="AC43">
+        <v>1.05</v>
+      </c>
+      <c r="AD43">
+        <v>9.5</v>
+      </c>
+      <c r="AE43">
+        <v>1.28</v>
+      </c>
+      <c r="AF43">
+        <v>4.2</v>
+      </c>
+      <c r="AG43">
+        <v>1.76</v>
+      </c>
+      <c r="AH43">
+        <v>1.95</v>
+      </c>
+      <c r="AI43">
+        <v>1.62</v>
+      </c>
+      <c r="AJ43">
+        <v>2.2</v>
+      </c>
+      <c r="AK43">
+        <v>1.48</v>
+      </c>
+      <c r="AL43">
+        <v>1.22</v>
+      </c>
+      <c r="AM43">
+        <v>1.5</v>
+      </c>
+      <c r="AN43">
+        <v>1</v>
+      </c>
+      <c r="AO43">
+        <v>3</v>
+      </c>
+      <c r="AP43">
+        <v>1</v>
+      </c>
+      <c r="AQ43">
+        <v>2</v>
+      </c>
+      <c r="AR43">
+        <v>1.81</v>
+      </c>
+      <c r="AS43">
+        <v>1.29</v>
+      </c>
+      <c r="AT43">
+        <v>3.1</v>
+      </c>
+      <c r="AU43">
+        <v>3</v>
+      </c>
+      <c r="AV43">
+        <v>7</v>
+      </c>
+      <c r="AW43">
+        <v>1</v>
+      </c>
+      <c r="AX43">
+        <v>5</v>
+      </c>
+      <c r="AY43">
+        <v>4</v>
+      </c>
+      <c r="AZ43">
+        <v>12</v>
+      </c>
+      <c r="BA43">
+        <v>2</v>
+      </c>
+      <c r="BB43">
+        <v>6</v>
+      </c>
+      <c r="BC43">
+        <v>8</v>
+      </c>
+      <c r="BD43">
+        <v>1.88</v>
+      </c>
+      <c r="BE43">
+        <v>6.4</v>
+      </c>
+      <c r="BF43">
+        <v>1.98</v>
+      </c>
+      <c r="BG43">
+        <v>1.24</v>
+      </c>
+      <c r="BH43">
+        <v>3.55</v>
+      </c>
+      <c r="BI43">
+        <v>1.44</v>
+      </c>
+      <c r="BJ43">
+        <v>2.55</v>
+      </c>
+      <c r="BK43">
+        <v>1.72</v>
+      </c>
+      <c r="BL43">
+        <v>1.98</v>
+      </c>
+      <c r="BM43">
+        <v>2.08</v>
+      </c>
+      <c r="BN43">
+        <v>1.65</v>
+      </c>
+      <c r="BO43">
+        <v>2.65</v>
+      </c>
+      <c r="BP43">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:68">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>7477831</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45535.45833333334</v>
+      </c>
+      <c r="F44">
+        <v>4</v>
+      </c>
+      <c r="G44" t="s">
+        <v>89</v>
+      </c>
+      <c r="H44" t="s">
+        <v>78</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>0</v>
+      </c>
+      <c r="O44" t="s">
+        <v>95</v>
+      </c>
+      <c r="P44" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q44">
+        <v>2.88</v>
+      </c>
+      <c r="R44">
+        <v>2.2</v>
+      </c>
+      <c r="S44">
+        <v>3.75</v>
+      </c>
+      <c r="T44">
+        <v>1.4</v>
+      </c>
+      <c r="U44">
+        <v>2.75</v>
+      </c>
+      <c r="V44">
+        <v>2.75</v>
+      </c>
+      <c r="W44">
+        <v>1.4</v>
+      </c>
+      <c r="X44">
+        <v>8</v>
+      </c>
+      <c r="Y44">
+        <v>1.08</v>
+      </c>
+      <c r="Z44">
+        <v>2.2</v>
+      </c>
+      <c r="AA44">
+        <v>3.4</v>
+      </c>
+      <c r="AB44">
+        <v>3.1</v>
+      </c>
+      <c r="AC44">
+        <v>1.05</v>
+      </c>
+      <c r="AD44">
+        <v>9</v>
+      </c>
+      <c r="AE44">
+        <v>1.28</v>
+      </c>
+      <c r="AF44">
+        <v>3.5</v>
+      </c>
+      <c r="AG44">
+        <v>1.78</v>
+      </c>
+      <c r="AH44">
+        <v>1.91</v>
+      </c>
+      <c r="AI44">
+        <v>1.75</v>
+      </c>
+      <c r="AJ44">
+        <v>2</v>
+      </c>
+      <c r="AK44">
+        <v>1.35</v>
+      </c>
+      <c r="AL44">
+        <v>1.25</v>
+      </c>
+      <c r="AM44">
+        <v>1.62</v>
+      </c>
+      <c r="AN44">
+        <v>3</v>
+      </c>
+      <c r="AO44">
+        <v>1</v>
+      </c>
+      <c r="AP44">
+        <v>2</v>
+      </c>
+      <c r="AQ44">
+        <v>1</v>
+      </c>
+      <c r="AR44">
+        <v>1.4</v>
+      </c>
+      <c r="AS44">
+        <v>1.76</v>
+      </c>
+      <c r="AT44">
+        <v>3.16</v>
+      </c>
+      <c r="AU44">
+        <v>6</v>
+      </c>
+      <c r="AV44">
+        <v>4</v>
+      </c>
+      <c r="AW44">
+        <v>2</v>
+      </c>
+      <c r="AX44">
+        <v>7</v>
+      </c>
+      <c r="AY44">
+        <v>8</v>
+      </c>
+      <c r="AZ44">
+        <v>11</v>
+      </c>
+      <c r="BA44">
+        <v>3</v>
+      </c>
+      <c r="BB44">
+        <v>4</v>
+      </c>
+      <c r="BC44">
+        <v>7</v>
+      </c>
+      <c r="BD44">
+        <v>1.74</v>
+      </c>
+      <c r="BE44">
+        <v>6.4</v>
+      </c>
+      <c r="BF44">
+        <v>2.17</v>
+      </c>
+      <c r="BG44">
+        <v>1.32</v>
+      </c>
+      <c r="BH44">
+        <v>3.05</v>
+      </c>
+      <c r="BI44">
+        <v>1.55</v>
+      </c>
+      <c r="BJ44">
+        <v>2.25</v>
+      </c>
+      <c r="BK44">
+        <v>1.92</v>
+      </c>
+      <c r="BL44">
+        <v>1.77</v>
+      </c>
+      <c r="BM44">
+        <v>2.43</v>
+      </c>
+      <c r="BN44">
+        <v>1.47</v>
+      </c>
+      <c r="BO44">
+        <v>3.15</v>
+      </c>
+      <c r="BP44">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:68">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>7477833</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45535.45833333334</v>
+      </c>
+      <c r="F45">
+        <v>4</v>
+      </c>
+      <c r="G45" t="s">
+        <v>74</v>
+      </c>
+      <c r="H45" t="s">
+        <v>76</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>2</v>
+      </c>
+      <c r="K45">
+        <v>2</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>2</v>
+      </c>
+      <c r="N45">
+        <v>2</v>
+      </c>
+      <c r="O45" t="s">
+        <v>95</v>
+      </c>
+      <c r="P45" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q45">
+        <v>2.63</v>
+      </c>
+      <c r="R45">
+        <v>2.4</v>
+      </c>
+      <c r="S45">
+        <v>3.6</v>
+      </c>
+      <c r="T45">
+        <v>1.29</v>
+      </c>
+      <c r="U45">
+        <v>3.5</v>
+      </c>
+      <c r="V45">
+        <v>2.38</v>
+      </c>
+      <c r="W45">
+        <v>1.53</v>
+      </c>
+      <c r="X45">
+        <v>5.5</v>
+      </c>
+      <c r="Y45">
+        <v>1.14</v>
+      </c>
+      <c r="Z45">
+        <v>2.05</v>
+      </c>
+      <c r="AA45">
+        <v>3.7</v>
+      </c>
+      <c r="AB45">
+        <v>3.1</v>
+      </c>
+      <c r="AC45">
+        <v>1.02</v>
+      </c>
+      <c r="AD45">
+        <v>18</v>
+      </c>
+      <c r="AE45">
+        <v>1.16</v>
+      </c>
+      <c r="AF45">
+        <v>4.6</v>
+      </c>
+      <c r="AG45">
+        <v>1.61</v>
+      </c>
+      <c r="AH45">
+        <v>2.15</v>
+      </c>
+      <c r="AI45">
+        <v>1.5</v>
+      </c>
+      <c r="AJ45">
+        <v>2.5</v>
+      </c>
+      <c r="AK45">
+        <v>1.35</v>
+      </c>
+      <c r="AL45">
+        <v>1.29</v>
+      </c>
+      <c r="AM45">
+        <v>1.73</v>
+      </c>
+      <c r="AN45">
+        <v>0</v>
+      </c>
+      <c r="AO45">
+        <v>1</v>
+      </c>
+      <c r="AP45">
+        <v>0</v>
+      </c>
+      <c r="AQ45">
+        <v>2</v>
+      </c>
+      <c r="AR45">
+        <v>0.79</v>
+      </c>
+      <c r="AS45">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT45">
+        <v>1.73</v>
+      </c>
+      <c r="AU45">
+        <v>0</v>
+      </c>
+      <c r="AV45">
+        <v>4</v>
+      </c>
+      <c r="AW45">
+        <v>8</v>
+      </c>
+      <c r="AX45">
+        <v>8</v>
+      </c>
+      <c r="AY45">
+        <v>8</v>
+      </c>
+      <c r="AZ45">
+        <v>12</v>
+      </c>
+      <c r="BA45">
+        <v>2</v>
+      </c>
+      <c r="BB45">
+        <v>5</v>
+      </c>
+      <c r="BC45">
+        <v>7</v>
+      </c>
+      <c r="BD45">
+        <v>1.7</v>
+      </c>
+      <c r="BE45">
+        <v>6.75</v>
+      </c>
+      <c r="BF45">
+        <v>2.23</v>
+      </c>
+      <c r="BG45">
+        <v>1.17</v>
+      </c>
+      <c r="BH45">
+        <v>4.35</v>
+      </c>
+      <c r="BI45">
+        <v>1.3</v>
+      </c>
+      <c r="BJ45">
+        <v>3.15</v>
+      </c>
+      <c r="BK45">
+        <v>1.5</v>
+      </c>
+      <c r="BL45">
+        <v>2.38</v>
+      </c>
+      <c r="BM45">
+        <v>1.8</v>
+      </c>
+      <c r="BN45">
+        <v>1.89</v>
+      </c>
+      <c r="BO45">
+        <v>2.23</v>
+      </c>
+      <c r="BP45">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:68">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>7477834</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45535.45833333334</v>
+      </c>
+      <c r="F46">
+        <v>4</v>
+      </c>
+      <c r="G46" t="s">
+        <v>90</v>
+      </c>
+      <c r="H46" t="s">
+        <v>83</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>2</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>2</v>
+      </c>
+      <c r="O46" t="s">
+        <v>127</v>
+      </c>
+      <c r="P46" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q46">
+        <v>3</v>
+      </c>
+      <c r="R46">
+        <v>2.2</v>
+      </c>
+      <c r="S46">
+        <v>3.5</v>
+      </c>
+      <c r="T46">
+        <v>1.4</v>
+      </c>
+      <c r="U46">
+        <v>2.75</v>
+      </c>
+      <c r="V46">
+        <v>2.75</v>
+      </c>
+      <c r="W46">
+        <v>1.4</v>
+      </c>
+      <c r="X46">
+        <v>8</v>
+      </c>
+      <c r="Y46">
+        <v>1.08</v>
+      </c>
+      <c r="Z46">
+        <v>2.3</v>
+      </c>
+      <c r="AA46">
+        <v>3.4</v>
+      </c>
+      <c r="AB46">
+        <v>2.87</v>
+      </c>
+      <c r="AC46">
+        <v>1.01</v>
+      </c>
+      <c r="AD46">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE46">
+        <v>1.24</v>
+      </c>
+      <c r="AF46">
+        <v>3.5</v>
+      </c>
+      <c r="AG46">
+        <v>1.84</v>
+      </c>
+      <c r="AH46">
+        <v>1.84</v>
+      </c>
+      <c r="AI46">
+        <v>1.7</v>
+      </c>
+      <c r="AJ46">
+        <v>2.05</v>
+      </c>
+      <c r="AK46">
+        <v>1.38</v>
+      </c>
+      <c r="AL46">
+        <v>1.25</v>
+      </c>
+      <c r="AM46">
+        <v>1.6</v>
+      </c>
+      <c r="AN46">
+        <v>3</v>
+      </c>
+      <c r="AO46">
+        <v>3</v>
+      </c>
+      <c r="AP46">
+        <v>3</v>
+      </c>
+      <c r="AQ46">
+        <v>1.5</v>
+      </c>
+      <c r="AR46">
+        <v>1.98</v>
+      </c>
+      <c r="AS46">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AT46">
+        <v>2.79</v>
+      </c>
+      <c r="AU46">
+        <v>4</v>
+      </c>
+      <c r="AV46">
+        <v>3</v>
+      </c>
+      <c r="AW46">
+        <v>5</v>
+      </c>
+      <c r="AX46">
+        <v>3</v>
+      </c>
+      <c r="AY46">
+        <v>9</v>
+      </c>
+      <c r="AZ46">
+        <v>6</v>
+      </c>
+      <c r="BA46">
+        <v>5</v>
+      </c>
+      <c r="BB46">
+        <v>5</v>
+      </c>
+      <c r="BC46">
+        <v>10</v>
+      </c>
+      <c r="BD46">
+        <v>1.76</v>
+      </c>
+      <c r="BE46">
+        <v>6.75</v>
+      </c>
+      <c r="BF46">
+        <v>2.1</v>
+      </c>
+      <c r="BG46">
+        <v>1.22</v>
+      </c>
+      <c r="BH46">
+        <v>3.7</v>
+      </c>
+      <c r="BI46">
+        <v>1.4</v>
+      </c>
+      <c r="BJ46">
+        <v>2.7</v>
+      </c>
+      <c r="BK46">
+        <v>1.65</v>
+      </c>
+      <c r="BL46">
+        <v>2.08</v>
+      </c>
+      <c r="BM46">
+        <v>2</v>
+      </c>
+      <c r="BN46">
+        <v>1.71</v>
+      </c>
+      <c r="BO46">
+        <v>2.55</v>
+      </c>
+      <c r="BP46">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:68">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>7477824</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45535.45833333334</v>
+      </c>
+      <c r="F47">
+        <v>4</v>
+      </c>
+      <c r="G47" t="s">
+        <v>80</v>
+      </c>
+      <c r="H47" t="s">
+        <v>71</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>1</v>
+      </c>
+      <c r="L47">
+        <v>2</v>
+      </c>
+      <c r="M47">
+        <v>1</v>
+      </c>
+      <c r="N47">
+        <v>3</v>
+      </c>
+      <c r="O47" t="s">
+        <v>128</v>
+      </c>
+      <c r="P47" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q47">
+        <v>1.95</v>
+      </c>
+      <c r="R47">
+        <v>2.5</v>
+      </c>
+      <c r="S47">
+        <v>6</v>
+      </c>
+      <c r="T47">
+        <v>1.3</v>
+      </c>
+      <c r="U47">
+        <v>3.4</v>
+      </c>
+      <c r="V47">
+        <v>2.38</v>
+      </c>
+      <c r="W47">
+        <v>1.53</v>
+      </c>
+      <c r="X47">
+        <v>6</v>
+      </c>
+      <c r="Y47">
+        <v>1.13</v>
+      </c>
+      <c r="Z47">
+        <v>1.46</v>
+      </c>
+      <c r="AA47">
+        <v>4.5</v>
+      </c>
+      <c r="AB47">
+        <v>6</v>
+      </c>
+      <c r="AC47">
+        <v>1.02</v>
+      </c>
+      <c r="AD47">
+        <v>17</v>
+      </c>
+      <c r="AE47">
+        <v>1.19</v>
+      </c>
+      <c r="AF47">
+        <v>4.25</v>
+      </c>
+      <c r="AG47">
+        <v>1.74</v>
+      </c>
+      <c r="AH47">
+        <v>1.96</v>
+      </c>
+      <c r="AI47">
+        <v>1.8</v>
+      </c>
+      <c r="AJ47">
+        <v>1.95</v>
+      </c>
+      <c r="AK47">
+        <v>1.11</v>
+      </c>
+      <c r="AL47">
+        <v>1.16</v>
+      </c>
+      <c r="AM47">
+        <v>2.7</v>
+      </c>
+      <c r="AN47">
+        <v>1</v>
+      </c>
+      <c r="AO47">
+        <v>0</v>
+      </c>
+      <c r="AP47">
+        <v>2</v>
+      </c>
+      <c r="AQ47">
+        <v>0</v>
+      </c>
+      <c r="AR47">
+        <v>1.57</v>
+      </c>
+      <c r="AS47">
+        <v>0.87</v>
+      </c>
+      <c r="AT47">
+        <v>2.44</v>
+      </c>
+      <c r="AU47">
+        <v>9</v>
+      </c>
+      <c r="AV47">
+        <v>6</v>
+      </c>
+      <c r="AW47">
+        <v>4</v>
+      </c>
+      <c r="AX47">
+        <v>3</v>
+      </c>
+      <c r="AY47">
+        <v>13</v>
+      </c>
+      <c r="AZ47">
+        <v>9</v>
+      </c>
+      <c r="BA47">
+        <v>7</v>
+      </c>
+      <c r="BB47">
+        <v>3</v>
+      </c>
+      <c r="BC47">
+        <v>10</v>
+      </c>
+      <c r="BD47">
+        <v>1.32</v>
+      </c>
+      <c r="BE47">
+        <v>7</v>
+      </c>
+      <c r="BF47">
+        <v>3.4</v>
+      </c>
+      <c r="BG47">
+        <v>1.29</v>
+      </c>
+      <c r="BH47">
+        <v>3.2</v>
+      </c>
+      <c r="BI47">
+        <v>1.5</v>
+      </c>
+      <c r="BJ47">
+        <v>2.38</v>
+      </c>
+      <c r="BK47">
+        <v>1.81</v>
+      </c>
+      <c r="BL47">
+        <v>1.88</v>
+      </c>
+      <c r="BM47">
+        <v>2.23</v>
+      </c>
+      <c r="BN47">
+        <v>1.56</v>
+      </c>
+      <c r="BO47">
+        <v>2.9</v>
+      </c>
+      <c r="BP47">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:68">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>7477837</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45535.45833333334</v>
+      </c>
+      <c r="F48">
+        <v>4</v>
+      </c>
+      <c r="G48" t="s">
+        <v>82</v>
+      </c>
+      <c r="H48" t="s">
+        <v>75</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>3</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>3</v>
+      </c>
+      <c r="O48" t="s">
+        <v>129</v>
+      </c>
+      <c r="P48" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q48">
+        <v>3.75</v>
+      </c>
+      <c r="R48">
+        <v>2</v>
+      </c>
+      <c r="S48">
+        <v>3.1</v>
+      </c>
+      <c r="T48">
+        <v>1.5</v>
+      </c>
+      <c r="U48">
+        <v>2.5</v>
+      </c>
+      <c r="V48">
+        <v>3.4</v>
+      </c>
+      <c r="W48">
+        <v>1.3</v>
+      </c>
+      <c r="X48">
+        <v>10</v>
+      </c>
+      <c r="Y48">
+        <v>1.06</v>
+      </c>
+      <c r="Z48">
+        <v>2.95</v>
+      </c>
+      <c r="AA48">
+        <v>3.25</v>
+      </c>
+      <c r="AB48">
+        <v>2.3</v>
+      </c>
+      <c r="AC48">
+        <v>1.05</v>
+      </c>
+      <c r="AD48">
+        <v>8</v>
+      </c>
+      <c r="AE48">
+        <v>1.38</v>
+      </c>
+      <c r="AF48">
+        <v>2.8</v>
+      </c>
+      <c r="AG48">
+        <v>2.12</v>
+      </c>
+      <c r="AH48">
+        <v>1.63</v>
+      </c>
+      <c r="AI48">
+        <v>1.95</v>
+      </c>
+      <c r="AJ48">
+        <v>1.8</v>
+      </c>
+      <c r="AK48">
+        <v>1.6</v>
+      </c>
+      <c r="AL48">
+        <v>1.32</v>
+      </c>
+      <c r="AM48">
+        <v>1.36</v>
+      </c>
+      <c r="AN48">
+        <v>0</v>
+      </c>
+      <c r="AO48">
+        <v>0</v>
+      </c>
+      <c r="AP48">
+        <v>1.5</v>
+      </c>
+      <c r="AQ48">
+        <v>0</v>
+      </c>
+      <c r="AR48">
+        <v>1.27</v>
+      </c>
+      <c r="AS48">
+        <v>0.76</v>
+      </c>
+      <c r="AT48">
+        <v>2.03</v>
+      </c>
+      <c r="AU48">
+        <v>5</v>
+      </c>
+      <c r="AV48">
+        <v>2</v>
+      </c>
+      <c r="AW48">
+        <v>2</v>
+      </c>
+      <c r="AX48">
+        <v>3</v>
+      </c>
+      <c r="AY48">
+        <v>7</v>
+      </c>
+      <c r="AZ48">
+        <v>5</v>
+      </c>
+      <c r="BA48">
+        <v>1</v>
+      </c>
+      <c r="BB48">
+        <v>2</v>
+      </c>
+      <c r="BC48">
+        <v>3</v>
+      </c>
+      <c r="BD48">
+        <v>2.08</v>
+      </c>
+      <c r="BE48">
+        <v>6.5</v>
+      </c>
+      <c r="BF48">
+        <v>1.79</v>
+      </c>
+      <c r="BG48">
+        <v>1.23</v>
+      </c>
+      <c r="BH48">
+        <v>3.65</v>
+      </c>
+      <c r="BI48">
+        <v>1.41</v>
+      </c>
+      <c r="BJ48">
+        <v>2.65</v>
+      </c>
+      <c r="BK48">
+        <v>1.67</v>
+      </c>
+      <c r="BL48">
+        <v>2.05</v>
+      </c>
+      <c r="BM48">
+        <v>2.05</v>
+      </c>
+      <c r="BN48">
+        <v>1.67</v>
+      </c>
+      <c r="BO48">
+        <v>2.6</v>
+      </c>
+      <c r="BP48">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="49" spans="1:68">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>7477838</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45535.45833333334</v>
+      </c>
+      <c r="F49">
+        <v>4</v>
+      </c>
+      <c r="G49" t="s">
+        <v>73</v>
+      </c>
+      <c r="H49" t="s">
+        <v>87</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>1</v>
+      </c>
+      <c r="O49" t="s">
+        <v>95</v>
+      </c>
+      <c r="P49" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q49">
+        <v>3.1</v>
+      </c>
+      <c r="R49">
+        <v>2</v>
+      </c>
+      <c r="S49">
+        <v>3.75</v>
+      </c>
+      <c r="T49">
+        <v>1.5</v>
+      </c>
+      <c r="U49">
+        <v>2.5</v>
+      </c>
+      <c r="V49">
+        <v>3.5</v>
+      </c>
+      <c r="W49">
+        <v>1.29</v>
+      </c>
+      <c r="X49">
+        <v>10</v>
+      </c>
+      <c r="Y49">
+        <v>1.06</v>
+      </c>
+      <c r="Z49">
+        <v>2.25</v>
+      </c>
+      <c r="AA49">
+        <v>3.1</v>
+      </c>
+      <c r="AB49">
+        <v>3.25</v>
+      </c>
+      <c r="AC49">
+        <v>1.07</v>
+      </c>
+      <c r="AD49">
+        <v>8.75</v>
+      </c>
+      <c r="AE49">
+        <v>1.4</v>
+      </c>
+      <c r="AF49">
+        <v>2.75</v>
+      </c>
+      <c r="AG49">
+        <v>2.3</v>
+      </c>
+      <c r="AH49">
+        <v>1.53</v>
+      </c>
+      <c r="AI49">
+        <v>2</v>
+      </c>
+      <c r="AJ49">
+        <v>1.75</v>
+      </c>
+      <c r="AK49">
+        <v>1.33</v>
+      </c>
+      <c r="AL49">
+        <v>1.28</v>
+      </c>
+      <c r="AM49">
+        <v>1.6</v>
+      </c>
+      <c r="AN49">
+        <v>3</v>
+      </c>
+      <c r="AO49">
+        <v>3</v>
+      </c>
+      <c r="AP49">
+        <v>1.5</v>
+      </c>
+      <c r="AQ49">
+        <v>3</v>
+      </c>
+      <c r="AR49">
+        <v>1.58</v>
+      </c>
+      <c r="AS49">
+        <v>0.93</v>
+      </c>
+      <c r="AT49">
+        <v>2.51</v>
+      </c>
+      <c r="AU49">
+        <v>2</v>
+      </c>
+      <c r="AV49">
+        <v>2</v>
+      </c>
+      <c r="AW49">
+        <v>5</v>
+      </c>
+      <c r="AX49">
+        <v>2</v>
+      </c>
+      <c r="AY49">
+        <v>7</v>
+      </c>
+      <c r="AZ49">
+        <v>4</v>
+      </c>
+      <c r="BA49">
+        <v>5</v>
+      </c>
+      <c r="BB49">
+        <v>2</v>
+      </c>
+      <c r="BC49">
+        <v>7</v>
+      </c>
+      <c r="BD49">
+        <v>1.74</v>
+      </c>
+      <c r="BE49">
+        <v>6.4</v>
+      </c>
+      <c r="BF49">
+        <v>2.17</v>
+      </c>
+      <c r="BG49">
+        <v>1.25</v>
+      </c>
+      <c r="BH49">
+        <v>3.45</v>
+      </c>
+      <c r="BI49">
+        <v>1.44</v>
+      </c>
+      <c r="BJ49">
+        <v>2.55</v>
+      </c>
+      <c r="BK49">
+        <v>1.73</v>
+      </c>
+      <c r="BL49">
+        <v>1.97</v>
+      </c>
+      <c r="BM49">
+        <v>2.15</v>
+      </c>
+      <c r="BN49">
+        <v>1.61</v>
+      </c>
+      <c r="BO49">
+        <v>2.7</v>
+      </c>
+      <c r="BP49">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -9459,13 +9459,13 @@
         <v>8</v>
       </c>
       <c r="BA42">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BB42">
         <v>9</v>
       </c>
       <c r="BC42">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BD42">
         <v>2.18</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -385,27 +385,27 @@
     <t>['70', '87']</t>
   </si>
   <si>
+    <t>['32', '84']</t>
+  </si>
+  <si>
     <t>['77', '90']</t>
   </si>
   <si>
-    <t>['32', '84']</t>
+    <t>['22', '82', '90+5']</t>
+  </si>
+  <si>
+    <t>['66', '76']</t>
+  </si>
+  <si>
+    <t>['22']</t>
   </si>
   <si>
     <t>['30', '48']</t>
   </si>
   <si>
-    <t>['22']</t>
-  </si>
-  <si>
-    <t>['66', '76']</t>
-  </si>
-  <si>
     <t>['18', '90+1']</t>
   </si>
   <si>
-    <t>['22', '82', '90+5']</t>
-  </si>
-  <si>
     <t>['13', '18']</t>
   </si>
   <si>
@@ -472,22 +472,22 @@
     <t>['10', '78']</t>
   </si>
   <si>
+    <t>['72']</t>
+  </si>
+  <si>
+    <t>['28', '39']</t>
+  </si>
+  <si>
+    <t>['37']</t>
+  </si>
+  <si>
+    <t>['12', '23', '45+2']</t>
+  </si>
+  <si>
     <t>['34', '49']</t>
   </si>
   <si>
-    <t>['12', '23', '45+2']</t>
-  </si>
-  <si>
-    <t>['37']</t>
-  </si>
-  <si>
-    <t>['28', '39']</t>
-  </si>
-  <si>
     <t>['66']</t>
-  </si>
-  <si>
-    <t>['72']</t>
   </si>
 </sst>
 </file>
@@ -8482,7 +8482,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>7477835</v>
+        <v>7477825</v>
       </c>
       <c r="C38" t="s">
         <v>68</v>
@@ -8497,43 +8497,43 @@
         <v>4</v>
       </c>
       <c r="G38" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="H38" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L38">
         <v>2</v>
       </c>
       <c r="M38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N38">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O38" t="s">
         <v>123</v>
       </c>
       <c r="P38" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="Q38">
-        <v>3.2</v>
+        <v>2.63</v>
       </c>
       <c r="R38">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S38">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="T38">
         <v>1.4</v>
@@ -8542,10 +8542,10 @@
         <v>2.75</v>
       </c>
       <c r="V38">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W38">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X38">
         <v>8</v>
@@ -8554,31 +8554,31 @@
         <v>1.08</v>
       </c>
       <c r="Z38">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AA38">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AB38">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="AC38">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AD38">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AE38">
         <v>1.3</v>
       </c>
       <c r="AF38">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AG38">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="AH38">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="AI38">
         <v>1.8</v>
@@ -8587,100 +8587,100 @@
         <v>1.95</v>
       </c>
       <c r="AK38">
+        <v>1.3</v>
+      </c>
+      <c r="AL38">
+        <v>1.3</v>
+      </c>
+      <c r="AM38">
+        <v>1.73</v>
+      </c>
+      <c r="AN38">
+        <v>0</v>
+      </c>
+      <c r="AO38">
+        <v>0</v>
+      </c>
+      <c r="AP38">
+        <v>0.5</v>
+      </c>
+      <c r="AQ38">
+        <v>0.5</v>
+      </c>
+      <c r="AR38">
+        <v>0.68</v>
+      </c>
+      <c r="AS38">
+        <v>1.65</v>
+      </c>
+      <c r="AT38">
+        <v>2.33</v>
+      </c>
+      <c r="AU38">
+        <v>10</v>
+      </c>
+      <c r="AV38">
+        <v>6</v>
+      </c>
+      <c r="AW38">
+        <v>7</v>
+      </c>
+      <c r="AX38">
+        <v>3</v>
+      </c>
+      <c r="AY38">
+        <v>17</v>
+      </c>
+      <c r="AZ38">
+        <v>9</v>
+      </c>
+      <c r="BA38">
+        <v>6</v>
+      </c>
+      <c r="BB38">
+        <v>1</v>
+      </c>
+      <c r="BC38">
+        <v>7</v>
+      </c>
+      <c r="BD38">
+        <v>1.67</v>
+      </c>
+      <c r="BE38">
+        <v>6.5</v>
+      </c>
+      <c r="BF38">
+        <v>2.3</v>
+      </c>
+      <c r="BG38">
+        <v>1.21</v>
+      </c>
+      <c r="BH38">
+        <v>3.8</v>
+      </c>
+      <c r="BI38">
+        <v>1.38</v>
+      </c>
+      <c r="BJ38">
+        <v>2.7</v>
+      </c>
+      <c r="BK38">
+        <v>1.65</v>
+      </c>
+      <c r="BL38">
+        <v>2.08</v>
+      </c>
+      <c r="BM38">
+        <v>2.02</v>
+      </c>
+      <c r="BN38">
+        <v>1.7</v>
+      </c>
+      <c r="BO38">
+        <v>2.55</v>
+      </c>
+      <c r="BP38">
         <v>1.44</v>
-      </c>
-      <c r="AL38">
-        <v>1.33</v>
-      </c>
-      <c r="AM38">
-        <v>1.49</v>
-      </c>
-      <c r="AN38">
-        <v>1</v>
-      </c>
-      <c r="AO38">
-        <v>3</v>
-      </c>
-      <c r="AP38">
-        <v>2</v>
-      </c>
-      <c r="AQ38">
-        <v>1.5</v>
-      </c>
-      <c r="AR38">
-        <v>2.14</v>
-      </c>
-      <c r="AS38">
-        <v>1.47</v>
-      </c>
-      <c r="AT38">
-        <v>3.61</v>
-      </c>
-      <c r="AU38">
-        <v>6</v>
-      </c>
-      <c r="AV38">
-        <v>3</v>
-      </c>
-      <c r="AW38">
-        <v>4</v>
-      </c>
-      <c r="AX38">
-        <v>5</v>
-      </c>
-      <c r="AY38">
-        <v>10</v>
-      </c>
-      <c r="AZ38">
-        <v>8</v>
-      </c>
-      <c r="BA38">
-        <v>17</v>
-      </c>
-      <c r="BB38">
-        <v>3</v>
-      </c>
-      <c r="BC38">
-        <v>20</v>
-      </c>
-      <c r="BD38">
-        <v>1.86</v>
-      </c>
-      <c r="BE38">
-        <v>6.75</v>
-      </c>
-      <c r="BF38">
-        <v>1.98</v>
-      </c>
-      <c r="BG38">
-        <v>1.18</v>
-      </c>
-      <c r="BH38">
-        <v>4.1</v>
-      </c>
-      <c r="BI38">
-        <v>1.33</v>
-      </c>
-      <c r="BJ38">
-        <v>2.95</v>
-      </c>
-      <c r="BK38">
-        <v>1.54</v>
-      </c>
-      <c r="BL38">
-        <v>2.3</v>
-      </c>
-      <c r="BM38">
-        <v>1.85</v>
-      </c>
-      <c r="BN38">
-        <v>1.83</v>
-      </c>
-      <c r="BO38">
-        <v>2.32</v>
-      </c>
-      <c r="BP38">
-        <v>1.53</v>
       </c>
     </row>
     <row r="39" spans="1:68">
@@ -8688,7 +8688,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>7477825</v>
+        <v>7477835</v>
       </c>
       <c r="C39" t="s">
         <v>68</v>
@@ -8703,43 +8703,43 @@
         <v>4</v>
       </c>
       <c r="G39" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="H39" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L39">
         <v>2</v>
       </c>
       <c r="M39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N39">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O39" t="s">
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="Q39">
-        <v>2.63</v>
+        <v>3.2</v>
       </c>
       <c r="R39">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S39">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="T39">
         <v>1.4</v>
@@ -8748,10 +8748,10 @@
         <v>2.75</v>
       </c>
       <c r="V39">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W39">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X39">
         <v>8</v>
@@ -8760,31 +8760,31 @@
         <v>1.08</v>
       </c>
       <c r="Z39">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AA39">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AB39">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="AC39">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AD39">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AE39">
         <v>1.3</v>
       </c>
       <c r="AF39">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AG39">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="AH39">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="AI39">
         <v>1.8</v>
@@ -8793,100 +8793,100 @@
         <v>1.95</v>
       </c>
       <c r="AK39">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="AL39">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AM39">
-        <v>1.73</v>
+        <v>1.49</v>
       </c>
       <c r="AN39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP39">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AQ39">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AR39">
-        <v>0.68</v>
+        <v>2.14</v>
       </c>
       <c r="AS39">
-        <v>1.65</v>
+        <v>1.47</v>
       </c>
       <c r="AT39">
-        <v>2.33</v>
+        <v>3.61</v>
       </c>
       <c r="AU39">
+        <v>6</v>
+      </c>
+      <c r="AV39">
+        <v>3</v>
+      </c>
+      <c r="AW39">
+        <v>4</v>
+      </c>
+      <c r="AX39">
+        <v>5</v>
+      </c>
+      <c r="AY39">
         <v>10</v>
       </c>
-      <c r="AV39">
-        <v>6</v>
-      </c>
-      <c r="AW39">
-        <v>7</v>
-      </c>
-      <c r="AX39">
-        <v>3</v>
-      </c>
-      <c r="AY39">
+      <c r="AZ39">
+        <v>8</v>
+      </c>
+      <c r="BA39">
         <v>17</v>
       </c>
-      <c r="AZ39">
-        <v>9</v>
-      </c>
-      <c r="BA39">
-        <v>6</v>
-      </c>
       <c r="BB39">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC39">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="BD39">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="BE39">
-        <v>6.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF39">
+        <v>1.98</v>
+      </c>
+      <c r="BG39">
+        <v>1.18</v>
+      </c>
+      <c r="BH39">
+        <v>4.1</v>
+      </c>
+      <c r="BI39">
+        <v>1.33</v>
+      </c>
+      <c r="BJ39">
+        <v>2.95</v>
+      </c>
+      <c r="BK39">
+        <v>1.54</v>
+      </c>
+      <c r="BL39">
         <v>2.3</v>
       </c>
-      <c r="BG39">
-        <v>1.21</v>
-      </c>
-      <c r="BH39">
-        <v>3.8</v>
-      </c>
-      <c r="BI39">
-        <v>1.38</v>
-      </c>
-      <c r="BJ39">
-        <v>2.7</v>
-      </c>
-      <c r="BK39">
-        <v>1.65</v>
-      </c>
-      <c r="BL39">
-        <v>2.08</v>
-      </c>
       <c r="BM39">
-        <v>2.02</v>
+        <v>1.85</v>
       </c>
       <c r="BN39">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="BO39">
-        <v>2.55</v>
+        <v>2.32</v>
       </c>
       <c r="BP39">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="40" spans="1:68">
@@ -8894,7 +8894,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>7477826</v>
+        <v>7477838</v>
       </c>
       <c r="C40" t="s">
         <v>68</v>
@@ -8909,28 +8909,28 @@
         <v>4</v>
       </c>
       <c r="G40" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="H40" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40">
         <v>0</v>
       </c>
       <c r="M40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O40" t="s">
         <v>95</v>
@@ -8939,58 +8939,58 @@
         <v>152</v>
       </c>
       <c r="Q40">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="R40">
+        <v>2</v>
+      </c>
+      <c r="S40">
+        <v>3.75</v>
+      </c>
+      <c r="T40">
+        <v>1.5</v>
+      </c>
+      <c r="U40">
+        <v>2.5</v>
+      </c>
+      <c r="V40">
+        <v>3.5</v>
+      </c>
+      <c r="W40">
+        <v>1.29</v>
+      </c>
+      <c r="X40">
+        <v>10</v>
+      </c>
+      <c r="Y40">
+        <v>1.06</v>
+      </c>
+      <c r="Z40">
+        <v>2.25</v>
+      </c>
+      <c r="AA40">
+        <v>3.1</v>
+      </c>
+      <c r="AB40">
+        <v>3.25</v>
+      </c>
+      <c r="AC40">
+        <v>1.07</v>
+      </c>
+      <c r="AD40">
+        <v>8.75</v>
+      </c>
+      <c r="AE40">
+        <v>1.4</v>
+      </c>
+      <c r="AF40">
+        <v>2.75</v>
+      </c>
+      <c r="AG40">
         <v>2.3</v>
       </c>
-      <c r="S40">
-        <v>6.5</v>
-      </c>
-      <c r="T40">
-        <v>1.36</v>
-      </c>
-      <c r="U40">
-        <v>3</v>
-      </c>
-      <c r="V40">
-        <v>2.75</v>
-      </c>
-      <c r="W40">
-        <v>1.4</v>
-      </c>
-      <c r="X40">
-        <v>7</v>
-      </c>
-      <c r="Y40">
-        <v>1.1</v>
-      </c>
-      <c r="Z40">
-        <v>1.52</v>
-      </c>
-      <c r="AA40">
-        <v>4.2</v>
-      </c>
-      <c r="AB40">
-        <v>5.75</v>
-      </c>
-      <c r="AC40">
-        <v>1.01</v>
-      </c>
-      <c r="AD40">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE40">
-        <v>1.24</v>
-      </c>
-      <c r="AF40">
-        <v>3.5</v>
-      </c>
-      <c r="AG40">
-        <v>1.77</v>
-      </c>
       <c r="AH40">
-        <v>1.92</v>
+        <v>1.53</v>
       </c>
       <c r="AI40">
         <v>2</v>
@@ -8999,100 +8999,100 @@
         <v>1.75</v>
       </c>
       <c r="AK40">
-        <v>1.12</v>
+        <v>1.33</v>
       </c>
       <c r="AL40">
-        <v>1.18</v>
+        <v>1.28</v>
       </c>
       <c r="AM40">
-        <v>2.5</v>
+        <v>1.6</v>
       </c>
       <c r="AN40">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AO40">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP40">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AQ40">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AR40">
-        <v>1.76</v>
+        <v>1.58</v>
       </c>
       <c r="AS40">
-        <v>1.4</v>
+        <v>0.93</v>
       </c>
       <c r="AT40">
-        <v>3.16</v>
+        <v>2.51</v>
       </c>
       <c r="AU40">
+        <v>2</v>
+      </c>
+      <c r="AV40">
+        <v>2</v>
+      </c>
+      <c r="AW40">
+        <v>5</v>
+      </c>
+      <c r="AX40">
+        <v>2</v>
+      </c>
+      <c r="AY40">
+        <v>7</v>
+      </c>
+      <c r="AZ40">
         <v>4</v>
-      </c>
-      <c r="AV40">
-        <v>3</v>
-      </c>
-      <c r="AW40">
-        <v>10</v>
-      </c>
-      <c r="AX40">
-        <v>2</v>
-      </c>
-      <c r="AY40">
-        <v>14</v>
-      </c>
-      <c r="AZ40">
-        <v>5</v>
       </c>
       <c r="BA40">
         <v>5</v>
       </c>
       <c r="BB40">
+        <v>2</v>
+      </c>
+      <c r="BC40">
         <v>7</v>
       </c>
-      <c r="BC40">
-        <v>12</v>
-      </c>
       <c r="BD40">
-        <v>1.32</v>
+        <v>1.74</v>
       </c>
       <c r="BE40">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="BF40">
-        <v>3.4</v>
+        <v>2.17</v>
       </c>
       <c r="BG40">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="BH40">
-        <v>4.1</v>
+        <v>3.45</v>
       </c>
       <c r="BI40">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="BJ40">
-        <v>2.95</v>
+        <v>2.55</v>
       </c>
       <c r="BK40">
-        <v>1.54</v>
+        <v>1.73</v>
       </c>
       <c r="BL40">
-        <v>2.3</v>
+        <v>1.97</v>
       </c>
       <c r="BM40">
-        <v>1.86</v>
+        <v>2.15</v>
       </c>
       <c r="BN40">
-        <v>1.82</v>
+        <v>1.61</v>
       </c>
       <c r="BO40">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="BP40">
-        <v>1.54</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="41" spans="1:68">
@@ -9100,7 +9100,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>7477827</v>
+        <v>7477837</v>
       </c>
       <c r="C41" t="s">
         <v>68</v>
@@ -9115,10 +9115,10 @@
         <v>4</v>
       </c>
       <c r="G41" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="H41" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -9130,13 +9130,13 @@
         <v>1</v>
       </c>
       <c r="L41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M41">
         <v>0</v>
       </c>
       <c r="N41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O41" t="s">
         <v>125</v>
@@ -9145,160 +9145,160 @@
         <v>95</v>
       </c>
       <c r="Q41">
-        <v>2.63</v>
+        <v>3.75</v>
       </c>
       <c r="R41">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S41">
-        <v>4.33</v>
+        <v>3.1</v>
       </c>
       <c r="T41">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U41">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V41">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="W41">
+        <v>1.3</v>
+      </c>
+      <c r="X41">
+        <v>10</v>
+      </c>
+      <c r="Y41">
+        <v>1.06</v>
+      </c>
+      <c r="Z41">
+        <v>2.95</v>
+      </c>
+      <c r="AA41">
+        <v>3.25</v>
+      </c>
+      <c r="AB41">
+        <v>2.3</v>
+      </c>
+      <c r="AC41">
+        <v>1.05</v>
+      </c>
+      <c r="AD41">
+        <v>8</v>
+      </c>
+      <c r="AE41">
+        <v>1.38</v>
+      </c>
+      <c r="AF41">
+        <v>2.8</v>
+      </c>
+      <c r="AG41">
+        <v>2.12</v>
+      </c>
+      <c r="AH41">
+        <v>1.63</v>
+      </c>
+      <c r="AI41">
+        <v>1.95</v>
+      </c>
+      <c r="AJ41">
+        <v>1.8</v>
+      </c>
+      <c r="AK41">
+        <v>1.6</v>
+      </c>
+      <c r="AL41">
+        <v>1.32</v>
+      </c>
+      <c r="AM41">
         <v>1.36</v>
       </c>
-      <c r="X41">
-        <v>9</v>
-      </c>
-      <c r="Y41">
-        <v>1.07</v>
-      </c>
-      <c r="Z41">
-        <v>2</v>
-      </c>
-      <c r="AA41">
-        <v>3.4</v>
-      </c>
-      <c r="AB41">
-        <v>3.6</v>
-      </c>
-      <c r="AC41">
-        <v>1.03</v>
-      </c>
-      <c r="AD41">
-        <v>8.5</v>
-      </c>
-      <c r="AE41">
-        <v>1.28</v>
-      </c>
-      <c r="AF41">
-        <v>3.3</v>
-      </c>
-      <c r="AG41">
-        <v>2</v>
-      </c>
-      <c r="AH41">
-        <v>1.7</v>
-      </c>
-      <c r="AI41">
-        <v>1.8</v>
-      </c>
-      <c r="AJ41">
-        <v>1.95</v>
-      </c>
-      <c r="AK41">
-        <v>1.28</v>
-      </c>
-      <c r="AL41">
-        <v>1.31</v>
-      </c>
-      <c r="AM41">
-        <v>1.81</v>
-      </c>
       <c r="AN41">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO41">
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AQ41">
         <v>0</v>
       </c>
       <c r="AR41">
-        <v>1.46</v>
+        <v>1.27</v>
       </c>
       <c r="AS41">
-        <v>0.83</v>
+        <v>0.76</v>
       </c>
       <c r="AT41">
-        <v>2.29</v>
+        <v>2.03</v>
       </c>
       <c r="AU41">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV41">
         <v>2</v>
       </c>
       <c r="AW41">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX41">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY41">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AZ41">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BA41">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BB41">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BC41">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="BD41">
-        <v>1.56</v>
+        <v>2.08</v>
       </c>
       <c r="BE41">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="BF41">
-        <v>2.55</v>
+        <v>1.79</v>
       </c>
       <c r="BG41">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="BH41">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="BI41">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="BJ41">
-        <v>2.35</v>
+        <v>2.65</v>
       </c>
       <c r="BK41">
-        <v>1.81</v>
+        <v>1.67</v>
       </c>
       <c r="BL41">
-        <v>1.88</v>
+        <v>2.05</v>
       </c>
       <c r="BM41">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="BN41">
-        <v>1.54</v>
+        <v>1.67</v>
       </c>
       <c r="BO41">
-        <v>2.9</v>
+        <v>2.6</v>
       </c>
       <c r="BP41">
-        <v>1.34</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="42" spans="1:68">
@@ -9306,7 +9306,7 @@
         <v>41</v>
       </c>
       <c r="B42">
-        <v>7477829</v>
+        <v>7477833</v>
       </c>
       <c r="C42" t="s">
         <v>68</v>
@@ -9321,28 +9321,28 @@
         <v>4</v>
       </c>
       <c r="G42" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H42" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="I42">
         <v>0</v>
       </c>
       <c r="J42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="K42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L42">
         <v>0</v>
       </c>
       <c r="M42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N42">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O42" t="s">
         <v>95</v>
@@ -9351,160 +9351,160 @@
         <v>153</v>
       </c>
       <c r="Q42">
+        <v>2.63</v>
+      </c>
+      <c r="R42">
+        <v>2.4</v>
+      </c>
+      <c r="S42">
         <v>3.6</v>
       </c>
-      <c r="R42">
-        <v>2.2</v>
-      </c>
-      <c r="S42">
-        <v>2.88</v>
-      </c>
       <c r="T42">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="U42">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V42">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="W42">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="X42">
+        <v>5.5</v>
+      </c>
+      <c r="Y42">
+        <v>1.14</v>
+      </c>
+      <c r="Z42">
+        <v>2.05</v>
+      </c>
+      <c r="AA42">
+        <v>3.7</v>
+      </c>
+      <c r="AB42">
+        <v>3.1</v>
+      </c>
+      <c r="AC42">
+        <v>1.02</v>
+      </c>
+      <c r="AD42">
+        <v>18</v>
+      </c>
+      <c r="AE42">
+        <v>1.16</v>
+      </c>
+      <c r="AF42">
+        <v>4.6</v>
+      </c>
+      <c r="AG42">
+        <v>1.61</v>
+      </c>
+      <c r="AH42">
+        <v>2.15</v>
+      </c>
+      <c r="AI42">
+        <v>1.5</v>
+      </c>
+      <c r="AJ42">
+        <v>2.5</v>
+      </c>
+      <c r="AK42">
+        <v>1.35</v>
+      </c>
+      <c r="AL42">
+        <v>1.29</v>
+      </c>
+      <c r="AM42">
+        <v>1.73</v>
+      </c>
+      <c r="AN42">
+        <v>0</v>
+      </c>
+      <c r="AO42">
+        <v>1</v>
+      </c>
+      <c r="AP42">
+        <v>0</v>
+      </c>
+      <c r="AQ42">
+        <v>2</v>
+      </c>
+      <c r="AR42">
+        <v>0.79</v>
+      </c>
+      <c r="AS42">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT42">
+        <v>1.73</v>
+      </c>
+      <c r="AU42">
+        <v>0</v>
+      </c>
+      <c r="AV42">
+        <v>4</v>
+      </c>
+      <c r="AW42">
+        <v>8</v>
+      </c>
+      <c r="AX42">
+        <v>8</v>
+      </c>
+      <c r="AY42">
+        <v>8</v>
+      </c>
+      <c r="AZ42">
+        <v>12</v>
+      </c>
+      <c r="BA42">
+        <v>2</v>
+      </c>
+      <c r="BB42">
+        <v>5</v>
+      </c>
+      <c r="BC42">
         <v>7</v>
       </c>
-      <c r="Y42">
-        <v>1.1</v>
-      </c>
-      <c r="Z42">
-        <v>3</v>
-      </c>
-      <c r="AA42">
-        <v>3.5</v>
-      </c>
-      <c r="AB42">
-        <v>2.2</v>
-      </c>
-      <c r="AC42">
-        <v>1.05</v>
-      </c>
-      <c r="AD42">
-        <v>9.5</v>
-      </c>
-      <c r="AE42">
-        <v>1.25</v>
-      </c>
-      <c r="AF42">
-        <v>3.7</v>
-      </c>
-      <c r="AG42">
-        <v>1.83</v>
-      </c>
-      <c r="AH42">
-        <v>1.85</v>
-      </c>
-      <c r="AI42">
-        <v>1.67</v>
-      </c>
-      <c r="AJ42">
-        <v>2.1</v>
-      </c>
-      <c r="AK42">
-        <v>1.67</v>
-      </c>
-      <c r="AL42">
+      <c r="BD42">
+        <v>1.7</v>
+      </c>
+      <c r="BE42">
+        <v>6.75</v>
+      </c>
+      <c r="BF42">
+        <v>2.23</v>
+      </c>
+      <c r="BG42">
+        <v>1.17</v>
+      </c>
+      <c r="BH42">
+        <v>4.35</v>
+      </c>
+      <c r="BI42">
         <v>1.3</v>
       </c>
-      <c r="AM42">
-        <v>1.38</v>
-      </c>
-      <c r="AN42">
-        <v>3</v>
-      </c>
-      <c r="AO42">
-        <v>3</v>
-      </c>
-      <c r="AP42">
+      <c r="BJ42">
+        <v>3.15</v>
+      </c>
+      <c r="BK42">
         <v>1.5</v>
       </c>
-      <c r="AQ42">
-        <v>3</v>
-      </c>
-      <c r="AR42">
-        <v>1.22</v>
-      </c>
-      <c r="AS42">
-        <v>0.82</v>
-      </c>
-      <c r="AT42">
-        <v>2.04</v>
-      </c>
-      <c r="AU42">
-        <v>0</v>
-      </c>
-      <c r="AV42">
-        <v>6</v>
-      </c>
-      <c r="AW42">
-        <v>0</v>
-      </c>
-      <c r="AX42">
-        <v>2</v>
-      </c>
-      <c r="AY42">
-        <v>0</v>
-      </c>
-      <c r="AZ42">
-        <v>8</v>
-      </c>
-      <c r="BA42">
-        <v>6</v>
-      </c>
-      <c r="BB42">
-        <v>9</v>
-      </c>
-      <c r="BC42">
-        <v>15</v>
-      </c>
-      <c r="BD42">
-        <v>2.18</v>
-      </c>
-      <c r="BE42">
-        <v>6.5</v>
-      </c>
-      <c r="BF42">
-        <v>1.74</v>
-      </c>
-      <c r="BG42">
-        <v>1.19</v>
-      </c>
-      <c r="BH42">
-        <v>4.1</v>
-      </c>
-      <c r="BI42">
-        <v>1.33</v>
-      </c>
-      <c r="BJ42">
-        <v>2.95</v>
-      </c>
-      <c r="BK42">
-        <v>1.55</v>
-      </c>
       <c r="BL42">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="BM42">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="BN42">
-        <v>1.81</v>
+        <v>1.89</v>
       </c>
       <c r="BO42">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="BP42">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="43" spans="1:68">
@@ -9512,7 +9512,7 @@
         <v>42</v>
       </c>
       <c r="B43">
-        <v>7477830</v>
+        <v>7477834</v>
       </c>
       <c r="C43" t="s">
         <v>68</v>
@@ -9527,25 +9527,25 @@
         <v>4</v>
       </c>
       <c r="G43" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H43" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="I43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L43">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N43">
         <v>2</v>
@@ -9554,163 +9554,163 @@
         <v>126</v>
       </c>
       <c r="P43" t="s">
-        <v>154</v>
+        <v>95</v>
       </c>
       <c r="Q43">
         <v>3</v>
       </c>
       <c r="R43">
+        <v>2.2</v>
+      </c>
+      <c r="S43">
+        <v>3.5</v>
+      </c>
+      <c r="T43">
+        <v>1.4</v>
+      </c>
+      <c r="U43">
+        <v>2.75</v>
+      </c>
+      <c r="V43">
+        <v>2.75</v>
+      </c>
+      <c r="W43">
+        <v>1.4</v>
+      </c>
+      <c r="X43">
+        <v>8</v>
+      </c>
+      <c r="Y43">
+        <v>1.08</v>
+      </c>
+      <c r="Z43">
         <v>2.3</v>
-      </c>
-      <c r="S43">
-        <v>3.25</v>
-      </c>
-      <c r="T43">
-        <v>1.33</v>
-      </c>
-      <c r="U43">
-        <v>3.25</v>
-      </c>
-      <c r="V43">
-        <v>2.5</v>
-      </c>
-      <c r="W43">
-        <v>1.5</v>
-      </c>
-      <c r="X43">
-        <v>6.5</v>
-      </c>
-      <c r="Y43">
-        <v>1.11</v>
-      </c>
-      <c r="Z43">
-        <v>2.55</v>
       </c>
       <c r="AA43">
         <v>3.4</v>
       </c>
       <c r="AB43">
+        <v>2.87</v>
+      </c>
+      <c r="AC43">
+        <v>1.01</v>
+      </c>
+      <c r="AD43">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE43">
+        <v>1.24</v>
+      </c>
+      <c r="AF43">
+        <v>3.5</v>
+      </c>
+      <c r="AG43">
+        <v>1.84</v>
+      </c>
+      <c r="AH43">
+        <v>1.84</v>
+      </c>
+      <c r="AI43">
+        <v>1.7</v>
+      </c>
+      <c r="AJ43">
+        <v>2.05</v>
+      </c>
+      <c r="AK43">
+        <v>1.38</v>
+      </c>
+      <c r="AL43">
+        <v>1.25</v>
+      </c>
+      <c r="AM43">
+        <v>1.6</v>
+      </c>
+      <c r="AN43">
+        <v>3</v>
+      </c>
+      <c r="AO43">
+        <v>3</v>
+      </c>
+      <c r="AP43">
+        <v>3</v>
+      </c>
+      <c r="AQ43">
+        <v>1.5</v>
+      </c>
+      <c r="AR43">
+        <v>1.98</v>
+      </c>
+      <c r="AS43">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AT43">
+        <v>2.79</v>
+      </c>
+      <c r="AU43">
+        <v>4</v>
+      </c>
+      <c r="AV43">
+        <v>3</v>
+      </c>
+      <c r="AW43">
+        <v>5</v>
+      </c>
+      <c r="AX43">
+        <v>3</v>
+      </c>
+      <c r="AY43">
+        <v>9</v>
+      </c>
+      <c r="AZ43">
+        <v>6</v>
+      </c>
+      <c r="BA43">
+        <v>5</v>
+      </c>
+      <c r="BB43">
+        <v>5</v>
+      </c>
+      <c r="BC43">
+        <v>10</v>
+      </c>
+      <c r="BD43">
+        <v>1.76</v>
+      </c>
+      <c r="BE43">
+        <v>6.75</v>
+      </c>
+      <c r="BF43">
+        <v>2.1</v>
+      </c>
+      <c r="BG43">
+        <v>1.22</v>
+      </c>
+      <c r="BH43">
+        <v>3.7</v>
+      </c>
+      <c r="BI43">
+        <v>1.4</v>
+      </c>
+      <c r="BJ43">
+        <v>2.7</v>
+      </c>
+      <c r="BK43">
+        <v>1.65</v>
+      </c>
+      <c r="BL43">
+        <v>2.08</v>
+      </c>
+      <c r="BM43">
+        <v>2</v>
+      </c>
+      <c r="BN43">
+        <v>1.71</v>
+      </c>
+      <c r="BO43">
         <v>2.55</v>
       </c>
-      <c r="AC43">
-        <v>1.05</v>
-      </c>
-      <c r="AD43">
-        <v>9.5</v>
-      </c>
-      <c r="AE43">
-        <v>1.28</v>
-      </c>
-      <c r="AF43">
-        <v>4.2</v>
-      </c>
-      <c r="AG43">
-        <v>1.76</v>
-      </c>
-      <c r="AH43">
-        <v>1.95</v>
-      </c>
-      <c r="AI43">
-        <v>1.62</v>
-      </c>
-      <c r="AJ43">
-        <v>2.2</v>
-      </c>
-      <c r="AK43">
-        <v>1.48</v>
-      </c>
-      <c r="AL43">
-        <v>1.22</v>
-      </c>
-      <c r="AM43">
-        <v>1.5</v>
-      </c>
-      <c r="AN43">
-        <v>1</v>
-      </c>
-      <c r="AO43">
-        <v>3</v>
-      </c>
-      <c r="AP43">
-        <v>1</v>
-      </c>
-      <c r="AQ43">
-        <v>2</v>
-      </c>
-      <c r="AR43">
-        <v>1.81</v>
-      </c>
-      <c r="AS43">
-        <v>1.29</v>
-      </c>
-      <c r="AT43">
-        <v>3.1</v>
-      </c>
-      <c r="AU43">
-        <v>3</v>
-      </c>
-      <c r="AV43">
-        <v>7</v>
-      </c>
-      <c r="AW43">
-        <v>1</v>
-      </c>
-      <c r="AX43">
-        <v>5</v>
-      </c>
-      <c r="AY43">
-        <v>4</v>
-      </c>
-      <c r="AZ43">
-        <v>12</v>
-      </c>
-      <c r="BA43">
-        <v>2</v>
-      </c>
-      <c r="BB43">
-        <v>6</v>
-      </c>
-      <c r="BC43">
-        <v>8</v>
-      </c>
-      <c r="BD43">
-        <v>1.88</v>
-      </c>
-      <c r="BE43">
-        <v>6.4</v>
-      </c>
-      <c r="BF43">
-        <v>1.98</v>
-      </c>
-      <c r="BG43">
-        <v>1.24</v>
-      </c>
-      <c r="BH43">
-        <v>3.55</v>
-      </c>
-      <c r="BI43">
+      <c r="BP43">
         <v>1.44</v>
-      </c>
-      <c r="BJ43">
-        <v>2.55</v>
-      </c>
-      <c r="BK43">
-        <v>1.72</v>
-      </c>
-      <c r="BL43">
-        <v>1.98</v>
-      </c>
-      <c r="BM43">
-        <v>2.08</v>
-      </c>
-      <c r="BN43">
-        <v>1.65</v>
-      </c>
-      <c r="BO43">
-        <v>2.65</v>
-      </c>
-      <c r="BP43">
-        <v>1.41</v>
       </c>
     </row>
     <row r="44" spans="1:68">
@@ -9718,7 +9718,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>7477831</v>
+        <v>7477830</v>
       </c>
       <c r="C44" t="s">
         <v>68</v>
@@ -9733,190 +9733,190 @@
         <v>4</v>
       </c>
       <c r="G44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H44" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O44" t="s">
-        <v>95</v>
+        <v>127</v>
       </c>
       <c r="P44" t="s">
-        <v>95</v>
+        <v>154</v>
       </c>
       <c r="Q44">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="R44">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S44">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="T44">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="U44">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V44">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="W44">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="X44">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="Y44">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="Z44">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="AA44">
         <v>3.4</v>
       </c>
       <c r="AB44">
-        <v>3.1</v>
+        <v>2.55</v>
       </c>
       <c r="AC44">
         <v>1.05</v>
       </c>
       <c r="AD44">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE44">
         <v>1.28</v>
       </c>
       <c r="AF44">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="AG44">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="AH44">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AI44">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AJ44">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AK44">
-        <v>1.35</v>
+        <v>1.48</v>
       </c>
       <c r="AL44">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AM44">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AN44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR44">
-        <v>1.4</v>
+        <v>1.81</v>
       </c>
       <c r="AS44">
-        <v>1.76</v>
+        <v>1.29</v>
       </c>
       <c r="AT44">
-        <v>3.16</v>
+        <v>3.1</v>
       </c>
       <c r="AU44">
+        <v>3</v>
+      </c>
+      <c r="AV44">
+        <v>7</v>
+      </c>
+      <c r="AW44">
+        <v>1</v>
+      </c>
+      <c r="AX44">
+        <v>5</v>
+      </c>
+      <c r="AY44">
+        <v>4</v>
+      </c>
+      <c r="AZ44">
+        <v>12</v>
+      </c>
+      <c r="BA44">
+        <v>2</v>
+      </c>
+      <c r="BB44">
         <v>6</v>
       </c>
-      <c r="AV44">
-        <v>4</v>
-      </c>
-      <c r="AW44">
-        <v>2</v>
-      </c>
-      <c r="AX44">
-        <v>7</v>
-      </c>
-      <c r="AY44">
+      <c r="BC44">
         <v>8</v>
       </c>
-      <c r="AZ44">
-        <v>11</v>
-      </c>
-      <c r="BA44">
-        <v>3</v>
-      </c>
-      <c r="BB44">
-        <v>4</v>
-      </c>
-      <c r="BC44">
-        <v>7</v>
-      </c>
       <c r="BD44">
-        <v>1.74</v>
+        <v>1.88</v>
       </c>
       <c r="BE44">
         <v>6.4</v>
       </c>
       <c r="BF44">
-        <v>2.17</v>
+        <v>1.98</v>
       </c>
       <c r="BG44">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="BH44">
-        <v>3.05</v>
+        <v>3.55</v>
       </c>
       <c r="BI44">
-        <v>1.55</v>
+        <v>1.44</v>
       </c>
       <c r="BJ44">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="BK44">
-        <v>1.92</v>
+        <v>1.72</v>
       </c>
       <c r="BL44">
-        <v>1.77</v>
+        <v>1.98</v>
       </c>
       <c r="BM44">
-        <v>2.43</v>
+        <v>2.08</v>
       </c>
       <c r="BN44">
-        <v>1.47</v>
+        <v>1.65</v>
       </c>
       <c r="BO44">
-        <v>3.15</v>
+        <v>2.65</v>
       </c>
       <c r="BP44">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="45" spans="1:68">
@@ -9924,7 +9924,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>7477833</v>
+        <v>7477829</v>
       </c>
       <c r="C45" t="s">
         <v>68</v>
@@ -9939,28 +9939,28 @@
         <v>4</v>
       </c>
       <c r="G45" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H45" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="I45">
         <v>0</v>
       </c>
       <c r="J45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L45">
         <v>0</v>
       </c>
       <c r="M45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O45" t="s">
         <v>95</v>
@@ -9969,160 +9969,160 @@
         <v>155</v>
       </c>
       <c r="Q45">
+        <v>3.6</v>
+      </c>
+      <c r="R45">
+        <v>2.2</v>
+      </c>
+      <c r="S45">
+        <v>2.88</v>
+      </c>
+      <c r="T45">
+        <v>1.36</v>
+      </c>
+      <c r="U45">
+        <v>3</v>
+      </c>
+      <c r="V45">
         <v>2.63</v>
       </c>
-      <c r="R45">
-        <v>2.4</v>
-      </c>
-      <c r="S45">
-        <v>3.6</v>
-      </c>
-      <c r="T45">
-        <v>1.29</v>
-      </c>
-      <c r="U45">
+      <c r="W45">
+        <v>1.44</v>
+      </c>
+      <c r="X45">
+        <v>7</v>
+      </c>
+      <c r="Y45">
+        <v>1.1</v>
+      </c>
+      <c r="Z45">
+        <v>3</v>
+      </c>
+      <c r="AA45">
         <v>3.5</v>
       </c>
-      <c r="V45">
-        <v>2.38</v>
-      </c>
-      <c r="W45">
-        <v>1.53</v>
-      </c>
-      <c r="X45">
-        <v>5.5</v>
-      </c>
-      <c r="Y45">
-        <v>1.14</v>
-      </c>
-      <c r="Z45">
-        <v>2.05</v>
-      </c>
-      <c r="AA45">
+      <c r="AB45">
+        <v>2.2</v>
+      </c>
+      <c r="AC45">
+        <v>1.05</v>
+      </c>
+      <c r="AD45">
+        <v>9.5</v>
+      </c>
+      <c r="AE45">
+        <v>1.25</v>
+      </c>
+      <c r="AF45">
         <v>3.7</v>
       </c>
-      <c r="AB45">
-        <v>3.1</v>
-      </c>
-      <c r="AC45">
-        <v>1.02</v>
-      </c>
-      <c r="AD45">
-        <v>18</v>
-      </c>
-      <c r="AE45">
-        <v>1.16</v>
-      </c>
-      <c r="AF45">
-        <v>4.6</v>
-      </c>
       <c r="AG45">
-        <v>1.61</v>
+        <v>1.83</v>
       </c>
       <c r="AH45">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="AI45">
+        <v>1.67</v>
+      </c>
+      <c r="AJ45">
+        <v>2.1</v>
+      </c>
+      <c r="AK45">
+        <v>1.67</v>
+      </c>
+      <c r="AL45">
+        <v>1.3</v>
+      </c>
+      <c r="AM45">
+        <v>1.38</v>
+      </c>
+      <c r="AN45">
+        <v>3</v>
+      </c>
+      <c r="AO45">
+        <v>3</v>
+      </c>
+      <c r="AP45">
         <v>1.5</v>
       </c>
-      <c r="AJ45">
-        <v>2.5</v>
-      </c>
-      <c r="AK45">
-        <v>1.35</v>
-      </c>
-      <c r="AL45">
-        <v>1.29</v>
-      </c>
-      <c r="AM45">
-        <v>1.73</v>
-      </c>
-      <c r="AN45">
-        <v>0</v>
-      </c>
-      <c r="AO45">
-        <v>1</v>
-      </c>
-      <c r="AP45">
-        <v>0</v>
-      </c>
       <c r="AQ45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR45">
-        <v>0.79</v>
+        <v>1.22</v>
       </c>
       <c r="AS45">
-        <v>0.9399999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="AT45">
-        <v>1.73</v>
+        <v>2.04</v>
       </c>
       <c r="AU45">
         <v>0</v>
       </c>
       <c r="AV45">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW45">
+        <v>0</v>
+      </c>
+      <c r="AX45">
+        <v>2</v>
+      </c>
+      <c r="AY45">
+        <v>0</v>
+      </c>
+      <c r="AZ45">
         <v>8</v>
       </c>
-      <c r="AX45">
-        <v>8</v>
-      </c>
-      <c r="AY45">
-        <v>8</v>
-      </c>
-      <c r="AZ45">
-        <v>12</v>
-      </c>
       <c r="BA45">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BB45">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BC45">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="BD45">
-        <v>1.7</v>
+        <v>2.18</v>
       </c>
       <c r="BE45">
-        <v>6.75</v>
+        <v>6.5</v>
       </c>
       <c r="BF45">
-        <v>2.23</v>
+        <v>1.74</v>
       </c>
       <c r="BG45">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="BH45">
-        <v>4.35</v>
+        <v>4.1</v>
       </c>
       <c r="BI45">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="BJ45">
-        <v>3.15</v>
+        <v>2.95</v>
       </c>
       <c r="BK45">
+        <v>1.55</v>
+      </c>
+      <c r="BL45">
+        <v>2.25</v>
+      </c>
+      <c r="BM45">
+        <v>1.88</v>
+      </c>
+      <c r="BN45">
+        <v>1.81</v>
+      </c>
+      <c r="BO45">
+        <v>2.33</v>
+      </c>
+      <c r="BP45">
         <v>1.5</v>
-      </c>
-      <c r="BL45">
-        <v>2.38</v>
-      </c>
-      <c r="BM45">
-        <v>1.8</v>
-      </c>
-      <c r="BN45">
-        <v>1.89</v>
-      </c>
-      <c r="BO45">
-        <v>2.23</v>
-      </c>
-      <c r="BP45">
-        <v>1.56</v>
       </c>
     </row>
     <row r="46" spans="1:68">
@@ -10130,7 +10130,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>7477834</v>
+        <v>7477827</v>
       </c>
       <c r="C46" t="s">
         <v>68</v>
@@ -10145,19 +10145,19 @@
         <v>4</v>
       </c>
       <c r="G46" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46">
         <v>0</v>
       </c>
       <c r="K46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L46">
         <v>2</v>
@@ -10169,166 +10169,166 @@
         <v>2</v>
       </c>
       <c r="O46" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P46" t="s">
         <v>95</v>
       </c>
       <c r="Q46">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="R46">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S46">
-        <v>3.5</v>
+        <v>4.33</v>
       </c>
       <c r="T46">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U46">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V46">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W46">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X46">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y46">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z46">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="AA46">
         <v>3.4</v>
       </c>
       <c r="AB46">
-        <v>2.87</v>
+        <v>3.6</v>
       </c>
       <c r="AC46">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD46">
-        <v>9.199999999999999</v>
+        <v>8.5</v>
       </c>
       <c r="AE46">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="AF46">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AG46">
-        <v>1.84</v>
+        <v>2</v>
       </c>
       <c r="AH46">
-        <v>1.84</v>
+        <v>1.7</v>
       </c>
       <c r="AI46">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AJ46">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AK46">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="AL46">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="AM46">
-        <v>1.6</v>
+        <v>1.81</v>
       </c>
       <c r="AN46">
         <v>3</v>
       </c>
       <c r="AO46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP46">
         <v>3</v>
       </c>
       <c r="AQ46">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AR46">
-        <v>1.98</v>
+        <v>1.46</v>
       </c>
       <c r="AS46">
-        <v>0.8100000000000001</v>
+        <v>0.83</v>
       </c>
       <c r="AT46">
-        <v>2.79</v>
+        <v>2.29</v>
       </c>
       <c r="AU46">
         <v>4</v>
       </c>
       <c r="AV46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW46">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AX46">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AY46">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ46">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA46">
         <v>5</v>
       </c>
       <c r="BB46">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BC46">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BD46">
-        <v>1.76</v>
+        <v>1.56</v>
       </c>
       <c r="BE46">
-        <v>6.75</v>
+        <v>6.4</v>
       </c>
       <c r="BF46">
-        <v>2.1</v>
+        <v>2.55</v>
       </c>
       <c r="BG46">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="BH46">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="BI46">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="BJ46">
-        <v>2.7</v>
+        <v>2.35</v>
       </c>
       <c r="BK46">
-        <v>1.65</v>
+        <v>1.81</v>
       </c>
       <c r="BL46">
-        <v>2.08</v>
+        <v>1.88</v>
       </c>
       <c r="BM46">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="BN46">
-        <v>1.71</v>
+        <v>1.54</v>
       </c>
       <c r="BO46">
-        <v>2.55</v>
+        <v>2.9</v>
       </c>
       <c r="BP46">
-        <v>1.44</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="47" spans="1:68">
@@ -10336,7 +10336,7 @@
         <v>46</v>
       </c>
       <c r="B47">
-        <v>7477824</v>
+        <v>7477826</v>
       </c>
       <c r="C47" t="s">
         <v>68</v>
@@ -10351,104 +10351,104 @@
         <v>4</v>
       </c>
       <c r="G47" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="H47" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K47">
         <v>1</v>
       </c>
       <c r="L47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O47" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="P47" t="s">
         <v>156</v>
       </c>
       <c r="Q47">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="R47">
+        <v>2.3</v>
+      </c>
+      <c r="S47">
+        <v>6.5</v>
+      </c>
+      <c r="T47">
+        <v>1.36</v>
+      </c>
+      <c r="U47">
+        <v>3</v>
+      </c>
+      <c r="V47">
+        <v>2.75</v>
+      </c>
+      <c r="W47">
+        <v>1.4</v>
+      </c>
+      <c r="X47">
+        <v>7</v>
+      </c>
+      <c r="Y47">
+        <v>1.1</v>
+      </c>
+      <c r="Z47">
+        <v>1.52</v>
+      </c>
+      <c r="AA47">
+        <v>4.2</v>
+      </c>
+      <c r="AB47">
+        <v>5.75</v>
+      </c>
+      <c r="AC47">
+        <v>1.01</v>
+      </c>
+      <c r="AD47">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE47">
+        <v>1.24</v>
+      </c>
+      <c r="AF47">
+        <v>3.5</v>
+      </c>
+      <c r="AG47">
+        <v>1.77</v>
+      </c>
+      <c r="AH47">
+        <v>1.92</v>
+      </c>
+      <c r="AI47">
+        <v>2</v>
+      </c>
+      <c r="AJ47">
+        <v>1.75</v>
+      </c>
+      <c r="AK47">
+        <v>1.12</v>
+      </c>
+      <c r="AL47">
+        <v>1.18</v>
+      </c>
+      <c r="AM47">
         <v>2.5</v>
       </c>
-      <c r="S47">
-        <v>6</v>
-      </c>
-      <c r="T47">
-        <v>1.3</v>
-      </c>
-      <c r="U47">
-        <v>3.4</v>
-      </c>
-      <c r="V47">
-        <v>2.38</v>
-      </c>
-      <c r="W47">
-        <v>1.53</v>
-      </c>
-      <c r="X47">
-        <v>6</v>
-      </c>
-      <c r="Y47">
-        <v>1.13</v>
-      </c>
-      <c r="Z47">
-        <v>1.46</v>
-      </c>
-      <c r="AA47">
-        <v>4.5</v>
-      </c>
-      <c r="AB47">
-        <v>6</v>
-      </c>
-      <c r="AC47">
-        <v>1.02</v>
-      </c>
-      <c r="AD47">
-        <v>17</v>
-      </c>
-      <c r="AE47">
-        <v>1.19</v>
-      </c>
-      <c r="AF47">
-        <v>4.25</v>
-      </c>
-      <c r="AG47">
-        <v>1.74</v>
-      </c>
-      <c r="AH47">
-        <v>1.96</v>
-      </c>
-      <c r="AI47">
-        <v>1.8</v>
-      </c>
-      <c r="AJ47">
-        <v>1.95</v>
-      </c>
-      <c r="AK47">
-        <v>1.11</v>
-      </c>
-      <c r="AL47">
-        <v>1.16</v>
-      </c>
-      <c r="AM47">
-        <v>2.7</v>
-      </c>
       <c r="AN47">
         <v>1</v>
       </c>
@@ -10456,46 +10456,46 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AQ47">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR47">
-        <v>1.57</v>
+        <v>1.76</v>
       </c>
       <c r="AS47">
-        <v>0.87</v>
+        <v>1.4</v>
       </c>
       <c r="AT47">
-        <v>2.44</v>
+        <v>3.16</v>
       </c>
       <c r="AU47">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AV47">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AW47">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AX47">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AY47">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ47">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="BA47">
+        <v>5</v>
+      </c>
+      <c r="BB47">
         <v>7</v>
       </c>
-      <c r="BB47">
-        <v>3</v>
-      </c>
       <c r="BC47">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD47">
         <v>1.32</v>
@@ -10507,34 +10507,34 @@
         <v>3.4</v>
       </c>
       <c r="BG47">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="BH47">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="BI47">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="BJ47">
-        <v>2.38</v>
+        <v>2.95</v>
       </c>
       <c r="BK47">
-        <v>1.81</v>
+        <v>1.54</v>
       </c>
       <c r="BL47">
-        <v>1.88</v>
+        <v>2.3</v>
       </c>
       <c r="BM47">
-        <v>2.23</v>
+        <v>1.86</v>
       </c>
       <c r="BN47">
-        <v>1.56</v>
+        <v>1.82</v>
       </c>
       <c r="BO47">
-        <v>2.9</v>
+        <v>2.3</v>
       </c>
       <c r="BP47">
-        <v>1.35</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="48" spans="1:68">
@@ -10542,7 +10542,7 @@
         <v>47</v>
       </c>
       <c r="B48">
-        <v>7477837</v>
+        <v>7477824</v>
       </c>
       <c r="C48" t="s">
         <v>68</v>
@@ -10557,10 +10557,10 @@
         <v>4</v>
       </c>
       <c r="G48" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="H48" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -10572,10 +10572,10 @@
         <v>1</v>
       </c>
       <c r="L48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N48">
         <v>3</v>
@@ -10584,163 +10584,163 @@
         <v>129</v>
       </c>
       <c r="P48" t="s">
-        <v>95</v>
+        <v>157</v>
       </c>
       <c r="Q48">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="R48">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="S48">
-        <v>3.1</v>
+        <v>6</v>
       </c>
       <c r="T48">
+        <v>1.3</v>
+      </c>
+      <c r="U48">
+        <v>3.4</v>
+      </c>
+      <c r="V48">
+        <v>2.38</v>
+      </c>
+      <c r="W48">
+        <v>1.53</v>
+      </c>
+      <c r="X48">
+        <v>6</v>
+      </c>
+      <c r="Y48">
+        <v>1.13</v>
+      </c>
+      <c r="Z48">
+        <v>1.46</v>
+      </c>
+      <c r="AA48">
+        <v>4.5</v>
+      </c>
+      <c r="AB48">
+        <v>6</v>
+      </c>
+      <c r="AC48">
+        <v>1.02</v>
+      </c>
+      <c r="AD48">
+        <v>17</v>
+      </c>
+      <c r="AE48">
+        <v>1.19</v>
+      </c>
+      <c r="AF48">
+        <v>4.25</v>
+      </c>
+      <c r="AG48">
+        <v>1.74</v>
+      </c>
+      <c r="AH48">
+        <v>1.96</v>
+      </c>
+      <c r="AI48">
+        <v>1.8</v>
+      </c>
+      <c r="AJ48">
+        <v>1.95</v>
+      </c>
+      <c r="AK48">
+        <v>1.11</v>
+      </c>
+      <c r="AL48">
+        <v>1.16</v>
+      </c>
+      <c r="AM48">
+        <v>2.7</v>
+      </c>
+      <c r="AN48">
+        <v>1</v>
+      </c>
+      <c r="AO48">
+        <v>0</v>
+      </c>
+      <c r="AP48">
+        <v>2</v>
+      </c>
+      <c r="AQ48">
+        <v>0</v>
+      </c>
+      <c r="AR48">
+        <v>1.57</v>
+      </c>
+      <c r="AS48">
+        <v>0.87</v>
+      </c>
+      <c r="AT48">
+        <v>2.44</v>
+      </c>
+      <c r="AU48">
+        <v>9</v>
+      </c>
+      <c r="AV48">
+        <v>6</v>
+      </c>
+      <c r="AW48">
+        <v>4</v>
+      </c>
+      <c r="AX48">
+        <v>3</v>
+      </c>
+      <c r="AY48">
+        <v>13</v>
+      </c>
+      <c r="AZ48">
+        <v>9</v>
+      </c>
+      <c r="BA48">
+        <v>7</v>
+      </c>
+      <c r="BB48">
+        <v>3</v>
+      </c>
+      <c r="BC48">
+        <v>10</v>
+      </c>
+      <c r="BD48">
+        <v>1.32</v>
+      </c>
+      <c r="BE48">
+        <v>7</v>
+      </c>
+      <c r="BF48">
+        <v>3.4</v>
+      </c>
+      <c r="BG48">
+        <v>1.29</v>
+      </c>
+      <c r="BH48">
+        <v>3.2</v>
+      </c>
+      <c r="BI48">
         <v>1.5</v>
       </c>
-      <c r="U48">
-        <v>2.5</v>
-      </c>
-      <c r="V48">
-        <v>3.4</v>
-      </c>
-      <c r="W48">
-        <v>1.3</v>
-      </c>
-      <c r="X48">
-        <v>10</v>
-      </c>
-      <c r="Y48">
-        <v>1.06</v>
-      </c>
-      <c r="Z48">
-        <v>2.95</v>
-      </c>
-      <c r="AA48">
-        <v>3.25</v>
-      </c>
-      <c r="AB48">
-        <v>2.3</v>
-      </c>
-      <c r="AC48">
-        <v>1.05</v>
-      </c>
-      <c r="AD48">
-        <v>8</v>
-      </c>
-      <c r="AE48">
-        <v>1.38</v>
-      </c>
-      <c r="AF48">
-        <v>2.8</v>
-      </c>
-      <c r="AG48">
-        <v>2.12</v>
-      </c>
-      <c r="AH48">
-        <v>1.63</v>
-      </c>
-      <c r="AI48">
-        <v>1.95</v>
-      </c>
-      <c r="AJ48">
-        <v>1.8</v>
-      </c>
-      <c r="AK48">
-        <v>1.6</v>
-      </c>
-      <c r="AL48">
-        <v>1.32</v>
-      </c>
-      <c r="AM48">
-        <v>1.36</v>
-      </c>
-      <c r="AN48">
-        <v>0</v>
-      </c>
-      <c r="AO48">
-        <v>0</v>
-      </c>
-      <c r="AP48">
-        <v>1.5</v>
-      </c>
-      <c r="AQ48">
-        <v>0</v>
-      </c>
-      <c r="AR48">
-        <v>1.27</v>
-      </c>
-      <c r="AS48">
-        <v>0.76</v>
-      </c>
-      <c r="AT48">
-        <v>2.03</v>
-      </c>
-      <c r="AU48">
-        <v>5</v>
-      </c>
-      <c r="AV48">
-        <v>2</v>
-      </c>
-      <c r="AW48">
-        <v>2</v>
-      </c>
-      <c r="AX48">
-        <v>3</v>
-      </c>
-      <c r="AY48">
-        <v>7</v>
-      </c>
-      <c r="AZ48">
-        <v>5</v>
-      </c>
-      <c r="BA48">
-        <v>1</v>
-      </c>
-      <c r="BB48">
-        <v>2</v>
-      </c>
-      <c r="BC48">
-        <v>3</v>
-      </c>
-      <c r="BD48">
-        <v>2.08</v>
-      </c>
-      <c r="BE48">
-        <v>6.5</v>
-      </c>
-      <c r="BF48">
-        <v>1.79</v>
-      </c>
-      <c r="BG48">
-        <v>1.23</v>
-      </c>
-      <c r="BH48">
-        <v>3.65</v>
-      </c>
-      <c r="BI48">
-        <v>1.41</v>
-      </c>
       <c r="BJ48">
-        <v>2.65</v>
+        <v>2.38</v>
       </c>
       <c r="BK48">
-        <v>1.67</v>
+        <v>1.81</v>
       </c>
       <c r="BL48">
-        <v>2.05</v>
+        <v>1.88</v>
       </c>
       <c r="BM48">
-        <v>2.05</v>
+        <v>2.23</v>
       </c>
       <c r="BN48">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="BO48">
-        <v>2.6</v>
+        <v>2.9</v>
       </c>
       <c r="BP48">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="49" spans="1:68">
@@ -10748,7 +10748,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>7477838</v>
+        <v>7477831</v>
       </c>
       <c r="C49" t="s">
         <v>68</v>
@@ -10763,10 +10763,10 @@
         <v>4</v>
       </c>
       <c r="G49" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="H49" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -10781,130 +10781,130 @@
         <v>0</v>
       </c>
       <c r="M49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O49" t="s">
         <v>95</v>
       </c>
       <c r="P49" t="s">
-        <v>157</v>
+        <v>95</v>
       </c>
       <c r="Q49">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="R49">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="S49">
         <v>3.75</v>
       </c>
       <c r="T49">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="U49">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V49">
+        <v>2.75</v>
+      </c>
+      <c r="W49">
+        <v>1.4</v>
+      </c>
+      <c r="X49">
+        <v>8</v>
+      </c>
+      <c r="Y49">
+        <v>1.08</v>
+      </c>
+      <c r="Z49">
+        <v>2.2</v>
+      </c>
+      <c r="AA49">
+        <v>3.4</v>
+      </c>
+      <c r="AB49">
+        <v>3.1</v>
+      </c>
+      <c r="AC49">
+        <v>1.05</v>
+      </c>
+      <c r="AD49">
+        <v>9</v>
+      </c>
+      <c r="AE49">
+        <v>1.28</v>
+      </c>
+      <c r="AF49">
         <v>3.5</v>
       </c>
-      <c r="W49">
-        <v>1.29</v>
-      </c>
-      <c r="X49">
-        <v>10</v>
-      </c>
-      <c r="Y49">
-        <v>1.06</v>
-      </c>
-      <c r="Z49">
-        <v>2.25</v>
-      </c>
-      <c r="AA49">
-        <v>3.1</v>
-      </c>
-      <c r="AB49">
-        <v>3.25</v>
-      </c>
-      <c r="AC49">
-        <v>1.07</v>
-      </c>
-      <c r="AD49">
-        <v>8.75</v>
-      </c>
-      <c r="AE49">
+      <c r="AG49">
+        <v>1.78</v>
+      </c>
+      <c r="AH49">
+        <v>1.91</v>
+      </c>
+      <c r="AI49">
+        <v>1.75</v>
+      </c>
+      <c r="AJ49">
+        <v>2</v>
+      </c>
+      <c r="AK49">
+        <v>1.35</v>
+      </c>
+      <c r="AL49">
+        <v>1.25</v>
+      </c>
+      <c r="AM49">
+        <v>1.62</v>
+      </c>
+      <c r="AN49">
+        <v>3</v>
+      </c>
+      <c r="AO49">
+        <v>1</v>
+      </c>
+      <c r="AP49">
+        <v>2</v>
+      </c>
+      <c r="AQ49">
+        <v>1</v>
+      </c>
+      <c r="AR49">
         <v>1.4</v>
       </c>
-      <c r="AF49">
-        <v>2.75</v>
-      </c>
-      <c r="AG49">
-        <v>2.3</v>
-      </c>
-      <c r="AH49">
-        <v>1.53</v>
-      </c>
-      <c r="AI49">
-        <v>2</v>
-      </c>
-      <c r="AJ49">
-        <v>1.75</v>
-      </c>
-      <c r="AK49">
-        <v>1.33</v>
-      </c>
-      <c r="AL49">
-        <v>1.28</v>
-      </c>
-      <c r="AM49">
-        <v>1.6</v>
-      </c>
-      <c r="AN49">
-        <v>3</v>
-      </c>
-      <c r="AO49">
-        <v>3</v>
-      </c>
-      <c r="AP49">
-        <v>1.5</v>
-      </c>
-      <c r="AQ49">
-        <v>3</v>
-      </c>
-      <c r="AR49">
-        <v>1.58</v>
-      </c>
       <c r="AS49">
-        <v>0.93</v>
+        <v>1.76</v>
       </c>
       <c r="AT49">
-        <v>2.51</v>
+        <v>3.16</v>
       </c>
       <c r="AU49">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV49">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW49">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AX49">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AY49">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ49">
+        <v>11</v>
+      </c>
+      <c r="BA49">
+        <v>3</v>
+      </c>
+      <c r="BB49">
         <v>4</v>
-      </c>
-      <c r="BA49">
-        <v>5</v>
-      </c>
-      <c r="BB49">
-        <v>2</v>
       </c>
       <c r="BC49">
         <v>7</v>
@@ -10919,34 +10919,34 @@
         <v>2.17</v>
       </c>
       <c r="BG49">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="BH49">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="BI49">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="BJ49">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="BK49">
-        <v>1.73</v>
+        <v>1.92</v>
       </c>
       <c r="BL49">
-        <v>1.97</v>
+        <v>1.77</v>
       </c>
       <c r="BM49">
-        <v>2.15</v>
+        <v>2.43</v>
       </c>
       <c r="BN49">
-        <v>1.61</v>
+        <v>1.47</v>
       </c>
       <c r="BO49">
-        <v>2.7</v>
+        <v>3.15</v>
       </c>
       <c r="BP49">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="160">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -406,6 +406,15 @@
     <t>['18', '90+1']</t>
   </si>
   <si>
+    <t>['15', '42', '59']</t>
+  </si>
+  <si>
+    <t>['11', '65']</t>
+  </si>
+  <si>
+    <t>['72']</t>
+  </si>
+  <si>
     <t>['13', '18']</t>
   </si>
   <si>
@@ -470,9 +479,6 @@
   </si>
   <si>
     <t>['10', '78']</t>
-  </si>
-  <si>
-    <t>['72']</t>
   </si>
   <si>
     <t>['28', '39']</t>
@@ -849,7 +855,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP49"/>
+  <dimension ref="A1:BP52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1108,7 +1114,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1186,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ2">
         <v>1.5</v>
@@ -1314,7 +1320,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q3">
         <v>3.2</v>
@@ -1932,7 +1938,7 @@
         <v>95</v>
       </c>
       <c r="P6" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2138,7 +2144,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2344,7 +2350,7 @@
         <v>99</v>
       </c>
       <c r="P8" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2550,7 +2556,7 @@
         <v>100</v>
       </c>
       <c r="P9" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2756,7 +2762,7 @@
         <v>101</v>
       </c>
       <c r="P10" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3168,7 +3174,7 @@
         <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q12">
         <v>2.1</v>
@@ -3455,7 +3461,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ13">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3580,7 +3586,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3864,7 +3870,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ15">
         <v>0</v>
@@ -3992,7 +3998,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4198,7 +4204,7 @@
         <v>95</v>
       </c>
       <c r="P17" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -4404,7 +4410,7 @@
         <v>106</v>
       </c>
       <c r="P18" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q18">
         <v>2.3</v>
@@ -4610,7 +4616,7 @@
         <v>107</v>
       </c>
       <c r="P19" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q19">
         <v>2.75</v>
@@ -4816,7 +4822,7 @@
         <v>108</v>
       </c>
       <c r="P20" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q20">
         <v>2.5</v>
@@ -5022,7 +5028,7 @@
         <v>109</v>
       </c>
       <c r="P21" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q21">
         <v>3.25</v>
@@ -5434,7 +5440,7 @@
         <v>111</v>
       </c>
       <c r="P23" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q23">
         <v>4.33</v>
@@ -5721,7 +5727,7 @@
         <v>2</v>
       </c>
       <c r="AQ24">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6133,7 +6139,7 @@
         <v>3</v>
       </c>
       <c r="AQ26">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR26">
         <v>2.06</v>
@@ -6464,7 +6470,7 @@
         <v>113</v>
       </c>
       <c r="P28" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q28">
         <v>4.5</v>
@@ -6748,7 +6754,7 @@
         <v>3</v>
       </c>
       <c r="AP29">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ29">
         <v>1.5</v>
@@ -6876,7 +6882,7 @@
         <v>115</v>
       </c>
       <c r="P30" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7288,7 +7294,7 @@
         <v>117</v>
       </c>
       <c r="P32" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q32">
         <v>4.33</v>
@@ -7494,7 +7500,7 @@
         <v>118</v>
       </c>
       <c r="P33" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q33">
         <v>2.88</v>
@@ -7700,7 +7706,7 @@
         <v>119</v>
       </c>
       <c r="P34" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q34">
         <v>2.2</v>
@@ -7778,7 +7784,7 @@
         <v>0</v>
       </c>
       <c r="AP34">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ34">
         <v>0.5</v>
@@ -8399,7 +8405,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ37">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR37">
         <v>0.87</v>
@@ -8524,7 +8530,7 @@
         <v>123</v>
       </c>
       <c r="P38" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q38">
         <v>2.63</v>
@@ -8730,7 +8736,7 @@
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -8936,7 +8942,7 @@
         <v>95</v>
       </c>
       <c r="P40" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="Q40">
         <v>3.1</v>
@@ -9348,7 +9354,7 @@
         <v>95</v>
       </c>
       <c r="P42" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q42">
         <v>2.63</v>
@@ -9760,7 +9766,7 @@
         <v>127</v>
       </c>
       <c r="P44" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9966,7 +9972,7 @@
         <v>95</v>
       </c>
       <c r="P45" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q45">
         <v>3.6</v>
@@ -10378,7 +10384,7 @@
         <v>95</v>
       </c>
       <c r="P47" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q47">
         <v>2.05</v>
@@ -10584,7 +10590,7 @@
         <v>129</v>
       </c>
       <c r="P48" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q48">
         <v>1.95</v>
@@ -10947,6 +10953,624 @@
       </c>
       <c r="BP49">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:68">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>7477854</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45542.45833333334</v>
+      </c>
+      <c r="F50">
+        <v>5</v>
+      </c>
+      <c r="G50" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" t="s">
+        <v>82</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>2</v>
+      </c>
+      <c r="L50">
+        <v>3</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>3</v>
+      </c>
+      <c r="O50" t="s">
+        <v>130</v>
+      </c>
+      <c r="P50" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q50">
+        <v>2</v>
+      </c>
+      <c r="R50">
+        <v>2.4</v>
+      </c>
+      <c r="S50">
+        <v>6.5</v>
+      </c>
+      <c r="T50">
+        <v>1.33</v>
+      </c>
+      <c r="U50">
+        <v>3.25</v>
+      </c>
+      <c r="V50">
+        <v>2.63</v>
+      </c>
+      <c r="W50">
+        <v>1.44</v>
+      </c>
+      <c r="X50">
+        <v>6.5</v>
+      </c>
+      <c r="Y50">
+        <v>1.11</v>
+      </c>
+      <c r="Z50">
+        <v>1.45</v>
+      </c>
+      <c r="AA50">
+        <v>4.2</v>
+      </c>
+      <c r="AB50">
+        <v>6</v>
+      </c>
+      <c r="AC50">
+        <v>1.04</v>
+      </c>
+      <c r="AD50">
+        <v>10</v>
+      </c>
+      <c r="AE50">
+        <v>1.2</v>
+      </c>
+      <c r="AF50">
+        <v>4.33</v>
+      </c>
+      <c r="AG50">
+        <v>1.73</v>
+      </c>
+      <c r="AH50">
+        <v>2</v>
+      </c>
+      <c r="AI50">
+        <v>1.95</v>
+      </c>
+      <c r="AJ50">
+        <v>1.8</v>
+      </c>
+      <c r="AK50">
+        <v>1.12</v>
+      </c>
+      <c r="AL50">
+        <v>1.17</v>
+      </c>
+      <c r="AM50">
+        <v>2.5</v>
+      </c>
+      <c r="AN50">
+        <v>3</v>
+      </c>
+      <c r="AO50">
+        <v>0</v>
+      </c>
+      <c r="AP50">
+        <v>3</v>
+      </c>
+      <c r="AQ50">
+        <v>0</v>
+      </c>
+      <c r="AR50">
+        <v>1.47</v>
+      </c>
+      <c r="AS50">
+        <v>0.88</v>
+      </c>
+      <c r="AT50">
+        <v>2.35</v>
+      </c>
+      <c r="AU50">
+        <v>7</v>
+      </c>
+      <c r="AV50">
+        <v>4</v>
+      </c>
+      <c r="AW50">
+        <v>6</v>
+      </c>
+      <c r="AX50">
+        <v>2</v>
+      </c>
+      <c r="AY50">
+        <v>13</v>
+      </c>
+      <c r="AZ50">
+        <v>6</v>
+      </c>
+      <c r="BA50">
+        <v>5</v>
+      </c>
+      <c r="BB50">
+        <v>7</v>
+      </c>
+      <c r="BC50">
+        <v>12</v>
+      </c>
+      <c r="BD50">
+        <v>1.38</v>
+      </c>
+      <c r="BE50">
+        <v>7</v>
+      </c>
+      <c r="BF50">
+        <v>3.15</v>
+      </c>
+      <c r="BG50">
+        <v>1.33</v>
+      </c>
+      <c r="BH50">
+        <v>2.95</v>
+      </c>
+      <c r="BI50">
+        <v>1.56</v>
+      </c>
+      <c r="BJ50">
+        <v>2.23</v>
+      </c>
+      <c r="BK50">
+        <v>1.92</v>
+      </c>
+      <c r="BL50">
+        <v>1.77</v>
+      </c>
+      <c r="BM50">
+        <v>2.43</v>
+      </c>
+      <c r="BN50">
+        <v>1.48</v>
+      </c>
+      <c r="BO50">
+        <v>3.15</v>
+      </c>
+      <c r="BP50">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:68">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>7477839</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45542.45833333334</v>
+      </c>
+      <c r="F51">
+        <v>5</v>
+      </c>
+      <c r="G51" t="s">
+        <v>70</v>
+      </c>
+      <c r="H51" t="s">
+        <v>79</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>2</v>
+      </c>
+      <c r="L51">
+        <v>2</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>3</v>
+      </c>
+      <c r="O51" t="s">
+        <v>131</v>
+      </c>
+      <c r="P51" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q51">
+        <v>2.3</v>
+      </c>
+      <c r="R51">
+        <v>2.3</v>
+      </c>
+      <c r="S51">
+        <v>4.75</v>
+      </c>
+      <c r="T51">
+        <v>1.33</v>
+      </c>
+      <c r="U51">
+        <v>3.25</v>
+      </c>
+      <c r="V51">
+        <v>2.63</v>
+      </c>
+      <c r="W51">
+        <v>1.44</v>
+      </c>
+      <c r="X51">
+        <v>6.5</v>
+      </c>
+      <c r="Y51">
+        <v>1.11</v>
+      </c>
+      <c r="Z51">
+        <v>1.67</v>
+      </c>
+      <c r="AA51">
+        <v>4</v>
+      </c>
+      <c r="AB51">
+        <v>4.2</v>
+      </c>
+      <c r="AC51">
+        <v>1.05</v>
+      </c>
+      <c r="AD51">
+        <v>9.5</v>
+      </c>
+      <c r="AE51">
+        <v>1.25</v>
+      </c>
+      <c r="AF51">
+        <v>3.85</v>
+      </c>
+      <c r="AG51">
+        <v>1.73</v>
+      </c>
+      <c r="AH51">
+        <v>2</v>
+      </c>
+      <c r="AI51">
+        <v>1.75</v>
+      </c>
+      <c r="AJ51">
+        <v>2</v>
+      </c>
+      <c r="AK51">
+        <v>1.18</v>
+      </c>
+      <c r="AL51">
+        <v>1.22</v>
+      </c>
+      <c r="AM51">
+        <v>2.05</v>
+      </c>
+      <c r="AN51">
+        <v>0.5</v>
+      </c>
+      <c r="AO51">
+        <v>0.5</v>
+      </c>
+      <c r="AP51">
+        <v>1.33</v>
+      </c>
+      <c r="AQ51">
+        <v>0.33</v>
+      </c>
+      <c r="AR51">
+        <v>1.65</v>
+      </c>
+      <c r="AS51">
+        <v>1</v>
+      </c>
+      <c r="AT51">
+        <v>2.65</v>
+      </c>
+      <c r="AU51">
+        <v>9</v>
+      </c>
+      <c r="AV51">
+        <v>3</v>
+      </c>
+      <c r="AW51">
+        <v>3</v>
+      </c>
+      <c r="AX51">
+        <v>1</v>
+      </c>
+      <c r="AY51">
+        <v>12</v>
+      </c>
+      <c r="AZ51">
+        <v>4</v>
+      </c>
+      <c r="BA51">
+        <v>12</v>
+      </c>
+      <c r="BB51">
+        <v>5</v>
+      </c>
+      <c r="BC51">
+        <v>17</v>
+      </c>
+      <c r="BD51">
+        <v>1.5</v>
+      </c>
+      <c r="BE51">
+        <v>6.75</v>
+      </c>
+      <c r="BF51">
+        <v>2.65</v>
+      </c>
+      <c r="BG51">
+        <v>1.24</v>
+      </c>
+      <c r="BH51">
+        <v>3.55</v>
+      </c>
+      <c r="BI51">
+        <v>1.43</v>
+      </c>
+      <c r="BJ51">
+        <v>2.6</v>
+      </c>
+      <c r="BK51">
+        <v>1.68</v>
+      </c>
+      <c r="BL51">
+        <v>2.04</v>
+      </c>
+      <c r="BM51">
+        <v>2.06</v>
+      </c>
+      <c r="BN51">
+        <v>1.66</v>
+      </c>
+      <c r="BO51">
+        <v>2.63</v>
+      </c>
+      <c r="BP51">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:68">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>7477844</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45542.46527777778</v>
+      </c>
+      <c r="F52">
+        <v>5</v>
+      </c>
+      <c r="G52" t="s">
+        <v>83</v>
+      </c>
+      <c r="H52" t="s">
+        <v>92</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>1</v>
+      </c>
+      <c r="M52">
+        <v>1</v>
+      </c>
+      <c r="N52">
+        <v>2</v>
+      </c>
+      <c r="O52" t="s">
+        <v>132</v>
+      </c>
+      <c r="P52" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q52">
+        <v>3</v>
+      </c>
+      <c r="R52">
+        <v>2.1</v>
+      </c>
+      <c r="S52">
+        <v>3.6</v>
+      </c>
+      <c r="T52">
+        <v>1.4</v>
+      </c>
+      <c r="U52">
+        <v>2.75</v>
+      </c>
+      <c r="V52">
+        <v>3</v>
+      </c>
+      <c r="W52">
+        <v>1.36</v>
+      </c>
+      <c r="X52">
+        <v>8</v>
+      </c>
+      <c r="Y52">
+        <v>1.08</v>
+      </c>
+      <c r="Z52">
+        <v>2.25</v>
+      </c>
+      <c r="AA52">
+        <v>3.3</v>
+      </c>
+      <c r="AB52">
+        <v>2.96</v>
+      </c>
+      <c r="AC52">
+        <v>1.06</v>
+      </c>
+      <c r="AD52">
+        <v>8.5</v>
+      </c>
+      <c r="AE52">
+        <v>1.33</v>
+      </c>
+      <c r="AF52">
+        <v>3.25</v>
+      </c>
+      <c r="AG52">
+        <v>2.01</v>
+      </c>
+      <c r="AH52">
+        <v>1.75</v>
+      </c>
+      <c r="AI52">
+        <v>1.75</v>
+      </c>
+      <c r="AJ52">
+        <v>2</v>
+      </c>
+      <c r="AK52">
+        <v>1.36</v>
+      </c>
+      <c r="AL52">
+        <v>1.25</v>
+      </c>
+      <c r="AM52">
+        <v>1.6</v>
+      </c>
+      <c r="AN52">
+        <v>3</v>
+      </c>
+      <c r="AO52">
+        <v>0</v>
+      </c>
+      <c r="AP52">
+        <v>2.33</v>
+      </c>
+      <c r="AQ52">
+        <v>0.33</v>
+      </c>
+      <c r="AR52">
+        <v>1.21</v>
+      </c>
+      <c r="AS52">
+        <v>1.65</v>
+      </c>
+      <c r="AT52">
+        <v>2.86</v>
+      </c>
+      <c r="AU52">
+        <v>2</v>
+      </c>
+      <c r="AV52">
+        <v>5</v>
+      </c>
+      <c r="AW52">
+        <v>7</v>
+      </c>
+      <c r="AX52">
+        <v>8</v>
+      </c>
+      <c r="AY52">
+        <v>9</v>
+      </c>
+      <c r="AZ52">
+        <v>13</v>
+      </c>
+      <c r="BA52">
+        <v>2</v>
+      </c>
+      <c r="BB52">
+        <v>3</v>
+      </c>
+      <c r="BC52">
+        <v>5</v>
+      </c>
+      <c r="BD52">
+        <v>1.81</v>
+      </c>
+      <c r="BE52">
+        <v>6.4</v>
+      </c>
+      <c r="BF52">
+        <v>2.07</v>
+      </c>
+      <c r="BG52">
+        <v>1.25</v>
+      </c>
+      <c r="BH52">
+        <v>3.4</v>
+      </c>
+      <c r="BI52">
+        <v>1.44</v>
+      </c>
+      <c r="BJ52">
+        <v>2.55</v>
+      </c>
+      <c r="BK52">
+        <v>1.73</v>
+      </c>
+      <c r="BL52">
+        <v>1.97</v>
+      </c>
+      <c r="BM52">
+        <v>2.15</v>
+      </c>
+      <c r="BN52">
+        <v>1.61</v>
+      </c>
+      <c r="BO52">
+        <v>2.8</v>
+      </c>
+      <c r="BP52">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="175">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -415,6 +415,24 @@
     <t>['72']</t>
   </si>
   <si>
+    <t>['39', '68']</t>
+  </si>
+  <si>
+    <t>['39', '57']</t>
+  </si>
+  <si>
+    <t>['65']</t>
+  </si>
+  <si>
+    <t>['54', '59', '89']</t>
+  </si>
+  <si>
+    <t>['19', '90+4']</t>
+  </si>
+  <si>
+    <t>['68']</t>
+  </si>
+  <si>
     <t>['13', '18']</t>
   </si>
   <si>
@@ -494,6 +512,33 @@
   </si>
   <si>
     <t>['66']</t>
+  </si>
+  <si>
+    <t>['11', '52']</t>
+  </si>
+  <si>
+    <t>['50']</t>
+  </si>
+  <si>
+    <t>['25', '71']</t>
+  </si>
+  <si>
+    <t>['33']</t>
+  </si>
+  <si>
+    <t>['27']</t>
+  </si>
+  <si>
+    <t>['20', '40', '50', '71']</t>
+  </si>
+  <si>
+    <t>['88']</t>
+  </si>
+  <si>
+    <t>['6']</t>
+  </si>
+  <si>
+    <t>['44', '59', '68', '81']</t>
   </si>
 </sst>
 </file>
@@ -855,7 +900,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP52"/>
+  <dimension ref="A1:BP63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1114,7 +1159,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1320,7 +1365,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="Q3">
         <v>3.2</v>
@@ -1401,7 +1446,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1810,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ5">
         <v>0</v>
@@ -1938,7 +1983,7 @@
         <v>95</v>
       </c>
       <c r="P6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2016,10 +2061,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AQ6">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2144,7 +2189,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2350,7 +2395,7 @@
         <v>99</v>
       </c>
       <c r="P8" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2431,7 +2476,7 @@
         <v>3</v>
       </c>
       <c r="AQ8">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2556,7 +2601,7 @@
         <v>100</v>
       </c>
       <c r="P9" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2634,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ9">
         <v>0.5</v>
@@ -2762,7 +2807,7 @@
         <v>101</v>
       </c>
       <c r="P10" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -2843,7 +2888,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ10">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3046,7 +3091,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ11">
         <v>0.5</v>
@@ -3174,7 +3219,7 @@
         <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="Q12">
         <v>2.1</v>
@@ -3586,7 +3631,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3664,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ14">
         <v>3</v>
@@ -3873,7 +3918,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -3998,7 +4043,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4204,7 +4249,7 @@
         <v>95</v>
       </c>
       <c r="P17" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -4282,10 +4327,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ17">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4410,7 +4455,7 @@
         <v>106</v>
       </c>
       <c r="P18" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="Q18">
         <v>2.3</v>
@@ -4616,7 +4661,7 @@
         <v>107</v>
       </c>
       <c r="P19" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="Q19">
         <v>2.75</v>
@@ -4697,7 +4742,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4822,7 +4867,7 @@
         <v>108</v>
       </c>
       <c r="P20" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="Q20">
         <v>2.5</v>
@@ -4900,7 +4945,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ20">
         <v>1</v>
@@ -5028,7 +5073,7 @@
         <v>109</v>
       </c>
       <c r="P21" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="Q21">
         <v>3.25</v>
@@ -5106,10 +5151,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ21">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5312,10 +5357,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5440,7 +5485,7 @@
         <v>111</v>
       </c>
       <c r="P23" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="Q23">
         <v>4.33</v>
@@ -5724,7 +5769,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ24">
         <v>0.33</v>
@@ -5930,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ25">
         <v>2</v>
@@ -6470,7 +6515,7 @@
         <v>113</v>
       </c>
       <c r="P28" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="Q28">
         <v>4.5</v>
@@ -6882,7 +6927,7 @@
         <v>115</v>
       </c>
       <c r="P30" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7294,7 +7339,7 @@
         <v>117</v>
       </c>
       <c r="P32" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="Q32">
         <v>4.33</v>
@@ -7500,7 +7545,7 @@
         <v>118</v>
       </c>
       <c r="P33" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="Q33">
         <v>2.88</v>
@@ -7706,7 +7751,7 @@
         <v>119</v>
       </c>
       <c r="P34" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q34">
         <v>2.2</v>
@@ -8530,7 +8575,7 @@
         <v>123</v>
       </c>
       <c r="P38" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="Q38">
         <v>2.63</v>
@@ -8608,10 +8653,10 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ38">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR38">
         <v>0.68</v>
@@ -8736,7 +8781,7 @@
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -8814,10 +8859,10 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ39">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR39">
         <v>2.14</v>
@@ -9020,10 +9065,10 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ40">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AR40">
         <v>1.58</v>
@@ -9226,10 +9271,10 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR41">
         <v>1.27</v>
@@ -9354,7 +9399,7 @@
         <v>95</v>
       </c>
       <c r="P42" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="Q42">
         <v>2.63</v>
@@ -9432,7 +9477,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AQ42">
         <v>2</v>
@@ -9638,10 +9683,10 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ43">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR43">
         <v>1.98</v>
@@ -9766,7 +9811,7 @@
         <v>127</v>
       </c>
       <c r="P44" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9844,10 +9889,10 @@
         <v>3</v>
       </c>
       <c r="AP44">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AQ44">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AR44">
         <v>1.81</v>
@@ -9972,7 +10017,7 @@
         <v>95</v>
       </c>
       <c r="P45" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="Q45">
         <v>3.6</v>
@@ -10050,10 +10095,10 @@
         <v>3</v>
       </c>
       <c r="AP45">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ45">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR45">
         <v>1.22</v>
@@ -10256,7 +10301,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
         <v>0</v>
@@ -10384,7 +10429,7 @@
         <v>95</v>
       </c>
       <c r="P47" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="Q47">
         <v>2.05</v>
@@ -10462,10 +10507,10 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ47">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR47">
         <v>1.76</v>
@@ -10590,7 +10635,7 @@
         <v>129</v>
       </c>
       <c r="P48" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="Q48">
         <v>1.95</v>
@@ -10671,7 +10716,7 @@
         <v>2</v>
       </c>
       <c r="AQ48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR48">
         <v>1.57</v>
@@ -10874,7 +10919,7 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ49">
         <v>1</v>
@@ -11208,7 +11253,7 @@
         <v>131</v>
       </c>
       <c r="P51" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="Q51">
         <v>2.3</v>
@@ -11571,6 +11616,2272 @@
       </c>
       <c r="BP52">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:68">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7477865</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45549.35416666666</v>
+      </c>
+      <c r="F53">
+        <v>6</v>
+      </c>
+      <c r="G53" t="s">
+        <v>89</v>
+      </c>
+      <c r="H53" t="s">
+        <v>91</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53">
+        <v>2</v>
+      </c>
+      <c r="L53">
+        <v>1</v>
+      </c>
+      <c r="M53">
+        <v>2</v>
+      </c>
+      <c r="N53">
+        <v>3</v>
+      </c>
+      <c r="O53" t="s">
+        <v>115</v>
+      </c>
+      <c r="P53" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q53">
+        <v>3.5</v>
+      </c>
+      <c r="R53">
+        <v>2.1</v>
+      </c>
+      <c r="S53">
+        <v>3</v>
+      </c>
+      <c r="T53">
+        <v>1.4</v>
+      </c>
+      <c r="U53">
+        <v>2.75</v>
+      </c>
+      <c r="V53">
+        <v>3</v>
+      </c>
+      <c r="W53">
+        <v>1.36</v>
+      </c>
+      <c r="X53">
+        <v>8</v>
+      </c>
+      <c r="Y53">
+        <v>1.08</v>
+      </c>
+      <c r="Z53">
+        <v>3.1</v>
+      </c>
+      <c r="AA53">
+        <v>3.25</v>
+      </c>
+      <c r="AB53">
+        <v>2.2</v>
+      </c>
+      <c r="AC53">
+        <v>1.06</v>
+      </c>
+      <c r="AD53">
+        <v>8.5</v>
+      </c>
+      <c r="AE53">
+        <v>1.3</v>
+      </c>
+      <c r="AF53">
+        <v>3.35</v>
+      </c>
+      <c r="AG53">
+        <v>1.88</v>
+      </c>
+      <c r="AH53">
+        <v>1.9</v>
+      </c>
+      <c r="AI53">
+        <v>1.75</v>
+      </c>
+      <c r="AJ53">
+        <v>2</v>
+      </c>
+      <c r="AK53">
+        <v>1.57</v>
+      </c>
+      <c r="AL53">
+        <v>1.25</v>
+      </c>
+      <c r="AM53">
+        <v>1.38</v>
+      </c>
+      <c r="AN53">
+        <v>2</v>
+      </c>
+      <c r="AO53">
+        <v>0.5</v>
+      </c>
+      <c r="AP53">
+        <v>1.33</v>
+      </c>
+      <c r="AQ53">
+        <v>1.33</v>
+      </c>
+      <c r="AR53">
+        <v>1.36</v>
+      </c>
+      <c r="AS53">
+        <v>1.42</v>
+      </c>
+      <c r="AT53">
+        <v>2.78</v>
+      </c>
+      <c r="AU53">
+        <v>4</v>
+      </c>
+      <c r="AV53">
+        <v>5</v>
+      </c>
+      <c r="AW53">
+        <v>1</v>
+      </c>
+      <c r="AX53">
+        <v>8</v>
+      </c>
+      <c r="AY53">
+        <v>5</v>
+      </c>
+      <c r="AZ53">
+        <v>13</v>
+      </c>
+      <c r="BA53">
+        <v>5</v>
+      </c>
+      <c r="BB53">
+        <v>2</v>
+      </c>
+      <c r="BC53">
+        <v>7</v>
+      </c>
+      <c r="BD53">
+        <v>1.97</v>
+      </c>
+      <c r="BE53">
+        <v>6.4</v>
+      </c>
+      <c r="BF53">
+        <v>1.92</v>
+      </c>
+      <c r="BG53">
+        <v>1.3</v>
+      </c>
+      <c r="BH53">
+        <v>3.15</v>
+      </c>
+      <c r="BI53">
+        <v>1.52</v>
+      </c>
+      <c r="BJ53">
+        <v>2.32</v>
+      </c>
+      <c r="BK53">
+        <v>1.95</v>
+      </c>
+      <c r="BL53">
+        <v>1.85</v>
+      </c>
+      <c r="BM53">
+        <v>2.32</v>
+      </c>
+      <c r="BN53">
+        <v>1.53</v>
+      </c>
+      <c r="BO53">
+        <v>3.05</v>
+      </c>
+      <c r="BP53">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:68">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>7477864</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45549.35416666666</v>
+      </c>
+      <c r="F54">
+        <v>6</v>
+      </c>
+      <c r="G54" t="s">
+        <v>88</v>
+      </c>
+      <c r="H54" t="s">
+        <v>84</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>2</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>3</v>
+      </c>
+      <c r="O54" t="s">
+        <v>133</v>
+      </c>
+      <c r="P54" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q54">
+        <v>2.3</v>
+      </c>
+      <c r="R54">
+        <v>2.3</v>
+      </c>
+      <c r="S54">
+        <v>4.75</v>
+      </c>
+      <c r="T54">
+        <v>1.33</v>
+      </c>
+      <c r="U54">
+        <v>3.25</v>
+      </c>
+      <c r="V54">
+        <v>2.5</v>
+      </c>
+      <c r="W54">
+        <v>1.5</v>
+      </c>
+      <c r="X54">
+        <v>6.5</v>
+      </c>
+      <c r="Y54">
+        <v>1.11</v>
+      </c>
+      <c r="Z54">
+        <v>1.75</v>
+      </c>
+      <c r="AA54">
+        <v>3.7</v>
+      </c>
+      <c r="AB54">
+        <v>4.1</v>
+      </c>
+      <c r="AC54">
+        <v>1.04</v>
+      </c>
+      <c r="AD54">
+        <v>10</v>
+      </c>
+      <c r="AE54">
+        <v>1.22</v>
+      </c>
+      <c r="AF54">
+        <v>4.2</v>
+      </c>
+      <c r="AG54">
+        <v>1.7</v>
+      </c>
+      <c r="AH54">
+        <v>2</v>
+      </c>
+      <c r="AI54">
+        <v>1.7</v>
+      </c>
+      <c r="AJ54">
+        <v>2.05</v>
+      </c>
+      <c r="AK54">
+        <v>1.2</v>
+      </c>
+      <c r="AL54">
+        <v>1.2</v>
+      </c>
+      <c r="AM54">
+        <v>2.05</v>
+      </c>
+      <c r="AN54">
+        <v>1</v>
+      </c>
+      <c r="AO54">
+        <v>0</v>
+      </c>
+      <c r="AP54">
+        <v>1.67</v>
+      </c>
+      <c r="AQ54">
+        <v>0</v>
+      </c>
+      <c r="AR54">
+        <v>1.26</v>
+      </c>
+      <c r="AS54">
+        <v>0.9</v>
+      </c>
+      <c r="AT54">
+        <v>2.16</v>
+      </c>
+      <c r="AU54">
+        <v>7</v>
+      </c>
+      <c r="AV54">
+        <v>6</v>
+      </c>
+      <c r="AW54">
+        <v>6</v>
+      </c>
+      <c r="AX54">
+        <v>2</v>
+      </c>
+      <c r="AY54">
+        <v>13</v>
+      </c>
+      <c r="AZ54">
+        <v>8</v>
+      </c>
+      <c r="BA54">
+        <v>3</v>
+      </c>
+      <c r="BB54">
+        <v>4</v>
+      </c>
+      <c r="BC54">
+        <v>7</v>
+      </c>
+      <c r="BD54">
+        <v>1.45</v>
+      </c>
+      <c r="BE54">
+        <v>6.75</v>
+      </c>
+      <c r="BF54">
+        <v>2.9</v>
+      </c>
+      <c r="BG54">
+        <v>1.24</v>
+      </c>
+      <c r="BH54">
+        <v>3.55</v>
+      </c>
+      <c r="BI54">
+        <v>1.41</v>
+      </c>
+      <c r="BJ54">
+        <v>2.65</v>
+      </c>
+      <c r="BK54">
+        <v>1.67</v>
+      </c>
+      <c r="BL54">
+        <v>2.05</v>
+      </c>
+      <c r="BM54">
+        <v>2.05</v>
+      </c>
+      <c r="BN54">
+        <v>1.67</v>
+      </c>
+      <c r="BO54">
+        <v>2.6</v>
+      </c>
+      <c r="BP54">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="55" spans="1:68">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>7477871</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45549.45833333334</v>
+      </c>
+      <c r="F55">
+        <v>6</v>
+      </c>
+      <c r="G55" t="s">
+        <v>82</v>
+      </c>
+      <c r="H55" t="s">
+        <v>83</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>1</v>
+      </c>
+      <c r="N55">
+        <v>1</v>
+      </c>
+      <c r="O55" t="s">
+        <v>95</v>
+      </c>
+      <c r="P55" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q55">
+        <v>4.33</v>
+      </c>
+      <c r="R55">
+        <v>2.2</v>
+      </c>
+      <c r="S55">
+        <v>2.63</v>
+      </c>
+      <c r="T55">
+        <v>1.4</v>
+      </c>
+      <c r="U55">
+        <v>2.75</v>
+      </c>
+      <c r="V55">
+        <v>3</v>
+      </c>
+      <c r="W55">
+        <v>1.36</v>
+      </c>
+      <c r="X55">
+        <v>8</v>
+      </c>
+      <c r="Y55">
+        <v>1.08</v>
+      </c>
+      <c r="Z55">
+        <v>3.7</v>
+      </c>
+      <c r="AA55">
+        <v>3.25</v>
+      </c>
+      <c r="AB55">
+        <v>1.97</v>
+      </c>
+      <c r="AC55">
+        <v>1.06</v>
+      </c>
+      <c r="AD55">
+        <v>8.5</v>
+      </c>
+      <c r="AE55">
+        <v>1.33</v>
+      </c>
+      <c r="AF55">
+        <v>3.3</v>
+      </c>
+      <c r="AG55">
+        <v>1.98</v>
+      </c>
+      <c r="AH55">
+        <v>1.82</v>
+      </c>
+      <c r="AI55">
+        <v>1.8</v>
+      </c>
+      <c r="AJ55">
+        <v>1.95</v>
+      </c>
+      <c r="AK55">
+        <v>1.73</v>
+      </c>
+      <c r="AL55">
+        <v>1.25</v>
+      </c>
+      <c r="AM55">
+        <v>1.28</v>
+      </c>
+      <c r="AN55">
+        <v>1.5</v>
+      </c>
+      <c r="AO55">
+        <v>1.5</v>
+      </c>
+      <c r="AP55">
+        <v>1</v>
+      </c>
+      <c r="AQ55">
+        <v>2</v>
+      </c>
+      <c r="AR55">
+        <v>1.21</v>
+      </c>
+      <c r="AS55">
+        <v>0.89</v>
+      </c>
+      <c r="AT55">
+        <v>2.1</v>
+      </c>
+      <c r="AU55">
+        <v>4</v>
+      </c>
+      <c r="AV55">
+        <v>3</v>
+      </c>
+      <c r="AW55">
+        <v>5</v>
+      </c>
+      <c r="AX55">
+        <v>4</v>
+      </c>
+      <c r="AY55">
+        <v>9</v>
+      </c>
+      <c r="AZ55">
+        <v>7</v>
+      </c>
+      <c r="BA55">
+        <v>7</v>
+      </c>
+      <c r="BB55">
+        <v>7</v>
+      </c>
+      <c r="BC55">
+        <v>14</v>
+      </c>
+      <c r="BD55">
+        <v>2.23</v>
+      </c>
+      <c r="BE55">
+        <v>6.5</v>
+      </c>
+      <c r="BF55">
+        <v>1.68</v>
+      </c>
+      <c r="BG55">
+        <v>1.21</v>
+      </c>
+      <c r="BH55">
+        <v>3.8</v>
+      </c>
+      <c r="BI55">
+        <v>1.38</v>
+      </c>
+      <c r="BJ55">
+        <v>2.75</v>
+      </c>
+      <c r="BK55">
+        <v>1.61</v>
+      </c>
+      <c r="BL55">
+        <v>2.15</v>
+      </c>
+      <c r="BM55">
+        <v>1.98</v>
+      </c>
+      <c r="BN55">
+        <v>1.82</v>
+      </c>
+      <c r="BO55">
+        <v>2.45</v>
+      </c>
+      <c r="BP55">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:68">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7477870</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45549.45833333334</v>
+      </c>
+      <c r="F56">
+        <v>6</v>
+      </c>
+      <c r="G56" t="s">
+        <v>92</v>
+      </c>
+      <c r="H56" t="s">
+        <v>78</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>2</v>
+      </c>
+      <c r="L56">
+        <v>2</v>
+      </c>
+      <c r="M56">
+        <v>2</v>
+      </c>
+      <c r="N56">
+        <v>4</v>
+      </c>
+      <c r="O56" t="s">
+        <v>134</v>
+      </c>
+      <c r="P56" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q56">
+        <v>2.2</v>
+      </c>
+      <c r="R56">
+        <v>2.3</v>
+      </c>
+      <c r="S56">
+        <v>5.5</v>
+      </c>
+      <c r="T56">
+        <v>1.36</v>
+      </c>
+      <c r="U56">
+        <v>3</v>
+      </c>
+      <c r="V56">
+        <v>2.63</v>
+      </c>
+      <c r="W56">
+        <v>1.44</v>
+      </c>
+      <c r="X56">
+        <v>7</v>
+      </c>
+      <c r="Y56">
+        <v>1.1</v>
+      </c>
+      <c r="Z56">
+        <v>1.57</v>
+      </c>
+      <c r="AA56">
+        <v>4</v>
+      </c>
+      <c r="AB56">
+        <v>5.25</v>
+      </c>
+      <c r="AC56">
+        <v>1.04</v>
+      </c>
+      <c r="AD56">
+        <v>10</v>
+      </c>
+      <c r="AE56">
+        <v>1.25</v>
+      </c>
+      <c r="AF56">
+        <v>3.85</v>
+      </c>
+      <c r="AG56">
+        <v>1.76</v>
+      </c>
+      <c r="AH56">
+        <v>1.85</v>
+      </c>
+      <c r="AI56">
+        <v>1.91</v>
+      </c>
+      <c r="AJ56">
+        <v>1.91</v>
+      </c>
+      <c r="AK56">
+        <v>1.17</v>
+      </c>
+      <c r="AL56">
+        <v>1.2</v>
+      </c>
+      <c r="AM56">
+        <v>2.2</v>
+      </c>
+      <c r="AN56">
+        <v>2</v>
+      </c>
+      <c r="AO56">
+        <v>1</v>
+      </c>
+      <c r="AP56">
+        <v>1.67</v>
+      </c>
+      <c r="AQ56">
+        <v>1</v>
+      </c>
+      <c r="AR56">
+        <v>1.85</v>
+      </c>
+      <c r="AS56">
+        <v>1.48</v>
+      </c>
+      <c r="AT56">
+        <v>3.33</v>
+      </c>
+      <c r="AU56">
+        <v>6</v>
+      </c>
+      <c r="AV56">
+        <v>4</v>
+      </c>
+      <c r="AW56">
+        <v>7</v>
+      </c>
+      <c r="AX56">
+        <v>2</v>
+      </c>
+      <c r="AY56">
+        <v>13</v>
+      </c>
+      <c r="AZ56">
+        <v>6</v>
+      </c>
+      <c r="BA56">
+        <v>7</v>
+      </c>
+      <c r="BB56">
+        <v>4</v>
+      </c>
+      <c r="BC56">
+        <v>11</v>
+      </c>
+      <c r="BD56">
+        <v>1.49</v>
+      </c>
+      <c r="BE56">
+        <v>6.75</v>
+      </c>
+      <c r="BF56">
+        <v>2.65</v>
+      </c>
+      <c r="BG56">
+        <v>1.29</v>
+      </c>
+      <c r="BH56">
+        <v>3.15</v>
+      </c>
+      <c r="BI56">
+        <v>1.5</v>
+      </c>
+      <c r="BJ56">
+        <v>2.35</v>
+      </c>
+      <c r="BK56">
+        <v>1.83</v>
+      </c>
+      <c r="BL56">
+        <v>1.85</v>
+      </c>
+      <c r="BM56">
+        <v>2.3</v>
+      </c>
+      <c r="BN56">
+        <v>1.53</v>
+      </c>
+      <c r="BO56">
+        <v>2.95</v>
+      </c>
+      <c r="BP56">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:68">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7477866</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45549.45833333334</v>
+      </c>
+      <c r="F57">
+        <v>6</v>
+      </c>
+      <c r="G57" t="s">
+        <v>74</v>
+      </c>
+      <c r="H57" t="s">
+        <v>87</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>1</v>
+      </c>
+      <c r="N57">
+        <v>2</v>
+      </c>
+      <c r="O57" t="s">
+        <v>135</v>
+      </c>
+      <c r="P57" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q57">
+        <v>2.75</v>
+      </c>
+      <c r="R57">
+        <v>2.2</v>
+      </c>
+      <c r="S57">
+        <v>3.75</v>
+      </c>
+      <c r="T57">
+        <v>1.36</v>
+      </c>
+      <c r="U57">
+        <v>3</v>
+      </c>
+      <c r="V57">
+        <v>2.63</v>
+      </c>
+      <c r="W57">
+        <v>1.44</v>
+      </c>
+      <c r="X57">
+        <v>7</v>
+      </c>
+      <c r="Y57">
+        <v>1.1</v>
+      </c>
+      <c r="Z57">
+        <v>2.1</v>
+      </c>
+      <c r="AA57">
+        <v>3.45</v>
+      </c>
+      <c r="AB57">
+        <v>3.1</v>
+      </c>
+      <c r="AC57">
+        <v>1.05</v>
+      </c>
+      <c r="AD57">
+        <v>9.5</v>
+      </c>
+      <c r="AE57">
+        <v>1.25</v>
+      </c>
+      <c r="AF57">
+        <v>3.8</v>
+      </c>
+      <c r="AG57">
+        <v>1.75</v>
+      </c>
+      <c r="AH57">
+        <v>1.95</v>
+      </c>
+      <c r="AI57">
+        <v>1.7</v>
+      </c>
+      <c r="AJ57">
+        <v>2.05</v>
+      </c>
+      <c r="AK57">
+        <v>1.33</v>
+      </c>
+      <c r="AL57">
+        <v>1.22</v>
+      </c>
+      <c r="AM57">
+        <v>1.7</v>
+      </c>
+      <c r="AN57">
+        <v>0</v>
+      </c>
+      <c r="AO57">
+        <v>3</v>
+      </c>
+      <c r="AP57">
+        <v>0.33</v>
+      </c>
+      <c r="AQ57">
+        <v>2.33</v>
+      </c>
+      <c r="AR57">
+        <v>0.83</v>
+      </c>
+      <c r="AS57">
+        <v>0.75</v>
+      </c>
+      <c r="AT57">
+        <v>1.58</v>
+      </c>
+      <c r="AU57">
+        <v>6</v>
+      </c>
+      <c r="AV57">
+        <v>6</v>
+      </c>
+      <c r="AW57">
+        <v>2</v>
+      </c>
+      <c r="AX57">
+        <v>3</v>
+      </c>
+      <c r="AY57">
+        <v>8</v>
+      </c>
+      <c r="AZ57">
+        <v>9</v>
+      </c>
+      <c r="BA57">
+        <v>5</v>
+      </c>
+      <c r="BB57">
+        <v>3</v>
+      </c>
+      <c r="BC57">
+        <v>8</v>
+      </c>
+      <c r="BD57">
+        <v>1.55</v>
+      </c>
+      <c r="BE57">
+        <v>6.5</v>
+      </c>
+      <c r="BF57">
+        <v>2.55</v>
+      </c>
+      <c r="BG57">
+        <v>1.23</v>
+      </c>
+      <c r="BH57">
+        <v>3.65</v>
+      </c>
+      <c r="BI57">
+        <v>1.41</v>
+      </c>
+      <c r="BJ57">
+        <v>2.65</v>
+      </c>
+      <c r="BK57">
+        <v>1.66</v>
+      </c>
+      <c r="BL57">
+        <v>2.06</v>
+      </c>
+      <c r="BM57">
+        <v>2.04</v>
+      </c>
+      <c r="BN57">
+        <v>1.68</v>
+      </c>
+      <c r="BO57">
+        <v>2.55</v>
+      </c>
+      <c r="BP57">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7477872</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45549.45833333334</v>
+      </c>
+      <c r="F58">
+        <v>6</v>
+      </c>
+      <c r="G58" t="s">
+        <v>73</v>
+      </c>
+      <c r="H58" t="s">
+        <v>70</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>3</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>3</v>
+      </c>
+      <c r="O58" t="s">
+        <v>136</v>
+      </c>
+      <c r="P58" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q58">
+        <v>3.25</v>
+      </c>
+      <c r="R58">
+        <v>2.2</v>
+      </c>
+      <c r="S58">
+        <v>3.25</v>
+      </c>
+      <c r="T58">
+        <v>1.4</v>
+      </c>
+      <c r="U58">
+        <v>2.75</v>
+      </c>
+      <c r="V58">
+        <v>2.75</v>
+      </c>
+      <c r="W58">
+        <v>1.4</v>
+      </c>
+      <c r="X58">
+        <v>8</v>
+      </c>
+      <c r="Y58">
+        <v>1.08</v>
+      </c>
+      <c r="Z58">
+        <v>2.9</v>
+      </c>
+      <c r="AA58">
+        <v>3.25</v>
+      </c>
+      <c r="AB58">
+        <v>2.3</v>
+      </c>
+      <c r="AC58">
+        <v>1.06</v>
+      </c>
+      <c r="AD58">
+        <v>8.5</v>
+      </c>
+      <c r="AE58">
+        <v>1.3</v>
+      </c>
+      <c r="AF58">
+        <v>3.4</v>
+      </c>
+      <c r="AG58">
+        <v>1.76</v>
+      </c>
+      <c r="AH58">
+        <v>1.85</v>
+      </c>
+      <c r="AI58">
+        <v>1.7</v>
+      </c>
+      <c r="AJ58">
+        <v>2.05</v>
+      </c>
+      <c r="AK58">
+        <v>1.48</v>
+      </c>
+      <c r="AL58">
+        <v>1.25</v>
+      </c>
+      <c r="AM58">
+        <v>1.48</v>
+      </c>
+      <c r="AN58">
+        <v>1.5</v>
+      </c>
+      <c r="AO58">
+        <v>3</v>
+      </c>
+      <c r="AP58">
+        <v>2</v>
+      </c>
+      <c r="AQ58">
+        <v>2</v>
+      </c>
+      <c r="AR58">
+        <v>1.23</v>
+      </c>
+      <c r="AS58">
+        <v>0.92</v>
+      </c>
+      <c r="AT58">
+        <v>2.15</v>
+      </c>
+      <c r="AU58">
+        <v>5</v>
+      </c>
+      <c r="AV58">
+        <v>5</v>
+      </c>
+      <c r="AW58">
+        <v>3</v>
+      </c>
+      <c r="AX58">
+        <v>3</v>
+      </c>
+      <c r="AY58">
+        <v>8</v>
+      </c>
+      <c r="AZ58">
+        <v>8</v>
+      </c>
+      <c r="BA58">
+        <v>7</v>
+      </c>
+      <c r="BB58">
+        <v>10</v>
+      </c>
+      <c r="BC58">
+        <v>17</v>
+      </c>
+      <c r="BD58">
+        <v>1.84</v>
+      </c>
+      <c r="BE58">
+        <v>6.75</v>
+      </c>
+      <c r="BF58">
+        <v>2.02</v>
+      </c>
+      <c r="BG58">
+        <v>1.2</v>
+      </c>
+      <c r="BH58">
+        <v>3.9</v>
+      </c>
+      <c r="BI58">
+        <v>1.36</v>
+      </c>
+      <c r="BJ58">
+        <v>2.8</v>
+      </c>
+      <c r="BK58">
+        <v>1.58</v>
+      </c>
+      <c r="BL58">
+        <v>2.17</v>
+      </c>
+      <c r="BM58">
+        <v>2</v>
+      </c>
+      <c r="BN58">
+        <v>1.8</v>
+      </c>
+      <c r="BO58">
+        <v>2.4</v>
+      </c>
+      <c r="BP58">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:68">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7477868</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45549.45833333334</v>
+      </c>
+      <c r="F59">
+        <v>6</v>
+      </c>
+      <c r="G59" t="s">
+        <v>90</v>
+      </c>
+      <c r="H59" t="s">
+        <v>75</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>1</v>
+      </c>
+      <c r="N59">
+        <v>1</v>
+      </c>
+      <c r="O59" t="s">
+        <v>95</v>
+      </c>
+      <c r="P59" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q59">
+        <v>2.75</v>
+      </c>
+      <c r="R59">
+        <v>2.2</v>
+      </c>
+      <c r="S59">
+        <v>4</v>
+      </c>
+      <c r="T59">
+        <v>1.36</v>
+      </c>
+      <c r="U59">
+        <v>3</v>
+      </c>
+      <c r="V59">
+        <v>2.75</v>
+      </c>
+      <c r="W59">
+        <v>1.4</v>
+      </c>
+      <c r="X59">
+        <v>8</v>
+      </c>
+      <c r="Y59">
+        <v>1.08</v>
+      </c>
+      <c r="Z59">
+        <v>1.85</v>
+      </c>
+      <c r="AA59">
+        <v>3.5</v>
+      </c>
+      <c r="AB59">
+        <v>3.9</v>
+      </c>
+      <c r="AC59">
+        <v>1.05</v>
+      </c>
+      <c r="AD59">
+        <v>9.5</v>
+      </c>
+      <c r="AE59">
+        <v>1.28</v>
+      </c>
+      <c r="AF59">
+        <v>3.55</v>
+      </c>
+      <c r="AG59">
+        <v>1.85</v>
+      </c>
+      <c r="AH59">
+        <v>1.76</v>
+      </c>
+      <c r="AI59">
+        <v>1.75</v>
+      </c>
+      <c r="AJ59">
+        <v>2</v>
+      </c>
+      <c r="AK59">
+        <v>1.33</v>
+      </c>
+      <c r="AL59">
+        <v>1.25</v>
+      </c>
+      <c r="AM59">
+        <v>1.7</v>
+      </c>
+      <c r="AN59">
+        <v>3</v>
+      </c>
+      <c r="AO59">
+        <v>0</v>
+      </c>
+      <c r="AP59">
+        <v>2</v>
+      </c>
+      <c r="AQ59">
+        <v>1</v>
+      </c>
+      <c r="AR59">
+        <v>1.57</v>
+      </c>
+      <c r="AS59">
+        <v>0.75</v>
+      </c>
+      <c r="AT59">
+        <v>2.32</v>
+      </c>
+      <c r="AU59">
+        <v>5</v>
+      </c>
+      <c r="AV59">
+        <v>4</v>
+      </c>
+      <c r="AW59">
+        <v>2</v>
+      </c>
+      <c r="AX59">
+        <v>5</v>
+      </c>
+      <c r="AY59">
+        <v>7</v>
+      </c>
+      <c r="AZ59">
+        <v>9</v>
+      </c>
+      <c r="BA59">
+        <v>1</v>
+      </c>
+      <c r="BB59">
+        <v>7</v>
+      </c>
+      <c r="BC59">
+        <v>8</v>
+      </c>
+      <c r="BD59">
+        <v>1.58</v>
+      </c>
+      <c r="BE59">
+        <v>6.4</v>
+      </c>
+      <c r="BF59">
+        <v>2.43</v>
+      </c>
+      <c r="BG59">
+        <v>1.3</v>
+      </c>
+      <c r="BH59">
+        <v>3.15</v>
+      </c>
+      <c r="BI59">
+        <v>1.53</v>
+      </c>
+      <c r="BJ59">
+        <v>2.32</v>
+      </c>
+      <c r="BK59">
+        <v>1.88</v>
+      </c>
+      <c r="BL59">
+        <v>1.92</v>
+      </c>
+      <c r="BM59">
+        <v>2.32</v>
+      </c>
+      <c r="BN59">
+        <v>1.53</v>
+      </c>
+      <c r="BO59">
+        <v>3.05</v>
+      </c>
+      <c r="BP59">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7477861</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45549.45833333334</v>
+      </c>
+      <c r="F60">
+        <v>6</v>
+      </c>
+      <c r="G60" t="s">
+        <v>79</v>
+      </c>
+      <c r="H60" t="s">
+        <v>71</v>
+      </c>
+      <c r="I60">
+        <v>0</v>
+      </c>
+      <c r="J60">
+        <v>2</v>
+      </c>
+      <c r="K60">
+        <v>2</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>4</v>
+      </c>
+      <c r="N60">
+        <v>4</v>
+      </c>
+      <c r="O60" t="s">
+        <v>95</v>
+      </c>
+      <c r="P60" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q60">
+        <v>2.75</v>
+      </c>
+      <c r="R60">
+        <v>2.1</v>
+      </c>
+      <c r="S60">
+        <v>4</v>
+      </c>
+      <c r="T60">
+        <v>1.4</v>
+      </c>
+      <c r="U60">
+        <v>2.75</v>
+      </c>
+      <c r="V60">
+        <v>3</v>
+      </c>
+      <c r="W60">
+        <v>1.36</v>
+      </c>
+      <c r="X60">
+        <v>9</v>
+      </c>
+      <c r="Y60">
+        <v>1.07</v>
+      </c>
+      <c r="Z60">
+        <v>2.1</v>
+      </c>
+      <c r="AA60">
+        <v>3.3</v>
+      </c>
+      <c r="AB60">
+        <v>3.3</v>
+      </c>
+      <c r="AC60">
+        <v>1.06</v>
+      </c>
+      <c r="AD60">
+        <v>8.5</v>
+      </c>
+      <c r="AE60">
+        <v>1.33</v>
+      </c>
+      <c r="AF60">
+        <v>3.25</v>
+      </c>
+      <c r="AG60">
+        <v>1.9</v>
+      </c>
+      <c r="AH60">
+        <v>1.8</v>
+      </c>
+      <c r="AI60">
+        <v>1.8</v>
+      </c>
+      <c r="AJ60">
+        <v>1.95</v>
+      </c>
+      <c r="AK60">
+        <v>1.28</v>
+      </c>
+      <c r="AL60">
+        <v>1.25</v>
+      </c>
+      <c r="AM60">
+        <v>1.75</v>
+      </c>
+      <c r="AN60">
+        <v>3</v>
+      </c>
+      <c r="AO60">
+        <v>0</v>
+      </c>
+      <c r="AP60">
+        <v>2</v>
+      </c>
+      <c r="AQ60">
+        <v>1</v>
+      </c>
+      <c r="AR60">
+        <v>1.3</v>
+      </c>
+      <c r="AS60">
+        <v>1.08</v>
+      </c>
+      <c r="AT60">
+        <v>2.38</v>
+      </c>
+      <c r="AU60">
+        <v>3</v>
+      </c>
+      <c r="AV60">
+        <v>9</v>
+      </c>
+      <c r="AW60">
+        <v>7</v>
+      </c>
+      <c r="AX60">
+        <v>8</v>
+      </c>
+      <c r="AY60">
+        <v>10</v>
+      </c>
+      <c r="AZ60">
+        <v>17</v>
+      </c>
+      <c r="BA60">
+        <v>5</v>
+      </c>
+      <c r="BB60">
+        <v>4</v>
+      </c>
+      <c r="BC60">
+        <v>9</v>
+      </c>
+      <c r="BD60">
+        <v>1.61</v>
+      </c>
+      <c r="BE60">
+        <v>6.5</v>
+      </c>
+      <c r="BF60">
+        <v>2.4</v>
+      </c>
+      <c r="BG60">
+        <v>1.28</v>
+      </c>
+      <c r="BH60">
+        <v>3.25</v>
+      </c>
+      <c r="BI60">
+        <v>1.49</v>
+      </c>
+      <c r="BJ60">
+        <v>2.4</v>
+      </c>
+      <c r="BK60">
+        <v>1.8</v>
+      </c>
+      <c r="BL60">
+        <v>1.89</v>
+      </c>
+      <c r="BM60">
+        <v>2.23</v>
+      </c>
+      <c r="BN60">
+        <v>1.56</v>
+      </c>
+      <c r="BO60">
+        <v>2.9</v>
+      </c>
+      <c r="BP60">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7477857</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45549.45833333334</v>
+      </c>
+      <c r="F61">
+        <v>6</v>
+      </c>
+      <c r="G61" t="s">
+        <v>85</v>
+      </c>
+      <c r="H61" t="s">
+        <v>81</v>
+      </c>
+      <c r="I61">
+        <v>1</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>2</v>
+      </c>
+      <c r="M61">
+        <v>1</v>
+      </c>
+      <c r="N61">
+        <v>3</v>
+      </c>
+      <c r="O61" t="s">
+        <v>137</v>
+      </c>
+      <c r="P61" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q61">
+        <v>2.2</v>
+      </c>
+      <c r="R61">
+        <v>2.3</v>
+      </c>
+      <c r="S61">
+        <v>5</v>
+      </c>
+      <c r="T61">
+        <v>1.33</v>
+      </c>
+      <c r="U61">
+        <v>3.25</v>
+      </c>
+      <c r="V61">
+        <v>2.63</v>
+      </c>
+      <c r="W61">
+        <v>1.44</v>
+      </c>
+      <c r="X61">
+        <v>6.5</v>
+      </c>
+      <c r="Y61">
+        <v>1.11</v>
+      </c>
+      <c r="Z61">
+        <v>1.65</v>
+      </c>
+      <c r="AA61">
+        <v>3.75</v>
+      </c>
+      <c r="AB61">
+        <v>4.7</v>
+      </c>
+      <c r="AC61">
+        <v>1.05</v>
+      </c>
+      <c r="AD61">
+        <v>9.5</v>
+      </c>
+      <c r="AE61">
+        <v>1.25</v>
+      </c>
+      <c r="AF61">
+        <v>3.85</v>
+      </c>
+      <c r="AG61">
+        <v>1.75</v>
+      </c>
+      <c r="AH61">
+        <v>1.95</v>
+      </c>
+      <c r="AI61">
+        <v>1.75</v>
+      </c>
+      <c r="AJ61">
+        <v>2</v>
+      </c>
+      <c r="AK61">
+        <v>1.15</v>
+      </c>
+      <c r="AL61">
+        <v>1.2</v>
+      </c>
+      <c r="AM61">
+        <v>2.2</v>
+      </c>
+      <c r="AN61">
+        <v>0.5</v>
+      </c>
+      <c r="AO61">
+        <v>1.5</v>
+      </c>
+      <c r="AP61">
+        <v>1.33</v>
+      </c>
+      <c r="AQ61">
+        <v>1</v>
+      </c>
+      <c r="AR61">
+        <v>1.44</v>
+      </c>
+      <c r="AS61">
+        <v>1.07</v>
+      </c>
+      <c r="AT61">
+        <v>2.51</v>
+      </c>
+      <c r="AU61">
+        <v>8</v>
+      </c>
+      <c r="AV61">
+        <v>4</v>
+      </c>
+      <c r="AW61">
+        <v>3</v>
+      </c>
+      <c r="AX61">
+        <v>4</v>
+      </c>
+      <c r="AY61">
+        <v>11</v>
+      </c>
+      <c r="AZ61">
+        <v>8</v>
+      </c>
+      <c r="BA61">
+        <v>11</v>
+      </c>
+      <c r="BB61">
+        <v>5</v>
+      </c>
+      <c r="BC61">
+        <v>16</v>
+      </c>
+      <c r="BD61">
+        <v>1.52</v>
+      </c>
+      <c r="BE61">
+        <v>6.75</v>
+      </c>
+      <c r="BF61">
+        <v>2.63</v>
+      </c>
+      <c r="BG61">
+        <v>1.21</v>
+      </c>
+      <c r="BH61">
+        <v>3.8</v>
+      </c>
+      <c r="BI61">
+        <v>1.38</v>
+      </c>
+      <c r="BJ61">
+        <v>2.7</v>
+      </c>
+      <c r="BK61">
+        <v>1.63</v>
+      </c>
+      <c r="BL61">
+        <v>2.12</v>
+      </c>
+      <c r="BM61">
+        <v>1.97</v>
+      </c>
+      <c r="BN61">
+        <v>1.72</v>
+      </c>
+      <c r="BO61">
+        <v>2.45</v>
+      </c>
+      <c r="BP61">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7477862</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45549.45833333334</v>
+      </c>
+      <c r="F62">
+        <v>6</v>
+      </c>
+      <c r="G62" t="s">
+        <v>77</v>
+      </c>
+      <c r="H62" t="s">
+        <v>72</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>1</v>
+      </c>
+      <c r="M62">
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <v>2</v>
+      </c>
+      <c r="O62" t="s">
+        <v>138</v>
+      </c>
+      <c r="P62" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q62">
+        <v>4.5</v>
+      </c>
+      <c r="R62">
+        <v>2.3</v>
+      </c>
+      <c r="S62">
+        <v>2.3</v>
+      </c>
+      <c r="T62">
+        <v>1.33</v>
+      </c>
+      <c r="U62">
+        <v>3.25</v>
+      </c>
+      <c r="V62">
+        <v>2.5</v>
+      </c>
+      <c r="W62">
+        <v>1.5</v>
+      </c>
+      <c r="X62">
+        <v>6.5</v>
+      </c>
+      <c r="Y62">
+        <v>1.11</v>
+      </c>
+      <c r="Z62">
+        <v>4.3</v>
+      </c>
+      <c r="AA62">
+        <v>3.85</v>
+      </c>
+      <c r="AB62">
+        <v>1.7</v>
+      </c>
+      <c r="AC62">
+        <v>1.04</v>
+      </c>
+      <c r="AD62">
+        <v>10</v>
+      </c>
+      <c r="AE62">
+        <v>1.22</v>
+      </c>
+      <c r="AF62">
+        <v>4</v>
+      </c>
+      <c r="AG62">
+        <v>1.72</v>
+      </c>
+      <c r="AH62">
+        <v>1.9</v>
+      </c>
+      <c r="AI62">
+        <v>1.7</v>
+      </c>
+      <c r="AJ62">
+        <v>2.05</v>
+      </c>
+      <c r="AK62">
+        <v>2</v>
+      </c>
+      <c r="AL62">
+        <v>1.22</v>
+      </c>
+      <c r="AM62">
+        <v>1.2</v>
+      </c>
+      <c r="AN62">
+        <v>1.5</v>
+      </c>
+      <c r="AO62">
+        <v>2</v>
+      </c>
+      <c r="AP62">
+        <v>1.33</v>
+      </c>
+      <c r="AQ62">
+        <v>1.67</v>
+      </c>
+      <c r="AR62">
+        <v>0.65</v>
+      </c>
+      <c r="AS62">
+        <v>1.45</v>
+      </c>
+      <c r="AT62">
+        <v>2.1</v>
+      </c>
+      <c r="AU62">
+        <v>4</v>
+      </c>
+      <c r="AV62">
+        <v>5</v>
+      </c>
+      <c r="AW62">
+        <v>3</v>
+      </c>
+      <c r="AX62">
+        <v>4</v>
+      </c>
+      <c r="AY62">
+        <v>7</v>
+      </c>
+      <c r="AZ62">
+        <v>9</v>
+      </c>
+      <c r="BA62">
+        <v>5</v>
+      </c>
+      <c r="BB62">
+        <v>6</v>
+      </c>
+      <c r="BC62">
+        <v>11</v>
+      </c>
+      <c r="BD62">
+        <v>2.55</v>
+      </c>
+      <c r="BE62">
+        <v>6.4</v>
+      </c>
+      <c r="BF62">
+        <v>1.54</v>
+      </c>
+      <c r="BG62">
+        <v>1.29</v>
+      </c>
+      <c r="BH62">
+        <v>3.15</v>
+      </c>
+      <c r="BI62">
+        <v>1.5</v>
+      </c>
+      <c r="BJ62">
+        <v>2.38</v>
+      </c>
+      <c r="BK62">
+        <v>1.8</v>
+      </c>
+      <c r="BL62">
+        <v>1.89</v>
+      </c>
+      <c r="BM62">
+        <v>2.23</v>
+      </c>
+      <c r="BN62">
+        <v>1.56</v>
+      </c>
+      <c r="BO62">
+        <v>2.9</v>
+      </c>
+      <c r="BP62">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7477859</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45549.45833333334</v>
+      </c>
+      <c r="F63">
+        <v>6</v>
+      </c>
+      <c r="G63" t="s">
+        <v>93</v>
+      </c>
+      <c r="H63" t="s">
+        <v>86</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>4</v>
+      </c>
+      <c r="N63">
+        <v>4</v>
+      </c>
+      <c r="O63" t="s">
+        <v>95</v>
+      </c>
+      <c r="P63" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q63">
+        <v>2.88</v>
+      </c>
+      <c r="R63">
+        <v>2.2</v>
+      </c>
+      <c r="S63">
+        <v>3.6</v>
+      </c>
+      <c r="T63">
+        <v>1.36</v>
+      </c>
+      <c r="U63">
+        <v>3</v>
+      </c>
+      <c r="V63">
+        <v>2.75</v>
+      </c>
+      <c r="W63">
+        <v>1.4</v>
+      </c>
+      <c r="X63">
+        <v>7</v>
+      </c>
+      <c r="Y63">
+        <v>1.1</v>
+      </c>
+      <c r="Z63">
+        <v>2.2</v>
+      </c>
+      <c r="AA63">
+        <v>3.2</v>
+      </c>
+      <c r="AB63">
+        <v>3.2</v>
+      </c>
+      <c r="AC63">
+        <v>1.05</v>
+      </c>
+      <c r="AD63">
+        <v>9.5</v>
+      </c>
+      <c r="AE63">
+        <v>1.28</v>
+      </c>
+      <c r="AF63">
+        <v>3.55</v>
+      </c>
+      <c r="AG63">
+        <v>1.9</v>
+      </c>
+      <c r="AH63">
+        <v>1.72</v>
+      </c>
+      <c r="AI63">
+        <v>1.7</v>
+      </c>
+      <c r="AJ63">
+        <v>2.05</v>
+      </c>
+      <c r="AK63">
+        <v>1.33</v>
+      </c>
+      <c r="AL63">
+        <v>1.25</v>
+      </c>
+      <c r="AM63">
+        <v>1.67</v>
+      </c>
+      <c r="AN63">
+        <v>0.5</v>
+      </c>
+      <c r="AO63">
+        <v>1.5</v>
+      </c>
+      <c r="AP63">
+        <v>0.33</v>
+      </c>
+      <c r="AQ63">
+        <v>2</v>
+      </c>
+      <c r="AR63">
+        <v>1.7</v>
+      </c>
+      <c r="AS63">
+        <v>1.2</v>
+      </c>
+      <c r="AT63">
+        <v>2.9</v>
+      </c>
+      <c r="AU63">
+        <v>2</v>
+      </c>
+      <c r="AV63">
+        <v>6</v>
+      </c>
+      <c r="AW63">
+        <v>1</v>
+      </c>
+      <c r="AX63">
+        <v>5</v>
+      </c>
+      <c r="AY63">
+        <v>3</v>
+      </c>
+      <c r="AZ63">
+        <v>11</v>
+      </c>
+      <c r="BA63">
+        <v>5</v>
+      </c>
+      <c r="BB63">
+        <v>6</v>
+      </c>
+      <c r="BC63">
+        <v>11</v>
+      </c>
+      <c r="BD63">
+        <v>1.71</v>
+      </c>
+      <c r="BE63">
+        <v>6.5</v>
+      </c>
+      <c r="BF63">
+        <v>2.23</v>
+      </c>
+      <c r="BG63">
+        <v>1.2</v>
+      </c>
+      <c r="BH63">
+        <v>3.95</v>
+      </c>
+      <c r="BI63">
+        <v>1.35</v>
+      </c>
+      <c r="BJ63">
+        <v>2.9</v>
+      </c>
+      <c r="BK63">
+        <v>1.57</v>
+      </c>
+      <c r="BL63">
+        <v>2.23</v>
+      </c>
+      <c r="BM63">
+        <v>1.9</v>
+      </c>
+      <c r="BN63">
+        <v>1.9</v>
+      </c>
+      <c r="BO63">
+        <v>2.38</v>
+      </c>
+      <c r="BP63">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="177">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -433,6 +433,9 @@
     <t>['68']</t>
   </si>
   <si>
+    <t>['22', '52', '59']</t>
+  </si>
+  <si>
     <t>['13', '18']</t>
   </si>
   <si>
@@ -539,6 +542,9 @@
   </si>
   <si>
     <t>['44', '59', '68', '81']</t>
+  </si>
+  <si>
+    <t>['3']</t>
   </si>
 </sst>
 </file>
@@ -900,7 +906,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP63"/>
+  <dimension ref="A1:BP64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1159,7 +1165,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1365,7 +1371,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q3">
         <v>3.2</v>
@@ -1983,7 +1989,7 @@
         <v>95</v>
       </c>
       <c r="P6" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2189,7 +2195,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2395,7 +2401,7 @@
         <v>99</v>
       </c>
       <c r="P8" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q8">
         <v>2.6</v>
@@ -2601,7 +2607,7 @@
         <v>100</v>
       </c>
       <c r="P9" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2807,7 +2813,7 @@
         <v>101</v>
       </c>
       <c r="P10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3219,7 +3225,7 @@
         <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q12">
         <v>2.1</v>
@@ -3297,7 +3303,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ12">
         <v>0.5</v>
@@ -3631,7 +3637,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4043,7 +4049,7 @@
         <v>95</v>
       </c>
       <c r="P16" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q16">
         <v>2.88</v>
@@ -4249,7 +4255,7 @@
         <v>95</v>
       </c>
       <c r="P17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q17">
         <v>2.75</v>
@@ -4455,7 +4461,7 @@
         <v>106</v>
       </c>
       <c r="P18" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q18">
         <v>2.3</v>
@@ -4661,7 +4667,7 @@
         <v>107</v>
       </c>
       <c r="P19" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q19">
         <v>2.75</v>
@@ -4867,7 +4873,7 @@
         <v>108</v>
       </c>
       <c r="P20" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q20">
         <v>2.5</v>
@@ -5073,7 +5079,7 @@
         <v>109</v>
       </c>
       <c r="P21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q21">
         <v>3.25</v>
@@ -5485,7 +5491,7 @@
         <v>111</v>
       </c>
       <c r="P23" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q23">
         <v>4.33</v>
@@ -5978,7 +5984,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ25">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR25">
         <v>0</v>
@@ -6515,7 +6521,7 @@
         <v>113</v>
       </c>
       <c r="P28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q28">
         <v>4.5</v>
@@ -6927,7 +6933,7 @@
         <v>115</v>
       </c>
       <c r="P30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q30">
         <v>3.75</v>
@@ -7339,7 +7345,7 @@
         <v>117</v>
       </c>
       <c r="P32" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q32">
         <v>4.33</v>
@@ -7545,7 +7551,7 @@
         <v>118</v>
       </c>
       <c r="P33" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q33">
         <v>2.88</v>
@@ -7751,7 +7757,7 @@
         <v>119</v>
       </c>
       <c r="P34" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q34">
         <v>2.2</v>
@@ -8575,7 +8581,7 @@
         <v>123</v>
       </c>
       <c r="P38" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q38">
         <v>2.63</v>
@@ -8781,7 +8787,7 @@
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -9399,7 +9405,7 @@
         <v>95</v>
       </c>
       <c r="P42" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q42">
         <v>2.63</v>
@@ -9480,7 +9486,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ42">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR42">
         <v>0.79</v>
@@ -9811,7 +9817,7 @@
         <v>127</v>
       </c>
       <c r="P44" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -10017,7 +10023,7 @@
         <v>95</v>
       </c>
       <c r="P45" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q45">
         <v>3.6</v>
@@ -10429,7 +10435,7 @@
         <v>95</v>
       </c>
       <c r="P47" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q47">
         <v>2.05</v>
@@ -10635,7 +10641,7 @@
         <v>129</v>
       </c>
       <c r="P48" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q48">
         <v>1.95</v>
@@ -10713,7 +10719,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ48">
         <v>1</v>
@@ -11253,7 +11259,7 @@
         <v>131</v>
       </c>
       <c r="P51" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q51">
         <v>2.3</v>
@@ -11665,7 +11671,7 @@
         <v>115</v>
       </c>
       <c r="P53" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q53">
         <v>3.5</v>
@@ -11871,7 +11877,7 @@
         <v>133</v>
       </c>
       <c r="P54" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q54">
         <v>2.3</v>
@@ -12077,7 +12083,7 @@
         <v>95</v>
       </c>
       <c r="P55" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q55">
         <v>4.33</v>
@@ -12283,7 +12289,7 @@
         <v>134</v>
       </c>
       <c r="P56" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q56">
         <v>2.2</v>
@@ -12489,7 +12495,7 @@
         <v>135</v>
       </c>
       <c r="P57" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q57">
         <v>2.75</v>
@@ -12901,7 +12907,7 @@
         <v>95</v>
       </c>
       <c r="P59" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13107,7 +13113,7 @@
         <v>95</v>
       </c>
       <c r="P60" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -13313,7 +13319,7 @@
         <v>137</v>
       </c>
       <c r="P61" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q61">
         <v>2.2</v>
@@ -13519,7 +13525,7 @@
         <v>138</v>
       </c>
       <c r="P62" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q62">
         <v>4.5</v>
@@ -13725,7 +13731,7 @@
         <v>95</v>
       </c>
       <c r="P63" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q63">
         <v>2.88</v>
@@ -13882,6 +13888,212 @@
       </c>
       <c r="BP63">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7477856</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45551.66666666666</v>
+      </c>
+      <c r="F64">
+        <v>6</v>
+      </c>
+      <c r="G64" t="s">
+        <v>80</v>
+      </c>
+      <c r="H64" t="s">
+        <v>76</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>2</v>
+      </c>
+      <c r="L64">
+        <v>3</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>4</v>
+      </c>
+      <c r="O64" t="s">
+        <v>139</v>
+      </c>
+      <c r="P64" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q64">
+        <v>2.5</v>
+      </c>
+      <c r="R64">
+        <v>2.2</v>
+      </c>
+      <c r="S64">
+        <v>4.5</v>
+      </c>
+      <c r="T64">
+        <v>1.36</v>
+      </c>
+      <c r="U64">
+        <v>3</v>
+      </c>
+      <c r="V64">
+        <v>2.75</v>
+      </c>
+      <c r="W64">
+        <v>1.4</v>
+      </c>
+      <c r="X64">
+        <v>7</v>
+      </c>
+      <c r="Y64">
+        <v>1.1</v>
+      </c>
+      <c r="Z64">
+        <v>1.75</v>
+      </c>
+      <c r="AA64">
+        <v>3.34</v>
+      </c>
+      <c r="AB64">
+        <v>3.87</v>
+      </c>
+      <c r="AC64">
+        <v>1.01</v>
+      </c>
+      <c r="AD64">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AE64">
+        <v>1.24</v>
+      </c>
+      <c r="AF64">
+        <v>3.5</v>
+      </c>
+      <c r="AG64">
+        <v>1.85</v>
+      </c>
+      <c r="AH64">
+        <v>1.76</v>
+      </c>
+      <c r="AI64">
+        <v>1.75</v>
+      </c>
+      <c r="AJ64">
+        <v>2</v>
+      </c>
+      <c r="AK64">
+        <v>1.22</v>
+      </c>
+      <c r="AL64">
+        <v>1.22</v>
+      </c>
+      <c r="AM64">
+        <v>1.95</v>
+      </c>
+      <c r="AN64">
+        <v>2</v>
+      </c>
+      <c r="AO64">
+        <v>2</v>
+      </c>
+      <c r="AP64">
+        <v>2.33</v>
+      </c>
+      <c r="AQ64">
+        <v>1.33</v>
+      </c>
+      <c r="AR64">
+        <v>1.77</v>
+      </c>
+      <c r="AS64">
+        <v>1.12</v>
+      </c>
+      <c r="AT64">
+        <v>2.89</v>
+      </c>
+      <c r="AU64">
+        <v>7</v>
+      </c>
+      <c r="AV64">
+        <v>4</v>
+      </c>
+      <c r="AW64">
+        <v>2</v>
+      </c>
+      <c r="AX64">
+        <v>2</v>
+      </c>
+      <c r="AY64">
+        <v>9</v>
+      </c>
+      <c r="AZ64">
+        <v>6</v>
+      </c>
+      <c r="BA64">
+        <v>5</v>
+      </c>
+      <c r="BB64">
+        <v>1</v>
+      </c>
+      <c r="BC64">
+        <v>6</v>
+      </c>
+      <c r="BD64">
+        <v>1.75</v>
+      </c>
+      <c r="BE64">
+        <v>8.5</v>
+      </c>
+      <c r="BF64">
+        <v>2.43</v>
+      </c>
+      <c r="BG64">
+        <v>1.2</v>
+      </c>
+      <c r="BH64">
+        <v>3.9</v>
+      </c>
+      <c r="BI64">
+        <v>1.35</v>
+      </c>
+      <c r="BJ64">
+        <v>2.9</v>
+      </c>
+      <c r="BK64">
+        <v>1.58</v>
+      </c>
+      <c r="BL64">
+        <v>2.18</v>
+      </c>
+      <c r="BM64">
+        <v>1.91</v>
+      </c>
+      <c r="BN64">
+        <v>1.8</v>
+      </c>
+      <c r="BO64">
+        <v>2.4</v>
+      </c>
+      <c r="BP64">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="195">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -439,6 +439,33 @@
     <t>['9', '50']</t>
   </si>
   <si>
+    <t>['24', '79']</t>
+  </si>
+  <si>
+    <t>['8', '85']</t>
+  </si>
+  <si>
+    <t>['10', '33', '63']</t>
+  </si>
+  <si>
+    <t>['49', '86']</t>
+  </si>
+  <si>
+    <t>['80']</t>
+  </si>
+  <si>
+    <t>['50']</t>
+  </si>
+  <si>
+    <t>['88']</t>
+  </si>
+  <si>
+    <t>['12', '21', '34', '45+4', '87']</t>
+  </si>
+  <si>
+    <t>['90+6']</t>
+  </si>
+  <si>
     <t>['13', '18']</t>
   </si>
   <si>
@@ -520,9 +547,6 @@
     <t>['66']</t>
   </si>
   <si>
-    <t>['50']</t>
-  </si>
-  <si>
     <t>['11', '52']</t>
   </si>
   <si>
@@ -541,13 +565,40 @@
     <t>['27']</t>
   </si>
   <si>
-    <t>['88']</t>
-  </si>
-  <si>
     <t>['44', '59', '68', '81']</t>
   </si>
   <si>
     <t>['3']</t>
+  </si>
+  <si>
+    <t>['54']</t>
+  </si>
+  <si>
+    <t>['19']</t>
+  </si>
+  <si>
+    <t>['14', '22']</t>
+  </si>
+  <si>
+    <t>['74', '76']</t>
+  </si>
+  <si>
+    <t>['2']</t>
+  </si>
+  <si>
+    <t>['18', '25', '58']</t>
+  </si>
+  <si>
+    <t>['12', '17', '57', '81']</t>
+  </si>
+  <si>
+    <t>['36', '90']</t>
+  </si>
+  <si>
+    <t>['41', '57']</t>
+  </si>
+  <si>
+    <t>['28', '32']</t>
   </si>
 </sst>
 </file>
@@ -909,7 +960,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP66"/>
+  <dimension ref="A1:BP76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1168,7 +1219,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1374,7 +1425,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1580,7 +1631,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -1864,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ5">
         <v>0</v>
@@ -1992,7 +2043,7 @@
         <v>96</v>
       </c>
       <c r="P6" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2070,7 +2121,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
         <v>2</v>
@@ -2198,7 +2249,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2610,7 +2661,7 @@
         <v>100</v>
       </c>
       <c r="P9" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2691,7 +2742,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ9">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2816,7 +2867,7 @@
         <v>101</v>
       </c>
       <c r="P10" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -2894,7 +2945,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ10">
         <v>2.33</v>
@@ -3103,7 +3154,7 @@
         <v>2</v>
       </c>
       <c r="AQ11">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3228,7 +3279,7 @@
         <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="Q12">
         <v>2.1</v>
@@ -3309,7 +3360,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ12">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3640,7 +3691,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3924,10 +3975,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4336,10 +4387,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ17">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4464,7 +4515,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4542,7 +4593,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
         <v>3</v>
@@ -4670,7 +4721,7 @@
         <v>108</v>
       </c>
       <c r="P19" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="Q19">
         <v>3.25</v>
@@ -4876,7 +4927,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -4957,7 +5008,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ20">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5082,7 +5133,7 @@
         <v>109</v>
       </c>
       <c r="P21" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5163,7 +5214,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ21">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5288,7 +5339,7 @@
         <v>110</v>
       </c>
       <c r="P22" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -5366,7 +5417,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ22">
         <v>0.33</v>
@@ -5494,7 +5545,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="Q23">
         <v>2.75</v>
@@ -5700,7 +5751,7 @@
         <v>111</v>
       </c>
       <c r="P24" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -5778,7 +5829,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ24">
         <v>1</v>
@@ -5984,7 +6035,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ25">
         <v>1.33</v>
@@ -6190,7 +6241,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ26">
         <v>0.33</v>
@@ -6396,10 +6447,10 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ27">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR27">
         <v>2.06</v>
@@ -6605,7 +6656,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ28">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR28">
         <v>0.89</v>
@@ -6808,7 +6859,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
         <v>0.33</v>
@@ -7017,7 +7068,7 @@
         <v>3</v>
       </c>
       <c r="AQ30">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR30">
         <v>1.43</v>
@@ -7142,7 +7193,7 @@
         <v>116</v>
       </c>
       <c r="P31" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7426,7 +7477,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ32">
         <v>0</v>
@@ -7554,7 +7605,7 @@
         <v>118</v>
       </c>
       <c r="P33" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -7838,7 +7889,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ34">
         <v>1.5</v>
@@ -7966,7 +8017,7 @@
         <v>120</v>
       </c>
       <c r="P35" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="Q35">
         <v>4.5</v>
@@ -8047,7 +8098,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ35">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR35">
         <v>1.53</v>
@@ -8172,7 +8223,7 @@
         <v>121</v>
       </c>
       <c r="P36" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8253,7 +8304,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ36">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR36">
         <v>1.62</v>
@@ -8378,7 +8429,7 @@
         <v>122</v>
       </c>
       <c r="P37" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -8584,7 +8635,7 @@
         <v>123</v>
       </c>
       <c r="P38" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="Q38">
         <v>2.63</v>
@@ -8790,7 +8841,7 @@
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -8868,7 +8919,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ39">
         <v>2</v>
@@ -9077,7 +9128,7 @@
         <v>1</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR40">
         <v>1.27</v>
@@ -9614,7 +9665,7 @@
         <v>96</v>
       </c>
       <c r="P43" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="Q43">
         <v>2.63</v>
@@ -9692,7 +9743,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ43">
         <v>1.33</v>
@@ -9820,7 +9871,7 @@
         <v>127</v>
       </c>
       <c r="P44" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9898,7 +9949,7 @@
         <v>3</v>
       </c>
       <c r="AP44">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ44">
         <v>1.67</v>
@@ -10026,7 +10077,7 @@
         <v>96</v>
       </c>
       <c r="P45" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="Q45">
         <v>3.6</v>
@@ -10107,7 +10158,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ45">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR45">
         <v>1.22</v>
@@ -10438,7 +10489,7 @@
         <v>96</v>
       </c>
       <c r="P47" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="Q47">
         <v>2.05</v>
@@ -10516,7 +10567,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ47">
         <v>1</v>
@@ -10644,7 +10695,7 @@
         <v>129</v>
       </c>
       <c r="P48" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="Q48">
         <v>1.95</v>
@@ -11262,7 +11313,7 @@
         <v>131</v>
       </c>
       <c r="P51" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="Q51">
         <v>2.3</v>
@@ -11343,7 +11394,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ51">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR51">
         <v>1.65</v>
@@ -11546,7 +11597,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ52">
         <v>0.33</v>
@@ -11674,7 +11725,7 @@
         <v>133</v>
       </c>
       <c r="P53" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="Q53">
         <v>2.3</v>
@@ -11752,7 +11803,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ53">
         <v>0</v>
@@ -11880,7 +11931,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
       <c r="Q54">
         <v>3.5</v>
@@ -12086,7 +12137,7 @@
         <v>134</v>
       </c>
       <c r="P55" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="Q55">
         <v>4.5</v>
@@ -12292,7 +12343,7 @@
         <v>135</v>
       </c>
       <c r="P56" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="Q56">
         <v>2.2</v>
@@ -12370,7 +12421,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ56">
         <v>1</v>
@@ -12498,7 +12549,7 @@
         <v>96</v>
       </c>
       <c r="P57" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="Q57">
         <v>4.33</v>
@@ -12785,7 +12836,7 @@
         <v>2</v>
       </c>
       <c r="AQ58">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR58">
         <v>1.23</v>
@@ -12910,7 +12961,7 @@
         <v>137</v>
       </c>
       <c r="P59" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -12988,7 +13039,7 @@
         <v>3</v>
       </c>
       <c r="AP59">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ59">
         <v>2.33</v>
@@ -13116,7 +13167,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -13322,7 +13373,7 @@
         <v>96</v>
       </c>
       <c r="P61" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -13403,7 +13454,7 @@
         <v>2</v>
       </c>
       <c r="AQ61">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR61">
         <v>1.57</v>
@@ -13528,7 +13579,7 @@
         <v>138</v>
       </c>
       <c r="P62" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="Q62">
         <v>2.2</v>
@@ -13734,7 +13785,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="Q63">
         <v>2.88</v>
@@ -13812,7 +13863,7 @@
         <v>1.5</v>
       </c>
       <c r="AP63">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AQ63">
         <v>2</v>
@@ -13940,7 +13991,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="Q64">
         <v>2.5</v>
@@ -14242,19 +14293,19 @@
         <v>5</v>
       </c>
       <c r="AV65">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW65">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AX65">
+        <v>2</v>
+      </c>
+      <c r="AY65">
         <v>5</v>
       </c>
-      <c r="AY65">
-        <v>9</v>
-      </c>
       <c r="AZ65">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BA65">
         <v>3</v>
@@ -14451,16 +14502,16 @@
         <v>2</v>
       </c>
       <c r="AW66">
+        <v>5</v>
+      </c>
+      <c r="AX66">
+        <v>8</v>
+      </c>
+      <c r="AY66">
+        <v>9</v>
+      </c>
+      <c r="AZ66">
         <v>10</v>
-      </c>
-      <c r="AX66">
-        <v>10</v>
-      </c>
-      <c r="AY66">
-        <v>14</v>
-      </c>
-      <c r="AZ66">
-        <v>12</v>
       </c>
       <c r="BA66">
         <v>8</v>
@@ -14509,6 +14560,2066 @@
       </c>
       <c r="BP66">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7477885</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45556.45833333334</v>
+      </c>
+      <c r="F67">
+        <v>7</v>
+      </c>
+      <c r="G67" t="s">
+        <v>71</v>
+      </c>
+      <c r="H67" t="s">
+        <v>77</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>1</v>
+      </c>
+      <c r="L67">
+        <v>2</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>3</v>
+      </c>
+      <c r="O67" t="s">
+        <v>141</v>
+      </c>
+      <c r="P67" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q67">
+        <v>1.95</v>
+      </c>
+      <c r="R67">
+        <v>2.4</v>
+      </c>
+      <c r="S67">
+        <v>6.5</v>
+      </c>
+      <c r="T67">
+        <v>1.3</v>
+      </c>
+      <c r="U67">
+        <v>3.4</v>
+      </c>
+      <c r="V67">
+        <v>2.5</v>
+      </c>
+      <c r="W67">
+        <v>1.5</v>
+      </c>
+      <c r="X67">
+        <v>6</v>
+      </c>
+      <c r="Y67">
+        <v>1.13</v>
+      </c>
+      <c r="Z67">
+        <v>51</v>
+      </c>
+      <c r="AA67">
+        <v>1</v>
+      </c>
+      <c r="AB67">
+        <v>51</v>
+      </c>
+      <c r="AC67">
+        <v>1.01</v>
+      </c>
+      <c r="AD67">
+        <v>9.9</v>
+      </c>
+      <c r="AE67">
+        <v>1.16</v>
+      </c>
+      <c r="AF67">
+        <v>3.98</v>
+      </c>
+      <c r="AG67">
+        <v>1.67</v>
+      </c>
+      <c r="AH67">
+        <v>2.1</v>
+      </c>
+      <c r="AI67">
+        <v>1.91</v>
+      </c>
+      <c r="AJ67">
+        <v>1.91</v>
+      </c>
+      <c r="AK67">
+        <v>1.09</v>
+      </c>
+      <c r="AL67">
+        <v>1.21</v>
+      </c>
+      <c r="AM67">
+        <v>2.77</v>
+      </c>
+      <c r="AN67">
+        <v>3</v>
+      </c>
+      <c r="AO67">
+        <v>1.5</v>
+      </c>
+      <c r="AP67">
+        <v>3</v>
+      </c>
+      <c r="AQ67">
+        <v>1</v>
+      </c>
+      <c r="AR67">
+        <v>1.51</v>
+      </c>
+      <c r="AS67">
+        <v>1.31</v>
+      </c>
+      <c r="AT67">
+        <v>2.82</v>
+      </c>
+      <c r="AU67">
+        <v>4</v>
+      </c>
+      <c r="AV67">
+        <v>8</v>
+      </c>
+      <c r="AW67">
+        <v>10</v>
+      </c>
+      <c r="AX67">
+        <v>8</v>
+      </c>
+      <c r="AY67">
+        <v>14</v>
+      </c>
+      <c r="AZ67">
+        <v>16</v>
+      </c>
+      <c r="BA67">
+        <v>7</v>
+      </c>
+      <c r="BB67">
+        <v>8</v>
+      </c>
+      <c r="BC67">
+        <v>15</v>
+      </c>
+      <c r="BD67">
+        <v>1.27</v>
+      </c>
+      <c r="BE67">
+        <v>7.5</v>
+      </c>
+      <c r="BF67">
+        <v>3.65</v>
+      </c>
+      <c r="BG67">
+        <v>1.25</v>
+      </c>
+      <c r="BH67">
+        <v>3.45</v>
+      </c>
+      <c r="BI67">
+        <v>1.44</v>
+      </c>
+      <c r="BJ67">
+        <v>2.55</v>
+      </c>
+      <c r="BK67">
+        <v>1.71</v>
+      </c>
+      <c r="BL67">
+        <v>2</v>
+      </c>
+      <c r="BM67">
+        <v>2.08</v>
+      </c>
+      <c r="BN67">
+        <v>1.65</v>
+      </c>
+      <c r="BO67">
+        <v>2.65</v>
+      </c>
+      <c r="BP67">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7477886</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45556.45833333334</v>
+      </c>
+      <c r="F68">
+        <v>7</v>
+      </c>
+      <c r="G68" t="s">
+        <v>86</v>
+      </c>
+      <c r="H68" t="s">
+        <v>88</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>2</v>
+      </c>
+      <c r="L68">
+        <v>2</v>
+      </c>
+      <c r="M68">
+        <v>1</v>
+      </c>
+      <c r="N68">
+        <v>3</v>
+      </c>
+      <c r="O68" t="s">
+        <v>142</v>
+      </c>
+      <c r="P68" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q68">
+        <v>2.3</v>
+      </c>
+      <c r="R68">
+        <v>2.2</v>
+      </c>
+      <c r="S68">
+        <v>5</v>
+      </c>
+      <c r="T68">
+        <v>1.4</v>
+      </c>
+      <c r="U68">
+        <v>2.75</v>
+      </c>
+      <c r="V68">
+        <v>2.75</v>
+      </c>
+      <c r="W68">
+        <v>1.4</v>
+      </c>
+      <c r="X68">
+        <v>8</v>
+      </c>
+      <c r="Y68">
+        <v>1.08</v>
+      </c>
+      <c r="Z68">
+        <v>51</v>
+      </c>
+      <c r="AA68">
+        <v>1</v>
+      </c>
+      <c r="AB68">
+        <v>51</v>
+      </c>
+      <c r="AC68">
+        <v>1.02</v>
+      </c>
+      <c r="AD68">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE68">
+        <v>1.27</v>
+      </c>
+      <c r="AF68">
+        <v>3.28</v>
+      </c>
+      <c r="AG68">
+        <v>1.85</v>
+      </c>
+      <c r="AH68">
+        <v>1.85</v>
+      </c>
+      <c r="AI68">
+        <v>1.91</v>
+      </c>
+      <c r="AJ68">
+        <v>1.91</v>
+      </c>
+      <c r="AK68">
+        <v>1.18</v>
+      </c>
+      <c r="AL68">
+        <v>1.26</v>
+      </c>
+      <c r="AM68">
+        <v>2.15</v>
+      </c>
+      <c r="AN68">
+        <v>1.5</v>
+      </c>
+      <c r="AO68">
+        <v>0</v>
+      </c>
+      <c r="AP68">
+        <v>2</v>
+      </c>
+      <c r="AQ68">
+        <v>0</v>
+      </c>
+      <c r="AR68">
+        <v>1.14</v>
+      </c>
+      <c r="AS68">
+        <v>1.01</v>
+      </c>
+      <c r="AT68">
+        <v>2.15</v>
+      </c>
+      <c r="AU68">
+        <v>7</v>
+      </c>
+      <c r="AV68">
+        <v>3</v>
+      </c>
+      <c r="AW68">
+        <v>7</v>
+      </c>
+      <c r="AX68">
+        <v>1</v>
+      </c>
+      <c r="AY68">
+        <v>14</v>
+      </c>
+      <c r="AZ68">
+        <v>4</v>
+      </c>
+      <c r="BA68">
+        <v>9</v>
+      </c>
+      <c r="BB68">
+        <v>2</v>
+      </c>
+      <c r="BC68">
+        <v>11</v>
+      </c>
+      <c r="BD68">
+        <v>1.42</v>
+      </c>
+      <c r="BE68">
+        <v>6.75</v>
+      </c>
+      <c r="BF68">
+        <v>2.95</v>
+      </c>
+      <c r="BG68">
+        <v>1.21</v>
+      </c>
+      <c r="BH68">
+        <v>3.8</v>
+      </c>
+      <c r="BI68">
+        <v>1.38</v>
+      </c>
+      <c r="BJ68">
+        <v>2.75</v>
+      </c>
+      <c r="BK68">
+        <v>1.64</v>
+      </c>
+      <c r="BL68">
+        <v>2.1</v>
+      </c>
+      <c r="BM68">
+        <v>1.98</v>
+      </c>
+      <c r="BN68">
+        <v>1.72</v>
+      </c>
+      <c r="BO68">
+        <v>2.5</v>
+      </c>
+      <c r="BP68">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7477883</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45556.45833333334</v>
+      </c>
+      <c r="F69">
+        <v>7</v>
+      </c>
+      <c r="G69" t="s">
+        <v>85</v>
+      </c>
+      <c r="H69" t="s">
+        <v>80</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>2</v>
+      </c>
+      <c r="K69">
+        <v>2</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>2</v>
+      </c>
+      <c r="N69">
+        <v>2</v>
+      </c>
+      <c r="O69" t="s">
+        <v>96</v>
+      </c>
+      <c r="P69" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q69">
+        <v>3.75</v>
+      </c>
+      <c r="R69">
+        <v>2.2</v>
+      </c>
+      <c r="S69">
+        <v>2.75</v>
+      </c>
+      <c r="T69">
+        <v>1.36</v>
+      </c>
+      <c r="U69">
+        <v>3</v>
+      </c>
+      <c r="V69">
+        <v>2.75</v>
+      </c>
+      <c r="W69">
+        <v>1.4</v>
+      </c>
+      <c r="X69">
+        <v>7</v>
+      </c>
+      <c r="Y69">
+        <v>1.1</v>
+      </c>
+      <c r="Z69">
+        <v>51</v>
+      </c>
+      <c r="AA69">
+        <v>1</v>
+      </c>
+      <c r="AB69">
+        <v>51</v>
+      </c>
+      <c r="AC69">
+        <v>1.03</v>
+      </c>
+      <c r="AD69">
+        <v>13</v>
+      </c>
+      <c r="AE69">
+        <v>1.25</v>
+      </c>
+      <c r="AF69">
+        <v>3.75</v>
+      </c>
+      <c r="AG69">
+        <v>1.75</v>
+      </c>
+      <c r="AH69">
+        <v>1.95</v>
+      </c>
+      <c r="AI69">
+        <v>1.7</v>
+      </c>
+      <c r="AJ69">
+        <v>2.05</v>
+      </c>
+      <c r="AK69">
+        <v>1.75</v>
+      </c>
+      <c r="AL69">
+        <v>1.25</v>
+      </c>
+      <c r="AM69">
+        <v>1.35</v>
+      </c>
+      <c r="AN69">
+        <v>1.67</v>
+      </c>
+      <c r="AO69">
+        <v>3</v>
+      </c>
+      <c r="AP69">
+        <v>1.25</v>
+      </c>
+      <c r="AQ69">
+        <v>3</v>
+      </c>
+      <c r="AR69">
+        <v>1.79</v>
+      </c>
+      <c r="AS69">
+        <v>1.27</v>
+      </c>
+      <c r="AT69">
+        <v>3.06</v>
+      </c>
+      <c r="AU69">
+        <v>2</v>
+      </c>
+      <c r="AV69">
+        <v>5</v>
+      </c>
+      <c r="AW69">
+        <v>4</v>
+      </c>
+      <c r="AX69">
+        <v>5</v>
+      </c>
+      <c r="AY69">
+        <v>6</v>
+      </c>
+      <c r="AZ69">
+        <v>10</v>
+      </c>
+      <c r="BA69">
+        <v>9</v>
+      </c>
+      <c r="BB69">
+        <v>8</v>
+      </c>
+      <c r="BC69">
+        <v>17</v>
+      </c>
+      <c r="BD69">
+        <v>2.23</v>
+      </c>
+      <c r="BE69">
+        <v>6.5</v>
+      </c>
+      <c r="BF69">
+        <v>1.7</v>
+      </c>
+      <c r="BG69">
+        <v>1.19</v>
+      </c>
+      <c r="BH69">
+        <v>4.1</v>
+      </c>
+      <c r="BI69">
+        <v>1.34</v>
+      </c>
+      <c r="BJ69">
+        <v>2.9</v>
+      </c>
+      <c r="BK69">
+        <v>1.56</v>
+      </c>
+      <c r="BL69">
+        <v>2.23</v>
+      </c>
+      <c r="BM69">
+        <v>1.95</v>
+      </c>
+      <c r="BN69">
+        <v>1.85</v>
+      </c>
+      <c r="BO69">
+        <v>2.33</v>
+      </c>
+      <c r="BP69">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7477882</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45556.45833333334</v>
+      </c>
+      <c r="F70">
+        <v>7</v>
+      </c>
+      <c r="G70" t="s">
+        <v>74</v>
+      </c>
+      <c r="H70" t="s">
+        <v>79</v>
+      </c>
+      <c r="I70">
+        <v>2</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>2</v>
+      </c>
+      <c r="L70">
+        <v>3</v>
+      </c>
+      <c r="M70">
+        <v>2</v>
+      </c>
+      <c r="N70">
+        <v>5</v>
+      </c>
+      <c r="O70" t="s">
+        <v>143</v>
+      </c>
+      <c r="P70" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q70">
+        <v>2.2</v>
+      </c>
+      <c r="R70">
+        <v>2.5</v>
+      </c>
+      <c r="S70">
+        <v>4.75</v>
+      </c>
+      <c r="T70">
+        <v>1.29</v>
+      </c>
+      <c r="U70">
+        <v>3.5</v>
+      </c>
+      <c r="V70">
+        <v>2.25</v>
+      </c>
+      <c r="W70">
+        <v>1.57</v>
+      </c>
+      <c r="X70">
+        <v>5.5</v>
+      </c>
+      <c r="Y70">
+        <v>1.14</v>
+      </c>
+      <c r="Z70">
+        <v>51</v>
+      </c>
+      <c r="AA70">
+        <v>1</v>
+      </c>
+      <c r="AB70">
+        <v>51</v>
+      </c>
+      <c r="AC70">
+        <v>1.02</v>
+      </c>
+      <c r="AD70">
+        <v>19</v>
+      </c>
+      <c r="AE70">
+        <v>1.14</v>
+      </c>
+      <c r="AF70">
+        <v>4.6</v>
+      </c>
+      <c r="AG70">
+        <v>1.55</v>
+      </c>
+      <c r="AH70">
+        <v>2.3</v>
+      </c>
+      <c r="AI70">
+        <v>1.62</v>
+      </c>
+      <c r="AJ70">
+        <v>2.2</v>
+      </c>
+      <c r="AK70">
+        <v>1.17</v>
+      </c>
+      <c r="AL70">
+        <v>1.23</v>
+      </c>
+      <c r="AM70">
+        <v>2.27</v>
+      </c>
+      <c r="AN70">
+        <v>0.33</v>
+      </c>
+      <c r="AO70">
+        <v>0.33</v>
+      </c>
+      <c r="AP70">
+        <v>1</v>
+      </c>
+      <c r="AQ70">
+        <v>0.25</v>
+      </c>
+      <c r="AR70">
+        <v>0.98</v>
+      </c>
+      <c r="AS70">
+        <v>0.92</v>
+      </c>
+      <c r="AT70">
+        <v>1.9</v>
+      </c>
+      <c r="AU70">
+        <v>9</v>
+      </c>
+      <c r="AV70">
+        <v>5</v>
+      </c>
+      <c r="AW70">
+        <v>4</v>
+      </c>
+      <c r="AX70">
+        <v>6</v>
+      </c>
+      <c r="AY70">
+        <v>13</v>
+      </c>
+      <c r="AZ70">
+        <v>11</v>
+      </c>
+      <c r="BA70">
+        <v>2</v>
+      </c>
+      <c r="BB70">
+        <v>5</v>
+      </c>
+      <c r="BC70">
+        <v>7</v>
+      </c>
+      <c r="BD70">
+        <v>1.32</v>
+      </c>
+      <c r="BE70">
+        <v>7</v>
+      </c>
+      <c r="BF70">
+        <v>3.3</v>
+      </c>
+      <c r="BG70">
+        <v>1.19</v>
+      </c>
+      <c r="BH70">
+        <v>4.1</v>
+      </c>
+      <c r="BI70">
+        <v>1.33</v>
+      </c>
+      <c r="BJ70">
+        <v>2.95</v>
+      </c>
+      <c r="BK70">
+        <v>1.54</v>
+      </c>
+      <c r="BL70">
+        <v>2.28</v>
+      </c>
+      <c r="BM70">
+        <v>2</v>
+      </c>
+      <c r="BN70">
+        <v>1.8</v>
+      </c>
+      <c r="BO70">
+        <v>2.28</v>
+      </c>
+      <c r="BP70">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7477881</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45556.45833333334</v>
+      </c>
+      <c r="F71">
+        <v>7</v>
+      </c>
+      <c r="G71" t="s">
+        <v>92</v>
+      </c>
+      <c r="H71" t="s">
+        <v>82</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>2</v>
+      </c>
+      <c r="M71">
+        <v>1</v>
+      </c>
+      <c r="N71">
+        <v>3</v>
+      </c>
+      <c r="O71" t="s">
+        <v>144</v>
+      </c>
+      <c r="P71" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q71">
+        <v>2.25</v>
+      </c>
+      <c r="R71">
+        <v>2.3</v>
+      </c>
+      <c r="S71">
+        <v>5</v>
+      </c>
+      <c r="T71">
+        <v>1.33</v>
+      </c>
+      <c r="U71">
+        <v>3.25</v>
+      </c>
+      <c r="V71">
+        <v>2.63</v>
+      </c>
+      <c r="W71">
+        <v>1.44</v>
+      </c>
+      <c r="X71">
+        <v>6.5</v>
+      </c>
+      <c r="Y71">
+        <v>1.11</v>
+      </c>
+      <c r="Z71">
+        <v>51</v>
+      </c>
+      <c r="AA71">
+        <v>1</v>
+      </c>
+      <c r="AB71">
+        <v>51</v>
+      </c>
+      <c r="AC71">
+        <v>1.01</v>
+      </c>
+      <c r="AD71">
+        <v>9.9</v>
+      </c>
+      <c r="AE71">
+        <v>1.18</v>
+      </c>
+      <c r="AF71">
+        <v>3.82</v>
+      </c>
+      <c r="AG71">
+        <v>1.7</v>
+      </c>
+      <c r="AH71">
+        <v>2.05</v>
+      </c>
+      <c r="AI71">
+        <v>1.7</v>
+      </c>
+      <c r="AJ71">
+        <v>2.05</v>
+      </c>
+      <c r="AK71">
+        <v>1.18</v>
+      </c>
+      <c r="AL71">
+        <v>1.29</v>
+      </c>
+      <c r="AM71">
+        <v>2.1</v>
+      </c>
+      <c r="AN71">
+        <v>1.67</v>
+      </c>
+      <c r="AO71">
+        <v>0</v>
+      </c>
+      <c r="AP71">
+        <v>2</v>
+      </c>
+      <c r="AQ71">
+        <v>0</v>
+      </c>
+      <c r="AR71">
+        <v>1.39</v>
+      </c>
+      <c r="AS71">
+        <v>0.9</v>
+      </c>
+      <c r="AT71">
+        <v>2.29</v>
+      </c>
+      <c r="AU71">
+        <v>6</v>
+      </c>
+      <c r="AV71">
+        <v>7</v>
+      </c>
+      <c r="AW71">
+        <v>6</v>
+      </c>
+      <c r="AX71">
+        <v>2</v>
+      </c>
+      <c r="AY71">
+        <v>12</v>
+      </c>
+      <c r="AZ71">
+        <v>9</v>
+      </c>
+      <c r="BA71">
+        <v>3</v>
+      </c>
+      <c r="BB71">
+        <v>4</v>
+      </c>
+      <c r="BC71">
+        <v>7</v>
+      </c>
+      <c r="BD71">
+        <v>1.45</v>
+      </c>
+      <c r="BE71">
+        <v>6.75</v>
+      </c>
+      <c r="BF71">
+        <v>2.9</v>
+      </c>
+      <c r="BG71">
+        <v>1.24</v>
+      </c>
+      <c r="BH71">
+        <v>3.55</v>
+      </c>
+      <c r="BI71">
+        <v>1.41</v>
+      </c>
+      <c r="BJ71">
+        <v>2.65</v>
+      </c>
+      <c r="BK71">
+        <v>1.66</v>
+      </c>
+      <c r="BL71">
+        <v>2.06</v>
+      </c>
+      <c r="BM71">
+        <v>2.05</v>
+      </c>
+      <c r="BN71">
+        <v>1.67</v>
+      </c>
+      <c r="BO71">
+        <v>2.55</v>
+      </c>
+      <c r="BP71">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="72" spans="1:68">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7477879</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45556.45833333334</v>
+      </c>
+      <c r="F72">
+        <v>7</v>
+      </c>
+      <c r="G72" t="s">
+        <v>90</v>
+      </c>
+      <c r="H72" t="s">
+        <v>87</v>
+      </c>
+      <c r="I72">
+        <v>0</v>
+      </c>
+      <c r="J72">
+        <v>2</v>
+      </c>
+      <c r="K72">
+        <v>2</v>
+      </c>
+      <c r="L72">
+        <v>1</v>
+      </c>
+      <c r="M72">
+        <v>3</v>
+      </c>
+      <c r="N72">
+        <v>4</v>
+      </c>
+      <c r="O72" t="s">
+        <v>145</v>
+      </c>
+      <c r="P72" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q72">
+        <v>1.91</v>
+      </c>
+      <c r="R72">
+        <v>2.4</v>
+      </c>
+      <c r="S72">
+        <v>7</v>
+      </c>
+      <c r="T72">
+        <v>1.33</v>
+      </c>
+      <c r="U72">
+        <v>3.25</v>
+      </c>
+      <c r="V72">
+        <v>2.63</v>
+      </c>
+      <c r="W72">
+        <v>1.44</v>
+      </c>
+      <c r="X72">
+        <v>6.5</v>
+      </c>
+      <c r="Y72">
+        <v>1.11</v>
+      </c>
+      <c r="Z72">
+        <v>51</v>
+      </c>
+      <c r="AA72">
+        <v>1</v>
+      </c>
+      <c r="AB72">
+        <v>51</v>
+      </c>
+      <c r="AC72">
+        <v>1.04</v>
+      </c>
+      <c r="AD72">
+        <v>10</v>
+      </c>
+      <c r="AE72">
+        <v>1.25</v>
+      </c>
+      <c r="AF72">
+        <v>3.85</v>
+      </c>
+      <c r="AG72">
+        <v>1.75</v>
+      </c>
+      <c r="AH72">
+        <v>1.95</v>
+      </c>
+      <c r="AI72">
+        <v>2</v>
+      </c>
+      <c r="AJ72">
+        <v>1.75</v>
+      </c>
+      <c r="AK72">
+        <v>1.08</v>
+      </c>
+      <c r="AL72">
+        <v>1.15</v>
+      </c>
+      <c r="AM72">
+        <v>2.85</v>
+      </c>
+      <c r="AN72">
+        <v>3</v>
+      </c>
+      <c r="AO72">
+        <v>0.5</v>
+      </c>
+      <c r="AP72">
+        <v>2</v>
+      </c>
+      <c r="AQ72">
+        <v>1.33</v>
+      </c>
+      <c r="AR72">
+        <v>1.27</v>
+      </c>
+      <c r="AS72">
+        <v>1.14</v>
+      </c>
+      <c r="AT72">
+        <v>2.41</v>
+      </c>
+      <c r="AU72">
+        <v>5</v>
+      </c>
+      <c r="AV72">
+        <v>4</v>
+      </c>
+      <c r="AW72">
+        <v>7</v>
+      </c>
+      <c r="AX72">
+        <v>2</v>
+      </c>
+      <c r="AY72">
+        <v>12</v>
+      </c>
+      <c r="AZ72">
+        <v>6</v>
+      </c>
+      <c r="BA72">
+        <v>7</v>
+      </c>
+      <c r="BB72">
+        <v>1</v>
+      </c>
+      <c r="BC72">
+        <v>8</v>
+      </c>
+      <c r="BD72">
+        <v>1.26</v>
+      </c>
+      <c r="BE72">
+        <v>7.5</v>
+      </c>
+      <c r="BF72">
+        <v>3.8</v>
+      </c>
+      <c r="BG72">
+        <v>1.28</v>
+      </c>
+      <c r="BH72">
+        <v>3.3</v>
+      </c>
+      <c r="BI72">
+        <v>1.48</v>
+      </c>
+      <c r="BJ72">
+        <v>2.43</v>
+      </c>
+      <c r="BK72">
+        <v>1.77</v>
+      </c>
+      <c r="BL72">
+        <v>1.92</v>
+      </c>
+      <c r="BM72">
+        <v>2.18</v>
+      </c>
+      <c r="BN72">
+        <v>1.58</v>
+      </c>
+      <c r="BO72">
+        <v>2.8</v>
+      </c>
+      <c r="BP72">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="73" spans="1:68">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7477884</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45556.45833333334</v>
+      </c>
+      <c r="F73">
+        <v>7</v>
+      </c>
+      <c r="G73" t="s">
+        <v>73</v>
+      </c>
+      <c r="H73" t="s">
+        <v>75</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>2</v>
+      </c>
+      <c r="K73">
+        <v>2</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
+        <v>4</v>
+      </c>
+      <c r="N73">
+        <v>5</v>
+      </c>
+      <c r="O73" t="s">
+        <v>146</v>
+      </c>
+      <c r="P73" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q73">
+        <v>2.2</v>
+      </c>
+      <c r="R73">
+        <v>2.3</v>
+      </c>
+      <c r="S73">
+        <v>5.5</v>
+      </c>
+      <c r="T73">
+        <v>1.36</v>
+      </c>
+      <c r="U73">
+        <v>3</v>
+      </c>
+      <c r="V73">
+        <v>2.63</v>
+      </c>
+      <c r="W73">
+        <v>1.44</v>
+      </c>
+      <c r="X73">
+        <v>7</v>
+      </c>
+      <c r="Y73">
+        <v>1.1</v>
+      </c>
+      <c r="Z73">
+        <v>51</v>
+      </c>
+      <c r="AA73">
+        <v>1</v>
+      </c>
+      <c r="AB73">
+        <v>51</v>
+      </c>
+      <c r="AC73">
+        <v>1.05</v>
+      </c>
+      <c r="AD73">
+        <v>9.5</v>
+      </c>
+      <c r="AE73">
+        <v>1.28</v>
+      </c>
+      <c r="AF73">
+        <v>3.65</v>
+      </c>
+      <c r="AG73">
+        <v>1.8</v>
+      </c>
+      <c r="AH73">
+        <v>1.91</v>
+      </c>
+      <c r="AI73">
+        <v>1.8</v>
+      </c>
+      <c r="AJ73">
+        <v>1.95</v>
+      </c>
+      <c r="AK73">
+        <v>1.13</v>
+      </c>
+      <c r="AL73">
+        <v>1.2</v>
+      </c>
+      <c r="AM73">
+        <v>2.35</v>
+      </c>
+      <c r="AN73">
+        <v>3</v>
+      </c>
+      <c r="AO73">
+        <v>1</v>
+      </c>
+      <c r="AP73">
+        <v>2</v>
+      </c>
+      <c r="AQ73">
+        <v>1.5</v>
+      </c>
+      <c r="AR73">
+        <v>1.92</v>
+      </c>
+      <c r="AS73">
+        <v>0.92</v>
+      </c>
+      <c r="AT73">
+        <v>2.84</v>
+      </c>
+      <c r="AU73">
+        <v>4</v>
+      </c>
+      <c r="AV73">
+        <v>6</v>
+      </c>
+      <c r="AW73">
+        <v>9</v>
+      </c>
+      <c r="AX73">
+        <v>4</v>
+      </c>
+      <c r="AY73">
+        <v>13</v>
+      </c>
+      <c r="AZ73">
+        <v>10</v>
+      </c>
+      <c r="BA73">
+        <v>6</v>
+      </c>
+      <c r="BB73">
+        <v>1</v>
+      </c>
+      <c r="BC73">
+        <v>7</v>
+      </c>
+      <c r="BD73">
+        <v>1.46</v>
+      </c>
+      <c r="BE73">
+        <v>6.5</v>
+      </c>
+      <c r="BF73">
+        <v>2.8</v>
+      </c>
+      <c r="BG73">
+        <v>1.32</v>
+      </c>
+      <c r="BH73">
+        <v>3.05</v>
+      </c>
+      <c r="BI73">
+        <v>1.55</v>
+      </c>
+      <c r="BJ73">
+        <v>2.25</v>
+      </c>
+      <c r="BK73">
+        <v>2</v>
+      </c>
+      <c r="BL73">
+        <v>1.8</v>
+      </c>
+      <c r="BM73">
+        <v>2.4</v>
+      </c>
+      <c r="BN73">
+        <v>1.49</v>
+      </c>
+      <c r="BO73">
+        <v>3.15</v>
+      </c>
+      <c r="BP73">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:68">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7477875</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45556.45833333334</v>
+      </c>
+      <c r="F74">
+        <v>7</v>
+      </c>
+      <c r="G74" t="s">
+        <v>78</v>
+      </c>
+      <c r="H74" t="s">
+        <v>70</v>
+      </c>
+      <c r="I74">
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>1</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>2</v>
+      </c>
+      <c r="N74">
+        <v>3</v>
+      </c>
+      <c r="O74" t="s">
+        <v>147</v>
+      </c>
+      <c r="P74" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q74">
+        <v>4</v>
+      </c>
+      <c r="R74">
+        <v>2.3</v>
+      </c>
+      <c r="S74">
+        <v>2.5</v>
+      </c>
+      <c r="T74">
+        <v>1.33</v>
+      </c>
+      <c r="U74">
+        <v>3.25</v>
+      </c>
+      <c r="V74">
+        <v>2.5</v>
+      </c>
+      <c r="W74">
+        <v>1.5</v>
+      </c>
+      <c r="X74">
+        <v>6</v>
+      </c>
+      <c r="Y74">
+        <v>1.13</v>
+      </c>
+      <c r="Z74">
+        <v>51</v>
+      </c>
+      <c r="AA74">
+        <v>1</v>
+      </c>
+      <c r="AB74">
+        <v>51</v>
+      </c>
+      <c r="AC74">
+        <v>1.04</v>
+      </c>
+      <c r="AD74">
+        <v>10</v>
+      </c>
+      <c r="AE74">
+        <v>1.22</v>
+      </c>
+      <c r="AF74">
+        <v>4.2</v>
+      </c>
+      <c r="AG74">
+        <v>1.65</v>
+      </c>
+      <c r="AH74">
+        <v>2.1</v>
+      </c>
+      <c r="AI74">
+        <v>1.62</v>
+      </c>
+      <c r="AJ74">
+        <v>2.2</v>
+      </c>
+      <c r="AK74">
+        <v>1.85</v>
+      </c>
+      <c r="AL74">
+        <v>1.22</v>
+      </c>
+      <c r="AM74">
+        <v>1.25</v>
+      </c>
+      <c r="AN74">
+        <v>0.5</v>
+      </c>
+      <c r="AO74">
+        <v>2</v>
+      </c>
+      <c r="AP74">
+        <v>0.33</v>
+      </c>
+      <c r="AQ74">
+        <v>2.25</v>
+      </c>
+      <c r="AR74">
+        <v>0.86</v>
+      </c>
+      <c r="AS74">
+        <v>1</v>
+      </c>
+      <c r="AT74">
+        <v>1.86</v>
+      </c>
+      <c r="AU74">
+        <v>4</v>
+      </c>
+      <c r="AV74">
+        <v>7</v>
+      </c>
+      <c r="AW74">
+        <v>3</v>
+      </c>
+      <c r="AX74">
+        <v>4</v>
+      </c>
+      <c r="AY74">
+        <v>7</v>
+      </c>
+      <c r="AZ74">
+        <v>11</v>
+      </c>
+      <c r="BA74">
+        <v>3</v>
+      </c>
+      <c r="BB74">
+        <v>4</v>
+      </c>
+      <c r="BC74">
+        <v>7</v>
+      </c>
+      <c r="BD74">
+        <v>2.15</v>
+      </c>
+      <c r="BE74">
+        <v>6.5</v>
+      </c>
+      <c r="BF74">
+        <v>1.75</v>
+      </c>
+      <c r="BG74">
+        <v>1.27</v>
+      </c>
+      <c r="BH74">
+        <v>3.3</v>
+      </c>
+      <c r="BI74">
+        <v>1.49</v>
+      </c>
+      <c r="BJ74">
+        <v>2.4</v>
+      </c>
+      <c r="BK74">
+        <v>1.79</v>
+      </c>
+      <c r="BL74">
+        <v>1.9</v>
+      </c>
+      <c r="BM74">
+        <v>2.23</v>
+      </c>
+      <c r="BN74">
+        <v>1.57</v>
+      </c>
+      <c r="BO74">
+        <v>2.8</v>
+      </c>
+      <c r="BP74">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7477874</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45556.45833333334</v>
+      </c>
+      <c r="F75">
+        <v>7</v>
+      </c>
+      <c r="G75" t="s">
+        <v>93</v>
+      </c>
+      <c r="H75" t="s">
+        <v>84</v>
+      </c>
+      <c r="I75">
+        <v>4</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>5</v>
+      </c>
+      <c r="L75">
+        <v>5</v>
+      </c>
+      <c r="M75">
+        <v>2</v>
+      </c>
+      <c r="N75">
+        <v>7</v>
+      </c>
+      <c r="O75" t="s">
+        <v>148</v>
+      </c>
+      <c r="P75" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q75">
+        <v>2.3</v>
+      </c>
+      <c r="R75">
+        <v>2.3</v>
+      </c>
+      <c r="S75">
+        <v>4.5</v>
+      </c>
+      <c r="T75">
+        <v>1.33</v>
+      </c>
+      <c r="U75">
+        <v>3.25</v>
+      </c>
+      <c r="V75">
+        <v>2.63</v>
+      </c>
+      <c r="W75">
+        <v>1.44</v>
+      </c>
+      <c r="X75">
+        <v>6.5</v>
+      </c>
+      <c r="Y75">
+        <v>1.11</v>
+      </c>
+      <c r="Z75">
+        <v>1.75</v>
+      </c>
+      <c r="AA75">
+        <v>3.75</v>
+      </c>
+      <c r="AB75">
+        <v>4.4</v>
+      </c>
+      <c r="AC75">
+        <v>1.01</v>
+      </c>
+      <c r="AD75">
+        <v>11</v>
+      </c>
+      <c r="AE75">
+        <v>1.21</v>
+      </c>
+      <c r="AF75">
+        <v>3.75</v>
+      </c>
+      <c r="AG75">
+        <v>1.67</v>
+      </c>
+      <c r="AH75">
+        <v>2.05</v>
+      </c>
+      <c r="AI75">
+        <v>1.7</v>
+      </c>
+      <c r="AJ75">
+        <v>2.05</v>
+      </c>
+      <c r="AK75">
+        <v>1.22</v>
+      </c>
+      <c r="AL75">
+        <v>1.25</v>
+      </c>
+      <c r="AM75">
+        <v>2.1</v>
+      </c>
+      <c r="AN75">
+        <v>0.33</v>
+      </c>
+      <c r="AO75">
+        <v>0.5</v>
+      </c>
+      <c r="AP75">
+        <v>1</v>
+      </c>
+      <c r="AQ75">
+        <v>0.33</v>
+      </c>
+      <c r="AR75">
+        <v>1.34</v>
+      </c>
+      <c r="AS75">
+        <v>1.1</v>
+      </c>
+      <c r="AT75">
+        <v>2.44</v>
+      </c>
+      <c r="AU75">
+        <v>9</v>
+      </c>
+      <c r="AV75">
+        <v>7</v>
+      </c>
+      <c r="AW75">
+        <v>4</v>
+      </c>
+      <c r="AX75">
+        <v>6</v>
+      </c>
+      <c r="AY75">
+        <v>13</v>
+      </c>
+      <c r="AZ75">
+        <v>13</v>
+      </c>
+      <c r="BA75">
+        <v>6</v>
+      </c>
+      <c r="BB75">
+        <v>7</v>
+      </c>
+      <c r="BC75">
+        <v>13</v>
+      </c>
+      <c r="BD75">
+        <v>1.45</v>
+      </c>
+      <c r="BE75">
+        <v>6.75</v>
+      </c>
+      <c r="BF75">
+        <v>2.9</v>
+      </c>
+      <c r="BG75">
+        <v>1.24</v>
+      </c>
+      <c r="BH75">
+        <v>3.55</v>
+      </c>
+      <c r="BI75">
+        <v>1.41</v>
+      </c>
+      <c r="BJ75">
+        <v>2.65</v>
+      </c>
+      <c r="BK75">
+        <v>1.67</v>
+      </c>
+      <c r="BL75">
+        <v>2.05</v>
+      </c>
+      <c r="BM75">
+        <v>2.05</v>
+      </c>
+      <c r="BN75">
+        <v>1.67</v>
+      </c>
+      <c r="BO75">
+        <v>2.55</v>
+      </c>
+      <c r="BP75">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7477877</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45556.45833333334</v>
+      </c>
+      <c r="F76">
+        <v>7</v>
+      </c>
+      <c r="G76" t="s">
+        <v>83</v>
+      </c>
+      <c r="H76" t="s">
+        <v>91</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>2</v>
+      </c>
+      <c r="K76">
+        <v>2</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>2</v>
+      </c>
+      <c r="N76">
+        <v>3</v>
+      </c>
+      <c r="O76" t="s">
+        <v>149</v>
+      </c>
+      <c r="P76" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q76">
+        <v>3</v>
+      </c>
+      <c r="R76">
+        <v>2.2</v>
+      </c>
+      <c r="S76">
+        <v>3.5</v>
+      </c>
+      <c r="T76">
+        <v>1.4</v>
+      </c>
+      <c r="U76">
+        <v>2.75</v>
+      </c>
+      <c r="V76">
+        <v>2.75</v>
+      </c>
+      <c r="W76">
+        <v>1.4</v>
+      </c>
+      <c r="X76">
+        <v>8</v>
+      </c>
+      <c r="Y76">
+        <v>1.08</v>
+      </c>
+      <c r="Z76">
+        <v>51</v>
+      </c>
+      <c r="AA76">
+        <v>1</v>
+      </c>
+      <c r="AB76">
+        <v>51</v>
+      </c>
+      <c r="AC76">
+        <v>1.06</v>
+      </c>
+      <c r="AD76">
+        <v>8.5</v>
+      </c>
+      <c r="AE76">
+        <v>1.3</v>
+      </c>
+      <c r="AF76">
+        <v>3.4</v>
+      </c>
+      <c r="AG76">
+        <v>1.91</v>
+      </c>
+      <c r="AH76">
+        <v>1.83</v>
+      </c>
+      <c r="AI76">
+        <v>1.75</v>
+      </c>
+      <c r="AJ76">
+        <v>2</v>
+      </c>
+      <c r="AK76">
+        <v>1.38</v>
+      </c>
+      <c r="AL76">
+        <v>1.28</v>
+      </c>
+      <c r="AM76">
+        <v>1.57</v>
+      </c>
+      <c r="AN76">
+        <v>2.33</v>
+      </c>
+      <c r="AO76">
+        <v>0.5</v>
+      </c>
+      <c r="AP76">
+        <v>1.75</v>
+      </c>
+      <c r="AQ76">
+        <v>1.33</v>
+      </c>
+      <c r="AR76">
+        <v>1.19</v>
+      </c>
+      <c r="AS76">
+        <v>1.78</v>
+      </c>
+      <c r="AT76">
+        <v>2.97</v>
+      </c>
+      <c r="AU76">
+        <v>5</v>
+      </c>
+      <c r="AV76">
+        <v>4</v>
+      </c>
+      <c r="AW76">
+        <v>6</v>
+      </c>
+      <c r="AX76">
+        <v>2</v>
+      </c>
+      <c r="AY76">
+        <v>11</v>
+      </c>
+      <c r="AZ76">
+        <v>6</v>
+      </c>
+      <c r="BA76">
+        <v>4</v>
+      </c>
+      <c r="BB76">
+        <v>1</v>
+      </c>
+      <c r="BC76">
+        <v>5</v>
+      </c>
+      <c r="BD76">
+        <v>1.81</v>
+      </c>
+      <c r="BE76">
+        <v>6.75</v>
+      </c>
+      <c r="BF76">
+        <v>2.05</v>
+      </c>
+      <c r="BG76">
+        <v>1.24</v>
+      </c>
+      <c r="BH76">
+        <v>3.55</v>
+      </c>
+      <c r="BI76">
+        <v>1.43</v>
+      </c>
+      <c r="BJ76">
+        <v>2.6</v>
+      </c>
+      <c r="BK76">
+        <v>1.68</v>
+      </c>
+      <c r="BL76">
+        <v>2.02</v>
+      </c>
+      <c r="BM76">
+        <v>2.08</v>
+      </c>
+      <c r="BN76">
+        <v>1.65</v>
+      </c>
+      <c r="BO76">
+        <v>2.63</v>
+      </c>
+      <c r="BP76">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="192">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -448,9 +448,6 @@
     <t>['10', '33', '63']</t>
   </si>
   <si>
-    <t>['49', '86']</t>
-  </si>
-  <si>
     <t>['80']</t>
   </si>
   <si>
@@ -577,13 +574,7 @@
     <t>['19']</t>
   </si>
   <si>
-    <t>['14', '22']</t>
-  </si>
-  <si>
     <t>['74', '76']</t>
-  </si>
-  <si>
-    <t>['2']</t>
   </si>
   <si>
     <t>['18', '25', '58']</t>
@@ -960,7 +951,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP76"/>
+  <dimension ref="A1:BP74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1219,7 +1210,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1425,7 +1416,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1631,7 +1622,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2043,7 +2034,7 @@
         <v>96</v>
       </c>
       <c r="P6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2249,7 +2240,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2661,7 +2652,7 @@
         <v>100</v>
       </c>
       <c r="P9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2867,7 +2858,7 @@
         <v>101</v>
       </c>
       <c r="P10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3279,7 +3270,7 @@
         <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="Q12">
         <v>2.1</v>
@@ -3691,7 +3682,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4387,7 +4378,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.25</v>
+        <v>1.67</v>
       </c>
       <c r="AQ17">
         <v>0.25</v>
@@ -4515,7 +4506,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4721,7 +4712,7 @@
         <v>108</v>
       </c>
       <c r="P19" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="Q19">
         <v>3.25</v>
@@ -4927,7 +4918,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5133,7 +5124,7 @@
         <v>109</v>
       </c>
       <c r="P21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5339,7 +5330,7 @@
         <v>110</v>
       </c>
       <c r="P22" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -5545,7 +5536,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="Q23">
         <v>2.75</v>
@@ -5751,7 +5742,7 @@
         <v>111</v>
       </c>
       <c r="P24" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -5829,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ24">
         <v>1</v>
@@ -7193,7 +7184,7 @@
         <v>116</v>
       </c>
       <c r="P31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7605,7 +7596,7 @@
         <v>118</v>
       </c>
       <c r="P33" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -8017,7 +8008,7 @@
         <v>120</v>
       </c>
       <c r="P35" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q35">
         <v>4.5</v>
@@ -8223,7 +8214,7 @@
         <v>121</v>
       </c>
       <c r="P36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8429,7 +8420,7 @@
         <v>122</v>
       </c>
       <c r="P37" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -8635,7 +8626,7 @@
         <v>123</v>
       </c>
       <c r="P38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q38">
         <v>2.63</v>
@@ -8841,7 +8832,7 @@
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -8919,7 +8910,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>1.25</v>
+        <v>1.67</v>
       </c>
       <c r="AQ39">
         <v>2</v>
@@ -9665,7 +9656,7 @@
         <v>96</v>
       </c>
       <c r="P43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q43">
         <v>2.63</v>
@@ -9871,7 +9862,7 @@
         <v>127</v>
       </c>
       <c r="P44" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9949,7 +9940,7 @@
         <v>3</v>
       </c>
       <c r="AP44">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ44">
         <v>1.67</v>
@@ -10077,7 +10068,7 @@
         <v>96</v>
       </c>
       <c r="P45" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q45">
         <v>3.6</v>
@@ -10489,7 +10480,7 @@
         <v>96</v>
       </c>
       <c r="P47" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q47">
         <v>2.05</v>
@@ -10695,7 +10686,7 @@
         <v>129</v>
       </c>
       <c r="P48" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q48">
         <v>1.95</v>
@@ -11313,7 +11304,7 @@
         <v>131</v>
       </c>
       <c r="P51" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q51">
         <v>2.3</v>
@@ -11725,7 +11716,7 @@
         <v>133</v>
       </c>
       <c r="P53" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q53">
         <v>2.3</v>
@@ -11803,7 +11794,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ53">
         <v>0</v>
@@ -11931,7 +11922,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q54">
         <v>3.5</v>
@@ -12137,7 +12128,7 @@
         <v>134</v>
       </c>
       <c r="P55" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q55">
         <v>4.5</v>
@@ -12343,7 +12334,7 @@
         <v>135</v>
       </c>
       <c r="P56" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q56">
         <v>2.2</v>
@@ -12421,7 +12412,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>1.25</v>
+        <v>1.67</v>
       </c>
       <c r="AQ56">
         <v>1</v>
@@ -12549,7 +12540,7 @@
         <v>96</v>
       </c>
       <c r="P57" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q57">
         <v>4.33</v>
@@ -12961,7 +12952,7 @@
         <v>137</v>
       </c>
       <c r="P59" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13167,7 +13158,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -13373,7 +13364,7 @@
         <v>96</v>
       </c>
       <c r="P61" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -13579,7 +13570,7 @@
         <v>138</v>
       </c>
       <c r="P62" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q62">
         <v>2.2</v>
@@ -13785,7 +13776,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q63">
         <v>2.88</v>
@@ -13991,7 +13982,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Q64">
         <v>2.5</v>
@@ -14609,16 +14600,16 @@
         <v>141</v>
       </c>
       <c r="P67" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q67">
         <v>1.95</v>
       </c>
       <c r="R67">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="S67">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="T67">
         <v>1.3</v>
@@ -14639,13 +14630,13 @@
         <v>1.13</v>
       </c>
       <c r="Z67">
-        <v>51</v>
+        <v>1.45</v>
       </c>
       <c r="AA67">
-        <v>1</v>
+        <v>4.33</v>
       </c>
       <c r="AB67">
-        <v>51</v>
+        <v>6.5</v>
       </c>
       <c r="AC67">
         <v>1.01</v>
@@ -14654,31 +14645,31 @@
         <v>9.9</v>
       </c>
       <c r="AE67">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AF67">
-        <v>3.98</v>
+        <v>4.15</v>
       </c>
       <c r="AG67">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="AH67">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AI67">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AJ67">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AK67">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="AL67">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="AM67">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="AN67">
         <v>3</v>
@@ -14738,34 +14729,34 @@
         <v>3.65</v>
       </c>
       <c r="BG67">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="BH67">
-        <v>3.45</v>
+        <v>3.86</v>
       </c>
       <c r="BI67">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="BJ67">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="BK67">
-        <v>1.71</v>
+        <v>1.68</v>
       </c>
       <c r="BL67">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="BM67">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="BN67">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="BO67">
         <v>2.65</v>
       </c>
       <c r="BP67">
-        <v>1.41</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="68" spans="1:68">
@@ -14815,22 +14806,22 @@
         <v>142</v>
       </c>
       <c r="P68" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q68">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="R68">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S68">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="T68">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U68">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V68">
         <v>2.75</v>
@@ -14839,19 +14830,19 @@
         <v>1.4</v>
       </c>
       <c r="X68">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y68">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z68">
-        <v>51</v>
+        <v>1.62</v>
       </c>
       <c r="AA68">
-        <v>1</v>
+        <v>3.8</v>
       </c>
       <c r="AB68">
-        <v>51</v>
+        <v>5.5</v>
       </c>
       <c r="AC68">
         <v>1.02</v>
@@ -14860,31 +14851,31 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AE68">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AF68">
-        <v>3.28</v>
+        <v>3.22</v>
       </c>
       <c r="AG68">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AH68">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="AI68">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AJ68">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AK68">
         <v>1.18</v>
       </c>
       <c r="AL68">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AM68">
-        <v>2.15</v>
+        <v>2.26</v>
       </c>
       <c r="AN68">
         <v>1.5</v>
@@ -14935,13 +14926,13 @@
         <v>11</v>
       </c>
       <c r="BD68">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="BE68">
         <v>6.75</v>
       </c>
       <c r="BF68">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="BG68">
         <v>1.21</v>
@@ -14950,28 +14941,28 @@
         <v>3.8</v>
       </c>
       <c r="BI68">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="BJ68">
-        <v>2.75</v>
+        <v>3.05</v>
       </c>
       <c r="BK68">
-        <v>1.64</v>
+        <v>1.59</v>
       </c>
       <c r="BL68">
-        <v>2.1</v>
+        <v>2.22</v>
       </c>
       <c r="BM68">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="BN68">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="BO68">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="BP68">
-        <v>1.46</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="69" spans="1:68">
@@ -14979,7 +14970,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>7477883</v>
+        <v>7477882</v>
       </c>
       <c r="C69" t="s">
         <v>68</v>
@@ -14994,127 +14985,127 @@
         <v>7</v>
       </c>
       <c r="G69" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="H69" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K69">
         <v>2</v>
       </c>
       <c r="L69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M69">
         <v>2</v>
       </c>
       <c r="N69">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O69" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="P69" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q69">
-        <v>3.75</v>
+        <v>2.05</v>
       </c>
       <c r="R69">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="S69">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="T69">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="U69">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="V69">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="W69">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="X69">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="Y69">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="Z69">
-        <v>51</v>
+        <v>1.53</v>
       </c>
       <c r="AA69">
-        <v>1</v>
+        <v>4.1</v>
       </c>
       <c r="AB69">
-        <v>51</v>
+        <v>5.75</v>
       </c>
       <c r="AC69">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AD69">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE69">
-        <v>1.25</v>
+        <v>1.12</v>
       </c>
       <c r="AF69">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="AG69">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="AH69">
-        <v>1.95</v>
+        <v>2.35</v>
       </c>
       <c r="AI69">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AJ69">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AK69">
-        <v>1.75</v>
+        <v>1.17</v>
       </c>
       <c r="AL69">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AM69">
-        <v>1.35</v>
+        <v>2.27</v>
       </c>
       <c r="AN69">
-        <v>1.67</v>
+        <v>0.33</v>
       </c>
       <c r="AO69">
-        <v>3</v>
+        <v>0.33</v>
       </c>
       <c r="AP69">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ69">
-        <v>3</v>
+        <v>0.25</v>
       </c>
       <c r="AR69">
-        <v>1.79</v>
+        <v>0.98</v>
       </c>
       <c r="AS69">
-        <v>1.27</v>
+        <v>0.92</v>
       </c>
       <c r="AT69">
-        <v>3.06</v>
+        <v>1.9</v>
       </c>
       <c r="AU69">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AV69">
         <v>5</v>
@@ -15123,31 +15114,31 @@
         <v>4</v>
       </c>
       <c r="AX69">
+        <v>6</v>
+      </c>
+      <c r="AY69">
+        <v>13</v>
+      </c>
+      <c r="AZ69">
+        <v>11</v>
+      </c>
+      <c r="BA69">
+        <v>2</v>
+      </c>
+      <c r="BB69">
         <v>5</v>
       </c>
-      <c r="AY69">
-        <v>6</v>
-      </c>
-      <c r="AZ69">
-        <v>10</v>
-      </c>
-      <c r="BA69">
-        <v>9</v>
-      </c>
-      <c r="BB69">
-        <v>8</v>
-      </c>
       <c r="BC69">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="BD69">
-        <v>2.23</v>
+        <v>1.32</v>
       </c>
       <c r="BE69">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="BF69">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="BG69">
         <v>1.19</v>
@@ -15156,28 +15147,28 @@
         <v>4.1</v>
       </c>
       <c r="BI69">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="BJ69">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="BK69">
-        <v>1.56</v>
+        <v>1.42</v>
       </c>
       <c r="BL69">
-        <v>2.23</v>
+        <v>2.65</v>
       </c>
       <c r="BM69">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="BN69">
-        <v>1.85</v>
+        <v>2.03</v>
       </c>
       <c r="BO69">
-        <v>2.33</v>
+        <v>2.13</v>
       </c>
       <c r="BP69">
-        <v>1.52</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="70" spans="1:68">
@@ -15185,7 +15176,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>7477882</v>
+        <v>7477879</v>
       </c>
       <c r="C70" t="s">
         <v>68</v>
@@ -15200,190 +15191,190 @@
         <v>7</v>
       </c>
       <c r="G70" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="H70" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K70">
         <v>2</v>
       </c>
       <c r="L70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O70" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P70" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q70">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="R70">
         <v>2.5</v>
       </c>
       <c r="S70">
+        <v>7.5</v>
+      </c>
+      <c r="T70">
+        <v>1.3</v>
+      </c>
+      <c r="U70">
+        <v>3.4</v>
+      </c>
+      <c r="V70">
+        <v>2.38</v>
+      </c>
+      <c r="W70">
+        <v>1.53</v>
+      </c>
+      <c r="X70">
+        <v>6</v>
+      </c>
+      <c r="Y70">
+        <v>1.13</v>
+      </c>
+      <c r="Z70">
+        <v>1.33</v>
+      </c>
+      <c r="AA70">
         <v>4.75</v>
       </c>
-      <c r="T70">
-        <v>1.29</v>
-      </c>
-      <c r="U70">
-        <v>3.5</v>
-      </c>
-      <c r="V70">
-        <v>2.25</v>
-      </c>
-      <c r="W70">
-        <v>1.57</v>
-      </c>
-      <c r="X70">
-        <v>5.5</v>
-      </c>
-      <c r="Y70">
+      <c r="AB70">
+        <v>8</v>
+      </c>
+      <c r="AC70">
+        <v>1.04</v>
+      </c>
+      <c r="AD70">
+        <v>10</v>
+      </c>
+      <c r="AE70">
+        <v>1.22</v>
+      </c>
+      <c r="AF70">
+        <v>4.2</v>
+      </c>
+      <c r="AG70">
+        <v>1.65</v>
+      </c>
+      <c r="AH70">
+        <v>2.2</v>
+      </c>
+      <c r="AI70">
+        <v>1.95</v>
+      </c>
+      <c r="AJ70">
+        <v>1.8</v>
+      </c>
+      <c r="AK70">
+        <v>1.07</v>
+      </c>
+      <c r="AL70">
+        <v>1.12</v>
+      </c>
+      <c r="AM70">
+        <v>2.95</v>
+      </c>
+      <c r="AN70">
+        <v>3</v>
+      </c>
+      <c r="AO70">
+        <v>0.5</v>
+      </c>
+      <c r="AP70">
+        <v>2</v>
+      </c>
+      <c r="AQ70">
+        <v>1.33</v>
+      </c>
+      <c r="AR70">
+        <v>1.27</v>
+      </c>
+      <c r="AS70">
         <v>1.14</v>
       </c>
-      <c r="Z70">
-        <v>51</v>
-      </c>
-      <c r="AA70">
-        <v>1</v>
-      </c>
-      <c r="AB70">
-        <v>51</v>
-      </c>
-      <c r="AC70">
-        <v>1.02</v>
-      </c>
-      <c r="AD70">
-        <v>19</v>
-      </c>
-      <c r="AE70">
-        <v>1.14</v>
-      </c>
-      <c r="AF70">
-        <v>4.6</v>
-      </c>
-      <c r="AG70">
-        <v>1.55</v>
-      </c>
-      <c r="AH70">
-        <v>2.3</v>
-      </c>
-      <c r="AI70">
-        <v>1.62</v>
-      </c>
-      <c r="AJ70">
-        <v>2.2</v>
-      </c>
-      <c r="AK70">
-        <v>1.17</v>
-      </c>
-      <c r="AL70">
-        <v>1.23</v>
-      </c>
-      <c r="AM70">
-        <v>2.27</v>
-      </c>
-      <c r="AN70">
-        <v>0.33</v>
-      </c>
-      <c r="AO70">
-        <v>0.33</v>
-      </c>
-      <c r="AP70">
-        <v>1</v>
-      </c>
-      <c r="AQ70">
-        <v>0.25</v>
-      </c>
-      <c r="AR70">
-        <v>0.98</v>
-      </c>
-      <c r="AS70">
-        <v>0.92</v>
-      </c>
       <c r="AT70">
-        <v>1.9</v>
+        <v>2.41</v>
       </c>
       <c r="AU70">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AV70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW70">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX70">
+        <v>2</v>
+      </c>
+      <c r="AY70">
+        <v>12</v>
+      </c>
+      <c r="AZ70">
         <v>6</v>
       </c>
-      <c r="AY70">
-        <v>13</v>
-      </c>
-      <c r="AZ70">
-        <v>11</v>
-      </c>
       <c r="BA70">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BB70">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BC70">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD70">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="BE70">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="BF70">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="BG70">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="BH70">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="BI70">
+        <v>1.39</v>
+      </c>
+      <c r="BJ70">
+        <v>2.67</v>
+      </c>
+      <c r="BK70">
+        <v>1.72</v>
+      </c>
+      <c r="BL70">
+        <v>2.05</v>
+      </c>
+      <c r="BM70">
+        <v>2.14</v>
+      </c>
+      <c r="BN70">
+        <v>1.6</v>
+      </c>
+      <c r="BO70">
+        <v>2.73</v>
+      </c>
+      <c r="BP70">
         <v>1.33</v>
-      </c>
-      <c r="BJ70">
-        <v>2.95</v>
-      </c>
-      <c r="BK70">
-        <v>1.54</v>
-      </c>
-      <c r="BL70">
-        <v>2.28</v>
-      </c>
-      <c r="BM70">
-        <v>2</v>
-      </c>
-      <c r="BN70">
-        <v>1.8</v>
-      </c>
-      <c r="BO70">
-        <v>2.28</v>
-      </c>
-      <c r="BP70">
-        <v>1.55</v>
       </c>
     </row>
     <row r="71" spans="1:68">
@@ -15391,7 +15382,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>7477881</v>
+        <v>7477884</v>
       </c>
       <c r="C71" t="s">
         <v>68</v>
@@ -15406,148 +15397,148 @@
         <v>7</v>
       </c>
       <c r="G71" t="s">
-        <v>92</v>
+        <v>73</v>
       </c>
       <c r="H71" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M71">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N71">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O71" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P71" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q71">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="R71">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S71">
         <v>5</v>
       </c>
       <c r="T71">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="U71">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V71">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="W71">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="X71">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="Y71">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="Z71">
-        <v>51</v>
+        <v>1.75</v>
       </c>
       <c r="AA71">
-        <v>1</v>
+        <v>3.4</v>
       </c>
       <c r="AB71">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="AC71">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="AD71">
-        <v>9.9</v>
+        <v>8.5</v>
       </c>
       <c r="AE71">
-        <v>1.18</v>
+        <v>1.35</v>
       </c>
       <c r="AF71">
-        <v>3.82</v>
+        <v>3.1</v>
       </c>
       <c r="AG71">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="AH71">
+        <v>1.75</v>
+      </c>
+      <c r="AI71">
+        <v>1.95</v>
+      </c>
+      <c r="AJ71">
+        <v>1.8</v>
+      </c>
+      <c r="AK71">
+        <v>1.13</v>
+      </c>
+      <c r="AL71">
+        <v>1.25</v>
+      </c>
+      <c r="AM71">
         <v>2.05</v>
       </c>
-      <c r="AI71">
-        <v>1.7</v>
-      </c>
-      <c r="AJ71">
-        <v>2.05</v>
-      </c>
-      <c r="AK71">
-        <v>1.18</v>
-      </c>
-      <c r="AL71">
-        <v>1.29</v>
-      </c>
-      <c r="AM71">
-        <v>2.1</v>
-      </c>
       <c r="AN71">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="AO71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP71">
         <v>2</v>
       </c>
       <c r="AQ71">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR71">
-        <v>1.39</v>
+        <v>1.92</v>
       </c>
       <c r="AS71">
-        <v>0.9</v>
+        <v>0.92</v>
       </c>
       <c r="AT71">
-        <v>2.29</v>
+        <v>2.84</v>
       </c>
       <c r="AU71">
+        <v>4</v>
+      </c>
+      <c r="AV71">
         <v>6</v>
       </c>
-      <c r="AV71">
-        <v>7</v>
-      </c>
       <c r="AW71">
+        <v>9</v>
+      </c>
+      <c r="AX71">
+        <v>4</v>
+      </c>
+      <c r="AY71">
+        <v>13</v>
+      </c>
+      <c r="AZ71">
+        <v>10</v>
+      </c>
+      <c r="BA71">
         <v>6</v>
       </c>
-      <c r="AX71">
-        <v>2</v>
-      </c>
-      <c r="AY71">
-        <v>12</v>
-      </c>
-      <c r="AZ71">
-        <v>9</v>
-      </c>
-      <c r="BA71">
-        <v>3</v>
-      </c>
       <c r="BB71">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BC71">
         <v>7</v>
@@ -15556,40 +15547,40 @@
         <v>1.45</v>
       </c>
       <c r="BE71">
-        <v>6.75</v>
+        <v>6.5</v>
       </c>
       <c r="BF71">
         <v>2.9</v>
       </c>
       <c r="BG71">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="BH71">
-        <v>3.55</v>
+        <v>3.04</v>
       </c>
       <c r="BI71">
-        <v>1.41</v>
+        <v>1.53</v>
       </c>
       <c r="BJ71">
-        <v>2.65</v>
+        <v>2.27</v>
       </c>
       <c r="BK71">
-        <v>1.66</v>
+        <v>1.96</v>
       </c>
       <c r="BL71">
-        <v>2.06</v>
+        <v>1.79</v>
       </c>
       <c r="BM71">
-        <v>2.05</v>
+        <v>2.51</v>
       </c>
       <c r="BN71">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="BO71">
-        <v>2.55</v>
+        <v>3.35</v>
       </c>
       <c r="BP71">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="72" spans="1:68">
@@ -15597,7 +15588,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>7477879</v>
+        <v>7477875</v>
       </c>
       <c r="C72" t="s">
         <v>68</v>
@@ -15612,70 +15603,70 @@
         <v>7</v>
       </c>
       <c r="G72" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="H72" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="I72">
         <v>0</v>
       </c>
       <c r="J72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L72">
         <v>1</v>
       </c>
       <c r="M72">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N72">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O72" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="P72" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q72">
-        <v>1.91</v>
+        <v>4.33</v>
       </c>
       <c r="R72">
+        <v>2.38</v>
+      </c>
+      <c r="S72">
         <v>2.4</v>
       </c>
-      <c r="S72">
-        <v>7</v>
-      </c>
       <c r="T72">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U72">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V72">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W72">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X72">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y72">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="Z72">
-        <v>51</v>
+        <v>4.2</v>
       </c>
       <c r="AA72">
-        <v>1</v>
+        <v>3.6</v>
       </c>
       <c r="AB72">
-        <v>51</v>
+        <v>1.8</v>
       </c>
       <c r="AC72">
         <v>1.04</v>
@@ -15684,118 +15675,118 @@
         <v>10</v>
       </c>
       <c r="AE72">
+        <v>1.22</v>
+      </c>
+      <c r="AF72">
+        <v>4.2</v>
+      </c>
+      <c r="AG72">
+        <v>1.67</v>
+      </c>
+      <c r="AH72">
+        <v>2.15</v>
+      </c>
+      <c r="AI72">
+        <v>1.62</v>
+      </c>
+      <c r="AJ72">
+        <v>2.2</v>
+      </c>
+      <c r="AK72">
+        <v>1.85</v>
+      </c>
+      <c r="AL72">
+        <v>1.22</v>
+      </c>
+      <c r="AM72">
         <v>1.25</v>
       </c>
-      <c r="AF72">
-        <v>3.85</v>
-      </c>
-      <c r="AG72">
+      <c r="AN72">
+        <v>0.5</v>
+      </c>
+      <c r="AO72">
+        <v>2</v>
+      </c>
+      <c r="AP72">
+        <v>0.33</v>
+      </c>
+      <c r="AQ72">
+        <v>2.25</v>
+      </c>
+      <c r="AR72">
+        <v>0.86</v>
+      </c>
+      <c r="AS72">
+        <v>1</v>
+      </c>
+      <c r="AT72">
+        <v>1.86</v>
+      </c>
+      <c r="AU72">
+        <v>4</v>
+      </c>
+      <c r="AV72">
+        <v>7</v>
+      </c>
+      <c r="AW72">
+        <v>3</v>
+      </c>
+      <c r="AX72">
+        <v>4</v>
+      </c>
+      <c r="AY72">
+        <v>7</v>
+      </c>
+      <c r="AZ72">
+        <v>11</v>
+      </c>
+      <c r="BA72">
+        <v>3</v>
+      </c>
+      <c r="BB72">
+        <v>4</v>
+      </c>
+      <c r="BC72">
+        <v>7</v>
+      </c>
+      <c r="BD72">
+        <v>2.15</v>
+      </c>
+      <c r="BE72">
+        <v>6.5</v>
+      </c>
+      <c r="BF72">
         <v>1.75</v>
       </c>
-      <c r="AH72">
-        <v>1.95</v>
-      </c>
-      <c r="AI72">
-        <v>2</v>
-      </c>
-      <c r="AJ72">
-        <v>1.75</v>
-      </c>
-      <c r="AK72">
-        <v>1.08</v>
-      </c>
-      <c r="AL72">
-        <v>1.15</v>
-      </c>
-      <c r="AM72">
-        <v>2.85</v>
-      </c>
-      <c r="AN72">
-        <v>3</v>
-      </c>
-      <c r="AO72">
-        <v>0.5</v>
-      </c>
-      <c r="AP72">
-        <v>2</v>
-      </c>
-      <c r="AQ72">
-        <v>1.33</v>
-      </c>
-      <c r="AR72">
+      <c r="BG72">
         <v>1.27</v>
-      </c>
-      <c r="AS72">
-        <v>1.14</v>
-      </c>
-      <c r="AT72">
-        <v>2.41</v>
-      </c>
-      <c r="AU72">
-        <v>5</v>
-      </c>
-      <c r="AV72">
-        <v>4</v>
-      </c>
-      <c r="AW72">
-        <v>7</v>
-      </c>
-      <c r="AX72">
-        <v>2</v>
-      </c>
-      <c r="AY72">
-        <v>12</v>
-      </c>
-      <c r="AZ72">
-        <v>6</v>
-      </c>
-      <c r="BA72">
-        <v>7</v>
-      </c>
-      <c r="BB72">
-        <v>1</v>
-      </c>
-      <c r="BC72">
-        <v>8</v>
-      </c>
-      <c r="BD72">
-        <v>1.26</v>
-      </c>
-      <c r="BE72">
-        <v>7.5</v>
-      </c>
-      <c r="BF72">
-        <v>3.8</v>
-      </c>
-      <c r="BG72">
-        <v>1.28</v>
       </c>
       <c r="BH72">
         <v>3.3</v>
       </c>
       <c r="BI72">
-        <v>1.48</v>
+        <v>1.33</v>
       </c>
       <c r="BJ72">
-        <v>2.43</v>
+        <v>3.05</v>
       </c>
       <c r="BK72">
-        <v>1.77</v>
+        <v>1.6</v>
       </c>
       <c r="BL72">
-        <v>1.92</v>
+        <v>2.2</v>
       </c>
       <c r="BM72">
-        <v>2.18</v>
+        <v>2.03</v>
       </c>
       <c r="BN72">
-        <v>1.58</v>
+        <v>1.7</v>
       </c>
       <c r="BO72">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="BP72">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="73" spans="1:68">
@@ -15803,7 +15794,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>7477884</v>
+        <v>7477874</v>
       </c>
       <c r="C73" t="s">
         <v>68</v>
@@ -15818,49 +15809,49 @@
         <v>7</v>
       </c>
       <c r="G73" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="H73" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K73">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L73">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M73">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N73">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O73" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P73" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q73">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R73">
         <v>2.3</v>
       </c>
       <c r="S73">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="T73">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U73">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V73">
         <v>2.63</v>
@@ -15869,139 +15860,139 @@
         <v>1.44</v>
       </c>
       <c r="X73">
+        <v>6.5</v>
+      </c>
+      <c r="Y73">
+        <v>1.11</v>
+      </c>
+      <c r="Z73">
+        <v>1.75</v>
+      </c>
+      <c r="AA73">
+        <v>3.75</v>
+      </c>
+      <c r="AB73">
+        <v>4.4</v>
+      </c>
+      <c r="AC73">
+        <v>1.01</v>
+      </c>
+      <c r="AD73">
+        <v>11</v>
+      </c>
+      <c r="AE73">
+        <v>1.21</v>
+      </c>
+      <c r="AF73">
+        <v>3.75</v>
+      </c>
+      <c r="AG73">
+        <v>1.67</v>
+      </c>
+      <c r="AH73">
+        <v>2.05</v>
+      </c>
+      <c r="AI73">
+        <v>1.7</v>
+      </c>
+      <c r="AJ73">
+        <v>2.05</v>
+      </c>
+      <c r="AK73">
+        <v>1.22</v>
+      </c>
+      <c r="AL73">
+        <v>1.25</v>
+      </c>
+      <c r="AM73">
+        <v>2.1</v>
+      </c>
+      <c r="AN73">
+        <v>0.33</v>
+      </c>
+      <c r="AO73">
+        <v>0.5</v>
+      </c>
+      <c r="AP73">
+        <v>1</v>
+      </c>
+      <c r="AQ73">
+        <v>0.33</v>
+      </c>
+      <c r="AR73">
+        <v>1.34</v>
+      </c>
+      <c r="AS73">
+        <v>1.1</v>
+      </c>
+      <c r="AT73">
+        <v>2.44</v>
+      </c>
+      <c r="AU73">
+        <v>9</v>
+      </c>
+      <c r="AV73">
         <v>7</v>
       </c>
-      <c r="Y73">
-        <v>1.1</v>
-      </c>
-      <c r="Z73">
-        <v>51</v>
-      </c>
-      <c r="AA73">
-        <v>1</v>
-      </c>
-      <c r="AB73">
-        <v>51</v>
-      </c>
-      <c r="AC73">
-        <v>1.05</v>
-      </c>
-      <c r="AD73">
-        <v>9.5</v>
-      </c>
-      <c r="AE73">
-        <v>1.28</v>
-      </c>
-      <c r="AF73">
-        <v>3.65</v>
-      </c>
-      <c r="AG73">
-        <v>1.8</v>
-      </c>
-      <c r="AH73">
-        <v>1.91</v>
-      </c>
-      <c r="AI73">
-        <v>1.8</v>
-      </c>
-      <c r="AJ73">
-        <v>1.95</v>
-      </c>
-      <c r="AK73">
-        <v>1.13</v>
-      </c>
-      <c r="AL73">
-        <v>1.2</v>
-      </c>
-      <c r="AM73">
-        <v>2.35</v>
-      </c>
-      <c r="AN73">
-        <v>3</v>
-      </c>
-      <c r="AO73">
-        <v>1</v>
-      </c>
-      <c r="AP73">
-        <v>2</v>
-      </c>
-      <c r="AQ73">
-        <v>1.5</v>
-      </c>
-      <c r="AR73">
-        <v>1.92</v>
-      </c>
-      <c r="AS73">
-        <v>0.92</v>
-      </c>
-      <c r="AT73">
-        <v>2.84</v>
-      </c>
-      <c r="AU73">
+      <c r="AW73">
         <v>4</v>
       </c>
-      <c r="AV73">
+      <c r="AX73">
         <v>6</v>
-      </c>
-      <c r="AW73">
-        <v>9</v>
-      </c>
-      <c r="AX73">
-        <v>4</v>
       </c>
       <c r="AY73">
         <v>13</v>
       </c>
       <c r="AZ73">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA73">
         <v>6</v>
       </c>
       <c r="BB73">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="BC73">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BD73">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="BE73">
-        <v>6.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF73">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="BG73">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="BH73">
-        <v>3.05</v>
+        <v>3.55</v>
       </c>
       <c r="BI73">
-        <v>1.55</v>
+        <v>1.41</v>
       </c>
       <c r="BJ73">
-        <v>2.25</v>
+        <v>2.65</v>
       </c>
       <c r="BK73">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="BL73">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="BM73">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="BN73">
-        <v>1.49</v>
+        <v>1.67</v>
       </c>
       <c r="BO73">
-        <v>3.15</v>
+        <v>2.55</v>
       </c>
       <c r="BP73">
-        <v>1.3</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="74" spans="1:68">
@@ -16009,7 +16000,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>7477875</v>
+        <v>7477877</v>
       </c>
       <c r="C74" t="s">
         <v>68</v>
@@ -16024,19 +16015,19 @@
         <v>7</v>
       </c>
       <c r="G74" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="H74" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="J74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L74">
         <v>1</v>
@@ -16048,578 +16039,166 @@
         <v>3</v>
       </c>
       <c r="O74" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="P74" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q74">
+        <v>3.1</v>
+      </c>
+      <c r="R74">
+        <v>2.2</v>
+      </c>
+      <c r="S74">
+        <v>3.4</v>
+      </c>
+      <c r="T74">
+        <v>1.36</v>
+      </c>
+      <c r="U74">
+        <v>3</v>
+      </c>
+      <c r="V74">
+        <v>2.75</v>
+      </c>
+      <c r="W74">
+        <v>1.4</v>
+      </c>
+      <c r="X74">
+        <v>8</v>
+      </c>
+      <c r="Y74">
+        <v>1.08</v>
+      </c>
+      <c r="Z74">
+        <v>2.4</v>
+      </c>
+      <c r="AA74">
+        <v>3.4</v>
+      </c>
+      <c r="AB74">
+        <v>2.8</v>
+      </c>
+      <c r="AC74">
+        <v>1.05</v>
+      </c>
+      <c r="AD74">
+        <v>9</v>
+      </c>
+      <c r="AE74">
+        <v>1.3</v>
+      </c>
+      <c r="AF74">
+        <v>3.45</v>
+      </c>
+      <c r="AG74">
+        <v>1.95</v>
+      </c>
+      <c r="AH74">
+        <v>1.85</v>
+      </c>
+      <c r="AI74">
+        <v>1.7</v>
+      </c>
+      <c r="AJ74">
+        <v>2.05</v>
+      </c>
+      <c r="AK74">
+        <v>1.38</v>
+      </c>
+      <c r="AL74">
+        <v>1.25</v>
+      </c>
+      <c r="AM74">
+        <v>1.57</v>
+      </c>
+      <c r="AN74">
+        <v>2.33</v>
+      </c>
+      <c r="AO74">
+        <v>0.5</v>
+      </c>
+      <c r="AP74">
+        <v>1.75</v>
+      </c>
+      <c r="AQ74">
+        <v>1.33</v>
+      </c>
+      <c r="AR74">
+        <v>1.19</v>
+      </c>
+      <c r="AS74">
+        <v>1.78</v>
+      </c>
+      <c r="AT74">
+        <v>2.97</v>
+      </c>
+      <c r="AU74">
+        <v>5</v>
+      </c>
+      <c r="AV74">
         <v>4</v>
       </c>
-      <c r="R74">
-        <v>2.3</v>
-      </c>
-      <c r="S74">
-        <v>2.5</v>
-      </c>
-      <c r="T74">
-        <v>1.33</v>
-      </c>
-      <c r="U74">
-        <v>3.25</v>
-      </c>
-      <c r="V74">
-        <v>2.5</v>
-      </c>
-      <c r="W74">
-        <v>1.5</v>
-      </c>
-      <c r="X74">
+      <c r="AW74">
         <v>6</v>
       </c>
-      <c r="Y74">
-        <v>1.13</v>
-      </c>
-      <c r="Z74">
-        <v>51</v>
-      </c>
-      <c r="AA74">
-        <v>1</v>
-      </c>
-      <c r="AB74">
-        <v>51</v>
-      </c>
-      <c r="AC74">
-        <v>1.04</v>
-      </c>
-      <c r="AD74">
-        <v>10</v>
-      </c>
-      <c r="AE74">
-        <v>1.22</v>
-      </c>
-      <c r="AF74">
-        <v>4.2</v>
-      </c>
-      <c r="AG74">
-        <v>1.65</v>
-      </c>
-      <c r="AH74">
-        <v>2.1</v>
-      </c>
-      <c r="AI74">
-        <v>1.62</v>
-      </c>
-      <c r="AJ74">
-        <v>2.2</v>
-      </c>
-      <c r="AK74">
-        <v>1.85</v>
-      </c>
-      <c r="AL74">
-        <v>1.22</v>
-      </c>
-      <c r="AM74">
-        <v>1.25</v>
-      </c>
-      <c r="AN74">
-        <v>0.5</v>
-      </c>
-      <c r="AO74">
-        <v>2</v>
-      </c>
-      <c r="AP74">
-        <v>0.33</v>
-      </c>
-      <c r="AQ74">
+      <c r="AX74">
+        <v>2</v>
+      </c>
+      <c r="AY74">
+        <v>11</v>
+      </c>
+      <c r="AZ74">
+        <v>6</v>
+      </c>
+      <c r="BA74">
+        <v>4</v>
+      </c>
+      <c r="BB74">
+        <v>1</v>
+      </c>
+      <c r="BC74">
+        <v>5</v>
+      </c>
+      <c r="BD74">
+        <v>1.81</v>
+      </c>
+      <c r="BE74">
+        <v>6.75</v>
+      </c>
+      <c r="BF74">
+        <v>2.05</v>
+      </c>
+      <c r="BG74">
+        <v>1.24</v>
+      </c>
+      <c r="BH74">
+        <v>3.55</v>
+      </c>
+      <c r="BI74">
+        <v>1.34</v>
+      </c>
+      <c r="BJ74">
+        <v>3</v>
+      </c>
+      <c r="BK74">
+        <v>1.57</v>
+      </c>
+      <c r="BL74">
         <v>2.25</v>
       </c>
-      <c r="AR74">
-        <v>0.86</v>
-      </c>
-      <c r="AS74">
-        <v>1</v>
-      </c>
-      <c r="AT74">
-        <v>1.86</v>
-      </c>
-      <c r="AU74">
-        <v>4</v>
-      </c>
-      <c r="AV74">
-        <v>7</v>
-      </c>
-      <c r="AW74">
-        <v>3</v>
-      </c>
-      <c r="AX74">
-        <v>4</v>
-      </c>
-      <c r="AY74">
-        <v>7</v>
-      </c>
-      <c r="AZ74">
-        <v>11</v>
-      </c>
-      <c r="BA74">
-        <v>3</v>
-      </c>
-      <c r="BB74">
-        <v>4</v>
-      </c>
-      <c r="BC74">
-        <v>7</v>
-      </c>
-      <c r="BD74">
-        <v>2.15</v>
-      </c>
-      <c r="BE74">
-        <v>6.5</v>
-      </c>
-      <c r="BF74">
-        <v>1.75</v>
-      </c>
-      <c r="BG74">
-        <v>1.27</v>
-      </c>
-      <c r="BH74">
-        <v>3.3</v>
-      </c>
-      <c r="BI74">
-        <v>1.49</v>
-      </c>
-      <c r="BJ74">
-        <v>2.4</v>
-      </c>
-      <c r="BK74">
-        <v>1.79</v>
-      </c>
-      <c r="BL74">
-        <v>1.9</v>
-      </c>
       <c r="BM74">
-        <v>2.23</v>
+        <v>2.03</v>
       </c>
       <c r="BN74">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="BO74">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="BP74">
-        <v>1.36</v>
-      </c>
-    </row>
-    <row r="75" spans="1:68">
-      <c r="A75" s="1">
-        <v>74</v>
-      </c>
-      <c r="B75">
-        <v>7477874</v>
-      </c>
-      <c r="C75" t="s">
-        <v>68</v>
-      </c>
-      <c r="D75" t="s">
-        <v>69</v>
-      </c>
-      <c r="E75" s="2">
-        <v>45556.45833333334</v>
-      </c>
-      <c r="F75">
-        <v>7</v>
-      </c>
-      <c r="G75" t="s">
-        <v>93</v>
-      </c>
-      <c r="H75" t="s">
-        <v>84</v>
-      </c>
-      <c r="I75">
-        <v>4</v>
-      </c>
-      <c r="J75">
-        <v>1</v>
-      </c>
-      <c r="K75">
-        <v>5</v>
-      </c>
-      <c r="L75">
-        <v>5</v>
-      </c>
-      <c r="M75">
-        <v>2</v>
-      </c>
-      <c r="N75">
-        <v>7</v>
-      </c>
-      <c r="O75" t="s">
-        <v>148</v>
-      </c>
-      <c r="P75" t="s">
-        <v>193</v>
-      </c>
-      <c r="Q75">
-        <v>2.3</v>
-      </c>
-      <c r="R75">
-        <v>2.3</v>
-      </c>
-      <c r="S75">
-        <v>4.5</v>
-      </c>
-      <c r="T75">
-        <v>1.33</v>
-      </c>
-      <c r="U75">
-        <v>3.25</v>
-      </c>
-      <c r="V75">
-        <v>2.63</v>
-      </c>
-      <c r="W75">
-        <v>1.44</v>
-      </c>
-      <c r="X75">
-        <v>6.5</v>
-      </c>
-      <c r="Y75">
-        <v>1.11</v>
-      </c>
-      <c r="Z75">
-        <v>1.75</v>
-      </c>
-      <c r="AA75">
-        <v>3.75</v>
-      </c>
-      <c r="AB75">
-        <v>4.4</v>
-      </c>
-      <c r="AC75">
-        <v>1.01</v>
-      </c>
-      <c r="AD75">
-        <v>11</v>
-      </c>
-      <c r="AE75">
-        <v>1.21</v>
-      </c>
-      <c r="AF75">
-        <v>3.75</v>
-      </c>
-      <c r="AG75">
-        <v>1.67</v>
-      </c>
-      <c r="AH75">
-        <v>2.05</v>
-      </c>
-      <c r="AI75">
-        <v>1.7</v>
-      </c>
-      <c r="AJ75">
-        <v>2.05</v>
-      </c>
-      <c r="AK75">
-        <v>1.22</v>
-      </c>
-      <c r="AL75">
-        <v>1.25</v>
-      </c>
-      <c r="AM75">
-        <v>2.1</v>
-      </c>
-      <c r="AN75">
-        <v>0.33</v>
-      </c>
-      <c r="AO75">
-        <v>0.5</v>
-      </c>
-      <c r="AP75">
-        <v>1</v>
-      </c>
-      <c r="AQ75">
-        <v>0.33</v>
-      </c>
-      <c r="AR75">
-        <v>1.34</v>
-      </c>
-      <c r="AS75">
-        <v>1.1</v>
-      </c>
-      <c r="AT75">
-        <v>2.44</v>
-      </c>
-      <c r="AU75">
-        <v>9</v>
-      </c>
-      <c r="AV75">
-        <v>7</v>
-      </c>
-      <c r="AW75">
-        <v>4</v>
-      </c>
-      <c r="AX75">
-        <v>6</v>
-      </c>
-      <c r="AY75">
-        <v>13</v>
-      </c>
-      <c r="AZ75">
-        <v>13</v>
-      </c>
-      <c r="BA75">
-        <v>6</v>
-      </c>
-      <c r="BB75">
-        <v>7</v>
-      </c>
-      <c r="BC75">
-        <v>13</v>
-      </c>
-      <c r="BD75">
-        <v>1.45</v>
-      </c>
-      <c r="BE75">
-        <v>6.75</v>
-      </c>
-      <c r="BF75">
-        <v>2.9</v>
-      </c>
-      <c r="BG75">
-        <v>1.24</v>
-      </c>
-      <c r="BH75">
-        <v>3.55</v>
-      </c>
-      <c r="BI75">
-        <v>1.41</v>
-      </c>
-      <c r="BJ75">
-        <v>2.65</v>
-      </c>
-      <c r="BK75">
-        <v>1.67</v>
-      </c>
-      <c r="BL75">
-        <v>2.05</v>
-      </c>
-      <c r="BM75">
-        <v>2.05</v>
-      </c>
-      <c r="BN75">
-        <v>1.67</v>
-      </c>
-      <c r="BO75">
-        <v>2.55</v>
-      </c>
-      <c r="BP75">
-        <v>1.43</v>
-      </c>
-    </row>
-    <row r="76" spans="1:68">
-      <c r="A76" s="1">
-        <v>75</v>
-      </c>
-      <c r="B76">
-        <v>7477877</v>
-      </c>
-      <c r="C76" t="s">
-        <v>68</v>
-      </c>
-      <c r="D76" t="s">
-        <v>69</v>
-      </c>
-      <c r="E76" s="2">
-        <v>45556.45833333334</v>
-      </c>
-      <c r="F76">
-        <v>7</v>
-      </c>
-      <c r="G76" t="s">
-        <v>83</v>
-      </c>
-      <c r="H76" t="s">
-        <v>91</v>
-      </c>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76">
-        <v>2</v>
-      </c>
-      <c r="K76">
-        <v>2</v>
-      </c>
-      <c r="L76">
-        <v>1</v>
-      </c>
-      <c r="M76">
-        <v>2</v>
-      </c>
-      <c r="N76">
-        <v>3</v>
-      </c>
-      <c r="O76" t="s">
-        <v>149</v>
-      </c>
-      <c r="P76" t="s">
-        <v>194</v>
-      </c>
-      <c r="Q76">
-        <v>3</v>
-      </c>
-      <c r="R76">
-        <v>2.2</v>
-      </c>
-      <c r="S76">
-        <v>3.5</v>
-      </c>
-      <c r="T76">
-        <v>1.4</v>
-      </c>
-      <c r="U76">
-        <v>2.75</v>
-      </c>
-      <c r="V76">
-        <v>2.75</v>
-      </c>
-      <c r="W76">
-        <v>1.4</v>
-      </c>
-      <c r="X76">
-        <v>8</v>
-      </c>
-      <c r="Y76">
-        <v>1.08</v>
-      </c>
-      <c r="Z76">
-        <v>51</v>
-      </c>
-      <c r="AA76">
-        <v>1</v>
-      </c>
-      <c r="AB76">
-        <v>51</v>
-      </c>
-      <c r="AC76">
-        <v>1.06</v>
-      </c>
-      <c r="AD76">
-        <v>8.5</v>
-      </c>
-      <c r="AE76">
-        <v>1.3</v>
-      </c>
-      <c r="AF76">
-        <v>3.4</v>
-      </c>
-      <c r="AG76">
-        <v>1.91</v>
-      </c>
-      <c r="AH76">
-        <v>1.83</v>
-      </c>
-      <c r="AI76">
-        <v>1.75</v>
-      </c>
-      <c r="AJ76">
-        <v>2</v>
-      </c>
-      <c r="AK76">
-        <v>1.38</v>
-      </c>
-      <c r="AL76">
-        <v>1.28</v>
-      </c>
-      <c r="AM76">
-        <v>1.57</v>
-      </c>
-      <c r="AN76">
-        <v>2.33</v>
-      </c>
-      <c r="AO76">
-        <v>0.5</v>
-      </c>
-      <c r="AP76">
-        <v>1.75</v>
-      </c>
-      <c r="AQ76">
-        <v>1.33</v>
-      </c>
-      <c r="AR76">
-        <v>1.19</v>
-      </c>
-      <c r="AS76">
-        <v>1.78</v>
-      </c>
-      <c r="AT76">
-        <v>2.97</v>
-      </c>
-      <c r="AU76">
-        <v>5</v>
-      </c>
-      <c r="AV76">
-        <v>4</v>
-      </c>
-      <c r="AW76">
-        <v>6</v>
-      </c>
-      <c r="AX76">
-        <v>2</v>
-      </c>
-      <c r="AY76">
-        <v>11</v>
-      </c>
-      <c r="AZ76">
-        <v>6</v>
-      </c>
-      <c r="BA76">
-        <v>4</v>
-      </c>
-      <c r="BB76">
-        <v>1</v>
-      </c>
-      <c r="BC76">
-        <v>5</v>
-      </c>
-      <c r="BD76">
-        <v>1.81</v>
-      </c>
-      <c r="BE76">
-        <v>6.75</v>
-      </c>
-      <c r="BF76">
-        <v>2.05</v>
-      </c>
-      <c r="BG76">
-        <v>1.24</v>
-      </c>
-      <c r="BH76">
-        <v>3.55</v>
-      </c>
-      <c r="BI76">
-        <v>1.43</v>
-      </c>
-      <c r="BJ76">
-        <v>2.6</v>
-      </c>
-      <c r="BK76">
-        <v>1.68</v>
-      </c>
-      <c r="BL76">
-        <v>2.02</v>
-      </c>
-      <c r="BM76">
-        <v>2.08</v>
-      </c>
-      <c r="BN76">
-        <v>1.65</v>
-      </c>
-      <c r="BO76">
-        <v>2.63</v>
-      </c>
-      <c r="BP76">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="198">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -448,6 +448,9 @@
     <t>['10', '33', '63']</t>
   </si>
   <si>
+    <t>['49', '86']</t>
+  </si>
+  <si>
     <t>['80']</t>
   </si>
   <si>
@@ -463,6 +466,9 @@
     <t>['90+6']</t>
   </si>
   <si>
+    <t>['20', '53']</t>
+  </si>
+  <si>
     <t>['13', '18']</t>
   </si>
   <si>
@@ -574,9 +580,15 @@
     <t>['19']</t>
   </si>
   <si>
+    <t>['14', '22']</t>
+  </si>
+  <si>
     <t>['74', '76']</t>
   </si>
   <si>
+    <t>['2']</t>
+  </si>
+  <si>
     <t>['18', '25', '58']</t>
   </si>
   <si>
@@ -590,6 +602,12 @@
   </si>
   <si>
     <t>['28', '32']</t>
+  </si>
+  <si>
+    <t>['31', '45+6']</t>
+  </si>
+  <si>
+    <t>['42', '45+1']</t>
   </si>
 </sst>
 </file>
@@ -951,7 +969,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP74"/>
+  <dimension ref="A1:BP79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1210,7 +1228,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1416,7 +1434,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1622,7 +1640,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -1700,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ4">
         <v>2</v>
@@ -2034,7 +2052,7 @@
         <v>96</v>
       </c>
       <c r="P6" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2240,7 +2258,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2318,7 +2336,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AQ7">
         <v>1.5</v>
@@ -2652,7 +2670,7 @@
         <v>100</v>
       </c>
       <c r="P9" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2733,7 +2751,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ9">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2858,7 +2876,7 @@
         <v>101</v>
       </c>
       <c r="P10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3270,7 +3288,7 @@
         <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q12">
         <v>2.1</v>
@@ -3682,7 +3700,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3763,7 +3781,7 @@
         <v>1</v>
       </c>
       <c r="AQ14">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4378,7 +4396,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ17">
         <v>0.25</v>
@@ -4506,7 +4524,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4712,7 +4730,7 @@
         <v>108</v>
       </c>
       <c r="P19" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q19">
         <v>3.25</v>
@@ -4918,7 +4936,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5124,7 +5142,7 @@
         <v>109</v>
       </c>
       <c r="P21" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5330,7 +5348,7 @@
         <v>110</v>
       </c>
       <c r="P22" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -5408,10 +5426,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ22">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5536,7 +5554,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q23">
         <v>2.75</v>
@@ -5742,7 +5760,7 @@
         <v>111</v>
       </c>
       <c r="P24" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -5820,7 +5838,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ24">
         <v>1</v>
@@ -6235,7 +6253,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ26">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR26">
         <v>1.26</v>
@@ -6644,7 +6662,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ28">
         <v>1</v>
@@ -7184,7 +7202,7 @@
         <v>116</v>
       </c>
       <c r="P31" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7468,7 +7486,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ32">
         <v>0</v>
@@ -7596,7 +7614,7 @@
         <v>118</v>
       </c>
       <c r="P33" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -7677,7 +7695,7 @@
         <v>2</v>
       </c>
       <c r="AQ33">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AR33">
         <v>1.76</v>
@@ -8008,7 +8026,7 @@
         <v>120</v>
       </c>
       <c r="P35" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q35">
         <v>4.5</v>
@@ -8089,7 +8107,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ35">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR35">
         <v>1.53</v>
@@ -8214,7 +8232,7 @@
         <v>121</v>
       </c>
       <c r="P36" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8420,7 +8438,7 @@
         <v>122</v>
       </c>
       <c r="P37" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -8498,7 +8516,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AQ37">
         <v>3</v>
@@ -8626,7 +8644,7 @@
         <v>123</v>
       </c>
       <c r="P38" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q38">
         <v>2.63</v>
@@ -8832,7 +8850,7 @@
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -8910,7 +8928,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ39">
         <v>2</v>
@@ -9656,7 +9674,7 @@
         <v>96</v>
       </c>
       <c r="P43" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q43">
         <v>2.63</v>
@@ -9862,7 +9880,7 @@
         <v>127</v>
       </c>
       <c r="P44" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9940,7 +9958,7 @@
         <v>3</v>
       </c>
       <c r="AP44">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ44">
         <v>1.67</v>
@@ -10068,7 +10086,7 @@
         <v>96</v>
       </c>
       <c r="P45" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q45">
         <v>3.6</v>
@@ -10480,7 +10498,7 @@
         <v>96</v>
       </c>
       <c r="P47" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q47">
         <v>2.05</v>
@@ -10686,7 +10704,7 @@
         <v>129</v>
       </c>
       <c r="P48" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q48">
         <v>1.95</v>
@@ -11304,7 +11322,7 @@
         <v>131</v>
       </c>
       <c r="P51" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q51">
         <v>2.3</v>
@@ -11716,7 +11734,7 @@
         <v>133</v>
       </c>
       <c r="P53" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q53">
         <v>2.3</v>
@@ -11794,7 +11812,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AQ53">
         <v>0</v>
@@ -11922,7 +11940,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q54">
         <v>3.5</v>
@@ -12128,7 +12146,7 @@
         <v>134</v>
       </c>
       <c r="P55" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q55">
         <v>4.5</v>
@@ -12334,7 +12352,7 @@
         <v>135</v>
       </c>
       <c r="P56" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q56">
         <v>2.2</v>
@@ -12412,7 +12430,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ56">
         <v>1</v>
@@ -12540,7 +12558,7 @@
         <v>96</v>
       </c>
       <c r="P57" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q57">
         <v>4.33</v>
@@ -12952,7 +12970,7 @@
         <v>137</v>
       </c>
       <c r="P59" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13158,7 +13176,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -13364,7 +13382,7 @@
         <v>96</v>
       </c>
       <c r="P61" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -13570,7 +13588,7 @@
         <v>138</v>
       </c>
       <c r="P62" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q62">
         <v>2.2</v>
@@ -13776,7 +13794,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q63">
         <v>2.88</v>
@@ -13982,7 +14000,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q64">
         <v>2.5</v>
@@ -14475,7 +14493,7 @@
         <v>2</v>
       </c>
       <c r="AQ66">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR66">
         <v>1.55</v>
@@ -14600,7 +14618,7 @@
         <v>141</v>
       </c>
       <c r="P67" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q67">
         <v>1.95</v>
@@ -14806,7 +14824,7 @@
         <v>142</v>
       </c>
       <c r="P68" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q68">
         <v>2.2</v>
@@ -14970,7 +14988,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>7477882</v>
+        <v>7477883</v>
       </c>
       <c r="C69" t="s">
         <v>68</v>
@@ -14985,127 +15003,127 @@
         <v>7</v>
       </c>
       <c r="G69" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H69" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K69">
         <v>2</v>
       </c>
       <c r="L69">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M69">
         <v>2</v>
       </c>
       <c r="N69">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O69" t="s">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c r="P69" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q69">
+        <v>3.75</v>
+      </c>
+      <c r="R69">
+        <v>2.2</v>
+      </c>
+      <c r="S69">
+        <v>2.75</v>
+      </c>
+      <c r="T69">
+        <v>1.36</v>
+      </c>
+      <c r="U69">
+        <v>3</v>
+      </c>
+      <c r="V69">
+        <v>2.75</v>
+      </c>
+      <c r="W69">
+        <v>1.4</v>
+      </c>
+      <c r="X69">
+        <v>7</v>
+      </c>
+      <c r="Y69">
+        <v>1.1</v>
+      </c>
+      <c r="Z69">
+        <v>3.25</v>
+      </c>
+      <c r="AA69">
+        <v>3.6</v>
+      </c>
+      <c r="AB69">
         <v>2.05</v>
       </c>
-      <c r="R69">
-        <v>2.5</v>
-      </c>
-      <c r="S69">
-        <v>5.5</v>
-      </c>
-      <c r="T69">
-        <v>1.29</v>
-      </c>
-      <c r="U69">
-        <v>3.5</v>
-      </c>
-      <c r="V69">
-        <v>2.25</v>
-      </c>
-      <c r="W69">
-        <v>1.57</v>
-      </c>
-      <c r="X69">
-        <v>5.5</v>
-      </c>
-      <c r="Y69">
-        <v>1.14</v>
-      </c>
-      <c r="Z69">
-        <v>1.53</v>
-      </c>
-      <c r="AA69">
-        <v>4.1</v>
-      </c>
-      <c r="AB69">
-        <v>5.75</v>
-      </c>
       <c r="AC69">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AD69">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AE69">
-        <v>1.12</v>
+        <v>1.28</v>
       </c>
       <c r="AF69">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="AG69">
-        <v>1.57</v>
+        <v>1.85</v>
       </c>
       <c r="AH69">
-        <v>2.35</v>
+        <v>1.95</v>
       </c>
       <c r="AI69">
+        <v>1.7</v>
+      </c>
+      <c r="AJ69">
+        <v>2.05</v>
+      </c>
+      <c r="AK69">
+        <v>1.75</v>
+      </c>
+      <c r="AL69">
+        <v>1.25</v>
+      </c>
+      <c r="AM69">
+        <v>1.3</v>
+      </c>
+      <c r="AN69">
         <v>1.67</v>
       </c>
-      <c r="AJ69">
-        <v>2.1</v>
-      </c>
-      <c r="AK69">
-        <v>1.17</v>
-      </c>
-      <c r="AL69">
-        <v>1.23</v>
-      </c>
-      <c r="AM69">
-        <v>2.27</v>
-      </c>
-      <c r="AN69">
-        <v>0.33</v>
-      </c>
       <c r="AO69">
-        <v>0.33</v>
+        <v>3</v>
       </c>
       <c r="AP69">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ69">
-        <v>0.25</v>
+        <v>3</v>
       </c>
       <c r="AR69">
-        <v>0.98</v>
+        <v>1.79</v>
       </c>
       <c r="AS69">
-        <v>0.92</v>
+        <v>1.27</v>
       </c>
       <c r="AT69">
-        <v>1.9</v>
+        <v>3.06</v>
       </c>
       <c r="AU69">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AV69">
         <v>5</v>
@@ -15114,31 +15132,31 @@
         <v>4</v>
       </c>
       <c r="AX69">
+        <v>5</v>
+      </c>
+      <c r="AY69">
         <v>6</v>
       </c>
-      <c r="AY69">
-        <v>13</v>
-      </c>
       <c r="AZ69">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA69">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BB69">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BC69">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="BD69">
-        <v>1.32</v>
+        <v>2.33</v>
       </c>
       <c r="BE69">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="BF69">
-        <v>3.3</v>
+        <v>1.64</v>
       </c>
       <c r="BG69">
         <v>1.19</v>
@@ -15147,28 +15165,28 @@
         <v>4.1</v>
       </c>
       <c r="BI69">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="BJ69">
-        <v>2.95</v>
+        <v>3.14</v>
       </c>
       <c r="BK69">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="BL69">
-        <v>2.65</v>
+        <v>2.38</v>
       </c>
       <c r="BM69">
-        <v>1.7</v>
+        <v>1.87</v>
       </c>
       <c r="BN69">
-        <v>2.03</v>
+        <v>1.87</v>
       </c>
       <c r="BO69">
-        <v>2.13</v>
+        <v>2.34</v>
       </c>
       <c r="BP69">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="70" spans="1:68">
@@ -15176,7 +15194,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>7477879</v>
+        <v>7477882</v>
       </c>
       <c r="C70" t="s">
         <v>68</v>
@@ -15191,190 +15209,190 @@
         <v>7</v>
       </c>
       <c r="G70" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="H70" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K70">
         <v>2</v>
       </c>
       <c r="L70">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M70">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N70">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O70" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="P70" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q70">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="R70">
         <v>2.5</v>
       </c>
       <c r="S70">
-        <v>7.5</v>
+        <v>5.5</v>
       </c>
       <c r="T70">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="U70">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V70">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W70">
+        <v>1.57</v>
+      </c>
+      <c r="X70">
+        <v>5.5</v>
+      </c>
+      <c r="Y70">
+        <v>1.14</v>
+      </c>
+      <c r="Z70">
         <v>1.53</v>
       </c>
-      <c r="X70">
+      <c r="AA70">
+        <v>4.1</v>
+      </c>
+      <c r="AB70">
+        <v>5.75</v>
+      </c>
+      <c r="AC70">
+        <v>1.02</v>
+      </c>
+      <c r="AD70">
+        <v>17</v>
+      </c>
+      <c r="AE70">
+        <v>1.12</v>
+      </c>
+      <c r="AF70">
+        <v>4.4</v>
+      </c>
+      <c r="AG70">
+        <v>1.57</v>
+      </c>
+      <c r="AH70">
+        <v>2.35</v>
+      </c>
+      <c r="AI70">
+        <v>1.67</v>
+      </c>
+      <c r="AJ70">
+        <v>2.1</v>
+      </c>
+      <c r="AK70">
+        <v>1.17</v>
+      </c>
+      <c r="AL70">
+        <v>1.23</v>
+      </c>
+      <c r="AM70">
+        <v>2.27</v>
+      </c>
+      <c r="AN70">
+        <v>0.33</v>
+      </c>
+      <c r="AO70">
+        <v>0.33</v>
+      </c>
+      <c r="AP70">
+        <v>1</v>
+      </c>
+      <c r="AQ70">
+        <v>0.25</v>
+      </c>
+      <c r="AR70">
+        <v>0.98</v>
+      </c>
+      <c r="AS70">
+        <v>0.92</v>
+      </c>
+      <c r="AT70">
+        <v>1.9</v>
+      </c>
+      <c r="AU70">
+        <v>9</v>
+      </c>
+      <c r="AV70">
+        <v>5</v>
+      </c>
+      <c r="AW70">
+        <v>4</v>
+      </c>
+      <c r="AX70">
         <v>6</v>
       </c>
-      <c r="Y70">
-        <v>1.13</v>
-      </c>
-      <c r="Z70">
+      <c r="AY70">
+        <v>13</v>
+      </c>
+      <c r="AZ70">
+        <v>11</v>
+      </c>
+      <c r="BA70">
+        <v>2</v>
+      </c>
+      <c r="BB70">
+        <v>5</v>
+      </c>
+      <c r="BC70">
+        <v>7</v>
+      </c>
+      <c r="BD70">
+        <v>1.32</v>
+      </c>
+      <c r="BE70">
+        <v>7</v>
+      </c>
+      <c r="BF70">
+        <v>3.3</v>
+      </c>
+      <c r="BG70">
+        <v>1.19</v>
+      </c>
+      <c r="BH70">
+        <v>4.1</v>
+      </c>
+      <c r="BI70">
         <v>1.33</v>
       </c>
-      <c r="AA70">
-        <v>4.75</v>
-      </c>
-      <c r="AB70">
-        <v>8</v>
-      </c>
-      <c r="AC70">
-        <v>1.04</v>
-      </c>
-      <c r="AD70">
-        <v>10</v>
-      </c>
-      <c r="AE70">
-        <v>1.22</v>
-      </c>
-      <c r="AF70">
-        <v>4.2</v>
-      </c>
-      <c r="AG70">
-        <v>1.65</v>
-      </c>
-      <c r="AH70">
-        <v>2.2</v>
-      </c>
-      <c r="AI70">
-        <v>1.95</v>
-      </c>
-      <c r="AJ70">
-        <v>1.8</v>
-      </c>
-      <c r="AK70">
-        <v>1.07</v>
-      </c>
-      <c r="AL70">
-        <v>1.12</v>
-      </c>
-      <c r="AM70">
+      <c r="BJ70">
         <v>2.95</v>
       </c>
-      <c r="AN70">
-        <v>3</v>
-      </c>
-      <c r="AO70">
-        <v>0.5</v>
-      </c>
-      <c r="AP70">
-        <v>2</v>
-      </c>
-      <c r="AQ70">
-        <v>1.33</v>
-      </c>
-      <c r="AR70">
-        <v>1.27</v>
-      </c>
-      <c r="AS70">
-        <v>1.14</v>
-      </c>
-      <c r="AT70">
-        <v>2.41</v>
-      </c>
-      <c r="AU70">
-        <v>5</v>
-      </c>
-      <c r="AV70">
-        <v>4</v>
-      </c>
-      <c r="AW70">
-        <v>7</v>
-      </c>
-      <c r="AX70">
-        <v>2</v>
-      </c>
-      <c r="AY70">
-        <v>12</v>
-      </c>
-      <c r="AZ70">
-        <v>6</v>
-      </c>
-      <c r="BA70">
-        <v>7</v>
-      </c>
-      <c r="BB70">
-        <v>1</v>
-      </c>
-      <c r="BC70">
-        <v>8</v>
-      </c>
-      <c r="BD70">
-        <v>1.26</v>
-      </c>
-      <c r="BE70">
-        <v>7.5</v>
-      </c>
-      <c r="BF70">
-        <v>3.8</v>
-      </c>
-      <c r="BG70">
-        <v>1.18</v>
-      </c>
-      <c r="BH70">
-        <v>3.7</v>
-      </c>
-      <c r="BI70">
-        <v>1.39</v>
-      </c>
-      <c r="BJ70">
-        <v>2.67</v>
-      </c>
       <c r="BK70">
-        <v>1.72</v>
+        <v>1.42</v>
       </c>
       <c r="BL70">
-        <v>2.05</v>
+        <v>2.65</v>
       </c>
       <c r="BM70">
-        <v>2.14</v>
+        <v>1.7</v>
       </c>
       <c r="BN70">
-        <v>1.6</v>
+        <v>2.03</v>
       </c>
       <c r="BO70">
-        <v>2.73</v>
+        <v>2.13</v>
       </c>
       <c r="BP70">
-        <v>1.33</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="71" spans="1:68">
@@ -15382,7 +15400,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>7477884</v>
+        <v>7477881</v>
       </c>
       <c r="C71" t="s">
         <v>68</v>
@@ -15397,148 +15415,148 @@
         <v>7</v>
       </c>
       <c r="G71" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="H71" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M71">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N71">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="P71" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q71">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="R71">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S71">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="T71">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="U71">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V71">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="W71">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="X71">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="Y71">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="Z71">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="AA71">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AB71">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AC71">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="AD71">
-        <v>8.5</v>
+        <v>9.9</v>
       </c>
       <c r="AE71">
-        <v>1.35</v>
+        <v>1.18</v>
       </c>
       <c r="AF71">
-        <v>3.1</v>
+        <v>3.74</v>
       </c>
       <c r="AG71">
-        <v>2.05</v>
+        <v>1.73</v>
       </c>
       <c r="AH71">
-        <v>1.75</v>
+        <v>2.08</v>
       </c>
       <c r="AI71">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="AJ71">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="AK71">
-        <v>1.13</v>
+        <v>1.2</v>
       </c>
       <c r="AL71">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="AM71">
         <v>2.05</v>
       </c>
       <c r="AN71">
-        <v>3</v>
+        <v>1.67</v>
       </c>
       <c r="AO71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP71">
         <v>2</v>
       </c>
       <c r="AQ71">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AR71">
-        <v>1.92</v>
+        <v>1.39</v>
       </c>
       <c r="AS71">
-        <v>0.92</v>
+        <v>0.9</v>
       </c>
       <c r="AT71">
-        <v>2.84</v>
+        <v>2.29</v>
       </c>
       <c r="AU71">
+        <v>6</v>
+      </c>
+      <c r="AV71">
+        <v>7</v>
+      </c>
+      <c r="AW71">
+        <v>6</v>
+      </c>
+      <c r="AX71">
+        <v>2</v>
+      </c>
+      <c r="AY71">
+        <v>12</v>
+      </c>
+      <c r="AZ71">
+        <v>9</v>
+      </c>
+      <c r="BA71">
+        <v>3</v>
+      </c>
+      <c r="BB71">
         <v>4</v>
-      </c>
-      <c r="AV71">
-        <v>6</v>
-      </c>
-      <c r="AW71">
-        <v>9</v>
-      </c>
-      <c r="AX71">
-        <v>4</v>
-      </c>
-      <c r="AY71">
-        <v>13</v>
-      </c>
-      <c r="AZ71">
-        <v>10</v>
-      </c>
-      <c r="BA71">
-        <v>6</v>
-      </c>
-      <c r="BB71">
-        <v>1</v>
       </c>
       <c r="BC71">
         <v>7</v>
@@ -15547,40 +15565,40 @@
         <v>1.45</v>
       </c>
       <c r="BE71">
-        <v>6.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF71">
         <v>2.9</v>
       </c>
       <c r="BG71">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="BH71">
-        <v>3.04</v>
+        <v>3.55</v>
       </c>
       <c r="BI71">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="BJ71">
-        <v>2.27</v>
+        <v>2.73</v>
       </c>
       <c r="BK71">
-        <v>1.96</v>
+        <v>1.62</v>
       </c>
       <c r="BL71">
-        <v>1.79</v>
+        <v>2.1</v>
       </c>
       <c r="BM71">
-        <v>2.51</v>
+        <v>2.08</v>
       </c>
       <c r="BN71">
-        <v>1.44</v>
+        <v>1.7</v>
       </c>
       <c r="BO71">
-        <v>3.35</v>
+        <v>2.67</v>
       </c>
       <c r="BP71">
-        <v>1.22</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="72" spans="1:68">
@@ -15588,7 +15606,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>7477875</v>
+        <v>7477879</v>
       </c>
       <c r="C72" t="s">
         <v>68</v>
@@ -15603,43 +15621,43 @@
         <v>7</v>
       </c>
       <c r="G72" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="H72" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
       <c r="I72">
         <v>0</v>
       </c>
       <c r="J72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L72">
         <v>1</v>
       </c>
       <c r="M72">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N72">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="P72" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q72">
-        <v>4.33</v>
+        <v>1.83</v>
       </c>
       <c r="R72">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S72">
-        <v>2.4</v>
+        <v>7.5</v>
       </c>
       <c r="T72">
         <v>1.3</v>
@@ -15648,10 +15666,10 @@
         <v>3.4</v>
       </c>
       <c r="V72">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W72">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X72">
         <v>6</v>
@@ -15660,13 +15678,13 @@
         <v>1.13</v>
       </c>
       <c r="Z72">
-        <v>4.2</v>
+        <v>1.33</v>
       </c>
       <c r="AA72">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="AB72">
-        <v>1.8</v>
+        <v>8</v>
       </c>
       <c r="AC72">
         <v>1.04</v>
@@ -15681,112 +15699,112 @@
         <v>4.2</v>
       </c>
       <c r="AG72">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="AH72">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="AI72">
-        <v>1.62</v>
+        <v>1.95</v>
       </c>
       <c r="AJ72">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="AK72">
-        <v>1.85</v>
+        <v>1.07</v>
       </c>
       <c r="AL72">
-        <v>1.22</v>
+        <v>1.12</v>
       </c>
       <c r="AM72">
-        <v>1.25</v>
+        <v>2.95</v>
       </c>
       <c r="AN72">
+        <v>3</v>
+      </c>
+      <c r="AO72">
         <v>0.5</v>
       </c>
-      <c r="AO72">
-        <v>2</v>
-      </c>
       <c r="AP72">
-        <v>0.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ72">
-        <v>2.25</v>
+        <v>1.33</v>
       </c>
       <c r="AR72">
-        <v>0.86</v>
+        <v>1.27</v>
       </c>
       <c r="AS72">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AT72">
-        <v>1.86</v>
+        <v>2.41</v>
       </c>
       <c r="AU72">
+        <v>5</v>
+      </c>
+      <c r="AV72">
         <v>4</v>
       </c>
-      <c r="AV72">
+      <c r="AW72">
         <v>7</v>
       </c>
-      <c r="AW72">
-        <v>3</v>
-      </c>
       <c r="AX72">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY72">
+        <v>12</v>
+      </c>
+      <c r="AZ72">
+        <v>6</v>
+      </c>
+      <c r="BA72">
         <v>7</v>
       </c>
-      <c r="AZ72">
-        <v>11</v>
-      </c>
-      <c r="BA72">
-        <v>3</v>
-      </c>
       <c r="BB72">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BC72">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD72">
-        <v>2.15</v>
+        <v>1.26</v>
       </c>
       <c r="BE72">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="BF72">
-        <v>1.75</v>
+        <v>3.8</v>
       </c>
       <c r="BG72">
-        <v>1.27</v>
+        <v>1.18</v>
       </c>
       <c r="BH72">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="BI72">
+        <v>1.39</v>
+      </c>
+      <c r="BJ72">
+        <v>2.67</v>
+      </c>
+      <c r="BK72">
+        <v>1.72</v>
+      </c>
+      <c r="BL72">
+        <v>2.05</v>
+      </c>
+      <c r="BM72">
+        <v>2.14</v>
+      </c>
+      <c r="BN72">
+        <v>1.6</v>
+      </c>
+      <c r="BO72">
+        <v>2.73</v>
+      </c>
+      <c r="BP72">
         <v>1.33</v>
-      </c>
-      <c r="BJ72">
-        <v>3.05</v>
-      </c>
-      <c r="BK72">
-        <v>1.6</v>
-      </c>
-      <c r="BL72">
-        <v>2.2</v>
-      </c>
-      <c r="BM72">
-        <v>2.03</v>
-      </c>
-      <c r="BN72">
-        <v>1.7</v>
-      </c>
-      <c r="BO72">
-        <v>2.7</v>
-      </c>
-      <c r="BP72">
-        <v>1.41</v>
       </c>
     </row>
     <row r="73" spans="1:68">
@@ -15794,7 +15812,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>7477874</v>
+        <v>7477884</v>
       </c>
       <c r="C73" t="s">
         <v>68</v>
@@ -15809,190 +15827,190 @@
         <v>7</v>
       </c>
       <c r="G73" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="H73" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
       <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>2</v>
+      </c>
+      <c r="K73">
+        <v>2</v>
+      </c>
+      <c r="L73">
+        <v>1</v>
+      </c>
+      <c r="M73">
         <v>4</v>
       </c>
-      <c r="J73">
-        <v>1</v>
-      </c>
-      <c r="K73">
+      <c r="N73">
         <v>5</v>
       </c>
-      <c r="L73">
+      <c r="O73" t="s">
+        <v>146</v>
+      </c>
+      <c r="P73" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q73">
+        <v>2.4</v>
+      </c>
+      <c r="R73">
+        <v>2.2</v>
+      </c>
+      <c r="S73">
         <v>5</v>
       </c>
-      <c r="M73">
-        <v>2</v>
-      </c>
-      <c r="N73">
-        <v>7</v>
-      </c>
-      <c r="O73" t="s">
-        <v>147</v>
-      </c>
-      <c r="P73" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q73">
-        <v>2.3</v>
-      </c>
-      <c r="R73">
-        <v>2.3</v>
-      </c>
-      <c r="S73">
-        <v>4.5</v>
-      </c>
       <c r="T73">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="U73">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V73">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="W73">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="X73">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="Y73">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="Z73">
         <v>1.75</v>
       </c>
       <c r="AA73">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="AB73">
-        <v>4.4</v>
+        <v>5</v>
       </c>
       <c r="AC73">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="AD73">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="AE73">
-        <v>1.21</v>
+        <v>1.35</v>
       </c>
       <c r="AF73">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="AG73">
-        <v>1.67</v>
+        <v>2.05</v>
       </c>
       <c r="AH73">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="AI73">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="AJ73">
-        <v>2.05</v>
+        <v>1.8</v>
       </c>
       <c r="AK73">
-        <v>1.22</v>
+        <v>1.13</v>
       </c>
       <c r="AL73">
         <v>1.25</v>
       </c>
       <c r="AM73">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AN73">
-        <v>0.33</v>
+        <v>3</v>
       </c>
       <c r="AO73">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ73">
-        <v>0.33</v>
+        <v>1.5</v>
       </c>
       <c r="AR73">
-        <v>1.34</v>
+        <v>1.92</v>
       </c>
       <c r="AS73">
-        <v>1.1</v>
+        <v>0.92</v>
       </c>
       <c r="AT73">
-        <v>2.44</v>
+        <v>2.84</v>
       </c>
       <c r="AU73">
+        <v>4</v>
+      </c>
+      <c r="AV73">
+        <v>6</v>
+      </c>
+      <c r="AW73">
         <v>9</v>
       </c>
-      <c r="AV73">
-        <v>7</v>
-      </c>
-      <c r="AW73">
+      <c r="AX73">
         <v>4</v>
-      </c>
-      <c r="AX73">
-        <v>6</v>
       </c>
       <c r="AY73">
         <v>13</v>
       </c>
       <c r="AZ73">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BA73">
         <v>6</v>
       </c>
       <c r="BB73">
+        <v>1</v>
+      </c>
+      <c r="BC73">
         <v>7</v>
-      </c>
-      <c r="BC73">
-        <v>13</v>
       </c>
       <c r="BD73">
         <v>1.45</v>
       </c>
       <c r="BE73">
-        <v>6.75</v>
+        <v>6.5</v>
       </c>
       <c r="BF73">
         <v>2.9</v>
       </c>
       <c r="BG73">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="BH73">
-        <v>3.55</v>
+        <v>3.04</v>
       </c>
       <c r="BI73">
-        <v>1.41</v>
+        <v>1.53</v>
       </c>
       <c r="BJ73">
-        <v>2.65</v>
+        <v>2.27</v>
       </c>
       <c r="BK73">
-        <v>1.67</v>
+        <v>1.96</v>
       </c>
       <c r="BL73">
-        <v>2.05</v>
+        <v>1.79</v>
       </c>
       <c r="BM73">
-        <v>2.05</v>
+        <v>2.51</v>
       </c>
       <c r="BN73">
-        <v>1.67</v>
+        <v>1.44</v>
       </c>
       <c r="BO73">
-        <v>2.55</v>
+        <v>3.35</v>
       </c>
       <c r="BP73">
-        <v>1.43</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="74" spans="1:68">
@@ -16000,7 +16018,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>7477877</v>
+        <v>7477875</v>
       </c>
       <c r="C74" t="s">
         <v>68</v>
@@ -16015,19 +16033,19 @@
         <v>7</v>
       </c>
       <c r="G74" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="H74" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="I74">
         <v>0</v>
       </c>
       <c r="J74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K74">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L74">
         <v>1</v>
@@ -16039,154 +16057,154 @@
         <v>3</v>
       </c>
       <c r="O74" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="P74" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q74">
-        <v>3.1</v>
+        <v>4.33</v>
       </c>
       <c r="R74">
+        <v>2.38</v>
+      </c>
+      <c r="S74">
+        <v>2.4</v>
+      </c>
+      <c r="T74">
+        <v>1.3</v>
+      </c>
+      <c r="U74">
+        <v>3.4</v>
+      </c>
+      <c r="V74">
+        <v>2.5</v>
+      </c>
+      <c r="W74">
+        <v>1.5</v>
+      </c>
+      <c r="X74">
+        <v>6</v>
+      </c>
+      <c r="Y74">
+        <v>1.13</v>
+      </c>
+      <c r="Z74">
+        <v>4.2</v>
+      </c>
+      <c r="AA74">
+        <v>3.6</v>
+      </c>
+      <c r="AB74">
+        <v>1.8</v>
+      </c>
+      <c r="AC74">
+        <v>1.04</v>
+      </c>
+      <c r="AD74">
+        <v>10</v>
+      </c>
+      <c r="AE74">
+        <v>1.22</v>
+      </c>
+      <c r="AF74">
+        <v>4.2</v>
+      </c>
+      <c r="AG74">
+        <v>1.67</v>
+      </c>
+      <c r="AH74">
+        <v>2.15</v>
+      </c>
+      <c r="AI74">
+        <v>1.62</v>
+      </c>
+      <c r="AJ74">
         <v>2.2</v>
       </c>
-      <c r="S74">
-        <v>3.4</v>
-      </c>
-      <c r="T74">
-        <v>1.36</v>
-      </c>
-      <c r="U74">
-        <v>3</v>
-      </c>
-      <c r="V74">
-        <v>2.75</v>
-      </c>
-      <c r="W74">
-        <v>1.4</v>
-      </c>
-      <c r="X74">
-        <v>8</v>
-      </c>
-      <c r="Y74">
-        <v>1.08</v>
-      </c>
-      <c r="Z74">
-        <v>2.4</v>
-      </c>
-      <c r="AA74">
-        <v>3.4</v>
-      </c>
-      <c r="AB74">
-        <v>2.8</v>
-      </c>
-      <c r="AC74">
-        <v>1.05</v>
-      </c>
-      <c r="AD74">
-        <v>9</v>
-      </c>
-      <c r="AE74">
-        <v>1.3</v>
-      </c>
-      <c r="AF74">
-        <v>3.45</v>
-      </c>
-      <c r="AG74">
-        <v>1.95</v>
-      </c>
-      <c r="AH74">
+      <c r="AK74">
         <v>1.85</v>
       </c>
-      <c r="AI74">
-        <v>1.7</v>
-      </c>
-      <c r="AJ74">
-        <v>2.05</v>
-      </c>
-      <c r="AK74">
-        <v>1.38</v>
-      </c>
       <c r="AL74">
+        <v>1.22</v>
+      </c>
+      <c r="AM74">
         <v>1.25</v>
       </c>
-      <c r="AM74">
-        <v>1.57</v>
-      </c>
       <c r="AN74">
-        <v>2.33</v>
+        <v>0.5</v>
       </c>
       <c r="AO74">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AP74">
+        <v>0.33</v>
+      </c>
+      <c r="AQ74">
+        <v>2.25</v>
+      </c>
+      <c r="AR74">
+        <v>0.86</v>
+      </c>
+      <c r="AS74">
+        <v>1</v>
+      </c>
+      <c r="AT74">
+        <v>1.86</v>
+      </c>
+      <c r="AU74">
+        <v>4</v>
+      </c>
+      <c r="AV74">
+        <v>7</v>
+      </c>
+      <c r="AW74">
+        <v>3</v>
+      </c>
+      <c r="AX74">
+        <v>4</v>
+      </c>
+      <c r="AY74">
+        <v>7</v>
+      </c>
+      <c r="AZ74">
+        <v>11</v>
+      </c>
+      <c r="BA74">
+        <v>3</v>
+      </c>
+      <c r="BB74">
+        <v>4</v>
+      </c>
+      <c r="BC74">
+        <v>7</v>
+      </c>
+      <c r="BD74">
+        <v>2.15</v>
+      </c>
+      <c r="BE74">
+        <v>6.5</v>
+      </c>
+      <c r="BF74">
         <v>1.75</v>
       </c>
-      <c r="AQ74">
+      <c r="BG74">
+        <v>1.27</v>
+      </c>
+      <c r="BH74">
+        <v>3.3</v>
+      </c>
+      <c r="BI74">
         <v>1.33</v>
       </c>
-      <c r="AR74">
-        <v>1.19</v>
-      </c>
-      <c r="AS74">
-        <v>1.78</v>
-      </c>
-      <c r="AT74">
-        <v>2.97</v>
-      </c>
-      <c r="AU74">
-        <v>5</v>
-      </c>
-      <c r="AV74">
-        <v>4</v>
-      </c>
-      <c r="AW74">
-        <v>6</v>
-      </c>
-      <c r="AX74">
-        <v>2</v>
-      </c>
-      <c r="AY74">
-        <v>11</v>
-      </c>
-      <c r="AZ74">
-        <v>6</v>
-      </c>
-      <c r="BA74">
-        <v>4</v>
-      </c>
-      <c r="BB74">
-        <v>1</v>
-      </c>
-      <c r="BC74">
-        <v>5</v>
-      </c>
-      <c r="BD74">
-        <v>1.81</v>
-      </c>
-      <c r="BE74">
-        <v>6.75</v>
-      </c>
-      <c r="BF74">
-        <v>2.05</v>
-      </c>
-      <c r="BG74">
-        <v>1.24</v>
-      </c>
-      <c r="BH74">
-        <v>3.55</v>
-      </c>
-      <c r="BI74">
-        <v>1.34</v>
-      </c>
       <c r="BJ74">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="BK74">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="BL74">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="BM74">
         <v>2.03</v>
@@ -16195,10 +16213,1040 @@
         <v>1.7</v>
       </c>
       <c r="BO74">
+        <v>2.7</v>
+      </c>
+      <c r="BP74">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7477874</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45556.45833333334</v>
+      </c>
+      <c r="F75">
+        <v>7</v>
+      </c>
+      <c r="G75" t="s">
+        <v>93</v>
+      </c>
+      <c r="H75" t="s">
+        <v>84</v>
+      </c>
+      <c r="I75">
+        <v>4</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>5</v>
+      </c>
+      <c r="L75">
+        <v>5</v>
+      </c>
+      <c r="M75">
+        <v>2</v>
+      </c>
+      <c r="N75">
+        <v>7</v>
+      </c>
+      <c r="O75" t="s">
+        <v>148</v>
+      </c>
+      <c r="P75" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q75">
+        <v>2.3</v>
+      </c>
+      <c r="R75">
+        <v>2.3</v>
+      </c>
+      <c r="S75">
+        <v>4.5</v>
+      </c>
+      <c r="T75">
+        <v>1.33</v>
+      </c>
+      <c r="U75">
+        <v>3.25</v>
+      </c>
+      <c r="V75">
+        <v>2.63</v>
+      </c>
+      <c r="W75">
+        <v>1.44</v>
+      </c>
+      <c r="X75">
+        <v>6.5</v>
+      </c>
+      <c r="Y75">
+        <v>1.11</v>
+      </c>
+      <c r="Z75">
+        <v>1.75</v>
+      </c>
+      <c r="AA75">
+        <v>3.75</v>
+      </c>
+      <c r="AB75">
+        <v>4.4</v>
+      </c>
+      <c r="AC75">
+        <v>1.01</v>
+      </c>
+      <c r="AD75">
+        <v>11</v>
+      </c>
+      <c r="AE75">
+        <v>1.21</v>
+      </c>
+      <c r="AF75">
+        <v>3.75</v>
+      </c>
+      <c r="AG75">
+        <v>1.67</v>
+      </c>
+      <c r="AH75">
+        <v>2.05</v>
+      </c>
+      <c r="AI75">
+        <v>1.7</v>
+      </c>
+      <c r="AJ75">
+        <v>2.05</v>
+      </c>
+      <c r="AK75">
+        <v>1.22</v>
+      </c>
+      <c r="AL75">
+        <v>1.25</v>
+      </c>
+      <c r="AM75">
+        <v>2.1</v>
+      </c>
+      <c r="AN75">
+        <v>0.33</v>
+      </c>
+      <c r="AO75">
+        <v>0.5</v>
+      </c>
+      <c r="AP75">
+        <v>1</v>
+      </c>
+      <c r="AQ75">
+        <v>0.33</v>
+      </c>
+      <c r="AR75">
+        <v>1.34</v>
+      </c>
+      <c r="AS75">
+        <v>1.1</v>
+      </c>
+      <c r="AT75">
+        <v>2.44</v>
+      </c>
+      <c r="AU75">
+        <v>9</v>
+      </c>
+      <c r="AV75">
+        <v>7</v>
+      </c>
+      <c r="AW75">
+        <v>4</v>
+      </c>
+      <c r="AX75">
+        <v>6</v>
+      </c>
+      <c r="AY75">
+        <v>13</v>
+      </c>
+      <c r="AZ75">
+        <v>13</v>
+      </c>
+      <c r="BA75">
+        <v>6</v>
+      </c>
+      <c r="BB75">
+        <v>7</v>
+      </c>
+      <c r="BC75">
+        <v>13</v>
+      </c>
+      <c r="BD75">
+        <v>1.45</v>
+      </c>
+      <c r="BE75">
+        <v>6.75</v>
+      </c>
+      <c r="BF75">
+        <v>2.9</v>
+      </c>
+      <c r="BG75">
+        <v>1.24</v>
+      </c>
+      <c r="BH75">
+        <v>3.55</v>
+      </c>
+      <c r="BI75">
+        <v>1.41</v>
+      </c>
+      <c r="BJ75">
         <v>2.65</v>
       </c>
-      <c r="BP74">
+      <c r="BK75">
+        <v>1.67</v>
+      </c>
+      <c r="BL75">
+        <v>2.05</v>
+      </c>
+      <c r="BM75">
+        <v>2.05</v>
+      </c>
+      <c r="BN75">
+        <v>1.67</v>
+      </c>
+      <c r="BO75">
+        <v>2.55</v>
+      </c>
+      <c r="BP75">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7477877</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45556.45833333334</v>
+      </c>
+      <c r="F76">
+        <v>7</v>
+      </c>
+      <c r="G76" t="s">
+        <v>83</v>
+      </c>
+      <c r="H76" t="s">
+        <v>91</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>2</v>
+      </c>
+      <c r="K76">
+        <v>2</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>2</v>
+      </c>
+      <c r="N76">
+        <v>3</v>
+      </c>
+      <c r="O76" t="s">
+        <v>149</v>
+      </c>
+      <c r="P76" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q76">
+        <v>3.1</v>
+      </c>
+      <c r="R76">
+        <v>2.2</v>
+      </c>
+      <c r="S76">
+        <v>3.4</v>
+      </c>
+      <c r="T76">
+        <v>1.36</v>
+      </c>
+      <c r="U76">
+        <v>3</v>
+      </c>
+      <c r="V76">
+        <v>2.75</v>
+      </c>
+      <c r="W76">
+        <v>1.4</v>
+      </c>
+      <c r="X76">
+        <v>8</v>
+      </c>
+      <c r="Y76">
+        <v>1.08</v>
+      </c>
+      <c r="Z76">
+        <v>2.4</v>
+      </c>
+      <c r="AA76">
+        <v>3.4</v>
+      </c>
+      <c r="AB76">
+        <v>2.8</v>
+      </c>
+      <c r="AC76">
+        <v>1.05</v>
+      </c>
+      <c r="AD76">
+        <v>9</v>
+      </c>
+      <c r="AE76">
+        <v>1.3</v>
+      </c>
+      <c r="AF76">
+        <v>3.45</v>
+      </c>
+      <c r="AG76">
+        <v>1.95</v>
+      </c>
+      <c r="AH76">
+        <v>1.85</v>
+      </c>
+      <c r="AI76">
+        <v>1.7</v>
+      </c>
+      <c r="AJ76">
+        <v>2.05</v>
+      </c>
+      <c r="AK76">
+        <v>1.38</v>
+      </c>
+      <c r="AL76">
+        <v>1.25</v>
+      </c>
+      <c r="AM76">
+        <v>1.57</v>
+      </c>
+      <c r="AN76">
+        <v>2.33</v>
+      </c>
+      <c r="AO76">
+        <v>0.5</v>
+      </c>
+      <c r="AP76">
+        <v>1.75</v>
+      </c>
+      <c r="AQ76">
+        <v>1.75</v>
+      </c>
+      <c r="AR76">
+        <v>1.19</v>
+      </c>
+      <c r="AS76">
+        <v>1.78</v>
+      </c>
+      <c r="AT76">
+        <v>2.97</v>
+      </c>
+      <c r="AU76">
+        <v>5</v>
+      </c>
+      <c r="AV76">
+        <v>4</v>
+      </c>
+      <c r="AW76">
+        <v>6</v>
+      </c>
+      <c r="AX76">
+        <v>2</v>
+      </c>
+      <c r="AY76">
+        <v>11</v>
+      </c>
+      <c r="AZ76">
+        <v>6</v>
+      </c>
+      <c r="BA76">
+        <v>4</v>
+      </c>
+      <c r="BB76">
+        <v>1</v>
+      </c>
+      <c r="BC76">
+        <v>5</v>
+      </c>
+      <c r="BD76">
+        <v>1.81</v>
+      </c>
+      <c r="BE76">
+        <v>6.75</v>
+      </c>
+      <c r="BF76">
+        <v>2.05</v>
+      </c>
+      <c r="BG76">
+        <v>1.24</v>
+      </c>
+      <c r="BH76">
+        <v>3.55</v>
+      </c>
+      <c r="BI76">
+        <v>1.34</v>
+      </c>
+      <c r="BJ76">
+        <v>3</v>
+      </c>
+      <c r="BK76">
+        <v>1.57</v>
+      </c>
+      <c r="BL76">
+        <v>2.25</v>
+      </c>
+      <c r="BM76">
+        <v>2.03</v>
+      </c>
+      <c r="BN76">
+        <v>1.7</v>
+      </c>
+      <c r="BO76">
+        <v>2.65</v>
+      </c>
+      <c r="BP76">
         <v>1.42</v>
+      </c>
+    </row>
+    <row r="77" spans="1:68">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7477852</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45559.65625</v>
+      </c>
+      <c r="F77">
+        <v>5</v>
+      </c>
+      <c r="G77" t="s">
+        <v>72</v>
+      </c>
+      <c r="H77" t="s">
+        <v>76</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>0</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>0</v>
+      </c>
+      <c r="O77" t="s">
+        <v>96</v>
+      </c>
+      <c r="P77" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q77">
+        <v>3.1</v>
+      </c>
+      <c r="R77">
+        <v>2</v>
+      </c>
+      <c r="S77">
+        <v>3.5</v>
+      </c>
+      <c r="T77">
+        <v>1.45</v>
+      </c>
+      <c r="U77">
+        <v>2.5</v>
+      </c>
+      <c r="V77">
+        <v>3.05</v>
+      </c>
+      <c r="W77">
+        <v>1.32</v>
+      </c>
+      <c r="X77">
+        <v>9</v>
+      </c>
+      <c r="Y77">
+        <v>1.06</v>
+      </c>
+      <c r="Z77">
+        <v>2.21</v>
+      </c>
+      <c r="AA77">
+        <v>3</v>
+      </c>
+      <c r="AB77">
+        <v>2.8</v>
+      </c>
+      <c r="AC77">
+        <v>1.07</v>
+      </c>
+      <c r="AD77">
+        <v>9.25</v>
+      </c>
+      <c r="AE77">
+        <v>1.35</v>
+      </c>
+      <c r="AF77">
+        <v>2.95</v>
+      </c>
+      <c r="AG77">
+        <v>1.95</v>
+      </c>
+      <c r="AH77">
+        <v>1.75</v>
+      </c>
+      <c r="AI77">
+        <v>1.85</v>
+      </c>
+      <c r="AJ77">
+        <v>1.85</v>
+      </c>
+      <c r="AK77">
+        <v>1.38</v>
+      </c>
+      <c r="AL77">
+        <v>1.3</v>
+      </c>
+      <c r="AM77">
+        <v>1.5</v>
+      </c>
+      <c r="AN77">
+        <v>1.5</v>
+      </c>
+      <c r="AO77">
+        <v>0.33</v>
+      </c>
+      <c r="AP77">
+        <v>1.33</v>
+      </c>
+      <c r="AQ77">
+        <v>0.5</v>
+      </c>
+      <c r="AR77">
+        <v>0.73</v>
+      </c>
+      <c r="AS77">
+        <v>1.11</v>
+      </c>
+      <c r="AT77">
+        <v>1.84</v>
+      </c>
+      <c r="AU77">
+        <v>3</v>
+      </c>
+      <c r="AV77">
+        <v>2</v>
+      </c>
+      <c r="AW77">
+        <v>1</v>
+      </c>
+      <c r="AX77">
+        <v>3</v>
+      </c>
+      <c r="AY77">
+        <v>4</v>
+      </c>
+      <c r="AZ77">
+        <v>5</v>
+      </c>
+      <c r="BA77">
+        <v>8</v>
+      </c>
+      <c r="BB77">
+        <v>1</v>
+      </c>
+      <c r="BC77">
+        <v>9</v>
+      </c>
+      <c r="BD77">
+        <v>2</v>
+      </c>
+      <c r="BE77">
+        <v>6.55</v>
+      </c>
+      <c r="BF77">
+        <v>2.27</v>
+      </c>
+      <c r="BG77">
+        <v>1.29</v>
+      </c>
+      <c r="BH77">
+        <v>3.3</v>
+      </c>
+      <c r="BI77">
+        <v>1.48</v>
+      </c>
+      <c r="BJ77">
+        <v>2.58</v>
+      </c>
+      <c r="BK77">
+        <v>1.81</v>
+      </c>
+      <c r="BL77">
+        <v>1.99</v>
+      </c>
+      <c r="BM77">
+        <v>2.26</v>
+      </c>
+      <c r="BN77">
+        <v>1.61</v>
+      </c>
+      <c r="BO77">
+        <v>2.8</v>
+      </c>
+      <c r="BP77">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7477847</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45559.65625</v>
+      </c>
+      <c r="F78">
+        <v>5</v>
+      </c>
+      <c r="G78" t="s">
+        <v>90</v>
+      </c>
+      <c r="H78" t="s">
+        <v>91</v>
+      </c>
+      <c r="I78">
+        <v>0</v>
+      </c>
+      <c r="J78">
+        <v>2</v>
+      </c>
+      <c r="K78">
+        <v>2</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>2</v>
+      </c>
+      <c r="N78">
+        <v>2</v>
+      </c>
+      <c r="O78" t="s">
+        <v>96</v>
+      </c>
+      <c r="P78" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q78">
+        <v>2.4</v>
+      </c>
+      <c r="R78">
+        <v>2.2</v>
+      </c>
+      <c r="S78">
+        <v>4.2</v>
+      </c>
+      <c r="T78">
+        <v>1.35</v>
+      </c>
+      <c r="U78">
+        <v>2.95</v>
+      </c>
+      <c r="V78">
+        <v>2.6</v>
+      </c>
+      <c r="W78">
+        <v>1.45</v>
+      </c>
+      <c r="X78">
+        <v>6.75</v>
+      </c>
+      <c r="Y78">
+        <v>1.1</v>
+      </c>
+      <c r="Z78">
+        <v>1.8</v>
+      </c>
+      <c r="AA78">
+        <v>3.65</v>
+      </c>
+      <c r="AB78">
+        <v>3.65</v>
+      </c>
+      <c r="AC78">
+        <v>1.04</v>
+      </c>
+      <c r="AD78">
+        <v>13</v>
+      </c>
+      <c r="AE78">
+        <v>1.23</v>
+      </c>
+      <c r="AF78">
+        <v>3.7</v>
+      </c>
+      <c r="AG78">
+        <v>1.75</v>
+      </c>
+      <c r="AH78">
+        <v>1.95</v>
+      </c>
+      <c r="AI78">
+        <v>1.68</v>
+      </c>
+      <c r="AJ78">
+        <v>2.05</v>
+      </c>
+      <c r="AK78">
+        <v>1.24</v>
+      </c>
+      <c r="AL78">
+        <v>1.25</v>
+      </c>
+      <c r="AM78">
+        <v>1.82</v>
+      </c>
+      <c r="AN78">
+        <v>2</v>
+      </c>
+      <c r="AO78">
+        <v>1.33</v>
+      </c>
+      <c r="AP78">
+        <v>1.5</v>
+      </c>
+      <c r="AQ78">
+        <v>1.75</v>
+      </c>
+      <c r="AR78">
+        <v>1.35</v>
+      </c>
+      <c r="AS78">
+        <v>1.51</v>
+      </c>
+      <c r="AT78">
+        <v>2.86</v>
+      </c>
+      <c r="AU78">
+        <v>3</v>
+      </c>
+      <c r="AV78">
+        <v>4</v>
+      </c>
+      <c r="AW78">
+        <v>4</v>
+      </c>
+      <c r="AX78">
+        <v>3</v>
+      </c>
+      <c r="AY78">
+        <v>7</v>
+      </c>
+      <c r="AZ78">
+        <v>7</v>
+      </c>
+      <c r="BA78">
+        <v>10</v>
+      </c>
+      <c r="BB78">
+        <v>2</v>
+      </c>
+      <c r="BC78">
+        <v>12</v>
+      </c>
+      <c r="BD78">
+        <v>1.6</v>
+      </c>
+      <c r="BE78">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF78">
+        <v>2.86</v>
+      </c>
+      <c r="BG78">
+        <v>1.19</v>
+      </c>
+      <c r="BH78">
+        <v>4.2</v>
+      </c>
+      <c r="BI78">
+        <v>1.36</v>
+      </c>
+      <c r="BJ78">
+        <v>2.9</v>
+      </c>
+      <c r="BK78">
+        <v>1.6</v>
+      </c>
+      <c r="BL78">
+        <v>2.2</v>
+      </c>
+      <c r="BM78">
+        <v>1.97</v>
+      </c>
+      <c r="BN78">
+        <v>1.74</v>
+      </c>
+      <c r="BO78">
+        <v>2.48</v>
+      </c>
+      <c r="BP78">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7477848</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45559.65625</v>
+      </c>
+      <c r="F79">
+        <v>5</v>
+      </c>
+      <c r="G79" t="s">
+        <v>75</v>
+      </c>
+      <c r="H79" t="s">
+        <v>74</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>2</v>
+      </c>
+      <c r="K79">
+        <v>3</v>
+      </c>
+      <c r="L79">
+        <v>2</v>
+      </c>
+      <c r="M79">
+        <v>2</v>
+      </c>
+      <c r="N79">
+        <v>4</v>
+      </c>
+      <c r="O79" t="s">
+        <v>150</v>
+      </c>
+      <c r="P79" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q79">
+        <v>3.15</v>
+      </c>
+      <c r="R79">
+        <v>2.25</v>
+      </c>
+      <c r="S79">
+        <v>2.9</v>
+      </c>
+      <c r="T79">
+        <v>1.32</v>
+      </c>
+      <c r="U79">
+        <v>3.1</v>
+      </c>
+      <c r="V79">
+        <v>2.45</v>
+      </c>
+      <c r="W79">
+        <v>1.48</v>
+      </c>
+      <c r="X79">
+        <v>6</v>
+      </c>
+      <c r="Y79">
+        <v>1.12</v>
+      </c>
+      <c r="Z79">
+        <v>2.48</v>
+      </c>
+      <c r="AA79">
+        <v>3.1</v>
+      </c>
+      <c r="AB79">
+        <v>2.38</v>
+      </c>
+      <c r="AC79">
+        <v>1.03</v>
+      </c>
+      <c r="AD79">
+        <v>14</v>
+      </c>
+      <c r="AE79">
+        <v>1.2</v>
+      </c>
+      <c r="AF79">
+        <v>4</v>
+      </c>
+      <c r="AG79">
+        <v>1.7</v>
+      </c>
+      <c r="AH79">
+        <v>2</v>
+      </c>
+      <c r="AI79">
+        <v>1.55</v>
+      </c>
+      <c r="AJ79">
+        <v>2.3</v>
+      </c>
+      <c r="AK79">
+        <v>1.5</v>
+      </c>
+      <c r="AL79">
+        <v>1.28</v>
+      </c>
+      <c r="AM79">
+        <v>1.4</v>
+      </c>
+      <c r="AN79">
+        <v>0</v>
+      </c>
+      <c r="AO79">
+        <v>3</v>
+      </c>
+      <c r="AP79">
+        <v>0.33</v>
+      </c>
+      <c r="AQ79">
+        <v>2.33</v>
+      </c>
+      <c r="AR79">
+        <v>1.23</v>
+      </c>
+      <c r="AS79">
+        <v>1.82</v>
+      </c>
+      <c r="AT79">
+        <v>3.05</v>
+      </c>
+      <c r="AU79">
+        <v>6</v>
+      </c>
+      <c r="AV79">
+        <v>4</v>
+      </c>
+      <c r="AW79">
+        <v>7</v>
+      </c>
+      <c r="AX79">
+        <v>3</v>
+      </c>
+      <c r="AY79">
+        <v>13</v>
+      </c>
+      <c r="AZ79">
+        <v>7</v>
+      </c>
+      <c r="BA79">
+        <v>7</v>
+      </c>
+      <c r="BB79">
+        <v>3</v>
+      </c>
+      <c r="BC79">
+        <v>10</v>
+      </c>
+      <c r="BD79">
+        <v>2.12</v>
+      </c>
+      <c r="BE79">
+        <v>6.65</v>
+      </c>
+      <c r="BF79">
+        <v>2.12</v>
+      </c>
+      <c r="BG79">
+        <v>1.2</v>
+      </c>
+      <c r="BH79">
+        <v>4</v>
+      </c>
+      <c r="BI79">
+        <v>1.36</v>
+      </c>
+      <c r="BJ79">
+        <v>2.9</v>
+      </c>
+      <c r="BK79">
+        <v>1.59</v>
+      </c>
+      <c r="BL79">
+        <v>2.3</v>
+      </c>
+      <c r="BM79">
+        <v>1.96</v>
+      </c>
+      <c r="BN79">
+        <v>1.84</v>
+      </c>
+      <c r="BO79">
+        <v>2.47</v>
+      </c>
+      <c r="BP79">
+        <v>1.52</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="209">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -469,6 +469,21 @@
     <t>['20', '53']</t>
   </si>
   <si>
+    <t>['30', '57']</t>
+  </si>
+  <si>
+    <t>['67']</t>
+  </si>
+  <si>
+    <t>['17']</t>
+  </si>
+  <si>
+    <t>['19', '50', '75']</t>
+  </si>
+  <si>
+    <t>['24', '49', '66']</t>
+  </si>
+  <si>
     <t>['13', '18']</t>
   </si>
   <si>
@@ -608,6 +623,24 @@
   </si>
   <si>
     <t>['42', '45+1']</t>
+  </si>
+  <si>
+    <t>['5', '78']</t>
+  </si>
+  <si>
+    <t>['47', '89']</t>
+  </si>
+  <si>
+    <t>['77', '90+6']</t>
+  </si>
+  <si>
+    <t>['4', '16']</t>
+  </si>
+  <si>
+    <t>['26', '68']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
   </si>
 </sst>
 </file>
@@ -969,7 +1002,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP79"/>
+  <dimension ref="A1:BP91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1228,7 +1261,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1306,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ2">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1434,7 +1467,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1515,7 +1548,7 @@
         <v>3</v>
       </c>
       <c r="AQ3">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1640,7 +1673,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -1718,10 +1751,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ4">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2052,7 +2085,7 @@
         <v>96</v>
       </c>
       <c r="P6" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2133,7 +2166,7 @@
         <v>1</v>
       </c>
       <c r="AQ6">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2258,7 +2291,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2336,10 +2369,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ7">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2542,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ8">
         <v>0</v>
@@ -2670,7 +2703,7 @@
         <v>100</v>
       </c>
       <c r="P9" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2748,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
         <v>1.75</v>
@@ -2876,7 +2909,7 @@
         <v>101</v>
       </c>
       <c r="P10" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -2957,7 +2990,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ10">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3160,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ11">
         <v>1.33</v>
@@ -3288,7 +3321,7 @@
         <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="Q12">
         <v>2.1</v>
@@ -3366,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ12">
         <v>0.33</v>
@@ -3575,7 +3608,7 @@
         <v>2</v>
       </c>
       <c r="AQ13">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3700,7 +3733,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3781,7 +3814,7 @@
         <v>1</v>
       </c>
       <c r="AQ14">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4190,7 +4223,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -4524,7 +4557,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4730,7 +4763,7 @@
         <v>108</v>
       </c>
       <c r="P19" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="Q19">
         <v>3.25</v>
@@ -4808,7 +4841,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
         <v>1</v>
@@ -4936,7 +4969,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5014,7 +5047,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ20">
         <v>1</v>
@@ -5142,7 +5175,7 @@
         <v>109</v>
       </c>
       <c r="P21" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5348,7 +5381,7 @@
         <v>110</v>
       </c>
       <c r="P22" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -5554,7 +5587,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="Q23">
         <v>2.75</v>
@@ -5632,10 +5665,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ23">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -5760,7 +5793,7 @@
         <v>111</v>
       </c>
       <c r="P24" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -5841,7 +5874,7 @@
         <v>2</v>
       </c>
       <c r="AQ24">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6047,7 +6080,7 @@
         <v>1</v>
       </c>
       <c r="AQ25">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR25">
         <v>0</v>
@@ -6662,7 +6695,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ28">
         <v>1</v>
@@ -6871,7 +6904,7 @@
         <v>2</v>
       </c>
       <c r="AQ29">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR29">
         <v>0.87</v>
@@ -7202,7 +7235,7 @@
         <v>116</v>
       </c>
       <c r="P31" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7283,7 +7316,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ31">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR31">
         <v>1.84</v>
@@ -7614,7 +7647,7 @@
         <v>118</v>
       </c>
       <c r="P33" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -7695,7 +7728,7 @@
         <v>2</v>
       </c>
       <c r="AQ33">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR33">
         <v>1.76</v>
@@ -7901,7 +7934,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ34">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR34">
         <v>1.31</v>
@@ -8026,7 +8059,7 @@
         <v>120</v>
       </c>
       <c r="P35" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q35">
         <v>4.5</v>
@@ -8104,7 +8137,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AQ35">
         <v>1.75</v>
@@ -8232,7 +8265,7 @@
         <v>121</v>
       </c>
       <c r="P36" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8310,7 +8343,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ36">
         <v>1.33</v>
@@ -8438,7 +8471,7 @@
         <v>122</v>
       </c>
       <c r="P37" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -8516,7 +8549,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ37">
         <v>3</v>
@@ -8644,7 +8677,7 @@
         <v>123</v>
       </c>
       <c r="P38" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q38">
         <v>2.63</v>
@@ -8722,10 +8755,10 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ38">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR38">
         <v>0.68</v>
@@ -8850,7 +8883,7 @@
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -8931,7 +8964,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ39">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR39">
         <v>2.14</v>
@@ -9340,10 +9373,10 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ41">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR41">
         <v>1.58</v>
@@ -9546,10 +9579,10 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ42">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR42">
         <v>1.98</v>
@@ -9674,7 +9707,7 @@
         <v>96</v>
       </c>
       <c r="P43" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q43">
         <v>2.63</v>
@@ -9755,7 +9788,7 @@
         <v>1</v>
       </c>
       <c r="AQ43">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR43">
         <v>0.79</v>
@@ -9880,7 +9913,7 @@
         <v>127</v>
       </c>
       <c r="P44" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9961,7 +9994,7 @@
         <v>2</v>
       </c>
       <c r="AQ44">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR44">
         <v>1.81</v>
@@ -10086,7 +10119,7 @@
         <v>96</v>
       </c>
       <c r="P45" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q45">
         <v>3.6</v>
@@ -10164,7 +10197,7 @@
         <v>3</v>
       </c>
       <c r="AP45">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ45">
         <v>2.25</v>
@@ -10370,7 +10403,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ46">
         <v>0</v>
@@ -10498,7 +10531,7 @@
         <v>96</v>
       </c>
       <c r="P47" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q47">
         <v>2.05</v>
@@ -10704,7 +10737,7 @@
         <v>129</v>
       </c>
       <c r="P48" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q48">
         <v>1.95</v>
@@ -10782,7 +10815,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ48">
         <v>1</v>
@@ -10988,10 +11021,10 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ49">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR49">
         <v>1.4</v>
@@ -11322,7 +11355,7 @@
         <v>131</v>
       </c>
       <c r="P51" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q51">
         <v>2.3</v>
@@ -11400,7 +11433,7 @@
         <v>0.5</v>
       </c>
       <c r="AP51">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ51">
         <v>0.25</v>
@@ -11609,7 +11642,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ52">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR52">
         <v>1.21</v>
@@ -11940,7 +11973,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q54">
         <v>3.5</v>
@@ -12018,10 +12051,10 @@
         <v>0.5</v>
       </c>
       <c r="AP54">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ54">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR54">
         <v>1.36</v>
@@ -12146,7 +12179,7 @@
         <v>134</v>
       </c>
       <c r="P55" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q55">
         <v>4.5</v>
@@ -12224,10 +12257,10 @@
         <v>2</v>
       </c>
       <c r="AP55">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ55">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR55">
         <v>0.65</v>
@@ -12352,7 +12385,7 @@
         <v>135</v>
       </c>
       <c r="P56" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q56">
         <v>2.2</v>
@@ -12433,7 +12466,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ56">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR56">
         <v>1.85</v>
@@ -12639,7 +12672,7 @@
         <v>1</v>
       </c>
       <c r="AQ57">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR57">
         <v>1.21</v>
@@ -12842,7 +12875,7 @@
         <v>3</v>
       </c>
       <c r="AP58">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ58">
         <v>2.25</v>
@@ -12970,7 +13003,7 @@
         <v>137</v>
       </c>
       <c r="P59" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13051,7 +13084,7 @@
         <v>1</v>
       </c>
       <c r="AQ59">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AR59">
         <v>0.83</v>
@@ -13176,7 +13209,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -13254,7 +13287,7 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ60">
         <v>1</v>
@@ -13382,7 +13415,7 @@
         <v>96</v>
       </c>
       <c r="P61" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -13460,7 +13493,7 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ61">
         <v>1.5</v>
@@ -13666,7 +13699,7 @@
         <v>1.5</v>
       </c>
       <c r="AP62">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ62">
         <v>1</v>
@@ -13794,7 +13827,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q63">
         <v>2.88</v>
@@ -13875,7 +13908,7 @@
         <v>1</v>
       </c>
       <c r="AQ63">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AR63">
         <v>1.7</v>
@@ -14000,7 +14033,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q64">
         <v>2.5</v>
@@ -14078,10 +14111,10 @@
         <v>2</v>
       </c>
       <c r="AP64">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ64">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AR64">
         <v>1.77</v>
@@ -14618,7 +14651,7 @@
         <v>141</v>
       </c>
       <c r="P67" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q67">
         <v>1.95</v>
@@ -14824,7 +14857,7 @@
         <v>142</v>
       </c>
       <c r="P68" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q68">
         <v>2.2</v>
@@ -15030,7 +15063,7 @@
         <v>96</v>
       </c>
       <c r="P69" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q69">
         <v>3.75</v>
@@ -15236,7 +15269,7 @@
         <v>143</v>
       </c>
       <c r="P70" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q70">
         <v>2.05</v>
@@ -15442,7 +15475,7 @@
         <v>144</v>
       </c>
       <c r="P71" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -15648,7 +15681,7 @@
         <v>145</v>
       </c>
       <c r="P72" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q72">
         <v>1.83</v>
@@ -15854,7 +15887,7 @@
         <v>146</v>
       </c>
       <c r="P73" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q73">
         <v>2.4</v>
@@ -16060,7 +16093,7 @@
         <v>147</v>
       </c>
       <c r="P74" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q74">
         <v>4.33</v>
@@ -16266,7 +16299,7 @@
         <v>148</v>
       </c>
       <c r="P75" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -16472,7 +16505,7 @@
         <v>149</v>
       </c>
       <c r="P76" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q76">
         <v>3.1</v>
@@ -16756,7 +16789,7 @@
         <v>0.33</v>
       </c>
       <c r="AP77">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AQ77">
         <v>0.5</v>
@@ -16884,7 +16917,7 @@
         <v>96</v>
       </c>
       <c r="P78" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q78">
         <v>2.4</v>
@@ -17090,7 +17123,7 @@
         <v>150</v>
       </c>
       <c r="P79" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q79">
         <v>3.15</v>
@@ -17168,10 +17201,10 @@
         <v>3</v>
       </c>
       <c r="AP79">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AQ79">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR79">
         <v>1.23</v>
@@ -17247,6 +17280,2478 @@
       </c>
       <c r="BP79">
         <v>1.52</v>
+      </c>
+    </row>
+    <row r="80" spans="1:68">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7477892</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45563.35416666666</v>
+      </c>
+      <c r="F80">
+        <v>8</v>
+      </c>
+      <c r="G80" t="s">
+        <v>77</v>
+      </c>
+      <c r="H80" t="s">
+        <v>93</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>2</v>
+      </c>
+      <c r="N80">
+        <v>2</v>
+      </c>
+      <c r="O80" t="s">
+        <v>96</v>
+      </c>
+      <c r="P80" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q80">
+        <v>4.33</v>
+      </c>
+      <c r="R80">
+        <v>2.3</v>
+      </c>
+      <c r="S80">
+        <v>2.4</v>
+      </c>
+      <c r="T80">
+        <v>1.33</v>
+      </c>
+      <c r="U80">
+        <v>3.25</v>
+      </c>
+      <c r="V80">
+        <v>2.63</v>
+      </c>
+      <c r="W80">
+        <v>1.44</v>
+      </c>
+      <c r="X80">
+        <v>6.5</v>
+      </c>
+      <c r="Y80">
+        <v>1.11</v>
+      </c>
+      <c r="Z80">
+        <v>4.05</v>
+      </c>
+      <c r="AA80">
+        <v>3.84</v>
+      </c>
+      <c r="AB80">
+        <v>1.83</v>
+      </c>
+      <c r="AC80">
+        <v>1.03</v>
+      </c>
+      <c r="AD80">
+        <v>13</v>
+      </c>
+      <c r="AE80">
+        <v>1.19</v>
+      </c>
+      <c r="AF80">
+        <v>3.65</v>
+      </c>
+      <c r="AG80">
+        <v>1.9</v>
+      </c>
+      <c r="AH80">
+        <v>1.8</v>
+      </c>
+      <c r="AI80">
+        <v>1.67</v>
+      </c>
+      <c r="AJ80">
+        <v>2.1</v>
+      </c>
+      <c r="AK80">
+        <v>1.95</v>
+      </c>
+      <c r="AL80">
+        <v>1.22</v>
+      </c>
+      <c r="AM80">
+        <v>1.25</v>
+      </c>
+      <c r="AN80">
+        <v>1.33</v>
+      </c>
+      <c r="AO80">
+        <v>1.5</v>
+      </c>
+      <c r="AP80">
+        <v>1</v>
+      </c>
+      <c r="AQ80">
+        <v>2</v>
+      </c>
+      <c r="AR80">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AS80">
+        <v>1.17</v>
+      </c>
+      <c r="AT80">
+        <v>1.98</v>
+      </c>
+      <c r="AU80">
+        <v>4</v>
+      </c>
+      <c r="AV80">
+        <v>7</v>
+      </c>
+      <c r="AW80">
+        <v>2</v>
+      </c>
+      <c r="AX80">
+        <v>2</v>
+      </c>
+      <c r="AY80">
+        <v>6</v>
+      </c>
+      <c r="AZ80">
+        <v>9</v>
+      </c>
+      <c r="BA80">
+        <v>6</v>
+      </c>
+      <c r="BB80">
+        <v>4</v>
+      </c>
+      <c r="BC80">
+        <v>10</v>
+      </c>
+      <c r="BD80">
+        <v>2.65</v>
+      </c>
+      <c r="BE80">
+        <v>7</v>
+      </c>
+      <c r="BF80">
+        <v>1.49</v>
+      </c>
+      <c r="BG80">
+        <v>1.2</v>
+      </c>
+      <c r="BH80">
+        <v>3.95</v>
+      </c>
+      <c r="BI80">
+        <v>1.34</v>
+      </c>
+      <c r="BJ80">
+        <v>2.9</v>
+      </c>
+      <c r="BK80">
+        <v>1.57</v>
+      </c>
+      <c r="BL80">
+        <v>2.23</v>
+      </c>
+      <c r="BM80">
+        <v>1.9</v>
+      </c>
+      <c r="BN80">
+        <v>1.79</v>
+      </c>
+      <c r="BO80">
+        <v>2.38</v>
+      </c>
+      <c r="BP80">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:68">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7477895</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45563.35416666666</v>
+      </c>
+      <c r="F81">
+        <v>8</v>
+      </c>
+      <c r="G81" t="s">
+        <v>84</v>
+      </c>
+      <c r="H81" t="s">
+        <v>90</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>2</v>
+      </c>
+      <c r="L81">
+        <v>2</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>3</v>
+      </c>
+      <c r="O81" t="s">
+        <v>151</v>
+      </c>
+      <c r="P81" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q81">
+        <v>3.4</v>
+      </c>
+      <c r="R81">
+        <v>2.1</v>
+      </c>
+      <c r="S81">
+        <v>3.2</v>
+      </c>
+      <c r="T81">
+        <v>1.4</v>
+      </c>
+      <c r="U81">
+        <v>2.75</v>
+      </c>
+      <c r="V81">
+        <v>3</v>
+      </c>
+      <c r="W81">
+        <v>1.36</v>
+      </c>
+      <c r="X81">
+        <v>8</v>
+      </c>
+      <c r="Y81">
+        <v>1.08</v>
+      </c>
+      <c r="Z81">
+        <v>2.83</v>
+      </c>
+      <c r="AA81">
+        <v>3.6</v>
+      </c>
+      <c r="AB81">
+        <v>2.36</v>
+      </c>
+      <c r="AC81">
+        <v>1.06</v>
+      </c>
+      <c r="AD81">
+        <v>8.5</v>
+      </c>
+      <c r="AE81">
+        <v>1.33</v>
+      </c>
+      <c r="AF81">
+        <v>3.3</v>
+      </c>
+      <c r="AG81">
+        <v>1.9</v>
+      </c>
+      <c r="AH81">
+        <v>1.8</v>
+      </c>
+      <c r="AI81">
+        <v>1.75</v>
+      </c>
+      <c r="AJ81">
+        <v>2</v>
+      </c>
+      <c r="AK81">
+        <v>1.5</v>
+      </c>
+      <c r="AL81">
+        <v>1.28</v>
+      </c>
+      <c r="AM81">
+        <v>1.42</v>
+      </c>
+      <c r="AN81">
+        <v>2</v>
+      </c>
+      <c r="AO81">
+        <v>2</v>
+      </c>
+      <c r="AP81">
+        <v>2.25</v>
+      </c>
+      <c r="AQ81">
+        <v>1.5</v>
+      </c>
+      <c r="AR81">
+        <v>1.41</v>
+      </c>
+      <c r="AS81">
+        <v>1.26</v>
+      </c>
+      <c r="AT81">
+        <v>2.67</v>
+      </c>
+      <c r="AU81">
+        <v>3</v>
+      </c>
+      <c r="AV81">
+        <v>8</v>
+      </c>
+      <c r="AW81">
+        <v>0</v>
+      </c>
+      <c r="AX81">
+        <v>5</v>
+      </c>
+      <c r="AY81">
+        <v>3</v>
+      </c>
+      <c r="AZ81">
+        <v>13</v>
+      </c>
+      <c r="BA81">
+        <v>2</v>
+      </c>
+      <c r="BB81">
+        <v>11</v>
+      </c>
+      <c r="BC81">
+        <v>13</v>
+      </c>
+      <c r="BD81">
+        <v>2.05</v>
+      </c>
+      <c r="BE81">
+        <v>6.5</v>
+      </c>
+      <c r="BF81">
+        <v>1.81</v>
+      </c>
+      <c r="BG81">
+        <v>1.2</v>
+      </c>
+      <c r="BH81">
+        <v>3.9</v>
+      </c>
+      <c r="BI81">
+        <v>1.36</v>
+      </c>
+      <c r="BJ81">
+        <v>2.8</v>
+      </c>
+      <c r="BK81">
+        <v>1.6</v>
+      </c>
+      <c r="BL81">
+        <v>2.17</v>
+      </c>
+      <c r="BM81">
+        <v>1.95</v>
+      </c>
+      <c r="BN81">
+        <v>1.75</v>
+      </c>
+      <c r="BO81">
+        <v>2.43</v>
+      </c>
+      <c r="BP81">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7477898</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45563.45833333334</v>
+      </c>
+      <c r="F82">
+        <v>8</v>
+      </c>
+      <c r="G82" t="s">
+        <v>72</v>
+      </c>
+      <c r="H82" t="s">
+        <v>81</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
+        <v>0</v>
+      </c>
+      <c r="O82" t="s">
+        <v>96</v>
+      </c>
+      <c r="P82" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q82">
+        <v>2.63</v>
+      </c>
+      <c r="R82">
+        <v>2.2</v>
+      </c>
+      <c r="S82">
+        <v>4</v>
+      </c>
+      <c r="T82">
+        <v>1.4</v>
+      </c>
+      <c r="U82">
+        <v>2.75</v>
+      </c>
+      <c r="V82">
+        <v>2.75</v>
+      </c>
+      <c r="W82">
+        <v>1.4</v>
+      </c>
+      <c r="X82">
+        <v>8</v>
+      </c>
+      <c r="Y82">
+        <v>1.08</v>
+      </c>
+      <c r="Z82">
+        <v>2.23</v>
+      </c>
+      <c r="AA82">
+        <v>3.4</v>
+      </c>
+      <c r="AB82">
+        <v>3.2</v>
+      </c>
+      <c r="AC82">
+        <v>1.03</v>
+      </c>
+      <c r="AD82">
+        <v>9</v>
+      </c>
+      <c r="AE82">
+        <v>1.3</v>
+      </c>
+      <c r="AF82">
+        <v>3.2</v>
+      </c>
+      <c r="AG82">
+        <v>1.9</v>
+      </c>
+      <c r="AH82">
+        <v>1.8</v>
+      </c>
+      <c r="AI82">
+        <v>1.75</v>
+      </c>
+      <c r="AJ82">
+        <v>2</v>
+      </c>
+      <c r="AK82">
+        <v>1.25</v>
+      </c>
+      <c r="AL82">
+        <v>1.25</v>
+      </c>
+      <c r="AM82">
+        <v>1.77</v>
+      </c>
+      <c r="AN82">
+        <v>1.33</v>
+      </c>
+      <c r="AO82">
+        <v>1</v>
+      </c>
+      <c r="AP82">
+        <v>1.25</v>
+      </c>
+      <c r="AQ82">
+        <v>1</v>
+      </c>
+      <c r="AR82">
+        <v>0.73</v>
+      </c>
+      <c r="AS82">
+        <v>1.06</v>
+      </c>
+      <c r="AT82">
+        <v>1.79</v>
+      </c>
+      <c r="AU82">
+        <v>7</v>
+      </c>
+      <c r="AV82">
+        <v>0</v>
+      </c>
+      <c r="AW82">
+        <v>5</v>
+      </c>
+      <c r="AX82">
+        <v>6</v>
+      </c>
+      <c r="AY82">
+        <v>12</v>
+      </c>
+      <c r="AZ82">
+        <v>6</v>
+      </c>
+      <c r="BA82">
+        <v>6</v>
+      </c>
+      <c r="BB82">
+        <v>6</v>
+      </c>
+      <c r="BC82">
+        <v>12</v>
+      </c>
+      <c r="BD82">
+        <v>1.63</v>
+      </c>
+      <c r="BE82">
+        <v>6.5</v>
+      </c>
+      <c r="BF82">
+        <v>2.38</v>
+      </c>
+      <c r="BG82">
+        <v>1.2</v>
+      </c>
+      <c r="BH82">
+        <v>3.95</v>
+      </c>
+      <c r="BI82">
+        <v>1.35</v>
+      </c>
+      <c r="BJ82">
+        <v>2.9</v>
+      </c>
+      <c r="BK82">
+        <v>1.58</v>
+      </c>
+      <c r="BL82">
+        <v>2.18</v>
+      </c>
+      <c r="BM82">
+        <v>1.92</v>
+      </c>
+      <c r="BN82">
+        <v>1.77</v>
+      </c>
+      <c r="BO82">
+        <v>2.4</v>
+      </c>
+      <c r="BP82">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7477897</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45563.45833333334</v>
+      </c>
+      <c r="F83">
+        <v>8</v>
+      </c>
+      <c r="G83" t="s">
+        <v>76</v>
+      </c>
+      <c r="H83" t="s">
+        <v>83</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83" t="s">
+        <v>152</v>
+      </c>
+      <c r="P83" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q83">
+        <v>3.4</v>
+      </c>
+      <c r="R83">
+        <v>2.1</v>
+      </c>
+      <c r="S83">
+        <v>3.25</v>
+      </c>
+      <c r="T83">
+        <v>1.44</v>
+      </c>
+      <c r="U83">
+        <v>2.63</v>
+      </c>
+      <c r="V83">
+        <v>3</v>
+      </c>
+      <c r="W83">
+        <v>1.36</v>
+      </c>
+      <c r="X83">
+        <v>9</v>
+      </c>
+      <c r="Y83">
+        <v>1.07</v>
+      </c>
+      <c r="Z83">
+        <v>2.6</v>
+      </c>
+      <c r="AA83">
+        <v>3.24</v>
+      </c>
+      <c r="AB83">
+        <v>2.76</v>
+      </c>
+      <c r="AC83">
+        <v>1.03</v>
+      </c>
+      <c r="AD83">
+        <v>9</v>
+      </c>
+      <c r="AE83">
+        <v>1.29</v>
+      </c>
+      <c r="AF83">
+        <v>3.3</v>
+      </c>
+      <c r="AG83">
+        <v>1.91</v>
+      </c>
+      <c r="AH83">
+        <v>1.8</v>
+      </c>
+      <c r="AI83">
+        <v>1.8</v>
+      </c>
+      <c r="AJ83">
+        <v>1.95</v>
+      </c>
+      <c r="AK83">
+        <v>1.48</v>
+      </c>
+      <c r="AL83">
+        <v>1.28</v>
+      </c>
+      <c r="AM83">
+        <v>1.45</v>
+      </c>
+      <c r="AN83">
+        <v>2</v>
+      </c>
+      <c r="AO83">
+        <v>2</v>
+      </c>
+      <c r="AP83">
+        <v>2.25</v>
+      </c>
+      <c r="AQ83">
+        <v>1.5</v>
+      </c>
+      <c r="AR83">
+        <v>1.2</v>
+      </c>
+      <c r="AS83">
+        <v>0.92</v>
+      </c>
+      <c r="AT83">
+        <v>2.12</v>
+      </c>
+      <c r="AU83">
+        <v>4</v>
+      </c>
+      <c r="AV83">
+        <v>3</v>
+      </c>
+      <c r="AW83">
+        <v>3</v>
+      </c>
+      <c r="AX83">
+        <v>3</v>
+      </c>
+      <c r="AY83">
+        <v>7</v>
+      </c>
+      <c r="AZ83">
+        <v>6</v>
+      </c>
+      <c r="BA83">
+        <v>12</v>
+      </c>
+      <c r="BB83">
+        <v>6</v>
+      </c>
+      <c r="BC83">
+        <v>18</v>
+      </c>
+      <c r="BD83">
+        <v>1.73</v>
+      </c>
+      <c r="BE83">
+        <v>6.4</v>
+      </c>
+      <c r="BF83">
+        <v>2.18</v>
+      </c>
+      <c r="BG83">
+        <v>1.2</v>
+      </c>
+      <c r="BH83">
+        <v>3.9</v>
+      </c>
+      <c r="BI83">
+        <v>1.36</v>
+      </c>
+      <c r="BJ83">
+        <v>2.8</v>
+      </c>
+      <c r="BK83">
+        <v>1.58</v>
+      </c>
+      <c r="BL83">
+        <v>2.17</v>
+      </c>
+      <c r="BM83">
+        <v>1.93</v>
+      </c>
+      <c r="BN83">
+        <v>1.76</v>
+      </c>
+      <c r="BO83">
+        <v>2.4</v>
+      </c>
+      <c r="BP83">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7477896</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45563.45833333334</v>
+      </c>
+      <c r="F84">
+        <v>8</v>
+      </c>
+      <c r="G84" t="s">
+        <v>82</v>
+      </c>
+      <c r="H84" t="s">
+        <v>85</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <v>1</v>
+      </c>
+      <c r="N84">
+        <v>2</v>
+      </c>
+      <c r="O84" t="s">
+        <v>127</v>
+      </c>
+      <c r="P84" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q84">
+        <v>4</v>
+      </c>
+      <c r="R84">
+        <v>2.1</v>
+      </c>
+      <c r="S84">
+        <v>2.75</v>
+      </c>
+      <c r="T84">
+        <v>1.4</v>
+      </c>
+      <c r="U84">
+        <v>2.75</v>
+      </c>
+      <c r="V84">
+        <v>3</v>
+      </c>
+      <c r="W84">
+        <v>1.36</v>
+      </c>
+      <c r="X84">
+        <v>8</v>
+      </c>
+      <c r="Y84">
+        <v>1.08</v>
+      </c>
+      <c r="Z84">
+        <v>3.52</v>
+      </c>
+      <c r="AA84">
+        <v>3.5</v>
+      </c>
+      <c r="AB84">
+        <v>2.06</v>
+      </c>
+      <c r="AC84">
+        <v>1.03</v>
+      </c>
+      <c r="AD84">
+        <v>9</v>
+      </c>
+      <c r="AE84">
+        <v>1.3</v>
+      </c>
+      <c r="AF84">
+        <v>3.2</v>
+      </c>
+      <c r="AG84">
+        <v>1.8</v>
+      </c>
+      <c r="AH84">
+        <v>1.9</v>
+      </c>
+      <c r="AI84">
+        <v>1.75</v>
+      </c>
+      <c r="AJ84">
+        <v>2</v>
+      </c>
+      <c r="AK84">
+        <v>1.75</v>
+      </c>
+      <c r="AL84">
+        <v>1.25</v>
+      </c>
+      <c r="AM84">
+        <v>1.33</v>
+      </c>
+      <c r="AN84">
+        <v>1</v>
+      </c>
+      <c r="AO84">
+        <v>0.33</v>
+      </c>
+      <c r="AP84">
+        <v>1</v>
+      </c>
+      <c r="AQ84">
+        <v>0.5</v>
+      </c>
+      <c r="AR84">
+        <v>1.22</v>
+      </c>
+      <c r="AS84">
+        <v>1.6</v>
+      </c>
+      <c r="AT84">
+        <v>2.82</v>
+      </c>
+      <c r="AU84">
+        <v>2</v>
+      </c>
+      <c r="AV84">
+        <v>2</v>
+      </c>
+      <c r="AW84">
+        <v>1</v>
+      </c>
+      <c r="AX84">
+        <v>7</v>
+      </c>
+      <c r="AY84">
+        <v>3</v>
+      </c>
+      <c r="AZ84">
+        <v>9</v>
+      </c>
+      <c r="BA84">
+        <v>3</v>
+      </c>
+      <c r="BB84">
+        <v>5</v>
+      </c>
+      <c r="BC84">
+        <v>8</v>
+      </c>
+      <c r="BD84">
+        <v>2.1</v>
+      </c>
+      <c r="BE84">
+        <v>6.4</v>
+      </c>
+      <c r="BF84">
+        <v>1.78</v>
+      </c>
+      <c r="BG84">
+        <v>1.2</v>
+      </c>
+      <c r="BH84">
+        <v>3.9</v>
+      </c>
+      <c r="BI84">
+        <v>1.37</v>
+      </c>
+      <c r="BJ84">
+        <v>2.8</v>
+      </c>
+      <c r="BK84">
+        <v>1.61</v>
+      </c>
+      <c r="BL84">
+        <v>2.15</v>
+      </c>
+      <c r="BM84">
+        <v>1.96</v>
+      </c>
+      <c r="BN84">
+        <v>1.73</v>
+      </c>
+      <c r="BO84">
+        <v>2.48</v>
+      </c>
+      <c r="BP84">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7477894</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45563.45833333334</v>
+      </c>
+      <c r="F85">
+        <v>8</v>
+      </c>
+      <c r="G85" t="s">
+        <v>87</v>
+      </c>
+      <c r="H85" t="s">
+        <v>92</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>2</v>
+      </c>
+      <c r="N85">
+        <v>2</v>
+      </c>
+      <c r="O85" t="s">
+        <v>96</v>
+      </c>
+      <c r="P85" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q85">
+        <v>3.4</v>
+      </c>
+      <c r="R85">
+        <v>2.25</v>
+      </c>
+      <c r="S85">
+        <v>3</v>
+      </c>
+      <c r="T85">
+        <v>1.33</v>
+      </c>
+      <c r="U85">
+        <v>3.25</v>
+      </c>
+      <c r="V85">
+        <v>2.63</v>
+      </c>
+      <c r="W85">
+        <v>1.44</v>
+      </c>
+      <c r="X85">
+        <v>6.5</v>
+      </c>
+      <c r="Y85">
+        <v>1.11</v>
+      </c>
+      <c r="Z85">
+        <v>2.83</v>
+      </c>
+      <c r="AA85">
+        <v>3.6</v>
+      </c>
+      <c r="AB85">
+        <v>2.36</v>
+      </c>
+      <c r="AC85">
+        <v>1.03</v>
+      </c>
+      <c r="AD85">
+        <v>13</v>
+      </c>
+      <c r="AE85">
+        <v>1.19</v>
+      </c>
+      <c r="AF85">
+        <v>3.66</v>
+      </c>
+      <c r="AG85">
+        <v>1.85</v>
+      </c>
+      <c r="AH85">
+        <v>1.85</v>
+      </c>
+      <c r="AI85">
+        <v>1.57</v>
+      </c>
+      <c r="AJ85">
+        <v>2.25</v>
+      </c>
+      <c r="AK85">
+        <v>1.57</v>
+      </c>
+      <c r="AL85">
+        <v>1.33</v>
+      </c>
+      <c r="AM85">
+        <v>1.4</v>
+      </c>
+      <c r="AN85">
+        <v>1.33</v>
+      </c>
+      <c r="AO85">
+        <v>1.5</v>
+      </c>
+      <c r="AP85">
+        <v>1</v>
+      </c>
+      <c r="AQ85">
+        <v>2</v>
+      </c>
+      <c r="AR85">
+        <v>1.19</v>
+      </c>
+      <c r="AS85">
+        <v>1.26</v>
+      </c>
+      <c r="AT85">
+        <v>2.45</v>
+      </c>
+      <c r="AU85">
+        <v>9</v>
+      </c>
+      <c r="AV85">
+        <v>4</v>
+      </c>
+      <c r="AW85">
+        <v>7</v>
+      </c>
+      <c r="AX85">
+        <v>6</v>
+      </c>
+      <c r="AY85">
+        <v>16</v>
+      </c>
+      <c r="AZ85">
+        <v>10</v>
+      </c>
+      <c r="BA85">
+        <v>6</v>
+      </c>
+      <c r="BB85">
+        <v>4</v>
+      </c>
+      <c r="BC85">
+        <v>10</v>
+      </c>
+      <c r="BD85">
+        <v>2</v>
+      </c>
+      <c r="BE85">
+        <v>6.1</v>
+      </c>
+      <c r="BF85">
+        <v>1.89</v>
+      </c>
+      <c r="BG85">
+        <v>1.33</v>
+      </c>
+      <c r="BH85">
+        <v>2.95</v>
+      </c>
+      <c r="BI85">
+        <v>1.56</v>
+      </c>
+      <c r="BJ85">
+        <v>2.23</v>
+      </c>
+      <c r="BK85">
+        <v>1.92</v>
+      </c>
+      <c r="BL85">
+        <v>1.77</v>
+      </c>
+      <c r="BM85">
+        <v>2.43</v>
+      </c>
+      <c r="BN85">
+        <v>1.48</v>
+      </c>
+      <c r="BO85">
+        <v>3.15</v>
+      </c>
+      <c r="BP85">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7477893</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45563.45833333334</v>
+      </c>
+      <c r="F86">
+        <v>8</v>
+      </c>
+      <c r="G86" t="s">
+        <v>75</v>
+      </c>
+      <c r="H86" t="s">
+        <v>71</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>0</v>
+      </c>
+      <c r="N86">
+        <v>0</v>
+      </c>
+      <c r="O86" t="s">
+        <v>96</v>
+      </c>
+      <c r="P86" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q86">
+        <v>3.6</v>
+      </c>
+      <c r="R86">
+        <v>2.2</v>
+      </c>
+      <c r="S86">
+        <v>2.88</v>
+      </c>
+      <c r="T86">
+        <v>1.36</v>
+      </c>
+      <c r="U86">
+        <v>3</v>
+      </c>
+      <c r="V86">
+        <v>2.75</v>
+      </c>
+      <c r="W86">
+        <v>1.4</v>
+      </c>
+      <c r="X86">
+        <v>7</v>
+      </c>
+      <c r="Y86">
+        <v>1.1</v>
+      </c>
+      <c r="Z86">
+        <v>2.79</v>
+      </c>
+      <c r="AA86">
+        <v>3.44</v>
+      </c>
+      <c r="AB86">
+        <v>2.46</v>
+      </c>
+      <c r="AC86">
+        <v>1.02</v>
+      </c>
+      <c r="AD86">
+        <v>10</v>
+      </c>
+      <c r="AE86">
+        <v>1.25</v>
+      </c>
+      <c r="AF86">
+        <v>3.6</v>
+      </c>
+      <c r="AG86">
+        <v>1.8</v>
+      </c>
+      <c r="AH86">
+        <v>1.9</v>
+      </c>
+      <c r="AI86">
+        <v>1.67</v>
+      </c>
+      <c r="AJ86">
+        <v>2.1</v>
+      </c>
+      <c r="AK86">
+        <v>1.62</v>
+      </c>
+      <c r="AL86">
+        <v>1.28</v>
+      </c>
+      <c r="AM86">
+        <v>1.35</v>
+      </c>
+      <c r="AN86">
+        <v>0.33</v>
+      </c>
+      <c r="AO86">
+        <v>1.33</v>
+      </c>
+      <c r="AP86">
+        <v>0.5</v>
+      </c>
+      <c r="AQ86">
+        <v>1.25</v>
+      </c>
+      <c r="AR86">
+        <v>1.36</v>
+      </c>
+      <c r="AS86">
+        <v>1.03</v>
+      </c>
+      <c r="AT86">
+        <v>2.39</v>
+      </c>
+      <c r="AU86">
+        <v>2</v>
+      </c>
+      <c r="AV86">
+        <v>3</v>
+      </c>
+      <c r="AW86">
+        <v>7</v>
+      </c>
+      <c r="AX86">
+        <v>3</v>
+      </c>
+      <c r="AY86">
+        <v>9</v>
+      </c>
+      <c r="AZ86">
+        <v>6</v>
+      </c>
+      <c r="BA86">
+        <v>1</v>
+      </c>
+      <c r="BB86">
+        <v>3</v>
+      </c>
+      <c r="BC86">
+        <v>4</v>
+      </c>
+      <c r="BD86">
+        <v>2.08</v>
+      </c>
+      <c r="BE86">
+        <v>6.4</v>
+      </c>
+      <c r="BF86">
+        <v>1.79</v>
+      </c>
+      <c r="BG86">
+        <v>1.24</v>
+      </c>
+      <c r="BH86">
+        <v>3.55</v>
+      </c>
+      <c r="BI86">
+        <v>1.44</v>
+      </c>
+      <c r="BJ86">
+        <v>2.55</v>
+      </c>
+      <c r="BK86">
+        <v>1.71</v>
+      </c>
+      <c r="BL86">
+        <v>2</v>
+      </c>
+      <c r="BM86">
+        <v>2.1</v>
+      </c>
+      <c r="BN86">
+        <v>1.63</v>
+      </c>
+      <c r="BO86">
+        <v>2.65</v>
+      </c>
+      <c r="BP86">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7477890</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45563.45833333334</v>
+      </c>
+      <c r="F87">
+        <v>8</v>
+      </c>
+      <c r="G87" t="s">
+        <v>79</v>
+      </c>
+      <c r="H87" t="s">
+        <v>86</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>1</v>
+      </c>
+      <c r="L87">
+        <v>1</v>
+      </c>
+      <c r="M87">
+        <v>2</v>
+      </c>
+      <c r="N87">
+        <v>3</v>
+      </c>
+      <c r="O87" t="s">
+        <v>153</v>
+      </c>
+      <c r="P87" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q87">
+        <v>3.4</v>
+      </c>
+      <c r="R87">
+        <v>2.2</v>
+      </c>
+      <c r="S87">
+        <v>3.1</v>
+      </c>
+      <c r="T87">
+        <v>1.4</v>
+      </c>
+      <c r="U87">
+        <v>2.75</v>
+      </c>
+      <c r="V87">
+        <v>2.75</v>
+      </c>
+      <c r="W87">
+        <v>1.4</v>
+      </c>
+      <c r="X87">
+        <v>8</v>
+      </c>
+      <c r="Y87">
+        <v>1.08</v>
+      </c>
+      <c r="Z87">
+        <v>2.88</v>
+      </c>
+      <c r="AA87">
+        <v>3.48</v>
+      </c>
+      <c r="AB87">
+        <v>2.38</v>
+      </c>
+      <c r="AC87">
+        <v>1.06</v>
+      </c>
+      <c r="AD87">
+        <v>8.5</v>
+      </c>
+      <c r="AE87">
+        <v>1.24</v>
+      </c>
+      <c r="AF87">
+        <v>3.26</v>
+      </c>
+      <c r="AG87">
+        <v>1.85</v>
+      </c>
+      <c r="AH87">
+        <v>1.85</v>
+      </c>
+      <c r="AI87">
+        <v>1.7</v>
+      </c>
+      <c r="AJ87">
+        <v>2.05</v>
+      </c>
+      <c r="AK87">
+        <v>1.53</v>
+      </c>
+      <c r="AL87">
+        <v>1.25</v>
+      </c>
+      <c r="AM87">
+        <v>1.4</v>
+      </c>
+      <c r="AN87">
+        <v>2</v>
+      </c>
+      <c r="AO87">
+        <v>1.33</v>
+      </c>
+      <c r="AP87">
+        <v>1.5</v>
+      </c>
+      <c r="AQ87">
+        <v>1.75</v>
+      </c>
+      <c r="AR87">
+        <v>1.24</v>
+      </c>
+      <c r="AS87">
+        <v>1.46</v>
+      </c>
+      <c r="AT87">
+        <v>2.7</v>
+      </c>
+      <c r="AU87">
+        <v>2</v>
+      </c>
+      <c r="AV87">
+        <v>6</v>
+      </c>
+      <c r="AW87">
+        <v>3</v>
+      </c>
+      <c r="AX87">
+        <v>4</v>
+      </c>
+      <c r="AY87">
+        <v>5</v>
+      </c>
+      <c r="AZ87">
+        <v>10</v>
+      </c>
+      <c r="BA87">
+        <v>2</v>
+      </c>
+      <c r="BB87">
+        <v>4</v>
+      </c>
+      <c r="BC87">
+        <v>6</v>
+      </c>
+      <c r="BD87">
+        <v>1.95</v>
+      </c>
+      <c r="BE87">
+        <v>6.4</v>
+      </c>
+      <c r="BF87">
+        <v>1.92</v>
+      </c>
+      <c r="BG87">
+        <v>1.24</v>
+      </c>
+      <c r="BH87">
+        <v>3.55</v>
+      </c>
+      <c r="BI87">
+        <v>1.43</v>
+      </c>
+      <c r="BJ87">
+        <v>2.55</v>
+      </c>
+      <c r="BK87">
+        <v>1.72</v>
+      </c>
+      <c r="BL87">
+        <v>1.98</v>
+      </c>
+      <c r="BM87">
+        <v>2.1</v>
+      </c>
+      <c r="BN87">
+        <v>1.64</v>
+      </c>
+      <c r="BO87">
+        <v>2.65</v>
+      </c>
+      <c r="BP87">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7477889</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45563.45833333334</v>
+      </c>
+      <c r="F88">
+        <v>8</v>
+      </c>
+      <c r="G88" t="s">
+        <v>91</v>
+      </c>
+      <c r="H88" t="s">
+        <v>78</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>1</v>
+      </c>
+      <c r="L88">
+        <v>3</v>
+      </c>
+      <c r="M88">
+        <v>0</v>
+      </c>
+      <c r="N88">
+        <v>3</v>
+      </c>
+      <c r="O88" t="s">
+        <v>154</v>
+      </c>
+      <c r="P88" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q88">
+        <v>2.2</v>
+      </c>
+      <c r="R88">
+        <v>2.3</v>
+      </c>
+      <c r="S88">
+        <v>5.5</v>
+      </c>
+      <c r="T88">
+        <v>1.36</v>
+      </c>
+      <c r="U88">
+        <v>3</v>
+      </c>
+      <c r="V88">
+        <v>2.63</v>
+      </c>
+      <c r="W88">
+        <v>1.44</v>
+      </c>
+      <c r="X88">
+        <v>7</v>
+      </c>
+      <c r="Y88">
+        <v>1.1</v>
+      </c>
+      <c r="Z88">
+        <v>1.5</v>
+      </c>
+      <c r="AA88">
+        <v>4.45</v>
+      </c>
+      <c r="AB88">
+        <v>6.1</v>
+      </c>
+      <c r="AC88">
+        <v>1.04</v>
+      </c>
+      <c r="AD88">
+        <v>12</v>
+      </c>
+      <c r="AE88">
+        <v>1.23</v>
+      </c>
+      <c r="AF88">
+        <v>3.34</v>
+      </c>
+      <c r="AG88">
+        <v>1.8</v>
+      </c>
+      <c r="AH88">
+        <v>1.9</v>
+      </c>
+      <c r="AI88">
+        <v>1.91</v>
+      </c>
+      <c r="AJ88">
+        <v>1.91</v>
+      </c>
+      <c r="AK88">
+        <v>1.14</v>
+      </c>
+      <c r="AL88">
+        <v>1.24</v>
+      </c>
+      <c r="AM88">
+        <v>2.38</v>
+      </c>
+      <c r="AN88">
+        <v>1.33</v>
+      </c>
+      <c r="AO88">
+        <v>1</v>
+      </c>
+      <c r="AP88">
+        <v>1.75</v>
+      </c>
+      <c r="AQ88">
+        <v>0.75</v>
+      </c>
+      <c r="AR88">
+        <v>1.55</v>
+      </c>
+      <c r="AS88">
+        <v>1.24</v>
+      </c>
+      <c r="AT88">
+        <v>2.79</v>
+      </c>
+      <c r="AU88">
+        <v>7</v>
+      </c>
+      <c r="AV88">
+        <v>4</v>
+      </c>
+      <c r="AW88">
+        <v>6</v>
+      </c>
+      <c r="AX88">
+        <v>6</v>
+      </c>
+      <c r="AY88">
+        <v>13</v>
+      </c>
+      <c r="AZ88">
+        <v>10</v>
+      </c>
+      <c r="BA88">
+        <v>7</v>
+      </c>
+      <c r="BB88">
+        <v>11</v>
+      </c>
+      <c r="BC88">
+        <v>18</v>
+      </c>
+      <c r="BD88">
+        <v>1.35</v>
+      </c>
+      <c r="BE88">
+        <v>6.75</v>
+      </c>
+      <c r="BF88">
+        <v>3.3</v>
+      </c>
+      <c r="BG88">
+        <v>1.34</v>
+      </c>
+      <c r="BH88">
+        <v>2.8</v>
+      </c>
+      <c r="BI88">
+        <v>1.58</v>
+      </c>
+      <c r="BJ88">
+        <v>2.18</v>
+      </c>
+      <c r="BK88">
+        <v>1.95</v>
+      </c>
+      <c r="BL88">
+        <v>1.75</v>
+      </c>
+      <c r="BM88">
+        <v>2.48</v>
+      </c>
+      <c r="BN88">
+        <v>1.47</v>
+      </c>
+      <c r="BO88">
+        <v>3.2</v>
+      </c>
+      <c r="BP88">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7477888</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45563.45833333334</v>
+      </c>
+      <c r="F89">
+        <v>8</v>
+      </c>
+      <c r="G89" t="s">
+        <v>80</v>
+      </c>
+      <c r="H89" t="s">
+        <v>74</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>2</v>
+      </c>
+      <c r="K89">
+        <v>3</v>
+      </c>
+      <c r="L89">
+        <v>3</v>
+      </c>
+      <c r="M89">
+        <v>2</v>
+      </c>
+      <c r="N89">
+        <v>5</v>
+      </c>
+      <c r="O89" t="s">
+        <v>155</v>
+      </c>
+      <c r="P89" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q89">
+        <v>2.05</v>
+      </c>
+      <c r="R89">
+        <v>2.4</v>
+      </c>
+      <c r="S89">
+        <v>5.5</v>
+      </c>
+      <c r="T89">
+        <v>1.3</v>
+      </c>
+      <c r="U89">
+        <v>3.4</v>
+      </c>
+      <c r="V89">
+        <v>2.5</v>
+      </c>
+      <c r="W89">
+        <v>1.5</v>
+      </c>
+      <c r="X89">
+        <v>6</v>
+      </c>
+      <c r="Y89">
+        <v>1.13</v>
+      </c>
+      <c r="Z89">
+        <v>1.54</v>
+      </c>
+      <c r="AA89">
+        <v>4.55</v>
+      </c>
+      <c r="AB89">
+        <v>5.4</v>
+      </c>
+      <c r="AC89">
+        <v>1.01</v>
+      </c>
+      <c r="AD89">
+        <v>11</v>
+      </c>
+      <c r="AE89">
+        <v>1.17</v>
+      </c>
+      <c r="AF89">
+        <v>3.9</v>
+      </c>
+      <c r="AG89">
+        <v>1.65</v>
+      </c>
+      <c r="AH89">
+        <v>2.1</v>
+      </c>
+      <c r="AI89">
+        <v>1.75</v>
+      </c>
+      <c r="AJ89">
+        <v>2</v>
+      </c>
+      <c r="AK89">
+        <v>1.14</v>
+      </c>
+      <c r="AL89">
+        <v>1.21</v>
+      </c>
+      <c r="AM89">
+        <v>2.45</v>
+      </c>
+      <c r="AN89">
+        <v>2.33</v>
+      </c>
+      <c r="AO89">
+        <v>2.33</v>
+      </c>
+      <c r="AP89">
+        <v>2.5</v>
+      </c>
+      <c r="AQ89">
+        <v>1.75</v>
+      </c>
+      <c r="AR89">
+        <v>1.7</v>
+      </c>
+      <c r="AS89">
+        <v>1.53</v>
+      </c>
+      <c r="AT89">
+        <v>3.23</v>
+      </c>
+      <c r="AU89">
+        <v>5</v>
+      </c>
+      <c r="AV89">
+        <v>4</v>
+      </c>
+      <c r="AW89">
+        <v>4</v>
+      </c>
+      <c r="AX89">
+        <v>2</v>
+      </c>
+      <c r="AY89">
+        <v>9</v>
+      </c>
+      <c r="AZ89">
+        <v>6</v>
+      </c>
+      <c r="BA89">
+        <v>7</v>
+      </c>
+      <c r="BB89">
+        <v>6</v>
+      </c>
+      <c r="BC89">
+        <v>13</v>
+      </c>
+      <c r="BD89">
+        <v>1.45</v>
+      </c>
+      <c r="BE89">
+        <v>6.75</v>
+      </c>
+      <c r="BF89">
+        <v>2.8</v>
+      </c>
+      <c r="BG89">
+        <v>1.21</v>
+      </c>
+      <c r="BH89">
+        <v>3.7</v>
+      </c>
+      <c r="BI89">
+        <v>1.4</v>
+      </c>
+      <c r="BJ89">
+        <v>2.7</v>
+      </c>
+      <c r="BK89">
+        <v>1.64</v>
+      </c>
+      <c r="BL89">
+        <v>2.1</v>
+      </c>
+      <c r="BM89">
+        <v>1.98</v>
+      </c>
+      <c r="BN89">
+        <v>1.72</v>
+      </c>
+      <c r="BO89">
+        <v>2.5</v>
+      </c>
+      <c r="BP89">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7477891</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45563.45833333334</v>
+      </c>
+      <c r="F90">
+        <v>8</v>
+      </c>
+      <c r="G90" t="s">
+        <v>88</v>
+      </c>
+      <c r="H90" t="s">
+        <v>89</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>1</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>2</v>
+      </c>
+      <c r="N90">
+        <v>2</v>
+      </c>
+      <c r="O90" t="s">
+        <v>96</v>
+      </c>
+      <c r="P90" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q90">
+        <v>4</v>
+      </c>
+      <c r="R90">
+        <v>2.1</v>
+      </c>
+      <c r="S90">
+        <v>2.88</v>
+      </c>
+      <c r="T90">
+        <v>1.44</v>
+      </c>
+      <c r="U90">
+        <v>2.63</v>
+      </c>
+      <c r="V90">
+        <v>3.25</v>
+      </c>
+      <c r="W90">
+        <v>1.33</v>
+      </c>
+      <c r="X90">
+        <v>9</v>
+      </c>
+      <c r="Y90">
+        <v>1.07</v>
+      </c>
+      <c r="Z90">
+        <v>3.28</v>
+      </c>
+      <c r="AA90">
+        <v>3.4</v>
+      </c>
+      <c r="AB90">
+        <v>2.19</v>
+      </c>
+      <c r="AC90">
+        <v>1.04</v>
+      </c>
+      <c r="AD90">
+        <v>8.5</v>
+      </c>
+      <c r="AE90">
+        <v>1.33</v>
+      </c>
+      <c r="AF90">
+        <v>3</v>
+      </c>
+      <c r="AG90">
+        <v>1.8</v>
+      </c>
+      <c r="AH90">
+        <v>1.9</v>
+      </c>
+      <c r="AI90">
+        <v>1.8</v>
+      </c>
+      <c r="AJ90">
+        <v>1.95</v>
+      </c>
+      <c r="AK90">
+        <v>1.7</v>
+      </c>
+      <c r="AL90">
+        <v>1.25</v>
+      </c>
+      <c r="AM90">
+        <v>1.33</v>
+      </c>
+      <c r="AN90">
+        <v>0.5</v>
+      </c>
+      <c r="AO90">
+        <v>2.33</v>
+      </c>
+      <c r="AP90">
+        <v>0.33</v>
+      </c>
+      <c r="AQ90">
+        <v>2.5</v>
+      </c>
+      <c r="AR90">
+        <v>1.42</v>
+      </c>
+      <c r="AS90">
+        <v>0.92</v>
+      </c>
+      <c r="AT90">
+        <v>2.34</v>
+      </c>
+      <c r="AU90">
+        <v>3</v>
+      </c>
+      <c r="AV90">
+        <v>5</v>
+      </c>
+      <c r="AW90">
+        <v>7</v>
+      </c>
+      <c r="AX90">
+        <v>5</v>
+      </c>
+      <c r="AY90">
+        <v>10</v>
+      </c>
+      <c r="AZ90">
+        <v>10</v>
+      </c>
+      <c r="BA90">
+        <v>6</v>
+      </c>
+      <c r="BB90">
+        <v>2</v>
+      </c>
+      <c r="BC90">
+        <v>8</v>
+      </c>
+      <c r="BD90">
+        <v>2.12</v>
+      </c>
+      <c r="BE90">
+        <v>6.25</v>
+      </c>
+      <c r="BF90">
+        <v>1.79</v>
+      </c>
+      <c r="BG90">
+        <v>1.3</v>
+      </c>
+      <c r="BH90">
+        <v>3.15</v>
+      </c>
+      <c r="BI90">
+        <v>1.5</v>
+      </c>
+      <c r="BJ90">
+        <v>2.33</v>
+      </c>
+      <c r="BK90">
+        <v>1.84</v>
+      </c>
+      <c r="BL90">
+        <v>1.84</v>
+      </c>
+      <c r="BM90">
+        <v>2.3</v>
+      </c>
+      <c r="BN90">
+        <v>1.54</v>
+      </c>
+      <c r="BO90">
+        <v>2.95</v>
+      </c>
+      <c r="BP90">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7477887</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45563.65625</v>
+      </c>
+      <c r="F91">
+        <v>8</v>
+      </c>
+      <c r="G91" t="s">
+        <v>70</v>
+      </c>
+      <c r="H91" t="s">
+        <v>73</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>1</v>
+      </c>
+      <c r="N91">
+        <v>2</v>
+      </c>
+      <c r="O91" t="s">
+        <v>118</v>
+      </c>
+      <c r="P91" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q91">
+        <v>2.88</v>
+      </c>
+      <c r="R91">
+        <v>2.25</v>
+      </c>
+      <c r="S91">
+        <v>3.5</v>
+      </c>
+      <c r="T91">
+        <v>1.33</v>
+      </c>
+      <c r="U91">
+        <v>3.25</v>
+      </c>
+      <c r="V91">
+        <v>2.63</v>
+      </c>
+      <c r="W91">
+        <v>1.44</v>
+      </c>
+      <c r="X91">
+        <v>6.5</v>
+      </c>
+      <c r="Y91">
+        <v>1.11</v>
+      </c>
+      <c r="Z91">
+        <v>2.17</v>
+      </c>
+      <c r="AA91">
+        <v>3.3</v>
+      </c>
+      <c r="AB91">
+        <v>3.1</v>
+      </c>
+      <c r="AC91">
+        <v>1.03</v>
+      </c>
+      <c r="AD91">
+        <v>13</v>
+      </c>
+      <c r="AE91">
+        <v>1.18</v>
+      </c>
+      <c r="AF91">
+        <v>3.72</v>
+      </c>
+      <c r="AG91">
+        <v>1.88</v>
+      </c>
+      <c r="AH91">
+        <v>1.84</v>
+      </c>
+      <c r="AI91">
+        <v>1.57</v>
+      </c>
+      <c r="AJ91">
+        <v>2.25</v>
+      </c>
+      <c r="AK91">
+        <v>1.36</v>
+      </c>
+      <c r="AL91">
+        <v>1.28</v>
+      </c>
+      <c r="AM91">
+        <v>1.69</v>
+      </c>
+      <c r="AN91">
+        <v>1.33</v>
+      </c>
+      <c r="AO91">
+        <v>1.67</v>
+      </c>
+      <c r="AP91">
+        <v>1.25</v>
+      </c>
+      <c r="AQ91">
+        <v>1.5</v>
+      </c>
+      <c r="AR91">
+        <v>1.71</v>
+      </c>
+      <c r="AS91">
+        <v>1.37</v>
+      </c>
+      <c r="AT91">
+        <v>3.08</v>
+      </c>
+      <c r="AU91">
+        <v>6</v>
+      </c>
+      <c r="AV91">
+        <v>7</v>
+      </c>
+      <c r="AW91">
+        <v>3</v>
+      </c>
+      <c r="AX91">
+        <v>6</v>
+      </c>
+      <c r="AY91">
+        <v>9</v>
+      </c>
+      <c r="AZ91">
+        <v>13</v>
+      </c>
+      <c r="BA91">
+        <v>3</v>
+      </c>
+      <c r="BB91">
+        <v>5</v>
+      </c>
+      <c r="BC91">
+        <v>8</v>
+      </c>
+      <c r="BD91">
+        <v>1.79</v>
+      </c>
+      <c r="BE91">
+        <v>6.4</v>
+      </c>
+      <c r="BF91">
+        <v>2.1</v>
+      </c>
+      <c r="BG91">
+        <v>1.29</v>
+      </c>
+      <c r="BH91">
+        <v>3.15</v>
+      </c>
+      <c r="BI91">
+        <v>1.5</v>
+      </c>
+      <c r="BJ91">
+        <v>2.35</v>
+      </c>
+      <c r="BK91">
+        <v>1.83</v>
+      </c>
+      <c r="BL91">
+        <v>1.85</v>
+      </c>
+      <c r="BM91">
+        <v>2.3</v>
+      </c>
+      <c r="BN91">
+        <v>1.54</v>
+      </c>
+      <c r="BO91">
+        <v>2.95</v>
+      </c>
+      <c r="BP91">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -436,6 +436,9 @@
     <t>['22', '52', '59']</t>
   </si>
   <si>
+    <t>['10', '33', '63']</t>
+  </si>
+  <si>
     <t>['9', '50']</t>
   </si>
   <si>
@@ -445,9 +448,6 @@
     <t>['8', '85']</t>
   </si>
   <si>
-    <t>['10', '33', '63']</t>
-  </si>
-  <si>
     <t>['49', '86']</t>
   </si>
   <si>
@@ -589,6 +589,9 @@
     <t>['3']</t>
   </si>
   <si>
+    <t>['74', '76']</t>
+  </si>
+  <si>
     <t>['54']</t>
   </si>
   <si>
@@ -598,9 +601,6 @@
     <t>['14', '22']</t>
   </si>
   <si>
-    <t>['74', '76']</t>
-  </si>
-  <si>
     <t>['2']</t>
   </si>
   <si>
@@ -625,6 +625,9 @@
     <t>['42', '45+1']</t>
   </si>
   <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
     <t>['5', '78']</t>
   </si>
   <si>
@@ -638,9 +641,6 @@
   </si>
   <si>
     <t>['26', '68']</t>
-  </si>
-  <si>
-    <t>['90+1']</t>
   </si>
 </sst>
 </file>
@@ -14197,7 +14197,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>7477880</v>
+        <v>7477882</v>
       </c>
       <c r="C65" t="s">
         <v>68</v>
@@ -14206,196 +14206,196 @@
         <v>69</v>
       </c>
       <c r="E65" s="2">
-        <v>45556.35416666666</v>
+        <v>45555.875</v>
       </c>
       <c r="F65">
         <v>7</v>
       </c>
       <c r="G65" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="H65" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J65">
         <v>0</v>
       </c>
       <c r="K65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L65">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N65">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O65" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="P65" t="s">
-        <v>96</v>
+        <v>191</v>
       </c>
       <c r="Q65">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="R65">
+        <v>2.5</v>
+      </c>
+      <c r="S65">
+        <v>5.5</v>
+      </c>
+      <c r="T65">
+        <v>1.29</v>
+      </c>
+      <c r="U65">
+        <v>3.5</v>
+      </c>
+      <c r="V65">
+        <v>2.25</v>
+      </c>
+      <c r="W65">
+        <v>1.57</v>
+      </c>
+      <c r="X65">
+        <v>5.5</v>
+      </c>
+      <c r="Y65">
+        <v>1.14</v>
+      </c>
+      <c r="Z65">
+        <v>1.53</v>
+      </c>
+      <c r="AA65">
+        <v>4.1</v>
+      </c>
+      <c r="AB65">
+        <v>5.75</v>
+      </c>
+      <c r="AC65">
+        <v>1.02</v>
+      </c>
+      <c r="AD65">
+        <v>17</v>
+      </c>
+      <c r="AE65">
+        <v>1.12</v>
+      </c>
+      <c r="AF65">
+        <v>4.4</v>
+      </c>
+      <c r="AG65">
+        <v>1.57</v>
+      </c>
+      <c r="AH65">
+        <v>2.35</v>
+      </c>
+      <c r="AI65">
+        <v>1.67</v>
+      </c>
+      <c r="AJ65">
         <v>2.1</v>
       </c>
-      <c r="S65">
-        <v>4.75</v>
-      </c>
-      <c r="T65">
-        <v>1.44</v>
-      </c>
-      <c r="U65">
-        <v>2.63</v>
-      </c>
-      <c r="V65">
-        <v>3.25</v>
-      </c>
-      <c r="W65">
+      <c r="AK65">
+        <v>1.17</v>
+      </c>
+      <c r="AL65">
+        <v>1.23</v>
+      </c>
+      <c r="AM65">
+        <v>2.27</v>
+      </c>
+      <c r="AN65">
+        <v>0.33</v>
+      </c>
+      <c r="AO65">
+        <v>0.33</v>
+      </c>
+      <c r="AP65">
+        <v>1</v>
+      </c>
+      <c r="AQ65">
+        <v>0.25</v>
+      </c>
+      <c r="AR65">
+        <v>0.98</v>
+      </c>
+      <c r="AS65">
+        <v>0.92</v>
+      </c>
+      <c r="AT65">
+        <v>1.9</v>
+      </c>
+      <c r="AU65">
+        <v>-1</v>
+      </c>
+      <c r="AV65">
+        <v>-1</v>
+      </c>
+      <c r="AW65">
+        <v>-1</v>
+      </c>
+      <c r="AX65">
+        <v>-1</v>
+      </c>
+      <c r="AY65">
+        <v>-1</v>
+      </c>
+      <c r="AZ65">
+        <v>-1</v>
+      </c>
+      <c r="BA65">
+        <v>-1</v>
+      </c>
+      <c r="BB65">
+        <v>-1</v>
+      </c>
+      <c r="BC65">
+        <v>-1</v>
+      </c>
+      <c r="BD65">
+        <v>1.32</v>
+      </c>
+      <c r="BE65">
+        <v>7</v>
+      </c>
+      <c r="BF65">
+        <v>3.3</v>
+      </c>
+      <c r="BG65">
+        <v>1.19</v>
+      </c>
+      <c r="BH65">
+        <v>4.1</v>
+      </c>
+      <c r="BI65">
         <v>1.33</v>
       </c>
-      <c r="X65">
-        <v>10</v>
-      </c>
-      <c r="Y65">
-        <v>1.06</v>
-      </c>
-      <c r="Z65">
-        <v>1.91</v>
-      </c>
-      <c r="AA65">
-        <v>3.3</v>
-      </c>
-      <c r="AB65">
-        <v>4.2</v>
-      </c>
-      <c r="AC65">
-        <v>1.04</v>
-      </c>
-      <c r="AD65">
-        <v>7.5</v>
-      </c>
-      <c r="AE65">
-        <v>1.35</v>
-      </c>
-      <c r="AF65">
-        <v>2.84</v>
-      </c>
-      <c r="AG65">
-        <v>2.1</v>
-      </c>
-      <c r="AH65">
-        <v>1.65</v>
-      </c>
-      <c r="AI65">
-        <v>1.95</v>
-      </c>
-      <c r="AJ65">
-        <v>1.8</v>
-      </c>
-      <c r="AK65">
-        <v>1.23</v>
-      </c>
-      <c r="AL65">
-        <v>1.32</v>
-      </c>
-      <c r="AM65">
-        <v>1.88</v>
-      </c>
-      <c r="AN65">
-        <v>1.5</v>
-      </c>
-      <c r="AO65">
-        <v>1</v>
-      </c>
-      <c r="AP65">
-        <v>1.33</v>
-      </c>
-      <c r="AQ65">
-        <v>1</v>
-      </c>
-      <c r="AR65">
-        <v>1.83</v>
-      </c>
-      <c r="AS65">
-        <v>1.38</v>
-      </c>
-      <c r="AT65">
-        <v>3.21</v>
-      </c>
-      <c r="AU65">
-        <v>5</v>
-      </c>
-      <c r="AV65">
-        <v>3</v>
-      </c>
-      <c r="AW65">
-        <v>0</v>
-      </c>
-      <c r="AX65">
-        <v>2</v>
-      </c>
-      <c r="AY65">
-        <v>5</v>
-      </c>
-      <c r="AZ65">
-        <v>5</v>
-      </c>
-      <c r="BA65">
-        <v>3</v>
-      </c>
-      <c r="BB65">
-        <v>1</v>
-      </c>
-      <c r="BC65">
-        <v>4</v>
-      </c>
-      <c r="BD65">
-        <v>1.55</v>
-      </c>
-      <c r="BE65">
-        <v>6.4</v>
-      </c>
-      <c r="BF65">
-        <v>2.55</v>
-      </c>
-      <c r="BG65">
-        <v>1.3</v>
-      </c>
-      <c r="BH65">
-        <v>3.05</v>
-      </c>
-      <c r="BI65">
-        <v>1.54</v>
-      </c>
       <c r="BJ65">
-        <v>2.3</v>
+        <v>2.95</v>
       </c>
       <c r="BK65">
-        <v>1.85</v>
+        <v>1.42</v>
       </c>
       <c r="BL65">
-        <v>1.95</v>
+        <v>2.65</v>
       </c>
       <c r="BM65">
-        <v>2.38</v>
+        <v>1.7</v>
       </c>
       <c r="BN65">
-        <v>1.5</v>
+        <v>2.03</v>
       </c>
       <c r="BO65">
-        <v>3.05</v>
+        <v>2.13</v>
       </c>
       <c r="BP65">
-        <v>1.3</v>
+        <v>1.63</v>
       </c>
     </row>
     <row r="66" spans="1:68">
@@ -14403,7 +14403,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>7477878</v>
+        <v>7477880</v>
       </c>
       <c r="C66" t="s">
         <v>68</v>
@@ -14418,55 +14418,55 @@
         <v>7</v>
       </c>
       <c r="G66" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H66" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66">
         <v>0</v>
       </c>
       <c r="K66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M66">
         <v>0</v>
       </c>
       <c r="N66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O66" t="s">
-        <v>140</v>
+        <v>96</v>
       </c>
       <c r="P66" t="s">
         <v>96</v>
       </c>
       <c r="Q66">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="R66">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S66">
-        <v>3.5</v>
+        <v>4.75</v>
       </c>
       <c r="T66">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U66">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="V66">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W66">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="X66">
         <v>10</v>
@@ -14475,28 +14475,28 @@
         <v>1.06</v>
       </c>
       <c r="Z66">
-        <v>2.55</v>
+        <v>1.91</v>
       </c>
       <c r="AA66">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AB66">
-        <v>2.75</v>
+        <v>4.2</v>
       </c>
       <c r="AC66">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AD66">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE66">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="AF66">
-        <v>3</v>
+        <v>2.84</v>
       </c>
       <c r="AG66">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="AH66">
         <v>1.65</v>
@@ -14508,100 +14508,100 @@
         <v>1.8</v>
       </c>
       <c r="AK66">
-        <v>1.42</v>
+        <v>1.23</v>
       </c>
       <c r="AL66">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="AM66">
-        <v>1.5</v>
+        <v>1.88</v>
       </c>
       <c r="AN66">
         <v>1.5</v>
       </c>
       <c r="AO66">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP66">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AQ66">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR66">
+        <v>1.83</v>
+      </c>
+      <c r="AS66">
+        <v>1.38</v>
+      </c>
+      <c r="AT66">
+        <v>3.21</v>
+      </c>
+      <c r="AU66">
+        <v>5</v>
+      </c>
+      <c r="AV66">
+        <v>3</v>
+      </c>
+      <c r="AW66">
+        <v>0</v>
+      </c>
+      <c r="AX66">
+        <v>2</v>
+      </c>
+      <c r="AY66">
+        <v>5</v>
+      </c>
+      <c r="AZ66">
+        <v>5</v>
+      </c>
+      <c r="BA66">
+        <v>3</v>
+      </c>
+      <c r="BB66">
+        <v>1</v>
+      </c>
+      <c r="BC66">
+        <v>4</v>
+      </c>
+      <c r="BD66">
         <v>1.55</v>
-      </c>
-      <c r="AS66">
-        <v>1.19</v>
-      </c>
-      <c r="AT66">
-        <v>2.74</v>
-      </c>
-      <c r="AU66">
-        <v>4</v>
-      </c>
-      <c r="AV66">
-        <v>2</v>
-      </c>
-      <c r="AW66">
-        <v>5</v>
-      </c>
-      <c r="AX66">
-        <v>8</v>
-      </c>
-      <c r="AY66">
-        <v>9</v>
-      </c>
-      <c r="AZ66">
-        <v>10</v>
-      </c>
-      <c r="BA66">
-        <v>8</v>
-      </c>
-      <c r="BB66">
-        <v>4</v>
-      </c>
-      <c r="BC66">
-        <v>12</v>
-      </c>
-      <c r="BD66">
-        <v>1.79</v>
       </c>
       <c r="BE66">
         <v>6.4</v>
       </c>
       <c r="BF66">
-        <v>2.08</v>
+        <v>2.55</v>
       </c>
       <c r="BG66">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="BH66">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="BI66">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="BJ66">
-        <v>2.48</v>
+        <v>2.3</v>
       </c>
       <c r="BK66">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="BL66">
         <v>1.95</v>
       </c>
       <c r="BM66">
-        <v>2.18</v>
+        <v>2.38</v>
       </c>
       <c r="BN66">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="BO66">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="BP66">
-        <v>1.37</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="67" spans="1:68">
@@ -14609,7 +14609,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>7477885</v>
+        <v>7477878</v>
       </c>
       <c r="C67" t="s">
         <v>68</v>
@@ -14618,16 +14618,16 @@
         <v>69</v>
       </c>
       <c r="E67" s="2">
-        <v>45556.45833333334</v>
+        <v>45556.35416666666</v>
       </c>
       <c r="F67">
         <v>7</v>
       </c>
       <c r="G67" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H67" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I67">
         <v>1</v>
@@ -14642,172 +14642,172 @@
         <v>2</v>
       </c>
       <c r="M67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O67" t="s">
         <v>141</v>
       </c>
       <c r="P67" t="s">
-        <v>191</v>
+        <v>96</v>
       </c>
       <c r="Q67">
+        <v>3.4</v>
+      </c>
+      <c r="R67">
+        <v>2.05</v>
+      </c>
+      <c r="S67">
+        <v>3.5</v>
+      </c>
+      <c r="T67">
+        <v>1.5</v>
+      </c>
+      <c r="U67">
+        <v>2.5</v>
+      </c>
+      <c r="V67">
+        <v>3.4</v>
+      </c>
+      <c r="W67">
+        <v>1.3</v>
+      </c>
+      <c r="X67">
+        <v>10</v>
+      </c>
+      <c r="Y67">
+        <v>1.06</v>
+      </c>
+      <c r="Z67">
+        <v>2.55</v>
+      </c>
+      <c r="AA67">
+        <v>3.2</v>
+      </c>
+      <c r="AB67">
+        <v>2.75</v>
+      </c>
+      <c r="AC67">
+        <v>1.05</v>
+      </c>
+      <c r="AD67">
+        <v>8</v>
+      </c>
+      <c r="AE67">
+        <v>1.33</v>
+      </c>
+      <c r="AF67">
+        <v>3</v>
+      </c>
+      <c r="AG67">
+        <v>2.15</v>
+      </c>
+      <c r="AH67">
+        <v>1.65</v>
+      </c>
+      <c r="AI67">
         <v>1.95</v>
       </c>
-      <c r="R67">
-        <v>2.5</v>
-      </c>
-      <c r="S67">
-        <v>6</v>
-      </c>
-      <c r="T67">
-        <v>1.3</v>
-      </c>
-      <c r="U67">
-        <v>3.4</v>
-      </c>
-      <c r="V67">
-        <v>2.5</v>
-      </c>
-      <c r="W67">
+      <c r="AJ67">
+        <v>1.8</v>
+      </c>
+      <c r="AK67">
+        <v>1.42</v>
+      </c>
+      <c r="AL67">
+        <v>1.28</v>
+      </c>
+      <c r="AM67">
         <v>1.5</v>
       </c>
-      <c r="X67">
-        <v>6</v>
-      </c>
-      <c r="Y67">
-        <v>1.13</v>
-      </c>
-      <c r="Z67">
-        <v>1.45</v>
-      </c>
-      <c r="AA67">
-        <v>4.33</v>
-      </c>
-      <c r="AB67">
-        <v>6.5</v>
-      </c>
-      <c r="AC67">
-        <v>1.01</v>
-      </c>
-      <c r="AD67">
-        <v>9.9</v>
-      </c>
-      <c r="AE67">
-        <v>1.15</v>
-      </c>
-      <c r="AF67">
-        <v>4.15</v>
-      </c>
-      <c r="AG67">
-        <v>1.65</v>
-      </c>
-      <c r="AH67">
-        <v>2.2</v>
-      </c>
-      <c r="AI67">
-        <v>1.8</v>
-      </c>
-      <c r="AJ67">
-        <v>1.95</v>
-      </c>
-      <c r="AK67">
-        <v>1.11</v>
-      </c>
-      <c r="AL67">
+      <c r="AN67">
+        <v>1.5</v>
+      </c>
+      <c r="AO67">
+        <v>0.5</v>
+      </c>
+      <c r="AP67">
+        <v>2</v>
+      </c>
+      <c r="AQ67">
+        <v>0.5</v>
+      </c>
+      <c r="AR67">
+        <v>1.55</v>
+      </c>
+      <c r="AS67">
         <v>1.19</v>
       </c>
-      <c r="AM67">
-        <v>2.75</v>
-      </c>
-      <c r="AN67">
-        <v>3</v>
-      </c>
-      <c r="AO67">
-        <v>1.5</v>
-      </c>
-      <c r="AP67">
-        <v>3</v>
-      </c>
-      <c r="AQ67">
-        <v>1</v>
-      </c>
-      <c r="AR67">
-        <v>1.51</v>
-      </c>
-      <c r="AS67">
-        <v>1.31</v>
-      </c>
       <c r="AT67">
-        <v>2.82</v>
+        <v>2.74</v>
       </c>
       <c r="AU67">
         <v>4</v>
       </c>
       <c r="AV67">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AW67">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AX67">
         <v>8</v>
       </c>
       <c r="AY67">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AZ67">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="BA67">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB67">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="BC67">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BD67">
+        <v>1.79</v>
+      </c>
+      <c r="BE67">
+        <v>6.4</v>
+      </c>
+      <c r="BF67">
+        <v>2.08</v>
+      </c>
+      <c r="BG67">
         <v>1.27</v>
       </c>
-      <c r="BE67">
-        <v>7.5</v>
-      </c>
-      <c r="BF67">
-        <v>3.65</v>
-      </c>
-      <c r="BG67">
-        <v>1.16</v>
-      </c>
       <c r="BH67">
-        <v>3.86</v>
+        <v>3.3</v>
       </c>
       <c r="BI67">
+        <v>1.47</v>
+      </c>
+      <c r="BJ67">
+        <v>2.48</v>
+      </c>
+      <c r="BK67">
+        <v>1.75</v>
+      </c>
+      <c r="BL67">
+        <v>1.95</v>
+      </c>
+      <c r="BM67">
+        <v>2.18</v>
+      </c>
+      <c r="BN67">
+        <v>1.58</v>
+      </c>
+      <c r="BO67">
+        <v>2.8</v>
+      </c>
+      <c r="BP67">
         <v>1.37</v>
-      </c>
-      <c r="BJ67">
-        <v>2.75</v>
-      </c>
-      <c r="BK67">
-        <v>1.68</v>
-      </c>
-      <c r="BL67">
-        <v>2.11</v>
-      </c>
-      <c r="BM67">
-        <v>2.07</v>
-      </c>
-      <c r="BN67">
-        <v>1.64</v>
-      </c>
-      <c r="BO67">
-        <v>2.65</v>
-      </c>
-      <c r="BP67">
-        <v>1.35</v>
       </c>
     </row>
     <row r="68" spans="1:68">
@@ -14815,7 +14815,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>7477886</v>
+        <v>7477885</v>
       </c>
       <c r="C68" t="s">
         <v>68</v>
@@ -14830,19 +14830,19 @@
         <v>7</v>
       </c>
       <c r="G68" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="H68" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I68">
         <v>1</v>
       </c>
       <c r="J68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L68">
         <v>2</v>
@@ -14860,58 +14860,58 @@
         <v>192</v>
       </c>
       <c r="Q68">
+        <v>1.95</v>
+      </c>
+      <c r="R68">
+        <v>2.5</v>
+      </c>
+      <c r="S68">
+        <v>6</v>
+      </c>
+      <c r="T68">
+        <v>1.3</v>
+      </c>
+      <c r="U68">
+        <v>3.4</v>
+      </c>
+      <c r="V68">
+        <v>2.5</v>
+      </c>
+      <c r="W68">
+        <v>1.5</v>
+      </c>
+      <c r="X68">
+        <v>6</v>
+      </c>
+      <c r="Y68">
+        <v>1.13</v>
+      </c>
+      <c r="Z68">
+        <v>1.45</v>
+      </c>
+      <c r="AA68">
+        <v>4.33</v>
+      </c>
+      <c r="AB68">
+        <v>6.5</v>
+      </c>
+      <c r="AC68">
+        <v>1.01</v>
+      </c>
+      <c r="AD68">
+        <v>9.9</v>
+      </c>
+      <c r="AE68">
+        <v>1.15</v>
+      </c>
+      <c r="AF68">
+        <v>4.15</v>
+      </c>
+      <c r="AG68">
+        <v>1.65</v>
+      </c>
+      <c r="AH68">
         <v>2.2</v>
-      </c>
-      <c r="R68">
-        <v>2.25</v>
-      </c>
-      <c r="S68">
-        <v>5.5</v>
-      </c>
-      <c r="T68">
-        <v>1.36</v>
-      </c>
-      <c r="U68">
-        <v>3</v>
-      </c>
-      <c r="V68">
-        <v>2.75</v>
-      </c>
-      <c r="W68">
-        <v>1.4</v>
-      </c>
-      <c r="X68">
-        <v>7</v>
-      </c>
-      <c r="Y68">
-        <v>1.1</v>
-      </c>
-      <c r="Z68">
-        <v>1.62</v>
-      </c>
-      <c r="AA68">
-        <v>3.8</v>
-      </c>
-      <c r="AB68">
-        <v>5.5</v>
-      </c>
-      <c r="AC68">
-        <v>1.02</v>
-      </c>
-      <c r="AD68">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AE68">
-        <v>1.25</v>
-      </c>
-      <c r="AF68">
-        <v>3.22</v>
-      </c>
-      <c r="AG68">
-        <v>1.8</v>
-      </c>
-      <c r="AH68">
-        <v>2</v>
       </c>
       <c r="AI68">
         <v>1.8</v>
@@ -14920,100 +14920,100 @@
         <v>1.95</v>
       </c>
       <c r="AK68">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AL68">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="AM68">
-        <v>2.26</v>
+        <v>2.75</v>
       </c>
       <c r="AN68">
+        <v>3</v>
+      </c>
+      <c r="AO68">
         <v>1.5</v>
       </c>
-      <c r="AO68">
-        <v>0</v>
-      </c>
       <c r="AP68">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR68">
-        <v>1.14</v>
+        <v>1.51</v>
       </c>
       <c r="AS68">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="AT68">
-        <v>2.15</v>
+        <v>2.82</v>
       </c>
       <c r="AU68">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV68">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AW68">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AX68">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AY68">
         <v>14</v>
       </c>
       <c r="AZ68">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="BA68">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BB68">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BC68">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BD68">
-        <v>1.43</v>
+        <v>1.27</v>
       </c>
       <c r="BE68">
-        <v>6.75</v>
+        <v>7.5</v>
       </c>
       <c r="BF68">
-        <v>2.9</v>
+        <v>3.65</v>
       </c>
       <c r="BG68">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="BH68">
-        <v>3.8</v>
+        <v>3.86</v>
       </c>
       <c r="BI68">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="BJ68">
-        <v>3.05</v>
+        <v>2.75</v>
       </c>
       <c r="BK68">
-        <v>1.59</v>
+        <v>1.68</v>
       </c>
       <c r="BL68">
-        <v>2.22</v>
+        <v>2.11</v>
       </c>
       <c r="BM68">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="BN68">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="BO68">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="BP68">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="69" spans="1:68">
@@ -15021,7 +15021,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>7477883</v>
+        <v>7477886</v>
       </c>
       <c r="C69" t="s">
         <v>68</v>
@@ -15036,43 +15036,43 @@
         <v>7</v>
       </c>
       <c r="G69" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H69" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K69">
         <v>2</v>
       </c>
       <c r="L69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N69">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O69" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="P69" t="s">
         <v>193</v>
       </c>
       <c r="Q69">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="R69">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S69">
-        <v>2.75</v>
+        <v>5.5</v>
       </c>
       <c r="T69">
         <v>1.36</v>
@@ -15093,133 +15093,133 @@
         <v>1.1</v>
       </c>
       <c r="Z69">
-        <v>3.25</v>
+        <v>1.62</v>
       </c>
       <c r="AA69">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="AB69">
-        <v>2.05</v>
+        <v>5.5</v>
       </c>
       <c r="AC69">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AD69">
-        <v>12</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AE69">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AF69">
-        <v>3.6</v>
+        <v>3.22</v>
       </c>
       <c r="AG69">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AH69">
+        <v>2</v>
+      </c>
+      <c r="AI69">
+        <v>1.8</v>
+      </c>
+      <c r="AJ69">
         <v>1.95</v>
       </c>
-      <c r="AI69">
-        <v>1.7</v>
-      </c>
-      <c r="AJ69">
-        <v>2.05</v>
-      </c>
       <c r="AK69">
-        <v>1.75</v>
+        <v>1.18</v>
       </c>
       <c r="AL69">
         <v>1.25</v>
       </c>
       <c r="AM69">
-        <v>1.3</v>
+        <v>2.26</v>
       </c>
       <c r="AN69">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AO69">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP69">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="AQ69">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR69">
-        <v>1.79</v>
+        <v>1.14</v>
       </c>
       <c r="AS69">
-        <v>1.27</v>
+        <v>1.01</v>
       </c>
       <c r="AT69">
-        <v>3.06</v>
+        <v>2.15</v>
       </c>
       <c r="AU69">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AV69">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW69">
+        <v>7</v>
+      </c>
+      <c r="AX69">
+        <v>1</v>
+      </c>
+      <c r="AY69">
+        <v>14</v>
+      </c>
+      <c r="AZ69">
         <v>4</v>
-      </c>
-      <c r="AX69">
-        <v>5</v>
-      </c>
-      <c r="AY69">
-        <v>6</v>
-      </c>
-      <c r="AZ69">
-        <v>10</v>
       </c>
       <c r="BA69">
         <v>9</v>
       </c>
       <c r="BB69">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BC69">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="BD69">
-        <v>2.33</v>
+        <v>1.43</v>
       </c>
       <c r="BE69">
-        <v>6.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF69">
-        <v>1.64</v>
+        <v>2.9</v>
       </c>
       <c r="BG69">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="BH69">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="BI69">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="BJ69">
-        <v>3.14</v>
+        <v>3.05</v>
       </c>
       <c r="BK69">
-        <v>1.49</v>
+        <v>1.59</v>
       </c>
       <c r="BL69">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="BM69">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="BN69">
-        <v>1.87</v>
+        <v>1.71</v>
       </c>
       <c r="BO69">
-        <v>2.34</v>
+        <v>2.62</v>
       </c>
       <c r="BP69">
-        <v>1.5</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="70" spans="1:68">
@@ -15227,7 +15227,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>7477882</v>
+        <v>7477883</v>
       </c>
       <c r="C70" t="s">
         <v>68</v>
@@ -15242,127 +15242,127 @@
         <v>7</v>
       </c>
       <c r="G70" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="H70" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I70">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K70">
         <v>2</v>
       </c>
       <c r="L70">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M70">
         <v>2</v>
       </c>
       <c r="N70">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O70" t="s">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c r="P70" t="s">
         <v>194</v>
       </c>
       <c r="Q70">
+        <v>3.75</v>
+      </c>
+      <c r="R70">
+        <v>2.2</v>
+      </c>
+      <c r="S70">
+        <v>2.75</v>
+      </c>
+      <c r="T70">
+        <v>1.36</v>
+      </c>
+      <c r="U70">
+        <v>3</v>
+      </c>
+      <c r="V70">
+        <v>2.75</v>
+      </c>
+      <c r="W70">
+        <v>1.4</v>
+      </c>
+      <c r="X70">
+        <v>7</v>
+      </c>
+      <c r="Y70">
+        <v>1.1</v>
+      </c>
+      <c r="Z70">
+        <v>3.25</v>
+      </c>
+      <c r="AA70">
+        <v>3.6</v>
+      </c>
+      <c r="AB70">
         <v>2.05</v>
       </c>
-      <c r="R70">
-        <v>2.5</v>
-      </c>
-      <c r="S70">
-        <v>5.5</v>
-      </c>
-      <c r="T70">
-        <v>1.29</v>
-      </c>
-      <c r="U70">
-        <v>3.5</v>
-      </c>
-      <c r="V70">
-        <v>2.25</v>
-      </c>
-      <c r="W70">
-        <v>1.57</v>
-      </c>
-      <c r="X70">
-        <v>5.5</v>
-      </c>
-      <c r="Y70">
-        <v>1.14</v>
-      </c>
-      <c r="Z70">
-        <v>1.53</v>
-      </c>
-      <c r="AA70">
-        <v>4.1</v>
-      </c>
-      <c r="AB70">
-        <v>5.75</v>
-      </c>
       <c r="AC70">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AD70">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AE70">
-        <v>1.12</v>
+        <v>1.28</v>
       </c>
       <c r="AF70">
-        <v>4.4</v>
+        <v>3.6</v>
       </c>
       <c r="AG70">
-        <v>1.57</v>
+        <v>1.85</v>
       </c>
       <c r="AH70">
-        <v>2.35</v>
+        <v>1.95</v>
       </c>
       <c r="AI70">
+        <v>1.7</v>
+      </c>
+      <c r="AJ70">
+        <v>2.05</v>
+      </c>
+      <c r="AK70">
+        <v>1.75</v>
+      </c>
+      <c r="AL70">
+        <v>1.25</v>
+      </c>
+      <c r="AM70">
+        <v>1.3</v>
+      </c>
+      <c r="AN70">
         <v>1.67</v>
       </c>
-      <c r="AJ70">
-        <v>2.1</v>
-      </c>
-      <c r="AK70">
-        <v>1.17</v>
-      </c>
-      <c r="AL70">
-        <v>1.23</v>
-      </c>
-      <c r="AM70">
-        <v>2.27</v>
-      </c>
-      <c r="AN70">
-        <v>0.33</v>
-      </c>
       <c r="AO70">
-        <v>0.33</v>
+        <v>3</v>
       </c>
       <c r="AP70">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ70">
-        <v>0.25</v>
+        <v>3</v>
       </c>
       <c r="AR70">
-        <v>0.98</v>
+        <v>1.79</v>
       </c>
       <c r="AS70">
-        <v>0.92</v>
+        <v>1.27</v>
       </c>
       <c r="AT70">
-        <v>1.9</v>
+        <v>3.06</v>
       </c>
       <c r="AU70">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AV70">
         <v>5</v>
@@ -15371,31 +15371,31 @@
         <v>4</v>
       </c>
       <c r="AX70">
+        <v>5</v>
+      </c>
+      <c r="AY70">
         <v>6</v>
       </c>
-      <c r="AY70">
-        <v>13</v>
-      </c>
       <c r="AZ70">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BA70">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="BB70">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BC70">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="BD70">
-        <v>1.32</v>
+        <v>2.33</v>
       </c>
       <c r="BE70">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="BF70">
-        <v>3.3</v>
+        <v>1.64</v>
       </c>
       <c r="BG70">
         <v>1.19</v>
@@ -15404,28 +15404,28 @@
         <v>4.1</v>
       </c>
       <c r="BI70">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="BJ70">
-        <v>2.95</v>
+        <v>3.14</v>
       </c>
       <c r="BK70">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="BL70">
-        <v>2.65</v>
+        <v>2.38</v>
       </c>
       <c r="BM70">
-        <v>1.7</v>
+        <v>1.87</v>
       </c>
       <c r="BN70">
-        <v>2.03</v>
+        <v>1.87</v>
       </c>
       <c r="BO70">
-        <v>2.13</v>
+        <v>2.34</v>
       </c>
       <c r="BP70">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="71" spans="1:68">
@@ -16678,7 +16678,7 @@
         <v>69</v>
       </c>
       <c r="E77" s="2">
-        <v>45559.65625</v>
+        <v>45558.875</v>
       </c>
       <c r="F77">
         <v>5</v>
@@ -16804,31 +16804,31 @@
         <v>1.84</v>
       </c>
       <c r="AU77">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AV77">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AW77">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AX77">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AY77">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AZ77">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BA77">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="BB77">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="BC77">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="BD77">
         <v>2</v>
@@ -16884,7 +16884,7 @@
         <v>69</v>
       </c>
       <c r="E78" s="2">
-        <v>45559.65625</v>
+        <v>45558.875</v>
       </c>
       <c r="F78">
         <v>5</v>
@@ -17010,31 +17010,31 @@
         <v>2.86</v>
       </c>
       <c r="AU78">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AV78">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AW78">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AX78">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AY78">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AZ78">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BA78">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="BB78">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="BC78">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="BD78">
         <v>1.6</v>
@@ -17090,7 +17090,7 @@
         <v>69</v>
       </c>
       <c r="E79" s="2">
-        <v>45559.65625</v>
+        <v>45558.875</v>
       </c>
       <c r="F79">
         <v>5</v>
@@ -17216,31 +17216,31 @@
         <v>3.05</v>
       </c>
       <c r="AU79">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AV79">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AW79">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AX79">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AY79">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="AZ79">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BA79">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="BB79">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="BC79">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="BD79">
         <v>2.12</v>
@@ -17287,7 +17287,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>7477892</v>
+        <v>7477887</v>
       </c>
       <c r="C80" t="s">
         <v>68</v>
@@ -17296,49 +17296,49 @@
         <v>69</v>
       </c>
       <c r="E80" s="2">
-        <v>45563.35416666666</v>
+        <v>45562.875</v>
       </c>
       <c r="F80">
         <v>8</v>
       </c>
       <c r="G80" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H80" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K80">
         <v>1</v>
       </c>
       <c r="L80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N80">
         <v>2</v>
       </c>
       <c r="O80" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="P80" t="s">
         <v>203</v>
       </c>
       <c r="Q80">
-        <v>4.33</v>
+        <v>2.88</v>
       </c>
       <c r="R80">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S80">
-        <v>2.4</v>
+        <v>3.5</v>
       </c>
       <c r="T80">
         <v>1.33</v>
@@ -17359,13 +17359,13 @@
         <v>1.11</v>
       </c>
       <c r="Z80">
-        <v>4.05</v>
+        <v>2.17</v>
       </c>
       <c r="AA80">
-        <v>3.84</v>
+        <v>3.3</v>
       </c>
       <c r="AB80">
-        <v>1.83</v>
+        <v>3.1</v>
       </c>
       <c r="AC80">
         <v>1.03</v>
@@ -17374,118 +17374,118 @@
         <v>13</v>
       </c>
       <c r="AE80">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AF80">
-        <v>3.65</v>
+        <v>3.72</v>
       </c>
       <c r="AG80">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="AH80">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="AI80">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AJ80">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AK80">
-        <v>1.95</v>
+        <v>1.36</v>
       </c>
       <c r="AL80">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AM80">
-        <v>1.25</v>
+        <v>1.69</v>
       </c>
       <c r="AN80">
         <v>1.33</v>
       </c>
       <c r="AO80">
+        <v>1.67</v>
+      </c>
+      <c r="AP80">
+        <v>1.25</v>
+      </c>
+      <c r="AQ80">
         <v>1.5</v>
       </c>
-      <c r="AP80">
-        <v>1</v>
-      </c>
-      <c r="AQ80">
-        <v>2</v>
-      </c>
       <c r="AR80">
-        <v>0.8100000000000001</v>
+        <v>1.71</v>
       </c>
       <c r="AS80">
-        <v>1.17</v>
+        <v>1.37</v>
       </c>
       <c r="AT80">
-        <v>1.98</v>
+        <v>3.08</v>
       </c>
       <c r="AU80">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AV80">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AW80">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AX80">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AY80">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AZ80">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="BA80">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BB80">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BC80">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="BD80">
-        <v>2.65</v>
+        <v>1.79</v>
       </c>
       <c r="BE80">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="BF80">
-        <v>1.49</v>
+        <v>2.1</v>
       </c>
       <c r="BG80">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="BH80">
-        <v>3.95</v>
+        <v>3.15</v>
       </c>
       <c r="BI80">
-        <v>1.34</v>
+        <v>1.5</v>
       </c>
       <c r="BJ80">
-        <v>2.9</v>
+        <v>2.35</v>
       </c>
       <c r="BK80">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="BL80">
-        <v>2.23</v>
+        <v>1.85</v>
       </c>
       <c r="BM80">
-        <v>1.9</v>
+        <v>2.3</v>
       </c>
       <c r="BN80">
-        <v>1.79</v>
+        <v>1.54</v>
       </c>
       <c r="BO80">
-        <v>2.38</v>
+        <v>2.95</v>
       </c>
       <c r="BP80">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="81" spans="1:68">
@@ -17493,7 +17493,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>7477895</v>
+        <v>7477892</v>
       </c>
       <c r="C81" t="s">
         <v>68</v>
@@ -17508,82 +17508,82 @@
         <v>8</v>
       </c>
       <c r="G81" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H81" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81">
         <v>1</v>
       </c>
       <c r="K81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O81" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="P81" t="s">
-        <v>105</v>
+        <v>204</v>
       </c>
       <c r="Q81">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="R81">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="S81">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="T81">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="U81">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V81">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="W81">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="X81">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="Y81">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="Z81">
-        <v>2.83</v>
+        <v>4.05</v>
       </c>
       <c r="AA81">
-        <v>3.6</v>
+        <v>3.84</v>
       </c>
       <c r="AB81">
-        <v>2.36</v>
+        <v>1.83</v>
       </c>
       <c r="AC81">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="AD81">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AE81">
-        <v>1.33</v>
+        <v>1.19</v>
       </c>
       <c r="AF81">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="AG81">
         <v>1.9</v>
@@ -17592,106 +17592,106 @@
         <v>1.8</v>
       </c>
       <c r="AI81">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AJ81">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AK81">
+        <v>1.95</v>
+      </c>
+      <c r="AL81">
+        <v>1.22</v>
+      </c>
+      <c r="AM81">
+        <v>1.25</v>
+      </c>
+      <c r="AN81">
+        <v>1.33</v>
+      </c>
+      <c r="AO81">
         <v>1.5</v>
       </c>
-      <c r="AL81">
-        <v>1.28</v>
-      </c>
-      <c r="AM81">
-        <v>1.42</v>
-      </c>
-      <c r="AN81">
-        <v>2</v>
-      </c>
-      <c r="AO81">
-        <v>2</v>
-      </c>
       <c r="AP81">
-        <v>2.25</v>
+        <v>1</v>
       </c>
       <c r="AQ81">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR81">
-        <v>1.41</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AS81">
-        <v>1.26</v>
+        <v>1.17</v>
       </c>
       <c r="AT81">
-        <v>2.67</v>
+        <v>1.98</v>
       </c>
       <c r="AU81">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV81">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX81">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY81">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AZ81">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BA81">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="BB81">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="BC81">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BD81">
-        <v>2.05</v>
+        <v>2.65</v>
       </c>
       <c r="BE81">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="BF81">
-        <v>1.81</v>
+        <v>1.49</v>
       </c>
       <c r="BG81">
         <v>1.2</v>
       </c>
       <c r="BH81">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="BI81">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="BJ81">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="BK81">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="BL81">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="BM81">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="BN81">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="BO81">
-        <v>2.43</v>
+        <v>2.38</v>
       </c>
       <c r="BP81">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="82" spans="1:68">
@@ -17699,7 +17699,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>7477898</v>
+        <v>7477895</v>
       </c>
       <c r="C82" t="s">
         <v>68</v>
@@ -17708,49 +17708,49 @@
         <v>69</v>
       </c>
       <c r="E82" s="2">
-        <v>45563.45833333334</v>
+        <v>45563.35416666666</v>
       </c>
       <c r="F82">
         <v>8</v>
       </c>
       <c r="G82" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="H82" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N82">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O82" t="s">
-        <v>96</v>
+        <v>151</v>
       </c>
       <c r="P82" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="Q82">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="R82">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S82">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="T82">
         <v>1.4</v>
@@ -17759,10 +17759,10 @@
         <v>2.75</v>
       </c>
       <c r="V82">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W82">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X82">
         <v>8</v>
@@ -17771,25 +17771,25 @@
         <v>1.08</v>
       </c>
       <c r="Z82">
-        <v>2.23</v>
+        <v>2.83</v>
       </c>
       <c r="AA82">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AB82">
-        <v>3.2</v>
+        <v>2.36</v>
       </c>
       <c r="AC82">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="AD82">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE82">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AF82">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AG82">
         <v>1.9</v>
@@ -17804,100 +17804,100 @@
         <v>2</v>
       </c>
       <c r="AK82">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AL82">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AM82">
-        <v>1.77</v>
+        <v>1.42</v>
       </c>
       <c r="AN82">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AO82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP82">
-        <v>1.25</v>
+        <v>2.25</v>
       </c>
       <c r="AQ82">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR82">
-        <v>0.73</v>
+        <v>1.41</v>
       </c>
       <c r="AS82">
-        <v>1.06</v>
+        <v>1.26</v>
       </c>
       <c r="AT82">
-        <v>1.79</v>
+        <v>2.67</v>
       </c>
       <c r="AU82">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AV82">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AW82">
+        <v>0</v>
+      </c>
+      <c r="AX82">
         <v>5</v>
       </c>
-      <c r="AX82">
-        <v>6</v>
-      </c>
       <c r="AY82">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AZ82">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="BA82">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BB82">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BC82">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD82">
-        <v>1.63</v>
+        <v>2.05</v>
       </c>
       <c r="BE82">
         <v>6.5</v>
       </c>
       <c r="BF82">
-        <v>2.38</v>
+        <v>1.81</v>
       </c>
       <c r="BG82">
         <v>1.2</v>
       </c>
       <c r="BH82">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="BI82">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="BJ82">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="BK82">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="BL82">
-        <v>2.18</v>
+        <v>2.17</v>
       </c>
       <c r="BM82">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="BN82">
-        <v>1.77</v>
+        <v>1.75</v>
       </c>
       <c r="BO82">
-        <v>2.4</v>
+        <v>2.43</v>
       </c>
       <c r="BP82">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="83" spans="1:68">
@@ -17905,7 +17905,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>7477897</v>
+        <v>7477898</v>
       </c>
       <c r="C83" t="s">
         <v>68</v>
@@ -17920,10 +17920,10 @@
         <v>8</v>
       </c>
       <c r="G83" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H83" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -17935,55 +17935,55 @@
         <v>0</v>
       </c>
       <c r="L83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M83">
         <v>0</v>
       </c>
       <c r="N83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O83" t="s">
-        <v>152</v>
+        <v>96</v>
       </c>
       <c r="P83" t="s">
         <v>96</v>
       </c>
       <c r="Q83">
+        <v>2.63</v>
+      </c>
+      <c r="R83">
+        <v>2.2</v>
+      </c>
+      <c r="S83">
+        <v>4</v>
+      </c>
+      <c r="T83">
+        <v>1.4</v>
+      </c>
+      <c r="U83">
+        <v>2.75</v>
+      </c>
+      <c r="V83">
+        <v>2.75</v>
+      </c>
+      <c r="W83">
+        <v>1.4</v>
+      </c>
+      <c r="X83">
+        <v>8</v>
+      </c>
+      <c r="Y83">
+        <v>1.08</v>
+      </c>
+      <c r="Z83">
+        <v>2.23</v>
+      </c>
+      <c r="AA83">
         <v>3.4</v>
       </c>
-      <c r="R83">
-        <v>2.1</v>
-      </c>
-      <c r="S83">
-        <v>3.25</v>
-      </c>
-      <c r="T83">
-        <v>1.44</v>
-      </c>
-      <c r="U83">
-        <v>2.63</v>
-      </c>
-      <c r="V83">
-        <v>3</v>
-      </c>
-      <c r="W83">
-        <v>1.36</v>
-      </c>
-      <c r="X83">
-        <v>9</v>
-      </c>
-      <c r="Y83">
-        <v>1.07</v>
-      </c>
-      <c r="Z83">
-        <v>2.6</v>
-      </c>
-      <c r="AA83">
-        <v>3.24</v>
-      </c>
       <c r="AB83">
-        <v>2.76</v>
+        <v>3.2</v>
       </c>
       <c r="AC83">
         <v>1.03</v>
@@ -17992,112 +17992,112 @@
         <v>9</v>
       </c>
       <c r="AE83">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AF83">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AG83">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="AH83">
         <v>1.8</v>
       </c>
       <c r="AI83">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AJ83">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AK83">
-        <v>1.48</v>
+        <v>1.25</v>
       </c>
       <c r="AL83">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AM83">
-        <v>1.45</v>
+        <v>1.77</v>
       </c>
       <c r="AN83">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AO83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP83">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="AQ83">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR83">
-        <v>1.2</v>
+        <v>0.73</v>
       </c>
       <c r="AS83">
-        <v>0.92</v>
+        <v>1.06</v>
       </c>
       <c r="AT83">
-        <v>2.12</v>
+        <v>1.79</v>
       </c>
       <c r="AU83">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV83">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AW83">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX83">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AY83">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AZ83">
         <v>6</v>
       </c>
       <c r="BA83">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="BB83">
         <v>6</v>
       </c>
       <c r="BC83">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="BD83">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="BE83">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="BF83">
-        <v>2.18</v>
+        <v>2.38</v>
       </c>
       <c r="BG83">
         <v>1.2</v>
       </c>
       <c r="BH83">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="BI83">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="BJ83">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="BK83">
         <v>1.58</v>
       </c>
       <c r="BL83">
-        <v>2.17</v>
+        <v>2.18</v>
       </c>
       <c r="BM83">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="BN83">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="BO83">
         <v>2.4</v>
@@ -18111,7 +18111,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>7477896</v>
+        <v>7477897</v>
       </c>
       <c r="C84" t="s">
         <v>68</v>
@@ -18126,49 +18126,49 @@
         <v>8</v>
       </c>
       <c r="G84" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="H84" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J84">
         <v>0</v>
       </c>
       <c r="K84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L84">
         <v>1</v>
       </c>
       <c r="M84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O84" t="s">
-        <v>127</v>
+        <v>152</v>
       </c>
       <c r="P84" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="Q84">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="R84">
         <v>2.1</v>
       </c>
       <c r="S84">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="T84">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U84">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V84">
         <v>3</v>
@@ -18177,19 +18177,19 @@
         <v>1.36</v>
       </c>
       <c r="X84">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y84">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z84">
-        <v>3.52</v>
+        <v>2.6</v>
       </c>
       <c r="AA84">
-        <v>3.5</v>
+        <v>3.24</v>
       </c>
       <c r="AB84">
-        <v>2.06</v>
+        <v>2.76</v>
       </c>
       <c r="AC84">
         <v>1.03</v>
@@ -18198,88 +18198,88 @@
         <v>9</v>
       </c>
       <c r="AE84">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AF84">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AG84">
+        <v>1.91</v>
+      </c>
+      <c r="AH84">
         <v>1.8</v>
       </c>
-      <c r="AH84">
-        <v>1.9</v>
-      </c>
       <c r="AI84">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AJ84">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AK84">
-        <v>1.75</v>
+        <v>1.48</v>
       </c>
       <c r="AL84">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AM84">
-        <v>1.33</v>
+        <v>1.45</v>
       </c>
       <c r="AN84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO84">
-        <v>0.33</v>
+        <v>2</v>
       </c>
       <c r="AP84">
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="AQ84">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="AR84">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AS84">
-        <v>1.6</v>
+        <v>0.92</v>
       </c>
       <c r="AT84">
-        <v>2.82</v>
+        <v>2.12</v>
       </c>
       <c r="AU84">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX84">
+        <v>3</v>
+      </c>
+      <c r="AY84">
         <v>7</v>
       </c>
-      <c r="AY84">
-        <v>3</v>
-      </c>
       <c r="AZ84">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BA84">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="BB84">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC84">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="BD84">
-        <v>2.1</v>
+        <v>1.73</v>
       </c>
       <c r="BE84">
         <v>6.4</v>
       </c>
       <c r="BF84">
-        <v>1.78</v>
+        <v>2.18</v>
       </c>
       <c r="BG84">
         <v>1.2</v>
@@ -18288,28 +18288,28 @@
         <v>3.9</v>
       </c>
       <c r="BI84">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="BJ84">
         <v>2.8</v>
       </c>
       <c r="BK84">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="BL84">
-        <v>2.15</v>
+        <v>2.17</v>
       </c>
       <c r="BM84">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="BN84">
-        <v>1.73</v>
+        <v>1.76</v>
       </c>
       <c r="BO84">
-        <v>2.48</v>
+        <v>2.4</v>
       </c>
       <c r="BP84">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="85" spans="1:68">
@@ -18317,7 +18317,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>7477894</v>
+        <v>7477896</v>
       </c>
       <c r="C85" t="s">
         <v>68</v>
@@ -18332,190 +18332,190 @@
         <v>8</v>
       </c>
       <c r="G85" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H85" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85">
         <v>0</v>
       </c>
       <c r="K85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N85">
         <v>2</v>
       </c>
       <c r="O85" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="P85" t="s">
-        <v>204</v>
+        <v>109</v>
       </c>
       <c r="Q85">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="R85">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="S85">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T85">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="U85">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V85">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="W85">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="X85">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="Y85">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="Z85">
-        <v>2.83</v>
+        <v>3.52</v>
       </c>
       <c r="AA85">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AB85">
-        <v>2.36</v>
+        <v>2.06</v>
       </c>
       <c r="AC85">
         <v>1.03</v>
       </c>
       <c r="AD85">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE85">
-        <v>1.19</v>
+        <v>1.3</v>
       </c>
       <c r="AF85">
-        <v>3.66</v>
+        <v>3.2</v>
       </c>
       <c r="AG85">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AH85">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AI85">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AJ85">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AK85">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AL85">
+        <v>1.25</v>
+      </c>
+      <c r="AM85">
         <v>1.33</v>
       </c>
-      <c r="AM85">
-        <v>1.4</v>
-      </c>
       <c r="AN85">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO85">
-        <v>1.5</v>
+        <v>0.33</v>
       </c>
       <c r="AP85">
         <v>1</v>
       </c>
       <c r="AQ85">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="AR85">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="AS85">
-        <v>1.26</v>
+        <v>1.6</v>
       </c>
       <c r="AT85">
-        <v>2.45</v>
+        <v>2.82</v>
       </c>
       <c r="AU85">
+        <v>2</v>
+      </c>
+      <c r="AV85">
+        <v>2</v>
+      </c>
+      <c r="AW85">
+        <v>1</v>
+      </c>
+      <c r="AX85">
+        <v>7</v>
+      </c>
+      <c r="AY85">
+        <v>3</v>
+      </c>
+      <c r="AZ85">
         <v>9</v>
       </c>
-      <c r="AV85">
-        <v>4</v>
-      </c>
-      <c r="AW85">
-        <v>7</v>
-      </c>
-      <c r="AX85">
-        <v>6</v>
-      </c>
-      <c r="AY85">
-        <v>16</v>
-      </c>
-      <c r="AZ85">
-        <v>10</v>
-      </c>
       <c r="BA85">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BB85">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC85">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD85">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="BE85">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="BF85">
-        <v>1.89</v>
+        <v>1.78</v>
       </c>
       <c r="BG85">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="BH85">
-        <v>2.95</v>
+        <v>3.9</v>
       </c>
       <c r="BI85">
-        <v>1.56</v>
+        <v>1.37</v>
       </c>
       <c r="BJ85">
-        <v>2.23</v>
+        <v>2.8</v>
       </c>
       <c r="BK85">
-        <v>1.92</v>
+        <v>1.61</v>
       </c>
       <c r="BL85">
-        <v>1.77</v>
+        <v>2.15</v>
       </c>
       <c r="BM85">
-        <v>2.43</v>
+        <v>1.96</v>
       </c>
       <c r="BN85">
-        <v>1.48</v>
+        <v>1.73</v>
       </c>
       <c r="BO85">
-        <v>3.15</v>
+        <v>2.48</v>
       </c>
       <c r="BP85">
-        <v>1.29</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="86" spans="1:68">
@@ -18523,7 +18523,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>7477893</v>
+        <v>7477894</v>
       </c>
       <c r="C86" t="s">
         <v>68</v>
@@ -18538,10 +18538,10 @@
         <v>8</v>
       </c>
       <c r="G86" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="H86" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -18556,172 +18556,172 @@
         <v>0</v>
       </c>
       <c r="M86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N86">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O86" t="s">
         <v>96</v>
       </c>
       <c r="P86" t="s">
-        <v>96</v>
+        <v>205</v>
       </c>
       <c r="Q86">
+        <v>3.4</v>
+      </c>
+      <c r="R86">
+        <v>2.25</v>
+      </c>
+      <c r="S86">
+        <v>3</v>
+      </c>
+      <c r="T86">
+        <v>1.33</v>
+      </c>
+      <c r="U86">
+        <v>3.25</v>
+      </c>
+      <c r="V86">
+        <v>2.63</v>
+      </c>
+      <c r="W86">
+        <v>1.44</v>
+      </c>
+      <c r="X86">
+        <v>6.5</v>
+      </c>
+      <c r="Y86">
+        <v>1.11</v>
+      </c>
+      <c r="Z86">
+        <v>2.83</v>
+      </c>
+      <c r="AA86">
         <v>3.6</v>
       </c>
-      <c r="R86">
-        <v>2.2</v>
-      </c>
-      <c r="S86">
-        <v>2.88</v>
-      </c>
-      <c r="T86">
-        <v>1.36</v>
-      </c>
-      <c r="U86">
-        <v>3</v>
-      </c>
-      <c r="V86">
-        <v>2.75</v>
-      </c>
-      <c r="W86">
+      <c r="AB86">
+        <v>2.36</v>
+      </c>
+      <c r="AC86">
+        <v>1.03</v>
+      </c>
+      <c r="AD86">
+        <v>13</v>
+      </c>
+      <c r="AE86">
+        <v>1.19</v>
+      </c>
+      <c r="AF86">
+        <v>3.66</v>
+      </c>
+      <c r="AG86">
+        <v>1.85</v>
+      </c>
+      <c r="AH86">
+        <v>1.85</v>
+      </c>
+      <c r="AI86">
+        <v>1.57</v>
+      </c>
+      <c r="AJ86">
+        <v>2.25</v>
+      </c>
+      <c r="AK86">
+        <v>1.57</v>
+      </c>
+      <c r="AL86">
+        <v>1.33</v>
+      </c>
+      <c r="AM86">
         <v>1.4</v>
       </c>
-      <c r="X86">
-        <v>7</v>
-      </c>
-      <c r="Y86">
-        <v>1.1</v>
-      </c>
-      <c r="Z86">
-        <v>2.79</v>
-      </c>
-      <c r="AA86">
-        <v>3.44</v>
-      </c>
-      <c r="AB86">
-        <v>2.46</v>
-      </c>
-      <c r="AC86">
-        <v>1.02</v>
-      </c>
-      <c r="AD86">
-        <v>10</v>
-      </c>
-      <c r="AE86">
-        <v>1.25</v>
-      </c>
-      <c r="AF86">
-        <v>3.6</v>
-      </c>
-      <c r="AG86">
-        <v>1.8</v>
-      </c>
-      <c r="AH86">
-        <v>1.9</v>
-      </c>
-      <c r="AI86">
-        <v>1.67</v>
-      </c>
-      <c r="AJ86">
-        <v>2.1</v>
-      </c>
-      <c r="AK86">
-        <v>1.62</v>
-      </c>
-      <c r="AL86">
-        <v>1.28</v>
-      </c>
-      <c r="AM86">
-        <v>1.35</v>
-      </c>
       <c r="AN86">
-        <v>0.33</v>
+        <v>1.33</v>
       </c>
       <c r="AO86">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AP86">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ86">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="AR86">
-        <v>1.36</v>
+        <v>1.19</v>
       </c>
       <c r="AS86">
-        <v>1.03</v>
+        <v>1.26</v>
       </c>
       <c r="AT86">
-        <v>2.39</v>
+        <v>2.45</v>
       </c>
       <c r="AU86">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AV86">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW86">
         <v>7</v>
       </c>
       <c r="AX86">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AY86">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AZ86">
+        <v>10</v>
+      </c>
+      <c r="BA86">
         <v>6</v>
       </c>
-      <c r="BA86">
-        <v>1</v>
-      </c>
       <c r="BB86">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC86">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BD86">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="BE86">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="BF86">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="BG86">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="BH86">
-        <v>3.55</v>
+        <v>2.95</v>
       </c>
       <c r="BI86">
-        <v>1.44</v>
+        <v>1.56</v>
       </c>
       <c r="BJ86">
-        <v>2.55</v>
+        <v>2.23</v>
       </c>
       <c r="BK86">
-        <v>1.71</v>
+        <v>1.92</v>
       </c>
       <c r="BL86">
-        <v>2</v>
+        <v>1.77</v>
       </c>
       <c r="BM86">
-        <v>2.1</v>
+        <v>2.43</v>
       </c>
       <c r="BN86">
-        <v>1.63</v>
+        <v>1.48</v>
       </c>
       <c r="BO86">
-        <v>2.65</v>
+        <v>3.15</v>
       </c>
       <c r="BP86">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="87" spans="1:68">
@@ -18729,7 +18729,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>7477890</v>
+        <v>7477893</v>
       </c>
       <c r="C87" t="s">
         <v>68</v>
@@ -18744,49 +18744,49 @@
         <v>8</v>
       </c>
       <c r="G87" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H87" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="I87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87">
         <v>0</v>
       </c>
       <c r="K87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N87">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O87" t="s">
-        <v>153</v>
+        <v>96</v>
       </c>
       <c r="P87" t="s">
-        <v>205</v>
+        <v>96</v>
       </c>
       <c r="Q87">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="R87">
         <v>2.2</v>
       </c>
       <c r="S87">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="T87">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U87">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V87">
         <v>2.75</v>
@@ -18795,109 +18795,109 @@
         <v>1.4</v>
       </c>
       <c r="X87">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y87">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z87">
-        <v>2.88</v>
+        <v>2.79</v>
       </c>
       <c r="AA87">
-        <v>3.48</v>
+        <v>3.44</v>
       </c>
       <c r="AB87">
-        <v>2.38</v>
+        <v>2.46</v>
       </c>
       <c r="AC87">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="AD87">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AE87">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="AF87">
-        <v>3.26</v>
+        <v>3.6</v>
       </c>
       <c r="AG87">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AH87">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AI87">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AJ87">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AK87">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="AL87">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AM87">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="AN87">
-        <v>2</v>
+        <v>0.33</v>
       </c>
       <c r="AO87">
         <v>1.33</v>
       </c>
       <c r="AP87">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="AQ87">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="AR87">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AS87">
-        <v>1.46</v>
+        <v>1.03</v>
       </c>
       <c r="AT87">
-        <v>2.7</v>
+        <v>2.26</v>
       </c>
       <c r="AU87">
         <v>2</v>
       </c>
       <c r="AV87">
+        <v>3</v>
+      </c>
+      <c r="AW87">
+        <v>7</v>
+      </c>
+      <c r="AX87">
+        <v>3</v>
+      </c>
+      <c r="AY87">
+        <v>9</v>
+      </c>
+      <c r="AZ87">
         <v>6</v>
       </c>
-      <c r="AW87">
-        <v>3</v>
-      </c>
-      <c r="AX87">
+      <c r="BA87">
+        <v>1</v>
+      </c>
+      <c r="BB87">
+        <v>3</v>
+      </c>
+      <c r="BC87">
         <v>4</v>
       </c>
-      <c r="AY87">
-        <v>5</v>
-      </c>
-      <c r="AZ87">
-        <v>10</v>
-      </c>
-      <c r="BA87">
-        <v>2</v>
-      </c>
-      <c r="BB87">
-        <v>4</v>
-      </c>
-      <c r="BC87">
-        <v>6</v>
-      </c>
       <c r="BD87">
-        <v>1.95</v>
+        <v>2.08</v>
       </c>
       <c r="BE87">
         <v>6.4</v>
       </c>
       <c r="BF87">
-        <v>1.92</v>
+        <v>1.79</v>
       </c>
       <c r="BG87">
         <v>1.24</v>
@@ -18906,22 +18906,22 @@
         <v>3.55</v>
       </c>
       <c r="BI87">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="BJ87">
         <v>2.55</v>
       </c>
       <c r="BK87">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="BL87">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="BM87">
         <v>2.1</v>
       </c>
       <c r="BN87">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="BO87">
         <v>2.65</v>
@@ -18935,7 +18935,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>7477889</v>
+        <v>7477890</v>
       </c>
       <c r="C88" t="s">
         <v>68</v>
@@ -18950,10 +18950,10 @@
         <v>8</v>
       </c>
       <c r="G88" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H88" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="I88">
         <v>1</v>
@@ -18965,175 +18965,175 @@
         <v>1</v>
       </c>
       <c r="L88">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M88">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N88">
         <v>3</v>
       </c>
       <c r="O88" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>96</v>
+        <v>206</v>
       </c>
       <c r="Q88">
+        <v>3.4</v>
+      </c>
+      <c r="R88">
         <v>2.2</v>
       </c>
-      <c r="R88">
-        <v>2.3</v>
-      </c>
       <c r="S88">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="T88">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U88">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V88">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W88">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X88">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y88">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z88">
+        <v>2.88</v>
+      </c>
+      <c r="AA88">
+        <v>3.48</v>
+      </c>
+      <c r="AB88">
+        <v>2.38</v>
+      </c>
+      <c r="AC88">
+        <v>1.06</v>
+      </c>
+      <c r="AD88">
+        <v>8.5</v>
+      </c>
+      <c r="AE88">
+        <v>1.24</v>
+      </c>
+      <c r="AF88">
+        <v>3.26</v>
+      </c>
+      <c r="AG88">
+        <v>1.85</v>
+      </c>
+      <c r="AH88">
+        <v>1.85</v>
+      </c>
+      <c r="AI88">
+        <v>1.7</v>
+      </c>
+      <c r="AJ88">
+        <v>2.05</v>
+      </c>
+      <c r="AK88">
+        <v>1.53</v>
+      </c>
+      <c r="AL88">
+        <v>1.25</v>
+      </c>
+      <c r="AM88">
+        <v>1.4</v>
+      </c>
+      <c r="AN88">
+        <v>2</v>
+      </c>
+      <c r="AO88">
+        <v>1.33</v>
+      </c>
+      <c r="AP88">
         <v>1.5</v>
       </c>
-      <c r="AA88">
-        <v>4.45</v>
-      </c>
-      <c r="AB88">
-        <v>6.1</v>
-      </c>
-      <c r="AC88">
-        <v>1.04</v>
-      </c>
-      <c r="AD88">
-        <v>12</v>
-      </c>
-      <c r="AE88">
-        <v>1.23</v>
-      </c>
-      <c r="AF88">
-        <v>3.34</v>
-      </c>
-      <c r="AG88">
-        <v>1.8</v>
-      </c>
-      <c r="AH88">
-        <v>1.9</v>
-      </c>
-      <c r="AI88">
-        <v>1.91</v>
-      </c>
-      <c r="AJ88">
-        <v>1.91</v>
-      </c>
-      <c r="AK88">
-        <v>1.14</v>
-      </c>
-      <c r="AL88">
+      <c r="AQ88">
+        <v>1.75</v>
+      </c>
+      <c r="AR88">
         <v>1.24</v>
       </c>
-      <c r="AM88">
-        <v>2.38</v>
-      </c>
-      <c r="AN88">
-        <v>1.33</v>
-      </c>
-      <c r="AO88">
-        <v>1</v>
-      </c>
-      <c r="AP88">
-        <v>1.75</v>
-      </c>
-      <c r="AQ88">
-        <v>0.75</v>
-      </c>
-      <c r="AR88">
-        <v>1.55</v>
-      </c>
       <c r="AS88">
-        <v>1.24</v>
+        <v>1.46</v>
       </c>
       <c r="AT88">
-        <v>2.79</v>
+        <v>2.7</v>
       </c>
       <c r="AU88">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AV88">
+        <v>6</v>
+      </c>
+      <c r="AW88">
+        <v>3</v>
+      </c>
+      <c r="AX88">
         <v>4</v>
       </c>
-      <c r="AW88">
-        <v>6</v>
-      </c>
-      <c r="AX88">
-        <v>6</v>
-      </c>
       <c r="AY88">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AZ88">
         <v>10</v>
       </c>
       <c r="BA88">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BB88">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="BC88">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="BD88">
-        <v>1.35</v>
+        <v>1.95</v>
       </c>
       <c r="BE88">
-        <v>6.75</v>
+        <v>6.4</v>
       </c>
       <c r="BF88">
-        <v>3.3</v>
+        <v>1.92</v>
       </c>
       <c r="BG88">
-        <v>1.34</v>
+        <v>1.24</v>
       </c>
       <c r="BH88">
-        <v>2.8</v>
+        <v>3.55</v>
       </c>
       <c r="BI88">
-        <v>1.58</v>
+        <v>1.43</v>
       </c>
       <c r="BJ88">
-        <v>2.18</v>
+        <v>2.55</v>
       </c>
       <c r="BK88">
-        <v>1.95</v>
+        <v>1.72</v>
       </c>
       <c r="BL88">
-        <v>1.75</v>
+        <v>1.98</v>
       </c>
       <c r="BM88">
-        <v>2.48</v>
+        <v>2.1</v>
       </c>
       <c r="BN88">
-        <v>1.47</v>
+        <v>1.64</v>
       </c>
       <c r="BO88">
-        <v>3.2</v>
+        <v>2.65</v>
       </c>
       <c r="BP88">
-        <v>1.27</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="89" spans="1:68">
@@ -19141,7 +19141,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>7477888</v>
+        <v>7477889</v>
       </c>
       <c r="C89" t="s">
         <v>68</v>
@@ -19156,190 +19156,190 @@
         <v>8</v>
       </c>
       <c r="G89" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H89" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I89">
         <v>1</v>
       </c>
       <c r="J89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L89">
         <v>3</v>
       </c>
       <c r="M89">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N89">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O89" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>206</v>
+        <v>96</v>
       </c>
       <c r="Q89">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="R89">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="S89">
         <v>5.5</v>
       </c>
       <c r="T89">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="U89">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="V89">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W89">
+        <v>1.44</v>
+      </c>
+      <c r="X89">
+        <v>7</v>
+      </c>
+      <c r="Y89">
+        <v>1.1</v>
+      </c>
+      <c r="Z89">
         <v>1.5</v>
       </c>
-      <c r="X89">
-        <v>6</v>
-      </c>
-      <c r="Y89">
-        <v>1.13</v>
-      </c>
-      <c r="Z89">
-        <v>1.54</v>
-      </c>
       <c r="AA89">
-        <v>4.55</v>
+        <v>4.45</v>
       </c>
       <c r="AB89">
-        <v>5.4</v>
+        <v>6.1</v>
       </c>
       <c r="AC89">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AD89">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE89">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="AF89">
-        <v>3.9</v>
+        <v>3.34</v>
       </c>
       <c r="AG89">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="AH89">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="AI89">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="AJ89">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AK89">
         <v>1.14</v>
       </c>
       <c r="AL89">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="AM89">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="AN89">
-        <v>2.33</v>
+        <v>1.33</v>
       </c>
       <c r="AO89">
-        <v>2.33</v>
+        <v>1</v>
       </c>
       <c r="AP89">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="AQ89">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="AR89">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AS89">
-        <v>1.53</v>
+        <v>1.24</v>
       </c>
       <c r="AT89">
-        <v>3.23</v>
+        <v>2.79</v>
       </c>
       <c r="AU89">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV89">
         <v>4</v>
       </c>
       <c r="AW89">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX89">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AY89">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AZ89">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BA89">
         <v>7</v>
       </c>
       <c r="BB89">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BC89">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="BD89">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="BE89">
         <v>6.75</v>
       </c>
       <c r="BF89">
+        <v>3.3</v>
+      </c>
+      <c r="BG89">
+        <v>1.34</v>
+      </c>
+      <c r="BH89">
         <v>2.8</v>
       </c>
-      <c r="BG89">
-        <v>1.21</v>
-      </c>
-      <c r="BH89">
-        <v>3.7</v>
-      </c>
       <c r="BI89">
-        <v>1.4</v>
+        <v>1.58</v>
       </c>
       <c r="BJ89">
-        <v>2.7</v>
+        <v>2.18</v>
       </c>
       <c r="BK89">
-        <v>1.64</v>
+        <v>1.95</v>
       </c>
       <c r="BL89">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="BM89">
-        <v>1.98</v>
+        <v>2.48</v>
       </c>
       <c r="BN89">
-        <v>1.72</v>
+        <v>1.47</v>
       </c>
       <c r="BO89">
-        <v>2.5</v>
+        <v>3.2</v>
       </c>
       <c r="BP89">
-        <v>1.46</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="90" spans="1:68">
@@ -19347,7 +19347,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>7477891</v>
+        <v>7477888</v>
       </c>
       <c r="C90" t="s">
         <v>68</v>
@@ -19362,190 +19362,190 @@
         <v>8</v>
       </c>
       <c r="G90" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H90" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K90">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L90">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M90">
         <v>2</v>
       </c>
       <c r="N90">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O90" t="s">
-        <v>96</v>
+        <v>155</v>
       </c>
       <c r="P90" t="s">
         <v>207</v>
       </c>
       <c r="Q90">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="R90">
+        <v>2.4</v>
+      </c>
+      <c r="S90">
+        <v>5.5</v>
+      </c>
+      <c r="T90">
+        <v>1.3</v>
+      </c>
+      <c r="U90">
+        <v>3.4</v>
+      </c>
+      <c r="V90">
+        <v>2.5</v>
+      </c>
+      <c r="W90">
+        <v>1.5</v>
+      </c>
+      <c r="X90">
+        <v>6</v>
+      </c>
+      <c r="Y90">
+        <v>1.13</v>
+      </c>
+      <c r="Z90">
+        <v>1.54</v>
+      </c>
+      <c r="AA90">
+        <v>4.55</v>
+      </c>
+      <c r="AB90">
+        <v>5.4</v>
+      </c>
+      <c r="AC90">
+        <v>1.01</v>
+      </c>
+      <c r="AD90">
+        <v>11</v>
+      </c>
+      <c r="AE90">
+        <v>1.17</v>
+      </c>
+      <c r="AF90">
+        <v>3.9</v>
+      </c>
+      <c r="AG90">
+        <v>1.65</v>
+      </c>
+      <c r="AH90">
         <v>2.1</v>
       </c>
-      <c r="S90">
-        <v>2.88</v>
-      </c>
-      <c r="T90">
-        <v>1.44</v>
-      </c>
-      <c r="U90">
-        <v>2.63</v>
-      </c>
-      <c r="V90">
-        <v>3.25</v>
-      </c>
-      <c r="W90">
-        <v>1.33</v>
-      </c>
-      <c r="X90">
-        <v>9</v>
-      </c>
-      <c r="Y90">
-        <v>1.07</v>
-      </c>
-      <c r="Z90">
-        <v>3.28</v>
-      </c>
-      <c r="AA90">
-        <v>3.4</v>
-      </c>
-      <c r="AB90">
-        <v>2.19</v>
-      </c>
-      <c r="AC90">
-        <v>1.04</v>
-      </c>
-      <c r="AD90">
-        <v>8.5</v>
-      </c>
-      <c r="AE90">
-        <v>1.33</v>
-      </c>
-      <c r="AF90">
-        <v>3</v>
-      </c>
-      <c r="AG90">
-        <v>1.8</v>
-      </c>
-      <c r="AH90">
-        <v>1.9</v>
-      </c>
       <c r="AI90">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AJ90">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AK90">
-        <v>1.7</v>
+        <v>1.14</v>
       </c>
       <c r="AL90">
-        <v>1.25</v>
+        <v>1.21</v>
       </c>
       <c r="AM90">
-        <v>1.33</v>
+        <v>2.45</v>
       </c>
       <c r="AN90">
-        <v>0.5</v>
+        <v>2.33</v>
       </c>
       <c r="AO90">
         <v>2.33</v>
       </c>
       <c r="AP90">
-        <v>0.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ90">
+        <v>1.75</v>
+      </c>
+      <c r="AR90">
+        <v>1.7</v>
+      </c>
+      <c r="AS90">
+        <v>1.82</v>
+      </c>
+      <c r="AT90">
+        <v>3.52</v>
+      </c>
+      <c r="AU90">
+        <v>5</v>
+      </c>
+      <c r="AV90">
+        <v>4</v>
+      </c>
+      <c r="AW90">
+        <v>4</v>
+      </c>
+      <c r="AX90">
+        <v>2</v>
+      </c>
+      <c r="AY90">
+        <v>9</v>
+      </c>
+      <c r="AZ90">
+        <v>6</v>
+      </c>
+      <c r="BA90">
+        <v>7</v>
+      </c>
+      <c r="BB90">
+        <v>6</v>
+      </c>
+      <c r="BC90">
+        <v>13</v>
+      </c>
+      <c r="BD90">
+        <v>1.45</v>
+      </c>
+      <c r="BE90">
+        <v>6.75</v>
+      </c>
+      <c r="BF90">
+        <v>2.8</v>
+      </c>
+      <c r="BG90">
+        <v>1.21</v>
+      </c>
+      <c r="BH90">
+        <v>3.7</v>
+      </c>
+      <c r="BI90">
+        <v>1.4</v>
+      </c>
+      <c r="BJ90">
+        <v>2.7</v>
+      </c>
+      <c r="BK90">
+        <v>1.64</v>
+      </c>
+      <c r="BL90">
+        <v>2.1</v>
+      </c>
+      <c r="BM90">
+        <v>1.98</v>
+      </c>
+      <c r="BN90">
+        <v>1.72</v>
+      </c>
+      <c r="BO90">
         <v>2.5</v>
       </c>
-      <c r="AR90">
-        <v>1.42</v>
-      </c>
-      <c r="AS90">
-        <v>0.92</v>
-      </c>
-      <c r="AT90">
-        <v>2.34</v>
-      </c>
-      <c r="AU90">
-        <v>3</v>
-      </c>
-      <c r="AV90">
-        <v>5</v>
-      </c>
-      <c r="AW90">
-        <v>7</v>
-      </c>
-      <c r="AX90">
-        <v>5</v>
-      </c>
-      <c r="AY90">
-        <v>10</v>
-      </c>
-      <c r="AZ90">
-        <v>10</v>
-      </c>
-      <c r="BA90">
-        <v>6</v>
-      </c>
-      <c r="BB90">
-        <v>2</v>
-      </c>
-      <c r="BC90">
-        <v>8</v>
-      </c>
-      <c r="BD90">
-        <v>2.12</v>
-      </c>
-      <c r="BE90">
-        <v>6.25</v>
-      </c>
-      <c r="BF90">
-        <v>1.79</v>
-      </c>
-      <c r="BG90">
-        <v>1.3</v>
-      </c>
-      <c r="BH90">
-        <v>3.15</v>
-      </c>
-      <c r="BI90">
-        <v>1.5</v>
-      </c>
-      <c r="BJ90">
-        <v>2.33</v>
-      </c>
-      <c r="BK90">
-        <v>1.84</v>
-      </c>
-      <c r="BL90">
-        <v>1.84</v>
-      </c>
-      <c r="BM90">
-        <v>2.3</v>
-      </c>
-      <c r="BN90">
-        <v>1.54</v>
-      </c>
-      <c r="BO90">
-        <v>2.95</v>
-      </c>
       <c r="BP90">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="91" spans="1:68">
@@ -19553,7 +19553,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>7477887</v>
+        <v>7477891</v>
       </c>
       <c r="C91" t="s">
         <v>68</v>
@@ -19562,169 +19562,169 @@
         <v>69</v>
       </c>
       <c r="E91" s="2">
-        <v>45563.65625</v>
+        <v>45563.45833333334</v>
       </c>
       <c r="F91">
         <v>8</v>
       </c>
       <c r="G91" t="s">
-        <v>70</v>
+        <v>88</v>
       </c>
       <c r="H91" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K91">
         <v>1</v>
       </c>
       <c r="L91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N91">
         <v>2</v>
       </c>
       <c r="O91" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="P91" t="s">
         <v>208</v>
       </c>
       <c r="Q91">
+        <v>4</v>
+      </c>
+      <c r="R91">
+        <v>2.1</v>
+      </c>
+      <c r="S91">
         <v>2.88</v>
       </c>
-      <c r="R91">
-        <v>2.25</v>
-      </c>
-      <c r="S91">
-        <v>3.5</v>
-      </c>
       <c r="T91">
+        <v>1.44</v>
+      </c>
+      <c r="U91">
+        <v>2.63</v>
+      </c>
+      <c r="V91">
+        <v>3.25</v>
+      </c>
+      <c r="W91">
         <v>1.33</v>
       </c>
-      <c r="U91">
-        <v>3.25</v>
-      </c>
-      <c r="V91">
-        <v>2.63</v>
-      </c>
-      <c r="W91">
-        <v>1.44</v>
-      </c>
       <c r="X91">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="Y91">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="Z91">
-        <v>2.17</v>
+        <v>3.28</v>
       </c>
       <c r="AA91">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AB91">
-        <v>3.1</v>
+        <v>2.19</v>
       </c>
       <c r="AC91">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AD91">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="AE91">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AF91">
-        <v>3.72</v>
+        <v>3</v>
       </c>
       <c r="AG91">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="AH91">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AI91">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="AJ91">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="AK91">
-        <v>1.36</v>
+        <v>1.7</v>
       </c>
       <c r="AL91">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AM91">
-        <v>1.69</v>
+        <v>1.33</v>
       </c>
       <c r="AN91">
-        <v>1.33</v>
+        <v>0.5</v>
       </c>
       <c r="AO91">
-        <v>1.67</v>
+        <v>2.33</v>
       </c>
       <c r="AP91">
-        <v>1.25</v>
+        <v>0.33</v>
       </c>
       <c r="AQ91">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="AR91">
-        <v>1.71</v>
+        <v>1.42</v>
       </c>
       <c r="AS91">
-        <v>1.37</v>
+        <v>0.92</v>
       </c>
       <c r="AT91">
-        <v>3.08</v>
+        <v>2.34</v>
       </c>
       <c r="AU91">
+        <v>3</v>
+      </c>
+      <c r="AV91">
+        <v>5</v>
+      </c>
+      <c r="AW91">
+        <v>7</v>
+      </c>
+      <c r="AX91">
+        <v>5</v>
+      </c>
+      <c r="AY91">
+        <v>10</v>
+      </c>
+      <c r="AZ91">
+        <v>10</v>
+      </c>
+      <c r="BA91">
         <v>6</v>
       </c>
-      <c r="AV91">
-        <v>7</v>
-      </c>
-      <c r="AW91">
-        <v>3</v>
-      </c>
-      <c r="AX91">
-        <v>6</v>
-      </c>
-      <c r="AY91">
-        <v>9</v>
-      </c>
-      <c r="AZ91">
-        <v>13</v>
-      </c>
-      <c r="BA91">
-        <v>3</v>
-      </c>
       <c r="BB91">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC91">
         <v>8</v>
       </c>
       <c r="BD91">
+        <v>2.12</v>
+      </c>
+      <c r="BE91">
+        <v>6.25</v>
+      </c>
+      <c r="BF91">
         <v>1.79</v>
       </c>
-      <c r="BE91">
-        <v>6.4</v>
-      </c>
-      <c r="BF91">
-        <v>2.1</v>
-      </c>
       <c r="BG91">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="BH91">
         <v>3.15</v>
@@ -19733,13 +19733,13 @@
         <v>1.5</v>
       </c>
       <c r="BJ91">
-        <v>2.35</v>
+        <v>2.33</v>
       </c>
       <c r="BK91">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="BL91">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="BM91">
         <v>2.3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="209">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -406,12 +406,12 @@
     <t>['18', '90+1']</t>
   </si>
   <si>
+    <t>['11', '65']</t>
+  </si>
+  <si>
     <t>['15', '42', '59']</t>
   </si>
   <si>
-    <t>['11', '65']</t>
-  </si>
-  <si>
     <t>['72']</t>
   </si>
   <si>
@@ -436,9 +436,6 @@
     <t>['22', '52', '59']</t>
   </si>
   <si>
-    <t>['10', '33', '63']</t>
-  </si>
-  <si>
     <t>['9', '50']</t>
   </si>
   <si>
@@ -466,30 +463,42 @@
     <t>['90+6']</t>
   </si>
   <si>
-    <t>['20', '53']</t>
+    <t>['67']</t>
   </si>
   <si>
     <t>['30', '57']</t>
   </si>
   <si>
-    <t>['67']</t>
-  </si>
-  <si>
-    <t>['17']</t>
-  </si>
-  <si>
     <t>['19', '50', '75']</t>
   </si>
   <si>
-    <t>['24', '49', '66']</t>
+    <t>['90+1', '90+3']</t>
+  </si>
+  <si>
+    <t>['11', '49', '81']</t>
+  </si>
+  <si>
+    <t>['10']</t>
+  </si>
+  <si>
+    <t>['30', '57', '67']</t>
+  </si>
+  <si>
+    <t>['63']</t>
+  </si>
+  <si>
+    <t>['58', '89']</t>
+  </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
+    <t>['23', '42', '82']</t>
   </si>
   <si>
     <t>['13', '18']</t>
   </si>
   <si>
-    <t>['58', '89']</t>
-  </si>
-  <si>
     <t>['81']</t>
   </si>
   <si>
@@ -499,9 +508,6 @@
     <t>['8', '75']</t>
   </si>
   <si>
-    <t>['74']</t>
-  </si>
-  <si>
     <t>['9', '22', '86']</t>
   </si>
   <si>
@@ -589,9 +595,6 @@
     <t>['3']</t>
   </si>
   <si>
-    <t>['74', '76']</t>
-  </si>
-  <si>
     <t>['54']</t>
   </si>
   <si>
@@ -619,28 +622,25 @@
     <t>['28', '32']</t>
   </si>
   <si>
-    <t>['31', '45+6']</t>
-  </si>
-  <si>
-    <t>['42', '45+1']</t>
-  </si>
-  <si>
-    <t>['90+1']</t>
-  </si>
-  <si>
-    <t>['5', '78']</t>
-  </si>
-  <si>
     <t>['47', '89']</t>
   </si>
   <si>
-    <t>['77', '90+6']</t>
-  </si>
-  <si>
-    <t>['4', '16']</t>
-  </si>
-  <si>
-    <t>['26', '68']</t>
+    <t>['6', '23', '60', '83']</t>
+  </si>
+  <si>
+    <t>['40']</t>
+  </si>
+  <si>
+    <t>['12', '90+2']</t>
+  </si>
+  <si>
+    <t>['79', '90+4']</t>
+  </si>
+  <si>
+    <t>['47', '85']</t>
+  </si>
+  <si>
+    <t>['84']</t>
   </si>
 </sst>
 </file>
@@ -1002,7 +1002,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP91"/>
+  <dimension ref="A1:BP92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1261,7 +1261,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1342,7 +1342,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ2">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>3</v>
       </c>
       <c r="AQ3">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -1751,10 +1751,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AQ4">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2085,7 +2085,7 @@
         <v>96</v>
       </c>
       <c r="P6" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2163,10 +2163,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AQ6">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2291,7 +2291,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2369,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AQ7">
         <v>2</v>
@@ -2575,7 +2575,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ8">
         <v>0</v>
@@ -2703,7 +2703,7 @@
         <v>100</v>
       </c>
       <c r="P9" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -2784,7 +2784,7 @@
         <v>1</v>
       </c>
       <c r="AQ9">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2909,7 +2909,7 @@
         <v>101</v>
       </c>
       <c r="P10" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -2990,7 +2990,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ10">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3193,7 +3193,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="AQ11">
         <v>1.33</v>
@@ -3321,7 +3321,7 @@
         <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q12">
         <v>2.1</v>
@@ -3608,7 +3608,7 @@
         <v>2</v>
       </c>
       <c r="AQ13">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3733,7 +3733,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3814,7 +3814,7 @@
         <v>1</v>
       </c>
       <c r="AQ14">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4223,7 +4223,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -4432,7 +4432,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ17">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4557,7 +4557,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4763,7 +4763,7 @@
         <v>108</v>
       </c>
       <c r="P19" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q19">
         <v>3.25</v>
@@ -4841,10 +4841,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ19">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4969,7 +4969,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5175,7 +5175,7 @@
         <v>109</v>
       </c>
       <c r="P21" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5381,7 +5381,7 @@
         <v>110</v>
       </c>
       <c r="P22" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -5459,10 +5459,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ22">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5587,7 +5587,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q23">
         <v>2.75</v>
@@ -5665,10 +5665,10 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ23">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -5793,7 +5793,7 @@
         <v>111</v>
       </c>
       <c r="P24" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -5874,7 +5874,7 @@
         <v>2</v>
       </c>
       <c r="AQ24">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6080,7 +6080,7 @@
         <v>1</v>
       </c>
       <c r="AQ25">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR25">
         <v>0</v>
@@ -6286,7 +6286,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ26">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR26">
         <v>1.26</v>
@@ -6492,7 +6492,7 @@
         <v>2</v>
       </c>
       <c r="AQ27">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AR27">
         <v>2.06</v>
@@ -6695,7 +6695,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AQ28">
         <v>1</v>
@@ -6904,7 +6904,7 @@
         <v>2</v>
       </c>
       <c r="AQ29">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR29">
         <v>0.87</v>
@@ -7235,7 +7235,7 @@
         <v>116</v>
       </c>
       <c r="P31" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7316,7 +7316,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ31">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR31">
         <v>1.84</v>
@@ -7519,7 +7519,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AQ32">
         <v>0</v>
@@ -7647,7 +7647,7 @@
         <v>118</v>
       </c>
       <c r="P33" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -7728,7 +7728,7 @@
         <v>2</v>
       </c>
       <c r="AQ33">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR33">
         <v>1.76</v>
@@ -8059,7 +8059,7 @@
         <v>120</v>
       </c>
       <c r="P35" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q35">
         <v>4.5</v>
@@ -8140,7 +8140,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ35">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AR35">
         <v>1.53</v>
@@ -8265,7 +8265,7 @@
         <v>121</v>
       </c>
       <c r="P36" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8471,7 +8471,7 @@
         <v>122</v>
       </c>
       <c r="P37" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -8549,7 +8549,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AQ37">
         <v>3</v>
@@ -8677,7 +8677,7 @@
         <v>123</v>
       </c>
       <c r="P38" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q38">
         <v>2.63</v>
@@ -8755,10 +8755,10 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ38">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="AR38">
         <v>0.68</v>
@@ -8883,7 +8883,7 @@
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -8964,7 +8964,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ39">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR39">
         <v>2.14</v>
@@ -9373,10 +9373,10 @@
         <v>3</v>
       </c>
       <c r="AP41">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ41">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR41">
         <v>1.58</v>
@@ -9579,10 +9579,10 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ42">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR42">
         <v>1.98</v>
@@ -9707,7 +9707,7 @@
         <v>96</v>
       </c>
       <c r="P43" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q43">
         <v>2.63</v>
@@ -9785,10 +9785,10 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AQ43">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR43">
         <v>0.79</v>
@@ -9913,7 +9913,7 @@
         <v>127</v>
       </c>
       <c r="P44" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -9994,7 +9994,7 @@
         <v>2</v>
       </c>
       <c r="AQ44">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR44">
         <v>1.81</v>
@@ -10119,7 +10119,7 @@
         <v>96</v>
       </c>
       <c r="P45" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q45">
         <v>3.6</v>
@@ -10403,7 +10403,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="AQ46">
         <v>0</v>
@@ -10531,7 +10531,7 @@
         <v>96</v>
       </c>
       <c r="P47" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q47">
         <v>2.05</v>
@@ -10612,7 +10612,7 @@
         <v>1</v>
       </c>
       <c r="AQ47">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR47">
         <v>1.76</v>
@@ -10737,7 +10737,7 @@
         <v>129</v>
       </c>
       <c r="P48" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q48">
         <v>1.95</v>
@@ -11021,10 +11021,10 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ49">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR49">
         <v>1.4</v>
@@ -11107,7 +11107,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>7477854</v>
+        <v>7477839</v>
       </c>
       <c r="C50" t="s">
         <v>68</v>
@@ -11122,25 +11122,25 @@
         <v>5</v>
       </c>
       <c r="G50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H50" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K50">
         <v>2</v>
       </c>
       <c r="L50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50">
         <v>3</v>
@@ -11149,16 +11149,16 @@
         <v>130</v>
       </c>
       <c r="P50" t="s">
-        <v>96</v>
+        <v>181</v>
       </c>
       <c r="Q50">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="R50">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="S50">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="T50">
         <v>1.33</v>
@@ -11179,25 +11179,25 @@
         <v>1.11</v>
       </c>
       <c r="Z50">
-        <v>1.45</v>
+        <v>1.67</v>
       </c>
       <c r="AA50">
+        <v>4</v>
+      </c>
+      <c r="AB50">
         <v>4.2</v>
       </c>
-      <c r="AB50">
-        <v>6</v>
-      </c>
       <c r="AC50">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AD50">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE50">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AF50">
-        <v>4.33</v>
+        <v>3.85</v>
       </c>
       <c r="AG50">
         <v>1.73</v>
@@ -11206,106 +11206,106 @@
         <v>2</v>
       </c>
       <c r="AI50">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="AJ50">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AK50">
-        <v>1.12</v>
+        <v>1.18</v>
       </c>
       <c r="AL50">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="AM50">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="AN50">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="AO50">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="AQ50">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR50">
-        <v>1.47</v>
+        <v>1.65</v>
       </c>
       <c r="AS50">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="AT50">
-        <v>2.35</v>
+        <v>2.65</v>
       </c>
       <c r="AU50">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AV50">
+        <v>3</v>
+      </c>
+      <c r="AW50">
+        <v>3</v>
+      </c>
+      <c r="AX50">
+        <v>1</v>
+      </c>
+      <c r="AY50">
+        <v>12</v>
+      </c>
+      <c r="AZ50">
         <v>4</v>
       </c>
-      <c r="AW50">
-        <v>6</v>
-      </c>
-      <c r="AX50">
-        <v>2</v>
-      </c>
-      <c r="AY50">
-        <v>13</v>
-      </c>
-      <c r="AZ50">
-        <v>6</v>
-      </c>
       <c r="BA50">
+        <v>12</v>
+      </c>
+      <c r="BB50">
         <v>5</v>
       </c>
-      <c r="BB50">
-        <v>7</v>
-      </c>
       <c r="BC50">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="BD50">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="BE50">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="BF50">
-        <v>3.15</v>
+        <v>2.65</v>
       </c>
       <c r="BG50">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="BH50">
-        <v>2.95</v>
+        <v>3.55</v>
       </c>
       <c r="BI50">
-        <v>1.56</v>
+        <v>1.43</v>
       </c>
       <c r="BJ50">
-        <v>2.23</v>
+        <v>2.6</v>
       </c>
       <c r="BK50">
-        <v>1.92</v>
+        <v>1.68</v>
       </c>
       <c r="BL50">
-        <v>1.77</v>
+        <v>2.04</v>
       </c>
       <c r="BM50">
-        <v>2.43</v>
+        <v>2.06</v>
       </c>
       <c r="BN50">
-        <v>1.48</v>
+        <v>1.66</v>
       </c>
       <c r="BO50">
-        <v>3.15</v>
+        <v>2.63</v>
       </c>
       <c r="BP50">
-        <v>1.3</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="51" spans="1:68">
@@ -11313,7 +11313,7 @@
         <v>50</v>
       </c>
       <c r="B51">
-        <v>7477839</v>
+        <v>7477854</v>
       </c>
       <c r="C51" t="s">
         <v>68</v>
@@ -11328,25 +11328,25 @@
         <v>5</v>
       </c>
       <c r="G51" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H51" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K51">
         <v>2</v>
       </c>
       <c r="L51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51">
         <v>3</v>
@@ -11355,16 +11355,16 @@
         <v>131</v>
       </c>
       <c r="P51" t="s">
-        <v>179</v>
+        <v>96</v>
       </c>
       <c r="Q51">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="R51">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="S51">
-        <v>4.75</v>
+        <v>6.5</v>
       </c>
       <c r="T51">
         <v>1.33</v>
@@ -11385,25 +11385,25 @@
         <v>1.11</v>
       </c>
       <c r="Z51">
-        <v>1.67</v>
+        <v>1.45</v>
       </c>
       <c r="AA51">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="AB51">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="AC51">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AD51">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE51">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AF51">
-        <v>3.85</v>
+        <v>4.33</v>
       </c>
       <c r="AG51">
         <v>1.73</v>
@@ -11412,106 +11412,106 @@
         <v>2</v>
       </c>
       <c r="AI51">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="AJ51">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AK51">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="AL51">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AM51">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="AN51">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="AO51">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP51">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="AQ51">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AR51">
-        <v>1.65</v>
+        <v>1.47</v>
       </c>
       <c r="AS51">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AT51">
-        <v>2.65</v>
+        <v>2.35</v>
       </c>
       <c r="AU51">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AV51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW51">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY51">
+        <v>13</v>
+      </c>
+      <c r="AZ51">
+        <v>6</v>
+      </c>
+      <c r="BA51">
+        <v>5</v>
+      </c>
+      <c r="BB51">
+        <v>7</v>
+      </c>
+      <c r="BC51">
         <v>12</v>
       </c>
-      <c r="AZ51">
-        <v>4</v>
-      </c>
-      <c r="BA51">
-        <v>12</v>
-      </c>
-      <c r="BB51">
-        <v>5</v>
-      </c>
-      <c r="BC51">
-        <v>17</v>
-      </c>
       <c r="BD51">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="BE51">
-        <v>6.75</v>
+        <v>7</v>
       </c>
       <c r="BF51">
-        <v>2.65</v>
+        <v>3.15</v>
       </c>
       <c r="BG51">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="BH51">
-        <v>3.55</v>
+        <v>2.95</v>
       </c>
       <c r="BI51">
-        <v>1.43</v>
+        <v>1.56</v>
       </c>
       <c r="BJ51">
-        <v>2.6</v>
+        <v>2.23</v>
       </c>
       <c r="BK51">
-        <v>1.68</v>
+        <v>1.92</v>
       </c>
       <c r="BL51">
-        <v>2.04</v>
+        <v>1.77</v>
       </c>
       <c r="BM51">
-        <v>2.06</v>
+        <v>2.43</v>
       </c>
       <c r="BN51">
-        <v>1.66</v>
+        <v>1.48</v>
       </c>
       <c r="BO51">
-        <v>2.63</v>
+        <v>3.15</v>
       </c>
       <c r="BP51">
-        <v>1.41</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="52" spans="1:68">
@@ -11642,7 +11642,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ52">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR52">
         <v>1.21</v>
@@ -11767,7 +11767,7 @@
         <v>133</v>
       </c>
       <c r="P53" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q53">
         <v>2.3</v>
@@ -11973,7 +11973,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q54">
         <v>3.5</v>
@@ -12051,10 +12051,10 @@
         <v>0.5</v>
       </c>
       <c r="AP54">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ54">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="AR54">
         <v>1.36</v>
@@ -12179,7 +12179,7 @@
         <v>134</v>
       </c>
       <c r="P55" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q55">
         <v>4.5</v>
@@ -12260,7 +12260,7 @@
         <v>1</v>
       </c>
       <c r="AQ55">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR55">
         <v>0.65</v>
@@ -12385,7 +12385,7 @@
         <v>135</v>
       </c>
       <c r="P56" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q56">
         <v>2.2</v>
@@ -12466,7 +12466,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ56">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR56">
         <v>1.85</v>
@@ -12591,7 +12591,7 @@
         <v>96</v>
       </c>
       <c r="P57" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="Q57">
         <v>4.33</v>
@@ -12672,7 +12672,7 @@
         <v>1</v>
       </c>
       <c r="AQ57">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR57">
         <v>1.21</v>
@@ -12875,7 +12875,7 @@
         <v>3</v>
       </c>
       <c r="AP58">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ58">
         <v>2.25</v>
@@ -13003,7 +13003,7 @@
         <v>137</v>
       </c>
       <c r="P59" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13081,10 +13081,10 @@
         <v>3</v>
       </c>
       <c r="AP59">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AQ59">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR59">
         <v>0.83</v>
@@ -13209,7 +13209,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -13287,7 +13287,7 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="AQ60">
         <v>1</v>
@@ -13415,7 +13415,7 @@
         <v>96</v>
       </c>
       <c r="P61" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -13493,7 +13493,7 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ61">
         <v>1.5</v>
@@ -13621,7 +13621,7 @@
         <v>138</v>
       </c>
       <c r="P62" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q62">
         <v>2.2</v>
@@ -13699,10 +13699,10 @@
         <v>1.5</v>
       </c>
       <c r="AP62">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ62">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR62">
         <v>1.44</v>
@@ -13827,7 +13827,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q63">
         <v>2.88</v>
@@ -13908,7 +13908,7 @@
         <v>1</v>
       </c>
       <c r="AQ63">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR63">
         <v>1.7</v>
@@ -14033,7 +14033,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q64">
         <v>2.5</v>
@@ -14114,7 +14114,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ64">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR64">
         <v>1.77</v>
@@ -14197,7 +14197,7 @@
         <v>64</v>
       </c>
       <c r="B65">
-        <v>7477882</v>
+        <v>7477880</v>
       </c>
       <c r="C65" t="s">
         <v>68</v>
@@ -14206,196 +14206,196 @@
         <v>69</v>
       </c>
       <c r="E65" s="2">
-        <v>45555.875</v>
+        <v>45556.35416666666</v>
       </c>
       <c r="F65">
         <v>7</v>
       </c>
       <c r="G65" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="H65" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J65">
         <v>0</v>
       </c>
       <c r="K65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L65">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M65">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N65">
+        <v>0</v>
+      </c>
+      <c r="O65" t="s">
+        <v>96</v>
+      </c>
+      <c r="P65" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q65">
+        <v>2.6</v>
+      </c>
+      <c r="R65">
+        <v>2.1</v>
+      </c>
+      <c r="S65">
+        <v>4.75</v>
+      </c>
+      <c r="T65">
+        <v>1.44</v>
+      </c>
+      <c r="U65">
+        <v>2.63</v>
+      </c>
+      <c r="V65">
+        <v>3.25</v>
+      </c>
+      <c r="W65">
+        <v>1.33</v>
+      </c>
+      <c r="X65">
+        <v>10</v>
+      </c>
+      <c r="Y65">
+        <v>1.06</v>
+      </c>
+      <c r="Z65">
+        <v>1.91</v>
+      </c>
+      <c r="AA65">
+        <v>3.3</v>
+      </c>
+      <c r="AB65">
+        <v>4.2</v>
+      </c>
+      <c r="AC65">
+        <v>1.04</v>
+      </c>
+      <c r="AD65">
+        <v>7.5</v>
+      </c>
+      <c r="AE65">
+        <v>1.35</v>
+      </c>
+      <c r="AF65">
+        <v>2.84</v>
+      </c>
+      <c r="AG65">
+        <v>2.1</v>
+      </c>
+      <c r="AH65">
+        <v>1.65</v>
+      </c>
+      <c r="AI65">
+        <v>1.95</v>
+      </c>
+      <c r="AJ65">
+        <v>1.8</v>
+      </c>
+      <c r="AK65">
+        <v>1.23</v>
+      </c>
+      <c r="AL65">
+        <v>1.32</v>
+      </c>
+      <c r="AM65">
+        <v>1.88</v>
+      </c>
+      <c r="AN65">
+        <v>1.5</v>
+      </c>
+      <c r="AO65">
+        <v>1</v>
+      </c>
+      <c r="AP65">
+        <v>1.33</v>
+      </c>
+      <c r="AQ65">
+        <v>1</v>
+      </c>
+      <c r="AR65">
+        <v>1.83</v>
+      </c>
+      <c r="AS65">
+        <v>1.38</v>
+      </c>
+      <c r="AT65">
+        <v>3.21</v>
+      </c>
+      <c r="AU65">
         <v>5</v>
       </c>
-      <c r="O65" t="s">
-        <v>140</v>
-      </c>
-      <c r="P65" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q65">
-        <v>2.05</v>
-      </c>
-      <c r="R65">
-        <v>2.5</v>
-      </c>
-      <c r="S65">
-        <v>5.5</v>
-      </c>
-      <c r="T65">
-        <v>1.29</v>
-      </c>
-      <c r="U65">
-        <v>3.5</v>
-      </c>
-      <c r="V65">
-        <v>2.25</v>
-      </c>
-      <c r="W65">
-        <v>1.57</v>
-      </c>
-      <c r="X65">
-        <v>5.5</v>
-      </c>
-      <c r="Y65">
-        <v>1.14</v>
-      </c>
-      <c r="Z65">
-        <v>1.53</v>
-      </c>
-      <c r="AA65">
-        <v>4.1</v>
-      </c>
-      <c r="AB65">
-        <v>5.75</v>
-      </c>
-      <c r="AC65">
-        <v>1.02</v>
-      </c>
-      <c r="AD65">
-        <v>17</v>
-      </c>
-      <c r="AE65">
-        <v>1.12</v>
-      </c>
-      <c r="AF65">
-        <v>4.4</v>
-      </c>
-      <c r="AG65">
-        <v>1.57</v>
-      </c>
-      <c r="AH65">
-        <v>2.35</v>
-      </c>
-      <c r="AI65">
-        <v>1.67</v>
-      </c>
-      <c r="AJ65">
-        <v>2.1</v>
-      </c>
-      <c r="AK65">
-        <v>1.17</v>
-      </c>
-      <c r="AL65">
-        <v>1.23</v>
-      </c>
-      <c r="AM65">
-        <v>2.27</v>
-      </c>
-      <c r="AN65">
-        <v>0.33</v>
-      </c>
-      <c r="AO65">
-        <v>0.33</v>
-      </c>
-      <c r="AP65">
-        <v>1</v>
-      </c>
-      <c r="AQ65">
-        <v>0.25</v>
-      </c>
-      <c r="AR65">
-        <v>0.98</v>
-      </c>
-      <c r="AS65">
-        <v>0.92</v>
-      </c>
-      <c r="AT65">
-        <v>1.9</v>
-      </c>
-      <c r="AU65">
-        <v>-1</v>
-      </c>
       <c r="AV65">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW65">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AX65">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="AY65">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AZ65">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BA65">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BB65">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BC65">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BD65">
-        <v>1.32</v>
+        <v>1.55</v>
       </c>
       <c r="BE65">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="BF65">
-        <v>3.3</v>
+        <v>2.55</v>
       </c>
       <c r="BG65">
-        <v>1.19</v>
+        <v>1.3</v>
       </c>
       <c r="BH65">
-        <v>4.1</v>
+        <v>3.05</v>
       </c>
       <c r="BI65">
-        <v>1.33</v>
+        <v>1.54</v>
       </c>
       <c r="BJ65">
-        <v>2.95</v>
+        <v>2.3</v>
       </c>
       <c r="BK65">
-        <v>1.42</v>
+        <v>1.85</v>
       </c>
       <c r="BL65">
-        <v>2.65</v>
+        <v>1.95</v>
       </c>
       <c r="BM65">
-        <v>1.7</v>
+        <v>2.38</v>
       </c>
       <c r="BN65">
-        <v>2.03</v>
+        <v>1.5</v>
       </c>
       <c r="BO65">
-        <v>2.13</v>
+        <v>3.05</v>
       </c>
       <c r="BP65">
-        <v>1.63</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="66" spans="1:68">
@@ -14403,7 +14403,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>7477880</v>
+        <v>7477878</v>
       </c>
       <c r="C66" t="s">
         <v>68</v>
@@ -14418,55 +14418,55 @@
         <v>7</v>
       </c>
       <c r="G66" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H66" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66">
         <v>0</v>
       </c>
       <c r="K66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M66">
         <v>0</v>
       </c>
       <c r="N66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O66" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
       <c r="P66" t="s">
         <v>96</v>
       </c>
       <c r="Q66">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="R66">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S66">
-        <v>4.75</v>
+        <v>3.5</v>
       </c>
       <c r="T66">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U66">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V66">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W66">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X66">
         <v>10</v>
@@ -14475,28 +14475,28 @@
         <v>1.06</v>
       </c>
       <c r="Z66">
-        <v>1.91</v>
+        <v>2.55</v>
       </c>
       <c r="AA66">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="AB66">
-        <v>4.2</v>
+        <v>2.75</v>
       </c>
       <c r="AC66">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AD66">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE66">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AF66">
-        <v>2.84</v>
+        <v>3</v>
       </c>
       <c r="AG66">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AH66">
         <v>1.65</v>
@@ -14508,100 +14508,100 @@
         <v>1.8</v>
       </c>
       <c r="AK66">
-        <v>1.23</v>
+        <v>1.42</v>
       </c>
       <c r="AL66">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="AM66">
-        <v>1.88</v>
+        <v>1.5</v>
       </c>
       <c r="AN66">
         <v>1.5</v>
       </c>
       <c r="AO66">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AP66">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AQ66">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AR66">
-        <v>1.83</v>
+        <v>1.55</v>
       </c>
       <c r="AS66">
-        <v>1.38</v>
+        <v>1.19</v>
       </c>
       <c r="AT66">
-        <v>3.21</v>
+        <v>2.74</v>
       </c>
       <c r="AU66">
+        <v>4</v>
+      </c>
+      <c r="AV66">
+        <v>2</v>
+      </c>
+      <c r="AW66">
         <v>5</v>
       </c>
-      <c r="AV66">
-        <v>3</v>
-      </c>
-      <c r="AW66">
-        <v>0</v>
-      </c>
       <c r="AX66">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AY66">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AZ66">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BA66">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BB66">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BC66">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="BD66">
-        <v>1.55</v>
+        <v>1.79</v>
       </c>
       <c r="BE66">
         <v>6.4</v>
       </c>
       <c r="BF66">
-        <v>2.55</v>
+        <v>2.08</v>
       </c>
       <c r="BG66">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="BH66">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="BI66">
-        <v>1.54</v>
+        <v>1.47</v>
       </c>
       <c r="BJ66">
-        <v>2.3</v>
+        <v>2.48</v>
       </c>
       <c r="BK66">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="BL66">
         <v>1.95</v>
       </c>
       <c r="BM66">
-        <v>2.38</v>
+        <v>2.18</v>
       </c>
       <c r="BN66">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="BO66">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="BP66">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="67" spans="1:68">
@@ -14609,7 +14609,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>7477878</v>
+        <v>7477885</v>
       </c>
       <c r="C67" t="s">
         <v>68</v>
@@ -14618,16 +14618,16 @@
         <v>69</v>
       </c>
       <c r="E67" s="2">
-        <v>45556.35416666666</v>
+        <v>45556.45833333334</v>
       </c>
       <c r="F67">
         <v>7</v>
       </c>
       <c r="G67" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H67" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I67">
         <v>1</v>
@@ -14642,172 +14642,172 @@
         <v>2</v>
       </c>
       <c r="M67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O67" t="s">
         <v>141</v>
       </c>
       <c r="P67" t="s">
-        <v>96</v>
+        <v>193</v>
       </c>
       <c r="Q67">
+        <v>1.95</v>
+      </c>
+      <c r="R67">
+        <v>2.5</v>
+      </c>
+      <c r="S67">
+        <v>6</v>
+      </c>
+      <c r="T67">
+        <v>1.3</v>
+      </c>
+      <c r="U67">
         <v>3.4</v>
       </c>
-      <c r="R67">
-        <v>2.05</v>
-      </c>
-      <c r="S67">
-        <v>3.5</v>
-      </c>
-      <c r="T67">
+      <c r="V67">
+        <v>2.5</v>
+      </c>
+      <c r="W67">
         <v>1.5</v>
       </c>
-      <c r="U67">
-        <v>2.5</v>
-      </c>
-      <c r="V67">
-        <v>3.4</v>
-      </c>
-      <c r="W67">
-        <v>1.3</v>
-      </c>
       <c r="X67">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Y67">
-        <v>1.06</v>
+        <v>1.13</v>
       </c>
       <c r="Z67">
-        <v>2.55</v>
+        <v>1.45</v>
       </c>
       <c r="AA67">
-        <v>3.2</v>
+        <v>4.33</v>
       </c>
       <c r="AB67">
+        <v>6.5</v>
+      </c>
+      <c r="AC67">
+        <v>1.01</v>
+      </c>
+      <c r="AD67">
+        <v>9.9</v>
+      </c>
+      <c r="AE67">
+        <v>1.15</v>
+      </c>
+      <c r="AF67">
+        <v>4.15</v>
+      </c>
+      <c r="AG67">
+        <v>1.65</v>
+      </c>
+      <c r="AH67">
+        <v>2.2</v>
+      </c>
+      <c r="AI67">
+        <v>1.8</v>
+      </c>
+      <c r="AJ67">
+        <v>1.95</v>
+      </c>
+      <c r="AK67">
+        <v>1.11</v>
+      </c>
+      <c r="AL67">
+        <v>1.19</v>
+      </c>
+      <c r="AM67">
         <v>2.75</v>
       </c>
-      <c r="AC67">
-        <v>1.05</v>
-      </c>
-      <c r="AD67">
-        <v>8</v>
-      </c>
-      <c r="AE67">
-        <v>1.33</v>
-      </c>
-      <c r="AF67">
-        <v>3</v>
-      </c>
-      <c r="AG67">
-        <v>2.15</v>
-      </c>
-      <c r="AH67">
-        <v>1.65</v>
-      </c>
-      <c r="AI67">
-        <v>1.95</v>
-      </c>
-      <c r="AJ67">
-        <v>1.8</v>
-      </c>
-      <c r="AK67">
-        <v>1.42</v>
-      </c>
-      <c r="AL67">
-        <v>1.28</v>
-      </c>
-      <c r="AM67">
+      <c r="AN67">
+        <v>3</v>
+      </c>
+      <c r="AO67">
         <v>1.5</v>
       </c>
-      <c r="AN67">
-        <v>1.5</v>
-      </c>
-      <c r="AO67">
-        <v>0.5</v>
-      </c>
       <c r="AP67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AQ67">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR67">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="AS67">
-        <v>1.19</v>
+        <v>1.31</v>
       </c>
       <c r="AT67">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="AU67">
         <v>4</v>
       </c>
       <c r="AV67">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AW67">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AX67">
         <v>8</v>
       </c>
       <c r="AY67">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ67">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BA67">
+        <v>7</v>
+      </c>
+      <c r="BB67">
         <v>8</v>
       </c>
-      <c r="BB67">
-        <v>4</v>
-      </c>
       <c r="BC67">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BD67">
-        <v>1.79</v>
+        <v>1.27</v>
       </c>
       <c r="BE67">
-        <v>6.4</v>
+        <v>7.5</v>
       </c>
       <c r="BF67">
-        <v>2.08</v>
+        <v>3.65</v>
       </c>
       <c r="BG67">
-        <v>1.27</v>
+        <v>1.16</v>
       </c>
       <c r="BH67">
-        <v>3.3</v>
+        <v>3.86</v>
       </c>
       <c r="BI67">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="BJ67">
-        <v>2.48</v>
+        <v>2.75</v>
       </c>
       <c r="BK67">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="BL67">
-        <v>1.95</v>
+        <v>2.11</v>
       </c>
       <c r="BM67">
-        <v>2.18</v>
+        <v>2.07</v>
       </c>
       <c r="BN67">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="BO67">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="BP67">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="68" spans="1:68">
@@ -14815,7 +14815,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>7477885</v>
+        <v>7477886</v>
       </c>
       <c r="C68" t="s">
         <v>68</v>
@@ -14830,19 +14830,19 @@
         <v>7</v>
       </c>
       <c r="G68" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="H68" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I68">
         <v>1</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L68">
         <v>2</v>
@@ -14857,61 +14857,61 @@
         <v>142</v>
       </c>
       <c r="P68" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q68">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="R68">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="S68">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="T68">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="U68">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="V68">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="W68">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="X68">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y68">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="Z68">
-        <v>1.45</v>
+        <v>1.62</v>
       </c>
       <c r="AA68">
-        <v>4.33</v>
+        <v>3.8</v>
       </c>
       <c r="AB68">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AC68">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD68">
-        <v>9.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AE68">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="AF68">
-        <v>4.15</v>
+        <v>3.22</v>
       </c>
       <c r="AG68">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="AH68">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AI68">
         <v>1.8</v>
@@ -14920,100 +14920,100 @@
         <v>1.95</v>
       </c>
       <c r="AK68">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="AL68">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AM68">
-        <v>2.75</v>
+        <v>2.26</v>
       </c>
       <c r="AN68">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO68">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AQ68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR68">
-        <v>1.51</v>
+        <v>1.14</v>
       </c>
       <c r="AS68">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="AT68">
-        <v>2.82</v>
+        <v>2.15</v>
       </c>
       <c r="AU68">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV68">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AW68">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AX68">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AY68">
         <v>14</v>
       </c>
       <c r="AZ68">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="BA68">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BB68">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BC68">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BD68">
-        <v>1.27</v>
+        <v>1.43</v>
       </c>
       <c r="BE68">
-        <v>7.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF68">
-        <v>3.65</v>
+        <v>2.9</v>
       </c>
       <c r="BG68">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="BH68">
-        <v>3.86</v>
+        <v>3.8</v>
       </c>
       <c r="BI68">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="BJ68">
-        <v>2.75</v>
+        <v>3.05</v>
       </c>
       <c r="BK68">
-        <v>1.68</v>
+        <v>1.59</v>
       </c>
       <c r="BL68">
-        <v>2.11</v>
+        <v>2.22</v>
       </c>
       <c r="BM68">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="BN68">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="BO68">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="BP68">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="69" spans="1:68">
@@ -15021,7 +15021,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>7477886</v>
+        <v>7477883</v>
       </c>
       <c r="C69" t="s">
         <v>68</v>
@@ -15036,43 +15036,43 @@
         <v>7</v>
       </c>
       <c r="G69" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="H69" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K69">
         <v>2</v>
       </c>
       <c r="L69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N69">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O69" t="s">
-        <v>143</v>
+        <v>96</v>
       </c>
       <c r="P69" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q69">
+        <v>3.75</v>
+      </c>
+      <c r="R69">
         <v>2.2</v>
       </c>
-      <c r="R69">
-        <v>2.25</v>
-      </c>
       <c r="S69">
-        <v>5.5</v>
+        <v>2.75</v>
       </c>
       <c r="T69">
         <v>1.36</v>
@@ -15093,133 +15093,133 @@
         <v>1.1</v>
       </c>
       <c r="Z69">
-        <v>1.62</v>
+        <v>3.25</v>
       </c>
       <c r="AA69">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="AB69">
-        <v>5.5</v>
+        <v>2.05</v>
       </c>
       <c r="AC69">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AD69">
-        <v>9.199999999999999</v>
+        <v>12</v>
       </c>
       <c r="AE69">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AF69">
-        <v>3.22</v>
+        <v>3.6</v>
       </c>
       <c r="AG69">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AH69">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AI69">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AJ69">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AK69">
-        <v>1.18</v>
+        <v>1.75</v>
       </c>
       <c r="AL69">
         <v>1.25</v>
       </c>
       <c r="AM69">
-        <v>2.26</v>
+        <v>1.3</v>
       </c>
       <c r="AN69">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AO69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP69">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AQ69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AR69">
-        <v>1.14</v>
+        <v>1.79</v>
       </c>
       <c r="AS69">
-        <v>1.01</v>
+        <v>1.27</v>
       </c>
       <c r="AT69">
-        <v>2.15</v>
+        <v>3.06</v>
       </c>
       <c r="AU69">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AV69">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW69">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX69">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AY69">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AZ69">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="BA69">
         <v>9</v>
       </c>
       <c r="BB69">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BC69">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="BD69">
-        <v>1.43</v>
+        <v>2.33</v>
       </c>
       <c r="BE69">
-        <v>6.75</v>
+        <v>6.5</v>
       </c>
       <c r="BF69">
-        <v>2.9</v>
+        <v>1.64</v>
       </c>
       <c r="BG69">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="BH69">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="BI69">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="BJ69">
-        <v>3.05</v>
+        <v>3.14</v>
       </c>
       <c r="BK69">
-        <v>1.59</v>
+        <v>1.49</v>
       </c>
       <c r="BL69">
-        <v>2.22</v>
+        <v>2.38</v>
       </c>
       <c r="BM69">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="BN69">
-        <v>1.71</v>
+        <v>1.87</v>
       </c>
       <c r="BO69">
-        <v>2.62</v>
+        <v>2.34</v>
       </c>
       <c r="BP69">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="70" spans="1:68">
@@ -15227,7 +15227,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>7477883</v>
+        <v>7477881</v>
       </c>
       <c r="C70" t="s">
         <v>68</v>
@@ -15242,190 +15242,190 @@
         <v>7</v>
       </c>
       <c r="G70" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="H70" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M70">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N70">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O70" t="s">
-        <v>96</v>
+        <v>143</v>
       </c>
       <c r="P70" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q70">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="R70">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S70">
-        <v>2.75</v>
+        <v>4.75</v>
       </c>
       <c r="T70">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U70">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V70">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="W70">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="X70">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y70">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="Z70">
-        <v>3.25</v>
+        <v>1.73</v>
       </c>
       <c r="AA70">
         <v>3.6</v>
       </c>
       <c r="AB70">
+        <v>4.75</v>
+      </c>
+      <c r="AC70">
+        <v>1.01</v>
+      </c>
+      <c r="AD70">
+        <v>9.9</v>
+      </c>
+      <c r="AE70">
+        <v>1.18</v>
+      </c>
+      <c r="AF70">
+        <v>3.74</v>
+      </c>
+      <c r="AG70">
+        <v>1.73</v>
+      </c>
+      <c r="AH70">
+        <v>2.08</v>
+      </c>
+      <c r="AI70">
+        <v>1.67</v>
+      </c>
+      <c r="AJ70">
+        <v>2.1</v>
+      </c>
+      <c r="AK70">
+        <v>1.2</v>
+      </c>
+      <c r="AL70">
+        <v>1.29</v>
+      </c>
+      <c r="AM70">
         <v>2.05</v>
-      </c>
-      <c r="AC70">
-        <v>1.04</v>
-      </c>
-      <c r="AD70">
-        <v>12</v>
-      </c>
-      <c r="AE70">
-        <v>1.28</v>
-      </c>
-      <c r="AF70">
-        <v>3.6</v>
-      </c>
-      <c r="AG70">
-        <v>1.85</v>
-      </c>
-      <c r="AH70">
-        <v>1.95</v>
-      </c>
-      <c r="AI70">
-        <v>1.7</v>
-      </c>
-      <c r="AJ70">
-        <v>2.05</v>
-      </c>
-      <c r="AK70">
-        <v>1.75</v>
-      </c>
-      <c r="AL70">
-        <v>1.25</v>
-      </c>
-      <c r="AM70">
-        <v>1.3</v>
       </c>
       <c r="AN70">
         <v>1.67</v>
       </c>
       <c r="AO70">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP70">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="AQ70">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR70">
-        <v>1.79</v>
+        <v>1.39</v>
       </c>
       <c r="AS70">
-        <v>1.27</v>
+        <v>0.9</v>
       </c>
       <c r="AT70">
-        <v>3.06</v>
+        <v>2.29</v>
       </c>
       <c r="AU70">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV70">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW70">
+        <v>6</v>
+      </c>
+      <c r="AX70">
+        <v>2</v>
+      </c>
+      <c r="AY70">
+        <v>12</v>
+      </c>
+      <c r="AZ70">
+        <v>9</v>
+      </c>
+      <c r="BA70">
+        <v>3</v>
+      </c>
+      <c r="BB70">
         <v>4</v>
       </c>
-      <c r="AX70">
-        <v>5</v>
-      </c>
-      <c r="AY70">
-        <v>6</v>
-      </c>
-      <c r="AZ70">
-        <v>10</v>
-      </c>
-      <c r="BA70">
-        <v>9</v>
-      </c>
-      <c r="BB70">
-        <v>8</v>
-      </c>
       <c r="BC70">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="BD70">
-        <v>2.33</v>
+        <v>1.45</v>
       </c>
       <c r="BE70">
-        <v>6.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF70">
-        <v>1.64</v>
+        <v>2.9</v>
       </c>
       <c r="BG70">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="BH70">
-        <v>4.1</v>
+        <v>3.55</v>
       </c>
       <c r="BI70">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="BJ70">
-        <v>3.14</v>
+        <v>2.73</v>
       </c>
       <c r="BK70">
-        <v>1.49</v>
+        <v>1.62</v>
       </c>
       <c r="BL70">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="BM70">
-        <v>1.87</v>
+        <v>2.08</v>
       </c>
       <c r="BN70">
-        <v>1.87</v>
+        <v>1.7</v>
       </c>
       <c r="BO70">
-        <v>2.34</v>
+        <v>2.67</v>
       </c>
       <c r="BP70">
-        <v>1.5</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="71" spans="1:68">
@@ -15433,7 +15433,7 @@
         <v>70</v>
       </c>
       <c r="B71">
-        <v>7477881</v>
+        <v>7477879</v>
       </c>
       <c r="C71" t="s">
         <v>68</v>
@@ -15448,133 +15448,133 @@
         <v>7</v>
       </c>
       <c r="G71" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H71" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L71">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M71">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N71">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O71" t="s">
         <v>144</v>
       </c>
       <c r="P71" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q71">
-        <v>2.3</v>
+        <v>1.83</v>
       </c>
       <c r="R71">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="S71">
+        <v>7.5</v>
+      </c>
+      <c r="T71">
+        <v>1.3</v>
+      </c>
+      <c r="U71">
+        <v>3.4</v>
+      </c>
+      <c r="V71">
+        <v>2.38</v>
+      </c>
+      <c r="W71">
+        <v>1.53</v>
+      </c>
+      <c r="X71">
+        <v>6</v>
+      </c>
+      <c r="Y71">
+        <v>1.13</v>
+      </c>
+      <c r="Z71">
+        <v>1.33</v>
+      </c>
+      <c r="AA71">
         <v>4.75</v>
       </c>
-      <c r="T71">
+      <c r="AB71">
+        <v>8</v>
+      </c>
+      <c r="AC71">
+        <v>1.04</v>
+      </c>
+      <c r="AD71">
+        <v>10</v>
+      </c>
+      <c r="AE71">
+        <v>1.22</v>
+      </c>
+      <c r="AF71">
+        <v>4.2</v>
+      </c>
+      <c r="AG71">
+        <v>1.65</v>
+      </c>
+      <c r="AH71">
+        <v>2.2</v>
+      </c>
+      <c r="AI71">
+        <v>1.95</v>
+      </c>
+      <c r="AJ71">
+        <v>1.8</v>
+      </c>
+      <c r="AK71">
+        <v>1.07</v>
+      </c>
+      <c r="AL71">
+        <v>1.12</v>
+      </c>
+      <c r="AM71">
+        <v>2.95</v>
+      </c>
+      <c r="AN71">
+        <v>3</v>
+      </c>
+      <c r="AO71">
+        <v>0.5</v>
+      </c>
+      <c r="AP71">
+        <v>2</v>
+      </c>
+      <c r="AQ71">
         <v>1.33</v>
       </c>
-      <c r="U71">
-        <v>3.25</v>
-      </c>
-      <c r="V71">
-        <v>2.5</v>
-      </c>
-      <c r="W71">
-        <v>1.5</v>
-      </c>
-      <c r="X71">
-        <v>6.5</v>
-      </c>
-      <c r="Y71">
-        <v>1.11</v>
-      </c>
-      <c r="Z71">
-        <v>1.73</v>
-      </c>
-      <c r="AA71">
-        <v>3.6</v>
-      </c>
-      <c r="AB71">
-        <v>4.75</v>
-      </c>
-      <c r="AC71">
-        <v>1.01</v>
-      </c>
-      <c r="AD71">
-        <v>9.9</v>
-      </c>
-      <c r="AE71">
-        <v>1.18</v>
-      </c>
-      <c r="AF71">
-        <v>3.74</v>
-      </c>
-      <c r="AG71">
-        <v>1.73</v>
-      </c>
-      <c r="AH71">
-        <v>2.08</v>
-      </c>
-      <c r="AI71">
-        <v>1.67</v>
-      </c>
-      <c r="AJ71">
-        <v>2.1</v>
-      </c>
-      <c r="AK71">
-        <v>1.2</v>
-      </c>
-      <c r="AL71">
-        <v>1.29</v>
-      </c>
-      <c r="AM71">
-        <v>2.05</v>
-      </c>
-      <c r="AN71">
-        <v>1.67</v>
-      </c>
-      <c r="AO71">
-        <v>0</v>
-      </c>
-      <c r="AP71">
-        <v>2</v>
-      </c>
-      <c r="AQ71">
-        <v>0</v>
-      </c>
       <c r="AR71">
-        <v>1.39</v>
+        <v>1.27</v>
       </c>
       <c r="AS71">
-        <v>0.9</v>
+        <v>1.14</v>
       </c>
       <c r="AT71">
-        <v>2.29</v>
+        <v>2.41</v>
       </c>
       <c r="AU71">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV71">
+        <v>4</v>
+      </c>
+      <c r="AW71">
         <v>7</v>
-      </c>
-      <c r="AW71">
-        <v>6</v>
       </c>
       <c r="AX71">
         <v>2</v>
@@ -15583,55 +15583,55 @@
         <v>12</v>
       </c>
       <c r="AZ71">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BA71">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BB71">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BC71">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD71">
-        <v>1.45</v>
+        <v>1.26</v>
       </c>
       <c r="BE71">
-        <v>6.75</v>
+        <v>7.5</v>
       </c>
       <c r="BF71">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="BG71">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="BH71">
-        <v>3.55</v>
+        <v>3.7</v>
       </c>
       <c r="BI71">
+        <v>1.39</v>
+      </c>
+      <c r="BJ71">
+        <v>2.67</v>
+      </c>
+      <c r="BK71">
+        <v>1.72</v>
+      </c>
+      <c r="BL71">
+        <v>2.05</v>
+      </c>
+      <c r="BM71">
+        <v>2.14</v>
+      </c>
+      <c r="BN71">
+        <v>1.6</v>
+      </c>
+      <c r="BO71">
+        <v>2.73</v>
+      </c>
+      <c r="BP71">
         <v>1.33</v>
-      </c>
-      <c r="BJ71">
-        <v>2.73</v>
-      </c>
-      <c r="BK71">
-        <v>1.62</v>
-      </c>
-      <c r="BL71">
-        <v>2.1</v>
-      </c>
-      <c r="BM71">
-        <v>2.08</v>
-      </c>
-      <c r="BN71">
-        <v>1.7</v>
-      </c>
-      <c r="BO71">
-        <v>2.67</v>
-      </c>
-      <c r="BP71">
-        <v>1.39</v>
       </c>
     </row>
     <row r="72" spans="1:68">
@@ -15639,7 +15639,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>7477879</v>
+        <v>7477884</v>
       </c>
       <c r="C72" t="s">
         <v>68</v>
@@ -15654,10 +15654,10 @@
         <v>7</v>
       </c>
       <c r="G72" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="H72" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -15672,70 +15672,70 @@
         <v>1</v>
       </c>
       <c r="M72">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N72">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O72" t="s">
         <v>145</v>
       </c>
       <c r="P72" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q72">
-        <v>1.83</v>
+        <v>2.4</v>
       </c>
       <c r="R72">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="S72">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="T72">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="U72">
+        <v>2.75</v>
+      </c>
+      <c r="V72">
+        <v>3</v>
+      </c>
+      <c r="W72">
+        <v>1.36</v>
+      </c>
+      <c r="X72">
+        <v>9</v>
+      </c>
+      <c r="Y72">
+        <v>1.07</v>
+      </c>
+      <c r="Z72">
+        <v>1.75</v>
+      </c>
+      <c r="AA72">
         <v>3.4</v>
       </c>
-      <c r="V72">
-        <v>2.38</v>
-      </c>
-      <c r="W72">
-        <v>1.53</v>
-      </c>
-      <c r="X72">
-        <v>6</v>
-      </c>
-      <c r="Y72">
-        <v>1.13</v>
-      </c>
-      <c r="Z72">
-        <v>1.33</v>
-      </c>
-      <c r="AA72">
-        <v>4.75</v>
-      </c>
       <c r="AB72">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AC72">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="AD72">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AE72">
-        <v>1.22</v>
+        <v>1.35</v>
       </c>
       <c r="AF72">
-        <v>4.2</v>
+        <v>3.1</v>
       </c>
       <c r="AG72">
-        <v>1.65</v>
+        <v>2.05</v>
       </c>
       <c r="AH72">
-        <v>2.2</v>
+        <v>1.75</v>
       </c>
       <c r="AI72">
         <v>1.95</v>
@@ -15744,100 +15744,100 @@
         <v>1.8</v>
       </c>
       <c r="AK72">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="AL72">
-        <v>1.12</v>
+        <v>1.25</v>
       </c>
       <c r="AM72">
-        <v>2.95</v>
+        <v>2.05</v>
       </c>
       <c r="AN72">
         <v>3</v>
       </c>
       <c r="AO72">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AP72">
+        <v>2</v>
+      </c>
+      <c r="AQ72">
         <v>1.5</v>
       </c>
-      <c r="AQ72">
-        <v>1.33</v>
-      </c>
       <c r="AR72">
+        <v>1.92</v>
+      </c>
+      <c r="AS72">
+        <v>0.92</v>
+      </c>
+      <c r="AT72">
+        <v>2.84</v>
+      </c>
+      <c r="AU72">
+        <v>4</v>
+      </c>
+      <c r="AV72">
+        <v>6</v>
+      </c>
+      <c r="AW72">
+        <v>9</v>
+      </c>
+      <c r="AX72">
+        <v>4</v>
+      </c>
+      <c r="AY72">
+        <v>13</v>
+      </c>
+      <c r="AZ72">
+        <v>10</v>
+      </c>
+      <c r="BA72">
+        <v>6</v>
+      </c>
+      <c r="BB72">
+        <v>1</v>
+      </c>
+      <c r="BC72">
+        <v>7</v>
+      </c>
+      <c r="BD72">
+        <v>1.45</v>
+      </c>
+      <c r="BE72">
+        <v>6.5</v>
+      </c>
+      <c r="BF72">
+        <v>2.9</v>
+      </c>
+      <c r="BG72">
         <v>1.27</v>
       </c>
-      <c r="AS72">
-        <v>1.14</v>
-      </c>
-      <c r="AT72">
-        <v>2.41</v>
-      </c>
-      <c r="AU72">
-        <v>5</v>
-      </c>
-      <c r="AV72">
-        <v>4</v>
-      </c>
-      <c r="AW72">
-        <v>7</v>
-      </c>
-      <c r="AX72">
-        <v>2</v>
-      </c>
-      <c r="AY72">
-        <v>12</v>
-      </c>
-      <c r="AZ72">
-        <v>6</v>
-      </c>
-      <c r="BA72">
-        <v>7</v>
-      </c>
-      <c r="BB72">
-        <v>1</v>
-      </c>
-      <c r="BC72">
-        <v>8</v>
-      </c>
-      <c r="BD72">
-        <v>1.26</v>
-      </c>
-      <c r="BE72">
-        <v>7.5</v>
-      </c>
-      <c r="BF72">
-        <v>3.8</v>
-      </c>
-      <c r="BG72">
-        <v>1.18</v>
-      </c>
       <c r="BH72">
-        <v>3.7</v>
+        <v>3.04</v>
       </c>
       <c r="BI72">
-        <v>1.39</v>
+        <v>1.53</v>
       </c>
       <c r="BJ72">
-        <v>2.67</v>
+        <v>2.27</v>
       </c>
       <c r="BK72">
-        <v>1.72</v>
+        <v>1.96</v>
       </c>
       <c r="BL72">
-        <v>2.05</v>
+        <v>1.79</v>
       </c>
       <c r="BM72">
-        <v>2.14</v>
+        <v>2.51</v>
       </c>
       <c r="BN72">
-        <v>1.6</v>
+        <v>1.44</v>
       </c>
       <c r="BO72">
-        <v>2.73</v>
+        <v>3.35</v>
       </c>
       <c r="BP72">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="73" spans="1:68">
@@ -15845,7 +15845,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>7477884</v>
+        <v>7477875</v>
       </c>
       <c r="C73" t="s">
         <v>68</v>
@@ -15860,190 +15860,190 @@
         <v>7</v>
       </c>
       <c r="G73" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H73" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="J73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L73">
         <v>1</v>
       </c>
       <c r="M73">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N73">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O73" t="s">
         <v>146</v>
       </c>
       <c r="P73" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q73">
+        <v>4.33</v>
+      </c>
+      <c r="R73">
+        <v>2.38</v>
+      </c>
+      <c r="S73">
         <v>2.4</v>
       </c>
-      <c r="R73">
+      <c r="T73">
+        <v>1.3</v>
+      </c>
+      <c r="U73">
+        <v>3.4</v>
+      </c>
+      <c r="V73">
+        <v>2.5</v>
+      </c>
+      <c r="W73">
+        <v>1.5</v>
+      </c>
+      <c r="X73">
+        <v>6</v>
+      </c>
+      <c r="Y73">
+        <v>1.13</v>
+      </c>
+      <c r="Z73">
+        <v>4.2</v>
+      </c>
+      <c r="AA73">
+        <v>3.6</v>
+      </c>
+      <c r="AB73">
+        <v>1.8</v>
+      </c>
+      <c r="AC73">
+        <v>1.04</v>
+      </c>
+      <c r="AD73">
+        <v>10</v>
+      </c>
+      <c r="AE73">
+        <v>1.22</v>
+      </c>
+      <c r="AF73">
+        <v>4.2</v>
+      </c>
+      <c r="AG73">
+        <v>1.67</v>
+      </c>
+      <c r="AH73">
+        <v>2.15</v>
+      </c>
+      <c r="AI73">
+        <v>1.62</v>
+      </c>
+      <c r="AJ73">
         <v>2.2</v>
       </c>
-      <c r="S73">
-        <v>5</v>
-      </c>
-      <c r="T73">
-        <v>1.4</v>
-      </c>
-      <c r="U73">
-        <v>2.75</v>
-      </c>
-      <c r="V73">
-        <v>3</v>
-      </c>
-      <c r="W73">
-        <v>1.36</v>
-      </c>
-      <c r="X73">
-        <v>9</v>
-      </c>
-      <c r="Y73">
-        <v>1.07</v>
-      </c>
-      <c r="Z73">
-        <v>1.75</v>
-      </c>
-      <c r="AA73">
-        <v>3.4</v>
-      </c>
-      <c r="AB73">
-        <v>5</v>
-      </c>
-      <c r="AC73">
-        <v>1.06</v>
-      </c>
-      <c r="AD73">
-        <v>8.5</v>
-      </c>
-      <c r="AE73">
-        <v>1.35</v>
-      </c>
-      <c r="AF73">
-        <v>3.1</v>
-      </c>
-      <c r="AG73">
-        <v>2.05</v>
-      </c>
-      <c r="AH73">
-        <v>1.75</v>
-      </c>
-      <c r="AI73">
-        <v>1.95</v>
-      </c>
-      <c r="AJ73">
-        <v>1.8</v>
-      </c>
       <c r="AK73">
-        <v>1.13</v>
+        <v>1.85</v>
       </c>
       <c r="AL73">
+        <v>1.22</v>
+      </c>
+      <c r="AM73">
         <v>1.25</v>
       </c>
-      <c r="AM73">
-        <v>2.05</v>
-      </c>
       <c r="AN73">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="AO73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP73">
-        <v>2</v>
+        <v>0.33</v>
       </c>
       <c r="AQ73">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="AR73">
-        <v>1.92</v>
+        <v>0.86</v>
       </c>
       <c r="AS73">
-        <v>0.92</v>
+        <v>1</v>
       </c>
       <c r="AT73">
-        <v>2.84</v>
+        <v>1.86</v>
       </c>
       <c r="AU73">
         <v>4</v>
       </c>
       <c r="AV73">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW73">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="AX73">
         <v>4</v>
       </c>
       <c r="AY73">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="AZ73">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA73">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BB73">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BC73">
         <v>7</v>
       </c>
       <c r="BD73">
-        <v>1.45</v>
+        <v>2.15</v>
       </c>
       <c r="BE73">
         <v>6.5</v>
       </c>
       <c r="BF73">
-        <v>2.9</v>
+        <v>1.75</v>
       </c>
       <c r="BG73">
         <v>1.27</v>
       </c>
       <c r="BH73">
-        <v>3.04</v>
+        <v>3.3</v>
       </c>
       <c r="BI73">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="BJ73">
-        <v>2.27</v>
+        <v>3.05</v>
       </c>
       <c r="BK73">
-        <v>1.96</v>
+        <v>1.6</v>
       </c>
       <c r="BL73">
-        <v>1.79</v>
+        <v>2.2</v>
       </c>
       <c r="BM73">
-        <v>2.51</v>
+        <v>2.03</v>
       </c>
       <c r="BN73">
-        <v>1.44</v>
+        <v>1.7</v>
       </c>
       <c r="BO73">
-        <v>3.35</v>
+        <v>2.7</v>
       </c>
       <c r="BP73">
-        <v>1.22</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="74" spans="1:68">
@@ -16051,7 +16051,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>7477875</v>
+        <v>7477874</v>
       </c>
       <c r="C74" t="s">
         <v>68</v>
@@ -16066,190 +16066,190 @@
         <v>7</v>
       </c>
       <c r="G74" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="H74" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J74">
         <v>1</v>
       </c>
       <c r="K74">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L74">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M74">
         <v>2</v>
       </c>
       <c r="N74">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O74" t="s">
         <v>147</v>
       </c>
       <c r="P74" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q74">
-        <v>4.33</v>
+        <v>2.3</v>
       </c>
       <c r="R74">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S74">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="T74">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U74">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V74">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W74">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X74">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y74">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="Z74">
-        <v>4.2</v>
+        <v>1.75</v>
       </c>
       <c r="AA74">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AB74">
-        <v>1.8</v>
+        <v>4.4</v>
       </c>
       <c r="AC74">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AD74">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE74">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AF74">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="AG74">
         <v>1.67</v>
       </c>
       <c r="AH74">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="AI74">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="AJ74">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="AK74">
-        <v>1.85</v>
+        <v>1.22</v>
       </c>
       <c r="AL74">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AM74">
-        <v>1.25</v>
+        <v>2.1</v>
       </c>
       <c r="AN74">
+        <v>0.33</v>
+      </c>
+      <c r="AO74">
         <v>0.5</v>
       </c>
-      <c r="AO74">
-        <v>2</v>
-      </c>
       <c r="AP74">
+        <v>1</v>
+      </c>
+      <c r="AQ74">
         <v>0.33</v>
       </c>
-      <c r="AQ74">
-        <v>2.25</v>
-      </c>
       <c r="AR74">
-        <v>0.86</v>
+        <v>1.34</v>
       </c>
       <c r="AS74">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AT74">
-        <v>1.86</v>
+        <v>2.44</v>
       </c>
       <c r="AU74">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AV74">
         <v>7</v>
       </c>
       <c r="AW74">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX74">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY74">
+        <v>13</v>
+      </c>
+      <c r="AZ74">
+        <v>13</v>
+      </c>
+      <c r="BA74">
+        <v>6</v>
+      </c>
+      <c r="BB74">
         <v>7</v>
       </c>
-      <c r="AZ74">
-        <v>11</v>
-      </c>
-      <c r="BA74">
-        <v>3</v>
-      </c>
-      <c r="BB74">
-        <v>4</v>
-      </c>
       <c r="BC74">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BD74">
-        <v>2.15</v>
+        <v>1.45</v>
       </c>
       <c r="BE74">
-        <v>6.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF74">
-        <v>1.75</v>
+        <v>2.9</v>
       </c>
       <c r="BG74">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="BH74">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="BI74">
-        <v>1.33</v>
+        <v>1.41</v>
       </c>
       <c r="BJ74">
-        <v>3.05</v>
+        <v>2.65</v>
       </c>
       <c r="BK74">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="BL74">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="BM74">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="BN74">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="BO74">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="BP74">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="75" spans="1:68">
@@ -16257,7 +16257,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>7477874</v>
+        <v>7477877</v>
       </c>
       <c r="C75" t="s">
         <v>68</v>
@@ -16272,88 +16272,88 @@
         <v>7</v>
       </c>
       <c r="G75" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="H75" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="I75">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K75">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L75">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M75">
         <v>2</v>
       </c>
       <c r="N75">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="O75" t="s">
         <v>148</v>
       </c>
       <c r="P75" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q75">
-        <v>2.3</v>
+        <v>3.1</v>
       </c>
       <c r="R75">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S75">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="T75">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U75">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V75">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W75">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X75">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="Y75">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="Z75">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="AA75">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="AB75">
-        <v>4.4</v>
+        <v>2.8</v>
       </c>
       <c r="AC75">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="AD75">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AE75">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="AF75">
-        <v>3.75</v>
+        <v>3.45</v>
       </c>
       <c r="AG75">
-        <v>1.67</v>
+        <v>1.95</v>
       </c>
       <c r="AH75">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="AI75">
         <v>1.7</v>
@@ -16362,70 +16362,70 @@
         <v>2.05</v>
       </c>
       <c r="AK75">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="AL75">
         <v>1.25</v>
       </c>
       <c r="AM75">
-        <v>2.1</v>
+        <v>1.57</v>
       </c>
       <c r="AN75">
-        <v>0.33</v>
+        <v>2.33</v>
       </c>
       <c r="AO75">
         <v>0.5</v>
       </c>
       <c r="AP75">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AQ75">
-        <v>0.33</v>
+        <v>1.33</v>
       </c>
       <c r="AR75">
-        <v>1.34</v>
+        <v>1.19</v>
       </c>
       <c r="AS75">
-        <v>1.1</v>
+        <v>1.78</v>
       </c>
       <c r="AT75">
-        <v>2.44</v>
+        <v>2.97</v>
       </c>
       <c r="AU75">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AV75">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AW75">
+        <v>6</v>
+      </c>
+      <c r="AX75">
+        <v>2</v>
+      </c>
+      <c r="AY75">
+        <v>11</v>
+      </c>
+      <c r="AZ75">
+        <v>6</v>
+      </c>
+      <c r="BA75">
         <v>4</v>
       </c>
-      <c r="AX75">
-        <v>6</v>
-      </c>
-      <c r="AY75">
-        <v>13</v>
-      </c>
-      <c r="AZ75">
-        <v>13</v>
-      </c>
-      <c r="BA75">
-        <v>6</v>
-      </c>
       <c r="BB75">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BC75">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="BD75">
-        <v>1.45</v>
+        <v>1.81</v>
       </c>
       <c r="BE75">
         <v>6.75</v>
       </c>
       <c r="BF75">
-        <v>2.9</v>
+        <v>2.05</v>
       </c>
       <c r="BG75">
         <v>1.24</v>
@@ -16434,28 +16434,28 @@
         <v>3.55</v>
       </c>
       <c r="BI75">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
       <c r="BJ75">
+        <v>3</v>
+      </c>
+      <c r="BK75">
+        <v>1.57</v>
+      </c>
+      <c r="BL75">
+        <v>2.25</v>
+      </c>
+      <c r="BM75">
+        <v>2.03</v>
+      </c>
+      <c r="BN75">
+        <v>1.7</v>
+      </c>
+      <c r="BO75">
         <v>2.65</v>
       </c>
-      <c r="BK75">
-        <v>1.67</v>
-      </c>
-      <c r="BL75">
-        <v>2.05</v>
-      </c>
-      <c r="BM75">
-        <v>2.05</v>
-      </c>
-      <c r="BN75">
-        <v>1.67</v>
-      </c>
-      <c r="BO75">
-        <v>2.55</v>
-      </c>
       <c r="BP75">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="76" spans="1:68">
@@ -16463,7 +16463,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>7477877</v>
+        <v>7477897</v>
       </c>
       <c r="C76" t="s">
         <v>68</v>
@@ -16472,196 +16472,196 @@
         <v>69</v>
       </c>
       <c r="E76" s="2">
-        <v>45556.45833333334</v>
+        <v>45562.875</v>
       </c>
       <c r="F76">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G76" t="s">
+        <v>76</v>
+      </c>
+      <c r="H76" t="s">
         <v>83</v>
       </c>
-      <c r="H76" t="s">
-        <v>91</v>
-      </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L76">
         <v>1</v>
       </c>
       <c r="M76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N76">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O76" t="s">
         <v>149</v>
       </c>
       <c r="P76" t="s">
-        <v>200</v>
+        <v>96</v>
       </c>
       <c r="Q76">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="R76">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S76">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T76">
+        <v>1.44</v>
+      </c>
+      <c r="U76">
+        <v>2.63</v>
+      </c>
+      <c r="V76">
+        <v>3</v>
+      </c>
+      <c r="W76">
         <v>1.36</v>
       </c>
-      <c r="U76">
-        <v>3</v>
-      </c>
-      <c r="V76">
-        <v>2.75</v>
-      </c>
-      <c r="W76">
-        <v>1.4</v>
-      </c>
       <c r="X76">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Y76">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z76">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="AA76">
-        <v>3.4</v>
+        <v>3.24</v>
       </c>
       <c r="AB76">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="AC76">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="AD76">
         <v>9</v>
       </c>
       <c r="AE76">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AF76">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="AG76">
+        <v>1.91</v>
+      </c>
+      <c r="AH76">
+        <v>1.8</v>
+      </c>
+      <c r="AI76">
+        <v>1.8</v>
+      </c>
+      <c r="AJ76">
         <v>1.95</v>
       </c>
-      <c r="AH76">
-        <v>1.85</v>
-      </c>
-      <c r="AI76">
-        <v>1.7</v>
-      </c>
-      <c r="AJ76">
-        <v>2.05</v>
-      </c>
       <c r="AK76">
-        <v>1.38</v>
+        <v>1.48</v>
       </c>
       <c r="AL76">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AM76">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="AN76">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AO76">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AP76">
-        <v>1.75</v>
+        <v>2.4</v>
       </c>
       <c r="AQ76">
-        <v>1.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR76">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="AS76">
-        <v>1.78</v>
+        <v>0.92</v>
       </c>
       <c r="AT76">
-        <v>2.97</v>
+        <v>2.12</v>
       </c>
       <c r="AU76">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AV76">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AW76">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="AX76">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AY76">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="AZ76">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="BA76">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="BB76">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="BC76">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="BD76">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="BE76">
-        <v>6.75</v>
+        <v>6.4</v>
       </c>
       <c r="BF76">
-        <v>2.05</v>
+        <v>2.18</v>
       </c>
       <c r="BG76">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="BH76">
-        <v>3.55</v>
+        <v>3.9</v>
       </c>
       <c r="BI76">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="BJ76">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="BK76">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="BL76">
-        <v>2.25</v>
+        <v>2.17</v>
       </c>
       <c r="BM76">
-        <v>2.03</v>
+        <v>1.93</v>
       </c>
       <c r="BN76">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="BO76">
-        <v>2.65</v>
+        <v>2.4</v>
       </c>
       <c r="BP76">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="77" spans="1:68">
@@ -16669,7 +16669,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>7477852</v>
+        <v>7477895</v>
       </c>
       <c r="C77" t="s">
         <v>68</v>
@@ -16678,130 +16678,130 @@
         <v>69</v>
       </c>
       <c r="E77" s="2">
-        <v>45558.875</v>
+        <v>45562.875</v>
       </c>
       <c r="F77">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G77" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="H77" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N77">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O77" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="P77" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="Q77">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="R77">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S77">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="T77">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="U77">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V77">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="W77">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="X77">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Y77">
+        <v>1.08</v>
+      </c>
+      <c r="Z77">
+        <v>2.83</v>
+      </c>
+      <c r="AA77">
+        <v>3.6</v>
+      </c>
+      <c r="AB77">
+        <v>2.36</v>
+      </c>
+      <c r="AC77">
         <v>1.06</v>
       </c>
-      <c r="Z77">
-        <v>2.21</v>
-      </c>
-      <c r="AA77">
-        <v>3</v>
-      </c>
-      <c r="AB77">
-        <v>2.8</v>
-      </c>
-      <c r="AC77">
-        <v>1.07</v>
-      </c>
       <c r="AD77">
-        <v>9.25</v>
+        <v>8.5</v>
       </c>
       <c r="AE77">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AF77">
-        <v>2.95</v>
+        <v>3.3</v>
       </c>
       <c r="AG77">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AH77">
+        <v>1.8</v>
+      </c>
+      <c r="AI77">
         <v>1.75</v>
       </c>
-      <c r="AI77">
-        <v>1.85</v>
-      </c>
       <c r="AJ77">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="AK77">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AL77">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AM77">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="AN77">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AO77">
-        <v>0.33</v>
+        <v>2</v>
       </c>
       <c r="AP77">
-        <v>1.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ77">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR77">
-        <v>0.73</v>
+        <v>1.41</v>
       </c>
       <c r="AS77">
-        <v>1.11</v>
+        <v>1.26</v>
       </c>
       <c r="AT77">
-        <v>1.84</v>
+        <v>2.67</v>
       </c>
       <c r="AU77">
         <v>-1</v>
@@ -16831,43 +16831,43 @@
         <v>-1</v>
       </c>
       <c r="BD77">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="BE77">
-        <v>6.55</v>
+        <v>6.5</v>
       </c>
       <c r="BF77">
-        <v>2.27</v>
+        <v>1.81</v>
       </c>
       <c r="BG77">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="BH77">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="BI77">
+        <v>1.36</v>
+      </c>
+      <c r="BJ77">
+        <v>2.8</v>
+      </c>
+      <c r="BK77">
+        <v>1.6</v>
+      </c>
+      <c r="BL77">
+        <v>2.17</v>
+      </c>
+      <c r="BM77">
+        <v>1.95</v>
+      </c>
+      <c r="BN77">
+        <v>1.75</v>
+      </c>
+      <c r="BO77">
+        <v>2.43</v>
+      </c>
+      <c r="BP77">
         <v>1.48</v>
-      </c>
-      <c r="BJ77">
-        <v>2.58</v>
-      </c>
-      <c r="BK77">
-        <v>1.81</v>
-      </c>
-      <c r="BL77">
-        <v>1.99</v>
-      </c>
-      <c r="BM77">
-        <v>2.26</v>
-      </c>
-      <c r="BN77">
-        <v>1.61</v>
-      </c>
-      <c r="BO77">
-        <v>2.8</v>
-      </c>
-      <c r="BP77">
-        <v>1.38</v>
       </c>
     </row>
     <row r="78" spans="1:68">
@@ -16875,7 +16875,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>7477847</v>
+        <v>7477894</v>
       </c>
       <c r="C78" t="s">
         <v>68</v>
@@ -16884,25 +16884,25 @@
         <v>69</v>
       </c>
       <c r="E78" s="2">
-        <v>45558.875</v>
+        <v>45562.875</v>
       </c>
       <c r="F78">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G78" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="H78" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I78">
         <v>0</v>
       </c>
       <c r="J78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L78">
         <v>0</v>
@@ -16917,97 +16917,97 @@
         <v>96</v>
       </c>
       <c r="P78" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q78">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="R78">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S78">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="T78">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="U78">
-        <v>2.95</v>
+        <v>3.25</v>
       </c>
       <c r="V78">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="W78">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X78">
-        <v>6.75</v>
+        <v>6.5</v>
       </c>
       <c r="Y78">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="Z78">
-        <v>1.8</v>
+        <v>2.83</v>
       </c>
       <c r="AA78">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="AB78">
-        <v>3.65</v>
+        <v>2.36</v>
       </c>
       <c r="AC78">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AD78">
         <v>13</v>
       </c>
       <c r="AE78">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="AF78">
-        <v>3.7</v>
+        <v>3.66</v>
       </c>
       <c r="AG78">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AH78">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="AI78">
-        <v>1.68</v>
+        <v>1.57</v>
       </c>
       <c r="AJ78">
-        <v>2.05</v>
+        <v>2.25</v>
       </c>
       <c r="AK78">
-        <v>1.24</v>
+        <v>1.57</v>
       </c>
       <c r="AL78">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="AM78">
-        <v>1.82</v>
+        <v>1.4</v>
       </c>
       <c r="AN78">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AO78">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AP78">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="AQ78">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="AR78">
-        <v>1.35</v>
+        <v>1.19</v>
       </c>
       <c r="AS78">
-        <v>1.51</v>
+        <v>1.26</v>
       </c>
       <c r="AT78">
-        <v>2.86</v>
+        <v>2.45</v>
       </c>
       <c r="AU78">
         <v>-1</v>
@@ -17037,43 +17037,43 @@
         <v>-1</v>
       </c>
       <c r="BD78">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="BE78">
-        <v>8.699999999999999</v>
+        <v>6.1</v>
       </c>
       <c r="BF78">
-        <v>2.86</v>
+        <v>1.89</v>
       </c>
       <c r="BG78">
-        <v>1.19</v>
+        <v>1.33</v>
       </c>
       <c r="BH78">
-        <v>4.2</v>
+        <v>2.95</v>
       </c>
       <c r="BI78">
-        <v>1.36</v>
+        <v>1.56</v>
       </c>
       <c r="BJ78">
-        <v>2.9</v>
+        <v>2.23</v>
       </c>
       <c r="BK78">
-        <v>1.6</v>
+        <v>1.92</v>
       </c>
       <c r="BL78">
-        <v>2.2</v>
+        <v>1.77</v>
       </c>
       <c r="BM78">
-        <v>1.97</v>
+        <v>2.43</v>
       </c>
       <c r="BN78">
-        <v>1.74</v>
+        <v>1.48</v>
       </c>
       <c r="BO78">
-        <v>2.48</v>
+        <v>3.15</v>
       </c>
       <c r="BP78">
-        <v>1.48</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="79" spans="1:68">
@@ -17081,7 +17081,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>7477848</v>
+        <v>7477889</v>
       </c>
       <c r="C79" t="s">
         <v>68</v>
@@ -17090,130 +17090,130 @@
         <v>69</v>
       </c>
       <c r="E79" s="2">
-        <v>45558.875</v>
+        <v>45562.875</v>
       </c>
       <c r="F79">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G79" t="s">
-        <v>75</v>
+        <v>91</v>
       </c>
       <c r="H79" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I79">
         <v>1</v>
       </c>
       <c r="J79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K79">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N79">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O79" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="P79" t="s">
-        <v>202</v>
+        <v>96</v>
       </c>
       <c r="Q79">
-        <v>3.15</v>
+        <v>2.2</v>
       </c>
       <c r="R79">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S79">
-        <v>2.9</v>
+        <v>5.5</v>
       </c>
       <c r="T79">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="U79">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="V79">
-        <v>2.45</v>
+        <v>2.63</v>
       </c>
       <c r="W79">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="X79">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y79">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="Z79">
-        <v>2.48</v>
+        <v>1.5</v>
       </c>
       <c r="AA79">
-        <v>3.1</v>
+        <v>4.45</v>
       </c>
       <c r="AB79">
+        <v>6.1</v>
+      </c>
+      <c r="AC79">
+        <v>1.04</v>
+      </c>
+      <c r="AD79">
+        <v>12</v>
+      </c>
+      <c r="AE79">
+        <v>1.23</v>
+      </c>
+      <c r="AF79">
+        <v>3.34</v>
+      </c>
+      <c r="AG79">
+        <v>1.8</v>
+      </c>
+      <c r="AH79">
+        <v>1.9</v>
+      </c>
+      <c r="AI79">
+        <v>1.91</v>
+      </c>
+      <c r="AJ79">
+        <v>1.91</v>
+      </c>
+      <c r="AK79">
+        <v>1.14</v>
+      </c>
+      <c r="AL79">
+        <v>1.24</v>
+      </c>
+      <c r="AM79">
         <v>2.38</v>
       </c>
-      <c r="AC79">
-        <v>1.03</v>
-      </c>
-      <c r="AD79">
-        <v>14</v>
-      </c>
-      <c r="AE79">
-        <v>1.2</v>
-      </c>
-      <c r="AF79">
-        <v>4</v>
-      </c>
-      <c r="AG79">
-        <v>1.7</v>
-      </c>
-      <c r="AH79">
-        <v>2</v>
-      </c>
-      <c r="AI79">
+      <c r="AN79">
+        <v>1.33</v>
+      </c>
+      <c r="AO79">
+        <v>1</v>
+      </c>
+      <c r="AP79">
+        <v>1.6</v>
+      </c>
+      <c r="AQ79">
+        <v>0.6</v>
+      </c>
+      <c r="AR79">
         <v>1.55</v>
       </c>
-      <c r="AJ79">
-        <v>2.3</v>
-      </c>
-      <c r="AK79">
-        <v>1.5</v>
-      </c>
-      <c r="AL79">
-        <v>1.28</v>
-      </c>
-      <c r="AM79">
-        <v>1.4</v>
-      </c>
-      <c r="AN79">
-        <v>0</v>
-      </c>
-      <c r="AO79">
-        <v>3</v>
-      </c>
-      <c r="AP79">
-        <v>0.5</v>
-      </c>
-      <c r="AQ79">
-        <v>1.75</v>
-      </c>
-      <c r="AR79">
-        <v>1.23</v>
-      </c>
       <c r="AS79">
-        <v>1.82</v>
+        <v>1.24</v>
       </c>
       <c r="AT79">
-        <v>3.05</v>
+        <v>2.79</v>
       </c>
       <c r="AU79">
         <v>-1</v>
@@ -17243,43 +17243,43 @@
         <v>-1</v>
       </c>
       <c r="BD79">
-        <v>2.12</v>
+        <v>1.35</v>
       </c>
       <c r="BE79">
-        <v>6.65</v>
+        <v>6.75</v>
       </c>
       <c r="BF79">
-        <v>2.12</v>
+        <v>3.3</v>
       </c>
       <c r="BG79">
-        <v>1.2</v>
+        <v>1.34</v>
       </c>
       <c r="BH79">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="BI79">
-        <v>1.36</v>
+        <v>1.58</v>
       </c>
       <c r="BJ79">
-        <v>2.9</v>
+        <v>2.18</v>
       </c>
       <c r="BK79">
-        <v>1.59</v>
+        <v>1.95</v>
       </c>
       <c r="BL79">
-        <v>2.3</v>
+        <v>1.75</v>
       </c>
       <c r="BM79">
-        <v>1.96</v>
+        <v>2.48</v>
       </c>
       <c r="BN79">
-        <v>1.84</v>
+        <v>1.47</v>
       </c>
       <c r="BO79">
-        <v>2.47</v>
+        <v>3.2</v>
       </c>
       <c r="BP79">
-        <v>1.52</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="80" spans="1:68">
@@ -17287,7 +17287,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>7477887</v>
+        <v>7477898</v>
       </c>
       <c r="C80" t="s">
         <v>68</v>
@@ -17296,196 +17296,196 @@
         <v>69</v>
       </c>
       <c r="E80" s="2">
-        <v>45562.875</v>
+        <v>45563.45833333334</v>
       </c>
       <c r="F80">
         <v>8</v>
       </c>
       <c r="G80" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H80" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="I80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J80">
         <v>0</v>
       </c>
       <c r="K80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O80" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="P80" t="s">
-        <v>203</v>
+        <v>96</v>
       </c>
       <c r="Q80">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="R80">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S80">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="T80">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="U80">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V80">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W80">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X80">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="Y80">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="Z80">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AA80">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AB80">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AC80">
         <v>1.03</v>
       </c>
       <c r="AD80">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE80">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="AF80">
-        <v>3.72</v>
+        <v>3.2</v>
       </c>
       <c r="AG80">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AH80">
-        <v>1.84</v>
+        <v>1.8</v>
       </c>
       <c r="AI80">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AJ80">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AK80">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AL80">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AM80">
-        <v>1.69</v>
+        <v>1.77</v>
       </c>
       <c r="AN80">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AO80">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AP80">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AQ80">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR80">
-        <v>1.71</v>
+        <v>0.73</v>
       </c>
       <c r="AS80">
-        <v>1.37</v>
+        <v>1.06</v>
       </c>
       <c r="AT80">
-        <v>3.08</v>
+        <v>1.79</v>
       </c>
       <c r="AU80">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AV80">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AW80">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX80">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY80">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="AZ80">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BA80">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BB80">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BC80">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BD80">
-        <v>1.79</v>
+        <v>1.63</v>
       </c>
       <c r="BE80">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="BF80">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="BG80">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="BH80">
-        <v>3.15</v>
+        <v>3.95</v>
       </c>
       <c r="BI80">
-        <v>1.5</v>
+        <v>1.35</v>
       </c>
       <c r="BJ80">
-        <v>2.35</v>
+        <v>2.9</v>
       </c>
       <c r="BK80">
-        <v>1.83</v>
+        <v>1.58</v>
       </c>
       <c r="BL80">
-        <v>1.85</v>
+        <v>2.18</v>
       </c>
       <c r="BM80">
-        <v>2.3</v>
+        <v>1.92</v>
       </c>
       <c r="BN80">
-        <v>1.54</v>
+        <v>1.77</v>
       </c>
       <c r="BO80">
-        <v>2.95</v>
+        <v>2.4</v>
       </c>
       <c r="BP80">
-        <v>1.33</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="81" spans="1:68">
@@ -17493,7 +17493,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>7477892</v>
+        <v>7477896</v>
       </c>
       <c r="C81" t="s">
         <v>68</v>
@@ -17502,196 +17502,196 @@
         <v>69</v>
       </c>
       <c r="E81" s="2">
-        <v>45563.35416666666</v>
+        <v>45563.45833333334</v>
       </c>
       <c r="F81">
         <v>8</v>
       </c>
       <c r="G81" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="H81" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81">
         <v>1</v>
       </c>
       <c r="L81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N81">
         <v>2</v>
       </c>
       <c r="O81" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="P81" t="s">
-        <v>204</v>
+        <v>109</v>
       </c>
       <c r="Q81">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="R81">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="S81">
-        <v>2.4</v>
+        <v>2.75</v>
       </c>
       <c r="T81">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="U81">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V81">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="W81">
-        <v>1.44</v>
+        <v>1.36</v>
       </c>
       <c r="X81">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="Y81">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="Z81">
-        <v>4.05</v>
+        <v>3.52</v>
       </c>
       <c r="AA81">
-        <v>3.84</v>
+        <v>3.5</v>
       </c>
       <c r="AB81">
-        <v>1.83</v>
+        <v>2.06</v>
       </c>
       <c r="AC81">
         <v>1.03</v>
       </c>
       <c r="AD81">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE81">
-        <v>1.19</v>
+        <v>1.3</v>
       </c>
       <c r="AF81">
-        <v>3.65</v>
+        <v>3.2</v>
       </c>
       <c r="AG81">
+        <v>1.8</v>
+      </c>
+      <c r="AH81">
         <v>1.9</v>
       </c>
-      <c r="AH81">
-        <v>1.8</v>
-      </c>
       <c r="AI81">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AJ81">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AK81">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="AL81">
+        <v>1.25</v>
+      </c>
+      <c r="AM81">
+        <v>1.33</v>
+      </c>
+      <c r="AN81">
+        <v>1</v>
+      </c>
+      <c r="AO81">
+        <v>0.33</v>
+      </c>
+      <c r="AP81">
+        <v>1</v>
+      </c>
+      <c r="AQ81">
+        <v>1</v>
+      </c>
+      <c r="AR81">
         <v>1.22</v>
       </c>
-      <c r="AM81">
-        <v>1.25</v>
-      </c>
-      <c r="AN81">
-        <v>1.33</v>
-      </c>
-      <c r="AO81">
-        <v>1.5</v>
-      </c>
-      <c r="AP81">
-        <v>1</v>
-      </c>
-      <c r="AQ81">
-        <v>2</v>
-      </c>
-      <c r="AR81">
-        <v>0.8100000000000001</v>
-      </c>
       <c r="AS81">
-        <v>1.17</v>
+        <v>1.6</v>
       </c>
       <c r="AT81">
-        <v>1.98</v>
+        <v>2.82</v>
       </c>
       <c r="AU81">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AV81">
+        <v>2</v>
+      </c>
+      <c r="AW81">
+        <v>1</v>
+      </c>
+      <c r="AX81">
         <v>7</v>
       </c>
-      <c r="AW81">
-        <v>2</v>
-      </c>
-      <c r="AX81">
-        <v>2</v>
-      </c>
       <c r="AY81">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AZ81">
         <v>9</v>
       </c>
       <c r="BA81">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BB81">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC81">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD81">
-        <v>2.65</v>
+        <v>2.1</v>
       </c>
       <c r="BE81">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="BF81">
-        <v>1.49</v>
+        <v>1.78</v>
       </c>
       <c r="BG81">
         <v>1.2</v>
       </c>
       <c r="BH81">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="BI81">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="BJ81">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="BK81">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="BL81">
-        <v>2.23</v>
+        <v>2.15</v>
       </c>
       <c r="BM81">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="BN81">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="BO81">
-        <v>2.38</v>
+        <v>2.48</v>
       </c>
       <c r="BP81">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="82" spans="1:68">
@@ -17699,7 +17699,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>7477895</v>
+        <v>7477910</v>
       </c>
       <c r="C82" t="s">
         <v>68</v>
@@ -17708,196 +17708,196 @@
         <v>69</v>
       </c>
       <c r="E82" s="2">
-        <v>45563.35416666666</v>
+        <v>45566.65625</v>
       </c>
       <c r="F82">
+        <v>9</v>
+      </c>
+      <c r="G82" t="s">
+        <v>87</v>
+      </c>
+      <c r="H82" t="s">
+        <v>93</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>2</v>
+      </c>
+      <c r="K82">
+        <v>2</v>
+      </c>
+      <c r="L82">
+        <v>2</v>
+      </c>
+      <c r="M82">
+        <v>4</v>
+      </c>
+      <c r="N82">
+        <v>6</v>
+      </c>
+      <c r="O82" t="s">
+        <v>152</v>
+      </c>
+      <c r="P82" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q82">
+        <v>4.75</v>
+      </c>
+      <c r="R82">
+        <v>2.25</v>
+      </c>
+      <c r="S82">
+        <v>2.4</v>
+      </c>
+      <c r="T82">
+        <v>1.36</v>
+      </c>
+      <c r="U82">
+        <v>3</v>
+      </c>
+      <c r="V82">
+        <v>2.75</v>
+      </c>
+      <c r="W82">
+        <v>1.4</v>
+      </c>
+      <c r="X82">
+        <v>7</v>
+      </c>
+      <c r="Y82">
+        <v>1.1</v>
+      </c>
+      <c r="Z82">
+        <v>3.65</v>
+      </c>
+      <c r="AA82">
+        <v>3.55</v>
+      </c>
+      <c r="AB82">
+        <v>2.02</v>
+      </c>
+      <c r="AC82">
+        <v>1.05</v>
+      </c>
+      <c r="AD82">
+        <v>9.5</v>
+      </c>
+      <c r="AE82">
+        <v>1.22</v>
+      </c>
+      <c r="AF82">
+        <v>3.42</v>
+      </c>
+      <c r="AG82">
+        <v>1.86</v>
+      </c>
+      <c r="AH82">
+        <v>1.96</v>
+      </c>
+      <c r="AI82">
+        <v>1.8</v>
+      </c>
+      <c r="AJ82">
+        <v>1.95</v>
+      </c>
+      <c r="AK82">
+        <v>2.01</v>
+      </c>
+      <c r="AL82">
+        <v>1.27</v>
+      </c>
+      <c r="AM82">
+        <v>1.22</v>
+      </c>
+      <c r="AN82">
+        <v>1</v>
+      </c>
+      <c r="AO82">
+        <v>1.5</v>
+      </c>
+      <c r="AP82">
+        <v>0.8</v>
+      </c>
+      <c r="AQ82">
+        <v>2</v>
+      </c>
+      <c r="AR82">
+        <v>1.19</v>
+      </c>
+      <c r="AS82">
+        <v>1.17</v>
+      </c>
+      <c r="AT82">
+        <v>2.36</v>
+      </c>
+      <c r="AU82">
         <v>8</v>
       </c>
-      <c r="G82" t="s">
-        <v>84</v>
-      </c>
-      <c r="H82" t="s">
-        <v>90</v>
-      </c>
-      <c r="I82">
-        <v>1</v>
-      </c>
-      <c r="J82">
-        <v>1</v>
-      </c>
-      <c r="K82">
-        <v>2</v>
-      </c>
-      <c r="L82">
-        <v>2</v>
-      </c>
-      <c r="M82">
-        <v>1</v>
-      </c>
-      <c r="N82">
-        <v>3</v>
-      </c>
-      <c r="O82" t="s">
-        <v>151</v>
-      </c>
-      <c r="P82" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q82">
-        <v>3.4</v>
-      </c>
-      <c r="R82">
-        <v>2.1</v>
-      </c>
-      <c r="S82">
-        <v>3.2</v>
-      </c>
-      <c r="T82">
-        <v>1.4</v>
-      </c>
-      <c r="U82">
-        <v>2.75</v>
-      </c>
-      <c r="V82">
-        <v>3</v>
-      </c>
-      <c r="W82">
-        <v>1.36</v>
-      </c>
-      <c r="X82">
-        <v>8</v>
-      </c>
-      <c r="Y82">
-        <v>1.08</v>
-      </c>
-      <c r="Z82">
-        <v>2.83</v>
-      </c>
-      <c r="AA82">
-        <v>3.6</v>
-      </c>
-      <c r="AB82">
-        <v>2.36</v>
-      </c>
-      <c r="AC82">
-        <v>1.06</v>
-      </c>
-      <c r="AD82">
-        <v>8.5</v>
-      </c>
-      <c r="AE82">
-        <v>1.33</v>
-      </c>
-      <c r="AF82">
+      <c r="AV82">
+        <v>7</v>
+      </c>
+      <c r="AW82">
+        <v>1</v>
+      </c>
+      <c r="AX82">
+        <v>4</v>
+      </c>
+      <c r="AY82">
+        <v>9</v>
+      </c>
+      <c r="AZ82">
+        <v>11</v>
+      </c>
+      <c r="BA82">
+        <v>4</v>
+      </c>
+      <c r="BB82">
+        <v>5</v>
+      </c>
+      <c r="BC82">
+        <v>9</v>
+      </c>
+      <c r="BD82">
+        <v>2.65</v>
+      </c>
+      <c r="BE82">
+        <v>6.4</v>
+      </c>
+      <c r="BF82">
+        <v>1.52</v>
+      </c>
+      <c r="BG82">
+        <v>1.27</v>
+      </c>
+      <c r="BH82">
         <v>3.3</v>
       </c>
-      <c r="AG82">
-        <v>1.9</v>
-      </c>
-      <c r="AH82">
-        <v>1.8</v>
-      </c>
-      <c r="AI82">
-        <v>1.75</v>
-      </c>
-      <c r="AJ82">
-        <v>2</v>
-      </c>
-      <c r="AK82">
-        <v>1.5</v>
-      </c>
-      <c r="AL82">
-        <v>1.28</v>
-      </c>
-      <c r="AM82">
-        <v>1.42</v>
-      </c>
-      <c r="AN82">
-        <v>2</v>
-      </c>
-      <c r="AO82">
-        <v>2</v>
-      </c>
-      <c r="AP82">
-        <v>2.25</v>
-      </c>
-      <c r="AQ82">
-        <v>1.5</v>
-      </c>
-      <c r="AR82">
-        <v>1.41</v>
-      </c>
-      <c r="AS82">
-        <v>1.26</v>
-      </c>
-      <c r="AT82">
-        <v>2.67</v>
-      </c>
-      <c r="AU82">
-        <v>3</v>
-      </c>
-      <c r="AV82">
-        <v>8</v>
-      </c>
-      <c r="AW82">
-        <v>0</v>
-      </c>
-      <c r="AX82">
-        <v>5</v>
-      </c>
-      <c r="AY82">
-        <v>3</v>
-      </c>
-      <c r="AZ82">
-        <v>13</v>
-      </c>
-      <c r="BA82">
-        <v>2</v>
-      </c>
-      <c r="BB82">
-        <v>11</v>
-      </c>
-      <c r="BC82">
-        <v>13</v>
-      </c>
-      <c r="BD82">
-        <v>2.05</v>
-      </c>
-      <c r="BE82">
-        <v>6.5</v>
-      </c>
-      <c r="BF82">
-        <v>1.81</v>
-      </c>
-      <c r="BG82">
-        <v>1.2</v>
-      </c>
-      <c r="BH82">
-        <v>3.9</v>
-      </c>
       <c r="BI82">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="BJ82">
+        <v>2.43</v>
+      </c>
+      <c r="BK82">
+        <v>1.77</v>
+      </c>
+      <c r="BL82">
+        <v>1.92</v>
+      </c>
+      <c r="BM82">
+        <v>2.18</v>
+      </c>
+      <c r="BN82">
+        <v>1.58</v>
+      </c>
+      <c r="BO82">
         <v>2.8</v>
       </c>
-      <c r="BK82">
-        <v>1.6</v>
-      </c>
-      <c r="BL82">
-        <v>2.17</v>
-      </c>
-      <c r="BM82">
-        <v>1.95</v>
-      </c>
-      <c r="BN82">
-        <v>1.75</v>
-      </c>
-      <c r="BO82">
-        <v>2.43</v>
-      </c>
       <c r="BP82">
-        <v>1.48</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="83" spans="1:68">
@@ -17905,7 +17905,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>7477898</v>
+        <v>7477914</v>
       </c>
       <c r="C83" t="s">
         <v>68</v>
@@ -17914,196 +17914,196 @@
         <v>69</v>
       </c>
       <c r="E83" s="2">
-        <v>45563.45833333334</v>
+        <v>45566.65625</v>
       </c>
       <c r="F83">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G83" t="s">
         <v>72</v>
       </c>
       <c r="H83" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83">
         <v>0</v>
       </c>
       <c r="K83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M83">
         <v>0</v>
       </c>
       <c r="N83">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O83" t="s">
-        <v>96</v>
+        <v>153</v>
       </c>
       <c r="P83" t="s">
         <v>96</v>
       </c>
       <c r="Q83">
+        <v>3.2</v>
+      </c>
+      <c r="R83">
+        <v>2.25</v>
+      </c>
+      <c r="S83">
+        <v>3.1</v>
+      </c>
+      <c r="T83">
+        <v>1.33</v>
+      </c>
+      <c r="U83">
+        <v>3.25</v>
+      </c>
+      <c r="V83">
         <v>2.63</v>
       </c>
-      <c r="R83">
+      <c r="W83">
+        <v>1.44</v>
+      </c>
+      <c r="X83">
+        <v>6.5</v>
+      </c>
+      <c r="Y83">
+        <v>1.11</v>
+      </c>
+      <c r="Z83">
+        <v>2.75</v>
+      </c>
+      <c r="AA83">
+        <v>3.45</v>
+      </c>
+      <c r="AB83">
+        <v>2.55</v>
+      </c>
+      <c r="AC83">
+        <v>1.05</v>
+      </c>
+      <c r="AD83">
+        <v>9.5</v>
+      </c>
+      <c r="AE83">
+        <v>1.19</v>
+      </c>
+      <c r="AF83">
+        <v>3.68</v>
+      </c>
+      <c r="AG83">
+        <v>1.73</v>
+      </c>
+      <c r="AH83">
+        <v>2</v>
+      </c>
+      <c r="AI83">
+        <v>1.62</v>
+      </c>
+      <c r="AJ83">
         <v>2.2</v>
       </c>
-      <c r="S83">
-        <v>4</v>
-      </c>
-      <c r="T83">
-        <v>1.4</v>
-      </c>
-      <c r="U83">
-        <v>2.75</v>
-      </c>
-      <c r="V83">
-        <v>2.75</v>
-      </c>
-      <c r="W83">
-        <v>1.4</v>
-      </c>
-      <c r="X83">
-        <v>8</v>
-      </c>
-      <c r="Y83">
-        <v>1.08</v>
-      </c>
-      <c r="Z83">
-        <v>2.23</v>
-      </c>
-      <c r="AA83">
-        <v>3.4</v>
-      </c>
-      <c r="AB83">
-        <v>3.2</v>
-      </c>
-      <c r="AC83">
-        <v>1.03</v>
-      </c>
-      <c r="AD83">
-        <v>9</v>
-      </c>
-      <c r="AE83">
+      <c r="AK83">
+        <v>1.47</v>
+      </c>
+      <c r="AL83">
         <v>1.3</v>
       </c>
-      <c r="AF83">
-        <v>3.2</v>
-      </c>
-      <c r="AG83">
-        <v>1.9</v>
-      </c>
-      <c r="AH83">
-        <v>1.8</v>
-      </c>
-      <c r="AI83">
-        <v>1.75</v>
-      </c>
-      <c r="AJ83">
-        <v>2</v>
-      </c>
-      <c r="AK83">
-        <v>1.25</v>
-      </c>
-      <c r="AL83">
-        <v>1.25</v>
-      </c>
       <c r="AM83">
-        <v>1.77</v>
+        <v>1.53</v>
       </c>
       <c r="AN83">
         <v>1.33</v>
       </c>
       <c r="AO83">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP83">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AQ83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR83">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="AS83">
-        <v>1.06</v>
+        <v>1.82</v>
       </c>
       <c r="AT83">
-        <v>1.79</v>
+        <v>2.82</v>
       </c>
       <c r="AU83">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV83">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AW83">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AX83">
+        <v>2</v>
+      </c>
+      <c r="AY83">
         <v>6</v>
-      </c>
-      <c r="AY83">
-        <v>12</v>
       </c>
       <c r="AZ83">
         <v>6</v>
       </c>
       <c r="BA83">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BB83">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BC83">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD83">
+        <v>2.23</v>
+      </c>
+      <c r="BE83">
+        <v>6.55</v>
+      </c>
+      <c r="BF83">
+        <v>2.03</v>
+      </c>
+      <c r="BG83">
+        <v>1.17</v>
+      </c>
+      <c r="BH83">
+        <v>3.84</v>
+      </c>
+      <c r="BI83">
+        <v>1.37</v>
+      </c>
+      <c r="BJ83">
+        <v>2.75</v>
+      </c>
+      <c r="BK83">
+        <v>1.7</v>
+      </c>
+      <c r="BL83">
+        <v>2.05</v>
+      </c>
+      <c r="BM83">
+        <v>2.09</v>
+      </c>
+      <c r="BN83">
         <v>1.63</v>
       </c>
-      <c r="BE83">
-        <v>6.5</v>
-      </c>
-      <c r="BF83">
-        <v>2.38</v>
-      </c>
-      <c r="BG83">
-        <v>1.2</v>
-      </c>
-      <c r="BH83">
-        <v>3.95</v>
-      </c>
-      <c r="BI83">
-        <v>1.35</v>
-      </c>
-      <c r="BJ83">
-        <v>2.9</v>
-      </c>
-      <c r="BK83">
-        <v>1.58</v>
-      </c>
-      <c r="BL83">
-        <v>2.18</v>
-      </c>
-      <c r="BM83">
-        <v>1.92</v>
-      </c>
-      <c r="BN83">
-        <v>1.77</v>
-      </c>
       <c r="BO83">
-        <v>2.4</v>
+        <v>2.69</v>
       </c>
       <c r="BP83">
-        <v>1.49</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="84" spans="1:68">
@@ -18111,7 +18111,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>7477897</v>
+        <v>7477913</v>
       </c>
       <c r="C84" t="s">
         <v>68</v>
@@ -18120,25 +18120,25 @@
         <v>69</v>
       </c>
       <c r="E84" s="2">
-        <v>45563.45833333334</v>
+        <v>45566.65625</v>
       </c>
       <c r="F84">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G84" t="s">
         <v>76</v>
       </c>
       <c r="H84" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84">
         <v>0</v>
       </c>
       <c r="K84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L84">
         <v>1</v>
@@ -18150,19 +18150,19 @@
         <v>1</v>
       </c>
       <c r="O84" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="P84" t="s">
         <v>96</v>
       </c>
       <c r="Q84">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="R84">
         <v>2.1</v>
       </c>
       <c r="S84">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="T84">
         <v>1.44</v>
@@ -18171,10 +18171,10 @@
         <v>2.63</v>
       </c>
       <c r="V84">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W84">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="X84">
         <v>9</v>
@@ -18183,31 +18183,31 @@
         <v>1.07</v>
       </c>
       <c r="Z84">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="AA84">
-        <v>3.24</v>
+        <v>3.45</v>
       </c>
       <c r="AB84">
-        <v>2.76</v>
+        <v>2.65</v>
       </c>
       <c r="AC84">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="AD84">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AE84">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="AF84">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="AG84">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AH84">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AI84">
         <v>1.8</v>
@@ -18216,100 +18216,100 @@
         <v>1.95</v>
       </c>
       <c r="AK84">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="AL84">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AM84">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="AN84">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AO84">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AP84">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ84">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AR84">
         <v>1.2</v>
       </c>
       <c r="AS84">
-        <v>0.92</v>
+        <v>1.03</v>
       </c>
       <c r="AT84">
-        <v>2.12</v>
+        <v>2.23</v>
       </c>
       <c r="AU84">
         <v>4</v>
       </c>
       <c r="AV84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW84">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX84">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY84">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AZ84">
         <v>6</v>
       </c>
       <c r="BA84">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="BB84">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BC84">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="BD84">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="BE84">
-        <v>6.4</v>
+        <v>6.85</v>
       </c>
       <c r="BF84">
-        <v>2.18</v>
+        <v>2.81</v>
       </c>
       <c r="BG84">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="BH84">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="BI84">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="BJ84">
-        <v>2.8</v>
+        <v>2.67</v>
       </c>
       <c r="BK84">
-        <v>1.58</v>
+        <v>1.77</v>
       </c>
       <c r="BL84">
-        <v>2.17</v>
+        <v>1.95</v>
       </c>
       <c r="BM84">
-        <v>1.93</v>
+        <v>2.14</v>
       </c>
       <c r="BN84">
-        <v>1.76</v>
+        <v>1.6</v>
       </c>
       <c r="BO84">
-        <v>2.4</v>
+        <v>2.78</v>
       </c>
       <c r="BP84">
-        <v>1.49</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="85" spans="1:68">
@@ -18317,7 +18317,7 @@
         <v>84</v>
       </c>
       <c r="B85">
-        <v>7477896</v>
+        <v>7477905</v>
       </c>
       <c r="C85" t="s">
         <v>68</v>
@@ -18326,49 +18326,49 @@
         <v>69</v>
       </c>
       <c r="E85" s="2">
-        <v>45563.45833333334</v>
+        <v>45566.65625</v>
       </c>
       <c r="F85">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G85" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H85" t="s">
         <v>85</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85">
         <v>0</v>
       </c>
       <c r="K85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M85">
         <v>1</v>
       </c>
       <c r="N85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O85" t="s">
-        <v>127</v>
+        <v>96</v>
       </c>
       <c r="P85" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="Q85">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="R85">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S85">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="T85">
         <v>1.4</v>
@@ -18377,10 +18377,10 @@
         <v>2.75</v>
       </c>
       <c r="V85">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W85">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X85">
         <v>8</v>
@@ -18389,31 +18389,31 @@
         <v>1.08</v>
       </c>
       <c r="Z85">
-        <v>3.52</v>
+        <v>3.45</v>
       </c>
       <c r="AA85">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="AB85">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="AC85">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="AD85">
         <v>9</v>
       </c>
       <c r="AE85">
-        <v>1.3</v>
+        <v>1.26</v>
       </c>
       <c r="AF85">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AG85">
+        <v>1.91</v>
+      </c>
+      <c r="AH85">
         <v>1.8</v>
-      </c>
-      <c r="AH85">
-        <v>1.9</v>
       </c>
       <c r="AI85">
         <v>1.75</v>
@@ -18422,100 +18422,100 @@
         <v>2</v>
       </c>
       <c r="AK85">
-        <v>1.75</v>
+        <v>1.64</v>
       </c>
       <c r="AL85">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="AM85">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="AN85">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO85">
+        <v>0.5</v>
+      </c>
+      <c r="AP85">
         <v>0.33</v>
       </c>
-      <c r="AP85">
-        <v>1</v>
-      </c>
       <c r="AQ85">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AR85">
-        <v>1.22</v>
+        <v>1.42</v>
       </c>
       <c r="AS85">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AT85">
-        <v>2.82</v>
+        <v>2.92</v>
       </c>
       <c r="AU85">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW85">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AX85">
+        <v>5</v>
+      </c>
+      <c r="AY85">
+        <v>9</v>
+      </c>
+      <c r="AZ85">
+        <v>8</v>
+      </c>
+      <c r="BA85">
         <v>7</v>
       </c>
-      <c r="AY85">
-        <v>3</v>
-      </c>
-      <c r="AZ85">
+      <c r="BB85">
+        <v>2</v>
+      </c>
+      <c r="BC85">
         <v>9</v>
       </c>
-      <c r="BA85">
-        <v>3</v>
-      </c>
-      <c r="BB85">
-        <v>5</v>
-      </c>
-      <c r="BC85">
-        <v>8</v>
-      </c>
       <c r="BD85">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="BE85">
         <v>6.4</v>
       </c>
       <c r="BF85">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="BG85">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="BH85">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="BI85">
-        <v>1.37</v>
+        <v>1.49</v>
       </c>
       <c r="BJ85">
-        <v>2.8</v>
+        <v>2.4</v>
       </c>
       <c r="BK85">
-        <v>1.61</v>
+        <v>1.79</v>
       </c>
       <c r="BL85">
-        <v>2.15</v>
+        <v>1.9</v>
       </c>
       <c r="BM85">
-        <v>1.96</v>
+        <v>2.23</v>
       </c>
       <c r="BN85">
-        <v>1.73</v>
+        <v>1.56</v>
       </c>
       <c r="BO85">
-        <v>2.48</v>
+        <v>2.9</v>
       </c>
       <c r="BP85">
-        <v>1.47</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="86" spans="1:68">
@@ -18523,7 +18523,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>7477894</v>
+        <v>7477908</v>
       </c>
       <c r="C86" t="s">
         <v>68</v>
@@ -18532,196 +18532,196 @@
         <v>69</v>
       </c>
       <c r="E86" s="2">
-        <v>45563.45833333334</v>
+        <v>45566.65625</v>
       </c>
       <c r="F86">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G86" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H86" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="I86">
         <v>0</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L86">
         <v>0</v>
       </c>
       <c r="M86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O86" t="s">
         <v>96</v>
       </c>
       <c r="P86" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q86">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="R86">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S86">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T86">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="U86">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V86">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W86">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X86">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="Y86">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="Z86">
-        <v>2.83</v>
+        <v>2.12</v>
       </c>
       <c r="AA86">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="AB86">
-        <v>2.36</v>
+        <v>3.45</v>
       </c>
       <c r="AC86">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD86">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AE86">
-        <v>1.19</v>
+        <v>1.26</v>
       </c>
       <c r="AF86">
-        <v>3.66</v>
+        <v>3.55</v>
       </c>
       <c r="AG86">
         <v>1.85</v>
       </c>
       <c r="AH86">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AI86">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AJ86">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AK86">
-        <v>1.57</v>
+        <v>1.3</v>
       </c>
       <c r="AL86">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AM86">
+        <v>1.77</v>
+      </c>
+      <c r="AN86">
+        <v>0</v>
+      </c>
+      <c r="AO86">
+        <v>1</v>
+      </c>
+      <c r="AP86">
+        <v>0</v>
+      </c>
+      <c r="AQ86">
         <v>1.4</v>
       </c>
-      <c r="AN86">
-        <v>1.33</v>
-      </c>
-      <c r="AO86">
-        <v>1.5</v>
-      </c>
-      <c r="AP86">
-        <v>1</v>
-      </c>
-      <c r="AQ86">
-        <v>2</v>
-      </c>
       <c r="AR86">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="AS86">
-        <v>1.26</v>
+        <v>0.95</v>
       </c>
       <c r="AT86">
-        <v>2.45</v>
+        <v>2.18</v>
       </c>
       <c r="AU86">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AV86">
+        <v>3</v>
+      </c>
+      <c r="AW86">
+        <v>6</v>
+      </c>
+      <c r="AX86">
+        <v>5</v>
+      </c>
+      <c r="AY86">
+        <v>12</v>
+      </c>
+      <c r="AZ86">
+        <v>8</v>
+      </c>
+      <c r="BA86">
         <v>4</v>
       </c>
-      <c r="AW86">
-        <v>7</v>
-      </c>
-      <c r="AX86">
+      <c r="BB86">
         <v>6</v>
-      </c>
-      <c r="AY86">
-        <v>16</v>
-      </c>
-      <c r="AZ86">
-        <v>10</v>
-      </c>
-      <c r="BA86">
-        <v>6</v>
-      </c>
-      <c r="BB86">
-        <v>4</v>
       </c>
       <c r="BC86">
         <v>10</v>
       </c>
       <c r="BD86">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="BE86">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="BF86">
-        <v>1.89</v>
+        <v>2.15</v>
       </c>
       <c r="BG86">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="BH86">
-        <v>2.95</v>
+        <v>3.55</v>
       </c>
       <c r="BI86">
-        <v>1.56</v>
+        <v>1.44</v>
       </c>
       <c r="BJ86">
-        <v>2.23</v>
+        <v>2.55</v>
       </c>
       <c r="BK86">
-        <v>1.92</v>
+        <v>1.72</v>
       </c>
       <c r="BL86">
-        <v>1.77</v>
+        <v>1.98</v>
       </c>
       <c r="BM86">
-        <v>2.43</v>
+        <v>2.12</v>
       </c>
       <c r="BN86">
-        <v>1.48</v>
+        <v>1.63</v>
       </c>
       <c r="BO86">
-        <v>3.15</v>
+        <v>2.65</v>
       </c>
       <c r="BP86">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="87" spans="1:68">
@@ -18729,7 +18729,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>7477893</v>
+        <v>7477907</v>
       </c>
       <c r="C87" t="s">
         <v>68</v>
@@ -18738,196 +18738,196 @@
         <v>69</v>
       </c>
       <c r="E87" s="2">
-        <v>45563.45833333334</v>
+        <v>45566.65625</v>
       </c>
       <c r="F87">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G87" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H87" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="I87">
         <v>0</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L87">
         <v>0</v>
       </c>
       <c r="M87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N87">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O87" t="s">
         <v>96</v>
       </c>
       <c r="P87" t="s">
-        <v>96</v>
+        <v>205</v>
       </c>
       <c r="Q87">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="R87">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S87">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="T87">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="U87">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="V87">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="W87">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="X87">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y87">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="Z87">
-        <v>2.79</v>
+        <v>2.9</v>
       </c>
       <c r="AA87">
-        <v>3.44</v>
+        <v>3.65</v>
       </c>
       <c r="AB87">
-        <v>2.46</v>
+        <v>2.32</v>
       </c>
       <c r="AC87">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AD87">
         <v>10</v>
       </c>
       <c r="AE87">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AF87">
-        <v>3.6</v>
+        <v>4.4</v>
       </c>
       <c r="AG87">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="AH87">
-        <v>1.9</v>
+        <v>2.15</v>
       </c>
       <c r="AI87">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AJ87">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AK87">
-        <v>1.62</v>
+        <v>1.56</v>
       </c>
       <c r="AL87">
         <v>1.28</v>
       </c>
       <c r="AM87">
-        <v>1.35</v>
+        <v>1.46</v>
       </c>
       <c r="AN87">
-        <v>0.33</v>
+        <v>1.33</v>
       </c>
       <c r="AO87">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AP87">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ87">
+        <v>2.25</v>
+      </c>
+      <c r="AR87">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AS87">
+        <v>1.26</v>
+      </c>
+      <c r="AT87">
+        <v>2.07</v>
+      </c>
+      <c r="AU87">
+        <v>4</v>
+      </c>
+      <c r="AV87">
+        <v>5</v>
+      </c>
+      <c r="AW87">
+        <v>6</v>
+      </c>
+      <c r="AX87">
+        <v>2</v>
+      </c>
+      <c r="AY87">
+        <v>10</v>
+      </c>
+      <c r="AZ87">
+        <v>7</v>
+      </c>
+      <c r="BA87">
+        <v>8</v>
+      </c>
+      <c r="BB87">
+        <v>9</v>
+      </c>
+      <c r="BC87">
+        <v>17</v>
+      </c>
+      <c r="BD87">
+        <v>2.05</v>
+      </c>
+      <c r="BE87">
+        <v>6.25</v>
+      </c>
+      <c r="BF87">
+        <v>1.84</v>
+      </c>
+      <c r="BG87">
         <v>1.25</v>
       </c>
-      <c r="AR87">
-        <v>1.23</v>
-      </c>
-      <c r="AS87">
-        <v>1.03</v>
-      </c>
-      <c r="AT87">
-        <v>2.26</v>
-      </c>
-      <c r="AU87">
-        <v>2</v>
-      </c>
-      <c r="AV87">
-        <v>3</v>
-      </c>
-      <c r="AW87">
-        <v>7</v>
-      </c>
-      <c r="AX87">
-        <v>3</v>
-      </c>
-      <c r="AY87">
-        <v>9</v>
-      </c>
-      <c r="AZ87">
-        <v>6</v>
-      </c>
-      <c r="BA87">
-        <v>1</v>
-      </c>
-      <c r="BB87">
-        <v>3</v>
-      </c>
-      <c r="BC87">
-        <v>4</v>
-      </c>
-      <c r="BD87">
-        <v>2.08</v>
-      </c>
-      <c r="BE87">
-        <v>6.4</v>
-      </c>
-      <c r="BF87">
-        <v>1.79</v>
-      </c>
-      <c r="BG87">
-        <v>1.24</v>
-      </c>
       <c r="BH87">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="BI87">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="BJ87">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="BK87">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="BL87">
-        <v>2</v>
+        <v>1.97</v>
       </c>
       <c r="BM87">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="BN87">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="BO87">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="BP87">
-        <v>1.41</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="88" spans="1:68">
@@ -18935,7 +18935,7 @@
         <v>87</v>
       </c>
       <c r="B88">
-        <v>7477890</v>
+        <v>7477904</v>
       </c>
       <c r="C88" t="s">
         <v>68</v>
@@ -18944,16 +18944,16 @@
         <v>69</v>
       </c>
       <c r="E88" s="2">
-        <v>45563.45833333334</v>
+        <v>45566.65625</v>
       </c>
       <c r="F88">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G88" t="s">
         <v>79</v>
       </c>
       <c r="H88" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I88">
         <v>1</v>
@@ -18965,28 +18965,28 @@
         <v>1</v>
       </c>
       <c r="L88">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M88">
         <v>2</v>
       </c>
       <c r="N88">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O88" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="P88" t="s">
         <v>206</v>
       </c>
       <c r="Q88">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="R88">
         <v>2.2</v>
       </c>
       <c r="S88">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="T88">
         <v>1.4</v>
@@ -19007,25 +19007,25 @@
         <v>1.08</v>
       </c>
       <c r="Z88">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="AA88">
-        <v>3.48</v>
+        <v>3.1</v>
       </c>
       <c r="AB88">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AC88">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="AD88">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AE88">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="AF88">
-        <v>3.26</v>
+        <v>3.8</v>
       </c>
       <c r="AG88">
         <v>1.85</v>
@@ -19034,16 +19034,16 @@
         <v>1.85</v>
       </c>
       <c r="AI88">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AJ88">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AK88">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="AL88">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AM88">
         <v>1.4</v>
@@ -19052,58 +19052,58 @@
         <v>2</v>
       </c>
       <c r="AO88">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AP88">
-        <v>1.5</v>
+        <v>2.25</v>
       </c>
       <c r="AQ88">
-        <v>1.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR88">
         <v>1.24</v>
       </c>
       <c r="AS88">
-        <v>1.46</v>
+        <v>0.92</v>
       </c>
       <c r="AT88">
-        <v>2.7</v>
+        <v>2.16</v>
       </c>
       <c r="AU88">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV88">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW88">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX88">
         <v>4</v>
       </c>
       <c r="AY88">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AZ88">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA88">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB88">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BC88">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BD88">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="BE88">
         <v>6.4</v>
       </c>
       <c r="BF88">
-        <v>1.92</v>
+        <v>1.86</v>
       </c>
       <c r="BG88">
         <v>1.24</v>
@@ -19112,25 +19112,25 @@
         <v>3.55</v>
       </c>
       <c r="BI88">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="BJ88">
-        <v>2.55</v>
+        <v>2.63</v>
       </c>
       <c r="BK88">
-        <v>1.72</v>
+        <v>1.68</v>
       </c>
       <c r="BL88">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="BM88">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="BN88">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="BO88">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="BP88">
         <v>1.41</v>
@@ -19141,7 +19141,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>7477889</v>
+        <v>7477901</v>
       </c>
       <c r="C89" t="s">
         <v>68</v>
@@ -19150,49 +19150,49 @@
         <v>69</v>
       </c>
       <c r="E89" s="2">
-        <v>45563.45833333334</v>
+        <v>45566.65625</v>
       </c>
       <c r="F89">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G89" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H89" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="I89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J89">
         <v>0</v>
       </c>
       <c r="K89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M89">
         <v>0</v>
       </c>
       <c r="N89">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O89" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P89" t="s">
         <v>96</v>
       </c>
       <c r="Q89">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="R89">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S89">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="T89">
         <v>1.36</v>
@@ -19213,133 +19213,133 @@
         <v>1.1</v>
       </c>
       <c r="Z89">
+        <v>1.68</v>
+      </c>
+      <c r="AA89">
+        <v>3.85</v>
+      </c>
+      <c r="AB89">
+        <v>5</v>
+      </c>
+      <c r="AC89">
+        <v>1.05</v>
+      </c>
+      <c r="AD89">
+        <v>9.5</v>
+      </c>
+      <c r="AE89">
+        <v>1.25</v>
+      </c>
+      <c r="AF89">
+        <v>3.85</v>
+      </c>
+      <c r="AG89">
+        <v>1.73</v>
+      </c>
+      <c r="AH89">
+        <v>2</v>
+      </c>
+      <c r="AI89">
+        <v>1.67</v>
+      </c>
+      <c r="AJ89">
+        <v>2.1</v>
+      </c>
+      <c r="AK89">
+        <v>1.28</v>
+      </c>
+      <c r="AL89">
+        <v>1.28</v>
+      </c>
+      <c r="AM89">
+        <v>1.82</v>
+      </c>
+      <c r="AN89">
+        <v>2.33</v>
+      </c>
+      <c r="AO89">
         <v>1.5</v>
       </c>
-      <c r="AA89">
-        <v>4.45</v>
-      </c>
-      <c r="AB89">
-        <v>6.1</v>
-      </c>
-      <c r="AC89">
-        <v>1.04</v>
-      </c>
-      <c r="AD89">
-        <v>12</v>
-      </c>
-      <c r="AE89">
-        <v>1.23</v>
-      </c>
-      <c r="AF89">
-        <v>3.34</v>
-      </c>
-      <c r="AG89">
-        <v>1.8</v>
-      </c>
-      <c r="AH89">
-        <v>1.9</v>
-      </c>
-      <c r="AI89">
-        <v>1.91</v>
-      </c>
-      <c r="AJ89">
-        <v>1.91</v>
-      </c>
-      <c r="AK89">
-        <v>1.14</v>
-      </c>
-      <c r="AL89">
-        <v>1.24</v>
-      </c>
-      <c r="AM89">
-        <v>2.38</v>
-      </c>
-      <c r="AN89">
-        <v>1.33</v>
-      </c>
-      <c r="AO89">
-        <v>1</v>
-      </c>
       <c r="AP89">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="AQ89">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR89">
-        <v>1.55</v>
+        <v>1.7</v>
       </c>
       <c r="AS89">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="AT89">
-        <v>2.79</v>
+        <v>2.96</v>
       </c>
       <c r="AU89">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV89">
+        <v>3</v>
+      </c>
+      <c r="AW89">
+        <v>9</v>
+      </c>
+      <c r="AX89">
+        <v>1</v>
+      </c>
+      <c r="AY89">
+        <v>15</v>
+      </c>
+      <c r="AZ89">
         <v>4</v>
       </c>
-      <c r="AW89">
-        <v>6</v>
-      </c>
-      <c r="AX89">
-        <v>6</v>
-      </c>
-      <c r="AY89">
-        <v>13</v>
-      </c>
-      <c r="AZ89">
-        <v>10</v>
-      </c>
       <c r="BA89">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BB89">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="BC89">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="BD89">
-        <v>1.35</v>
+        <v>1.6</v>
       </c>
       <c r="BE89">
         <v>6.75</v>
       </c>
       <c r="BF89">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="BG89">
-        <v>1.34</v>
+        <v>1.21</v>
       </c>
       <c r="BH89">
-        <v>2.8</v>
+        <v>3.8</v>
       </c>
       <c r="BI89">
-        <v>1.58</v>
+        <v>1.38</v>
       </c>
       <c r="BJ89">
-        <v>2.18</v>
+        <v>2.7</v>
       </c>
       <c r="BK89">
-        <v>1.95</v>
+        <v>1.65</v>
       </c>
       <c r="BL89">
-        <v>1.75</v>
+        <v>2.08</v>
       </c>
       <c r="BM89">
-        <v>2.48</v>
+        <v>2</v>
       </c>
       <c r="BN89">
-        <v>1.47</v>
+        <v>1.71</v>
       </c>
       <c r="BO89">
-        <v>3.2</v>
+        <v>2.55</v>
       </c>
       <c r="BP89">
-        <v>1.27</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="90" spans="1:68">
@@ -19347,7 +19347,7 @@
         <v>89</v>
       </c>
       <c r="B90">
-        <v>7477888</v>
+        <v>7477900</v>
       </c>
       <c r="C90" t="s">
         <v>68</v>
@@ -19356,184 +19356,184 @@
         <v>69</v>
       </c>
       <c r="E90" s="2">
-        <v>45563.45833333334</v>
+        <v>45566.65625</v>
       </c>
       <c r="F90">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G90" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H90" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="I90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K90">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L90">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M90">
         <v>2</v>
       </c>
       <c r="N90">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O90" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="P90" t="s">
         <v>207</v>
       </c>
       <c r="Q90">
-        <v>2.05</v>
+        <v>2.75</v>
       </c>
       <c r="R90">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="S90">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="T90">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U90">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V90">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W90">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X90">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y90">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="Z90">
-        <v>1.54</v>
+        <v>2.12</v>
       </c>
       <c r="AA90">
-        <v>4.55</v>
+        <v>3.45</v>
       </c>
       <c r="AB90">
-        <v>5.4</v>
+        <v>3.45</v>
       </c>
       <c r="AC90">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="AD90">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AE90">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="AF90">
-        <v>3.9</v>
+        <v>3.65</v>
       </c>
       <c r="AG90">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="AH90">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AI90">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AJ90">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AK90">
-        <v>1.14</v>
+        <v>1.35</v>
       </c>
       <c r="AL90">
-        <v>1.21</v>
+        <v>1.29</v>
       </c>
       <c r="AM90">
-        <v>2.45</v>
+        <v>1.71</v>
       </c>
       <c r="AN90">
-        <v>2.33</v>
+        <v>1.33</v>
       </c>
       <c r="AO90">
-        <v>2.33</v>
+        <v>1.33</v>
       </c>
       <c r="AP90">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="AQ90">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="AR90">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="AS90">
-        <v>1.82</v>
+        <v>1.46</v>
       </c>
       <c r="AT90">
-        <v>3.52</v>
+        <v>3.17</v>
       </c>
       <c r="AU90">
         <v>5</v>
       </c>
       <c r="AV90">
+        <v>6</v>
+      </c>
+      <c r="AW90">
+        <v>5</v>
+      </c>
+      <c r="AX90">
         <v>4</v>
       </c>
-      <c r="AW90">
-        <v>4</v>
-      </c>
-      <c r="AX90">
-        <v>2</v>
-      </c>
       <c r="AY90">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ90">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BA90">
+        <v>14</v>
+      </c>
+      <c r="BB90">
         <v>7</v>
       </c>
-      <c r="BB90">
-        <v>6</v>
-      </c>
       <c r="BC90">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="BD90">
-        <v>1.45</v>
+        <v>1.73</v>
       </c>
       <c r="BE90">
-        <v>6.75</v>
+        <v>6.5</v>
       </c>
       <c r="BF90">
-        <v>2.8</v>
+        <v>2.18</v>
       </c>
       <c r="BG90">
         <v>1.21</v>
       </c>
       <c r="BH90">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="BI90">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="BJ90">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="BK90">
-        <v>1.64</v>
+        <v>1.62</v>
       </c>
       <c r="BL90">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="BM90">
         <v>1.98</v>
@@ -19542,10 +19542,10 @@
         <v>1.72</v>
       </c>
       <c r="BO90">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="BP90">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="91" spans="1:68">
@@ -19553,7 +19553,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>7477891</v>
+        <v>7477903</v>
       </c>
       <c r="C91" t="s">
         <v>68</v>
@@ -19562,13 +19562,13 @@
         <v>69</v>
       </c>
       <c r="E91" s="2">
-        <v>45563.45833333334</v>
+        <v>45566.65625</v>
       </c>
       <c r="F91">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G91" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H91" t="s">
         <v>89</v>
@@ -19577,154 +19577,154 @@
         <v>0</v>
       </c>
       <c r="J91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M91">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N91">
         <v>2</v>
       </c>
       <c r="O91" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c r="P91" t="s">
-        <v>208</v>
+        <v>171</v>
       </c>
       <c r="Q91">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="R91">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S91">
-        <v>2.88</v>
+        <v>4.5</v>
       </c>
       <c r="T91">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U91">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V91">
+        <v>3</v>
+      </c>
+      <c r="W91">
+        <v>1.36</v>
+      </c>
+      <c r="X91">
+        <v>8</v>
+      </c>
+      <c r="Y91">
+        <v>1.08</v>
+      </c>
+      <c r="Z91">
+        <v>1.93</v>
+      </c>
+      <c r="AA91">
+        <v>3.65</v>
+      </c>
+      <c r="AB91">
+        <v>3.85</v>
+      </c>
+      <c r="AC91">
+        <v>1.01</v>
+      </c>
+      <c r="AD91">
+        <v>8.1</v>
+      </c>
+      <c r="AE91">
+        <v>1.27</v>
+      </c>
+      <c r="AF91">
         <v>3.25</v>
       </c>
-      <c r="W91">
-        <v>1.33</v>
-      </c>
-      <c r="X91">
-        <v>9</v>
-      </c>
-      <c r="Y91">
-        <v>1.07</v>
-      </c>
-      <c r="Z91">
-        <v>3.28</v>
-      </c>
-      <c r="AA91">
-        <v>3.4</v>
-      </c>
-      <c r="AB91">
-        <v>2.19</v>
-      </c>
-      <c r="AC91">
-        <v>1.04</v>
-      </c>
-      <c r="AD91">
-        <v>8.5</v>
-      </c>
-      <c r="AE91">
-        <v>1.33</v>
-      </c>
-      <c r="AF91">
-        <v>3</v>
-      </c>
       <c r="AG91">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="AH91">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="AI91">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AJ91">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AK91">
-        <v>1.7</v>
+        <v>1.24</v>
       </c>
       <c r="AL91">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AM91">
-        <v>1.33</v>
+        <v>1.93</v>
       </c>
       <c r="AN91">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="AO91">
         <v>2.33</v>
       </c>
       <c r="AP91">
-        <v>0.33</v>
+        <v>1.6</v>
       </c>
       <c r="AQ91">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AR91">
-        <v>1.42</v>
+        <v>1.55</v>
       </c>
       <c r="AS91">
         <v>0.92</v>
       </c>
       <c r="AT91">
-        <v>2.34</v>
+        <v>2.47</v>
       </c>
       <c r="AU91">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AV91">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW91">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AX91">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY91">
         <v>10</v>
       </c>
       <c r="AZ91">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BA91">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB91">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BC91">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BD91">
-        <v>2.12</v>
+        <v>1.5</v>
       </c>
       <c r="BE91">
-        <v>6.25</v>
+        <v>6.75</v>
       </c>
       <c r="BF91">
-        <v>1.79</v>
+        <v>2.65</v>
       </c>
       <c r="BG91">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="BH91">
         <v>3.15</v>
@@ -19736,10 +19736,10 @@
         <v>2.33</v>
       </c>
       <c r="BK91">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="BL91">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="BM91">
         <v>2.3</v>
@@ -19748,10 +19748,216 @@
         <v>1.54</v>
       </c>
       <c r="BO91">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="BP91">
-        <v>1.33</v>
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7477916</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45566.66666666666</v>
+      </c>
+      <c r="F92">
+        <v>9</v>
+      </c>
+      <c r="G92" t="s">
+        <v>84</v>
+      </c>
+      <c r="H92" t="s">
+        <v>78</v>
+      </c>
+      <c r="I92">
+        <v>2</v>
+      </c>
+      <c r="J92">
+        <v>0</v>
+      </c>
+      <c r="K92">
+        <v>2</v>
+      </c>
+      <c r="L92">
+        <v>3</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92">
+        <v>4</v>
+      </c>
+      <c r="O92" t="s">
+        <v>159</v>
+      </c>
+      <c r="P92" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q92">
+        <v>2.2</v>
+      </c>
+      <c r="R92">
+        <v>2.4</v>
+      </c>
+      <c r="S92">
+        <v>4.75</v>
+      </c>
+      <c r="T92">
+        <v>1.3</v>
+      </c>
+      <c r="U92">
+        <v>3.4</v>
+      </c>
+      <c r="V92">
+        <v>2.5</v>
+      </c>
+      <c r="W92">
+        <v>1.5</v>
+      </c>
+      <c r="X92">
+        <v>6</v>
+      </c>
+      <c r="Y92">
+        <v>1.13</v>
+      </c>
+      <c r="Z92">
+        <v>1.64</v>
+      </c>
+      <c r="AA92">
+        <v>3.6</v>
+      </c>
+      <c r="AB92">
+        <v>4</v>
+      </c>
+      <c r="AC92">
+        <v>1.02</v>
+      </c>
+      <c r="AD92">
+        <v>13</v>
+      </c>
+      <c r="AE92">
+        <v>1.16</v>
+      </c>
+      <c r="AF92">
+        <v>4.5</v>
+      </c>
+      <c r="AG92">
+        <v>1.61</v>
+      </c>
+      <c r="AH92">
+        <v>2.15</v>
+      </c>
+      <c r="AI92">
+        <v>1.67</v>
+      </c>
+      <c r="AJ92">
+        <v>2.1</v>
+      </c>
+      <c r="AK92">
+        <v>1.22</v>
+      </c>
+      <c r="AL92">
+        <v>1.25</v>
+      </c>
+      <c r="AM92">
+        <v>2.09</v>
+      </c>
+      <c r="AN92">
+        <v>2.25</v>
+      </c>
+      <c r="AO92">
+        <v>0.75</v>
+      </c>
+      <c r="AP92">
+        <v>2.4</v>
+      </c>
+      <c r="AQ92">
+        <v>0.6</v>
+      </c>
+      <c r="AR92">
+        <v>1.41</v>
+      </c>
+      <c r="AS92">
+        <v>1.24</v>
+      </c>
+      <c r="AT92">
+        <v>2.65</v>
+      </c>
+      <c r="AU92">
+        <v>6</v>
+      </c>
+      <c r="AV92">
+        <v>5</v>
+      </c>
+      <c r="AW92">
+        <v>6</v>
+      </c>
+      <c r="AX92">
+        <v>1</v>
+      </c>
+      <c r="AY92">
+        <v>12</v>
+      </c>
+      <c r="AZ92">
+        <v>6</v>
+      </c>
+      <c r="BA92">
+        <v>4</v>
+      </c>
+      <c r="BB92">
+        <v>5</v>
+      </c>
+      <c r="BC92">
+        <v>9</v>
+      </c>
+      <c r="BD92">
+        <v>1.36</v>
+      </c>
+      <c r="BE92">
+        <v>7.7</v>
+      </c>
+      <c r="BF92">
+        <v>4.4</v>
+      </c>
+      <c r="BG92">
+        <v>1.26</v>
+      </c>
+      <c r="BH92">
+        <v>3.08</v>
+      </c>
+      <c r="BI92">
+        <v>1.53</v>
+      </c>
+      <c r="BJ92">
+        <v>2.28</v>
+      </c>
+      <c r="BK92">
+        <v>1.96</v>
+      </c>
+      <c r="BL92">
+        <v>1.79</v>
+      </c>
+      <c r="BM92">
+        <v>2.51</v>
+      </c>
+      <c r="BN92">
+        <v>1.44</v>
+      </c>
+      <c r="BO92">
+        <v>3.35</v>
+      </c>
+      <c r="BP92">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="235">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -508,6 +508,36 @@
     <t>['58', '89']</t>
   </si>
   <si>
+    <t>['5', '90+4']</t>
+  </si>
+  <si>
+    <t>['83', '90+6']</t>
+  </si>
+  <si>
+    <t>['23']</t>
+  </si>
+  <si>
+    <t>['49', '56']</t>
+  </si>
+  <si>
+    <t>['8', '39']</t>
+  </si>
+  <si>
+    <t>['47', '77']</t>
+  </si>
+  <si>
+    <t>['8', '38', '56', '67']</t>
+  </si>
+  <si>
+    <t>['54']</t>
+  </si>
+  <si>
+    <t>['15']</t>
+  </si>
+  <si>
+    <t>['47', '61']</t>
+  </si>
+  <si>
     <t>['13', '18']</t>
   </si>
   <si>
@@ -607,9 +637,6 @@
     <t>['3']</t>
   </si>
   <si>
-    <t>['54']</t>
-  </si>
-  <si>
     <t>['19']</t>
   </si>
   <si>
@@ -680,6 +707,18 @@
   </si>
   <si>
     <t>['47', '85']</t>
+  </si>
+  <si>
+    <t>['64']</t>
+  </si>
+  <si>
+    <t>['26']</t>
+  </si>
+  <si>
+    <t>['52', '59', '90+3']</t>
+  </si>
+  <si>
+    <t>['20', '28']</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1080,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP103"/>
+  <dimension ref="A1:BP115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1300,7 +1339,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1712,7 +1751,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -1996,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ5">
         <v>0</v>
@@ -2124,7 +2163,7 @@
         <v>96</v>
       </c>
       <c r="P6" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2202,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ6">
         <v>1.2</v>
@@ -2330,7 +2369,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2617,7 +2656,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2823,7 +2862,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ9">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2948,7 +2987,7 @@
         <v>101</v>
       </c>
       <c r="P10" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3026,7 +3065,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ10">
         <v>2.2</v>
@@ -3235,7 +3274,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ11">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3360,7 +3399,7 @@
         <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="Q12">
         <v>2.1</v>
@@ -3441,7 +3480,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ12">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3644,7 +3683,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ13">
         <v>1</v>
@@ -3772,7 +3811,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4056,10 +4095,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ15">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4468,10 +4507,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ17">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4596,7 +4635,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4674,10 +4713,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ18">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4802,7 +4841,7 @@
         <v>108</v>
       </c>
       <c r="P19" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="Q19">
         <v>3.25</v>
@@ -5008,7 +5047,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5089,7 +5128,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5214,7 +5253,7 @@
         <v>109</v>
       </c>
       <c r="P21" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5292,10 +5331,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ21">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5420,7 +5459,7 @@
         <v>110</v>
       </c>
       <c r="P22" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -5498,10 +5537,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ22">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5626,7 +5665,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="Q23">
         <v>2.75</v>
@@ -5832,7 +5871,7 @@
         <v>111</v>
       </c>
       <c r="P24" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -5910,7 +5949,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ24">
         <v>0.6</v>
@@ -6322,10 +6361,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ26">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR26">
         <v>1.26</v>
@@ -6528,10 +6567,10 @@
         <v>1</v>
       </c>
       <c r="AP27">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ27">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR27">
         <v>2.06</v>
@@ -6737,7 +6776,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR28">
         <v>0.89</v>
@@ -6940,7 +6979,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ29">
         <v>1</v>
@@ -7149,7 +7188,7 @@
         <v>3</v>
       </c>
       <c r="AQ30">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR30">
         <v>1.43</v>
@@ -7274,7 +7313,7 @@
         <v>116</v>
       </c>
       <c r="P31" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7352,7 +7391,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ31">
         <v>2.25</v>
@@ -7558,10 +7597,10 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ32">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR32">
         <v>1.14</v>
@@ -7686,7 +7725,7 @@
         <v>118</v>
       </c>
       <c r="P33" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -7764,7 +7803,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ33">
         <v>1.4</v>
@@ -7970,7 +8009,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ34">
         <v>2.25</v>
@@ -8098,7 +8137,7 @@
         <v>120</v>
       </c>
       <c r="P35" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="Q35">
         <v>4.5</v>
@@ -8179,7 +8218,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ35">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR35">
         <v>1.53</v>
@@ -8304,7 +8343,7 @@
         <v>121</v>
       </c>
       <c r="P36" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8385,7 +8424,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ36">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR36">
         <v>1.62</v>
@@ -8510,7 +8549,7 @@
         <v>122</v>
       </c>
       <c r="P37" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -8591,7 +8630,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ37">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AR37">
         <v>1.32</v>
@@ -8716,7 +8755,7 @@
         <v>123</v>
       </c>
       <c r="P38" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="Q38">
         <v>2.63</v>
@@ -9000,7 +9039,7 @@
         <v>3</v>
       </c>
       <c r="AP39">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ39">
         <v>1.2</v>
@@ -9209,7 +9248,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ40">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR40">
         <v>1.27</v>
@@ -9746,7 +9785,7 @@
         <v>96</v>
       </c>
       <c r="P43" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="Q43">
         <v>2.63</v>
@@ -9824,7 +9863,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ43">
         <v>1</v>
@@ -9952,7 +9991,7 @@
         <v>127</v>
       </c>
       <c r="P44" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -10030,7 +10069,7 @@
         <v>3</v>
       </c>
       <c r="AP44">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ44">
         <v>1.8</v>
@@ -10158,7 +10197,7 @@
         <v>96</v>
       </c>
       <c r="P45" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="Q45">
         <v>3.6</v>
@@ -10239,7 +10278,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ45">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR45">
         <v>1.22</v>
@@ -10570,7 +10609,7 @@
         <v>96</v>
       </c>
       <c r="P47" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="Q47">
         <v>2.05</v>
@@ -10776,7 +10815,7 @@
         <v>129</v>
       </c>
       <c r="P48" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="Q48">
         <v>1.95</v>
@@ -11188,7 +11227,7 @@
         <v>130</v>
       </c>
       <c r="P50" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="Q50">
         <v>2.3</v>
@@ -11269,7 +11308,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ50">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR50">
         <v>1.65</v>
@@ -11475,7 +11514,7 @@
         <v>3</v>
       </c>
       <c r="AQ51">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR51">
         <v>1.47</v>
@@ -11678,7 +11717,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ52">
         <v>1</v>
@@ -11884,7 +11923,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ53">
         <v>0</v>
@@ -12012,7 +12051,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="Q54">
         <v>3.5</v>
@@ -12218,7 +12257,7 @@
         <v>134</v>
       </c>
       <c r="P55" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="Q55">
         <v>4.5</v>
@@ -12424,7 +12463,7 @@
         <v>135</v>
       </c>
       <c r="P56" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="Q56">
         <v>2.2</v>
@@ -12502,7 +12541,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ56">
         <v>0.6</v>
@@ -12917,7 +12956,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ58">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR58">
         <v>1.23</v>
@@ -13042,7 +13081,7 @@
         <v>137</v>
       </c>
       <c r="P59" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13120,7 +13159,7 @@
         <v>3</v>
       </c>
       <c r="AP59">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ59">
         <v>2.2</v>
@@ -13248,7 +13287,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -13454,7 +13493,7 @@
         <v>96</v>
       </c>
       <c r="P61" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -13535,7 +13574,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ61">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR61">
         <v>1.57</v>
@@ -13866,7 +13905,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="Q63">
         <v>2.88</v>
@@ -14072,7 +14111,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="Q64">
         <v>2.5</v>
@@ -14356,7 +14395,7 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ65">
         <v>1</v>
@@ -14562,10 +14601,10 @@
         <v>0.5</v>
       </c>
       <c r="AP66">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ66">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR66">
         <v>1.55</v>
@@ -14690,7 +14729,7 @@
         <v>141</v>
       </c>
       <c r="P67" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="Q67">
         <v>1.95</v>
@@ -14771,7 +14810,7 @@
         <v>3</v>
       </c>
       <c r="AQ67">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR67">
         <v>1.51</v>
@@ -14896,7 +14935,7 @@
         <v>142</v>
       </c>
       <c r="P68" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="Q68">
         <v>2.2</v>
@@ -14974,7 +15013,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AQ68">
         <v>0</v>
@@ -15102,7 +15141,7 @@
         <v>96</v>
       </c>
       <c r="P69" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="Q69">
         <v>3.75</v>
@@ -15180,10 +15219,10 @@
         <v>3</v>
       </c>
       <c r="AP69">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ69">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AR69">
         <v>1.79</v>
@@ -15308,7 +15347,7 @@
         <v>143</v>
       </c>
       <c r="P70" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="Q70">
         <v>2.05</v>
@@ -15386,10 +15425,10 @@
         <v>0.33</v>
       </c>
       <c r="AP70">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ70">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR70">
         <v>0.98</v>
@@ -15514,7 +15553,7 @@
         <v>144</v>
       </c>
       <c r="P71" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -15592,10 +15631,10 @@
         <v>0</v>
       </c>
       <c r="AP71">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ71">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="AR71">
         <v>1.39</v>
@@ -15720,7 +15759,7 @@
         <v>145</v>
       </c>
       <c r="P72" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="Q72">
         <v>1.83</v>
@@ -15798,10 +15837,10 @@
         <v>0.5</v>
       </c>
       <c r="AP72">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ72">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR72">
         <v>1.27</v>
@@ -15926,7 +15965,7 @@
         <v>146</v>
       </c>
       <c r="P73" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="Q73">
         <v>2.4</v>
@@ -16004,10 +16043,10 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ73">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AR73">
         <v>1.92</v>
@@ -16132,7 +16171,7 @@
         <v>147</v>
       </c>
       <c r="P74" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="Q74">
         <v>4.33</v>
@@ -16210,10 +16249,10 @@
         <v>2</v>
       </c>
       <c r="AP74">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AQ74">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR74">
         <v>0.86</v>
@@ -16338,7 +16377,7 @@
         <v>148</v>
       </c>
       <c r="P75" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -16419,7 +16458,7 @@
         <v>1</v>
       </c>
       <c r="AQ75">
-        <v>0.33</v>
+        <v>0.25</v>
       </c>
       <c r="AR75">
         <v>1.34</v>
@@ -16544,7 +16583,7 @@
         <v>149</v>
       </c>
       <c r="P76" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="Q76">
         <v>3.1</v>
@@ -16622,10 +16661,10 @@
         <v>0.5</v>
       </c>
       <c r="AP76">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ76">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR76">
         <v>1.19</v>
@@ -16750,7 +16789,7 @@
         <v>150</v>
       </c>
       <c r="P77" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="Q77">
         <v>3.15</v>
@@ -17037,7 +17076,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ78">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR78">
         <v>0.73</v>
@@ -17162,7 +17201,7 @@
         <v>96</v>
       </c>
       <c r="P79" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="Q79">
         <v>2.4</v>
@@ -17240,10 +17279,10 @@
         <v>1.33</v>
       </c>
       <c r="AP79">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="AQ79">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR79">
         <v>1.35</v>
@@ -17368,7 +17407,7 @@
         <v>96</v>
       </c>
       <c r="P80" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="Q80">
         <v>4.33</v>
@@ -18398,7 +18437,7 @@
         <v>96</v>
       </c>
       <c r="P85" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="Q85">
         <v>3.4</v>
@@ -18810,7 +18849,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="Q87">
         <v>3.4</v>
@@ -19222,7 +19261,7 @@
         <v>155</v>
       </c>
       <c r="P89" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="Q89">
         <v>2.05</v>
@@ -19428,7 +19467,7 @@
         <v>96</v>
       </c>
       <c r="P90" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -19634,7 +19673,7 @@
         <v>118</v>
       </c>
       <c r="P91" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -19840,7 +19879,7 @@
         <v>96</v>
       </c>
       <c r="P92" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="Q92">
         <v>4.5</v>
@@ -20046,7 +20085,7 @@
         <v>156</v>
       </c>
       <c r="P93" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="Q93">
         <v>2.2</v>
@@ -20458,7 +20497,7 @@
         <v>96</v>
       </c>
       <c r="P95" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="Q95">
         <v>3.2</v>
@@ -20664,7 +20703,7 @@
         <v>158</v>
       </c>
       <c r="P96" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="Q96">
         <v>4.75</v>
@@ -20870,7 +20909,7 @@
         <v>96</v>
       </c>
       <c r="P97" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="Q97">
         <v>2.75</v>
@@ -21282,7 +21321,7 @@
         <v>160</v>
       </c>
       <c r="P99" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="Q99">
         <v>3.6</v>
@@ -21488,7 +21527,7 @@
         <v>161</v>
       </c>
       <c r="P100" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="Q100">
         <v>2.5</v>
@@ -21900,7 +21939,7 @@
         <v>163</v>
       </c>
       <c r="P102" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="Q102">
         <v>2.75</v>
@@ -22263,6 +22302,2478 @@
       </c>
       <c r="BP103">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="104" spans="1:68">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>7477928</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" t="s">
+        <v>69</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45569.875</v>
+      </c>
+      <c r="F104">
+        <v>10</v>
+      </c>
+      <c r="G104" t="s">
+        <v>74</v>
+      </c>
+      <c r="H104" t="s">
+        <v>76</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="L104">
+        <v>2</v>
+      </c>
+      <c r="M104">
+        <v>1</v>
+      </c>
+      <c r="N104">
+        <v>3</v>
+      </c>
+      <c r="O104" t="s">
+        <v>164</v>
+      </c>
+      <c r="P104" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q104">
+        <v>2.63</v>
+      </c>
+      <c r="R104">
+        <v>2.2</v>
+      </c>
+      <c r="S104">
+        <v>4</v>
+      </c>
+      <c r="T104">
+        <v>1.36</v>
+      </c>
+      <c r="U104">
+        <v>3</v>
+      </c>
+      <c r="V104">
+        <v>2.75</v>
+      </c>
+      <c r="W104">
+        <v>1.4</v>
+      </c>
+      <c r="X104">
+        <v>7</v>
+      </c>
+      <c r="Y104">
+        <v>1.1</v>
+      </c>
+      <c r="Z104">
+        <v>2.15</v>
+      </c>
+      <c r="AA104">
+        <v>3.5</v>
+      </c>
+      <c r="AB104">
+        <v>3.3</v>
+      </c>
+      <c r="AC104">
+        <v>1.02</v>
+      </c>
+      <c r="AD104">
+        <v>10</v>
+      </c>
+      <c r="AE104">
+        <v>1.22</v>
+      </c>
+      <c r="AF104">
+        <v>3.8</v>
+      </c>
+      <c r="AG104">
+        <v>1.84</v>
+      </c>
+      <c r="AH104">
+        <v>1.94</v>
+      </c>
+      <c r="AI104">
+        <v>1.7</v>
+      </c>
+      <c r="AJ104">
+        <v>2.05</v>
+      </c>
+      <c r="AK104">
+        <v>1.28</v>
+      </c>
+      <c r="AL104">
+        <v>1.25</v>
+      </c>
+      <c r="AM104">
+        <v>1.77</v>
+      </c>
+      <c r="AN104">
+        <v>1</v>
+      </c>
+      <c r="AO104">
+        <v>0.5</v>
+      </c>
+      <c r="AP104">
+        <v>1.4</v>
+      </c>
+      <c r="AQ104">
+        <v>0.4</v>
+      </c>
+      <c r="AR104">
+        <v>1.16</v>
+      </c>
+      <c r="AS104">
+        <v>0.99</v>
+      </c>
+      <c r="AT104">
+        <v>2.15</v>
+      </c>
+      <c r="AU104">
+        <v>-1</v>
+      </c>
+      <c r="AV104">
+        <v>-1</v>
+      </c>
+      <c r="AW104">
+        <v>-1</v>
+      </c>
+      <c r="AX104">
+        <v>-1</v>
+      </c>
+      <c r="AY104">
+        <v>-1</v>
+      </c>
+      <c r="AZ104">
+        <v>-1</v>
+      </c>
+      <c r="BA104">
+        <v>-1</v>
+      </c>
+      <c r="BB104">
+        <v>-1</v>
+      </c>
+      <c r="BC104">
+        <v>-1</v>
+      </c>
+      <c r="BD104">
+        <v>1.58</v>
+      </c>
+      <c r="BE104">
+        <v>6.4</v>
+      </c>
+      <c r="BF104">
+        <v>2.45</v>
+      </c>
+      <c r="BG104">
+        <v>1.22</v>
+      </c>
+      <c r="BH104">
+        <v>3.65</v>
+      </c>
+      <c r="BI104">
+        <v>1.41</v>
+      </c>
+      <c r="BJ104">
+        <v>2.65</v>
+      </c>
+      <c r="BK104">
+        <v>1.66</v>
+      </c>
+      <c r="BL104">
+        <v>2.07</v>
+      </c>
+      <c r="BM104">
+        <v>2.06</v>
+      </c>
+      <c r="BN104">
+        <v>1.66</v>
+      </c>
+      <c r="BO104">
+        <v>2.55</v>
+      </c>
+      <c r="BP104">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="105" spans="1:68">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>7477923</v>
+      </c>
+      <c r="C105" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" t="s">
+        <v>69</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45569.875</v>
+      </c>
+      <c r="F105">
+        <v>10</v>
+      </c>
+      <c r="G105" t="s">
+        <v>90</v>
+      </c>
+      <c r="H105" t="s">
+        <v>70</v>
+      </c>
+      <c r="I105">
+        <v>0</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>2</v>
+      </c>
+      <c r="M105">
+        <v>0</v>
+      </c>
+      <c r="N105">
+        <v>2</v>
+      </c>
+      <c r="O105" t="s">
+        <v>165</v>
+      </c>
+      <c r="P105" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q105">
+        <v>2.6</v>
+      </c>
+      <c r="R105">
+        <v>2.3</v>
+      </c>
+      <c r="S105">
+        <v>3.75</v>
+      </c>
+      <c r="T105">
+        <v>1.33</v>
+      </c>
+      <c r="U105">
+        <v>3.25</v>
+      </c>
+      <c r="V105">
+        <v>2.5</v>
+      </c>
+      <c r="W105">
+        <v>1.5</v>
+      </c>
+      <c r="X105">
+        <v>6.5</v>
+      </c>
+      <c r="Y105">
+        <v>1.11</v>
+      </c>
+      <c r="Z105">
+        <v>2</v>
+      </c>
+      <c r="AA105">
+        <v>3.6</v>
+      </c>
+      <c r="AB105">
+        <v>3.7</v>
+      </c>
+      <c r="AC105">
+        <v>1.01</v>
+      </c>
+      <c r="AD105">
+        <v>11</v>
+      </c>
+      <c r="AE105">
+        <v>1.17</v>
+      </c>
+      <c r="AF105">
+        <v>3.85</v>
+      </c>
+      <c r="AG105">
+        <v>1.7</v>
+      </c>
+      <c r="AH105">
+        <v>2.05</v>
+      </c>
+      <c r="AI105">
+        <v>1.62</v>
+      </c>
+      <c r="AJ105">
+        <v>2.2</v>
+      </c>
+      <c r="AK105">
+        <v>1.31</v>
+      </c>
+      <c r="AL105">
+        <v>1.28</v>
+      </c>
+      <c r="AM105">
+        <v>1.79</v>
+      </c>
+      <c r="AN105">
+        <v>1.5</v>
+      </c>
+      <c r="AO105">
+        <v>2.25</v>
+      </c>
+      <c r="AP105">
+        <v>1.8</v>
+      </c>
+      <c r="AQ105">
+        <v>1.8</v>
+      </c>
+      <c r="AR105">
+        <v>1.27</v>
+      </c>
+      <c r="AS105">
+        <v>1.13</v>
+      </c>
+      <c r="AT105">
+        <v>2.4</v>
+      </c>
+      <c r="AU105">
+        <v>-1</v>
+      </c>
+      <c r="AV105">
+        <v>-1</v>
+      </c>
+      <c r="AW105">
+        <v>-1</v>
+      </c>
+      <c r="AX105">
+        <v>-1</v>
+      </c>
+      <c r="AY105">
+        <v>-1</v>
+      </c>
+      <c r="AZ105">
+        <v>-1</v>
+      </c>
+      <c r="BA105">
+        <v>-1</v>
+      </c>
+      <c r="BB105">
+        <v>-1</v>
+      </c>
+      <c r="BC105">
+        <v>-1</v>
+      </c>
+      <c r="BD105">
+        <v>1.57</v>
+      </c>
+      <c r="BE105">
+        <v>6.5</v>
+      </c>
+      <c r="BF105">
+        <v>2.48</v>
+      </c>
+      <c r="BG105">
+        <v>1.21</v>
+      </c>
+      <c r="BH105">
+        <v>3.8</v>
+      </c>
+      <c r="BI105">
+        <v>1.36</v>
+      </c>
+      <c r="BJ105">
+        <v>2.8</v>
+      </c>
+      <c r="BK105">
+        <v>1.6</v>
+      </c>
+      <c r="BL105">
+        <v>2.17</v>
+      </c>
+      <c r="BM105">
+        <v>1.96</v>
+      </c>
+      <c r="BN105">
+        <v>1.74</v>
+      </c>
+      <c r="BO105">
+        <v>2.45</v>
+      </c>
+      <c r="BP105">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="106" spans="1:68">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>7477934</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45570.45833333334</v>
+      </c>
+      <c r="F106">
+        <v>10</v>
+      </c>
+      <c r="G106" t="s">
+        <v>86</v>
+      </c>
+      <c r="H106" t="s">
+        <v>77</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106">
+        <v>1</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>1</v>
+      </c>
+      <c r="O106" t="s">
+        <v>166</v>
+      </c>
+      <c r="P106" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q106">
+        <v>2.2</v>
+      </c>
+      <c r="R106">
+        <v>2.3</v>
+      </c>
+      <c r="S106">
+        <v>5</v>
+      </c>
+      <c r="T106">
+        <v>1.33</v>
+      </c>
+      <c r="U106">
+        <v>3.25</v>
+      </c>
+      <c r="V106">
+        <v>2.63</v>
+      </c>
+      <c r="W106">
+        <v>1.44</v>
+      </c>
+      <c r="X106">
+        <v>6.5</v>
+      </c>
+      <c r="Y106">
+        <v>1.11</v>
+      </c>
+      <c r="Z106">
+        <v>1.65</v>
+      </c>
+      <c r="AA106">
+        <v>3.9</v>
+      </c>
+      <c r="AB106">
+        <v>5.5</v>
+      </c>
+      <c r="AC106">
+        <v>1.04</v>
+      </c>
+      <c r="AD106">
+        <v>10</v>
+      </c>
+      <c r="AE106">
+        <v>1.16</v>
+      </c>
+      <c r="AF106">
+        <v>3.94</v>
+      </c>
+      <c r="AG106">
+        <v>1.74</v>
+      </c>
+      <c r="AH106">
+        <v>2</v>
+      </c>
+      <c r="AI106">
+        <v>1.8</v>
+      </c>
+      <c r="AJ106">
+        <v>1.95</v>
+      </c>
+      <c r="AK106">
+        <v>1.16</v>
+      </c>
+      <c r="AL106">
+        <v>1.23</v>
+      </c>
+      <c r="AM106">
+        <v>2.31</v>
+      </c>
+      <c r="AN106">
+        <v>2</v>
+      </c>
+      <c r="AO106">
+        <v>1</v>
+      </c>
+      <c r="AP106">
+        <v>2.25</v>
+      </c>
+      <c r="AQ106">
+        <v>0.75</v>
+      </c>
+      <c r="AR106">
+        <v>1.39</v>
+      </c>
+      <c r="AS106">
+        <v>1.5</v>
+      </c>
+      <c r="AT106">
+        <v>2.89</v>
+      </c>
+      <c r="AU106">
+        <v>5</v>
+      </c>
+      <c r="AV106">
+        <v>4</v>
+      </c>
+      <c r="AW106">
+        <v>3</v>
+      </c>
+      <c r="AX106">
+        <v>3</v>
+      </c>
+      <c r="AY106">
+        <v>10</v>
+      </c>
+      <c r="AZ106">
+        <v>9</v>
+      </c>
+      <c r="BA106">
+        <v>6</v>
+      </c>
+      <c r="BB106">
+        <v>2</v>
+      </c>
+      <c r="BC106">
+        <v>8</v>
+      </c>
+      <c r="BD106">
+        <v>1.55</v>
+      </c>
+      <c r="BE106">
+        <v>8.5</v>
+      </c>
+      <c r="BF106">
+        <v>2.91</v>
+      </c>
+      <c r="BG106">
+        <v>1.21</v>
+      </c>
+      <c r="BH106">
+        <v>3.8</v>
+      </c>
+      <c r="BI106">
+        <v>1.37</v>
+      </c>
+      <c r="BJ106">
+        <v>2.8</v>
+      </c>
+      <c r="BK106">
+        <v>1.61</v>
+      </c>
+      <c r="BL106">
+        <v>2.15</v>
+      </c>
+      <c r="BM106">
+        <v>1.98</v>
+      </c>
+      <c r="BN106">
+        <v>1.82</v>
+      </c>
+      <c r="BO106">
+        <v>2.48</v>
+      </c>
+      <c r="BP106">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="107" spans="1:68">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>7477931</v>
+      </c>
+      <c r="C107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45570.45833333334</v>
+      </c>
+      <c r="F107">
+        <v>10</v>
+      </c>
+      <c r="G107" t="s">
+        <v>73</v>
+      </c>
+      <c r="H107" t="s">
+        <v>72</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>0</v>
+      </c>
+      <c r="O107" t="s">
+        <v>96</v>
+      </c>
+      <c r="P107" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q107">
+        <v>2.38</v>
+      </c>
+      <c r="R107">
+        <v>2.2</v>
+      </c>
+      <c r="S107">
+        <v>5</v>
+      </c>
+      <c r="T107">
+        <v>1.4</v>
+      </c>
+      <c r="U107">
+        <v>2.75</v>
+      </c>
+      <c r="V107">
+        <v>2.75</v>
+      </c>
+      <c r="W107">
+        <v>1.4</v>
+      </c>
+      <c r="X107">
+        <v>8</v>
+      </c>
+      <c r="Y107">
+        <v>1.08</v>
+      </c>
+      <c r="Z107">
+        <v>1.8</v>
+      </c>
+      <c r="AA107">
+        <v>3.6</v>
+      </c>
+      <c r="AB107">
+        <v>4.6</v>
+      </c>
+      <c r="AC107">
+        <v>1.05</v>
+      </c>
+      <c r="AD107">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE107">
+        <v>1.26</v>
+      </c>
+      <c r="AF107">
+        <v>3.14</v>
+      </c>
+      <c r="AG107">
+        <v>1.94</v>
+      </c>
+      <c r="AH107">
+        <v>1.84</v>
+      </c>
+      <c r="AI107">
+        <v>1.91</v>
+      </c>
+      <c r="AJ107">
+        <v>1.91</v>
+      </c>
+      <c r="AK107">
+        <v>1.23</v>
+      </c>
+      <c r="AL107">
+        <v>1.28</v>
+      </c>
+      <c r="AM107">
+        <v>1.96</v>
+      </c>
+      <c r="AN107">
+        <v>2</v>
+      </c>
+      <c r="AO107">
+        <v>1</v>
+      </c>
+      <c r="AP107">
+        <v>1.75</v>
+      </c>
+      <c r="AQ107">
+        <v>1</v>
+      </c>
+      <c r="AR107">
+        <v>1.76</v>
+      </c>
+      <c r="AS107">
+        <v>1.23</v>
+      </c>
+      <c r="AT107">
+        <v>2.99</v>
+      </c>
+      <c r="AU107">
+        <v>5</v>
+      </c>
+      <c r="AV107">
+        <v>2</v>
+      </c>
+      <c r="AW107">
+        <v>3</v>
+      </c>
+      <c r="AX107">
+        <v>3</v>
+      </c>
+      <c r="AY107">
+        <v>14</v>
+      </c>
+      <c r="AZ107">
+        <v>5</v>
+      </c>
+      <c r="BA107">
+        <v>3</v>
+      </c>
+      <c r="BB107">
+        <v>2</v>
+      </c>
+      <c r="BC107">
+        <v>5</v>
+      </c>
+      <c r="BD107">
+        <v>1.37</v>
+      </c>
+      <c r="BE107">
+        <v>8.5</v>
+      </c>
+      <c r="BF107">
+        <v>3.86</v>
+      </c>
+      <c r="BG107">
+        <v>1.38</v>
+      </c>
+      <c r="BH107">
+        <v>2.75</v>
+      </c>
+      <c r="BI107">
+        <v>1.54</v>
+      </c>
+      <c r="BJ107">
+        <v>2.25</v>
+      </c>
+      <c r="BK107">
+        <v>2</v>
+      </c>
+      <c r="BL107">
+        <v>1.8</v>
+      </c>
+      <c r="BM107">
+        <v>2.63</v>
+      </c>
+      <c r="BN107">
+        <v>1.43</v>
+      </c>
+      <c r="BO107">
+        <v>3.4</v>
+      </c>
+      <c r="BP107">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="108" spans="1:68">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>7477929</v>
+      </c>
+      <c r="C108" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" t="s">
+        <v>69</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45570.45833333334</v>
+      </c>
+      <c r="F108">
+        <v>10</v>
+      </c>
+      <c r="G108" t="s">
+        <v>85</v>
+      </c>
+      <c r="H108" t="s">
+        <v>84</v>
+      </c>
+      <c r="I108">
+        <v>0</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="L108">
+        <v>2</v>
+      </c>
+      <c r="M108">
+        <v>1</v>
+      </c>
+      <c r="N108">
+        <v>3</v>
+      </c>
+      <c r="O108" t="s">
+        <v>167</v>
+      </c>
+      <c r="P108" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q108">
+        <v>2.63</v>
+      </c>
+      <c r="R108">
+        <v>2.2</v>
+      </c>
+      <c r="S108">
+        <v>4</v>
+      </c>
+      <c r="T108">
+        <v>1.4</v>
+      </c>
+      <c r="U108">
+        <v>2.75</v>
+      </c>
+      <c r="V108">
+        <v>2.75</v>
+      </c>
+      <c r="W108">
+        <v>1.4</v>
+      </c>
+      <c r="X108">
+        <v>8</v>
+      </c>
+      <c r="Y108">
+        <v>1.08</v>
+      </c>
+      <c r="Z108">
+        <v>2.05</v>
+      </c>
+      <c r="AA108">
+        <v>3.4</v>
+      </c>
+      <c r="AB108">
+        <v>3.6</v>
+      </c>
+      <c r="AC108">
+        <v>1.02</v>
+      </c>
+      <c r="AD108">
+        <v>10</v>
+      </c>
+      <c r="AE108">
+        <v>1.22</v>
+      </c>
+      <c r="AF108">
+        <v>3.8</v>
+      </c>
+      <c r="AG108">
+        <v>1.87</v>
+      </c>
+      <c r="AH108">
+        <v>1.9</v>
+      </c>
+      <c r="AI108">
+        <v>1.75</v>
+      </c>
+      <c r="AJ108">
+        <v>2</v>
+      </c>
+      <c r="AK108">
+        <v>1.32</v>
+      </c>
+      <c r="AL108">
+        <v>1.28</v>
+      </c>
+      <c r="AM108">
+        <v>1.76</v>
+      </c>
+      <c r="AN108">
+        <v>1.25</v>
+      </c>
+      <c r="AO108">
+        <v>0.33</v>
+      </c>
+      <c r="AP108">
+        <v>1.6</v>
+      </c>
+      <c r="AQ108">
+        <v>0.25</v>
+      </c>
+      <c r="AR108">
+        <v>1.55</v>
+      </c>
+      <c r="AS108">
+        <v>1.29</v>
+      </c>
+      <c r="AT108">
+        <v>2.84</v>
+      </c>
+      <c r="AU108">
+        <v>7</v>
+      </c>
+      <c r="AV108">
+        <v>3</v>
+      </c>
+      <c r="AW108">
+        <v>5</v>
+      </c>
+      <c r="AX108">
+        <v>5</v>
+      </c>
+      <c r="AY108">
+        <v>18</v>
+      </c>
+      <c r="AZ108">
+        <v>12</v>
+      </c>
+      <c r="BA108">
+        <v>9</v>
+      </c>
+      <c r="BB108">
+        <v>5</v>
+      </c>
+      <c r="BC108">
+        <v>14</v>
+      </c>
+      <c r="BD108">
+        <v>1.82</v>
+      </c>
+      <c r="BE108">
+        <v>8.5</v>
+      </c>
+      <c r="BF108">
+        <v>2.32</v>
+      </c>
+      <c r="BG108">
+        <v>1.24</v>
+      </c>
+      <c r="BH108">
+        <v>3.55</v>
+      </c>
+      <c r="BI108">
+        <v>1.41</v>
+      </c>
+      <c r="BJ108">
+        <v>2.63</v>
+      </c>
+      <c r="BK108">
+        <v>1.68</v>
+      </c>
+      <c r="BL108">
+        <v>2.04</v>
+      </c>
+      <c r="BM108">
+        <v>1.95</v>
+      </c>
+      <c r="BN108">
+        <v>1.77</v>
+      </c>
+      <c r="BO108">
+        <v>2.65</v>
+      </c>
+      <c r="BP108">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="109" spans="1:68">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>7477926</v>
+      </c>
+      <c r="C109" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" t="s">
+        <v>69</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45570.45833333334</v>
+      </c>
+      <c r="F109">
+        <v>10</v>
+      </c>
+      <c r="G109" t="s">
+        <v>92</v>
+      </c>
+      <c r="H109" t="s">
+        <v>91</v>
+      </c>
+      <c r="I109">
+        <v>2</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>2</v>
+      </c>
+      <c r="L109">
+        <v>2</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>2</v>
+      </c>
+      <c r="O109" t="s">
+        <v>168</v>
+      </c>
+      <c r="P109" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q109">
+        <v>3.2</v>
+      </c>
+      <c r="R109">
+        <v>2.25</v>
+      </c>
+      <c r="S109">
+        <v>3.1</v>
+      </c>
+      <c r="T109">
+        <v>1.33</v>
+      </c>
+      <c r="U109">
+        <v>3.25</v>
+      </c>
+      <c r="V109">
+        <v>2.63</v>
+      </c>
+      <c r="W109">
+        <v>1.44</v>
+      </c>
+      <c r="X109">
+        <v>6.5</v>
+      </c>
+      <c r="Y109">
+        <v>1.11</v>
+      </c>
+      <c r="Z109">
+        <v>2.6</v>
+      </c>
+      <c r="AA109">
+        <v>3.5</v>
+      </c>
+      <c r="AB109">
+        <v>2.6</v>
+      </c>
+      <c r="AC109">
+        <v>1.01</v>
+      </c>
+      <c r="AD109">
+        <v>11</v>
+      </c>
+      <c r="AE109">
+        <v>1.2</v>
+      </c>
+      <c r="AF109">
+        <v>4</v>
+      </c>
+      <c r="AG109">
+        <v>1.61</v>
+      </c>
+      <c r="AH109">
+        <v>2.2</v>
+      </c>
+      <c r="AI109">
+        <v>1.57</v>
+      </c>
+      <c r="AJ109">
+        <v>2.25</v>
+      </c>
+      <c r="AK109">
+        <v>1.5</v>
+      </c>
+      <c r="AL109">
+        <v>1.25</v>
+      </c>
+      <c r="AM109">
+        <v>1.45</v>
+      </c>
+      <c r="AN109">
+        <v>2</v>
+      </c>
+      <c r="AO109">
+        <v>1.75</v>
+      </c>
+      <c r="AP109">
+        <v>2.2</v>
+      </c>
+      <c r="AQ109">
+        <v>1.4</v>
+      </c>
+      <c r="AR109">
+        <v>1.42</v>
+      </c>
+      <c r="AS109">
+        <v>1.37</v>
+      </c>
+      <c r="AT109">
+        <v>2.79</v>
+      </c>
+      <c r="AU109">
+        <v>4</v>
+      </c>
+      <c r="AV109">
+        <v>3</v>
+      </c>
+      <c r="AW109">
+        <v>2</v>
+      </c>
+      <c r="AX109">
+        <v>5</v>
+      </c>
+      <c r="AY109">
+        <v>7</v>
+      </c>
+      <c r="AZ109">
+        <v>10</v>
+      </c>
+      <c r="BA109">
+        <v>10</v>
+      </c>
+      <c r="BB109">
+        <v>3</v>
+      </c>
+      <c r="BC109">
+        <v>13</v>
+      </c>
+      <c r="BD109">
+        <v>1.93</v>
+      </c>
+      <c r="BE109">
+        <v>6.4</v>
+      </c>
+      <c r="BF109">
+        <v>1.95</v>
+      </c>
+      <c r="BG109">
+        <v>1.26</v>
+      </c>
+      <c r="BH109">
+        <v>3.4</v>
+      </c>
+      <c r="BI109">
+        <v>1.46</v>
+      </c>
+      <c r="BJ109">
+        <v>2.5</v>
+      </c>
+      <c r="BK109">
+        <v>1.74</v>
+      </c>
+      <c r="BL109">
+        <v>1.96</v>
+      </c>
+      <c r="BM109">
+        <v>2.17</v>
+      </c>
+      <c r="BN109">
+        <v>1.6</v>
+      </c>
+      <c r="BO109">
+        <v>2.8</v>
+      </c>
+      <c r="BP109">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="110" spans="1:68">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>7477925</v>
+      </c>
+      <c r="C110" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45570.45833333334</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110" t="s">
+        <v>89</v>
+      </c>
+      <c r="H110" t="s">
+        <v>75</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>2</v>
+      </c>
+      <c r="M110">
+        <v>1</v>
+      </c>
+      <c r="N110">
+        <v>3</v>
+      </c>
+      <c r="O110" t="s">
+        <v>169</v>
+      </c>
+      <c r="P110" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q110">
+        <v>2.75</v>
+      </c>
+      <c r="R110">
+        <v>2.05</v>
+      </c>
+      <c r="S110">
+        <v>4.33</v>
+      </c>
+      <c r="T110">
+        <v>1.44</v>
+      </c>
+      <c r="U110">
+        <v>2.63</v>
+      </c>
+      <c r="V110">
+        <v>3.25</v>
+      </c>
+      <c r="W110">
+        <v>1.33</v>
+      </c>
+      <c r="X110">
+        <v>10</v>
+      </c>
+      <c r="Y110">
+        <v>1.06</v>
+      </c>
+      <c r="Z110">
+        <v>2.05</v>
+      </c>
+      <c r="AA110">
+        <v>3.3</v>
+      </c>
+      <c r="AB110">
+        <v>3.75</v>
+      </c>
+      <c r="AC110">
+        <v>1.05</v>
+      </c>
+      <c r="AD110">
+        <v>8</v>
+      </c>
+      <c r="AE110">
+        <v>1.3</v>
+      </c>
+      <c r="AF110">
+        <v>3.2</v>
+      </c>
+      <c r="AG110">
+        <v>2.13</v>
+      </c>
+      <c r="AH110">
+        <v>1.65</v>
+      </c>
+      <c r="AI110">
+        <v>1.95</v>
+      </c>
+      <c r="AJ110">
+        <v>1.8</v>
+      </c>
+      <c r="AK110">
+        <v>1.25</v>
+      </c>
+      <c r="AL110">
+        <v>1.25</v>
+      </c>
+      <c r="AM110">
+        <v>1.77</v>
+      </c>
+      <c r="AN110">
+        <v>1.33</v>
+      </c>
+      <c r="AO110">
+        <v>1.5</v>
+      </c>
+      <c r="AP110">
+        <v>1.75</v>
+      </c>
+      <c r="AQ110">
+        <v>1.2</v>
+      </c>
+      <c r="AR110">
+        <v>1.52</v>
+      </c>
+      <c r="AS110">
+        <v>1.02</v>
+      </c>
+      <c r="AT110">
+        <v>2.54</v>
+      </c>
+      <c r="AU110">
+        <v>4</v>
+      </c>
+      <c r="AV110">
+        <v>5</v>
+      </c>
+      <c r="AW110">
+        <v>5</v>
+      </c>
+      <c r="AX110">
+        <v>3</v>
+      </c>
+      <c r="AY110">
+        <v>11</v>
+      </c>
+      <c r="AZ110">
+        <v>12</v>
+      </c>
+      <c r="BA110">
+        <v>3</v>
+      </c>
+      <c r="BB110">
+        <v>6</v>
+      </c>
+      <c r="BC110">
+        <v>9</v>
+      </c>
+      <c r="BD110">
+        <v>1.65</v>
+      </c>
+      <c r="BE110">
+        <v>6.25</v>
+      </c>
+      <c r="BF110">
+        <v>2.33</v>
+      </c>
+      <c r="BG110">
+        <v>1.32</v>
+      </c>
+      <c r="BH110">
+        <v>3.05</v>
+      </c>
+      <c r="BI110">
+        <v>1.54</v>
+      </c>
+      <c r="BJ110">
+        <v>2.28</v>
+      </c>
+      <c r="BK110">
+        <v>1.89</v>
+      </c>
+      <c r="BL110">
+        <v>1.8</v>
+      </c>
+      <c r="BM110">
+        <v>2.38</v>
+      </c>
+      <c r="BN110">
+        <v>1.5</v>
+      </c>
+      <c r="BO110">
+        <v>3.05</v>
+      </c>
+      <c r="BP110">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="111" spans="1:68">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>7477932</v>
+      </c>
+      <c r="C111" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" t="s">
+        <v>69</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45570.45833333334</v>
+      </c>
+      <c r="F111">
+        <v>10</v>
+      </c>
+      <c r="G111" t="s">
+        <v>71</v>
+      </c>
+      <c r="H111" t="s">
+        <v>87</v>
+      </c>
+      <c r="I111">
+        <v>2</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111">
+        <v>3</v>
+      </c>
+      <c r="L111">
+        <v>4</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="N111">
+        <v>5</v>
+      </c>
+      <c r="O111" t="s">
+        <v>170</v>
+      </c>
+      <c r="P111" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q111">
+        <v>2.1</v>
+      </c>
+      <c r="R111">
+        <v>2.4</v>
+      </c>
+      <c r="S111">
+        <v>5</v>
+      </c>
+      <c r="T111">
+        <v>1.3</v>
+      </c>
+      <c r="U111">
+        <v>3.4</v>
+      </c>
+      <c r="V111">
+        <v>2.38</v>
+      </c>
+      <c r="W111">
+        <v>1.53</v>
+      </c>
+      <c r="X111">
+        <v>6</v>
+      </c>
+      <c r="Y111">
+        <v>1.13</v>
+      </c>
+      <c r="Z111">
+        <v>1.57</v>
+      </c>
+      <c r="AA111">
+        <v>4</v>
+      </c>
+      <c r="AB111">
+        <v>5.8</v>
+      </c>
+      <c r="AC111">
+        <v>1.05</v>
+      </c>
+      <c r="AD111">
+        <v>9.5</v>
+      </c>
+      <c r="AE111">
+        <v>1.17</v>
+      </c>
+      <c r="AF111">
+        <v>3.84</v>
+      </c>
+      <c r="AG111">
+        <v>1.6</v>
+      </c>
+      <c r="AH111">
+        <v>2.2</v>
+      </c>
+      <c r="AI111">
+        <v>1.7</v>
+      </c>
+      <c r="AJ111">
+        <v>2.05</v>
+      </c>
+      <c r="AK111">
+        <v>1.14</v>
+      </c>
+      <c r="AL111">
+        <v>1.23</v>
+      </c>
+      <c r="AM111">
+        <v>2.47</v>
+      </c>
+      <c r="AN111">
+        <v>3</v>
+      </c>
+      <c r="AO111">
+        <v>1.33</v>
+      </c>
+      <c r="AP111">
+        <v>3</v>
+      </c>
+      <c r="AQ111">
+        <v>1</v>
+      </c>
+      <c r="AR111">
+        <v>1.52</v>
+      </c>
+      <c r="AS111">
+        <v>1.04</v>
+      </c>
+      <c r="AT111">
+        <v>2.56</v>
+      </c>
+      <c r="AU111">
+        <v>9</v>
+      </c>
+      <c r="AV111">
+        <v>7</v>
+      </c>
+      <c r="AW111">
+        <v>7</v>
+      </c>
+      <c r="AX111">
+        <v>5</v>
+      </c>
+      <c r="AY111">
+        <v>16</v>
+      </c>
+      <c r="AZ111">
+        <v>15</v>
+      </c>
+      <c r="BA111">
+        <v>4</v>
+      </c>
+      <c r="BB111">
+        <v>5</v>
+      </c>
+      <c r="BC111">
+        <v>9</v>
+      </c>
+      <c r="BD111">
+        <v>1.41</v>
+      </c>
+      <c r="BE111">
+        <v>9</v>
+      </c>
+      <c r="BF111">
+        <v>3.49</v>
+      </c>
+      <c r="BG111">
+        <v>1.28</v>
+      </c>
+      <c r="BH111">
+        <v>3.3</v>
+      </c>
+      <c r="BI111">
+        <v>1.48</v>
+      </c>
+      <c r="BJ111">
+        <v>2.43</v>
+      </c>
+      <c r="BK111">
+        <v>1.95</v>
+      </c>
+      <c r="BL111">
+        <v>1.85</v>
+      </c>
+      <c r="BM111">
+        <v>2.23</v>
+      </c>
+      <c r="BN111">
+        <v>1.57</v>
+      </c>
+      <c r="BO111">
+        <v>2.8</v>
+      </c>
+      <c r="BP111">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="112" spans="1:68">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>7477920</v>
+      </c>
+      <c r="C112" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45570.45833333334</v>
+      </c>
+      <c r="F112">
+        <v>10</v>
+      </c>
+      <c r="G112" t="s">
+        <v>83</v>
+      </c>
+      <c r="H112" t="s">
+        <v>80</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>1</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>1</v>
+      </c>
+      <c r="O112" t="s">
+        <v>171</v>
+      </c>
+      <c r="P112" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q112">
+        <v>3.75</v>
+      </c>
+      <c r="R112">
+        <v>2.2</v>
+      </c>
+      <c r="S112">
+        <v>2.75</v>
+      </c>
+      <c r="T112">
+        <v>1.4</v>
+      </c>
+      <c r="U112">
+        <v>2.75</v>
+      </c>
+      <c r="V112">
+        <v>2.75</v>
+      </c>
+      <c r="W112">
+        <v>1.4</v>
+      </c>
+      <c r="X112">
+        <v>8</v>
+      </c>
+      <c r="Y112">
+        <v>1.08</v>
+      </c>
+      <c r="Z112">
+        <v>4.2</v>
+      </c>
+      <c r="AA112">
+        <v>3.6</v>
+      </c>
+      <c r="AB112">
+        <v>1.85</v>
+      </c>
+      <c r="AC112">
+        <v>1.05</v>
+      </c>
+      <c r="AD112">
+        <v>9.5</v>
+      </c>
+      <c r="AE112">
+        <v>1.28</v>
+      </c>
+      <c r="AF112">
+        <v>3.55</v>
+      </c>
+      <c r="AG112">
+        <v>1.89</v>
+      </c>
+      <c r="AH112">
+        <v>1.89</v>
+      </c>
+      <c r="AI112">
+        <v>1.75</v>
+      </c>
+      <c r="AJ112">
+        <v>2</v>
+      </c>
+      <c r="AK112">
+        <v>1.7</v>
+      </c>
+      <c r="AL112">
+        <v>1.25</v>
+      </c>
+      <c r="AM112">
+        <v>1.33</v>
+      </c>
+      <c r="AN112">
+        <v>1.75</v>
+      </c>
+      <c r="AO112">
+        <v>3</v>
+      </c>
+      <c r="AP112">
+        <v>2</v>
+      </c>
+      <c r="AQ112">
+        <v>2.25</v>
+      </c>
+      <c r="AR112">
+        <v>1.26</v>
+      </c>
+      <c r="AS112">
+        <v>1.32</v>
+      </c>
+      <c r="AT112">
+        <v>2.58</v>
+      </c>
+      <c r="AU112">
+        <v>2</v>
+      </c>
+      <c r="AV112">
+        <v>0</v>
+      </c>
+      <c r="AW112">
+        <v>5</v>
+      </c>
+      <c r="AX112">
+        <v>2</v>
+      </c>
+      <c r="AY112">
+        <v>7</v>
+      </c>
+      <c r="AZ112">
+        <v>4</v>
+      </c>
+      <c r="BA112">
+        <v>5</v>
+      </c>
+      <c r="BB112">
+        <v>5</v>
+      </c>
+      <c r="BC112">
+        <v>10</v>
+      </c>
+      <c r="BD112">
+        <v>2.33</v>
+      </c>
+      <c r="BE112">
+        <v>6.5</v>
+      </c>
+      <c r="BF112">
+        <v>1.65</v>
+      </c>
+      <c r="BG112">
+        <v>1.21</v>
+      </c>
+      <c r="BH112">
+        <v>3.8</v>
+      </c>
+      <c r="BI112">
+        <v>1.38</v>
+      </c>
+      <c r="BJ112">
+        <v>2.75</v>
+      </c>
+      <c r="BK112">
+        <v>1.63</v>
+      </c>
+      <c r="BL112">
+        <v>2.12</v>
+      </c>
+      <c r="BM112">
+        <v>1.98</v>
+      </c>
+      <c r="BN112">
+        <v>1.72</v>
+      </c>
+      <c r="BO112">
+        <v>2.5</v>
+      </c>
+      <c r="BP112">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="113" spans="1:68">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>7477919</v>
+      </c>
+      <c r="C113" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" t="s">
+        <v>69</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45570.45833333334</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+      <c r="G113" t="s">
+        <v>78</v>
+      </c>
+      <c r="H113" t="s">
+        <v>79</v>
+      </c>
+      <c r="I113">
+        <v>1</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113">
+        <v>3</v>
+      </c>
+      <c r="N113">
+        <v>4</v>
+      </c>
+      <c r="O113" t="s">
+        <v>172</v>
+      </c>
+      <c r="P113" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q113">
+        <v>3</v>
+      </c>
+      <c r="R113">
+        <v>2.1</v>
+      </c>
+      <c r="S113">
+        <v>3.6</v>
+      </c>
+      <c r="T113">
+        <v>1.4</v>
+      </c>
+      <c r="U113">
+        <v>2.75</v>
+      </c>
+      <c r="V113">
+        <v>3</v>
+      </c>
+      <c r="W113">
+        <v>1.36</v>
+      </c>
+      <c r="X113">
+        <v>8</v>
+      </c>
+      <c r="Y113">
+        <v>1.08</v>
+      </c>
+      <c r="Z113">
+        <v>2.3</v>
+      </c>
+      <c r="AA113">
+        <v>3.4</v>
+      </c>
+      <c r="AB113">
+        <v>3.1</v>
+      </c>
+      <c r="AC113">
+        <v>1.01</v>
+      </c>
+      <c r="AD113">
+        <v>8.1</v>
+      </c>
+      <c r="AE113">
+        <v>1.27</v>
+      </c>
+      <c r="AF113">
+        <v>3.08</v>
+      </c>
+      <c r="AG113">
+        <v>1.99</v>
+      </c>
+      <c r="AH113">
+        <v>1.79</v>
+      </c>
+      <c r="AI113">
+        <v>1.75</v>
+      </c>
+      <c r="AJ113">
+        <v>2</v>
+      </c>
+      <c r="AK113">
+        <v>1.38</v>
+      </c>
+      <c r="AL113">
+        <v>1.28</v>
+      </c>
+      <c r="AM113">
+        <v>1.57</v>
+      </c>
+      <c r="AN113">
+        <v>0.33</v>
+      </c>
+      <c r="AO113">
+        <v>0.25</v>
+      </c>
+      <c r="AP113">
+        <v>0.25</v>
+      </c>
+      <c r="AQ113">
+        <v>0.8</v>
+      </c>
+      <c r="AR113">
+        <v>0.92</v>
+      </c>
+      <c r="AS113">
+        <v>1.02</v>
+      </c>
+      <c r="AT113">
+        <v>1.94</v>
+      </c>
+      <c r="AU113">
+        <v>7</v>
+      </c>
+      <c r="AV113">
+        <v>7</v>
+      </c>
+      <c r="AW113">
+        <v>4</v>
+      </c>
+      <c r="AX113">
+        <v>7</v>
+      </c>
+      <c r="AY113">
+        <v>12</v>
+      </c>
+      <c r="AZ113">
+        <v>17</v>
+      </c>
+      <c r="BA113">
+        <v>0</v>
+      </c>
+      <c r="BB113">
+        <v>5</v>
+      </c>
+      <c r="BC113">
+        <v>5</v>
+      </c>
+      <c r="BD113">
+        <v>1.73</v>
+      </c>
+      <c r="BE113">
+        <v>6.1</v>
+      </c>
+      <c r="BF113">
+        <v>2.23</v>
+      </c>
+      <c r="BG113">
+        <v>1.35</v>
+      </c>
+      <c r="BH113">
+        <v>2.9</v>
+      </c>
+      <c r="BI113">
+        <v>1.61</v>
+      </c>
+      <c r="BJ113">
+        <v>2.15</v>
+      </c>
+      <c r="BK113">
+        <v>2</v>
+      </c>
+      <c r="BL113">
+        <v>1.71</v>
+      </c>
+      <c r="BM113">
+        <v>2.55</v>
+      </c>
+      <c r="BN113">
+        <v>1.44</v>
+      </c>
+      <c r="BO113">
+        <v>3.4</v>
+      </c>
+      <c r="BP113">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="114" spans="1:68">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>7477917</v>
+      </c>
+      <c r="C114" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45570.45833333334</v>
+      </c>
+      <c r="F114">
+        <v>10</v>
+      </c>
+      <c r="G114" t="s">
+        <v>93</v>
+      </c>
+      <c r="H114" t="s">
+        <v>82</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>2</v>
+      </c>
+      <c r="K114">
+        <v>2</v>
+      </c>
+      <c r="L114">
+        <v>2</v>
+      </c>
+      <c r="M114">
+        <v>2</v>
+      </c>
+      <c r="N114">
+        <v>4</v>
+      </c>
+      <c r="O114" t="s">
+        <v>173</v>
+      </c>
+      <c r="P114" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q114">
+        <v>1.91</v>
+      </c>
+      <c r="R114">
+        <v>2.5</v>
+      </c>
+      <c r="S114">
+        <v>7</v>
+      </c>
+      <c r="T114">
+        <v>1.3</v>
+      </c>
+      <c r="U114">
+        <v>3.4</v>
+      </c>
+      <c r="V114">
+        <v>2.5</v>
+      </c>
+      <c r="W114">
+        <v>1.5</v>
+      </c>
+      <c r="X114">
+        <v>6</v>
+      </c>
+      <c r="Y114">
+        <v>1.13</v>
+      </c>
+      <c r="Z114">
+        <v>1.44</v>
+      </c>
+      <c r="AA114">
+        <v>4.4</v>
+      </c>
+      <c r="AB114">
+        <v>7.5</v>
+      </c>
+      <c r="AC114">
+        <v>1.04</v>
+      </c>
+      <c r="AD114">
+        <v>10</v>
+      </c>
+      <c r="AE114">
+        <v>1.22</v>
+      </c>
+      <c r="AF114">
+        <v>4.2</v>
+      </c>
+      <c r="AG114">
+        <v>1.65</v>
+      </c>
+      <c r="AH114">
+        <v>2.13</v>
+      </c>
+      <c r="AI114">
+        <v>1.95</v>
+      </c>
+      <c r="AJ114">
+        <v>1.8</v>
+      </c>
+      <c r="AK114">
+        <v>1.07</v>
+      </c>
+      <c r="AL114">
+        <v>1.17</v>
+      </c>
+      <c r="AM114">
+        <v>3.12</v>
+      </c>
+      <c r="AN114">
+        <v>1</v>
+      </c>
+      <c r="AO114">
+        <v>0</v>
+      </c>
+      <c r="AP114">
+        <v>1</v>
+      </c>
+      <c r="AQ114">
+        <v>0.2</v>
+      </c>
+      <c r="AR114">
+        <v>1.46</v>
+      </c>
+      <c r="AS114">
+        <v>1.03</v>
+      </c>
+      <c r="AT114">
+        <v>2.49</v>
+      </c>
+      <c r="AU114">
+        <v>6</v>
+      </c>
+      <c r="AV114">
+        <v>3</v>
+      </c>
+      <c r="AW114">
+        <v>5</v>
+      </c>
+      <c r="AX114">
+        <v>4</v>
+      </c>
+      <c r="AY114">
+        <v>21</v>
+      </c>
+      <c r="AZ114">
+        <v>8</v>
+      </c>
+      <c r="BA114">
+        <v>8</v>
+      </c>
+      <c r="BB114">
+        <v>3</v>
+      </c>
+      <c r="BC114">
+        <v>11</v>
+      </c>
+      <c r="BD114">
+        <v>1.28</v>
+      </c>
+      <c r="BE114">
+        <v>7.5</v>
+      </c>
+      <c r="BF114">
+        <v>3.65</v>
+      </c>
+      <c r="BG114">
+        <v>1.19</v>
+      </c>
+      <c r="BH114">
+        <v>4.1</v>
+      </c>
+      <c r="BI114">
+        <v>1.34</v>
+      </c>
+      <c r="BJ114">
+        <v>2.9</v>
+      </c>
+      <c r="BK114">
+        <v>1.56</v>
+      </c>
+      <c r="BL114">
+        <v>2.23</v>
+      </c>
+      <c r="BM114">
+        <v>1.88</v>
+      </c>
+      <c r="BN114">
+        <v>1.8</v>
+      </c>
+      <c r="BO114">
+        <v>2.33</v>
+      </c>
+      <c r="BP114">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:68">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>7477922</v>
+      </c>
+      <c r="C115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45570.45833333334</v>
+      </c>
+      <c r="F115">
+        <v>10</v>
+      </c>
+      <c r="G115" t="s">
+        <v>81</v>
+      </c>
+      <c r="H115" t="s">
+        <v>88</v>
+      </c>
+      <c r="I115">
+        <v>1</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>1</v>
+      </c>
+      <c r="O115" t="s">
+        <v>166</v>
+      </c>
+      <c r="P115" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q115">
+        <v>2.6</v>
+      </c>
+      <c r="R115">
+        <v>2.05</v>
+      </c>
+      <c r="S115">
+        <v>5</v>
+      </c>
+      <c r="T115">
+        <v>1.5</v>
+      </c>
+      <c r="U115">
+        <v>2.5</v>
+      </c>
+      <c r="V115">
+        <v>3.4</v>
+      </c>
+      <c r="W115">
+        <v>1.3</v>
+      </c>
+      <c r="X115">
+        <v>10</v>
+      </c>
+      <c r="Y115">
+        <v>1.06</v>
+      </c>
+      <c r="Z115">
+        <v>1.91</v>
+      </c>
+      <c r="AA115">
+        <v>3.4</v>
+      </c>
+      <c r="AB115">
+        <v>4.2</v>
+      </c>
+      <c r="AC115">
+        <v>1.02</v>
+      </c>
+      <c r="AD115">
+        <v>7.1</v>
+      </c>
+      <c r="AE115">
+        <v>1.34</v>
+      </c>
+      <c r="AF115">
+        <v>2.73</v>
+      </c>
+      <c r="AG115">
+        <v>2.2</v>
+      </c>
+      <c r="AH115">
+        <v>1.6</v>
+      </c>
+      <c r="AI115">
+        <v>2.05</v>
+      </c>
+      <c r="AJ115">
+        <v>1.7</v>
+      </c>
+      <c r="AK115">
+        <v>1.25</v>
+      </c>
+      <c r="AL115">
+        <v>1.25</v>
+      </c>
+      <c r="AM115">
+        <v>1.77</v>
+      </c>
+      <c r="AN115">
+        <v>2</v>
+      </c>
+      <c r="AO115">
+        <v>0</v>
+      </c>
+      <c r="AP115">
+        <v>2.25</v>
+      </c>
+      <c r="AQ115">
+        <v>0</v>
+      </c>
+      <c r="AR115">
+        <v>1.44</v>
+      </c>
+      <c r="AS115">
+        <v>0.92</v>
+      </c>
+      <c r="AT115">
+        <v>2.36</v>
+      </c>
+      <c r="AU115">
+        <v>5</v>
+      </c>
+      <c r="AV115">
+        <v>5</v>
+      </c>
+      <c r="AW115">
+        <v>3</v>
+      </c>
+      <c r="AX115">
+        <v>5</v>
+      </c>
+      <c r="AY115">
+        <v>12</v>
+      </c>
+      <c r="AZ115">
+        <v>13</v>
+      </c>
+      <c r="BA115">
+        <v>7</v>
+      </c>
+      <c r="BB115">
+        <v>4</v>
+      </c>
+      <c r="BC115">
+        <v>11</v>
+      </c>
+      <c r="BD115">
+        <v>1.45</v>
+      </c>
+      <c r="BE115">
+        <v>6.75</v>
+      </c>
+      <c r="BF115">
+        <v>2.8</v>
+      </c>
+      <c r="BG115">
+        <v>1.24</v>
+      </c>
+      <c r="BH115">
+        <v>3.55</v>
+      </c>
+      <c r="BI115">
+        <v>1.43</v>
+      </c>
+      <c r="BJ115">
+        <v>2.55</v>
+      </c>
+      <c r="BK115">
+        <v>1.7</v>
+      </c>
+      <c r="BL115">
+        <v>2.02</v>
+      </c>
+      <c r="BM115">
+        <v>2.08</v>
+      </c>
+      <c r="BN115">
+        <v>1.65</v>
+      </c>
+      <c r="BO115">
+        <v>2.65</v>
+      </c>
+      <c r="BP115">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -484,13 +484,10 @@
     <t>['24', '49', '66']</t>
   </si>
   <si>
-    <t>['23', '42', '82']</t>
+    <t>['90+1', '90+3']</t>
   </si>
   <si>
     <t>['11', '49', '81']</t>
-  </si>
-  <si>
-    <t>['90+1', '90+3']</t>
   </si>
   <si>
     <t>['10']</t>
@@ -499,13 +496,16 @@
     <t>['30', '57', '67']</t>
   </si>
   <si>
-    <t>['74']</t>
-  </si>
-  <si>
     <t>['63']</t>
   </si>
   <si>
     <t>['58', '89']</t>
+  </si>
+  <si>
+    <t>['74']</t>
+  </si>
+  <si>
+    <t>['23', '42', '82']</t>
   </si>
   <si>
     <t>['5', '90+4']</t>
@@ -688,25 +688,25 @@
     <t>['90+1']</t>
   </si>
   <si>
-    <t>['44', '86']</t>
-  </si>
-  <si>
-    <t>['84']</t>
-  </si>
-  <si>
-    <t>['12', '90+2']</t>
-  </si>
-  <si>
     <t>['6', '23', '60', '83']</t>
   </si>
   <si>
     <t>['40']</t>
   </si>
   <si>
+    <t>['12', '90+2']</t>
+  </si>
+  <si>
+    <t>['44', '86']</t>
+  </si>
+  <si>
     <t>['79', '90+4']</t>
   </si>
   <si>
     <t>['47', '85']</t>
+  </si>
+  <si>
+    <t>['84']</t>
   </si>
   <si>
     <t>['64']</t>
@@ -1545,7 +1545,7 @@
         <v>95</v>
       </c>
       <c r="P3" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -2781,7 +2781,7 @@
         <v>100</v>
       </c>
       <c r="P9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -8961,7 +8961,7 @@
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -19837,7 +19837,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>7477911</v>
+        <v>7477910</v>
       </c>
       <c r="C92" t="s">
         <v>68</v>
@@ -19846,196 +19846,196 @@
         <v>69</v>
       </c>
       <c r="E92" s="2">
-        <v>45565.875</v>
+        <v>45566.65625</v>
       </c>
       <c r="F92">
         <v>9</v>
       </c>
       <c r="G92" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H92" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="I92">
         <v>0</v>
       </c>
       <c r="J92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L92">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M92">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N92">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O92" t="s">
-        <v>96</v>
+        <v>156</v>
       </c>
       <c r="P92" t="s">
         <v>224</v>
       </c>
       <c r="Q92">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="R92">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="S92">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="T92">
+        <v>1.36</v>
+      </c>
+      <c r="U92">
+        <v>3</v>
+      </c>
+      <c r="V92">
+        <v>2.75</v>
+      </c>
+      <c r="W92">
         <v>1.4</v>
       </c>
-      <c r="U92">
-        <v>2.75</v>
-      </c>
-      <c r="V92">
-        <v>3</v>
-      </c>
-      <c r="W92">
-        <v>1.36</v>
-      </c>
       <c r="X92">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y92">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z92">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="AA92">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="AB92">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="AC92">
         <v>1.05</v>
       </c>
       <c r="AD92">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE92">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AF92">
-        <v>3.5</v>
+        <v>3.42</v>
       </c>
       <c r="AG92">
+        <v>1.86</v>
+      </c>
+      <c r="AH92">
+        <v>1.96</v>
+      </c>
+      <c r="AI92">
+        <v>1.8</v>
+      </c>
+      <c r="AJ92">
+        <v>1.95</v>
+      </c>
+      <c r="AK92">
         <v>2.01</v>
       </c>
-      <c r="AH92">
-        <v>1.81</v>
-      </c>
-      <c r="AI92">
-        <v>1.91</v>
-      </c>
-      <c r="AJ92">
-        <v>1.91</v>
-      </c>
-      <c r="AK92">
-        <v>1.9</v>
-      </c>
       <c r="AL92">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="AM92">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AN92">
         <v>1</v>
       </c>
       <c r="AO92">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP92">
         <v>0.8</v>
       </c>
       <c r="AQ92">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="AR92">
-        <v>1.05</v>
+        <v>1.4</v>
       </c>
       <c r="AS92">
-        <v>1.45</v>
+        <v>1.23</v>
       </c>
       <c r="AT92">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU92">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AV92">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AW92">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AX92">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY92">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="AZ92">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BA92">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB92">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BC92">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BD92">
-        <v>2.38</v>
+        <v>2.65</v>
       </c>
       <c r="BE92">
         <v>6.4</v>
       </c>
       <c r="BF92">
-        <v>1.65</v>
+        <v>1.52</v>
       </c>
       <c r="BG92">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="BH92">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="BI92">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="BJ92">
-        <v>2.35</v>
+        <v>2.43</v>
       </c>
       <c r="BK92">
-        <v>1.84</v>
+        <v>1.77</v>
       </c>
       <c r="BL92">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="BM92">
-        <v>2.32</v>
+        <v>2.18</v>
       </c>
       <c r="BN92">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="BO92">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="BP92">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="93" spans="1:68">
@@ -20043,7 +20043,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>7477916</v>
+        <v>7477914</v>
       </c>
       <c r="C93" t="s">
         <v>68</v>
@@ -20052,196 +20052,196 @@
         <v>69</v>
       </c>
       <c r="E93" s="2">
-        <v>45565.875</v>
+        <v>45566.65625</v>
       </c>
       <c r="F93">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G93" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="H93" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J93">
         <v>0</v>
       </c>
       <c r="K93">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L93">
         <v>3</v>
       </c>
       <c r="M93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N93">
+        <v>3</v>
+      </c>
+      <c r="O93" t="s">
+        <v>157</v>
+      </c>
+      <c r="P93" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q93">
+        <v>3.2</v>
+      </c>
+      <c r="R93">
+        <v>2.25</v>
+      </c>
+      <c r="S93">
+        <v>3.1</v>
+      </c>
+      <c r="T93">
+        <v>1.33</v>
+      </c>
+      <c r="U93">
+        <v>3.25</v>
+      </c>
+      <c r="V93">
+        <v>2.63</v>
+      </c>
+      <c r="W93">
+        <v>1.44</v>
+      </c>
+      <c r="X93">
+        <v>6.5</v>
+      </c>
+      <c r="Y93">
+        <v>1.11</v>
+      </c>
+      <c r="Z93">
+        <v>2.75</v>
+      </c>
+      <c r="AA93">
+        <v>3.45</v>
+      </c>
+      <c r="AB93">
+        <v>2.55</v>
+      </c>
+      <c r="AC93">
+        <v>1.05</v>
+      </c>
+      <c r="AD93">
+        <v>9.5</v>
+      </c>
+      <c r="AE93">
+        <v>1.19</v>
+      </c>
+      <c r="AF93">
+        <v>3.68</v>
+      </c>
+      <c r="AG93">
+        <v>1.73</v>
+      </c>
+      <c r="AH93">
+        <v>2</v>
+      </c>
+      <c r="AI93">
+        <v>1.62</v>
+      </c>
+      <c r="AJ93">
+        <v>2.2</v>
+      </c>
+      <c r="AK93">
+        <v>1.47</v>
+      </c>
+      <c r="AL93">
+        <v>1.3</v>
+      </c>
+      <c r="AM93">
+        <v>1.53</v>
+      </c>
+      <c r="AN93">
+        <v>1.25</v>
+      </c>
+      <c r="AO93">
+        <v>1.75</v>
+      </c>
+      <c r="AP93">
+        <v>1.6</v>
+      </c>
+      <c r="AQ93">
+        <v>1.4</v>
+      </c>
+      <c r="AR93">
+        <v>0.93</v>
+      </c>
+      <c r="AS93">
+        <v>1.35</v>
+      </c>
+      <c r="AT93">
+        <v>2.28</v>
+      </c>
+      <c r="AU93">
+        <v>5</v>
+      </c>
+      <c r="AV93">
         <v>4</v>
       </c>
-      <c r="O93" t="s">
-        <v>156</v>
-      </c>
-      <c r="P93" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q93">
-        <v>2.2</v>
-      </c>
-      <c r="R93">
-        <v>2.4</v>
-      </c>
-      <c r="S93">
-        <v>4.75</v>
-      </c>
-      <c r="T93">
-        <v>1.3</v>
-      </c>
-      <c r="U93">
-        <v>3.4</v>
-      </c>
-      <c r="V93">
-        <v>2.5</v>
-      </c>
-      <c r="W93">
-        <v>1.5</v>
-      </c>
-      <c r="X93">
-        <v>6</v>
-      </c>
-      <c r="Y93">
-        <v>1.13</v>
-      </c>
-      <c r="Z93">
-        <v>1.64</v>
-      </c>
-      <c r="AA93">
-        <v>3.6</v>
-      </c>
-      <c r="AB93">
-        <v>4</v>
-      </c>
-      <c r="AC93">
-        <v>1.02</v>
-      </c>
-      <c r="AD93">
-        <v>13</v>
-      </c>
-      <c r="AE93">
-        <v>1.16</v>
-      </c>
-      <c r="AF93">
-        <v>4.5</v>
-      </c>
-      <c r="AG93">
-        <v>1.61</v>
-      </c>
-      <c r="AH93">
-        <v>2.15</v>
-      </c>
-      <c r="AI93">
-        <v>1.67</v>
-      </c>
-      <c r="AJ93">
-        <v>2.1</v>
-      </c>
-      <c r="AK93">
-        <v>1.22</v>
-      </c>
-      <c r="AL93">
-        <v>1.25</v>
-      </c>
-      <c r="AM93">
+      <c r="AW93">
+        <v>1</v>
+      </c>
+      <c r="AX93">
+        <v>2</v>
+      </c>
+      <c r="AY93">
+        <v>10</v>
+      </c>
+      <c r="AZ93">
+        <v>12</v>
+      </c>
+      <c r="BA93">
+        <v>3</v>
+      </c>
+      <c r="BB93">
+        <v>8</v>
+      </c>
+      <c r="BC93">
+        <v>11</v>
+      </c>
+      <c r="BD93">
+        <v>2.23</v>
+      </c>
+      <c r="BE93">
+        <v>6.55</v>
+      </c>
+      <c r="BF93">
+        <v>2.03</v>
+      </c>
+      <c r="BG93">
+        <v>1.17</v>
+      </c>
+      <c r="BH93">
+        <v>3.84</v>
+      </c>
+      <c r="BI93">
+        <v>1.37</v>
+      </c>
+      <c r="BJ93">
+        <v>2.75</v>
+      </c>
+      <c r="BK93">
+        <v>1.7</v>
+      </c>
+      <c r="BL93">
+        <v>2.05</v>
+      </c>
+      <c r="BM93">
         <v>2.09</v>
       </c>
-      <c r="AN93">
-        <v>2.25</v>
-      </c>
-      <c r="AO93">
-        <v>0.75</v>
-      </c>
-      <c r="AP93">
-        <v>2.4</v>
-      </c>
-      <c r="AQ93">
-        <v>0.6</v>
-      </c>
-      <c r="AR93">
-        <v>1.21</v>
-      </c>
-      <c r="AS93">
-        <v>1.24</v>
-      </c>
-      <c r="AT93">
-        <v>2.45</v>
-      </c>
-      <c r="AU93">
-        <v>-1</v>
-      </c>
-      <c r="AV93">
-        <v>-1</v>
-      </c>
-      <c r="AW93">
-        <v>-1</v>
-      </c>
-      <c r="AX93">
-        <v>-1</v>
-      </c>
-      <c r="AY93">
-        <v>-1</v>
-      </c>
-      <c r="AZ93">
-        <v>-1</v>
-      </c>
-      <c r="BA93">
-        <v>-1</v>
-      </c>
-      <c r="BB93">
-        <v>-1</v>
-      </c>
-      <c r="BC93">
-        <v>-1</v>
-      </c>
-      <c r="BD93">
-        <v>1.36</v>
-      </c>
-      <c r="BE93">
-        <v>7.7</v>
-      </c>
-      <c r="BF93">
-        <v>4.4</v>
-      </c>
-      <c r="BG93">
-        <v>1.26</v>
-      </c>
-      <c r="BH93">
-        <v>3.08</v>
-      </c>
-      <c r="BI93">
-        <v>1.53</v>
-      </c>
-      <c r="BJ93">
-        <v>2.28</v>
-      </c>
-      <c r="BK93">
-        <v>1.96</v>
-      </c>
-      <c r="BL93">
-        <v>1.79</v>
-      </c>
-      <c r="BM93">
-        <v>2.51</v>
-      </c>
       <c r="BN93">
-        <v>1.44</v>
+        <v>1.63</v>
       </c>
       <c r="BO93">
-        <v>3.35</v>
+        <v>2.69</v>
       </c>
       <c r="BP93">
-        <v>1.22</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="94" spans="1:68">
@@ -20249,7 +20249,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>7477914</v>
+        <v>7477913</v>
       </c>
       <c r="C94" t="s">
         <v>68</v>
@@ -20258,16 +20258,16 @@
         <v>69</v>
       </c>
       <c r="E94" s="2">
-        <v>45565.875</v>
+        <v>45566.65625</v>
       </c>
       <c r="F94">
         <v>9</v>
       </c>
       <c r="G94" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H94" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I94">
         <v>1</v>
@@ -20279,16 +20279,16 @@
         <v>1</v>
       </c>
       <c r="L94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M94">
         <v>0</v>
       </c>
       <c r="N94">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O94" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P94" t="s">
         <v>96</v>
@@ -20297,157 +20297,157 @@
         <v>3.2</v>
       </c>
       <c r="R94">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="S94">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="T94">
+        <v>1.44</v>
+      </c>
+      <c r="U94">
+        <v>2.63</v>
+      </c>
+      <c r="V94">
+        <v>3.25</v>
+      </c>
+      <c r="W94">
         <v>1.33</v>
       </c>
-      <c r="U94">
-        <v>3.25</v>
-      </c>
-      <c r="V94">
-        <v>2.63</v>
-      </c>
-      <c r="W94">
-        <v>1.44</v>
-      </c>
       <c r="X94">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="Y94">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="Z94">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="AA94">
         <v>3.45</v>
       </c>
       <c r="AB94">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="AC94">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AD94">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE94">
-        <v>1.19</v>
+        <v>1.33</v>
       </c>
       <c r="AF94">
-        <v>3.68</v>
+        <v>3.25</v>
       </c>
       <c r="AG94">
+        <v>2</v>
+      </c>
+      <c r="AH94">
         <v>1.73</v>
       </c>
-      <c r="AH94">
-        <v>2</v>
-      </c>
       <c r="AI94">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="AJ94">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="AK94">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AL94">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AM94">
         <v>1.53</v>
       </c>
       <c r="AN94">
+        <v>2.25</v>
+      </c>
+      <c r="AO94">
         <v>1.25</v>
       </c>
-      <c r="AO94">
-        <v>1.75</v>
-      </c>
       <c r="AP94">
+        <v>2.4</v>
+      </c>
+      <c r="AQ94">
+        <v>1</v>
+      </c>
+      <c r="AR94">
+        <v>1.15</v>
+      </c>
+      <c r="AS94">
+        <v>0.98</v>
+      </c>
+      <c r="AT94">
+        <v>2.13</v>
+      </c>
+      <c r="AU94">
+        <v>4</v>
+      </c>
+      <c r="AV94">
+        <v>2</v>
+      </c>
+      <c r="AW94">
+        <v>2</v>
+      </c>
+      <c r="AX94">
+        <v>4</v>
+      </c>
+      <c r="AY94">
+        <v>9</v>
+      </c>
+      <c r="AZ94">
+        <v>8</v>
+      </c>
+      <c r="BA94">
+        <v>2</v>
+      </c>
+      <c r="BB94">
+        <v>3</v>
+      </c>
+      <c r="BC94">
+        <v>5</v>
+      </c>
+      <c r="BD94">
+        <v>1.69</v>
+      </c>
+      <c r="BE94">
+        <v>6.85</v>
+      </c>
+      <c r="BF94">
+        <v>2.81</v>
+      </c>
+      <c r="BG94">
+        <v>1.18</v>
+      </c>
+      <c r="BH94">
+        <v>3.7</v>
+      </c>
+      <c r="BI94">
+        <v>1.39</v>
+      </c>
+      <c r="BJ94">
+        <v>2.67</v>
+      </c>
+      <c r="BK94">
+        <v>1.77</v>
+      </c>
+      <c r="BL94">
+        <v>1.95</v>
+      </c>
+      <c r="BM94">
+        <v>2.14</v>
+      </c>
+      <c r="BN94">
         <v>1.6</v>
       </c>
-      <c r="AQ94">
-        <v>1.4</v>
-      </c>
-      <c r="AR94">
-        <v>0.93</v>
-      </c>
-      <c r="AS94">
-        <v>1.35</v>
-      </c>
-      <c r="AT94">
-        <v>2.28</v>
-      </c>
-      <c r="AU94">
-        <v>-1</v>
-      </c>
-      <c r="AV94">
-        <v>-1</v>
-      </c>
-      <c r="AW94">
-        <v>-1</v>
-      </c>
-      <c r="AX94">
-        <v>-1</v>
-      </c>
-      <c r="AY94">
-        <v>-1</v>
-      </c>
-      <c r="AZ94">
-        <v>-1</v>
-      </c>
-      <c r="BA94">
-        <v>-1</v>
-      </c>
-      <c r="BB94">
-        <v>-1</v>
-      </c>
-      <c r="BC94">
-        <v>-1</v>
-      </c>
-      <c r="BD94">
-        <v>2.23</v>
-      </c>
-      <c r="BE94">
-        <v>6.55</v>
-      </c>
-      <c r="BF94">
-        <v>2.03</v>
-      </c>
-      <c r="BG94">
-        <v>1.17</v>
-      </c>
-      <c r="BH94">
-        <v>3.84</v>
-      </c>
-      <c r="BI94">
-        <v>1.37</v>
-      </c>
-      <c r="BJ94">
-        <v>2.75</v>
-      </c>
-      <c r="BK94">
-        <v>1.7</v>
-      </c>
-      <c r="BL94">
-        <v>2.05</v>
-      </c>
-      <c r="BM94">
-        <v>2.09</v>
-      </c>
-      <c r="BN94">
-        <v>1.63</v>
-      </c>
       <c r="BO94">
-        <v>2.69</v>
+        <v>2.78</v>
       </c>
       <c r="BP94">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="95" spans="1:68">
@@ -20455,7 +20455,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>7477907</v>
+        <v>7477905</v>
       </c>
       <c r="C95" t="s">
         <v>68</v>
@@ -20464,196 +20464,196 @@
         <v>69</v>
       </c>
       <c r="E95" s="2">
-        <v>45565.875</v>
+        <v>45566.65625</v>
       </c>
       <c r="F95">
         <v>9</v>
       </c>
       <c r="G95" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H95" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="I95">
         <v>0</v>
       </c>
       <c r="J95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L95">
         <v>0</v>
       </c>
       <c r="M95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O95" t="s">
         <v>96</v>
       </c>
       <c r="P95" t="s">
-        <v>226</v>
+        <v>102</v>
       </c>
       <c r="Q95">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="R95">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S95">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="T95">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="U95">
+        <v>2.75</v>
+      </c>
+      <c r="V95">
+        <v>2.75</v>
+      </c>
+      <c r="W95">
+        <v>1.4</v>
+      </c>
+      <c r="X95">
+        <v>8</v>
+      </c>
+      <c r="Y95">
+        <v>1.08</v>
+      </c>
+      <c r="Z95">
+        <v>3.45</v>
+      </c>
+      <c r="AA95">
+        <v>3.45</v>
+      </c>
+      <c r="AB95">
+        <v>2.12</v>
+      </c>
+      <c r="AC95">
+        <v>1.05</v>
+      </c>
+      <c r="AD95">
+        <v>9</v>
+      </c>
+      <c r="AE95">
+        <v>1.26</v>
+      </c>
+      <c r="AF95">
         <v>3.4</v>
       </c>
-      <c r="V95">
-        <v>2.5</v>
-      </c>
-      <c r="W95">
+      <c r="AG95">
+        <v>1.91</v>
+      </c>
+      <c r="AH95">
+        <v>1.8</v>
+      </c>
+      <c r="AI95">
+        <v>1.75</v>
+      </c>
+      <c r="AJ95">
+        <v>2</v>
+      </c>
+      <c r="AK95">
+        <v>1.64</v>
+      </c>
+      <c r="AL95">
+        <v>1.31</v>
+      </c>
+      <c r="AM95">
+        <v>1.36</v>
+      </c>
+      <c r="AN95">
+        <v>0.33</v>
+      </c>
+      <c r="AO95">
+        <v>0.5</v>
+      </c>
+      <c r="AP95">
+        <v>0.25</v>
+      </c>
+      <c r="AQ95">
+        <v>1</v>
+      </c>
+      <c r="AR95">
+        <v>1.36</v>
+      </c>
+      <c r="AS95">
         <v>1.5</v>
       </c>
-      <c r="X95">
-        <v>6</v>
-      </c>
-      <c r="Y95">
-        <v>1.13</v>
-      </c>
-      <c r="Z95">
+      <c r="AT95">
+        <v>2.86</v>
+      </c>
+      <c r="AU95">
+        <v>5</v>
+      </c>
+      <c r="AV95">
+        <v>3</v>
+      </c>
+      <c r="AW95">
+        <v>4</v>
+      </c>
+      <c r="AX95">
+        <v>5</v>
+      </c>
+      <c r="AY95">
+        <v>11</v>
+      </c>
+      <c r="AZ95">
+        <v>9</v>
+      </c>
+      <c r="BA95">
+        <v>7</v>
+      </c>
+      <c r="BB95">
+        <v>2</v>
+      </c>
+      <c r="BC95">
+        <v>9</v>
+      </c>
+      <c r="BD95">
+        <v>2.08</v>
+      </c>
+      <c r="BE95">
+        <v>6.4</v>
+      </c>
+      <c r="BF95">
+        <v>1.79</v>
+      </c>
+      <c r="BG95">
+        <v>1.28</v>
+      </c>
+      <c r="BH95">
+        <v>3.3</v>
+      </c>
+      <c r="BI95">
+        <v>1.49</v>
+      </c>
+      <c r="BJ95">
+        <v>2.4</v>
+      </c>
+      <c r="BK95">
+        <v>1.79</v>
+      </c>
+      <c r="BL95">
+        <v>1.9</v>
+      </c>
+      <c r="BM95">
+        <v>2.23</v>
+      </c>
+      <c r="BN95">
+        <v>1.56</v>
+      </c>
+      <c r="BO95">
         <v>2.9</v>
       </c>
-      <c r="AA95">
-        <v>3.65</v>
-      </c>
-      <c r="AB95">
-        <v>2.32</v>
-      </c>
-      <c r="AC95">
-        <v>1.04</v>
-      </c>
-      <c r="AD95">
-        <v>10</v>
-      </c>
-      <c r="AE95">
-        <v>1.18</v>
-      </c>
-      <c r="AF95">
-        <v>4.4</v>
-      </c>
-      <c r="AG95">
-        <v>1.65</v>
-      </c>
-      <c r="AH95">
-        <v>2.15</v>
-      </c>
-      <c r="AI95">
-        <v>1.57</v>
-      </c>
-      <c r="AJ95">
-        <v>2.25</v>
-      </c>
-      <c r="AK95">
-        <v>1.56</v>
-      </c>
-      <c r="AL95">
-        <v>1.28</v>
-      </c>
-      <c r="AM95">
-        <v>1.46</v>
-      </c>
-      <c r="AN95">
-        <v>1</v>
-      </c>
-      <c r="AO95">
-        <v>2</v>
-      </c>
-      <c r="AP95">
-        <v>0.8</v>
-      </c>
-      <c r="AQ95">
-        <v>2.25</v>
-      </c>
-      <c r="AR95">
-        <v>0.86</v>
-      </c>
-      <c r="AS95">
-        <v>1.22</v>
-      </c>
-      <c r="AT95">
-        <v>2.08</v>
-      </c>
-      <c r="AU95">
-        <v>-1</v>
-      </c>
-      <c r="AV95">
-        <v>-1</v>
-      </c>
-      <c r="AW95">
-        <v>-1</v>
-      </c>
-      <c r="AX95">
-        <v>-1</v>
-      </c>
-      <c r="AY95">
-        <v>-1</v>
-      </c>
-      <c r="AZ95">
-        <v>-1</v>
-      </c>
-      <c r="BA95">
-        <v>-1</v>
-      </c>
-      <c r="BB95">
-        <v>-1</v>
-      </c>
-      <c r="BC95">
-        <v>-1</v>
-      </c>
-      <c r="BD95">
-        <v>2.05</v>
-      </c>
-      <c r="BE95">
-        <v>6.25</v>
-      </c>
-      <c r="BF95">
-        <v>1.84</v>
-      </c>
-      <c r="BG95">
-        <v>1.25</v>
-      </c>
-      <c r="BH95">
-        <v>3.45</v>
-      </c>
-      <c r="BI95">
-        <v>1.46</v>
-      </c>
-      <c r="BJ95">
-        <v>2.5</v>
-      </c>
-      <c r="BK95">
-        <v>1.73</v>
-      </c>
-      <c r="BL95">
-        <v>1.97</v>
-      </c>
-      <c r="BM95">
-        <v>2.15</v>
-      </c>
-      <c r="BN95">
-        <v>1.61</v>
-      </c>
-      <c r="BO95">
-        <v>2.7</v>
-      </c>
       <c r="BP95">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="96" spans="1:68">
@@ -20661,7 +20661,7 @@
         <v>95</v>
       </c>
       <c r="B96">
-        <v>7477910</v>
+        <v>7477908</v>
       </c>
       <c r="C96" t="s">
         <v>68</v>
@@ -20670,55 +20670,55 @@
         <v>69</v>
       </c>
       <c r="E96" s="2">
-        <v>45565.875</v>
+        <v>45566.65625</v>
       </c>
       <c r="F96">
         <v>9</v>
       </c>
       <c r="G96" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H96" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="I96">
         <v>0</v>
       </c>
       <c r="J96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L96">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M96">
+        <v>1</v>
+      </c>
+      <c r="N96">
+        <v>1</v>
+      </c>
+      <c r="O96" t="s">
+        <v>96</v>
+      </c>
+      <c r="P96" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q96">
+        <v>2.75</v>
+      </c>
+      <c r="R96">
+        <v>2.2</v>
+      </c>
+      <c r="S96">
         <v>4</v>
       </c>
-      <c r="N96">
-        <v>6</v>
-      </c>
-      <c r="O96" t="s">
-        <v>158</v>
-      </c>
-      <c r="P96" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q96">
-        <v>4.75</v>
-      </c>
-      <c r="R96">
-        <v>2.25</v>
-      </c>
-      <c r="S96">
-        <v>2.4</v>
-      </c>
       <c r="T96">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U96">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="V96">
         <v>2.75</v>
@@ -20727,139 +20727,139 @@
         <v>1.4</v>
       </c>
       <c r="X96">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y96">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z96">
-        <v>3.65</v>
+        <v>2.12</v>
       </c>
       <c r="AA96">
+        <v>3.45</v>
+      </c>
+      <c r="AB96">
+        <v>3.45</v>
+      </c>
+      <c r="AC96">
+        <v>1.01</v>
+      </c>
+      <c r="AD96">
+        <v>11.5</v>
+      </c>
+      <c r="AE96">
+        <v>1.26</v>
+      </c>
+      <c r="AF96">
         <v>3.55</v>
       </c>
-      <c r="AB96">
-        <v>2.02</v>
-      </c>
-      <c r="AC96">
-        <v>1.05</v>
-      </c>
-      <c r="AD96">
-        <v>9.5</v>
-      </c>
-      <c r="AE96">
-        <v>1.22</v>
-      </c>
-      <c r="AF96">
-        <v>3.42</v>
-      </c>
       <c r="AG96">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="AH96">
-        <v>1.96</v>
+        <v>1.83</v>
       </c>
       <c r="AI96">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AJ96">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AK96">
-        <v>2.01</v>
+        <v>1.3</v>
       </c>
       <c r="AL96">
+        <v>1.3</v>
+      </c>
+      <c r="AM96">
+        <v>1.77</v>
+      </c>
+      <c r="AN96">
+        <v>0.5</v>
+      </c>
+      <c r="AO96">
+        <v>1</v>
+      </c>
+      <c r="AP96">
+        <v>0.4</v>
+      </c>
+      <c r="AQ96">
+        <v>1.4</v>
+      </c>
+      <c r="AR96">
         <v>1.27</v>
       </c>
-      <c r="AM96">
-        <v>1.22</v>
-      </c>
-      <c r="AN96">
-        <v>1</v>
-      </c>
-      <c r="AO96">
-        <v>2</v>
-      </c>
-      <c r="AP96">
-        <v>0.8</v>
-      </c>
-      <c r="AQ96">
-        <v>2.25</v>
-      </c>
-      <c r="AR96">
-        <v>1.4</v>
-      </c>
       <c r="AS96">
-        <v>1.23</v>
+        <v>0.95</v>
       </c>
       <c r="AT96">
-        <v>2.63</v>
+        <v>2.22</v>
       </c>
       <c r="AU96">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV96">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW96">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AX96">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AY96">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="AZ96">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BA96">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB96">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BC96">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BD96">
-        <v>2.65</v>
+        <v>1.75</v>
       </c>
       <c r="BE96">
         <v>6.4</v>
       </c>
       <c r="BF96">
-        <v>1.52</v>
+        <v>2.15</v>
       </c>
       <c r="BG96">
-        <v>1.27</v>
+        <v>1.24</v>
       </c>
       <c r="BH96">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="BI96">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="BJ96">
-        <v>2.43</v>
+        <v>2.55</v>
       </c>
       <c r="BK96">
-        <v>1.77</v>
+        <v>1.72</v>
       </c>
       <c r="BL96">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="BM96">
-        <v>2.18</v>
+        <v>2.12</v>
       </c>
       <c r="BN96">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="BO96">
-        <v>2.8</v>
+        <v>2.65</v>
       </c>
       <c r="BP96">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="97" spans="1:68">
@@ -20867,7 +20867,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>7477908</v>
+        <v>7477907</v>
       </c>
       <c r="C97" t="s">
         <v>68</v>
@@ -20876,16 +20876,16 @@
         <v>69</v>
       </c>
       <c r="E97" s="2">
-        <v>45565.875</v>
+        <v>45566.65625</v>
       </c>
       <c r="F97">
         <v>9</v>
       </c>
       <c r="G97" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H97" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -20900,172 +20900,172 @@
         <v>0</v>
       </c>
       <c r="M97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O97" t="s">
         <v>96</v>
       </c>
       <c r="P97" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="Q97">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="R97">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S97">
+        <v>3</v>
+      </c>
+      <c r="T97">
+        <v>1.3</v>
+      </c>
+      <c r="U97">
+        <v>3.4</v>
+      </c>
+      <c r="V97">
+        <v>2.5</v>
+      </c>
+      <c r="W97">
+        <v>1.5</v>
+      </c>
+      <c r="X97">
+        <v>6</v>
+      </c>
+      <c r="Y97">
+        <v>1.13</v>
+      </c>
+      <c r="Z97">
+        <v>2.9</v>
+      </c>
+      <c r="AA97">
+        <v>3.65</v>
+      </c>
+      <c r="AB97">
+        <v>2.32</v>
+      </c>
+      <c r="AC97">
+        <v>1.04</v>
+      </c>
+      <c r="AD97">
+        <v>10</v>
+      </c>
+      <c r="AE97">
+        <v>1.18</v>
+      </c>
+      <c r="AF97">
+        <v>4.4</v>
+      </c>
+      <c r="AG97">
+        <v>1.65</v>
+      </c>
+      <c r="AH97">
+        <v>2.15</v>
+      </c>
+      <c r="AI97">
+        <v>1.57</v>
+      </c>
+      <c r="AJ97">
+        <v>2.25</v>
+      </c>
+      <c r="AK97">
+        <v>1.56</v>
+      </c>
+      <c r="AL97">
+        <v>1.28</v>
+      </c>
+      <c r="AM97">
+        <v>1.46</v>
+      </c>
+      <c r="AN97">
+        <v>1</v>
+      </c>
+      <c r="AO97">
+        <v>2</v>
+      </c>
+      <c r="AP97">
+        <v>0.8</v>
+      </c>
+      <c r="AQ97">
+        <v>2.25</v>
+      </c>
+      <c r="AR97">
+        <v>0.86</v>
+      </c>
+      <c r="AS97">
+        <v>1.22</v>
+      </c>
+      <c r="AT97">
+        <v>2.08</v>
+      </c>
+      <c r="AU97">
         <v>4</v>
       </c>
-      <c r="T97">
-        <v>1.4</v>
-      </c>
-      <c r="U97">
-        <v>2.75</v>
-      </c>
-      <c r="V97">
-        <v>2.75</v>
-      </c>
-      <c r="W97">
-        <v>1.4</v>
-      </c>
-      <c r="X97">
+      <c r="AV97">
+        <v>5</v>
+      </c>
+      <c r="AW97">
+        <v>6</v>
+      </c>
+      <c r="AX97">
+        <v>2</v>
+      </c>
+      <c r="AY97">
+        <v>15</v>
+      </c>
+      <c r="AZ97">
+        <v>10</v>
+      </c>
+      <c r="BA97">
         <v>8</v>
       </c>
-      <c r="Y97">
-        <v>1.08</v>
-      </c>
-      <c r="Z97">
-        <v>2.12</v>
-      </c>
-      <c r="AA97">
+      <c r="BB97">
+        <v>9</v>
+      </c>
+      <c r="BC97">
+        <v>17</v>
+      </c>
+      <c r="BD97">
+        <v>2.05</v>
+      </c>
+      <c r="BE97">
+        <v>6.25</v>
+      </c>
+      <c r="BF97">
+        <v>1.84</v>
+      </c>
+      <c r="BG97">
+        <v>1.25</v>
+      </c>
+      <c r="BH97">
         <v>3.45</v>
       </c>
-      <c r="AB97">
-        <v>3.45</v>
-      </c>
-      <c r="AC97">
-        <v>1.01</v>
-      </c>
-      <c r="AD97">
-        <v>11.5</v>
-      </c>
-      <c r="AE97">
-        <v>1.26</v>
-      </c>
-      <c r="AF97">
-        <v>3.55</v>
-      </c>
-      <c r="AG97">
-        <v>1.85</v>
-      </c>
-      <c r="AH97">
-        <v>1.83</v>
-      </c>
-      <c r="AI97">
-        <v>1.75</v>
-      </c>
-      <c r="AJ97">
-        <v>2</v>
-      </c>
-      <c r="AK97">
-        <v>1.3</v>
-      </c>
-      <c r="AL97">
-        <v>1.3</v>
-      </c>
-      <c r="AM97">
-        <v>1.77</v>
-      </c>
-      <c r="AN97">
-        <v>0.5</v>
-      </c>
-      <c r="AO97">
-        <v>1</v>
-      </c>
-      <c r="AP97">
-        <v>0.4</v>
-      </c>
-      <c r="AQ97">
-        <v>1.4</v>
-      </c>
-      <c r="AR97">
-        <v>1.27</v>
-      </c>
-      <c r="AS97">
-        <v>0.95</v>
-      </c>
-      <c r="AT97">
-        <v>2.22</v>
-      </c>
-      <c r="AU97">
-        <v>-1</v>
-      </c>
-      <c r="AV97">
-        <v>-1</v>
-      </c>
-      <c r="AW97">
-        <v>-1</v>
-      </c>
-      <c r="AX97">
-        <v>-1</v>
-      </c>
-      <c r="AY97">
-        <v>-1</v>
-      </c>
-      <c r="AZ97">
-        <v>-1</v>
-      </c>
-      <c r="BA97">
-        <v>-1</v>
-      </c>
-      <c r="BB97">
-        <v>-1</v>
-      </c>
-      <c r="BC97">
-        <v>-1</v>
-      </c>
-      <c r="BD97">
-        <v>1.75</v>
-      </c>
-      <c r="BE97">
-        <v>6.4</v>
-      </c>
-      <c r="BF97">
+      <c r="BI97">
+        <v>1.46</v>
+      </c>
+      <c r="BJ97">
+        <v>2.5</v>
+      </c>
+      <c r="BK97">
+        <v>1.73</v>
+      </c>
+      <c r="BL97">
+        <v>1.97</v>
+      </c>
+      <c r="BM97">
         <v>2.15</v>
       </c>
-      <c r="BG97">
-        <v>1.24</v>
-      </c>
-      <c r="BH97">
-        <v>3.55</v>
-      </c>
-      <c r="BI97">
-        <v>1.44</v>
-      </c>
-      <c r="BJ97">
-        <v>2.55</v>
-      </c>
-      <c r="BK97">
-        <v>1.72</v>
-      </c>
-      <c r="BL97">
-        <v>1.98</v>
-      </c>
-      <c r="BM97">
-        <v>2.12</v>
-      </c>
       <c r="BN97">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="BO97">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="BP97">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="98" spans="1:68">
@@ -21073,7 +21073,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>7477913</v>
+        <v>7477911</v>
       </c>
       <c r="C98" t="s">
         <v>68</v>
@@ -21082,196 +21082,196 @@
         <v>69</v>
       </c>
       <c r="E98" s="2">
-        <v>45565.875</v>
+        <v>45566.65625</v>
       </c>
       <c r="F98">
         <v>9</v>
       </c>
       <c r="G98" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H98" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K98">
         <v>1</v>
       </c>
       <c r="L98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O98" t="s">
-        <v>159</v>
+        <v>96</v>
       </c>
       <c r="P98" t="s">
-        <v>96</v>
+        <v>227</v>
       </c>
       <c r="Q98">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="R98">
         <v>2.1</v>
       </c>
       <c r="S98">
+        <v>2.6</v>
+      </c>
+      <c r="T98">
+        <v>1.4</v>
+      </c>
+      <c r="U98">
+        <v>2.75</v>
+      </c>
+      <c r="V98">
+        <v>3</v>
+      </c>
+      <c r="W98">
+        <v>1.36</v>
+      </c>
+      <c r="X98">
+        <v>8</v>
+      </c>
+      <c r="Y98">
+        <v>1.08</v>
+      </c>
+      <c r="Z98">
+        <v>3.85</v>
+      </c>
+      <c r="AA98">
+        <v>3.65</v>
+      </c>
+      <c r="AB98">
+        <v>1.93</v>
+      </c>
+      <c r="AC98">
+        <v>1.05</v>
+      </c>
+      <c r="AD98">
+        <v>9</v>
+      </c>
+      <c r="AE98">
+        <v>1.29</v>
+      </c>
+      <c r="AF98">
         <v>3.5</v>
       </c>
-      <c r="T98">
-        <v>1.44</v>
-      </c>
-      <c r="U98">
-        <v>2.63</v>
-      </c>
-      <c r="V98">
-        <v>3.25</v>
-      </c>
-      <c r="W98">
+      <c r="AG98">
+        <v>2.01</v>
+      </c>
+      <c r="AH98">
+        <v>1.81</v>
+      </c>
+      <c r="AI98">
+        <v>1.91</v>
+      </c>
+      <c r="AJ98">
+        <v>1.91</v>
+      </c>
+      <c r="AK98">
+        <v>1.9</v>
+      </c>
+      <c r="AL98">
+        <v>1.28</v>
+      </c>
+      <c r="AM98">
+        <v>1.26</v>
+      </c>
+      <c r="AN98">
+        <v>1</v>
+      </c>
+      <c r="AO98">
+        <v>1.5</v>
+      </c>
+      <c r="AP98">
+        <v>0.8</v>
+      </c>
+      <c r="AQ98">
+        <v>1.8</v>
+      </c>
+      <c r="AR98">
+        <v>1.05</v>
+      </c>
+      <c r="AS98">
+        <v>1.45</v>
+      </c>
+      <c r="AT98">
+        <v>2.5</v>
+      </c>
+      <c r="AU98">
+        <v>0</v>
+      </c>
+      <c r="AV98">
+        <v>8</v>
+      </c>
+      <c r="AW98">
+        <v>6</v>
+      </c>
+      <c r="AX98">
+        <v>2</v>
+      </c>
+      <c r="AY98">
+        <v>8</v>
+      </c>
+      <c r="AZ98">
+        <v>13</v>
+      </c>
+      <c r="BA98">
+        <v>5</v>
+      </c>
+      <c r="BB98">
+        <v>5</v>
+      </c>
+      <c r="BC98">
+        <v>10</v>
+      </c>
+      <c r="BD98">
+        <v>2.38</v>
+      </c>
+      <c r="BE98">
+        <v>6.4</v>
+      </c>
+      <c r="BF98">
+        <v>1.65</v>
+      </c>
+      <c r="BG98">
+        <v>1.3</v>
+      </c>
+      <c r="BH98">
+        <v>3.15</v>
+      </c>
+      <c r="BI98">
+        <v>1.5</v>
+      </c>
+      <c r="BJ98">
+        <v>2.35</v>
+      </c>
+      <c r="BK98">
+        <v>1.84</v>
+      </c>
+      <c r="BL98">
+        <v>1.84</v>
+      </c>
+      <c r="BM98">
+        <v>2.32</v>
+      </c>
+      <c r="BN98">
+        <v>1.53</v>
+      </c>
+      <c r="BO98">
+        <v>2.95</v>
+      </c>
+      <c r="BP98">
         <v>1.33</v>
-      </c>
-      <c r="X98">
-        <v>9</v>
-      </c>
-      <c r="Y98">
-        <v>1.07</v>
-      </c>
-      <c r="Z98">
-        <v>2.65</v>
-      </c>
-      <c r="AA98">
-        <v>3.45</v>
-      </c>
-      <c r="AB98">
-        <v>2.65</v>
-      </c>
-      <c r="AC98">
-        <v>1.06</v>
-      </c>
-      <c r="AD98">
-        <v>8.5</v>
-      </c>
-      <c r="AE98">
-        <v>1.33</v>
-      </c>
-      <c r="AF98">
-        <v>3.25</v>
-      </c>
-      <c r="AG98">
-        <v>2</v>
-      </c>
-      <c r="AH98">
-        <v>1.73</v>
-      </c>
-      <c r="AI98">
-        <v>1.8</v>
-      </c>
-      <c r="AJ98">
-        <v>1.95</v>
-      </c>
-      <c r="AK98">
-        <v>1.44</v>
-      </c>
-      <c r="AL98">
-        <v>1.33</v>
-      </c>
-      <c r="AM98">
-        <v>1.53</v>
-      </c>
-      <c r="AN98">
-        <v>2.25</v>
-      </c>
-      <c r="AO98">
-        <v>1.25</v>
-      </c>
-      <c r="AP98">
-        <v>2.4</v>
-      </c>
-      <c r="AQ98">
-        <v>1</v>
-      </c>
-      <c r="AR98">
-        <v>1.15</v>
-      </c>
-      <c r="AS98">
-        <v>0.98</v>
-      </c>
-      <c r="AT98">
-        <v>2.13</v>
-      </c>
-      <c r="AU98">
-        <v>-1</v>
-      </c>
-      <c r="AV98">
-        <v>-1</v>
-      </c>
-      <c r="AW98">
-        <v>-1</v>
-      </c>
-      <c r="AX98">
-        <v>-1</v>
-      </c>
-      <c r="AY98">
-        <v>-1</v>
-      </c>
-      <c r="AZ98">
-        <v>-1</v>
-      </c>
-      <c r="BA98">
-        <v>-1</v>
-      </c>
-      <c r="BB98">
-        <v>-1</v>
-      </c>
-      <c r="BC98">
-        <v>-1</v>
-      </c>
-      <c r="BD98">
-        <v>1.69</v>
-      </c>
-      <c r="BE98">
-        <v>6.85</v>
-      </c>
-      <c r="BF98">
-        <v>2.81</v>
-      </c>
-      <c r="BG98">
-        <v>1.18</v>
-      </c>
-      <c r="BH98">
-        <v>3.7</v>
-      </c>
-      <c r="BI98">
-        <v>1.39</v>
-      </c>
-      <c r="BJ98">
-        <v>2.67</v>
-      </c>
-      <c r="BK98">
-        <v>1.77</v>
-      </c>
-      <c r="BL98">
-        <v>1.95</v>
-      </c>
-      <c r="BM98">
-        <v>2.14</v>
-      </c>
-      <c r="BN98">
-        <v>1.6</v>
-      </c>
-      <c r="BO98">
-        <v>2.78</v>
-      </c>
-      <c r="BP98">
-        <v>1.32</v>
       </c>
     </row>
     <row r="99" spans="1:68">
@@ -21288,10 +21288,10 @@
         <v>69</v>
       </c>
       <c r="E99" s="2">
-        <v>45565.875</v>
+        <v>45566.65625</v>
       </c>
       <c r="F99">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G99" t="s">
         <v>79</v>
@@ -21318,10 +21318,10 @@
         <v>5</v>
       </c>
       <c r="O99" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q99">
         <v>3.6</v>
@@ -21414,31 +21414,31 @@
         <v>2.05</v>
       </c>
       <c r="AU99">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV99">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AW99">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX99">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY99">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="AZ99">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BA99">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BB99">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BC99">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BD99">
         <v>2</v>
@@ -21485,7 +21485,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>7477903</v>
+        <v>7477901</v>
       </c>
       <c r="C100" t="s">
         <v>68</v>
@@ -21494,16 +21494,16 @@
         <v>69</v>
       </c>
       <c r="E100" s="2">
-        <v>45565.875</v>
+        <v>45566.65625</v>
       </c>
       <c r="F100">
         <v>9</v>
       </c>
       <c r="G100" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="H100" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -21518,172 +21518,172 @@
         <v>1</v>
       </c>
       <c r="M100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O100" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="P100" t="s">
-        <v>185</v>
+        <v>96</v>
       </c>
       <c r="Q100">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R100">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S100">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="T100">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U100">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V100">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="W100">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="X100">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y100">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z100">
-        <v>1.93</v>
+        <v>1.68</v>
       </c>
       <c r="AA100">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="AB100">
+        <v>5</v>
+      </c>
+      <c r="AC100">
+        <v>1.05</v>
+      </c>
+      <c r="AD100">
+        <v>9.5</v>
+      </c>
+      <c r="AE100">
+        <v>1.25</v>
+      </c>
+      <c r="AF100">
         <v>3.85</v>
       </c>
-      <c r="AC100">
-        <v>1.01</v>
-      </c>
-      <c r="AD100">
-        <v>8.1</v>
-      </c>
-      <c r="AE100">
-        <v>1.27</v>
-      </c>
-      <c r="AF100">
-        <v>3.25</v>
-      </c>
       <c r="AG100">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AH100">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="AI100">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="AJ100">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="AK100">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="AL100">
         <v>1.28</v>
       </c>
       <c r="AM100">
-        <v>1.93</v>
+        <v>1.82</v>
       </c>
       <c r="AN100">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="AO100">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="AP100">
-        <v>1.6</v>
+        <v>2.6</v>
       </c>
       <c r="AQ100">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="AR100">
         <v>1.61</v>
       </c>
       <c r="AS100">
-        <v>1.02</v>
+        <v>1.39</v>
       </c>
       <c r="AT100">
-        <v>2.63</v>
+        <v>3</v>
       </c>
       <c r="AU100">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AV100">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW100">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AX100">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AY100">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="AZ100">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BA100">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BB100">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BC100">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BD100">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="BE100">
         <v>6.75</v>
       </c>
       <c r="BF100">
-        <v>2.65</v>
+        <v>2.4</v>
       </c>
       <c r="BG100">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="BH100">
-        <v>3.15</v>
+        <v>3.8</v>
       </c>
       <c r="BI100">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="BJ100">
-        <v>2.33</v>
+        <v>2.7</v>
       </c>
       <c r="BK100">
-        <v>1.82</v>
+        <v>1.65</v>
       </c>
       <c r="BL100">
-        <v>1.86</v>
+        <v>2.08</v>
       </c>
       <c r="BM100">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="BN100">
-        <v>1.54</v>
+        <v>1.71</v>
       </c>
       <c r="BO100">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="BP100">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="101" spans="1:68">
@@ -21691,7 +21691,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>7477901</v>
+        <v>7477900</v>
       </c>
       <c r="C101" t="s">
         <v>68</v>
@@ -21700,16 +21700,16 @@
         <v>69</v>
       </c>
       <c r="E101" s="2">
-        <v>45565.875</v>
+        <v>45566.65625</v>
       </c>
       <c r="F101">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G101" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H101" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -21721,34 +21721,34 @@
         <v>0</v>
       </c>
       <c r="L101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N101">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O101" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="P101" t="s">
-        <v>96</v>
+        <v>229</v>
       </c>
       <c r="Q101">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="R101">
         <v>2.25</v>
       </c>
       <c r="S101">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T101">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U101">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V101">
         <v>2.63</v>
@@ -21763,13 +21763,13 @@
         <v>1.1</v>
       </c>
       <c r="Z101">
-        <v>1.68</v>
+        <v>2.12</v>
       </c>
       <c r="AA101">
-        <v>3.85</v>
+        <v>3.45</v>
       </c>
       <c r="AB101">
-        <v>5</v>
+        <v>3.45</v>
       </c>
       <c r="AC101">
         <v>1.05</v>
@@ -21778,10 +21778,10 @@
         <v>9.5</v>
       </c>
       <c r="AE101">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="AF101">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="AG101">
         <v>1.73</v>
@@ -21790,76 +21790,76 @@
         <v>2</v>
       </c>
       <c r="AI101">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="AJ101">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AK101">
-        <v>1.28</v>
+        <v>1.35</v>
       </c>
       <c r="AL101">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AM101">
-        <v>1.82</v>
+        <v>1.71</v>
       </c>
       <c r="AN101">
-        <v>2.5</v>
+        <v>1.25</v>
       </c>
       <c r="AO101">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AP101">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="AQ101">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AR101">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="AS101">
-        <v>1.39</v>
+        <v>1.49</v>
       </c>
       <c r="AT101">
-        <v>3</v>
+        <v>3.09</v>
       </c>
       <c r="AU101">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV101">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AW101">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AX101">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY101">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="AZ101">
-        <v>-1</v>
+        <v>16</v>
       </c>
       <c r="BA101">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BB101">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BC101">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="BD101">
-        <v>1.6</v>
+        <v>1.73</v>
       </c>
       <c r="BE101">
-        <v>6.75</v>
+        <v>6.5</v>
       </c>
       <c r="BF101">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="BG101">
         <v>1.21</v>
@@ -21871,25 +21871,25 @@
         <v>1.38</v>
       </c>
       <c r="BJ101">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="BK101">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="BL101">
-        <v>2.08</v>
+        <v>2.14</v>
       </c>
       <c r="BM101">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="BN101">
-        <v>1.71</v>
+        <v>1.72</v>
       </c>
       <c r="BO101">
-        <v>2.55</v>
+        <v>2.48</v>
       </c>
       <c r="BP101">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="102" spans="1:68">
@@ -21897,7 +21897,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>7477900</v>
+        <v>7477903</v>
       </c>
       <c r="C102" t="s">
         <v>68</v>
@@ -21906,16 +21906,16 @@
         <v>69</v>
       </c>
       <c r="E102" s="2">
-        <v>45565.875</v>
+        <v>45566.65625</v>
       </c>
       <c r="F102">
         <v>9</v>
       </c>
       <c r="G102" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="H102" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I102">
         <v>0</v>
@@ -21927,175 +21927,175 @@
         <v>0</v>
       </c>
       <c r="L102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N102">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O102" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>230</v>
+        <v>185</v>
       </c>
       <c r="Q102">
+        <v>2.5</v>
+      </c>
+      <c r="R102">
+        <v>2.2</v>
+      </c>
+      <c r="S102">
+        <v>4.5</v>
+      </c>
+      <c r="T102">
+        <v>1.4</v>
+      </c>
+      <c r="U102">
         <v>2.75</v>
       </c>
-      <c r="R102">
-        <v>2.25</v>
-      </c>
-      <c r="S102">
-        <v>3.75</v>
-      </c>
-      <c r="T102">
-        <v>1.33</v>
-      </c>
-      <c r="U102">
+      <c r="V102">
+        <v>3</v>
+      </c>
+      <c r="W102">
+        <v>1.36</v>
+      </c>
+      <c r="X102">
+        <v>8</v>
+      </c>
+      <c r="Y102">
+        <v>1.08</v>
+      </c>
+      <c r="Z102">
+        <v>1.93</v>
+      </c>
+      <c r="AA102">
+        <v>3.65</v>
+      </c>
+      <c r="AB102">
+        <v>3.85</v>
+      </c>
+      <c r="AC102">
+        <v>1.01</v>
+      </c>
+      <c r="AD102">
+        <v>8.1</v>
+      </c>
+      <c r="AE102">
+        <v>1.27</v>
+      </c>
+      <c r="AF102">
         <v>3.25</v>
       </c>
-      <c r="V102">
+      <c r="AG102">
+        <v>1.86</v>
+      </c>
+      <c r="AH102">
+        <v>1.96</v>
+      </c>
+      <c r="AI102">
+        <v>1.91</v>
+      </c>
+      <c r="AJ102">
+        <v>1.91</v>
+      </c>
+      <c r="AK102">
+        <v>1.24</v>
+      </c>
+      <c r="AL102">
+        <v>1.28</v>
+      </c>
+      <c r="AM102">
+        <v>1.93</v>
+      </c>
+      <c r="AN102">
+        <v>1.75</v>
+      </c>
+      <c r="AO102">
+        <v>2.5</v>
+      </c>
+      <c r="AP102">
+        <v>1.6</v>
+      </c>
+      <c r="AQ102">
+        <v>2.2</v>
+      </c>
+      <c r="AR102">
+        <v>1.61</v>
+      </c>
+      <c r="AS102">
+        <v>1.02</v>
+      </c>
+      <c r="AT102">
         <v>2.63</v>
       </c>
-      <c r="W102">
-        <v>1.44</v>
-      </c>
-      <c r="X102">
+      <c r="AU102">
         <v>7</v>
       </c>
-      <c r="Y102">
-        <v>1.1</v>
-      </c>
-      <c r="Z102">
-        <v>2.12</v>
-      </c>
-      <c r="AA102">
-        <v>3.45</v>
-      </c>
-      <c r="AB102">
-        <v>3.45</v>
-      </c>
-      <c r="AC102">
-        <v>1.05</v>
-      </c>
-      <c r="AD102">
-        <v>9.5</v>
-      </c>
-      <c r="AE102">
-        <v>1.19</v>
-      </c>
-      <c r="AF102">
-        <v>3.65</v>
-      </c>
-      <c r="AG102">
-        <v>1.73</v>
-      </c>
-      <c r="AH102">
-        <v>2</v>
-      </c>
-      <c r="AI102">
-        <v>1.62</v>
-      </c>
-      <c r="AJ102">
-        <v>2.2</v>
-      </c>
-      <c r="AK102">
-        <v>1.35</v>
-      </c>
-      <c r="AL102">
+      <c r="AV102">
+        <v>3</v>
+      </c>
+      <c r="AW102">
+        <v>3</v>
+      </c>
+      <c r="AX102">
+        <v>2</v>
+      </c>
+      <c r="AY102">
+        <v>16</v>
+      </c>
+      <c r="AZ102">
+        <v>10</v>
+      </c>
+      <c r="BA102">
+        <v>7</v>
+      </c>
+      <c r="BB102">
+        <v>5</v>
+      </c>
+      <c r="BC102">
+        <v>12</v>
+      </c>
+      <c r="BD102">
+        <v>1.5</v>
+      </c>
+      <c r="BE102">
+        <v>6.75</v>
+      </c>
+      <c r="BF102">
+        <v>2.65</v>
+      </c>
+      <c r="BG102">
         <v>1.29</v>
       </c>
-      <c r="AM102">
-        <v>1.71</v>
-      </c>
-      <c r="AN102">
-        <v>1.25</v>
-      </c>
-      <c r="AO102">
-        <v>1.75</v>
-      </c>
-      <c r="AP102">
-        <v>1.2</v>
-      </c>
-      <c r="AQ102">
-        <v>1.6</v>
-      </c>
-      <c r="AR102">
-        <v>1.6</v>
-      </c>
-      <c r="AS102">
-        <v>1.49</v>
-      </c>
-      <c r="AT102">
-        <v>3.09</v>
-      </c>
-      <c r="AU102">
-        <v>-1</v>
-      </c>
-      <c r="AV102">
-        <v>-1</v>
-      </c>
-      <c r="AW102">
-        <v>-1</v>
-      </c>
-      <c r="AX102">
-        <v>-1</v>
-      </c>
-      <c r="AY102">
-        <v>-1</v>
-      </c>
-      <c r="AZ102">
-        <v>-1</v>
-      </c>
-      <c r="BA102">
-        <v>-1</v>
-      </c>
-      <c r="BB102">
-        <v>-1</v>
-      </c>
-      <c r="BC102">
-        <v>-1</v>
-      </c>
-      <c r="BD102">
-        <v>1.73</v>
-      </c>
-      <c r="BE102">
-        <v>6.5</v>
-      </c>
-      <c r="BF102">
-        <v>2.18</v>
-      </c>
-      <c r="BG102">
-        <v>1.21</v>
-      </c>
       <c r="BH102">
-        <v>3.8</v>
+        <v>3.15</v>
       </c>
       <c r="BI102">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="BJ102">
-        <v>2.75</v>
+        <v>2.33</v>
       </c>
       <c r="BK102">
-        <v>1.62</v>
+        <v>1.82</v>
       </c>
       <c r="BL102">
-        <v>2.14</v>
+        <v>1.86</v>
       </c>
       <c r="BM102">
-        <v>1.98</v>
+        <v>2.3</v>
       </c>
       <c r="BN102">
-        <v>1.72</v>
+        <v>1.54</v>
       </c>
       <c r="BO102">
-        <v>2.48</v>
+        <v>2.9</v>
       </c>
       <c r="BP102">
-        <v>1.47</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="103" spans="1:68">
@@ -22103,7 +22103,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>7477905</v>
+        <v>7477916</v>
       </c>
       <c r="C103" t="s">
         <v>68</v>
@@ -22112,196 +22112,196 @@
         <v>69</v>
       </c>
       <c r="E103" s="2">
-        <v>45565.875</v>
+        <v>45566.66666666666</v>
       </c>
       <c r="F103">
         <v>9</v>
       </c>
       <c r="G103" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="H103" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="I103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J103">
         <v>0</v>
       </c>
       <c r="K103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L103">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M103">
         <v>1</v>
       </c>
       <c r="N103">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O103" t="s">
-        <v>96</v>
+        <v>163</v>
       </c>
       <c r="P103" t="s">
-        <v>102</v>
+        <v>230</v>
       </c>
       <c r="Q103">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="R103">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="S103">
-        <v>2.88</v>
+        <v>4.75</v>
       </c>
       <c r="T103">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="U103">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="V103">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="W103">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="X103">
+        <v>6</v>
+      </c>
+      <c r="Y103">
+        <v>1.13</v>
+      </c>
+      <c r="Z103">
+        <v>1.64</v>
+      </c>
+      <c r="AA103">
+        <v>3.6</v>
+      </c>
+      <c r="AB103">
+        <v>4</v>
+      </c>
+      <c r="AC103">
+        <v>1.02</v>
+      </c>
+      <c r="AD103">
+        <v>13</v>
+      </c>
+      <c r="AE103">
+        <v>1.16</v>
+      </c>
+      <c r="AF103">
+        <v>4.5</v>
+      </c>
+      <c r="AG103">
+        <v>1.61</v>
+      </c>
+      <c r="AH103">
+        <v>2.15</v>
+      </c>
+      <c r="AI103">
+        <v>1.67</v>
+      </c>
+      <c r="AJ103">
+        <v>2.1</v>
+      </c>
+      <c r="AK103">
+        <v>1.22</v>
+      </c>
+      <c r="AL103">
+        <v>1.25</v>
+      </c>
+      <c r="AM103">
+        <v>2.09</v>
+      </c>
+      <c r="AN103">
+        <v>2.25</v>
+      </c>
+      <c r="AO103">
+        <v>0.75</v>
+      </c>
+      <c r="AP103">
+        <v>2.4</v>
+      </c>
+      <c r="AQ103">
+        <v>0.6</v>
+      </c>
+      <c r="AR103">
+        <v>1.21</v>
+      </c>
+      <c r="AS103">
+        <v>1.24</v>
+      </c>
+      <c r="AT103">
+        <v>2.45</v>
+      </c>
+      <c r="AU103">
+        <v>6</v>
+      </c>
+      <c r="AV103">
+        <v>5</v>
+      </c>
+      <c r="AW103">
+        <v>6</v>
+      </c>
+      <c r="AX103">
+        <v>1</v>
+      </c>
+      <c r="AY103">
+        <v>16</v>
+      </c>
+      <c r="AZ103">
         <v>8</v>
       </c>
-      <c r="Y103">
-        <v>1.08</v>
-      </c>
-      <c r="Z103">
-        <v>3.45</v>
-      </c>
-      <c r="AA103">
-        <v>3.45</v>
-      </c>
-      <c r="AB103">
-        <v>2.12</v>
-      </c>
-      <c r="AC103">
-        <v>1.05</v>
-      </c>
-      <c r="AD103">
+      <c r="BA103">
+        <v>4</v>
+      </c>
+      <c r="BB103">
+        <v>5</v>
+      </c>
+      <c r="BC103">
         <v>9</v>
       </c>
-      <c r="AE103">
+      <c r="BD103">
+        <v>1.36</v>
+      </c>
+      <c r="BE103">
+        <v>7.7</v>
+      </c>
+      <c r="BF103">
+        <v>4.4</v>
+      </c>
+      <c r="BG103">
         <v>1.26</v>
       </c>
-      <c r="AF103">
-        <v>3.4</v>
-      </c>
-      <c r="AG103">
-        <v>1.91</v>
-      </c>
-      <c r="AH103">
-        <v>1.8</v>
-      </c>
-      <c r="AI103">
-        <v>1.75</v>
-      </c>
-      <c r="AJ103">
-        <v>2</v>
-      </c>
-      <c r="AK103">
-        <v>1.64</v>
-      </c>
-      <c r="AL103">
-        <v>1.31</v>
-      </c>
-      <c r="AM103">
-        <v>1.36</v>
-      </c>
-      <c r="AN103">
-        <v>0.33</v>
-      </c>
-      <c r="AO103">
-        <v>0.5</v>
-      </c>
-      <c r="AP103">
-        <v>0.25</v>
-      </c>
-      <c r="AQ103">
-        <v>1</v>
-      </c>
-      <c r="AR103">
-        <v>1.36</v>
-      </c>
-      <c r="AS103">
-        <v>1.5</v>
-      </c>
-      <c r="AT103">
-        <v>2.86</v>
-      </c>
-      <c r="AU103">
-        <v>-1</v>
-      </c>
-      <c r="AV103">
-        <v>-1</v>
-      </c>
-      <c r="AW103">
-        <v>-1</v>
-      </c>
-      <c r="AX103">
-        <v>-1</v>
-      </c>
-      <c r="AY103">
-        <v>-1</v>
-      </c>
-      <c r="AZ103">
-        <v>-1</v>
-      </c>
-      <c r="BA103">
-        <v>-1</v>
-      </c>
-      <c r="BB103">
-        <v>-1</v>
-      </c>
-      <c r="BC103">
-        <v>-1</v>
-      </c>
-      <c r="BD103">
-        <v>2.08</v>
-      </c>
-      <c r="BE103">
-        <v>6.4</v>
-      </c>
-      <c r="BF103">
+      <c r="BH103">
+        <v>3.08</v>
+      </c>
+      <c r="BI103">
+        <v>1.53</v>
+      </c>
+      <c r="BJ103">
+        <v>2.28</v>
+      </c>
+      <c r="BK103">
+        <v>1.96</v>
+      </c>
+      <c r="BL103">
         <v>1.79</v>
       </c>
-      <c r="BG103">
-        <v>1.28</v>
-      </c>
-      <c r="BH103">
-        <v>3.3</v>
-      </c>
-      <c r="BI103">
-        <v>1.49</v>
-      </c>
-      <c r="BJ103">
-        <v>2.4</v>
-      </c>
-      <c r="BK103">
-        <v>1.79</v>
-      </c>
-      <c r="BL103">
-        <v>1.9</v>
-      </c>
       <c r="BM103">
-        <v>2.23</v>
+        <v>2.51</v>
       </c>
       <c r="BN103">
-        <v>1.56</v>
+        <v>1.44</v>
       </c>
       <c r="BO103">
-        <v>2.9</v>
+        <v>3.35</v>
       </c>
       <c r="BP103">
-        <v>1.34</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="104" spans="1:68">
@@ -22318,7 +22318,7 @@
         <v>69</v>
       </c>
       <c r="E104" s="2">
-        <v>45569.875</v>
+        <v>45570.35416666666</v>
       </c>
       <c r="F104">
         <v>10</v>
@@ -22444,31 +22444,31 @@
         <v>2.15</v>
       </c>
       <c r="AU104">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AV104">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="AW104">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AX104">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AY104">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="AZ104">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="BA104">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BB104">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="BC104">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="BD104">
         <v>1.58</v>
@@ -22524,7 +22524,7 @@
         <v>69</v>
       </c>
       <c r="E105" s="2">
-        <v>45569.875</v>
+        <v>45570.35416666666</v>
       </c>
       <c r="F105">
         <v>10</v>
@@ -22650,31 +22650,31 @@
         <v>2.4</v>
       </c>
       <c r="AU105">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="AV105">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AW105">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="AX105">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="AY105">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="AZ105">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BA105">
-        <v>-1</v>
+        <v>17</v>
       </c>
       <c r="BB105">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BC105">
-        <v>-1</v>
+        <v>21</v>
       </c>
       <c r="BD105">
         <v>1.57</v>
@@ -22874,13 +22874,13 @@
         <v>9</v>
       </c>
       <c r="BA106">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB106">
         <v>2</v>
       </c>
       <c r="BC106">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD106">
         <v>1.55</v>
@@ -23145,7 +23145,7 @@
         <v>45570.45833333334</v>
       </c>
       <c r="F108">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G108" t="s">
         <v>85</v>
@@ -23351,7 +23351,7 @@
         <v>45570.45833333334</v>
       </c>
       <c r="F109">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G109" t="s">
         <v>92</v>
@@ -23557,7 +23557,7 @@
         <v>45570.45833333334</v>
       </c>
       <c r="F110">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G110" t="s">
         <v>89</v>
@@ -23763,7 +23763,7 @@
         <v>45570.45833333334</v>
       </c>
       <c r="F111">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G111" t="s">
         <v>71</v>
@@ -24175,7 +24175,7 @@
         <v>45570.45833333334</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G113" t="s">
         <v>78</v>
@@ -24381,7 +24381,7 @@
         <v>45570.45833333334</v>
       </c>
       <c r="F114">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G114" t="s">
         <v>93</v>
@@ -24587,7 +24587,7 @@
         <v>45570.45833333334</v>
       </c>
       <c r="F115">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G115" t="s">
         <v>81</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -439,10 +439,10 @@
     <t>['9', '50']</t>
   </si>
   <si>
-    <t>['24', '79']</t>
+    <t>['8', '85']</t>
   </si>
   <si>
-    <t>['8', '85']</t>
+    <t>['24', '79']</t>
   </si>
   <si>
     <t>['10', '33', '63']</t>
@@ -484,16 +484,16 @@
     <t>['24', '49', '66']</t>
   </si>
   <si>
-    <t>['90+1', '90+3']</t>
-  </si>
-  <si>
     <t>['11', '49', '81']</t>
   </si>
   <si>
     <t>['10']</t>
   </si>
   <si>
-    <t>['30', '57', '67']</t>
+    <t>['90+1', '90+3']</t>
+  </si>
+  <si>
+    <t>['74']</t>
   </si>
   <si>
     <t>['63']</t>
@@ -502,7 +502,7 @@
     <t>['58', '89']</t>
   </si>
   <si>
-    <t>['74']</t>
+    <t>['30', '57', '67']</t>
   </si>
   <si>
     <t>['23', '42', '82']</t>
@@ -517,6 +517,9 @@
     <t>['23']</t>
   </si>
   <si>
+    <t>['8', '38', '56', '67']</t>
+  </si>
+  <si>
     <t>['49', '56']</t>
   </si>
   <si>
@@ -524,9 +527,6 @@
   </si>
   <si>
     <t>['47', '77']</t>
-  </si>
-  <si>
-    <t>['8', '38', '56', '67']</t>
   </si>
   <si>
     <t>['54']</t>
@@ -622,13 +622,13 @@
     <t>['25', '71']</t>
   </si>
   <si>
-    <t>['33']</t>
+    <t>['27']</t>
   </si>
   <si>
     <t>['20', '40', '50', '71']</t>
   </si>
   <si>
-    <t>['27']</t>
+    <t>['33']</t>
   </si>
   <si>
     <t>['44', '59', '68', '81']</t>
@@ -664,10 +664,10 @@
     <t>['28', '32']</t>
   </si>
   <si>
-    <t>['42', '45+1']</t>
+    <t>['31', '45+6']</t>
   </si>
   <si>
-    <t>['31', '45+6']</t>
+    <t>['42', '45+1']</t>
   </si>
   <si>
     <t>['5', '78']</t>
@@ -688,6 +688,9 @@
     <t>['90+1']</t>
   </si>
   <si>
+    <t>['44', '86']</t>
+  </si>
+  <si>
     <t>['6', '23', '60', '83']</t>
   </si>
   <si>
@@ -697,13 +700,10 @@
     <t>['12', '90+2']</t>
   </si>
   <si>
-    <t>['44', '86']</t>
+    <t>['47', '85']</t>
   </si>
   <si>
     <t>['79', '90+4']</t>
-  </si>
-  <si>
-    <t>['47', '85']</t>
   </si>
   <si>
     <t>['84']</t>
@@ -2781,7 +2781,7 @@
         <v>100</v>
       </c>
       <c r="P9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="Q9">
         <v>3.75</v>
@@ -8961,7 +8961,7 @@
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="Q39">
         <v>3.2</v>
@@ -13039,7 +13039,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>7477866</v>
+        <v>7477868</v>
       </c>
       <c r="C59" t="s">
         <v>68</v>
@@ -13054,10 +13054,10 @@
         <v>6</v>
       </c>
       <c r="G59" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="H59" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -13069,16 +13069,16 @@
         <v>1</v>
       </c>
       <c r="L59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59">
         <v>1</v>
       </c>
       <c r="N59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O59" t="s">
-        <v>137</v>
+        <v>96</v>
       </c>
       <c r="P59" t="s">
         <v>202</v>
@@ -13090,7 +13090,7 @@
         <v>2.2</v>
       </c>
       <c r="S59">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T59">
         <v>1.36</v>
@@ -13099,25 +13099,25 @@
         <v>3</v>
       </c>
       <c r="V59">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W59">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X59">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y59">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z59">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="AA59">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="AB59">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="AC59">
         <v>1.05</v>
@@ -13126,118 +13126,118 @@
         <v>9.5</v>
       </c>
       <c r="AE59">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AF59">
-        <v>3.8</v>
+        <v>3.55</v>
       </c>
       <c r="AG59">
+        <v>1.85</v>
+      </c>
+      <c r="AH59">
+        <v>1.76</v>
+      </c>
+      <c r="AI59">
         <v>1.75</v>
       </c>
-      <c r="AH59">
-        <v>1.95</v>
-      </c>
-      <c r="AI59">
-        <v>1.7</v>
-      </c>
       <c r="AJ59">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AK59">
         <v>1.33</v>
       </c>
       <c r="AL59">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AM59">
         <v>1.7</v>
       </c>
       <c r="AN59">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO59">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP59">
-        <v>1.4</v>
+        <v>2.4</v>
       </c>
       <c r="AQ59">
-        <v>2.2</v>
+        <v>1.2</v>
       </c>
       <c r="AR59">
-        <v>0.83</v>
+        <v>1.57</v>
       </c>
       <c r="AS59">
         <v>0.75</v>
       </c>
       <c r="AT59">
-        <v>1.58</v>
+        <v>2.32</v>
       </c>
       <c r="AU59">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV59">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW59">
         <v>2</v>
       </c>
       <c r="AX59">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY59">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ59">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BA59">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="BB59">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BC59">
         <v>8</v>
       </c>
       <c r="BD59">
-        <v>1.55</v>
+        <v>1.58</v>
       </c>
       <c r="BE59">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="BF59">
-        <v>2.55</v>
+        <v>2.43</v>
       </c>
       <c r="BG59">
-        <v>1.23</v>
+        <v>1.3</v>
       </c>
       <c r="BH59">
-        <v>3.65</v>
+        <v>3.15</v>
       </c>
       <c r="BI59">
-        <v>1.41</v>
+        <v>1.53</v>
       </c>
       <c r="BJ59">
-        <v>2.65</v>
+        <v>2.32</v>
       </c>
       <c r="BK59">
-        <v>1.66</v>
+        <v>1.88</v>
       </c>
       <c r="BL59">
-        <v>2.06</v>
+        <v>1.92</v>
       </c>
       <c r="BM59">
-        <v>2.04</v>
+        <v>2.32</v>
       </c>
       <c r="BN59">
-        <v>1.68</v>
+        <v>1.53</v>
       </c>
       <c r="BO59">
-        <v>2.55</v>
+        <v>3.05</v>
       </c>
       <c r="BP59">
-        <v>1.44</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="60" spans="1:68">
@@ -13451,7 +13451,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>7477868</v>
+        <v>7477866</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -13466,10 +13466,10 @@
         <v>6</v>
       </c>
       <c r="G61" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="H61" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -13481,16 +13481,16 @@
         <v>1</v>
       </c>
       <c r="L61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61">
         <v>1</v>
       </c>
       <c r="N61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O61" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="P61" t="s">
         <v>204</v>
@@ -13502,7 +13502,7 @@
         <v>2.2</v>
       </c>
       <c r="S61">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T61">
         <v>1.36</v>
@@ -13511,25 +13511,25 @@
         <v>3</v>
       </c>
       <c r="V61">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W61">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X61">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y61">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z61">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="AA61">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="AB61">
-        <v>3.9</v>
+        <v>3.1</v>
       </c>
       <c r="AC61">
         <v>1.05</v>
@@ -13538,118 +13538,118 @@
         <v>9.5</v>
       </c>
       <c r="AE61">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AF61">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="AG61">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="AH61">
-        <v>1.76</v>
+        <v>1.95</v>
       </c>
       <c r="AI61">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AJ61">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AK61">
         <v>1.33</v>
       </c>
       <c r="AL61">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AM61">
         <v>1.7</v>
       </c>
       <c r="AN61">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO61">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP61">
-        <v>2.4</v>
+        <v>1.4</v>
       </c>
       <c r="AQ61">
-        <v>1.2</v>
+        <v>2.2</v>
       </c>
       <c r="AR61">
-        <v>1.57</v>
+        <v>0.83</v>
       </c>
       <c r="AS61">
         <v>0.75</v>
       </c>
       <c r="AT61">
-        <v>2.32</v>
+        <v>1.58</v>
       </c>
       <c r="AU61">
+        <v>6</v>
+      </c>
+      <c r="AV61">
+        <v>6</v>
+      </c>
+      <c r="AW61">
+        <v>2</v>
+      </c>
+      <c r="AX61">
+        <v>3</v>
+      </c>
+      <c r="AY61">
+        <v>10</v>
+      </c>
+      <c r="AZ61">
+        <v>9</v>
+      </c>
+      <c r="BA61">
         <v>5</v>
       </c>
-      <c r="AV61">
-        <v>4</v>
-      </c>
-      <c r="AW61">
-        <v>2</v>
-      </c>
-      <c r="AX61">
-        <v>5</v>
-      </c>
-      <c r="AY61">
-        <v>12</v>
-      </c>
-      <c r="AZ61">
-        <v>14</v>
-      </c>
-      <c r="BA61">
-        <v>1</v>
-      </c>
       <c r="BB61">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BC61">
         <v>8</v>
       </c>
       <c r="BD61">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="BE61">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="BF61">
-        <v>2.43</v>
+        <v>2.55</v>
       </c>
       <c r="BG61">
-        <v>1.3</v>
+        <v>1.23</v>
       </c>
       <c r="BH61">
-        <v>3.15</v>
+        <v>3.65</v>
       </c>
       <c r="BI61">
-        <v>1.53</v>
+        <v>1.41</v>
       </c>
       <c r="BJ61">
-        <v>2.32</v>
+        <v>2.65</v>
       </c>
       <c r="BK61">
-        <v>1.88</v>
+        <v>1.66</v>
       </c>
       <c r="BL61">
-        <v>1.92</v>
+        <v>2.06</v>
       </c>
       <c r="BM61">
-        <v>2.32</v>
+        <v>2.04</v>
       </c>
       <c r="BN61">
-        <v>1.53</v>
+        <v>1.68</v>
       </c>
       <c r="BO61">
-        <v>3.05</v>
+        <v>2.55</v>
       </c>
       <c r="BP61">
-        <v>1.32</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="62" spans="1:68">
@@ -14687,7 +14687,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>7477885</v>
+        <v>7477886</v>
       </c>
       <c r="C67" t="s">
         <v>68</v>
@@ -14702,19 +14702,19 @@
         <v>7</v>
       </c>
       <c r="G67" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="H67" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I67">
         <v>1</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L67">
         <v>2</v>
@@ -14729,61 +14729,61 @@
         <v>141</v>
       </c>
       <c r="P67" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="Q67">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="R67">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="S67">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="T67">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="U67">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="V67">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="W67">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="X67">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y67">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="Z67">
-        <v>1.45</v>
+        <v>1.62</v>
       </c>
       <c r="AA67">
-        <v>4.33</v>
+        <v>3.8</v>
       </c>
       <c r="AB67">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="AC67">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD67">
-        <v>9.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AE67">
-        <v>1.15</v>
+        <v>1.25</v>
       </c>
       <c r="AF67">
-        <v>4.15</v>
+        <v>3.22</v>
       </c>
       <c r="AG67">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="AH67">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AI67">
         <v>1.8</v>
@@ -14792,100 +14792,100 @@
         <v>1.95</v>
       </c>
       <c r="AK67">
-        <v>1.11</v>
+        <v>1.18</v>
       </c>
       <c r="AL67">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AM67">
-        <v>2.75</v>
+        <v>2.26</v>
       </c>
       <c r="AN67">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO67">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP67">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AQ67">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="AR67">
-        <v>1.51</v>
+        <v>1.14</v>
       </c>
       <c r="AS67">
-        <v>1.31</v>
+        <v>1.01</v>
       </c>
       <c r="AT67">
-        <v>2.82</v>
+        <v>2.15</v>
       </c>
       <c r="AU67">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV67">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AW67">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AX67">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AY67">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AZ67">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="BA67">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BB67">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BC67">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="BD67">
-        <v>1.27</v>
+        <v>1.43</v>
       </c>
       <c r="BE67">
-        <v>7.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF67">
-        <v>3.65</v>
+        <v>2.9</v>
       </c>
       <c r="BG67">
-        <v>1.16</v>
+        <v>1.21</v>
       </c>
       <c r="BH67">
-        <v>3.86</v>
+        <v>3.8</v>
       </c>
       <c r="BI67">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="BJ67">
-        <v>2.75</v>
+        <v>3.05</v>
       </c>
       <c r="BK67">
-        <v>1.68</v>
+        <v>1.59</v>
       </c>
       <c r="BL67">
-        <v>2.11</v>
+        <v>2.22</v>
       </c>
       <c r="BM67">
-        <v>2.07</v>
+        <v>2</v>
       </c>
       <c r="BN67">
-        <v>1.64</v>
+        <v>1.71</v>
       </c>
       <c r="BO67">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="BP67">
-        <v>1.35</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="68" spans="1:68">
@@ -14893,7 +14893,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>7477886</v>
+        <v>7477885</v>
       </c>
       <c r="C68" t="s">
         <v>68</v>
@@ -14908,19 +14908,19 @@
         <v>7</v>
       </c>
       <c r="G68" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="H68" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="I68">
         <v>1</v>
       </c>
       <c r="J68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L68">
         <v>2</v>
@@ -14935,61 +14935,61 @@
         <v>142</v>
       </c>
       <c r="P68" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="Q68">
+        <v>1.95</v>
+      </c>
+      <c r="R68">
+        <v>2.5</v>
+      </c>
+      <c r="S68">
+        <v>6</v>
+      </c>
+      <c r="T68">
+        <v>1.3</v>
+      </c>
+      <c r="U68">
+        <v>3.4</v>
+      </c>
+      <c r="V68">
+        <v>2.5</v>
+      </c>
+      <c r="W68">
+        <v>1.5</v>
+      </c>
+      <c r="X68">
+        <v>6</v>
+      </c>
+      <c r="Y68">
+        <v>1.13</v>
+      </c>
+      <c r="Z68">
+        <v>1.45</v>
+      </c>
+      <c r="AA68">
+        <v>4.33</v>
+      </c>
+      <c r="AB68">
+        <v>6.5</v>
+      </c>
+      <c r="AC68">
+        <v>1.01</v>
+      </c>
+      <c r="AD68">
+        <v>9.9</v>
+      </c>
+      <c r="AE68">
+        <v>1.15</v>
+      </c>
+      <c r="AF68">
+        <v>4.15</v>
+      </c>
+      <c r="AG68">
+        <v>1.65</v>
+      </c>
+      <c r="AH68">
         <v>2.2</v>
-      </c>
-      <c r="R68">
-        <v>2.25</v>
-      </c>
-      <c r="S68">
-        <v>5.5</v>
-      </c>
-      <c r="T68">
-        <v>1.36</v>
-      </c>
-      <c r="U68">
-        <v>3</v>
-      </c>
-      <c r="V68">
-        <v>2.75</v>
-      </c>
-      <c r="W68">
-        <v>1.4</v>
-      </c>
-      <c r="X68">
-        <v>7</v>
-      </c>
-      <c r="Y68">
-        <v>1.1</v>
-      </c>
-      <c r="Z68">
-        <v>1.62</v>
-      </c>
-      <c r="AA68">
-        <v>3.8</v>
-      </c>
-      <c r="AB68">
-        <v>5.5</v>
-      </c>
-      <c r="AC68">
-        <v>1.02</v>
-      </c>
-      <c r="AD68">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AE68">
-        <v>1.25</v>
-      </c>
-      <c r="AF68">
-        <v>3.22</v>
-      </c>
-      <c r="AG68">
-        <v>1.8</v>
-      </c>
-      <c r="AH68">
-        <v>2</v>
       </c>
       <c r="AI68">
         <v>1.8</v>
@@ -14998,100 +14998,100 @@
         <v>1.95</v>
       </c>
       <c r="AK68">
-        <v>1.18</v>
+        <v>1.11</v>
       </c>
       <c r="AL68">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="AM68">
-        <v>2.26</v>
+        <v>2.75</v>
       </c>
       <c r="AN68">
+        <v>3</v>
+      </c>
+      <c r="AO68">
         <v>1.5</v>
       </c>
-      <c r="AO68">
-        <v>0</v>
-      </c>
       <c r="AP68">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="AQ68">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="AR68">
-        <v>1.14</v>
+        <v>1.51</v>
       </c>
       <c r="AS68">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="AT68">
-        <v>2.15</v>
+        <v>2.82</v>
       </c>
       <c r="AU68">
+        <v>4</v>
+      </c>
+      <c r="AV68">
+        <v>8</v>
+      </c>
+      <c r="AW68">
+        <v>10</v>
+      </c>
+      <c r="AX68">
+        <v>8</v>
+      </c>
+      <c r="AY68">
+        <v>17</v>
+      </c>
+      <c r="AZ68">
+        <v>19</v>
+      </c>
+      <c r="BA68">
         <v>7</v>
       </c>
-      <c r="AV68">
-        <v>3</v>
-      </c>
-      <c r="AW68">
-        <v>7</v>
-      </c>
-      <c r="AX68">
-        <v>1</v>
-      </c>
-      <c r="AY68">
-        <v>19</v>
-      </c>
-      <c r="AZ68">
-        <v>5</v>
-      </c>
-      <c r="BA68">
-        <v>9</v>
-      </c>
       <c r="BB68">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="BC68">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BD68">
-        <v>1.43</v>
+        <v>1.27</v>
       </c>
       <c r="BE68">
-        <v>6.75</v>
+        <v>7.5</v>
       </c>
       <c r="BF68">
-        <v>2.9</v>
+        <v>3.65</v>
       </c>
       <c r="BG68">
-        <v>1.21</v>
+        <v>1.16</v>
       </c>
       <c r="BH68">
-        <v>3.8</v>
+        <v>3.86</v>
       </c>
       <c r="BI68">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="BJ68">
-        <v>3.05</v>
+        <v>2.75</v>
       </c>
       <c r="BK68">
-        <v>1.59</v>
+        <v>1.68</v>
       </c>
       <c r="BL68">
-        <v>2.22</v>
+        <v>2.11</v>
       </c>
       <c r="BM68">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="BN68">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="BO68">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="BP68">
-        <v>1.43</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="69" spans="1:68">
@@ -16747,7 +16747,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>7477848</v>
+        <v>7477847</v>
       </c>
       <c r="C77" t="s">
         <v>68</v>
@@ -16762,166 +16762,166 @@
         <v>5</v>
       </c>
       <c r="G77" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="H77" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="I77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J77">
         <v>2</v>
       </c>
       <c r="K77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L77">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M77">
         <v>2</v>
       </c>
       <c r="N77">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O77" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="P77" t="s">
         <v>216</v>
       </c>
       <c r="Q77">
-        <v>3.15</v>
+        <v>2.4</v>
       </c>
       <c r="R77">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S77">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="T77">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="U77">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="V77">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="W77">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="X77">
-        <v>6</v>
+        <v>6.75</v>
       </c>
       <c r="Y77">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="Z77">
-        <v>2.48</v>
+        <v>1.8</v>
       </c>
       <c r="AA77">
-        <v>3.1</v>
+        <v>3.65</v>
       </c>
       <c r="AB77">
-        <v>2.38</v>
+        <v>3.65</v>
       </c>
       <c r="AC77">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AD77">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AE77">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="AF77">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="AG77">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AH77">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AI77">
-        <v>1.55</v>
+        <v>1.68</v>
       </c>
       <c r="AJ77">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="AK77">
-        <v>1.5</v>
+        <v>1.24</v>
       </c>
       <c r="AL77">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AM77">
-        <v>1.4</v>
+        <v>1.82</v>
       </c>
       <c r="AN77">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO77">
-        <v>3</v>
+        <v>1.33</v>
       </c>
       <c r="AP77">
-        <v>0.4</v>
+        <v>1.8</v>
       </c>
       <c r="AQ77">
         <v>1.4</v>
       </c>
       <c r="AR77">
-        <v>1.23</v>
+        <v>1.35</v>
       </c>
       <c r="AS77">
-        <v>1.82</v>
+        <v>1.51</v>
       </c>
       <c r="AT77">
-        <v>3.05</v>
+        <v>2.86</v>
       </c>
       <c r="AU77">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AV77">
         <v>4</v>
       </c>
       <c r="AW77">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX77">
         <v>3</v>
       </c>
       <c r="AY77">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AZ77">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA77">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BB77">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC77">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD77">
-        <v>2.12</v>
+        <v>1.6</v>
       </c>
       <c r="BE77">
-        <v>6.65</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="BF77">
-        <v>2.12</v>
+        <v>2.86</v>
       </c>
       <c r="BG77">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="BH77">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="BI77">
         <v>1.36</v>
@@ -16930,22 +16930,22 @@
         <v>2.9</v>
       </c>
       <c r="BK77">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="BL77">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="BM77">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="BN77">
-        <v>1.84</v>
+        <v>1.74</v>
       </c>
       <c r="BO77">
-        <v>2.47</v>
+        <v>2.48</v>
       </c>
       <c r="BP77">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="78" spans="1:68">
@@ -16953,7 +16953,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>7477852</v>
+        <v>7477848</v>
       </c>
       <c r="C78" t="s">
         <v>68</v>
@@ -16968,190 +16968,190 @@
         <v>5</v>
       </c>
       <c r="G78" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H78" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K78">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N78">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O78" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="P78" t="s">
-        <v>96</v>
+        <v>217</v>
       </c>
       <c r="Q78">
+        <v>3.15</v>
+      </c>
+      <c r="R78">
+        <v>2.25</v>
+      </c>
+      <c r="S78">
+        <v>2.9</v>
+      </c>
+      <c r="T78">
+        <v>1.32</v>
+      </c>
+      <c r="U78">
         <v>3.1</v>
       </c>
-      <c r="R78">
-        <v>2</v>
-      </c>
-      <c r="S78">
-        <v>3.5</v>
-      </c>
-      <c r="T78">
-        <v>1.45</v>
-      </c>
-      <c r="U78">
-        <v>2.5</v>
-      </c>
       <c r="V78">
+        <v>2.45</v>
+      </c>
+      <c r="W78">
+        <v>1.48</v>
+      </c>
+      <c r="X78">
+        <v>6</v>
+      </c>
+      <c r="Y78">
+        <v>1.12</v>
+      </c>
+      <c r="Z78">
+        <v>2.48</v>
+      </c>
+      <c r="AA78">
+        <v>3.1</v>
+      </c>
+      <c r="AB78">
+        <v>2.38</v>
+      </c>
+      <c r="AC78">
+        <v>1.03</v>
+      </c>
+      <c r="AD78">
+        <v>14</v>
+      </c>
+      <c r="AE78">
+        <v>1.2</v>
+      </c>
+      <c r="AF78">
+        <v>4</v>
+      </c>
+      <c r="AG78">
+        <v>1.7</v>
+      </c>
+      <c r="AH78">
+        <v>2</v>
+      </c>
+      <c r="AI78">
+        <v>1.55</v>
+      </c>
+      <c r="AJ78">
+        <v>2.3</v>
+      </c>
+      <c r="AK78">
+        <v>1.5</v>
+      </c>
+      <c r="AL78">
+        <v>1.28</v>
+      </c>
+      <c r="AM78">
+        <v>1.4</v>
+      </c>
+      <c r="AN78">
+        <v>0</v>
+      </c>
+      <c r="AO78">
+        <v>3</v>
+      </c>
+      <c r="AP78">
+        <v>0.4</v>
+      </c>
+      <c r="AQ78">
+        <v>1.4</v>
+      </c>
+      <c r="AR78">
+        <v>1.23</v>
+      </c>
+      <c r="AS78">
+        <v>1.82</v>
+      </c>
+      <c r="AT78">
         <v>3.05</v>
       </c>
-      <c r="W78">
-        <v>1.32</v>
-      </c>
-      <c r="X78">
-        <v>9</v>
-      </c>
-      <c r="Y78">
-        <v>1.06</v>
-      </c>
-      <c r="Z78">
-        <v>2.21</v>
-      </c>
-      <c r="AA78">
-        <v>3</v>
-      </c>
-      <c r="AB78">
-        <v>2.8</v>
-      </c>
-      <c r="AC78">
-        <v>1.07</v>
-      </c>
-      <c r="AD78">
-        <v>9.25</v>
-      </c>
-      <c r="AE78">
-        <v>1.35</v>
-      </c>
-      <c r="AF78">
-        <v>2.95</v>
-      </c>
-      <c r="AG78">
-        <v>1.95</v>
-      </c>
-      <c r="AH78">
-        <v>1.75</v>
-      </c>
-      <c r="AI78">
-        <v>1.85</v>
-      </c>
-      <c r="AJ78">
-        <v>1.85</v>
-      </c>
-      <c r="AK78">
-        <v>1.38</v>
-      </c>
-      <c r="AL78">
-        <v>1.3</v>
-      </c>
-      <c r="AM78">
-        <v>1.5</v>
-      </c>
-      <c r="AN78">
-        <v>1.5</v>
-      </c>
-      <c r="AO78">
-        <v>0.33</v>
-      </c>
-      <c r="AP78">
-        <v>1.6</v>
-      </c>
-      <c r="AQ78">
-        <v>0.4</v>
-      </c>
-      <c r="AR78">
-        <v>0.73</v>
-      </c>
-      <c r="AS78">
-        <v>1.11</v>
-      </c>
-      <c r="AT78">
-        <v>1.84</v>
-      </c>
       <c r="AU78">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV78">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW78">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AX78">
         <v>3</v>
       </c>
       <c r="AY78">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="AZ78">
         <v>8</v>
       </c>
       <c r="BA78">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BB78">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC78">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD78">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="BE78">
-        <v>6.55</v>
+        <v>6.65</v>
       </c>
       <c r="BF78">
-        <v>2.27</v>
+        <v>2.12</v>
       </c>
       <c r="BG78">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="BH78">
-        <v>3.3</v>
+        <v>4</v>
       </c>
       <c r="BI78">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="BJ78">
-        <v>2.58</v>
+        <v>2.9</v>
       </c>
       <c r="BK78">
-        <v>1.81</v>
+        <v>1.59</v>
       </c>
       <c r="BL78">
-        <v>1.99</v>
+        <v>2.3</v>
       </c>
       <c r="BM78">
-        <v>2.26</v>
+        <v>1.96</v>
       </c>
       <c r="BN78">
-        <v>1.61</v>
+        <v>1.84</v>
       </c>
       <c r="BO78">
-        <v>2.8</v>
+        <v>2.47</v>
       </c>
       <c r="BP78">
-        <v>1.38</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="79" spans="1:68">
@@ -17159,7 +17159,7 @@
         <v>78</v>
       </c>
       <c r="B79">
-        <v>7477847</v>
+        <v>7477852</v>
       </c>
       <c r="C79" t="s">
         <v>68</v>
@@ -17174,190 +17174,190 @@
         <v>5</v>
       </c>
       <c r="G79" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="H79" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="I79">
         <v>0</v>
       </c>
       <c r="J79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L79">
         <v>0</v>
       </c>
       <c r="M79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O79" t="s">
         <v>96</v>
       </c>
       <c r="P79" t="s">
-        <v>217</v>
+        <v>96</v>
       </c>
       <c r="Q79">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="R79">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="S79">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="T79">
+        <v>1.45</v>
+      </c>
+      <c r="U79">
+        <v>2.5</v>
+      </c>
+      <c r="V79">
+        <v>3.05</v>
+      </c>
+      <c r="W79">
+        <v>1.32</v>
+      </c>
+      <c r="X79">
+        <v>9</v>
+      </c>
+      <c r="Y79">
+        <v>1.06</v>
+      </c>
+      <c r="Z79">
+        <v>2.21</v>
+      </c>
+      <c r="AA79">
+        <v>3</v>
+      </c>
+      <c r="AB79">
+        <v>2.8</v>
+      </c>
+      <c r="AC79">
+        <v>1.07</v>
+      </c>
+      <c r="AD79">
+        <v>9.25</v>
+      </c>
+      <c r="AE79">
         <v>1.35</v>
       </c>
-      <c r="U79">
+      <c r="AF79">
         <v>2.95</v>
       </c>
-      <c r="V79">
-        <v>2.6</v>
-      </c>
-      <c r="W79">
-        <v>1.45</v>
-      </c>
-      <c r="X79">
-        <v>6.75</v>
-      </c>
-      <c r="Y79">
-        <v>1.1</v>
-      </c>
-      <c r="Z79">
-        <v>1.8</v>
-      </c>
-      <c r="AA79">
-        <v>3.65</v>
-      </c>
-      <c r="AB79">
-        <v>3.65</v>
-      </c>
-      <c r="AC79">
-        <v>1.04</v>
-      </c>
-      <c r="AD79">
-        <v>13</v>
-      </c>
-      <c r="AE79">
-        <v>1.23</v>
-      </c>
-      <c r="AF79">
-        <v>3.7</v>
-      </c>
       <c r="AG79">
+        <v>1.95</v>
+      </c>
+      <c r="AH79">
         <v>1.75</v>
       </c>
-      <c r="AH79">
-        <v>1.95</v>
-      </c>
       <c r="AI79">
-        <v>1.68</v>
+        <v>1.85</v>
       </c>
       <c r="AJ79">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="AK79">
-        <v>1.24</v>
+        <v>1.38</v>
       </c>
       <c r="AL79">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AM79">
-        <v>1.82</v>
+        <v>1.5</v>
       </c>
       <c r="AN79">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AO79">
-        <v>1.33</v>
+        <v>0.33</v>
       </c>
       <c r="AP79">
-        <v>1.8</v>
+        <v>1.6</v>
       </c>
       <c r="AQ79">
-        <v>1.4</v>
+        <v>0.4</v>
       </c>
       <c r="AR79">
-        <v>1.35</v>
+        <v>0.73</v>
       </c>
       <c r="AS79">
-        <v>1.51</v>
+        <v>1.11</v>
       </c>
       <c r="AT79">
-        <v>2.86</v>
+        <v>1.84</v>
       </c>
       <c r="AU79">
         <v>3</v>
       </c>
       <c r="AV79">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW79">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AX79">
         <v>3</v>
       </c>
       <c r="AY79">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ79">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="BA79">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BB79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC79">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD79">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="BE79">
-        <v>8.699999999999999</v>
+        <v>6.55</v>
       </c>
       <c r="BF79">
-        <v>2.86</v>
+        <v>2.27</v>
       </c>
       <c r="BG79">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="BH79">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="BI79">
-        <v>1.36</v>
+        <v>1.48</v>
       </c>
       <c r="BJ79">
-        <v>2.9</v>
+        <v>2.58</v>
       </c>
       <c r="BK79">
-        <v>1.6</v>
+        <v>1.81</v>
       </c>
       <c r="BL79">
-        <v>2.2</v>
+        <v>1.99</v>
       </c>
       <c r="BM79">
-        <v>1.97</v>
+        <v>2.26</v>
       </c>
       <c r="BN79">
-        <v>1.74</v>
+        <v>1.61</v>
       </c>
       <c r="BO79">
-        <v>2.48</v>
+        <v>2.8</v>
       </c>
       <c r="BP79">
-        <v>1.48</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="80" spans="1:68">
@@ -17365,7 +17365,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>7477892</v>
+        <v>7477895</v>
       </c>
       <c r="C80" t="s">
         <v>68</v>
@@ -17380,82 +17380,82 @@
         <v>8</v>
       </c>
       <c r="G80" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H80" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J80">
         <v>1</v>
       </c>
       <c r="K80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M80">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N80">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O80" t="s">
-        <v>96</v>
+        <v>151</v>
       </c>
       <c r="P80" t="s">
-        <v>218</v>
+        <v>105</v>
       </c>
       <c r="Q80">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="R80">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="S80">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="T80">
+        <v>1.4</v>
+      </c>
+      <c r="U80">
+        <v>2.75</v>
+      </c>
+      <c r="V80">
+        <v>3</v>
+      </c>
+      <c r="W80">
+        <v>1.36</v>
+      </c>
+      <c r="X80">
+        <v>8</v>
+      </c>
+      <c r="Y80">
+        <v>1.08</v>
+      </c>
+      <c r="Z80">
+        <v>2.83</v>
+      </c>
+      <c r="AA80">
+        <v>3.6</v>
+      </c>
+      <c r="AB80">
+        <v>2.36</v>
+      </c>
+      <c r="AC80">
+        <v>1.06</v>
+      </c>
+      <c r="AD80">
+        <v>8.5</v>
+      </c>
+      <c r="AE80">
         <v>1.33</v>
       </c>
-      <c r="U80">
-        <v>3.25</v>
-      </c>
-      <c r="V80">
-        <v>2.63</v>
-      </c>
-      <c r="W80">
-        <v>1.44</v>
-      </c>
-      <c r="X80">
-        <v>6.5</v>
-      </c>
-      <c r="Y80">
-        <v>1.11</v>
-      </c>
-      <c r="Z80">
-        <v>4.05</v>
-      </c>
-      <c r="AA80">
-        <v>3.84</v>
-      </c>
-      <c r="AB80">
-        <v>1.83</v>
-      </c>
-      <c r="AC80">
-        <v>1.03</v>
-      </c>
-      <c r="AD80">
-        <v>13</v>
-      </c>
-      <c r="AE80">
-        <v>1.19</v>
-      </c>
       <c r="AF80">
-        <v>3.65</v>
+        <v>3.3</v>
       </c>
       <c r="AG80">
         <v>1.9</v>
@@ -17464,106 +17464,106 @@
         <v>1.8</v>
       </c>
       <c r="AI80">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AJ80">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="AK80">
-        <v>1.95</v>
+        <v>1.5</v>
       </c>
       <c r="AL80">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AM80">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="AN80">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AO80">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP80">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="AQ80">
-        <v>2.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR80">
-        <v>0.8100000000000001</v>
+        <v>1.41</v>
       </c>
       <c r="AS80">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AT80">
-        <v>1.98</v>
+        <v>2.67</v>
       </c>
       <c r="AU80">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV80">
+        <v>8</v>
+      </c>
+      <c r="AW80">
+        <v>0</v>
+      </c>
+      <c r="AX80">
+        <v>5</v>
+      </c>
+      <c r="AY80">
         <v>7</v>
       </c>
-      <c r="AW80">
-        <v>2</v>
-      </c>
-      <c r="AX80">
-        <v>2</v>
-      </c>
-      <c r="AY80">
-        <v>9</v>
-      </c>
       <c r="AZ80">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="BA80">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="BB80">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="BC80">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BD80">
-        <v>2.65</v>
+        <v>2.05</v>
       </c>
       <c r="BE80">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="BF80">
-        <v>1.49</v>
+        <v>1.81</v>
       </c>
       <c r="BG80">
         <v>1.2</v>
       </c>
       <c r="BH80">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="BI80">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="BJ80">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="BK80">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="BL80">
-        <v>2.23</v>
+        <v>2.17</v>
       </c>
       <c r="BM80">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="BN80">
-        <v>1.79</v>
+        <v>1.75</v>
       </c>
       <c r="BO80">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="BP80">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="81" spans="1:68">
@@ -17571,7 +17571,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>7477895</v>
+        <v>7477892</v>
       </c>
       <c r="C81" t="s">
         <v>68</v>
@@ -17586,82 +17586,82 @@
         <v>8</v>
       </c>
       <c r="G81" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H81" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J81">
         <v>1</v>
       </c>
       <c r="K81">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L81">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M81">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N81">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O81" t="s">
-        <v>151</v>
+        <v>96</v>
       </c>
       <c r="P81" t="s">
-        <v>105</v>
+        <v>218</v>
       </c>
       <c r="Q81">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="R81">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="S81">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="T81">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="U81">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="V81">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="W81">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="X81">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="Y81">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="Z81">
-        <v>2.83</v>
+        <v>4.05</v>
       </c>
       <c r="AA81">
-        <v>3.6</v>
+        <v>3.84</v>
       </c>
       <c r="AB81">
-        <v>2.36</v>
+        <v>1.83</v>
       </c>
       <c r="AC81">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="AD81">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AE81">
-        <v>1.33</v>
+        <v>1.19</v>
       </c>
       <c r="AF81">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="AG81">
         <v>1.9</v>
@@ -17670,106 +17670,106 @@
         <v>1.8</v>
       </c>
       <c r="AI81">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AJ81">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AK81">
+        <v>1.95</v>
+      </c>
+      <c r="AL81">
+        <v>1.22</v>
+      </c>
+      <c r="AM81">
+        <v>1.25</v>
+      </c>
+      <c r="AN81">
+        <v>1.33</v>
+      </c>
+      <c r="AO81">
         <v>1.5</v>
       </c>
-      <c r="AL81">
-        <v>1.28</v>
-      </c>
-      <c r="AM81">
-        <v>1.42</v>
-      </c>
-      <c r="AN81">
-        <v>2</v>
-      </c>
-      <c r="AO81">
-        <v>2</v>
-      </c>
       <c r="AP81">
-        <v>2.4</v>
+        <v>0.8</v>
       </c>
       <c r="AQ81">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="AR81">
-        <v>1.41</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AS81">
-        <v>1.26</v>
+        <v>1.17</v>
       </c>
       <c r="AT81">
-        <v>2.67</v>
+        <v>1.98</v>
       </c>
       <c r="AU81">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV81">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AX81">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY81">
+        <v>9</v>
+      </c>
+      <c r="AZ81">
+        <v>12</v>
+      </c>
+      <c r="BA81">
+        <v>6</v>
+      </c>
+      <c r="BB81">
+        <v>4</v>
+      </c>
+      <c r="BC81">
+        <v>10</v>
+      </c>
+      <c r="BD81">
+        <v>2.65</v>
+      </c>
+      <c r="BE81">
         <v>7</v>
       </c>
-      <c r="AZ81">
-        <v>20</v>
-      </c>
-      <c r="BA81">
-        <v>2</v>
-      </c>
-      <c r="BB81">
-        <v>11</v>
-      </c>
-      <c r="BC81">
-        <v>13</v>
-      </c>
-      <c r="BD81">
-        <v>2.05</v>
-      </c>
-      <c r="BE81">
-        <v>6.5</v>
-      </c>
       <c r="BF81">
-        <v>1.81</v>
+        <v>1.49</v>
       </c>
       <c r="BG81">
         <v>1.2</v>
       </c>
       <c r="BH81">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="BI81">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="BJ81">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="BK81">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="BL81">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="BM81">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="BN81">
-        <v>1.75</v>
+        <v>1.79</v>
       </c>
       <c r="BO81">
-        <v>2.43</v>
+        <v>2.38</v>
       </c>
       <c r="BP81">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="82" spans="1:68">
@@ -19837,7 +19837,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>7477910</v>
+        <v>7477914</v>
       </c>
       <c r="C92" t="s">
         <v>68</v>
@@ -19849,73 +19849,73 @@
         <v>45566.65625</v>
       </c>
       <c r="F92">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G92" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="H92" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K92">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L92">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M92">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="N92">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O92" t="s">
         <v>156</v>
       </c>
       <c r="P92" t="s">
-        <v>224</v>
+        <v>96</v>
       </c>
       <c r="Q92">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="R92">
         <v>2.25</v>
       </c>
       <c r="S92">
-        <v>2.4</v>
+        <v>3.1</v>
       </c>
       <c r="T92">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U92">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V92">
+        <v>2.63</v>
+      </c>
+      <c r="W92">
+        <v>1.44</v>
+      </c>
+      <c r="X92">
+        <v>6.5</v>
+      </c>
+      <c r="Y92">
+        <v>1.11</v>
+      </c>
+      <c r="Z92">
         <v>2.75</v>
       </c>
-      <c r="W92">
-        <v>1.4</v>
-      </c>
-      <c r="X92">
-        <v>7</v>
-      </c>
-      <c r="Y92">
-        <v>1.1</v>
-      </c>
-      <c r="Z92">
-        <v>3.65</v>
-      </c>
       <c r="AA92">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="AB92">
-        <v>2.02</v>
+        <v>2.55</v>
       </c>
       <c r="AC92">
         <v>1.05</v>
@@ -19924,118 +19924,118 @@
         <v>9.5</v>
       </c>
       <c r="AE92">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="AF92">
-        <v>3.42</v>
+        <v>3.68</v>
       </c>
       <c r="AG92">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AH92">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="AI92">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="AJ92">
-        <v>1.95</v>
+        <v>2.2</v>
       </c>
       <c r="AK92">
-        <v>2.01</v>
+        <v>1.47</v>
       </c>
       <c r="AL92">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="AM92">
-        <v>1.22</v>
+        <v>1.53</v>
       </c>
       <c r="AN92">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AO92">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AP92">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="AQ92">
-        <v>2.25</v>
+        <v>1.4</v>
       </c>
       <c r="AR92">
-        <v>1.4</v>
+        <v>0.93</v>
       </c>
       <c r="AS92">
-        <v>1.23</v>
+        <v>1.35</v>
       </c>
       <c r="AT92">
-        <v>2.63</v>
+        <v>2.28</v>
       </c>
       <c r="AU92">
+        <v>5</v>
+      </c>
+      <c r="AV92">
+        <v>4</v>
+      </c>
+      <c r="AW92">
+        <v>1</v>
+      </c>
+      <c r="AX92">
+        <v>2</v>
+      </c>
+      <c r="AY92">
+        <v>10</v>
+      </c>
+      <c r="AZ92">
+        <v>12</v>
+      </c>
+      <c r="BA92">
+        <v>3</v>
+      </c>
+      <c r="BB92">
         <v>8</v>
       </c>
-      <c r="AV92">
-        <v>7</v>
-      </c>
-      <c r="AW92">
-        <v>1</v>
-      </c>
-      <c r="AX92">
-        <v>4</v>
-      </c>
-      <c r="AY92">
+      <c r="BC92">
         <v>11</v>
       </c>
-      <c r="AZ92">
-        <v>15</v>
-      </c>
-      <c r="BA92">
-        <v>4</v>
-      </c>
-      <c r="BB92">
-        <v>5</v>
-      </c>
-      <c r="BC92">
-        <v>9</v>
-      </c>
       <c r="BD92">
-        <v>2.65</v>
+        <v>2.23</v>
       </c>
       <c r="BE92">
-        <v>6.4</v>
+        <v>6.55</v>
       </c>
       <c r="BF92">
-        <v>1.52</v>
+        <v>2.03</v>
       </c>
       <c r="BG92">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="BH92">
-        <v>3.3</v>
+        <v>3.84</v>
       </c>
       <c r="BI92">
-        <v>1.48</v>
+        <v>1.37</v>
       </c>
       <c r="BJ92">
-        <v>2.43</v>
+        <v>2.75</v>
       </c>
       <c r="BK92">
-        <v>1.77</v>
+        <v>1.7</v>
       </c>
       <c r="BL92">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="BM92">
-        <v>2.18</v>
+        <v>2.09</v>
       </c>
       <c r="BN92">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="BO92">
-        <v>2.8</v>
+        <v>2.69</v>
       </c>
       <c r="BP92">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="93" spans="1:68">
@@ -20043,7 +20043,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>7477914</v>
+        <v>7477913</v>
       </c>
       <c r="C93" t="s">
         <v>68</v>
@@ -20055,13 +20055,13 @@
         <v>45566.65625</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G93" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H93" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I93">
         <v>1</v>
@@ -20073,13 +20073,13 @@
         <v>1</v>
       </c>
       <c r="L93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M93">
         <v>0</v>
       </c>
       <c r="N93">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O93" t="s">
         <v>157</v>
@@ -20091,157 +20091,157 @@
         <v>3.2</v>
       </c>
       <c r="R93">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="S93">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="T93">
+        <v>1.44</v>
+      </c>
+      <c r="U93">
+        <v>2.63</v>
+      </c>
+      <c r="V93">
+        <v>3.25</v>
+      </c>
+      <c r="W93">
         <v>1.33</v>
       </c>
-      <c r="U93">
-        <v>3.25</v>
-      </c>
-      <c r="V93">
-        <v>2.63</v>
-      </c>
-      <c r="W93">
-        <v>1.44</v>
-      </c>
       <c r="X93">
-        <v>6.5</v>
+        <v>9</v>
       </c>
       <c r="Y93">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="Z93">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="AA93">
         <v>3.45</v>
       </c>
       <c r="AB93">
-        <v>2.55</v>
+        <v>2.65</v>
       </c>
       <c r="AC93">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="AD93">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AE93">
-        <v>1.19</v>
+        <v>1.33</v>
       </c>
       <c r="AF93">
-        <v>3.68</v>
+        <v>3.25</v>
       </c>
       <c r="AG93">
+        <v>2</v>
+      </c>
+      <c r="AH93">
         <v>1.73</v>
       </c>
-      <c r="AH93">
-        <v>2</v>
-      </c>
       <c r="AI93">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="AJ93">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="AK93">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AL93">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AM93">
         <v>1.53</v>
       </c>
       <c r="AN93">
+        <v>2.25</v>
+      </c>
+      <c r="AO93">
         <v>1.25</v>
       </c>
-      <c r="AO93">
-        <v>1.75</v>
-      </c>
       <c r="AP93">
+        <v>2.4</v>
+      </c>
+      <c r="AQ93">
+        <v>1</v>
+      </c>
+      <c r="AR93">
+        <v>1.15</v>
+      </c>
+      <c r="AS93">
+        <v>0.98</v>
+      </c>
+      <c r="AT93">
+        <v>2.13</v>
+      </c>
+      <c r="AU93">
+        <v>4</v>
+      </c>
+      <c r="AV93">
+        <v>2</v>
+      </c>
+      <c r="AW93">
+        <v>2</v>
+      </c>
+      <c r="AX93">
+        <v>4</v>
+      </c>
+      <c r="AY93">
+        <v>9</v>
+      </c>
+      <c r="AZ93">
+        <v>8</v>
+      </c>
+      <c r="BA93">
+        <v>2</v>
+      </c>
+      <c r="BB93">
+        <v>3</v>
+      </c>
+      <c r="BC93">
+        <v>5</v>
+      </c>
+      <c r="BD93">
+        <v>1.69</v>
+      </c>
+      <c r="BE93">
+        <v>6.85</v>
+      </c>
+      <c r="BF93">
+        <v>2.81</v>
+      </c>
+      <c r="BG93">
+        <v>1.18</v>
+      </c>
+      <c r="BH93">
+        <v>3.7</v>
+      </c>
+      <c r="BI93">
+        <v>1.39</v>
+      </c>
+      <c r="BJ93">
+        <v>2.67</v>
+      </c>
+      <c r="BK93">
+        <v>1.77</v>
+      </c>
+      <c r="BL93">
+        <v>1.95</v>
+      </c>
+      <c r="BM93">
+        <v>2.14</v>
+      </c>
+      <c r="BN93">
         <v>1.6</v>
       </c>
-      <c r="AQ93">
-        <v>1.4</v>
-      </c>
-      <c r="AR93">
-        <v>0.93</v>
-      </c>
-      <c r="AS93">
-        <v>1.35</v>
-      </c>
-      <c r="AT93">
-        <v>2.28</v>
-      </c>
-      <c r="AU93">
-        <v>5</v>
-      </c>
-      <c r="AV93">
-        <v>4</v>
-      </c>
-      <c r="AW93">
-        <v>1</v>
-      </c>
-      <c r="AX93">
-        <v>2</v>
-      </c>
-      <c r="AY93">
-        <v>10</v>
-      </c>
-      <c r="AZ93">
-        <v>12</v>
-      </c>
-      <c r="BA93">
-        <v>3</v>
-      </c>
-      <c r="BB93">
-        <v>8</v>
-      </c>
-      <c r="BC93">
-        <v>11</v>
-      </c>
-      <c r="BD93">
-        <v>2.23</v>
-      </c>
-      <c r="BE93">
-        <v>6.55</v>
-      </c>
-      <c r="BF93">
-        <v>2.03</v>
-      </c>
-      <c r="BG93">
-        <v>1.17</v>
-      </c>
-      <c r="BH93">
-        <v>3.84</v>
-      </c>
-      <c r="BI93">
-        <v>1.37</v>
-      </c>
-      <c r="BJ93">
-        <v>2.75</v>
-      </c>
-      <c r="BK93">
-        <v>1.7</v>
-      </c>
-      <c r="BL93">
-        <v>2.05</v>
-      </c>
-      <c r="BM93">
-        <v>2.09</v>
-      </c>
-      <c r="BN93">
-        <v>1.63</v>
-      </c>
       <c r="BO93">
-        <v>2.69</v>
+        <v>2.78</v>
       </c>
       <c r="BP93">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="94" spans="1:68">
@@ -20249,7 +20249,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>7477913</v>
+        <v>7477911</v>
       </c>
       <c r="C94" t="s">
         <v>68</v>
@@ -20264,190 +20264,190 @@
         <v>9</v>
       </c>
       <c r="G94" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H94" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K94">
         <v>1</v>
       </c>
       <c r="L94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M94">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O94" t="s">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="P94" t="s">
-        <v>96</v>
+        <v>224</v>
       </c>
       <c r="Q94">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="R94">
         <v>2.1</v>
       </c>
       <c r="S94">
+        <v>2.6</v>
+      </c>
+      <c r="T94">
+        <v>1.4</v>
+      </c>
+      <c r="U94">
+        <v>2.75</v>
+      </c>
+      <c r="V94">
+        <v>3</v>
+      </c>
+      <c r="W94">
+        <v>1.36</v>
+      </c>
+      <c r="X94">
+        <v>8</v>
+      </c>
+      <c r="Y94">
+        <v>1.08</v>
+      </c>
+      <c r="Z94">
+        <v>3.85</v>
+      </c>
+      <c r="AA94">
+        <v>3.65</v>
+      </c>
+      <c r="AB94">
+        <v>1.93</v>
+      </c>
+      <c r="AC94">
+        <v>1.05</v>
+      </c>
+      <c r="AD94">
+        <v>9</v>
+      </c>
+      <c r="AE94">
+        <v>1.29</v>
+      </c>
+      <c r="AF94">
         <v>3.5</v>
       </c>
-      <c r="T94">
-        <v>1.44</v>
-      </c>
-      <c r="U94">
-        <v>2.63</v>
-      </c>
-      <c r="V94">
-        <v>3.25</v>
-      </c>
-      <c r="W94">
+      <c r="AG94">
+        <v>2.01</v>
+      </c>
+      <c r="AH94">
+        <v>1.81</v>
+      </c>
+      <c r="AI94">
+        <v>1.91</v>
+      </c>
+      <c r="AJ94">
+        <v>1.91</v>
+      </c>
+      <c r="AK94">
+        <v>1.9</v>
+      </c>
+      <c r="AL94">
+        <v>1.28</v>
+      </c>
+      <c r="AM94">
+        <v>1.26</v>
+      </c>
+      <c r="AN94">
+        <v>1</v>
+      </c>
+      <c r="AO94">
+        <v>1.5</v>
+      </c>
+      <c r="AP94">
+        <v>0.8</v>
+      </c>
+      <c r="AQ94">
+        <v>1.8</v>
+      </c>
+      <c r="AR94">
+        <v>1.05</v>
+      </c>
+      <c r="AS94">
+        <v>1.45</v>
+      </c>
+      <c r="AT94">
+        <v>2.5</v>
+      </c>
+      <c r="AU94">
+        <v>0</v>
+      </c>
+      <c r="AV94">
+        <v>8</v>
+      </c>
+      <c r="AW94">
+        <v>6</v>
+      </c>
+      <c r="AX94">
+        <v>2</v>
+      </c>
+      <c r="AY94">
+        <v>8</v>
+      </c>
+      <c r="AZ94">
+        <v>13</v>
+      </c>
+      <c r="BA94">
+        <v>5</v>
+      </c>
+      <c r="BB94">
+        <v>5</v>
+      </c>
+      <c r="BC94">
+        <v>10</v>
+      </c>
+      <c r="BD94">
+        <v>2.38</v>
+      </c>
+      <c r="BE94">
+        <v>6.4</v>
+      </c>
+      <c r="BF94">
+        <v>1.65</v>
+      </c>
+      <c r="BG94">
+        <v>1.3</v>
+      </c>
+      <c r="BH94">
+        <v>3.15</v>
+      </c>
+      <c r="BI94">
+        <v>1.5</v>
+      </c>
+      <c r="BJ94">
+        <v>2.35</v>
+      </c>
+      <c r="BK94">
+        <v>1.84</v>
+      </c>
+      <c r="BL94">
+        <v>1.84</v>
+      </c>
+      <c r="BM94">
+        <v>2.32</v>
+      </c>
+      <c r="BN94">
+        <v>1.53</v>
+      </c>
+      <c r="BO94">
+        <v>2.95</v>
+      </c>
+      <c r="BP94">
         <v>1.33</v>
-      </c>
-      <c r="X94">
-        <v>9</v>
-      </c>
-      <c r="Y94">
-        <v>1.07</v>
-      </c>
-      <c r="Z94">
-        <v>2.65</v>
-      </c>
-      <c r="AA94">
-        <v>3.45</v>
-      </c>
-      <c r="AB94">
-        <v>2.65</v>
-      </c>
-      <c r="AC94">
-        <v>1.06</v>
-      </c>
-      <c r="AD94">
-        <v>8.5</v>
-      </c>
-      <c r="AE94">
-        <v>1.33</v>
-      </c>
-      <c r="AF94">
-        <v>3.25</v>
-      </c>
-      <c r="AG94">
-        <v>2</v>
-      </c>
-      <c r="AH94">
-        <v>1.73</v>
-      </c>
-      <c r="AI94">
-        <v>1.8</v>
-      </c>
-      <c r="AJ94">
-        <v>1.95</v>
-      </c>
-      <c r="AK94">
-        <v>1.44</v>
-      </c>
-      <c r="AL94">
-        <v>1.33</v>
-      </c>
-      <c r="AM94">
-        <v>1.53</v>
-      </c>
-      <c r="AN94">
-        <v>2.25</v>
-      </c>
-      <c r="AO94">
-        <v>1.25</v>
-      </c>
-      <c r="AP94">
-        <v>2.4</v>
-      </c>
-      <c r="AQ94">
-        <v>1</v>
-      </c>
-      <c r="AR94">
-        <v>1.15</v>
-      </c>
-      <c r="AS94">
-        <v>0.98</v>
-      </c>
-      <c r="AT94">
-        <v>2.13</v>
-      </c>
-      <c r="AU94">
-        <v>4</v>
-      </c>
-      <c r="AV94">
-        <v>2</v>
-      </c>
-      <c r="AW94">
-        <v>2</v>
-      </c>
-      <c r="AX94">
-        <v>4</v>
-      </c>
-      <c r="AY94">
-        <v>9</v>
-      </c>
-      <c r="AZ94">
-        <v>8</v>
-      </c>
-      <c r="BA94">
-        <v>2</v>
-      </c>
-      <c r="BB94">
-        <v>3</v>
-      </c>
-      <c r="BC94">
-        <v>5</v>
-      </c>
-      <c r="BD94">
-        <v>1.69</v>
-      </c>
-      <c r="BE94">
-        <v>6.85</v>
-      </c>
-      <c r="BF94">
-        <v>2.81</v>
-      </c>
-      <c r="BG94">
-        <v>1.18</v>
-      </c>
-      <c r="BH94">
-        <v>3.7</v>
-      </c>
-      <c r="BI94">
-        <v>1.39</v>
-      </c>
-      <c r="BJ94">
-        <v>2.67</v>
-      </c>
-      <c r="BK94">
-        <v>1.77</v>
-      </c>
-      <c r="BL94">
-        <v>1.95</v>
-      </c>
-      <c r="BM94">
-        <v>2.14</v>
-      </c>
-      <c r="BN94">
-        <v>1.6</v>
-      </c>
-      <c r="BO94">
-        <v>2.78</v>
-      </c>
-      <c r="BP94">
-        <v>1.32</v>
       </c>
     </row>
     <row r="95" spans="1:68">
@@ -20455,7 +20455,7 @@
         <v>94</v>
       </c>
       <c r="B95">
-        <v>7477905</v>
+        <v>7477910</v>
       </c>
       <c r="C95" t="s">
         <v>68</v>
@@ -20470,49 +20470,49 @@
         <v>9</v>
       </c>
       <c r="G95" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H95" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="I95">
         <v>0</v>
       </c>
       <c r="J95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L95">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M95">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N95">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O95" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>102</v>
+        <v>225</v>
       </c>
       <c r="Q95">
-        <v>3.75</v>
+        <v>4.75</v>
       </c>
       <c r="R95">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S95">
-        <v>2.88</v>
+        <v>2.4</v>
       </c>
       <c r="T95">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U95">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V95">
         <v>2.75</v>
@@ -20521,139 +20521,139 @@
         <v>1.4</v>
       </c>
       <c r="X95">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y95">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z95">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="AA95">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="AB95">
-        <v>2.12</v>
+        <v>2.02</v>
       </c>
       <c r="AC95">
         <v>1.05</v>
       </c>
       <c r="AD95">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE95">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AF95">
-        <v>3.4</v>
+        <v>3.42</v>
       </c>
       <c r="AG95">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="AH95">
+        <v>1.96</v>
+      </c>
+      <c r="AI95">
         <v>1.8</v>
       </c>
-      <c r="AI95">
-        <v>1.75</v>
-      </c>
       <c r="AJ95">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AK95">
-        <v>1.64</v>
+        <v>2.01</v>
       </c>
       <c r="AL95">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="AM95">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="AN95">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AO95">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AP95">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AQ95">
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="AR95">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="AS95">
-        <v>1.5</v>
+        <v>1.23</v>
       </c>
       <c r="AT95">
-        <v>2.86</v>
+        <v>2.63</v>
       </c>
       <c r="AU95">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AV95">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AW95">
+        <v>1</v>
+      </c>
+      <c r="AX95">
         <v>4</v>
-      </c>
-      <c r="AX95">
-        <v>5</v>
       </c>
       <c r="AY95">
         <v>11</v>
       </c>
       <c r="AZ95">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="BA95">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BB95">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BC95">
         <v>9</v>
       </c>
       <c r="BD95">
-        <v>2.08</v>
+        <v>2.65</v>
       </c>
       <c r="BE95">
         <v>6.4</v>
       </c>
       <c r="BF95">
-        <v>1.79</v>
+        <v>1.52</v>
       </c>
       <c r="BG95">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="BH95">
         <v>3.3</v>
       </c>
       <c r="BI95">
-        <v>1.49</v>
+        <v>1.48</v>
       </c>
       <c r="BJ95">
-        <v>2.4</v>
+        <v>2.43</v>
       </c>
       <c r="BK95">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="BL95">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="BM95">
-        <v>2.23</v>
+        <v>2.18</v>
       </c>
       <c r="BN95">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="BO95">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="BP95">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="96" spans="1:68">
@@ -20703,7 +20703,7 @@
         <v>96</v>
       </c>
       <c r="P96" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q96">
         <v>2.75</v>
@@ -20909,7 +20909,7 @@
         <v>96</v>
       </c>
       <c r="P97" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q97">
         <v>3.2</v>
@@ -21073,7 +21073,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>7477911</v>
+        <v>7477905</v>
       </c>
       <c r="C98" t="s">
         <v>68</v>
@@ -21088,43 +21088,43 @@
         <v>9</v>
       </c>
       <c r="G98" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="H98" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="I98">
         <v>0</v>
       </c>
       <c r="J98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L98">
         <v>0</v>
       </c>
       <c r="M98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O98" t="s">
         <v>96</v>
       </c>
       <c r="P98" t="s">
-        <v>227</v>
+        <v>102</v>
       </c>
       <c r="Q98">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="R98">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="S98">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="T98">
         <v>1.4</v>
@@ -21133,10 +21133,10 @@
         <v>2.75</v>
       </c>
       <c r="V98">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W98">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X98">
         <v>8</v>
@@ -21145,13 +21145,13 @@
         <v>1.08</v>
       </c>
       <c r="Z98">
-        <v>3.85</v>
+        <v>3.45</v>
       </c>
       <c r="AA98">
-        <v>3.65</v>
+        <v>3.45</v>
       </c>
       <c r="AB98">
-        <v>1.93</v>
+        <v>2.12</v>
       </c>
       <c r="AC98">
         <v>1.05</v>
@@ -21160,118 +21160,118 @@
         <v>9</v>
       </c>
       <c r="AE98">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AF98">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AG98">
-        <v>2.01</v>
+        <v>1.91</v>
       </c>
       <c r="AH98">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="AI98">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AJ98">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AK98">
-        <v>1.9</v>
+        <v>1.64</v>
       </c>
       <c r="AL98">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="AM98">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
       <c r="AN98">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AO98">
+        <v>0.5</v>
+      </c>
+      <c r="AP98">
+        <v>0.25</v>
+      </c>
+      <c r="AQ98">
+        <v>1</v>
+      </c>
+      <c r="AR98">
+        <v>1.36</v>
+      </c>
+      <c r="AS98">
         <v>1.5</v>
       </c>
-      <c r="AP98">
-        <v>0.8</v>
-      </c>
-      <c r="AQ98">
-        <v>1.8</v>
-      </c>
-      <c r="AR98">
-        <v>1.05</v>
-      </c>
-      <c r="AS98">
-        <v>1.45</v>
-      </c>
       <c r="AT98">
-        <v>2.5</v>
+        <v>2.86</v>
       </c>
       <c r="AU98">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AV98">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AW98">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX98">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY98">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ98">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BA98">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BB98">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC98">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD98">
-        <v>2.38</v>
+        <v>2.08</v>
       </c>
       <c r="BE98">
         <v>6.4</v>
       </c>
       <c r="BF98">
-        <v>1.65</v>
+        <v>1.79</v>
       </c>
       <c r="BG98">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="BH98">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="BI98">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="BJ98">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="BK98">
-        <v>1.84</v>
+        <v>1.79</v>
       </c>
       <c r="BL98">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="BM98">
-        <v>2.32</v>
+        <v>2.23</v>
       </c>
       <c r="BN98">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="BO98">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="BP98">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="99" spans="1:68">
@@ -21279,7 +21279,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>7477904</v>
+        <v>7477903</v>
       </c>
       <c r="C99" t="s">
         <v>68</v>
@@ -21291,46 +21291,46 @@
         <v>45566.65625</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G99" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H99" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99">
         <v>0</v>
       </c>
       <c r="K99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L99">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N99">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O99" t="s">
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>228</v>
+        <v>185</v>
       </c>
       <c r="Q99">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="R99">
         <v>2.2</v>
       </c>
       <c r="S99">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="T99">
         <v>1.4</v>
@@ -21339,10 +21339,10 @@
         <v>2.75</v>
       </c>
       <c r="V99">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W99">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X99">
         <v>8</v>
@@ -21351,133 +21351,133 @@
         <v>1.08</v>
       </c>
       <c r="Z99">
-        <v>2.7</v>
+        <v>1.93</v>
       </c>
       <c r="AA99">
-        <v>3.1</v>
+        <v>3.65</v>
       </c>
       <c r="AB99">
-        <v>2.22</v>
+        <v>3.85</v>
       </c>
       <c r="AC99">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD99">
-        <v>9</v>
+        <v>8.1</v>
       </c>
       <c r="AE99">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="AF99">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="AG99">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="AH99">
-        <v>1.85</v>
+        <v>1.96</v>
       </c>
       <c r="AI99">
+        <v>1.91</v>
+      </c>
+      <c r="AJ99">
+        <v>1.91</v>
+      </c>
+      <c r="AK99">
+        <v>1.24</v>
+      </c>
+      <c r="AL99">
+        <v>1.28</v>
+      </c>
+      <c r="AM99">
+        <v>1.93</v>
+      </c>
+      <c r="AN99">
         <v>1.75</v>
       </c>
-      <c r="AJ99">
-        <v>2</v>
-      </c>
-      <c r="AK99">
-        <v>1.62</v>
-      </c>
-      <c r="AL99">
-        <v>1.3</v>
-      </c>
-      <c r="AM99">
-        <v>1.4</v>
-      </c>
-      <c r="AN99">
+      <c r="AO99">
+        <v>2.5</v>
+      </c>
+      <c r="AP99">
+        <v>1.6</v>
+      </c>
+      <c r="AQ99">
+        <v>2.2</v>
+      </c>
+      <c r="AR99">
+        <v>1.61</v>
+      </c>
+      <c r="AS99">
+        <v>1.02</v>
+      </c>
+      <c r="AT99">
+        <v>2.63</v>
+      </c>
+      <c r="AU99">
+        <v>7</v>
+      </c>
+      <c r="AV99">
+        <v>3</v>
+      </c>
+      <c r="AW99">
+        <v>3</v>
+      </c>
+      <c r="AX99">
+        <v>2</v>
+      </c>
+      <c r="AY99">
+        <v>16</v>
+      </c>
+      <c r="AZ99">
+        <v>10</v>
+      </c>
+      <c r="BA99">
+        <v>7</v>
+      </c>
+      <c r="BB99">
+        <v>5</v>
+      </c>
+      <c r="BC99">
+        <v>12</v>
+      </c>
+      <c r="BD99">
         <v>1.5</v>
       </c>
-      <c r="AO99">
+      <c r="BE99">
+        <v>6.75</v>
+      </c>
+      <c r="BF99">
+        <v>2.65</v>
+      </c>
+      <c r="BG99">
+        <v>1.29</v>
+      </c>
+      <c r="BH99">
+        <v>3.15</v>
+      </c>
+      <c r="BI99">
         <v>1.5</v>
       </c>
-      <c r="AP99">
-        <v>1.8</v>
-      </c>
-      <c r="AQ99">
-        <v>1.2</v>
-      </c>
-      <c r="AR99">
-        <v>1.12</v>
-      </c>
-      <c r="AS99">
-        <v>0.93</v>
-      </c>
-      <c r="AT99">
-        <v>2.05</v>
-      </c>
-      <c r="AU99">
-        <v>6</v>
-      </c>
-      <c r="AV99">
-        <v>7</v>
-      </c>
-      <c r="AW99">
-        <v>4</v>
-      </c>
-      <c r="AX99">
-        <v>4</v>
-      </c>
-      <c r="AY99">
-        <v>10</v>
-      </c>
-      <c r="AZ99">
-        <v>13</v>
-      </c>
-      <c r="BA99">
-        <v>4</v>
-      </c>
-      <c r="BB99">
-        <v>7</v>
-      </c>
-      <c r="BC99">
-        <v>11</v>
-      </c>
-      <c r="BD99">
-        <v>2</v>
-      </c>
-      <c r="BE99">
-        <v>6.4</v>
-      </c>
-      <c r="BF99">
+      <c r="BJ99">
+        <v>2.33</v>
+      </c>
+      <c r="BK99">
+        <v>1.82</v>
+      </c>
+      <c r="BL99">
         <v>1.86</v>
       </c>
-      <c r="BG99">
-        <v>1.24</v>
-      </c>
-      <c r="BH99">
-        <v>3.55</v>
-      </c>
-      <c r="BI99">
-        <v>1.41</v>
-      </c>
-      <c r="BJ99">
-        <v>2.63</v>
-      </c>
-      <c r="BK99">
-        <v>1.68</v>
-      </c>
-      <c r="BL99">
-        <v>2.02</v>
-      </c>
       <c r="BM99">
-        <v>2.07</v>
+        <v>2.3</v>
       </c>
       <c r="BN99">
-        <v>1.66</v>
+        <v>1.54</v>
       </c>
       <c r="BO99">
-        <v>2.63</v>
+        <v>2.9</v>
       </c>
       <c r="BP99">
-        <v>1.41</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="100" spans="1:68">
@@ -21733,7 +21733,7 @@
         <v>161</v>
       </c>
       <c r="P101" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q101">
         <v>2.75</v>
@@ -21897,7 +21897,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>7477903</v>
+        <v>7477904</v>
       </c>
       <c r="C102" t="s">
         <v>68</v>
@@ -21909,46 +21909,46 @@
         <v>45566.65625</v>
       </c>
       <c r="F102">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G102" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H102" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102">
         <v>0</v>
       </c>
       <c r="K102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L102">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N102">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O102" t="s">
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>185</v>
+        <v>229</v>
       </c>
       <c r="Q102">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="R102">
         <v>2.2</v>
       </c>
       <c r="S102">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="T102">
         <v>1.4</v>
@@ -21957,10 +21957,10 @@
         <v>2.75</v>
       </c>
       <c r="V102">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W102">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="X102">
         <v>8</v>
@@ -21969,133 +21969,133 @@
         <v>1.08</v>
       </c>
       <c r="Z102">
-        <v>1.93</v>
+        <v>2.7</v>
       </c>
       <c r="AA102">
-        <v>3.65</v>
+        <v>3.1</v>
       </c>
       <c r="AB102">
-        <v>3.85</v>
+        <v>2.22</v>
       </c>
       <c r="AC102">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD102">
-        <v>8.1</v>
+        <v>9</v>
       </c>
       <c r="AE102">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AF102">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="AG102">
+        <v>1.85</v>
+      </c>
+      <c r="AH102">
+        <v>1.85</v>
+      </c>
+      <c r="AI102">
+        <v>1.75</v>
+      </c>
+      <c r="AJ102">
+        <v>2</v>
+      </c>
+      <c r="AK102">
+        <v>1.62</v>
+      </c>
+      <c r="AL102">
+        <v>1.3</v>
+      </c>
+      <c r="AM102">
+        <v>1.4</v>
+      </c>
+      <c r="AN102">
+        <v>1.5</v>
+      </c>
+      <c r="AO102">
+        <v>1.5</v>
+      </c>
+      <c r="AP102">
+        <v>1.8</v>
+      </c>
+      <c r="AQ102">
+        <v>1.2</v>
+      </c>
+      <c r="AR102">
+        <v>1.12</v>
+      </c>
+      <c r="AS102">
+        <v>0.93</v>
+      </c>
+      <c r="AT102">
+        <v>2.05</v>
+      </c>
+      <c r="AU102">
+        <v>6</v>
+      </c>
+      <c r="AV102">
+        <v>7</v>
+      </c>
+      <c r="AW102">
+        <v>4</v>
+      </c>
+      <c r="AX102">
+        <v>4</v>
+      </c>
+      <c r="AY102">
+        <v>10</v>
+      </c>
+      <c r="AZ102">
+        <v>13</v>
+      </c>
+      <c r="BA102">
+        <v>4</v>
+      </c>
+      <c r="BB102">
+        <v>7</v>
+      </c>
+      <c r="BC102">
+        <v>11</v>
+      </c>
+      <c r="BD102">
+        <v>2</v>
+      </c>
+      <c r="BE102">
+        <v>6.4</v>
+      </c>
+      <c r="BF102">
         <v>1.86</v>
       </c>
-      <c r="AH102">
-        <v>1.96</v>
-      </c>
-      <c r="AI102">
-        <v>1.91</v>
-      </c>
-      <c r="AJ102">
-        <v>1.91</v>
-      </c>
-      <c r="AK102">
+      <c r="BG102">
         <v>1.24</v>
       </c>
-      <c r="AL102">
-        <v>1.28</v>
-      </c>
-      <c r="AM102">
-        <v>1.93</v>
-      </c>
-      <c r="AN102">
-        <v>1.75</v>
-      </c>
-      <c r="AO102">
-        <v>2.5</v>
-      </c>
-      <c r="AP102">
-        <v>1.6</v>
-      </c>
-      <c r="AQ102">
-        <v>2.2</v>
-      </c>
-      <c r="AR102">
-        <v>1.61</v>
-      </c>
-      <c r="AS102">
-        <v>1.02</v>
-      </c>
-      <c r="AT102">
+      <c r="BH102">
+        <v>3.55</v>
+      </c>
+      <c r="BI102">
+        <v>1.41</v>
+      </c>
+      <c r="BJ102">
         <v>2.63</v>
       </c>
-      <c r="AU102">
-        <v>7</v>
-      </c>
-      <c r="AV102">
-        <v>3</v>
-      </c>
-      <c r="AW102">
-        <v>3</v>
-      </c>
-      <c r="AX102">
-        <v>2</v>
-      </c>
-      <c r="AY102">
-        <v>16</v>
-      </c>
-      <c r="AZ102">
-        <v>10</v>
-      </c>
-      <c r="BA102">
-        <v>7</v>
-      </c>
-      <c r="BB102">
-        <v>5</v>
-      </c>
-      <c r="BC102">
-        <v>12</v>
-      </c>
-      <c r="BD102">
-        <v>1.5</v>
-      </c>
-      <c r="BE102">
-        <v>6.75</v>
-      </c>
-      <c r="BF102">
-        <v>2.65</v>
-      </c>
-      <c r="BG102">
-        <v>1.29</v>
-      </c>
-      <c r="BH102">
-        <v>3.15</v>
-      </c>
-      <c r="BI102">
-        <v>1.5</v>
-      </c>
-      <c r="BJ102">
-        <v>2.33</v>
-      </c>
       <c r="BK102">
-        <v>1.82</v>
+        <v>1.68</v>
       </c>
       <c r="BL102">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="BM102">
-        <v>2.3</v>
+        <v>2.07</v>
       </c>
       <c r="BN102">
-        <v>1.54</v>
+        <v>1.66</v>
       </c>
       <c r="BO102">
-        <v>2.9</v>
+        <v>2.63</v>
       </c>
       <c r="BP102">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="103" spans="1:68">
@@ -22927,7 +22927,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>7477931</v>
+        <v>7477932</v>
       </c>
       <c r="C107" t="s">
         <v>68</v>
@@ -22939,193 +22939,193 @@
         <v>45570.45833333334</v>
       </c>
       <c r="F107">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G107" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H107" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K107">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L107">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N107">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O107" t="s">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>96</v>
+        <v>202</v>
       </c>
       <c r="Q107">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="R107">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="S107">
         <v>5</v>
       </c>
       <c r="T107">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="U107">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="V107">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="W107">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="X107">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Y107">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="Z107">
-        <v>1.8</v>
+        <v>1.57</v>
       </c>
       <c r="AA107">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AB107">
-        <v>4.6</v>
+        <v>5.8</v>
       </c>
       <c r="AC107">
         <v>1.05</v>
       </c>
       <c r="AD107">
-        <v>8.300000000000001</v>
+        <v>9.5</v>
       </c>
       <c r="AE107">
-        <v>1.26</v>
+        <v>1.17</v>
       </c>
       <c r="AF107">
-        <v>3.14</v>
+        <v>3.84</v>
       </c>
       <c r="AG107">
-        <v>1.94</v>
+        <v>1.6</v>
       </c>
       <c r="AH107">
-        <v>1.84</v>
+        <v>2.2</v>
       </c>
       <c r="AI107">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="AJ107">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="AK107">
+        <v>1.14</v>
+      </c>
+      <c r="AL107">
         <v>1.23</v>
       </c>
-      <c r="AL107">
+      <c r="AM107">
+        <v>2.47</v>
+      </c>
+      <c r="AN107">
+        <v>3</v>
+      </c>
+      <c r="AO107">
+        <v>1.33</v>
+      </c>
+      <c r="AP107">
+        <v>3</v>
+      </c>
+      <c r="AQ107">
+        <v>1</v>
+      </c>
+      <c r="AR107">
+        <v>1.52</v>
+      </c>
+      <c r="AS107">
+        <v>1.04</v>
+      </c>
+      <c r="AT107">
+        <v>2.56</v>
+      </c>
+      <c r="AU107">
+        <v>9</v>
+      </c>
+      <c r="AV107">
+        <v>7</v>
+      </c>
+      <c r="AW107">
+        <v>7</v>
+      </c>
+      <c r="AX107">
+        <v>5</v>
+      </c>
+      <c r="AY107">
+        <v>16</v>
+      </c>
+      <c r="AZ107">
+        <v>15</v>
+      </c>
+      <c r="BA107">
+        <v>4</v>
+      </c>
+      <c r="BB107">
+        <v>5</v>
+      </c>
+      <c r="BC107">
+        <v>9</v>
+      </c>
+      <c r="BD107">
+        <v>1.41</v>
+      </c>
+      <c r="BE107">
+        <v>9</v>
+      </c>
+      <c r="BF107">
+        <v>3.49</v>
+      </c>
+      <c r="BG107">
         <v>1.28</v>
       </c>
-      <c r="AM107">
-        <v>1.96</v>
-      </c>
-      <c r="AN107">
-        <v>2</v>
-      </c>
-      <c r="AO107">
-        <v>1</v>
-      </c>
-      <c r="AP107">
-        <v>1.75</v>
-      </c>
-      <c r="AQ107">
-        <v>1</v>
-      </c>
-      <c r="AR107">
-        <v>1.76</v>
-      </c>
-      <c r="AS107">
-        <v>1.23</v>
-      </c>
-      <c r="AT107">
-        <v>2.99</v>
-      </c>
-      <c r="AU107">
-        <v>5</v>
-      </c>
-      <c r="AV107">
-        <v>2</v>
-      </c>
-      <c r="AW107">
-        <v>3</v>
-      </c>
-      <c r="AX107">
-        <v>3</v>
-      </c>
-      <c r="AY107">
-        <v>14</v>
-      </c>
-      <c r="AZ107">
-        <v>5</v>
-      </c>
-      <c r="BA107">
-        <v>3</v>
-      </c>
-      <c r="BB107">
-        <v>2</v>
-      </c>
-      <c r="BC107">
-        <v>5</v>
-      </c>
-      <c r="BD107">
-        <v>1.37</v>
-      </c>
-      <c r="BE107">
-        <v>8.5</v>
-      </c>
-      <c r="BF107">
-        <v>3.86</v>
-      </c>
-      <c r="BG107">
-        <v>1.38</v>
-      </c>
       <c r="BH107">
-        <v>2.75</v>
+        <v>3.3</v>
       </c>
       <c r="BI107">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="BJ107">
-        <v>2.25</v>
+        <v>2.43</v>
       </c>
       <c r="BK107">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="BL107">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="BM107">
-        <v>2.63</v>
+        <v>2.23</v>
       </c>
       <c r="BN107">
-        <v>1.43</v>
+        <v>1.57</v>
       </c>
       <c r="BO107">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="BP107">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="108" spans="1:68">
@@ -23172,7 +23172,7 @@
         <v>3</v>
       </c>
       <c r="O108" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P108" t="s">
         <v>232</v>
@@ -23378,7 +23378,7 @@
         <v>2</v>
       </c>
       <c r="O109" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P109" t="s">
         <v>96</v>
@@ -23584,7 +23584,7 @@
         <v>3</v>
       </c>
       <c r="O110" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P110" t="s">
         <v>145</v>
@@ -23751,7 +23751,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>7477932</v>
+        <v>7477931</v>
       </c>
       <c r="C111" t="s">
         <v>68</v>
@@ -23763,193 +23763,193 @@
         <v>45570.45833333334</v>
       </c>
       <c r="F111">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G111" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H111" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K111">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L111">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N111">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O111" t="s">
-        <v>170</v>
+        <v>96</v>
       </c>
       <c r="P111" t="s">
-        <v>204</v>
+        <v>96</v>
       </c>
       <c r="Q111">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="R111">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="S111">
         <v>5</v>
       </c>
       <c r="T111">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="U111">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="V111">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="W111">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="X111">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y111">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="Z111">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="AA111">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="AB111">
-        <v>5.8</v>
+        <v>4.6</v>
       </c>
       <c r="AC111">
         <v>1.05</v>
       </c>
       <c r="AD111">
-        <v>9.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AE111">
-        <v>1.17</v>
+        <v>1.26</v>
       </c>
       <c r="AF111">
-        <v>3.84</v>
+        <v>3.14</v>
       </c>
       <c r="AG111">
-        <v>1.6</v>
+        <v>1.94</v>
       </c>
       <c r="AH111">
-        <v>2.2</v>
+        <v>1.84</v>
       </c>
       <c r="AI111">
-        <v>1.7</v>
+        <v>1.91</v>
       </c>
       <c r="AJ111">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="AK111">
-        <v>1.14</v>
+        <v>1.23</v>
       </c>
       <c r="AL111">
+        <v>1.28</v>
+      </c>
+      <c r="AM111">
+        <v>1.96</v>
+      </c>
+      <c r="AN111">
+        <v>2</v>
+      </c>
+      <c r="AO111">
+        <v>1</v>
+      </c>
+      <c r="AP111">
+        <v>1.75</v>
+      </c>
+      <c r="AQ111">
+        <v>1</v>
+      </c>
+      <c r="AR111">
+        <v>1.76</v>
+      </c>
+      <c r="AS111">
         <v>1.23</v>
       </c>
-      <c r="AM111">
-        <v>2.47</v>
-      </c>
-      <c r="AN111">
-        <v>3</v>
-      </c>
-      <c r="AO111">
-        <v>1.33</v>
-      </c>
-      <c r="AP111">
-        <v>3</v>
-      </c>
-      <c r="AQ111">
-        <v>1</v>
-      </c>
-      <c r="AR111">
-        <v>1.52</v>
-      </c>
-      <c r="AS111">
-        <v>1.04</v>
-      </c>
       <c r="AT111">
-        <v>2.56</v>
+        <v>2.99</v>
       </c>
       <c r="AU111">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AV111">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AW111">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AX111">
+        <v>3</v>
+      </c>
+      <c r="AY111">
+        <v>14</v>
+      </c>
+      <c r="AZ111">
         <v>5</v>
       </c>
-      <c r="AY111">
-        <v>16</v>
-      </c>
-      <c r="AZ111">
-        <v>15</v>
-      </c>
       <c r="BA111">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB111">
+        <v>2</v>
+      </c>
+      <c r="BC111">
         <v>5</v>
       </c>
-      <c r="BC111">
-        <v>9</v>
-      </c>
       <c r="BD111">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="BE111">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="BF111">
-        <v>3.49</v>
+        <v>3.86</v>
       </c>
       <c r="BG111">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="BH111">
-        <v>3.3</v>
+        <v>2.75</v>
       </c>
       <c r="BI111">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="BJ111">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="BK111">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="BL111">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="BM111">
-        <v>2.23</v>
+        <v>2.63</v>
       </c>
       <c r="BN111">
-        <v>1.57</v>
+        <v>1.43</v>
       </c>
       <c r="BO111">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="BP111">
-        <v>1.36</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="112" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="239">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -538,6 +538,12 @@
     <t>['47', '61']</t>
   </si>
   <si>
+    <t>['33', '62', '90+5']</t>
+  </si>
+  <si>
+    <t>['17', '50', '53']</t>
+  </si>
+  <si>
     <t>['13', '18']</t>
   </si>
   <si>
@@ -719,6 +725,12 @@
   </si>
   <si>
     <t>['20', '28']</t>
+  </si>
+  <si>
+    <t>['26', '72', '76', '86', '90+2']</t>
+  </si>
+  <si>
+    <t>['19', '23', '45+1']</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1092,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP115"/>
+  <dimension ref="A1:BP117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1339,7 +1351,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1751,7 +1763,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2163,7 +2175,7 @@
         <v>96</v>
       </c>
       <c r="P6" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2241,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ6">
         <v>1.2</v>
@@ -2369,7 +2381,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2656,7 +2668,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ8">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2859,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ9">
         <v>1.4</v>
@@ -2987,7 +2999,7 @@
         <v>101</v>
       </c>
       <c r="P10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3399,7 +3411,7 @@
         <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q12">
         <v>2.1</v>
@@ -3811,7 +3823,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4635,7 +4647,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4841,7 +4853,7 @@
         <v>108</v>
       </c>
       <c r="P19" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q19">
         <v>3.25</v>
@@ -5047,7 +5059,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5253,7 +5265,7 @@
         <v>109</v>
       </c>
       <c r="P21" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5459,7 +5471,7 @@
         <v>110</v>
       </c>
       <c r="P22" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -5665,7 +5677,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q23">
         <v>2.75</v>
@@ -5871,7 +5883,7 @@
         <v>111</v>
       </c>
       <c r="P24" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -7313,7 +7325,7 @@
         <v>116</v>
       </c>
       <c r="P31" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7600,7 +7612,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ32">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR32">
         <v>1.14</v>
@@ -7725,7 +7737,7 @@
         <v>118</v>
       </c>
       <c r="P33" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q33">
         <v>3.75</v>
@@ -8137,7 +8149,7 @@
         <v>120</v>
       </c>
       <c r="P35" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q35">
         <v>4.5</v>
@@ -8343,7 +8355,7 @@
         <v>121</v>
       </c>
       <c r="P36" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q36">
         <v>2.2</v>
@@ -8549,7 +8561,7 @@
         <v>122</v>
       </c>
       <c r="P37" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -8755,7 +8767,7 @@
         <v>123</v>
       </c>
       <c r="P38" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q38">
         <v>2.63</v>
@@ -9785,7 +9797,7 @@
         <v>96</v>
       </c>
       <c r="P43" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q43">
         <v>2.63</v>
@@ -9863,7 +9875,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ43">
         <v>1</v>
@@ -9991,7 +10003,7 @@
         <v>127</v>
       </c>
       <c r="P44" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -10197,7 +10209,7 @@
         <v>96</v>
       </c>
       <c r="P45" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q45">
         <v>3.6</v>
@@ -10275,7 +10287,7 @@
         <v>3</v>
       </c>
       <c r="AP45">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ45">
         <v>1.8</v>
@@ -10609,7 +10621,7 @@
         <v>96</v>
       </c>
       <c r="P47" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q47">
         <v>2.05</v>
@@ -10815,7 +10827,7 @@
         <v>129</v>
       </c>
       <c r="P48" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q48">
         <v>1.95</v>
@@ -11227,7 +11239,7 @@
         <v>130</v>
       </c>
       <c r="P50" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q50">
         <v>2.3</v>
@@ -11514,7 +11526,7 @@
         <v>3</v>
       </c>
       <c r="AQ51">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR51">
         <v>1.47</v>
@@ -12051,7 +12063,7 @@
         <v>118</v>
       </c>
       <c r="P54" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q54">
         <v>3.5</v>
@@ -12257,7 +12269,7 @@
         <v>134</v>
       </c>
       <c r="P55" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q55">
         <v>4.5</v>
@@ -12335,7 +12347,7 @@
         <v>2</v>
       </c>
       <c r="AP55">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ55">
         <v>1.8</v>
@@ -12463,7 +12475,7 @@
         <v>135</v>
       </c>
       <c r="P56" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q56">
         <v>2.2</v>
@@ -13081,7 +13093,7 @@
         <v>96</v>
       </c>
       <c r="P59" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13287,7 +13299,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -13493,7 +13505,7 @@
         <v>137</v>
       </c>
       <c r="P61" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -13571,7 +13583,7 @@
         <v>3</v>
       </c>
       <c r="AP61">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ61">
         <v>2.2</v>
@@ -13905,7 +13917,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q63">
         <v>2.88</v>
@@ -14111,7 +14123,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q64">
         <v>2.5</v>
@@ -14729,7 +14741,7 @@
         <v>141</v>
       </c>
       <c r="P67" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q67">
         <v>2.2</v>
@@ -15141,7 +15153,7 @@
         <v>96</v>
       </c>
       <c r="P69" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q69">
         <v>3.75</v>
@@ -15347,7 +15359,7 @@
         <v>143</v>
       </c>
       <c r="P70" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q70">
         <v>2.05</v>
@@ -15425,7 +15437,7 @@
         <v>0.33</v>
       </c>
       <c r="AP70">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ70">
         <v>0.8</v>
@@ -15553,7 +15565,7 @@
         <v>144</v>
       </c>
       <c r="P71" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q71">
         <v>2.3</v>
@@ -15634,7 +15646,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ71">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR71">
         <v>1.39</v>
@@ -15759,7 +15771,7 @@
         <v>145</v>
       </c>
       <c r="P72" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q72">
         <v>1.83</v>
@@ -15965,7 +15977,7 @@
         <v>146</v>
       </c>
       <c r="P73" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q73">
         <v>2.4</v>
@@ -16171,7 +16183,7 @@
         <v>147</v>
       </c>
       <c r="P74" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q74">
         <v>4.33</v>
@@ -16377,7 +16389,7 @@
         <v>148</v>
       </c>
       <c r="P75" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -16583,7 +16595,7 @@
         <v>149</v>
       </c>
       <c r="P76" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q76">
         <v>3.1</v>
@@ -16789,7 +16801,7 @@
         <v>96</v>
       </c>
       <c r="P77" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q77">
         <v>2.4</v>
@@ -16995,7 +17007,7 @@
         <v>150</v>
       </c>
       <c r="P78" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q78">
         <v>3.15</v>
@@ -17613,7 +17625,7 @@
         <v>96</v>
       </c>
       <c r="P81" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q81">
         <v>4.33</v>
@@ -17691,7 +17703,7 @@
         <v>1.5</v>
       </c>
       <c r="AP81">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ81">
         <v>2.25</v>
@@ -18437,7 +18449,7 @@
         <v>96</v>
       </c>
       <c r="P85" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q85">
         <v>3.4</v>
@@ -18849,7 +18861,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q87">
         <v>3.4</v>
@@ -19261,7 +19273,7 @@
         <v>155</v>
       </c>
       <c r="P89" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q89">
         <v>2.05</v>
@@ -19467,7 +19479,7 @@
         <v>96</v>
       </c>
       <c r="P90" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -19673,7 +19685,7 @@
         <v>118</v>
       </c>
       <c r="P91" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20291,7 +20303,7 @@
         <v>96</v>
       </c>
       <c r="P94" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q94">
         <v>4.5</v>
@@ -20497,7 +20509,7 @@
         <v>158</v>
       </c>
       <c r="P95" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q95">
         <v>4.75</v>
@@ -20703,7 +20715,7 @@
         <v>96</v>
       </c>
       <c r="P96" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q96">
         <v>2.75</v>
@@ -20909,7 +20921,7 @@
         <v>96</v>
       </c>
       <c r="P97" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q97">
         <v>3.2</v>
@@ -20987,7 +20999,7 @@
         <v>2</v>
       </c>
       <c r="AP97">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AQ97">
         <v>2.25</v>
@@ -21321,7 +21333,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q99">
         <v>2.5</v>
@@ -21733,7 +21745,7 @@
         <v>161</v>
       </c>
       <c r="P101" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q101">
         <v>2.75</v>
@@ -21939,7 +21951,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q102">
         <v>3.6</v>
@@ -22145,7 +22157,7 @@
         <v>163</v>
       </c>
       <c r="P103" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q103">
         <v>2.2</v>
@@ -22351,7 +22363,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -22429,7 +22441,7 @@
         <v>0.5</v>
       </c>
       <c r="AP104">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ104">
         <v>0.4</v>
@@ -22969,7 +22981,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23175,7 +23187,7 @@
         <v>168</v>
       </c>
       <c r="P108" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q108">
         <v>2.63</v>
@@ -24205,7 +24217,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q113">
         <v>3</v>
@@ -24411,7 +24423,7 @@
         <v>173</v>
       </c>
       <c r="P114" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q114">
         <v>1.91</v>
@@ -24492,7 +24504,7 @@
         <v>1</v>
       </c>
       <c r="AQ114">
-        <v>0.2</v>
+        <v>0.67</v>
       </c>
       <c r="AR114">
         <v>1.46</v>
@@ -24774,6 +24786,418 @@
       </c>
       <c r="BP115">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="116" spans="1:68">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>7477941</v>
+      </c>
+      <c r="C116" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116" t="s">
+        <v>69</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45577.45833333334</v>
+      </c>
+      <c r="F116">
+        <v>11</v>
+      </c>
+      <c r="G116" t="s">
+        <v>77</v>
+      </c>
+      <c r="H116" t="s">
+        <v>82</v>
+      </c>
+      <c r="I116">
+        <v>1</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>2</v>
+      </c>
+      <c r="L116">
+        <v>3</v>
+      </c>
+      <c r="M116">
+        <v>5</v>
+      </c>
+      <c r="N116">
+        <v>8</v>
+      </c>
+      <c r="O116" t="s">
+        <v>174</v>
+      </c>
+      <c r="P116" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q116">
+        <v>2.75</v>
+      </c>
+      <c r="R116">
+        <v>2.2</v>
+      </c>
+      <c r="S116">
+        <v>4</v>
+      </c>
+      <c r="T116">
+        <v>1.4</v>
+      </c>
+      <c r="U116">
+        <v>2.75</v>
+      </c>
+      <c r="V116">
+        <v>2.75</v>
+      </c>
+      <c r="W116">
+        <v>1.4</v>
+      </c>
+      <c r="X116">
+        <v>8</v>
+      </c>
+      <c r="Y116">
+        <v>1.08</v>
+      </c>
+      <c r="Z116">
+        <v>2.2</v>
+      </c>
+      <c r="AA116">
+        <v>3.5</v>
+      </c>
+      <c r="AB116">
+        <v>3.2</v>
+      </c>
+      <c r="AC116">
+        <v>1.04</v>
+      </c>
+      <c r="AD116">
+        <v>11</v>
+      </c>
+      <c r="AE116">
+        <v>1.3</v>
+      </c>
+      <c r="AF116">
+        <v>3.5</v>
+      </c>
+      <c r="AG116">
+        <v>1.91</v>
+      </c>
+      <c r="AH116">
+        <v>1.83</v>
+      </c>
+      <c r="AI116">
+        <v>1.8</v>
+      </c>
+      <c r="AJ116">
+        <v>1.95</v>
+      </c>
+      <c r="AK116">
+        <v>1.36</v>
+      </c>
+      <c r="AL116">
+        <v>1.25</v>
+      </c>
+      <c r="AM116">
+        <v>1.68</v>
+      </c>
+      <c r="AN116">
+        <v>0.8</v>
+      </c>
+      <c r="AO116">
+        <v>0.2</v>
+      </c>
+      <c r="AP116">
+        <v>0.67</v>
+      </c>
+      <c r="AQ116">
+        <v>0.67</v>
+      </c>
+      <c r="AR116">
+        <v>0.93</v>
+      </c>
+      <c r="AS116">
+        <v>0.99</v>
+      </c>
+      <c r="AT116">
+        <v>1.92</v>
+      </c>
+      <c r="AU116">
+        <v>6</v>
+      </c>
+      <c r="AV116">
+        <v>7</v>
+      </c>
+      <c r="AW116">
+        <v>6</v>
+      </c>
+      <c r="AX116">
+        <v>6</v>
+      </c>
+      <c r="AY116">
+        <v>16</v>
+      </c>
+      <c r="AZ116">
+        <v>19</v>
+      </c>
+      <c r="BA116">
+        <v>4</v>
+      </c>
+      <c r="BB116">
+        <v>6</v>
+      </c>
+      <c r="BC116">
+        <v>10</v>
+      </c>
+      <c r="BD116">
+        <v>1.72</v>
+      </c>
+      <c r="BE116">
+        <v>6.4</v>
+      </c>
+      <c r="BF116">
+        <v>2.2</v>
+      </c>
+      <c r="BG116">
+        <v>1.25</v>
+      </c>
+      <c r="BH116">
+        <v>3.4</v>
+      </c>
+      <c r="BI116">
+        <v>1.46</v>
+      </c>
+      <c r="BJ116">
+        <v>2.5</v>
+      </c>
+      <c r="BK116">
+        <v>1.73</v>
+      </c>
+      <c r="BL116">
+        <v>1.96</v>
+      </c>
+      <c r="BM116">
+        <v>2.17</v>
+      </c>
+      <c r="BN116">
+        <v>1.6</v>
+      </c>
+      <c r="BO116">
+        <v>2.8</v>
+      </c>
+      <c r="BP116">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="117" spans="1:68">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>7477945</v>
+      </c>
+      <c r="C117" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" t="s">
+        <v>69</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45577.45833333334</v>
+      </c>
+      <c r="F117">
+        <v>11</v>
+      </c>
+      <c r="G117" t="s">
+        <v>74</v>
+      </c>
+      <c r="H117" t="s">
+        <v>85</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <v>3</v>
+      </c>
+      <c r="K117">
+        <v>4</v>
+      </c>
+      <c r="L117">
+        <v>3</v>
+      </c>
+      <c r="M117">
+        <v>3</v>
+      </c>
+      <c r="N117">
+        <v>6</v>
+      </c>
+      <c r="O117" t="s">
+        <v>175</v>
+      </c>
+      <c r="P117" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q117">
+        <v>3</v>
+      </c>
+      <c r="R117">
+        <v>2.25</v>
+      </c>
+      <c r="S117">
+        <v>3.4</v>
+      </c>
+      <c r="T117">
+        <v>1.33</v>
+      </c>
+      <c r="U117">
+        <v>3.25</v>
+      </c>
+      <c r="V117">
+        <v>2.63</v>
+      </c>
+      <c r="W117">
+        <v>1.44</v>
+      </c>
+      <c r="X117">
+        <v>6.5</v>
+      </c>
+      <c r="Y117">
+        <v>1.11</v>
+      </c>
+      <c r="Z117">
+        <v>2.3</v>
+      </c>
+      <c r="AA117">
+        <v>3.5</v>
+      </c>
+      <c r="AB117">
+        <v>2.9</v>
+      </c>
+      <c r="AC117">
+        <v>1.02</v>
+      </c>
+      <c r="AD117">
+        <v>10</v>
+      </c>
+      <c r="AE117">
+        <v>1.22</v>
+      </c>
+      <c r="AF117">
+        <v>3.8</v>
+      </c>
+      <c r="AG117">
+        <v>1.73</v>
+      </c>
+      <c r="AH117">
+        <v>2.05</v>
+      </c>
+      <c r="AI117">
+        <v>1.62</v>
+      </c>
+      <c r="AJ117">
+        <v>2.2</v>
+      </c>
+      <c r="AK117">
+        <v>1.44</v>
+      </c>
+      <c r="AL117">
+        <v>1.3</v>
+      </c>
+      <c r="AM117">
+        <v>1.57</v>
+      </c>
+      <c r="AN117">
+        <v>1.4</v>
+      </c>
+      <c r="AO117">
+        <v>1</v>
+      </c>
+      <c r="AP117">
+        <v>1.33</v>
+      </c>
+      <c r="AQ117">
+        <v>1</v>
+      </c>
+      <c r="AR117">
+        <v>1.13</v>
+      </c>
+      <c r="AS117">
+        <v>1.41</v>
+      </c>
+      <c r="AT117">
+        <v>2.54</v>
+      </c>
+      <c r="AU117">
+        <v>7</v>
+      </c>
+      <c r="AV117">
+        <v>7</v>
+      </c>
+      <c r="AW117">
+        <v>2</v>
+      </c>
+      <c r="AX117">
+        <v>4</v>
+      </c>
+      <c r="AY117">
+        <v>14</v>
+      </c>
+      <c r="AZ117">
+        <v>13</v>
+      </c>
+      <c r="BA117">
+        <v>8</v>
+      </c>
+      <c r="BB117">
+        <v>3</v>
+      </c>
+      <c r="BC117">
+        <v>11</v>
+      </c>
+      <c r="BD117">
+        <v>1.62</v>
+      </c>
+      <c r="BE117">
+        <v>9</v>
+      </c>
+      <c r="BF117">
+        <v>2.5</v>
+      </c>
+      <c r="BG117">
+        <v>1.18</v>
+      </c>
+      <c r="BH117">
+        <v>4.33</v>
+      </c>
+      <c r="BI117">
+        <v>1.3</v>
+      </c>
+      <c r="BJ117">
+        <v>3.2</v>
+      </c>
+      <c r="BK117">
+        <v>1.52</v>
+      </c>
+      <c r="BL117">
+        <v>2.45</v>
+      </c>
+      <c r="BM117">
+        <v>1.86</v>
+      </c>
+      <c r="BN117">
+        <v>1.93</v>
+      </c>
+      <c r="BO117">
+        <v>2.29</v>
+      </c>
+      <c r="BP117">
+        <v>1.59</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -733,7 +733,7 @@
     <t>['26', '72', '76', '86', '90+2']</t>
   </si>
   <si>
-    <t>['9', '65']</t>
+    <t>['9', '64']</t>
   </si>
 </sst>
 </file>
@@ -25217,7 +25217,7 @@
         <v>69</v>
       </c>
       <c r="E118" s="2">
-        <v>45582.66666666666</v>
+        <v>45581.875</v>
       </c>
       <c r="F118">
         <v>12</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="250">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -563,6 +563,9 @@
   </si>
   <si>
     <t>['1']</t>
+  </si>
+  <si>
+    <t>['48']</t>
   </si>
   <si>
     <t>['13', '18']</t>
@@ -1122,7 +1125,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP128"/>
+  <dimension ref="A1:BP129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1381,7 +1384,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1793,7 +1796,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2205,7 +2208,7 @@
         <v>96</v>
       </c>
       <c r="P6" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2411,7 +2414,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -3029,7 +3032,7 @@
         <v>101</v>
       </c>
       <c r="P10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3441,7 +3444,7 @@
         <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q12">
         <v>2.1</v>
@@ -3853,7 +3856,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4140,7 +4143,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ15">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4677,7 +4680,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4883,7 +4886,7 @@
         <v>108</v>
       </c>
       <c r="P19" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q19">
         <v>3.25</v>
@@ -4961,7 +4964,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ19">
         <v>1.67</v>
@@ -5089,7 +5092,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5295,7 +5298,7 @@
         <v>109</v>
       </c>
       <c r="P21" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5501,7 +5504,7 @@
         <v>110</v>
       </c>
       <c r="P22" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -5707,7 +5710,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q23">
         <v>2.75</v>
@@ -5913,7 +5916,7 @@
         <v>111</v>
       </c>
       <c r="P24" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -7355,7 +7358,7 @@
         <v>116</v>
       </c>
       <c r="P31" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7973,7 +7976,7 @@
         <v>119</v>
       </c>
       <c r="P34" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -8179,7 +8182,7 @@
         <v>120</v>
       </c>
       <c r="P35" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q35">
         <v>2.2</v>
@@ -8385,7 +8388,7 @@
         <v>121</v>
       </c>
       <c r="P36" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q36">
         <v>4.5</v>
@@ -8591,7 +8594,7 @@
         <v>122</v>
       </c>
       <c r="P37" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -8797,7 +8800,7 @@
         <v>123</v>
       </c>
       <c r="P38" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q38">
         <v>2.63</v>
@@ -9496,7 +9499,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ41">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR41">
         <v>1.27</v>
@@ -9827,7 +9830,7 @@
         <v>96</v>
       </c>
       <c r="P43" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q43">
         <v>2.63</v>
@@ -10033,7 +10036,7 @@
         <v>127</v>
       </c>
       <c r="P44" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -10239,7 +10242,7 @@
         <v>96</v>
       </c>
       <c r="P45" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q45">
         <v>3.6</v>
@@ -10651,7 +10654,7 @@
         <v>96</v>
       </c>
       <c r="P47" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q47">
         <v>2.05</v>
@@ -11141,7 +11144,7 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ49">
         <v>0.5</v>
@@ -11269,7 +11272,7 @@
         <v>130</v>
       </c>
       <c r="P50" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q50">
         <v>2.3</v>
@@ -11887,7 +11890,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q53">
         <v>3.5</v>
@@ -11965,7 +11968,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ53">
         <v>1.6</v>
@@ -12711,7 +12714,7 @@
         <v>96</v>
       </c>
       <c r="P57" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -12917,7 +12920,7 @@
         <v>96</v>
       </c>
       <c r="P58" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13123,7 +13126,7 @@
         <v>135</v>
       </c>
       <c r="P59" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q59">
         <v>4.5</v>
@@ -13535,7 +13538,7 @@
         <v>137</v>
       </c>
       <c r="P61" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q61">
         <v>2.2</v>
@@ -13741,7 +13744,7 @@
         <v>138</v>
       </c>
       <c r="P62" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q62">
         <v>2.75</v>
@@ -13947,7 +13950,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q63">
         <v>2.75</v>
@@ -14028,7 +14031,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ63">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR63">
         <v>1.57</v>
@@ -14153,7 +14156,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q64">
         <v>2.5</v>
@@ -14771,7 +14774,7 @@
         <v>141</v>
       </c>
       <c r="P67" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -14977,7 +14980,7 @@
         <v>96</v>
       </c>
       <c r="P68" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q68">
         <v>3.75</v>
@@ -15183,7 +15186,7 @@
         <v>142</v>
       </c>
       <c r="P69" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q69">
         <v>2.4</v>
@@ -15264,7 +15267,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ69">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR69">
         <v>1.92</v>
@@ -15389,7 +15392,7 @@
         <v>143</v>
       </c>
       <c r="P70" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q70">
         <v>1.83</v>
@@ -15595,7 +15598,7 @@
         <v>144</v>
       </c>
       <c r="P71" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q71">
         <v>2.05</v>
@@ -15801,7 +15804,7 @@
         <v>145</v>
       </c>
       <c r="P72" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q72">
         <v>4.33</v>
@@ -16007,7 +16010,7 @@
         <v>146</v>
       </c>
       <c r="P73" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q73">
         <v>2.3</v>
@@ -16419,7 +16422,7 @@
         <v>148</v>
       </c>
       <c r="P75" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -16625,7 +16628,7 @@
         <v>149</v>
       </c>
       <c r="P76" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q76">
         <v>2.2</v>
@@ -17037,7 +17040,7 @@
         <v>96</v>
       </c>
       <c r="P78" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q78">
         <v>2.4</v>
@@ -17243,7 +17246,7 @@
         <v>150</v>
       </c>
       <c r="P79" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q79">
         <v>3.15</v>
@@ -17655,7 +17658,7 @@
         <v>96</v>
       </c>
       <c r="P81" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q81">
         <v>4.33</v>
@@ -17861,7 +17864,7 @@
         <v>96</v>
       </c>
       <c r="P82" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -17939,7 +17942,7 @@
         <v>1.5</v>
       </c>
       <c r="AP82">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ82">
         <v>2.25</v>
@@ -18891,7 +18894,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q87">
         <v>3.4</v>
@@ -19303,7 +19306,7 @@
         <v>155</v>
       </c>
       <c r="P89" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q89">
         <v>2.05</v>
@@ -19509,7 +19512,7 @@
         <v>96</v>
       </c>
       <c r="P90" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -19715,7 +19718,7 @@
         <v>119</v>
       </c>
       <c r="P91" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20333,7 +20336,7 @@
         <v>158</v>
       </c>
       <c r="P94" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q94">
         <v>4.75</v>
@@ -20411,7 +20414,7 @@
         <v>2</v>
       </c>
       <c r="AP94">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ94">
         <v>2.25</v>
@@ -20539,7 +20542,7 @@
         <v>96</v>
       </c>
       <c r="P95" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -20745,7 +20748,7 @@
         <v>96</v>
       </c>
       <c r="P96" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q96">
         <v>3.2</v>
@@ -20951,7 +20954,7 @@
         <v>96</v>
       </c>
       <c r="P97" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q97">
         <v>4.5</v>
@@ -21157,7 +21160,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q98">
         <v>3.6</v>
@@ -21363,7 +21366,7 @@
         <v>160</v>
       </c>
       <c r="P99" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q99">
         <v>2.5</v>
@@ -21775,7 +21778,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q101">
         <v>2.75</v>
@@ -22187,7 +22190,7 @@
         <v>163</v>
       </c>
       <c r="P103" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q103">
         <v>2.2</v>
@@ -22393,7 +22396,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -23011,7 +23014,7 @@
         <v>166</v>
       </c>
       <c r="P107" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q107">
         <v>2.63</v>
@@ -23504,7 +23507,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ109">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AR109">
         <v>1.52</v>
@@ -23835,7 +23838,7 @@
         <v>170</v>
       </c>
       <c r="P111" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -24041,7 +24044,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q112">
         <v>1.91</v>
@@ -24247,7 +24250,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q113">
         <v>2.1</v>
@@ -24865,7 +24868,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -25071,7 +25074,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -25277,7 +25280,7 @@
         <v>96</v>
       </c>
       <c r="P118" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q118">
         <v>3.4</v>
@@ -25659,7 +25662,7 @@
         <v>45584.35416666666</v>
       </c>
       <c r="F120">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G120" t="s">
         <v>86</v>
@@ -26101,7 +26104,7 @@
         <v>135</v>
       </c>
       <c r="P122" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q122">
         <v>2.6</v>
@@ -26277,7 +26280,7 @@
         <v>45584.45833333334</v>
       </c>
       <c r="F123">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G123" t="s">
         <v>93</v>
@@ -26719,7 +26722,7 @@
         <v>180</v>
       </c>
       <c r="P125" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q125">
         <v>3.2</v>
@@ -26925,7 +26928,7 @@
         <v>181</v>
       </c>
       <c r="P126" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q126">
         <v>2</v>
@@ -27101,7 +27104,7 @@
         <v>45584.45833333334</v>
       </c>
       <c r="F127">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G127" t="s">
         <v>89</v>
@@ -27131,7 +27134,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q127">
         <v>4.5</v>
@@ -27494,6 +27497,212 @@
       </c>
       <c r="BP128">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="129" spans="1:68">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>7477964</v>
+      </c>
+      <c r="C129" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" t="s">
+        <v>69</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45584.45833333334</v>
+      </c>
+      <c r="F129">
+        <v>12</v>
+      </c>
+      <c r="G129" t="s">
+        <v>87</v>
+      </c>
+      <c r="H129" t="s">
+        <v>75</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <v>1</v>
+      </c>
+      <c r="O129" t="s">
+        <v>183</v>
+      </c>
+      <c r="P129" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q129">
+        <v>3.75</v>
+      </c>
+      <c r="R129">
+        <v>2.05</v>
+      </c>
+      <c r="S129">
+        <v>3</v>
+      </c>
+      <c r="T129">
+        <v>1.44</v>
+      </c>
+      <c r="U129">
+        <v>2.63</v>
+      </c>
+      <c r="V129">
+        <v>3.25</v>
+      </c>
+      <c r="W129">
+        <v>1.33</v>
+      </c>
+      <c r="X129">
+        <v>10</v>
+      </c>
+      <c r="Y129">
+        <v>1.06</v>
+      </c>
+      <c r="Z129">
+        <v>3</v>
+      </c>
+      <c r="AA129">
+        <v>3.25</v>
+      </c>
+      <c r="AB129">
+        <v>2.3</v>
+      </c>
+      <c r="AC129">
+        <v>1.07</v>
+      </c>
+      <c r="AD129">
+        <v>9</v>
+      </c>
+      <c r="AE129">
+        <v>1.36</v>
+      </c>
+      <c r="AF129">
+        <v>3.1</v>
+      </c>
+      <c r="AG129">
+        <v>2.05</v>
+      </c>
+      <c r="AH129">
+        <v>1.67</v>
+      </c>
+      <c r="AI129">
+        <v>1.91</v>
+      </c>
+      <c r="AJ129">
+        <v>1.91</v>
+      </c>
+      <c r="AK129">
+        <v>1.63</v>
+      </c>
+      <c r="AL129">
+        <v>1.28</v>
+      </c>
+      <c r="AM129">
+        <v>1.36</v>
+      </c>
+      <c r="AN129">
+        <v>0.8</v>
+      </c>
+      <c r="AO129">
+        <v>1.2</v>
+      </c>
+      <c r="AP129">
+        <v>1.17</v>
+      </c>
+      <c r="AQ129">
+        <v>1</v>
+      </c>
+      <c r="AR129">
+        <v>1.4</v>
+      </c>
+      <c r="AS129">
+        <v>1.04</v>
+      </c>
+      <c r="AT129">
+        <v>2.44</v>
+      </c>
+      <c r="AU129">
+        <v>2</v>
+      </c>
+      <c r="AV129">
+        <v>2</v>
+      </c>
+      <c r="AW129">
+        <v>2</v>
+      </c>
+      <c r="AX129">
+        <v>3</v>
+      </c>
+      <c r="AY129">
+        <v>8</v>
+      </c>
+      <c r="AZ129">
+        <v>6</v>
+      </c>
+      <c r="BA129">
+        <v>0</v>
+      </c>
+      <c r="BB129">
+        <v>4</v>
+      </c>
+      <c r="BC129">
+        <v>4</v>
+      </c>
+      <c r="BD129">
+        <v>1.98</v>
+      </c>
+      <c r="BE129">
+        <v>5.8</v>
+      </c>
+      <c r="BF129">
+        <v>1.92</v>
+      </c>
+      <c r="BG129">
+        <v>1.41</v>
+      </c>
+      <c r="BH129">
+        <v>2.65</v>
+      </c>
+      <c r="BI129">
+        <v>1.68</v>
+      </c>
+      <c r="BJ129">
+        <v>2.02</v>
+      </c>
+      <c r="BK129">
+        <v>2.1</v>
+      </c>
+      <c r="BL129">
+        <v>1.64</v>
+      </c>
+      <c r="BM129">
+        <v>2.7</v>
+      </c>
+      <c r="BN129">
+        <v>1.38</v>
+      </c>
+      <c r="BO129">
+        <v>3.65</v>
+      </c>
+      <c r="BP129">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="263">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -568,6 +568,27 @@
     <t>['48']</t>
   </si>
   <si>
+    <t>['34', '63']</t>
+  </si>
+  <si>
+    <t>['52']</t>
+  </si>
+  <si>
+    <t>['3', '86']</t>
+  </si>
+  <si>
+    <t>['8', '17', '28', '70', '73']</t>
+  </si>
+  <si>
+    <t>['34', '90+5']</t>
+  </si>
+  <si>
+    <t>['46', '73', '90+5']</t>
+  </si>
+  <si>
+    <t>['53']</t>
+  </si>
+  <si>
     <t>['13', '18']</t>
   </si>
   <si>
@@ -764,6 +785,24 @@
   </si>
   <si>
     <t>['14', '52', '79']</t>
+  </si>
+  <si>
+    <t>['16', '53', '81']</t>
+  </si>
+  <si>
+    <t>['77', '90+3']</t>
+  </si>
+  <si>
+    <t>['1', '36']</t>
+  </si>
+  <si>
+    <t>['31', '90']</t>
+  </si>
+  <si>
+    <t>['90+3']</t>
+  </si>
+  <si>
+    <t>['29', '62']</t>
   </si>
 </sst>
 </file>
@@ -1125,7 +1164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP129"/>
+  <dimension ref="A1:BP141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1384,7 +1423,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1462,10 +1501,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ2">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1668,10 +1707,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AQ3">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1796,7 +1835,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -1874,10 +1913,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ4">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2080,10 +2119,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2208,7 +2247,7 @@
         <v>96</v>
       </c>
       <c r="P6" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2286,10 +2325,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ6">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2414,7 +2453,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2492,10 +2531,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AQ7">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2698,10 +2737,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ8">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2904,10 +2943,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3032,7 +3071,7 @@
         <v>101</v>
       </c>
       <c r="P10" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3110,10 +3149,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ10">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3316,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ11">
         <v>1</v>
@@ -3444,7 +3483,7 @@
         <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="Q12">
         <v>2.1</v>
@@ -3522,10 +3561,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ12">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3728,10 +3767,10 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3856,7 +3895,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4680,7 +4719,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4886,7 +4925,7 @@
         <v>108</v>
       </c>
       <c r="P19" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="Q19">
         <v>3.25</v>
@@ -5092,7 +5131,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5298,7 +5337,7 @@
         <v>109</v>
       </c>
       <c r="P21" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5504,7 +5543,7 @@
         <v>110</v>
       </c>
       <c r="P22" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -5710,7 +5749,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="Q23">
         <v>2.75</v>
@@ -5916,7 +5955,7 @@
         <v>111</v>
       </c>
       <c r="P24" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -6406,7 +6445,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ26">
         <v>0.67</v>
@@ -6612,7 +6651,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ27">
         <v>0.83</v>
@@ -6821,7 +6860,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR28">
         <v>0.87</v>
@@ -7024,10 +7063,10 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AQ29">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR29">
         <v>1.43</v>
@@ -7230,7 +7269,7 @@
         <v>3</v>
       </c>
       <c r="AP30">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ30">
         <v>0.6</v>
@@ -7358,7 +7397,7 @@
         <v>116</v>
       </c>
       <c r="P31" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7439,7 +7478,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ31">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR31">
         <v>1.84</v>
@@ -7645,7 +7684,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ32">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR32">
         <v>1.31</v>
@@ -7851,7 +7890,7 @@
         <v>2</v>
       </c>
       <c r="AQ33">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR33">
         <v>1.14</v>
@@ -7976,7 +8015,7 @@
         <v>119</v>
       </c>
       <c r="P34" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -8054,7 +8093,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AQ34">
         <v>1.17</v>
@@ -8182,7 +8221,7 @@
         <v>120</v>
       </c>
       <c r="P35" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="Q35">
         <v>2.2</v>
@@ -8260,7 +8299,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ35">
         <v>1</v>
@@ -8388,7 +8427,7 @@
         <v>121</v>
       </c>
       <c r="P36" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="Q36">
         <v>4.5</v>
@@ -8469,7 +8508,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ36">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR36">
         <v>1.53</v>
@@ -8594,7 +8633,7 @@
         <v>122</v>
       </c>
       <c r="P37" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="Q37">
         <v>4.33</v>
@@ -8672,7 +8711,7 @@
         <v>3</v>
       </c>
       <c r="AP37">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AQ37">
         <v>2.4</v>
@@ -8800,7 +8839,7 @@
         <v>123</v>
       </c>
       <c r="P38" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="Q38">
         <v>2.63</v>
@@ -8881,7 +8920,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ38">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR38">
         <v>0.68</v>
@@ -9087,7 +9126,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ39">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR39">
         <v>2.14</v>
@@ -9290,10 +9329,10 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ40">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR40">
         <v>1.58</v>
@@ -9705,7 +9744,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ42">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR42">
         <v>1.98</v>
@@ -9830,7 +9869,7 @@
         <v>96</v>
       </c>
       <c r="P43" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="Q43">
         <v>2.63</v>
@@ -9908,7 +9947,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ43">
         <v>1.33</v>
@@ -10036,7 +10075,7 @@
         <v>127</v>
       </c>
       <c r="P44" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -10242,7 +10281,7 @@
         <v>96</v>
       </c>
       <c r="P45" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="Q45">
         <v>3.6</v>
@@ -10320,7 +10359,7 @@
         <v>3</v>
       </c>
       <c r="AP45">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ45">
         <v>2</v>
@@ -10526,10 +10565,10 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR46">
         <v>1.46</v>
@@ -10654,7 +10693,7 @@
         <v>96</v>
       </c>
       <c r="P47" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="Q47">
         <v>2.05</v>
@@ -10938,7 +10977,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ48">
         <v>0.83</v>
@@ -11272,7 +11311,7 @@
         <v>130</v>
       </c>
       <c r="P50" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="Q50">
         <v>2.3</v>
@@ -11350,7 +11389,7 @@
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ50">
         <v>0.67</v>
@@ -11556,10 +11595,10 @@
         <v>0</v>
       </c>
       <c r="AP51">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AQ51">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR51">
         <v>1.47</v>
@@ -11765,7 +11804,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ52">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR52">
         <v>1.21</v>
@@ -11890,7 +11929,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="Q53">
         <v>3.5</v>
@@ -11971,7 +12010,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ53">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR53">
         <v>1.36</v>
@@ -12177,7 +12216,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ54">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR54">
         <v>1.26</v>
@@ -12383,7 +12422,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ55">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR55">
         <v>1.21</v>
@@ -12714,7 +12753,7 @@
         <v>96</v>
       </c>
       <c r="P57" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="Q57">
         <v>2.88</v>
@@ -12795,7 +12834,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ57">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR57">
         <v>1.7</v>
@@ -12920,7 +12959,7 @@
         <v>96</v>
       </c>
       <c r="P58" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -12998,7 +13037,7 @@
         <v>0</v>
       </c>
       <c r="AP58">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ58">
         <v>0.83</v>
@@ -13126,7 +13165,7 @@
         <v>135</v>
       </c>
       <c r="P59" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="Q59">
         <v>4.5</v>
@@ -13204,7 +13243,7 @@
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ59">
         <v>1.67</v>
@@ -13410,7 +13449,7 @@
         <v>3</v>
       </c>
       <c r="AP60">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ60">
         <v>2</v>
@@ -13538,7 +13577,7 @@
         <v>137</v>
       </c>
       <c r="P61" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="Q61">
         <v>2.2</v>
@@ -13744,7 +13783,7 @@
         <v>138</v>
       </c>
       <c r="P62" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="Q62">
         <v>2.75</v>
@@ -13822,10 +13861,10 @@
         <v>3</v>
       </c>
       <c r="AP62">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ62">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR62">
         <v>0.83</v>
@@ -13950,7 +13989,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="Q63">
         <v>2.75</v>
@@ -14156,7 +14195,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="Q64">
         <v>2.5</v>
@@ -14234,7 +14273,7 @@
         <v>2</v>
       </c>
       <c r="AP64">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ64">
         <v>1.33</v>
@@ -14646,7 +14685,7 @@
         <v>0.5</v>
       </c>
       <c r="AP66">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AQ66">
         <v>0.83</v>
@@ -14774,7 +14813,7 @@
         <v>141</v>
       </c>
       <c r="P67" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="Q67">
         <v>2.3</v>
@@ -14855,7 +14894,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ67">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR67">
         <v>1.39</v>
@@ -14980,7 +15019,7 @@
         <v>96</v>
       </c>
       <c r="P68" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="Q68">
         <v>3.75</v>
@@ -15186,7 +15225,7 @@
         <v>142</v>
       </c>
       <c r="P69" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="Q69">
         <v>2.4</v>
@@ -15264,7 +15303,7 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ69">
         <v>1</v>
@@ -15392,7 +15431,7 @@
         <v>143</v>
       </c>
       <c r="P70" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="Q70">
         <v>1.83</v>
@@ -15598,7 +15637,7 @@
         <v>144</v>
       </c>
       <c r="P71" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="Q71">
         <v>2.05</v>
@@ -15676,7 +15715,7 @@
         <v>0.33</v>
       </c>
       <c r="AP71">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ71">
         <v>0.67</v>
@@ -15804,7 +15843,7 @@
         <v>145</v>
       </c>
       <c r="P72" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="Q72">
         <v>4.33</v>
@@ -15882,7 +15921,7 @@
         <v>2</v>
       </c>
       <c r="AP72">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ72">
         <v>2</v>
@@ -16010,7 +16049,7 @@
         <v>146</v>
       </c>
       <c r="P73" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="Q73">
         <v>2.3</v>
@@ -16091,7 +16130,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ73">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR73">
         <v>1.34</v>
@@ -16294,7 +16333,7 @@
         <v>1.5</v>
       </c>
       <c r="AP74">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AQ74">
         <v>0.6</v>
@@ -16422,7 +16461,7 @@
         <v>148</v>
       </c>
       <c r="P75" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="Q75">
         <v>3.1</v>
@@ -16503,7 +16542,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ75">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR75">
         <v>1.19</v>
@@ -16628,7 +16667,7 @@
         <v>149</v>
       </c>
       <c r="P76" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="Q76">
         <v>2.2</v>
@@ -16709,7 +16748,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ76">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR76">
         <v>1.14</v>
@@ -16912,7 +16951,7 @@
         <v>0.33</v>
       </c>
       <c r="AP77">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ77">
         <v>0.83</v>
@@ -17040,7 +17079,7 @@
         <v>96</v>
       </c>
       <c r="P78" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="Q78">
         <v>2.4</v>
@@ -17121,7 +17160,7 @@
         <v>2</v>
       </c>
       <c r="AQ78">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR78">
         <v>1.35</v>
@@ -17246,7 +17285,7 @@
         <v>150</v>
       </c>
       <c r="P79" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="Q79">
         <v>3.15</v>
@@ -17324,7 +17363,7 @@
         <v>3</v>
       </c>
       <c r="AP79">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AQ79">
         <v>1.17</v>
@@ -17533,7 +17572,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ80">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR80">
         <v>1.41</v>
@@ -17658,7 +17697,7 @@
         <v>96</v>
       </c>
       <c r="P81" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="Q81">
         <v>4.33</v>
@@ -17736,10 +17775,10 @@
         <v>1.5</v>
       </c>
       <c r="AP81">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ81">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR81">
         <v>0.8100000000000001</v>
@@ -17864,7 +17903,7 @@
         <v>96</v>
       </c>
       <c r="P82" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -17945,7 +17984,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ82">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR82">
         <v>1.19</v>
@@ -18148,7 +18187,7 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ83">
         <v>1.67</v>
@@ -18354,10 +18393,10 @@
         <v>2</v>
       </c>
       <c r="AP84">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ84">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR84">
         <v>1.2</v>
@@ -18563,7 +18602,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ85">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR85">
         <v>1.22</v>
@@ -18766,7 +18805,7 @@
         <v>1.33</v>
       </c>
       <c r="AP86">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AQ86">
         <v>1.33</v>
@@ -18894,7 +18933,7 @@
         <v>153</v>
       </c>
       <c r="P87" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="Q87">
         <v>3.4</v>
@@ -18972,10 +19011,10 @@
         <v>1.33</v>
       </c>
       <c r="AP87">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ87">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR87">
         <v>1.24</v>
@@ -19306,7 +19345,7 @@
         <v>155</v>
       </c>
       <c r="P89" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="Q89">
         <v>2.05</v>
@@ -19384,7 +19423,7 @@
         <v>2.33</v>
       </c>
       <c r="AP89">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ89">
         <v>1.17</v>
@@ -19512,7 +19551,7 @@
         <v>96</v>
       </c>
       <c r="P90" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="Q90">
         <v>4</v>
@@ -19593,7 +19632,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ90">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR90">
         <v>1.42</v>
@@ -19718,7 +19757,7 @@
         <v>119</v>
       </c>
       <c r="P91" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -19796,7 +19835,7 @@
         <v>1.67</v>
       </c>
       <c r="AP91">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ91">
         <v>1.67</v>
@@ -20002,7 +20041,7 @@
         <v>1.75</v>
       </c>
       <c r="AP92">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ92">
         <v>1.17</v>
@@ -20208,7 +20247,7 @@
         <v>1.25</v>
       </c>
       <c r="AP93">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ93">
         <v>1.33</v>
@@ -20336,7 +20375,7 @@
         <v>158</v>
       </c>
       <c r="P94" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Q94">
         <v>4.75</v>
@@ -20417,7 +20456,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ94">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR94">
         <v>1.4</v>
@@ -20542,7 +20581,7 @@
         <v>96</v>
       </c>
       <c r="P95" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -20620,7 +20659,7 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AQ95">
         <v>1.67</v>
@@ -20748,7 +20787,7 @@
         <v>96</v>
       </c>
       <c r="P96" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="Q96">
         <v>3.2</v>
@@ -20826,10 +20865,10 @@
         <v>2</v>
       </c>
       <c r="AP96">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ96">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR96">
         <v>0.86</v>
@@ -20954,7 +20993,7 @@
         <v>96</v>
       </c>
       <c r="P97" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="Q97">
         <v>4.5</v>
@@ -21160,7 +21199,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="Q98">
         <v>3.6</v>
@@ -21238,10 +21277,10 @@
         <v>1.5</v>
       </c>
       <c r="AP98">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ98">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR98">
         <v>1.12</v>
@@ -21366,7 +21405,7 @@
         <v>160</v>
       </c>
       <c r="P99" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="Q99">
         <v>2.5</v>
@@ -21447,7 +21486,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ99">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AR99">
         <v>1.61</v>
@@ -21650,10 +21689,10 @@
         <v>1.5</v>
       </c>
       <c r="AP100">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ100">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR100">
         <v>1.61</v>
@@ -21778,7 +21817,7 @@
         <v>162</v>
       </c>
       <c r="P101" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="Q101">
         <v>2.75</v>
@@ -21856,10 +21895,10 @@
         <v>1.75</v>
       </c>
       <c r="AP101">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ101">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR101">
         <v>1.6</v>
@@ -22065,7 +22104,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ102">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR102">
         <v>1.36</v>
@@ -22190,7 +22229,7 @@
         <v>163</v>
       </c>
       <c r="P103" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="Q103">
         <v>2.2</v>
@@ -22396,7 +22435,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -22474,7 +22513,7 @@
         <v>0.5</v>
       </c>
       <c r="AP104">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ104">
         <v>0.83</v>
@@ -22886,7 +22925,7 @@
         <v>1</v>
       </c>
       <c r="AP106">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ106">
         <v>0.83</v>
@@ -23014,7 +23053,7 @@
         <v>166</v>
       </c>
       <c r="P107" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="Q107">
         <v>2.63</v>
@@ -23095,7 +23134,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ107">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR107">
         <v>1.55</v>
@@ -23301,7 +23340,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ108">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR108">
         <v>1.42</v>
@@ -23838,7 +23877,7 @@
         <v>170</v>
       </c>
       <c r="P111" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -23916,7 +23955,7 @@
         <v>0.25</v>
       </c>
       <c r="AP111">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AQ111">
         <v>0.67</v>
@@ -24044,7 +24083,7 @@
         <v>171</v>
       </c>
       <c r="P112" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="Q112">
         <v>1.91</v>
@@ -24125,7 +24164,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ112">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR112">
         <v>1.46</v>
@@ -24250,7 +24289,7 @@
         <v>172</v>
       </c>
       <c r="P113" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="Q113">
         <v>2.1</v>
@@ -24328,7 +24367,7 @@
         <v>1.33</v>
       </c>
       <c r="AP113">
-        <v>3</v>
+        <v>2.67</v>
       </c>
       <c r="AQ113">
         <v>1</v>
@@ -24534,10 +24573,10 @@
         <v>0</v>
       </c>
       <c r="AP114">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AQ114">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR114">
         <v>1.44</v>
@@ -24868,7 +24907,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="Q116">
         <v>2.75</v>
@@ -24946,10 +24985,10 @@
         <v>0.2</v>
       </c>
       <c r="AP116">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AQ116">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR116">
         <v>0.93</v>
@@ -25074,7 +25113,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="Q117">
         <v>3</v>
@@ -25152,10 +25191,10 @@
         <v>1</v>
       </c>
       <c r="AP117">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ117">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR117">
         <v>1.13</v>
@@ -25280,7 +25319,7 @@
         <v>96</v>
       </c>
       <c r="P118" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="Q118">
         <v>3.4</v>
@@ -26104,7 +26143,7 @@
         <v>135</v>
       </c>
       <c r="P122" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="Q122">
         <v>2.6</v>
@@ -26722,7 +26761,7 @@
         <v>180</v>
       </c>
       <c r="P125" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="Q125">
         <v>3.2</v>
@@ -26928,7 +26967,7 @@
         <v>181</v>
       </c>
       <c r="P126" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="Q126">
         <v>2</v>
@@ -27134,7 +27173,7 @@
         <v>182</v>
       </c>
       <c r="P127" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="Q127">
         <v>4.5</v>
@@ -27703,6 +27742,2478 @@
       </c>
       <c r="BP129">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="130" spans="1:68">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>7726999</v>
+      </c>
+      <c r="C130" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45587.65625</v>
+      </c>
+      <c r="F130">
+        <v>0</v>
+      </c>
+      <c r="G130" t="s">
+        <v>78</v>
+      </c>
+      <c r="H130" t="s">
+        <v>86</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>2</v>
+      </c>
+      <c r="L130">
+        <v>2</v>
+      </c>
+      <c r="M130">
+        <v>3</v>
+      </c>
+      <c r="N130">
+        <v>5</v>
+      </c>
+      <c r="O130" t="s">
+        <v>184</v>
+      </c>
+      <c r="P130" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q130">
+        <v>4.5</v>
+      </c>
+      <c r="R130">
+        <v>2.25</v>
+      </c>
+      <c r="S130">
+        <v>2.4</v>
+      </c>
+      <c r="T130">
+        <v>1.36</v>
+      </c>
+      <c r="U130">
+        <v>3</v>
+      </c>
+      <c r="V130">
+        <v>2.63</v>
+      </c>
+      <c r="W130">
+        <v>1.44</v>
+      </c>
+      <c r="X130">
+        <v>7</v>
+      </c>
+      <c r="Y130">
+        <v>1.1</v>
+      </c>
+      <c r="Z130">
+        <v>3.89</v>
+      </c>
+      <c r="AA130">
+        <v>3.5</v>
+      </c>
+      <c r="AB130">
+        <v>1.88</v>
+      </c>
+      <c r="AC130">
+        <v>1.03</v>
+      </c>
+      <c r="AD130">
+        <v>13</v>
+      </c>
+      <c r="AE130">
+        <v>1.25</v>
+      </c>
+      <c r="AF130">
+        <v>3.75</v>
+      </c>
+      <c r="AG130">
+        <v>1.8</v>
+      </c>
+      <c r="AH130">
+        <v>1.9</v>
+      </c>
+      <c r="AI130">
+        <v>1.75</v>
+      </c>
+      <c r="AJ130">
+        <v>2</v>
+      </c>
+      <c r="AK130">
+        <v>1.9</v>
+      </c>
+      <c r="AL130">
+        <v>1.22</v>
+      </c>
+      <c r="AM130">
+        <v>1.25</v>
+      </c>
+      <c r="AN130">
+        <v>0.25</v>
+      </c>
+      <c r="AO130">
+        <v>1.6</v>
+      </c>
+      <c r="AP130">
+        <v>0.2</v>
+      </c>
+      <c r="AQ130">
+        <v>1.83</v>
+      </c>
+      <c r="AR130">
+        <v>1.07</v>
+      </c>
+      <c r="AS130">
+        <v>1.46</v>
+      </c>
+      <c r="AT130">
+        <v>2.53</v>
+      </c>
+      <c r="AU130">
+        <v>3</v>
+      </c>
+      <c r="AV130">
+        <v>6</v>
+      </c>
+      <c r="AW130">
+        <v>4</v>
+      </c>
+      <c r="AX130">
+        <v>5</v>
+      </c>
+      <c r="AY130">
+        <v>11</v>
+      </c>
+      <c r="AZ130">
+        <v>15</v>
+      </c>
+      <c r="BA130">
+        <v>5</v>
+      </c>
+      <c r="BB130">
+        <v>6</v>
+      </c>
+      <c r="BC130">
+        <v>11</v>
+      </c>
+      <c r="BD130">
+        <v>2.35</v>
+      </c>
+      <c r="BE130">
+        <v>6.25</v>
+      </c>
+      <c r="BF130">
+        <v>1.65</v>
+      </c>
+      <c r="BG130">
+        <v>1.28</v>
+      </c>
+      <c r="BH130">
+        <v>3.2</v>
+      </c>
+      <c r="BI130">
+        <v>1.49</v>
+      </c>
+      <c r="BJ130">
+        <v>2.4</v>
+      </c>
+      <c r="BK130">
+        <v>1.81</v>
+      </c>
+      <c r="BL130">
+        <v>1.88</v>
+      </c>
+      <c r="BM130">
+        <v>2.25</v>
+      </c>
+      <c r="BN130">
+        <v>1.56</v>
+      </c>
+      <c r="BO130">
+        <v>2.9</v>
+      </c>
+      <c r="BP130">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="131" spans="1:68">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>7726998</v>
+      </c>
+      <c r="C131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45587.65625</v>
+      </c>
+      <c r="F131">
+        <v>0</v>
+      </c>
+      <c r="G131" t="s">
+        <v>79</v>
+      </c>
+      <c r="H131" t="s">
+        <v>82</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>1</v>
+      </c>
+      <c r="O131" t="s">
+        <v>185</v>
+      </c>
+      <c r="P131" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q131">
+        <v>2.88</v>
+      </c>
+      <c r="R131">
+        <v>2.2</v>
+      </c>
+      <c r="S131">
+        <v>3.6</v>
+      </c>
+      <c r="T131">
+        <v>1.36</v>
+      </c>
+      <c r="U131">
+        <v>3</v>
+      </c>
+      <c r="V131">
+        <v>2.75</v>
+      </c>
+      <c r="W131">
+        <v>1.4</v>
+      </c>
+      <c r="X131">
+        <v>8</v>
+      </c>
+      <c r="Y131">
+        <v>1.08</v>
+      </c>
+      <c r="Z131">
+        <v>2.08</v>
+      </c>
+      <c r="AA131">
+        <v>3.4</v>
+      </c>
+      <c r="AB131">
+        <v>3.33</v>
+      </c>
+      <c r="AC131">
+        <v>1.05</v>
+      </c>
+      <c r="AD131">
+        <v>11</v>
+      </c>
+      <c r="AE131">
+        <v>1.3</v>
+      </c>
+      <c r="AF131">
+        <v>3.5</v>
+      </c>
+      <c r="AG131">
+        <v>1.85</v>
+      </c>
+      <c r="AH131">
+        <v>1.85</v>
+      </c>
+      <c r="AI131">
+        <v>1.7</v>
+      </c>
+      <c r="AJ131">
+        <v>2.05</v>
+      </c>
+      <c r="AK131">
+        <v>1.3</v>
+      </c>
+      <c r="AL131">
+        <v>1.25</v>
+      </c>
+      <c r="AM131">
+        <v>1.72</v>
+      </c>
+      <c r="AN131">
+        <v>1.8</v>
+      </c>
+      <c r="AO131">
+        <v>0.67</v>
+      </c>
+      <c r="AP131">
+        <v>2</v>
+      </c>
+      <c r="AQ131">
+        <v>0.57</v>
+      </c>
+      <c r="AR131">
+        <v>1.15</v>
+      </c>
+      <c r="AS131">
+        <v>1.12</v>
+      </c>
+      <c r="AT131">
+        <v>2.27</v>
+      </c>
+      <c r="AU131">
+        <v>6</v>
+      </c>
+      <c r="AV131">
+        <v>5</v>
+      </c>
+      <c r="AW131">
+        <v>5</v>
+      </c>
+      <c r="AX131">
+        <v>2</v>
+      </c>
+      <c r="AY131">
+        <v>15</v>
+      </c>
+      <c r="AZ131">
+        <v>16</v>
+      </c>
+      <c r="BA131">
+        <v>5</v>
+      </c>
+      <c r="BB131">
+        <v>10</v>
+      </c>
+      <c r="BC131">
+        <v>15</v>
+      </c>
+      <c r="BD131">
+        <v>1.74</v>
+      </c>
+      <c r="BE131">
+        <v>6.4</v>
+      </c>
+      <c r="BF131">
+        <v>2.18</v>
+      </c>
+      <c r="BG131">
+        <v>1.24</v>
+      </c>
+      <c r="BH131">
+        <v>3.55</v>
+      </c>
+      <c r="BI131">
+        <v>1.43</v>
+      </c>
+      <c r="BJ131">
+        <v>2.55</v>
+      </c>
+      <c r="BK131">
+        <v>1.72</v>
+      </c>
+      <c r="BL131">
+        <v>1.98</v>
+      </c>
+      <c r="BM131">
+        <v>2.1</v>
+      </c>
+      <c r="BN131">
+        <v>1.64</v>
+      </c>
+      <c r="BO131">
+        <v>2.65</v>
+      </c>
+      <c r="BP131">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="132" spans="1:68">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>7726997</v>
+      </c>
+      <c r="C132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45587.65625</v>
+      </c>
+      <c r="F132">
+        <v>13</v>
+      </c>
+      <c r="G132" t="s">
+        <v>80</v>
+      </c>
+      <c r="H132" t="s">
+        <v>93</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132">
+        <v>2</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>2</v>
+      </c>
+      <c r="O132" t="s">
+        <v>186</v>
+      </c>
+      <c r="P132" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q132">
+        <v>2.5</v>
+      </c>
+      <c r="R132">
+        <v>2.25</v>
+      </c>
+      <c r="S132">
+        <v>4.33</v>
+      </c>
+      <c r="T132">
+        <v>1.33</v>
+      </c>
+      <c r="U132">
+        <v>3.25</v>
+      </c>
+      <c r="V132">
+        <v>2.63</v>
+      </c>
+      <c r="W132">
+        <v>1.44</v>
+      </c>
+      <c r="X132">
+        <v>6.5</v>
+      </c>
+      <c r="Y132">
+        <v>1.11</v>
+      </c>
+      <c r="Z132">
+        <v>1.84</v>
+      </c>
+      <c r="AA132">
+        <v>3.5</v>
+      </c>
+      <c r="AB132">
+        <v>4.07</v>
+      </c>
+      <c r="AC132">
+        <v>1.03</v>
+      </c>
+      <c r="AD132">
+        <v>13</v>
+      </c>
+      <c r="AE132">
+        <v>1.22</v>
+      </c>
+      <c r="AF132">
+        <v>4</v>
+      </c>
+      <c r="AG132">
+        <v>1.75</v>
+      </c>
+      <c r="AH132">
+        <v>1.96</v>
+      </c>
+      <c r="AI132">
+        <v>1.67</v>
+      </c>
+      <c r="AJ132">
+        <v>2.1</v>
+      </c>
+      <c r="AK132">
+        <v>1.25</v>
+      </c>
+      <c r="AL132">
+        <v>1.22</v>
+      </c>
+      <c r="AM132">
+        <v>1.95</v>
+      </c>
+      <c r="AN132">
+        <v>2.6</v>
+      </c>
+      <c r="AO132">
+        <v>2.25</v>
+      </c>
+      <c r="AP132">
+        <v>2.67</v>
+      </c>
+      <c r="AQ132">
+        <v>1.8</v>
+      </c>
+      <c r="AR132">
+        <v>1.64</v>
+      </c>
+      <c r="AS132">
+        <v>1.29</v>
+      </c>
+      <c r="AT132">
+        <v>2.93</v>
+      </c>
+      <c r="AU132">
+        <v>6</v>
+      </c>
+      <c r="AV132">
+        <v>2</v>
+      </c>
+      <c r="AW132">
+        <v>4</v>
+      </c>
+      <c r="AX132">
+        <v>4</v>
+      </c>
+      <c r="AY132">
+        <v>19</v>
+      </c>
+      <c r="AZ132">
+        <v>9</v>
+      </c>
+      <c r="BA132">
+        <v>6</v>
+      </c>
+      <c r="BB132">
+        <v>1</v>
+      </c>
+      <c r="BC132">
+        <v>7</v>
+      </c>
+      <c r="BD132">
+        <v>1.65</v>
+      </c>
+      <c r="BE132">
+        <v>6.4</v>
+      </c>
+      <c r="BF132">
+        <v>2.35</v>
+      </c>
+      <c r="BG132">
+        <v>1.21</v>
+      </c>
+      <c r="BH132">
+        <v>3.8</v>
+      </c>
+      <c r="BI132">
+        <v>1.37</v>
+      </c>
+      <c r="BJ132">
+        <v>2.8</v>
+      </c>
+      <c r="BK132">
+        <v>1.61</v>
+      </c>
+      <c r="BL132">
+        <v>2.15</v>
+      </c>
+      <c r="BM132">
+        <v>1.98</v>
+      </c>
+      <c r="BN132">
+        <v>1.72</v>
+      </c>
+      <c r="BO132">
+        <v>2.48</v>
+      </c>
+      <c r="BP132">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="133" spans="1:68">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>7727002</v>
+      </c>
+      <c r="C133" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45587.65625</v>
+      </c>
+      <c r="F133">
+        <v>0</v>
+      </c>
+      <c r="G133" t="s">
+        <v>75</v>
+      </c>
+      <c r="H133" t="s">
+        <v>85</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>1</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>1</v>
+      </c>
+      <c r="O133" t="s">
+        <v>135</v>
+      </c>
+      <c r="P133" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q133">
+        <v>3.5</v>
+      </c>
+      <c r="R133">
+        <v>2.05</v>
+      </c>
+      <c r="S133">
+        <v>3.25</v>
+      </c>
+      <c r="T133">
+        <v>1.44</v>
+      </c>
+      <c r="U133">
+        <v>2.63</v>
+      </c>
+      <c r="V133">
+        <v>3.4</v>
+      </c>
+      <c r="W133">
+        <v>1.3</v>
+      </c>
+      <c r="X133">
+        <v>10</v>
+      </c>
+      <c r="Y133">
+        <v>1.06</v>
+      </c>
+      <c r="Z133">
+        <v>2.6</v>
+      </c>
+      <c r="AA133">
+        <v>3.2</v>
+      </c>
+      <c r="AB133">
+        <v>2.65</v>
+      </c>
+      <c r="AC133">
+        <v>1.06</v>
+      </c>
+      <c r="AD133">
+        <v>9.5</v>
+      </c>
+      <c r="AE133">
+        <v>1.35</v>
+      </c>
+      <c r="AF133">
+        <v>3.2</v>
+      </c>
+      <c r="AG133">
+        <v>2</v>
+      </c>
+      <c r="AH133">
+        <v>1.72</v>
+      </c>
+      <c r="AI133">
+        <v>1.91</v>
+      </c>
+      <c r="AJ133">
+        <v>1.91</v>
+      </c>
+      <c r="AK133">
+        <v>1.5</v>
+      </c>
+      <c r="AL133">
+        <v>1.28</v>
+      </c>
+      <c r="AM133">
+        <v>1.47</v>
+      </c>
+      <c r="AN133">
+        <v>0.4</v>
+      </c>
+      <c r="AO133">
+        <v>1</v>
+      </c>
+      <c r="AP133">
+        <v>0.83</v>
+      </c>
+      <c r="AQ133">
+        <v>0.86</v>
+      </c>
+      <c r="AR133">
+        <v>1.33</v>
+      </c>
+      <c r="AS133">
+        <v>1.41</v>
+      </c>
+      <c r="AT133">
+        <v>2.74</v>
+      </c>
+      <c r="AU133">
+        <v>6</v>
+      </c>
+      <c r="AV133">
+        <v>3</v>
+      </c>
+      <c r="AW133">
+        <v>6</v>
+      </c>
+      <c r="AX133">
+        <v>5</v>
+      </c>
+      <c r="AY133">
+        <v>13</v>
+      </c>
+      <c r="AZ133">
+        <v>12</v>
+      </c>
+      <c r="BA133">
+        <v>3</v>
+      </c>
+      <c r="BB133">
+        <v>8</v>
+      </c>
+      <c r="BC133">
+        <v>11</v>
+      </c>
+      <c r="BD133">
+        <v>1.93</v>
+      </c>
+      <c r="BE133">
+        <v>6.25</v>
+      </c>
+      <c r="BF133">
+        <v>1.97</v>
+      </c>
+      <c r="BG133">
+        <v>1.3</v>
+      </c>
+      <c r="BH133">
+        <v>3.15</v>
+      </c>
+      <c r="BI133">
+        <v>1.53</v>
+      </c>
+      <c r="BJ133">
+        <v>2.3</v>
+      </c>
+      <c r="BK133">
+        <v>1.88</v>
+      </c>
+      <c r="BL133">
+        <v>1.81</v>
+      </c>
+      <c r="BM133">
+        <v>2.33</v>
+      </c>
+      <c r="BN133">
+        <v>1.5</v>
+      </c>
+      <c r="BO133">
+        <v>3.05</v>
+      </c>
+      <c r="BP133">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="134" spans="1:68">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>7727003</v>
+      </c>
+      <c r="C134" t="s">
+        <v>68</v>
+      </c>
+      <c r="D134" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45587.65625</v>
+      </c>
+      <c r="F134">
+        <v>0</v>
+      </c>
+      <c r="G134" t="s">
+        <v>74</v>
+      </c>
+      <c r="H134" t="s">
+        <v>91</v>
+      </c>
+      <c r="I134">
+        <v>3</v>
+      </c>
+      <c r="J134">
+        <v>1</v>
+      </c>
+      <c r="K134">
+        <v>4</v>
+      </c>
+      <c r="L134">
+        <v>5</v>
+      </c>
+      <c r="M134">
+        <v>1</v>
+      </c>
+      <c r="N134">
+        <v>6</v>
+      </c>
+      <c r="O134" t="s">
+        <v>187</v>
+      </c>
+      <c r="P134" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q134">
+        <v>3.1</v>
+      </c>
+      <c r="R134">
+        <v>2.3</v>
+      </c>
+      <c r="S134">
+        <v>3.1</v>
+      </c>
+      <c r="T134">
+        <v>1.33</v>
+      </c>
+      <c r="U134">
+        <v>3.25</v>
+      </c>
+      <c r="V134">
+        <v>2.5</v>
+      </c>
+      <c r="W134">
+        <v>1.5</v>
+      </c>
+      <c r="X134">
+        <v>6</v>
+      </c>
+      <c r="Y134">
+        <v>1.13</v>
+      </c>
+      <c r="Z134">
+        <v>2.62</v>
+      </c>
+      <c r="AA134">
+        <v>3.45</v>
+      </c>
+      <c r="AB134">
+        <v>2.48</v>
+      </c>
+      <c r="AC134">
+        <v>1.02</v>
+      </c>
+      <c r="AD134">
+        <v>15</v>
+      </c>
+      <c r="AE134">
+        <v>1.2</v>
+      </c>
+      <c r="AF134">
+        <v>4.5</v>
+      </c>
+      <c r="AG134">
+        <v>1.64</v>
+      </c>
+      <c r="AH134">
+        <v>2.12</v>
+      </c>
+      <c r="AI134">
+        <v>1.57</v>
+      </c>
+      <c r="AJ134">
+        <v>2.25</v>
+      </c>
+      <c r="AK134">
+        <v>1.53</v>
+      </c>
+      <c r="AL134">
+        <v>1.25</v>
+      </c>
+      <c r="AM134">
+        <v>1.47</v>
+      </c>
+      <c r="AN134">
+        <v>1.33</v>
+      </c>
+      <c r="AO134">
+        <v>1.4</v>
+      </c>
+      <c r="AP134">
+        <v>1.57</v>
+      </c>
+      <c r="AQ134">
+        <v>1.17</v>
+      </c>
+      <c r="AR134">
+        <v>1.19</v>
+      </c>
+      <c r="AS134">
+        <v>1.3</v>
+      </c>
+      <c r="AT134">
+        <v>2.49</v>
+      </c>
+      <c r="AU134">
+        <v>7</v>
+      </c>
+      <c r="AV134">
+        <v>5</v>
+      </c>
+      <c r="AW134">
+        <v>2</v>
+      </c>
+      <c r="AX134">
+        <v>4</v>
+      </c>
+      <c r="AY134">
+        <v>10</v>
+      </c>
+      <c r="AZ134">
+        <v>12</v>
+      </c>
+      <c r="BA134">
+        <v>2</v>
+      </c>
+      <c r="BB134">
+        <v>3</v>
+      </c>
+      <c r="BC134">
+        <v>5</v>
+      </c>
+      <c r="BD134">
+        <v>1.85</v>
+      </c>
+      <c r="BE134">
+        <v>6.4</v>
+      </c>
+      <c r="BF134">
+        <v>2.02</v>
+      </c>
+      <c r="BG134">
+        <v>1.24</v>
+      </c>
+      <c r="BH134">
+        <v>3.55</v>
+      </c>
+      <c r="BI134">
+        <v>1.44</v>
+      </c>
+      <c r="BJ134">
+        <v>2.55</v>
+      </c>
+      <c r="BK134">
+        <v>1.72</v>
+      </c>
+      <c r="BL134">
+        <v>1.98</v>
+      </c>
+      <c r="BM134">
+        <v>2.12</v>
+      </c>
+      <c r="BN134">
+        <v>1.63</v>
+      </c>
+      <c r="BO134">
+        <v>2.7</v>
+      </c>
+      <c r="BP134">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="135" spans="1:68">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>7719517</v>
+      </c>
+      <c r="C135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" t="s">
+        <v>69</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45587.65625</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135" t="s">
+        <v>70</v>
+      </c>
+      <c r="H135" t="s">
+        <v>83</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>1</v>
+      </c>
+      <c r="L135">
+        <v>2</v>
+      </c>
+      <c r="M135">
+        <v>2</v>
+      </c>
+      <c r="N135">
+        <v>4</v>
+      </c>
+      <c r="O135" t="s">
+        <v>188</v>
+      </c>
+      <c r="P135" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q135">
+        <v>2.88</v>
+      </c>
+      <c r="R135">
+        <v>2.2</v>
+      </c>
+      <c r="S135">
+        <v>3.75</v>
+      </c>
+      <c r="T135">
+        <v>1.4</v>
+      </c>
+      <c r="U135">
+        <v>2.75</v>
+      </c>
+      <c r="V135">
+        <v>2.75</v>
+      </c>
+      <c r="W135">
+        <v>1.4</v>
+      </c>
+      <c r="X135">
+        <v>8</v>
+      </c>
+      <c r="Y135">
+        <v>1.08</v>
+      </c>
+      <c r="Z135">
+        <v>2.2</v>
+      </c>
+      <c r="AA135">
+        <v>3.4</v>
+      </c>
+      <c r="AB135">
+        <v>3.25</v>
+      </c>
+      <c r="AC135">
+        <v>1.05</v>
+      </c>
+      <c r="AD135">
+        <v>11</v>
+      </c>
+      <c r="AE135">
+        <v>1.3</v>
+      </c>
+      <c r="AF135">
+        <v>3.4</v>
+      </c>
+      <c r="AG135">
+        <v>1.91</v>
+      </c>
+      <c r="AH135">
+        <v>1.83</v>
+      </c>
+      <c r="AI135">
+        <v>1.75</v>
+      </c>
+      <c r="AJ135">
+        <v>2</v>
+      </c>
+      <c r="AK135">
+        <v>1.38</v>
+      </c>
+      <c r="AL135">
+        <v>1.25</v>
+      </c>
+      <c r="AM135">
+        <v>1.65</v>
+      </c>
+      <c r="AN135">
+        <v>1.2</v>
+      </c>
+      <c r="AO135">
+        <v>1.2</v>
+      </c>
+      <c r="AP135">
+        <v>1.17</v>
+      </c>
+      <c r="AQ135">
+        <v>1.17</v>
+      </c>
+      <c r="AR135">
+        <v>1.54</v>
+      </c>
+      <c r="AS135">
+        <v>1.05</v>
+      </c>
+      <c r="AT135">
+        <v>2.59</v>
+      </c>
+      <c r="AU135">
+        <v>10</v>
+      </c>
+      <c r="AV135">
+        <v>6</v>
+      </c>
+      <c r="AW135">
+        <v>7</v>
+      </c>
+      <c r="AX135">
+        <v>2</v>
+      </c>
+      <c r="AY135">
+        <v>21</v>
+      </c>
+      <c r="AZ135">
+        <v>10</v>
+      </c>
+      <c r="BA135">
+        <v>11</v>
+      </c>
+      <c r="BB135">
+        <v>5</v>
+      </c>
+      <c r="BC135">
+        <v>16</v>
+      </c>
+      <c r="BD135">
+        <v>1.77</v>
+      </c>
+      <c r="BE135">
+        <v>6.25</v>
+      </c>
+      <c r="BF135">
+        <v>2.15</v>
+      </c>
+      <c r="BG135">
+        <v>1.25</v>
+      </c>
+      <c r="BH135">
+        <v>3.4</v>
+      </c>
+      <c r="BI135">
+        <v>1.44</v>
+      </c>
+      <c r="BJ135">
+        <v>2.55</v>
+      </c>
+      <c r="BK135">
+        <v>1.72</v>
+      </c>
+      <c r="BL135">
+        <v>1.98</v>
+      </c>
+      <c r="BM135">
+        <v>2.12</v>
+      </c>
+      <c r="BN135">
+        <v>1.63</v>
+      </c>
+      <c r="BO135">
+        <v>2.7</v>
+      </c>
+      <c r="BP135">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="136" spans="1:68">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>7727001</v>
+      </c>
+      <c r="C136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D136" t="s">
+        <v>69</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45587.65625</v>
+      </c>
+      <c r="F136">
+        <v>13</v>
+      </c>
+      <c r="G136" t="s">
+        <v>81</v>
+      </c>
+      <c r="H136" t="s">
+        <v>84</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>2</v>
+      </c>
+      <c r="K136">
+        <v>2</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+      <c r="M136">
+        <v>2</v>
+      </c>
+      <c r="N136">
+        <v>3</v>
+      </c>
+      <c r="O136" t="s">
+        <v>99</v>
+      </c>
+      <c r="P136" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q136">
+        <v>3.1</v>
+      </c>
+      <c r="R136">
+        <v>2.2</v>
+      </c>
+      <c r="S136">
+        <v>3.4</v>
+      </c>
+      <c r="T136">
+        <v>1.36</v>
+      </c>
+      <c r="U136">
+        <v>3</v>
+      </c>
+      <c r="V136">
+        <v>2.75</v>
+      </c>
+      <c r="W136">
+        <v>1.4</v>
+      </c>
+      <c r="X136">
+        <v>7</v>
+      </c>
+      <c r="Y136">
+        <v>1.1</v>
+      </c>
+      <c r="Z136">
+        <v>2.3</v>
+      </c>
+      <c r="AA136">
+        <v>3.4</v>
+      </c>
+      <c r="AB136">
+        <v>2.89</v>
+      </c>
+      <c r="AC136">
+        <v>1.05</v>
+      </c>
+      <c r="AD136">
+        <v>11</v>
+      </c>
+      <c r="AE136">
+        <v>1.28</v>
+      </c>
+      <c r="AF136">
+        <v>3.6</v>
+      </c>
+      <c r="AG136">
+        <v>1.8</v>
+      </c>
+      <c r="AH136">
+        <v>1.9</v>
+      </c>
+      <c r="AI136">
+        <v>1.67</v>
+      </c>
+      <c r="AJ136">
+        <v>2.1</v>
+      </c>
+      <c r="AK136">
+        <v>1.42</v>
+      </c>
+      <c r="AL136">
+        <v>1.25</v>
+      </c>
+      <c r="AM136">
+        <v>1.57</v>
+      </c>
+      <c r="AN136">
+        <v>2.25</v>
+      </c>
+      <c r="AO136">
+        <v>0.25</v>
+      </c>
+      <c r="AP136">
+        <v>1.8</v>
+      </c>
+      <c r="AQ136">
+        <v>0.8</v>
+      </c>
+      <c r="AR136">
+        <v>1.36</v>
+      </c>
+      <c r="AS136">
+        <v>1.2</v>
+      </c>
+      <c r="AT136">
+        <v>2.56</v>
+      </c>
+      <c r="AU136">
+        <v>7</v>
+      </c>
+      <c r="AV136">
+        <v>6</v>
+      </c>
+      <c r="AW136">
+        <v>9</v>
+      </c>
+      <c r="AX136">
+        <v>1</v>
+      </c>
+      <c r="AY136">
+        <v>20</v>
+      </c>
+      <c r="AZ136">
+        <v>12</v>
+      </c>
+      <c r="BA136">
+        <v>8</v>
+      </c>
+      <c r="BB136">
+        <v>5</v>
+      </c>
+      <c r="BC136">
+        <v>13</v>
+      </c>
+      <c r="BD136">
+        <v>1.7</v>
+      </c>
+      <c r="BE136">
+        <v>6.75</v>
+      </c>
+      <c r="BF136">
+        <v>2.23</v>
+      </c>
+      <c r="BG136">
+        <v>1.17</v>
+      </c>
+      <c r="BH136">
+        <v>4.35</v>
+      </c>
+      <c r="BI136">
+        <v>1.3</v>
+      </c>
+      <c r="BJ136">
+        <v>3.05</v>
+      </c>
+      <c r="BK136">
+        <v>1.52</v>
+      </c>
+      <c r="BL136">
+        <v>2.33</v>
+      </c>
+      <c r="BM136">
+        <v>1.81</v>
+      </c>
+      <c r="BN136">
+        <v>1.88</v>
+      </c>
+      <c r="BO136">
+        <v>2.23</v>
+      </c>
+      <c r="BP136">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="137" spans="1:68">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>7727004</v>
+      </c>
+      <c r="C137" t="s">
+        <v>68</v>
+      </c>
+      <c r="D137" t="s">
+        <v>69</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45587.65625</v>
+      </c>
+      <c r="F137">
+        <v>0</v>
+      </c>
+      <c r="G137" t="s">
+        <v>76</v>
+      </c>
+      <c r="H137" t="s">
+        <v>88</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>2</v>
+      </c>
+      <c r="N137">
+        <v>2</v>
+      </c>
+      <c r="O137" t="s">
+        <v>96</v>
+      </c>
+      <c r="P137" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q137">
+        <v>2.3</v>
+      </c>
+      <c r="R137">
+        <v>2.1</v>
+      </c>
+      <c r="S137">
+        <v>5.5</v>
+      </c>
+      <c r="T137">
+        <v>1.44</v>
+      </c>
+      <c r="U137">
+        <v>2.63</v>
+      </c>
+      <c r="V137">
+        <v>3.25</v>
+      </c>
+      <c r="W137">
+        <v>1.33</v>
+      </c>
+      <c r="X137">
+        <v>10</v>
+      </c>
+      <c r="Y137">
+        <v>1.06</v>
+      </c>
+      <c r="Z137">
+        <v>1.62</v>
+      </c>
+      <c r="AA137">
+        <v>3.8</v>
+      </c>
+      <c r="AB137">
+        <v>5.14</v>
+      </c>
+      <c r="AC137">
+        <v>1.06</v>
+      </c>
+      <c r="AD137">
+        <v>10</v>
+      </c>
+      <c r="AE137">
+        <v>1.36</v>
+      </c>
+      <c r="AF137">
+        <v>3.1</v>
+      </c>
+      <c r="AG137">
+        <v>2</v>
+      </c>
+      <c r="AH137">
+        <v>1.72</v>
+      </c>
+      <c r="AI137">
+        <v>2.1</v>
+      </c>
+      <c r="AJ137">
+        <v>1.67</v>
+      </c>
+      <c r="AK137">
+        <v>1.15</v>
+      </c>
+      <c r="AL137">
+        <v>1.22</v>
+      </c>
+      <c r="AM137">
+        <v>2.25</v>
+      </c>
+      <c r="AN137">
+        <v>2.4</v>
+      </c>
+      <c r="AO137">
+        <v>0</v>
+      </c>
+      <c r="AP137">
+        <v>2</v>
+      </c>
+      <c r="AQ137">
+        <v>0.5</v>
+      </c>
+      <c r="AR137">
+        <v>1.1</v>
+      </c>
+      <c r="AS137">
+        <v>1.01</v>
+      </c>
+      <c r="AT137">
+        <v>2.11</v>
+      </c>
+      <c r="AU137">
+        <v>5</v>
+      </c>
+      <c r="AV137">
+        <v>7</v>
+      </c>
+      <c r="AW137">
+        <v>3</v>
+      </c>
+      <c r="AX137">
+        <v>3</v>
+      </c>
+      <c r="AY137">
+        <v>11</v>
+      </c>
+      <c r="AZ137">
+        <v>14</v>
+      </c>
+      <c r="BA137">
+        <v>4</v>
+      </c>
+      <c r="BB137">
+        <v>3</v>
+      </c>
+      <c r="BC137">
+        <v>7</v>
+      </c>
+      <c r="BD137">
+        <v>1.38</v>
+      </c>
+      <c r="BE137">
+        <v>6.75</v>
+      </c>
+      <c r="BF137">
+        <v>3.15</v>
+      </c>
+      <c r="BG137">
+        <v>1.35</v>
+      </c>
+      <c r="BH137">
+        <v>2.9</v>
+      </c>
+      <c r="BI137">
+        <v>1.6</v>
+      </c>
+      <c r="BJ137">
+        <v>2.17</v>
+      </c>
+      <c r="BK137">
+        <v>1.96</v>
+      </c>
+      <c r="BL137">
+        <v>1.73</v>
+      </c>
+      <c r="BM137">
+        <v>2.48</v>
+      </c>
+      <c r="BN137">
+        <v>1.47</v>
+      </c>
+      <c r="BO137">
+        <v>3.2</v>
+      </c>
+      <c r="BP137">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="138" spans="1:68">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>7727000</v>
+      </c>
+      <c r="C138" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45587.65625</v>
+      </c>
+      <c r="F138">
+        <v>13</v>
+      </c>
+      <c r="G138" t="s">
+        <v>77</v>
+      </c>
+      <c r="H138" t="s">
+        <v>89</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>3</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>3</v>
+      </c>
+      <c r="O138" t="s">
+        <v>189</v>
+      </c>
+      <c r="P138" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q138">
+        <v>4.33</v>
+      </c>
+      <c r="R138">
+        <v>2.2</v>
+      </c>
+      <c r="S138">
+        <v>2.6</v>
+      </c>
+      <c r="T138">
+        <v>1.4</v>
+      </c>
+      <c r="U138">
+        <v>2.75</v>
+      </c>
+      <c r="V138">
+        <v>2.75</v>
+      </c>
+      <c r="W138">
+        <v>1.4</v>
+      </c>
+      <c r="X138">
+        <v>8</v>
+      </c>
+      <c r="Y138">
+        <v>1.08</v>
+      </c>
+      <c r="Z138">
+        <v>3.78</v>
+      </c>
+      <c r="AA138">
+        <v>3.3</v>
+      </c>
+      <c r="AB138">
+        <v>1.97</v>
+      </c>
+      <c r="AC138">
+        <v>1.05</v>
+      </c>
+      <c r="AD138">
+        <v>11</v>
+      </c>
+      <c r="AE138">
+        <v>1.3</v>
+      </c>
+      <c r="AF138">
+        <v>3.4</v>
+      </c>
+      <c r="AG138">
+        <v>1.9</v>
+      </c>
+      <c r="AH138">
+        <v>1.8</v>
+      </c>
+      <c r="AI138">
+        <v>1.8</v>
+      </c>
+      <c r="AJ138">
+        <v>1.95</v>
+      </c>
+      <c r="AK138">
+        <v>1.85</v>
+      </c>
+      <c r="AL138">
+        <v>1.25</v>
+      </c>
+      <c r="AM138">
+        <v>1.28</v>
+      </c>
+      <c r="AN138">
+        <v>0.67</v>
+      </c>
+      <c r="AO138">
+        <v>2.2</v>
+      </c>
+      <c r="AP138">
+        <v>1</v>
+      </c>
+      <c r="AQ138">
+        <v>1.83</v>
+      </c>
+      <c r="AR138">
+        <v>1.01</v>
+      </c>
+      <c r="AS138">
+        <v>0.97</v>
+      </c>
+      <c r="AT138">
+        <v>1.98</v>
+      </c>
+      <c r="AU138">
+        <v>5</v>
+      </c>
+      <c r="AV138">
+        <v>3</v>
+      </c>
+      <c r="AW138">
+        <v>3</v>
+      </c>
+      <c r="AX138">
+        <v>4</v>
+      </c>
+      <c r="AY138">
+        <v>9</v>
+      </c>
+      <c r="AZ138">
+        <v>9</v>
+      </c>
+      <c r="BA138">
+        <v>0</v>
+      </c>
+      <c r="BB138">
+        <v>10</v>
+      </c>
+      <c r="BC138">
+        <v>10</v>
+      </c>
+      <c r="BD138">
+        <v>2.33</v>
+      </c>
+      <c r="BE138">
+        <v>6.4</v>
+      </c>
+      <c r="BF138">
+        <v>1.65</v>
+      </c>
+      <c r="BG138">
+        <v>1.27</v>
+      </c>
+      <c r="BH138">
+        <v>3.3</v>
+      </c>
+      <c r="BI138">
+        <v>1.48</v>
+      </c>
+      <c r="BJ138">
+        <v>2.45</v>
+      </c>
+      <c r="BK138">
+        <v>1.76</v>
+      </c>
+      <c r="BL138">
+        <v>1.93</v>
+      </c>
+      <c r="BM138">
+        <v>2.18</v>
+      </c>
+      <c r="BN138">
+        <v>1.58</v>
+      </c>
+      <c r="BO138">
+        <v>2.8</v>
+      </c>
+      <c r="BP138">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="139" spans="1:68">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>7727005</v>
+      </c>
+      <c r="C139" t="s">
+        <v>68</v>
+      </c>
+      <c r="D139" t="s">
+        <v>69</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45587.65625</v>
+      </c>
+      <c r="F139">
+        <v>0</v>
+      </c>
+      <c r="G139" t="s">
+        <v>73</v>
+      </c>
+      <c r="H139" t="s">
+        <v>87</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
+      </c>
+      <c r="N139">
+        <v>2</v>
+      </c>
+      <c r="O139" t="s">
+        <v>103</v>
+      </c>
+      <c r="P139" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q139">
+        <v>2.05</v>
+      </c>
+      <c r="R139">
+        <v>2.4</v>
+      </c>
+      <c r="S139">
+        <v>5.5</v>
+      </c>
+      <c r="T139">
+        <v>1.3</v>
+      </c>
+      <c r="U139">
+        <v>3.4</v>
+      </c>
+      <c r="V139">
+        <v>2.5</v>
+      </c>
+      <c r="W139">
+        <v>1.5</v>
+      </c>
+      <c r="X139">
+        <v>6</v>
+      </c>
+      <c r="Y139">
+        <v>1.13</v>
+      </c>
+      <c r="Z139">
+        <v>1.52</v>
+      </c>
+      <c r="AA139">
+        <v>4.2</v>
+      </c>
+      <c r="AB139">
+        <v>5.59</v>
+      </c>
+      <c r="AC139">
+        <v>1.03</v>
+      </c>
+      <c r="AD139">
+        <v>13</v>
+      </c>
+      <c r="AE139">
+        <v>1.22</v>
+      </c>
+      <c r="AF139">
+        <v>4</v>
+      </c>
+      <c r="AG139">
+        <v>1.68</v>
+      </c>
+      <c r="AH139">
+        <v>2.06</v>
+      </c>
+      <c r="AI139">
+        <v>1.75</v>
+      </c>
+      <c r="AJ139">
+        <v>2</v>
+      </c>
+      <c r="AK139">
+        <v>1.12</v>
+      </c>
+      <c r="AL139">
+        <v>1.18</v>
+      </c>
+      <c r="AM139">
+        <v>2.5</v>
+      </c>
+      <c r="AN139">
+        <v>1.75</v>
+      </c>
+      <c r="AO139">
+        <v>1</v>
+      </c>
+      <c r="AP139">
+        <v>1.6</v>
+      </c>
+      <c r="AQ139">
+        <v>1</v>
+      </c>
+      <c r="AR139">
+        <v>1.63</v>
+      </c>
+      <c r="AS139">
+        <v>1.12</v>
+      </c>
+      <c r="AT139">
+        <v>2.75</v>
+      </c>
+      <c r="AU139">
+        <v>4</v>
+      </c>
+      <c r="AV139">
+        <v>4</v>
+      </c>
+      <c r="AW139">
+        <v>9</v>
+      </c>
+      <c r="AX139">
+        <v>3</v>
+      </c>
+      <c r="AY139">
+        <v>18</v>
+      </c>
+      <c r="AZ139">
+        <v>9</v>
+      </c>
+      <c r="BA139">
+        <v>5</v>
+      </c>
+      <c r="BB139">
+        <v>1</v>
+      </c>
+      <c r="BC139">
+        <v>6</v>
+      </c>
+      <c r="BD139">
+        <v>1.4</v>
+      </c>
+      <c r="BE139">
+        <v>6.75</v>
+      </c>
+      <c r="BF139">
+        <v>3.05</v>
+      </c>
+      <c r="BG139">
+        <v>1.36</v>
+      </c>
+      <c r="BH139">
+        <v>2.8</v>
+      </c>
+      <c r="BI139">
+        <v>1.63</v>
+      </c>
+      <c r="BJ139">
+        <v>2.12</v>
+      </c>
+      <c r="BK139">
+        <v>2</v>
+      </c>
+      <c r="BL139">
+        <v>1.71</v>
+      </c>
+      <c r="BM139">
+        <v>2.55</v>
+      </c>
+      <c r="BN139">
+        <v>1.44</v>
+      </c>
+      <c r="BO139">
+        <v>3.4</v>
+      </c>
+      <c r="BP139">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="140" spans="1:68">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>7727006</v>
+      </c>
+      <c r="C140" t="s">
+        <v>68</v>
+      </c>
+      <c r="D140" t="s">
+        <v>69</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45587.65625</v>
+      </c>
+      <c r="F140">
+        <v>13</v>
+      </c>
+      <c r="G140" t="s">
+        <v>72</v>
+      </c>
+      <c r="H140" t="s">
+        <v>92</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>1</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140">
+        <v>1</v>
+      </c>
+      <c r="M140">
+        <v>2</v>
+      </c>
+      <c r="N140">
+        <v>3</v>
+      </c>
+      <c r="O140" t="s">
+        <v>190</v>
+      </c>
+      <c r="P140" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q140">
+        <v>3</v>
+      </c>
+      <c r="R140">
+        <v>2.15</v>
+      </c>
+      <c r="S140">
+        <v>3.6</v>
+      </c>
+      <c r="T140">
+        <v>1.39</v>
+      </c>
+      <c r="U140">
+        <v>2.8</v>
+      </c>
+      <c r="V140">
+        <v>2.85</v>
+      </c>
+      <c r="W140">
+        <v>1.38</v>
+      </c>
+      <c r="X140">
+        <v>6.95</v>
+      </c>
+      <c r="Y140">
+        <v>1.07</v>
+      </c>
+      <c r="Z140">
+        <v>2.3</v>
+      </c>
+      <c r="AA140">
+        <v>3.3</v>
+      </c>
+      <c r="AB140">
+        <v>2.97</v>
+      </c>
+      <c r="AC140">
+        <v>1.05</v>
+      </c>
+      <c r="AD140">
+        <v>10</v>
+      </c>
+      <c r="AE140">
+        <v>1.3</v>
+      </c>
+      <c r="AF140">
+        <v>3.4</v>
+      </c>
+      <c r="AG140">
+        <v>1.8</v>
+      </c>
+      <c r="AH140">
+        <v>1.9</v>
+      </c>
+      <c r="AI140">
+        <v>1.75</v>
+      </c>
+      <c r="AJ140">
+        <v>2.05</v>
+      </c>
+      <c r="AK140">
+        <v>1.38</v>
+      </c>
+      <c r="AL140">
+        <v>1.28</v>
+      </c>
+      <c r="AM140">
+        <v>1.62</v>
+      </c>
+      <c r="AN140">
+        <v>1.6</v>
+      </c>
+      <c r="AO140">
+        <v>2.25</v>
+      </c>
+      <c r="AP140">
+        <v>1.33</v>
+      </c>
+      <c r="AQ140">
+        <v>2.4</v>
+      </c>
+      <c r="AR140">
+        <v>0.95</v>
+      </c>
+      <c r="AS140">
+        <v>1.19</v>
+      </c>
+      <c r="AT140">
+        <v>2.14</v>
+      </c>
+      <c r="AU140">
+        <v>5</v>
+      </c>
+      <c r="AV140">
+        <v>3</v>
+      </c>
+      <c r="AW140">
+        <v>10</v>
+      </c>
+      <c r="AX140">
+        <v>2</v>
+      </c>
+      <c r="AY140">
+        <v>24</v>
+      </c>
+      <c r="AZ140">
+        <v>5</v>
+      </c>
+      <c r="BA140">
+        <v>4</v>
+      </c>
+      <c r="BB140">
+        <v>1</v>
+      </c>
+      <c r="BC140">
+        <v>5</v>
+      </c>
+      <c r="BD140">
+        <v>1.84</v>
+      </c>
+      <c r="BE140">
+        <v>6.25</v>
+      </c>
+      <c r="BF140">
+        <v>2.07</v>
+      </c>
+      <c r="BG140">
+        <v>1.3</v>
+      </c>
+      <c r="BH140">
+        <v>3.05</v>
+      </c>
+      <c r="BI140">
+        <v>1.52</v>
+      </c>
+      <c r="BJ140">
+        <v>2.33</v>
+      </c>
+      <c r="BK140">
+        <v>1.86</v>
+      </c>
+      <c r="BL140">
+        <v>1.83</v>
+      </c>
+      <c r="BM140">
+        <v>2.33</v>
+      </c>
+      <c r="BN140">
+        <v>1.5</v>
+      </c>
+      <c r="BO140">
+        <v>3.05</v>
+      </c>
+      <c r="BP140">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="141" spans="1:68">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>7727007</v>
+      </c>
+      <c r="C141" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141" t="s">
+        <v>69</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45587.65625</v>
+      </c>
+      <c r="F141">
+        <v>0</v>
+      </c>
+      <c r="G141" t="s">
+        <v>71</v>
+      </c>
+      <c r="H141" t="s">
+        <v>90</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>0</v>
+      </c>
+      <c r="O141" t="s">
+        <v>96</v>
+      </c>
+      <c r="P141" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q141">
+        <v>3.1</v>
+      </c>
+      <c r="R141">
+        <v>2.2</v>
+      </c>
+      <c r="S141">
+        <v>3.4</v>
+      </c>
+      <c r="T141">
+        <v>1.36</v>
+      </c>
+      <c r="U141">
+        <v>3</v>
+      </c>
+      <c r="V141">
+        <v>2.75</v>
+      </c>
+      <c r="W141">
+        <v>1.4</v>
+      </c>
+      <c r="X141">
+        <v>7</v>
+      </c>
+      <c r="Y141">
+        <v>1.1</v>
+      </c>
+      <c r="Z141">
+        <v>2.4</v>
+      </c>
+      <c r="AA141">
+        <v>3.3</v>
+      </c>
+      <c r="AB141">
+        <v>2.81</v>
+      </c>
+      <c r="AC141">
+        <v>1.04</v>
+      </c>
+      <c r="AD141">
+        <v>13</v>
+      </c>
+      <c r="AE141">
+        <v>1.25</v>
+      </c>
+      <c r="AF141">
+        <v>3.75</v>
+      </c>
+      <c r="AG141">
+        <v>1.8</v>
+      </c>
+      <c r="AH141">
+        <v>1.9</v>
+      </c>
+      <c r="AI141">
+        <v>1.67</v>
+      </c>
+      <c r="AJ141">
+        <v>2.1</v>
+      </c>
+      <c r="AK141">
+        <v>1.44</v>
+      </c>
+      <c r="AL141">
+        <v>1.25</v>
+      </c>
+      <c r="AM141">
+        <v>1.57</v>
+      </c>
+      <c r="AN141">
+        <v>3</v>
+      </c>
+      <c r="AO141">
+        <v>1.2</v>
+      </c>
+      <c r="AP141">
+        <v>2.67</v>
+      </c>
+      <c r="AQ141">
+        <v>1.17</v>
+      </c>
+      <c r="AR141">
+        <v>1.61</v>
+      </c>
+      <c r="AS141">
+        <v>1.26</v>
+      </c>
+      <c r="AT141">
+        <v>2.87</v>
+      </c>
+      <c r="AU141">
+        <v>2</v>
+      </c>
+      <c r="AV141">
+        <v>4</v>
+      </c>
+      <c r="AW141">
+        <v>3</v>
+      </c>
+      <c r="AX141">
+        <v>3</v>
+      </c>
+      <c r="AY141">
+        <v>6</v>
+      </c>
+      <c r="AZ141">
+        <v>10</v>
+      </c>
+      <c r="BA141">
+        <v>5</v>
+      </c>
+      <c r="BB141">
+        <v>3</v>
+      </c>
+      <c r="BC141">
+        <v>8</v>
+      </c>
+      <c r="BD141">
+        <v>1.8</v>
+      </c>
+      <c r="BE141">
+        <v>6.4</v>
+      </c>
+      <c r="BF141">
+        <v>2.07</v>
+      </c>
+      <c r="BG141">
+        <v>1.22</v>
+      </c>
+      <c r="BH141">
+        <v>3.7</v>
+      </c>
+      <c r="BI141">
+        <v>1.4</v>
+      </c>
+      <c r="BJ141">
+        <v>2.7</v>
+      </c>
+      <c r="BK141">
+        <v>1.65</v>
+      </c>
+      <c r="BL141">
+        <v>2.08</v>
+      </c>
+      <c r="BM141">
+        <v>2.02</v>
+      </c>
+      <c r="BN141">
+        <v>1.7</v>
+      </c>
+      <c r="BO141">
+        <v>2.55</v>
+      </c>
+      <c r="BP141">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -523,19 +523,19 @@
     <t>['47', '77']</t>
   </si>
   <si>
+    <t>['23']</t>
+  </si>
+  <si>
     <t>['15']</t>
+  </si>
+  <si>
+    <t>['47', '61']</t>
   </si>
   <si>
     <t>['54']</t>
   </si>
   <si>
-    <t>['47', '61']</t>
-  </si>
-  <si>
     <t>['8', '38', '56', '67']</t>
-  </si>
-  <si>
-    <t>['23']</t>
   </si>
   <si>
     <t>['17', '50', '53']</t>
@@ -550,6 +550,9 @@
     <t>['63', '67', '72']</t>
   </si>
   <si>
+    <t>['5', '22']</t>
+  </si>
+  <si>
     <t>['48']</t>
   </si>
   <si>
@@ -559,13 +562,19 @@
     <t>['34', '38', '52']</t>
   </si>
   <si>
+    <t>['61', '63']</t>
+  </si>
+  <si>
     <t>['66']</t>
   </si>
   <si>
-    <t>['61', '63']</t>
+    <t>['53']</t>
   </si>
   <si>
-    <t>['5', '22']</t>
+    <t>['3', '86']</t>
+  </si>
+  <si>
+    <t>['52']</t>
   </si>
   <si>
     <t>['34', '63']</t>
@@ -574,19 +583,10 @@
     <t>['46', '73', '90+5']</t>
   </si>
   <si>
-    <t>['8', '17', '28', '70', '73']</t>
-  </si>
-  <si>
-    <t>['52']</t>
-  </si>
-  <si>
-    <t>['3', '86']</t>
-  </si>
-  <si>
     <t>['34', '90+5']</t>
   </si>
   <si>
-    <t>['53']</t>
+    <t>['8', '17', '28', '70', '73']</t>
   </si>
   <si>
     <t>['13', '18']</t>
@@ -721,10 +721,10 @@
     <t>['5', '78']</t>
   </si>
   <si>
-    <t>['26', '68']</t>
+    <t>['47', '89']</t>
   </si>
   <si>
-    <t>['47', '89']</t>
+    <t>['26', '68']</t>
   </si>
   <si>
     <t>['4', '16']</t>
@@ -736,7 +736,7 @@
     <t>['90+1']</t>
   </si>
   <si>
-    <t>['6', '23', '60', '83']</t>
+    <t>['44', '86']</t>
   </si>
   <si>
     <t>['40']</t>
@@ -745,7 +745,7 @@
     <t>['12', '90+2']</t>
   </si>
   <si>
-    <t>['44', '86']</t>
+    <t>['6', '23', '60', '83']</t>
   </si>
   <si>
     <t>['47', '85']</t>
@@ -781,10 +781,16 @@
     <t>['14', '52', '79']</t>
   </si>
   <si>
+    <t>['27', '90+2']</t>
+  </si>
+  <si>
     <t>['12']</t>
   </si>
   <si>
-    <t>['27', '90+2']</t>
+    <t>['29', '62']</t>
+  </si>
+  <si>
+    <t>['90+3']</t>
   </si>
   <si>
     <t>['16', '53', '81']</t>
@@ -796,13 +802,7 @@
     <t>['77', '90+3']</t>
   </si>
   <si>
-    <t>['29', '62']</t>
-  </si>
-  <si>
     <t>['31', '90']</t>
-  </si>
-  <si>
-    <t>['90+3']</t>
   </si>
 </sst>
 </file>
@@ -11105,7 +11105,7 @@
         <v>129</v>
       </c>
       <c r="P49" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q49">
         <v>1.95</v>
@@ -16461,7 +16461,7 @@
         <v>148</v>
       </c>
       <c r="P75" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q75">
         <v>1.95</v>
@@ -17861,7 +17861,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>7477893</v>
+        <v>7477894</v>
       </c>
       <c r="C82" t="s">
         <v>68</v>
@@ -17873,13 +17873,13 @@
         <v>45563.45833333334</v>
       </c>
       <c r="F82">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="H82" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -17894,172 +17894,172 @@
         <v>0</v>
       </c>
       <c r="M82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O82" t="s">
         <v>96</v>
       </c>
       <c r="P82" t="s">
-        <v>96</v>
+        <v>235</v>
       </c>
       <c r="Q82">
+        <v>3.4</v>
+      </c>
+      <c r="R82">
+        <v>2.25</v>
+      </c>
+      <c r="S82">
+        <v>3</v>
+      </c>
+      <c r="T82">
+        <v>1.33</v>
+      </c>
+      <c r="U82">
+        <v>3.25</v>
+      </c>
+      <c r="V82">
+        <v>2.63</v>
+      </c>
+      <c r="W82">
+        <v>1.44</v>
+      </c>
+      <c r="X82">
+        <v>6.5</v>
+      </c>
+      <c r="Y82">
+        <v>1.11</v>
+      </c>
+      <c r="Z82">
+        <v>2.83</v>
+      </c>
+      <c r="AA82">
         <v>3.6</v>
       </c>
-      <c r="R82">
-        <v>2.2</v>
-      </c>
-      <c r="S82">
-        <v>2.88</v>
-      </c>
-      <c r="T82">
-        <v>1.36</v>
-      </c>
-      <c r="U82">
-        <v>3</v>
-      </c>
-      <c r="V82">
-        <v>2.75</v>
-      </c>
-      <c r="W82">
+      <c r="AB82">
+        <v>2.36</v>
+      </c>
+      <c r="AC82">
+        <v>1.03</v>
+      </c>
+      <c r="AD82">
+        <v>13</v>
+      </c>
+      <c r="AE82">
+        <v>1.19</v>
+      </c>
+      <c r="AF82">
+        <v>3.66</v>
+      </c>
+      <c r="AG82">
+        <v>1.85</v>
+      </c>
+      <c r="AH82">
+        <v>1.85</v>
+      </c>
+      <c r="AI82">
+        <v>1.57</v>
+      </c>
+      <c r="AJ82">
+        <v>2.25</v>
+      </c>
+      <c r="AK82">
+        <v>1.57</v>
+      </c>
+      <c r="AL82">
+        <v>1.33</v>
+      </c>
+      <c r="AM82">
         <v>1.4</v>
       </c>
-      <c r="X82">
-        <v>7</v>
-      </c>
-      <c r="Y82">
-        <v>1.1</v>
-      </c>
-      <c r="Z82">
-        <v>2.79</v>
-      </c>
-      <c r="AA82">
-        <v>3.44</v>
-      </c>
-      <c r="AB82">
-        <v>2.46</v>
-      </c>
-      <c r="AC82">
-        <v>1.02</v>
-      </c>
-      <c r="AD82">
-        <v>10</v>
-      </c>
-      <c r="AE82">
-        <v>1.25</v>
-      </c>
-      <c r="AF82">
-        <v>3.6</v>
-      </c>
-      <c r="AG82">
-        <v>1.8</v>
-      </c>
-      <c r="AH82">
-        <v>1.9</v>
-      </c>
-      <c r="AI82">
-        <v>1.67</v>
-      </c>
-      <c r="AJ82">
-        <v>2.1</v>
-      </c>
-      <c r="AK82">
-        <v>1.62</v>
-      </c>
-      <c r="AL82">
-        <v>1.28</v>
-      </c>
-      <c r="AM82">
-        <v>1.35</v>
-      </c>
       <c r="AN82">
-        <v>0.33</v>
+        <v>1.33</v>
       </c>
       <c r="AO82">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AP82">
-        <v>0.83</v>
+        <v>1.17</v>
       </c>
       <c r="AQ82">
-        <v>1.33</v>
+        <v>2.4</v>
       </c>
       <c r="AR82">
-        <v>1.36</v>
+        <v>1.19</v>
       </c>
       <c r="AS82">
-        <v>1.03</v>
+        <v>1.26</v>
       </c>
       <c r="AT82">
-        <v>2.39</v>
+        <v>2.45</v>
       </c>
       <c r="AU82">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AV82">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW82">
         <v>7</v>
       </c>
       <c r="AX82">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AY82">
+        <v>17</v>
+      </c>
+      <c r="AZ82">
+        <v>11</v>
+      </c>
+      <c r="BA82">
+        <v>6</v>
+      </c>
+      <c r="BB82">
+        <v>4</v>
+      </c>
+      <c r="BC82">
         <v>10</v>
       </c>
-      <c r="AZ82">
-        <v>7</v>
-      </c>
-      <c r="BA82">
-        <v>1</v>
-      </c>
-      <c r="BB82">
-        <v>3</v>
-      </c>
-      <c r="BC82">
-        <v>4</v>
-      </c>
       <c r="BD82">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="BE82">
-        <v>6.4</v>
+        <v>6.1</v>
       </c>
       <c r="BF82">
-        <v>1.79</v>
+        <v>1.89</v>
       </c>
       <c r="BG82">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="BH82">
-        <v>3.55</v>
+        <v>2.95</v>
       </c>
       <c r="BI82">
-        <v>1.44</v>
+        <v>1.56</v>
       </c>
       <c r="BJ82">
-        <v>2.55</v>
+        <v>2.23</v>
       </c>
       <c r="BK82">
-        <v>1.71</v>
+        <v>1.92</v>
       </c>
       <c r="BL82">
-        <v>2</v>
+        <v>1.77</v>
       </c>
       <c r="BM82">
-        <v>2.1</v>
+        <v>2.43</v>
       </c>
       <c r="BN82">
-        <v>1.63</v>
+        <v>1.48</v>
       </c>
       <c r="BO82">
-        <v>2.65</v>
+        <v>3.15</v>
       </c>
       <c r="BP82">
-        <v>1.41</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="83" spans="1:68">
@@ -18727,7 +18727,7 @@
         <v>96</v>
       </c>
       <c r="P86" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -18891,7 +18891,7 @@
         <v>86</v>
       </c>
       <c r="B87">
-        <v>7477894</v>
+        <v>7477893</v>
       </c>
       <c r="C87" t="s">
         <v>68</v>
@@ -18903,13 +18903,13 @@
         <v>45563.45833333334</v>
       </c>
       <c r="F87">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G87" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="H87" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -18924,172 +18924,172 @@
         <v>0</v>
       </c>
       <c r="M87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N87">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O87" t="s">
         <v>96</v>
       </c>
       <c r="P87" t="s">
-        <v>236</v>
+        <v>96</v>
       </c>
       <c r="Q87">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="R87">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S87">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="T87">
+        <v>1.36</v>
+      </c>
+      <c r="U87">
+        <v>3</v>
+      </c>
+      <c r="V87">
+        <v>2.75</v>
+      </c>
+      <c r="W87">
+        <v>1.4</v>
+      </c>
+      <c r="X87">
+        <v>7</v>
+      </c>
+      <c r="Y87">
+        <v>1.1</v>
+      </c>
+      <c r="Z87">
+        <v>2.79</v>
+      </c>
+      <c r="AA87">
+        <v>3.44</v>
+      </c>
+      <c r="AB87">
+        <v>2.46</v>
+      </c>
+      <c r="AC87">
+        <v>1.02</v>
+      </c>
+      <c r="AD87">
+        <v>10</v>
+      </c>
+      <c r="AE87">
+        <v>1.25</v>
+      </c>
+      <c r="AF87">
+        <v>3.6</v>
+      </c>
+      <c r="AG87">
+        <v>1.8</v>
+      </c>
+      <c r="AH87">
+        <v>1.9</v>
+      </c>
+      <c r="AI87">
+        <v>1.67</v>
+      </c>
+      <c r="AJ87">
+        <v>2.1</v>
+      </c>
+      <c r="AK87">
+        <v>1.62</v>
+      </c>
+      <c r="AL87">
+        <v>1.28</v>
+      </c>
+      <c r="AM87">
+        <v>1.35</v>
+      </c>
+      <c r="AN87">
+        <v>0.33</v>
+      </c>
+      <c r="AO87">
         <v>1.33</v>
       </c>
-      <c r="U87">
-        <v>3.25</v>
-      </c>
-      <c r="V87">
-        <v>2.63</v>
-      </c>
-      <c r="W87">
-        <v>1.44</v>
-      </c>
-      <c r="X87">
-        <v>6.5</v>
-      </c>
-      <c r="Y87">
-        <v>1.11</v>
-      </c>
-      <c r="Z87">
-        <v>2.83</v>
-      </c>
-      <c r="AA87">
-        <v>3.6</v>
-      </c>
-      <c r="AB87">
-        <v>2.36</v>
-      </c>
-      <c r="AC87">
+      <c r="AP87">
+        <v>0.83</v>
+      </c>
+      <c r="AQ87">
+        <v>1.33</v>
+      </c>
+      <c r="AR87">
+        <v>1.36</v>
+      </c>
+      <c r="AS87">
         <v>1.03</v>
       </c>
-      <c r="AD87">
-        <v>13</v>
-      </c>
-      <c r="AE87">
-        <v>1.19</v>
-      </c>
-      <c r="AF87">
-        <v>3.66</v>
-      </c>
-      <c r="AG87">
-        <v>1.85</v>
-      </c>
-      <c r="AH87">
-        <v>1.85</v>
-      </c>
-      <c r="AI87">
-        <v>1.57</v>
-      </c>
-      <c r="AJ87">
-        <v>2.25</v>
-      </c>
-      <c r="AK87">
-        <v>1.57</v>
-      </c>
-      <c r="AL87">
-        <v>1.33</v>
-      </c>
-      <c r="AM87">
-        <v>1.4</v>
-      </c>
-      <c r="AN87">
-        <v>1.33</v>
-      </c>
-      <c r="AO87">
-        <v>1.5</v>
-      </c>
-      <c r="AP87">
-        <v>1.17</v>
-      </c>
-      <c r="AQ87">
-        <v>2.4</v>
-      </c>
-      <c r="AR87">
-        <v>1.19</v>
-      </c>
-      <c r="AS87">
-        <v>1.26</v>
-      </c>
       <c r="AT87">
-        <v>2.45</v>
+        <v>2.39</v>
       </c>
       <c r="AU87">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="AV87">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW87">
         <v>7</v>
       </c>
       <c r="AX87">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY87">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AZ87">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BA87">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="BB87">
+        <v>3</v>
+      </c>
+      <c r="BC87">
         <v>4</v>
       </c>
-      <c r="BC87">
-        <v>10</v>
-      </c>
       <c r="BD87">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="BE87">
-        <v>6.1</v>
+        <v>6.4</v>
       </c>
       <c r="BF87">
-        <v>1.89</v>
+        <v>1.79</v>
       </c>
       <c r="BG87">
-        <v>1.33</v>
+        <v>1.24</v>
       </c>
       <c r="BH87">
-        <v>2.95</v>
+        <v>3.55</v>
       </c>
       <c r="BI87">
-        <v>1.56</v>
+        <v>1.44</v>
       </c>
       <c r="BJ87">
-        <v>2.23</v>
+        <v>2.55</v>
       </c>
       <c r="BK87">
-        <v>1.92</v>
+        <v>1.71</v>
       </c>
       <c r="BL87">
-        <v>1.77</v>
+        <v>2</v>
       </c>
       <c r="BM87">
-        <v>2.43</v>
+        <v>2.1</v>
       </c>
       <c r="BN87">
-        <v>1.48</v>
+        <v>1.63</v>
       </c>
       <c r="BO87">
-        <v>3.15</v>
+        <v>2.65</v>
       </c>
       <c r="BP87">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="88" spans="1:68">
@@ -20333,7 +20333,7 @@
         <v>93</v>
       </c>
       <c r="B94">
-        <v>7477910</v>
+        <v>7477911</v>
       </c>
       <c r="C94" t="s">
         <v>68</v>
@@ -20348,190 +20348,190 @@
         <v>9</v>
       </c>
       <c r="G94" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="H94" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="I94">
         <v>0</v>
       </c>
       <c r="J94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K94">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L94">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M94">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N94">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O94" t="s">
-        <v>158</v>
+        <v>96</v>
       </c>
       <c r="P94" t="s">
         <v>240</v>
       </c>
       <c r="Q94">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="R94">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="S94">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="T94">
+        <v>1.4</v>
+      </c>
+      <c r="U94">
+        <v>2.75</v>
+      </c>
+      <c r="V94">
+        <v>3</v>
+      </c>
+      <c r="W94">
         <v>1.36</v>
       </c>
-      <c r="U94">
-        <v>3</v>
-      </c>
-      <c r="V94">
-        <v>2.75</v>
-      </c>
-      <c r="W94">
-        <v>1.4</v>
-      </c>
       <c r="X94">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y94">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z94">
+        <v>3.85</v>
+      </c>
+      <c r="AA94">
         <v>3.65</v>
       </c>
-      <c r="AA94">
-        <v>3.55</v>
-      </c>
       <c r="AB94">
-        <v>2.02</v>
+        <v>1.93</v>
       </c>
       <c r="AC94">
         <v>1.05</v>
       </c>
       <c r="AD94">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AE94">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="AF94">
-        <v>3.42</v>
+        <v>3.5</v>
       </c>
       <c r="AG94">
-        <v>1.86</v>
+        <v>2.01</v>
       </c>
       <c r="AH94">
-        <v>1.96</v>
+        <v>1.81</v>
       </c>
       <c r="AI94">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AJ94">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AK94">
-        <v>2.01</v>
+        <v>1.9</v>
       </c>
       <c r="AL94">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="AM94">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="AN94">
         <v>1</v>
       </c>
       <c r="AO94">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AP94">
-        <v>1.17</v>
+        <v>0.67</v>
       </c>
       <c r="AQ94">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR94">
-        <v>1.4</v>
+        <v>1.05</v>
       </c>
       <c r="AS94">
-        <v>1.23</v>
+        <v>1.45</v>
       </c>
       <c r="AT94">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU94">
+        <v>0</v>
+      </c>
+      <c r="AV94">
         <v>8</v>
       </c>
-      <c r="AV94">
-        <v>7</v>
-      </c>
       <c r="AW94">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AX94">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY94">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AZ94">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA94">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BB94">
         <v>5</v>
       </c>
       <c r="BC94">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD94">
-        <v>2.65</v>
+        <v>2.38</v>
       </c>
       <c r="BE94">
         <v>6.4</v>
       </c>
       <c r="BF94">
-        <v>1.52</v>
+        <v>1.65</v>
       </c>
       <c r="BG94">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="BH94">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="BI94">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="BJ94">
-        <v>2.43</v>
+        <v>2.35</v>
       </c>
       <c r="BK94">
-        <v>1.77</v>
+        <v>1.84</v>
       </c>
       <c r="BL94">
-        <v>1.92</v>
+        <v>1.84</v>
       </c>
       <c r="BM94">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="BN94">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="BO94">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="BP94">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="95" spans="1:68">
@@ -21157,7 +21157,7 @@
         <v>97</v>
       </c>
       <c r="B98">
-        <v>7477911</v>
+        <v>7477910</v>
       </c>
       <c r="C98" t="s">
         <v>68</v>
@@ -21172,190 +21172,190 @@
         <v>9</v>
       </c>
       <c r="G98" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="H98" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="I98">
         <v>0</v>
       </c>
       <c r="J98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M98">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N98">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O98" t="s">
-        <v>96</v>
+        <v>158</v>
       </c>
       <c r="P98" t="s">
         <v>243</v>
       </c>
       <c r="Q98">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="R98">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="S98">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="T98">
+        <v>1.36</v>
+      </c>
+      <c r="U98">
+        <v>3</v>
+      </c>
+      <c r="V98">
+        <v>2.75</v>
+      </c>
+      <c r="W98">
         <v>1.4</v>
       </c>
-      <c r="U98">
-        <v>2.75</v>
-      </c>
-      <c r="V98">
-        <v>3</v>
-      </c>
-      <c r="W98">
-        <v>1.36</v>
-      </c>
       <c r="X98">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y98">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z98">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="AA98">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="AB98">
-        <v>1.93</v>
+        <v>2.02</v>
       </c>
       <c r="AC98">
         <v>1.05</v>
       </c>
       <c r="AD98">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE98">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="AF98">
-        <v>3.5</v>
+        <v>3.42</v>
       </c>
       <c r="AG98">
+        <v>1.86</v>
+      </c>
+      <c r="AH98">
+        <v>1.96</v>
+      </c>
+      <c r="AI98">
+        <v>1.8</v>
+      </c>
+      <c r="AJ98">
+        <v>1.95</v>
+      </c>
+      <c r="AK98">
         <v>2.01</v>
       </c>
-      <c r="AH98">
-        <v>1.81</v>
-      </c>
-      <c r="AI98">
-        <v>1.91</v>
-      </c>
-      <c r="AJ98">
-        <v>1.91</v>
-      </c>
-      <c r="AK98">
-        <v>1.9</v>
-      </c>
       <c r="AL98">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="AM98">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AN98">
         <v>1</v>
       </c>
       <c r="AO98">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP98">
-        <v>0.67</v>
+        <v>1.17</v>
       </c>
       <c r="AQ98">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR98">
-        <v>1.05</v>
+        <v>1.4</v>
       </c>
       <c r="AS98">
-        <v>1.45</v>
+        <v>1.23</v>
       </c>
       <c r="AT98">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU98">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AV98">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW98">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AX98">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY98">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ98">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA98">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BB98">
         <v>5</v>
       </c>
       <c r="BC98">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD98">
-        <v>2.38</v>
+        <v>2.65</v>
       </c>
       <c r="BE98">
         <v>6.4</v>
       </c>
       <c r="BF98">
-        <v>1.65</v>
+        <v>1.52</v>
       </c>
       <c r="BG98">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="BH98">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="BI98">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="BJ98">
-        <v>2.35</v>
+        <v>2.43</v>
       </c>
       <c r="BK98">
-        <v>1.84</v>
+        <v>1.77</v>
       </c>
       <c r="BL98">
-        <v>1.84</v>
+        <v>1.92</v>
       </c>
       <c r="BM98">
-        <v>2.32</v>
+        <v>2.18</v>
       </c>
       <c r="BN98">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="BO98">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="BP98">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="99" spans="1:68">
@@ -22805,7 +22805,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>7477931</v>
+        <v>7477929</v>
       </c>
       <c r="C106" t="s">
         <v>68</v>
@@ -22817,46 +22817,46 @@
         <v>45570.45833333334</v>
       </c>
       <c r="F106">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G106" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="H106" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="I106">
         <v>0</v>
       </c>
       <c r="J106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N106">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O106" t="s">
-        <v>96</v>
+        <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>96</v>
+        <v>248</v>
       </c>
       <c r="Q106">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="R106">
         <v>2.2</v>
       </c>
       <c r="S106">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T106">
         <v>1.4</v>
@@ -22877,133 +22877,133 @@
         <v>1.08</v>
       </c>
       <c r="Z106">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="AA106">
+        <v>3.4</v>
+      </c>
+      <c r="AB106">
         <v>3.6</v>
       </c>
-      <c r="AB106">
-        <v>4.6</v>
-      </c>
       <c r="AC106">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="AD106">
-        <v>8.300000000000001</v>
+        <v>10</v>
       </c>
       <c r="AE106">
-        <v>1.26</v>
+        <v>1.22</v>
       </c>
       <c r="AF106">
-        <v>3.14</v>
+        <v>3.8</v>
       </c>
       <c r="AG106">
-        <v>1.94</v>
+        <v>1.87</v>
       </c>
       <c r="AH106">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="AI106">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AJ106">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AK106">
-        <v>1.23</v>
+        <v>1.32</v>
       </c>
       <c r="AL106">
         <v>1.28</v>
       </c>
       <c r="AM106">
-        <v>1.96</v>
+        <v>1.76</v>
       </c>
       <c r="AN106">
-        <v>2</v>
+        <v>1.25</v>
       </c>
       <c r="AO106">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="AP106">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ106">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="AR106">
-        <v>1.76</v>
+        <v>1.55</v>
       </c>
       <c r="AS106">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="AT106">
-        <v>2.99</v>
+        <v>2.84</v>
       </c>
       <c r="AU106">
+        <v>7</v>
+      </c>
+      <c r="AV106">
+        <v>3</v>
+      </c>
+      <c r="AW106">
         <v>5</v>
       </c>
-      <c r="AV106">
-        <v>2</v>
-      </c>
-      <c r="AW106">
-        <v>3</v>
-      </c>
       <c r="AX106">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY106">
+        <v>18</v>
+      </c>
+      <c r="AZ106">
+        <v>12</v>
+      </c>
+      <c r="BA106">
+        <v>9</v>
+      </c>
+      <c r="BB106">
+        <v>5</v>
+      </c>
+      <c r="BC106">
         <v>14</v>
       </c>
-      <c r="AZ106">
-        <v>5</v>
-      </c>
-      <c r="BA106">
-        <v>3</v>
-      </c>
-      <c r="BB106">
-        <v>2</v>
-      </c>
-      <c r="BC106">
-        <v>5</v>
-      </c>
       <c r="BD106">
-        <v>1.37</v>
+        <v>1.82</v>
       </c>
       <c r="BE106">
         <v>8.5</v>
       </c>
       <c r="BF106">
-        <v>3.86</v>
+        <v>2.32</v>
       </c>
       <c r="BG106">
-        <v>1.38</v>
+        <v>1.24</v>
       </c>
       <c r="BH106">
-        <v>2.75</v>
+        <v>3.55</v>
       </c>
       <c r="BI106">
-        <v>1.54</v>
+        <v>1.41</v>
       </c>
       <c r="BJ106">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="BK106">
-        <v>2</v>
+        <v>1.68</v>
       </c>
       <c r="BL106">
-        <v>1.8</v>
+        <v>2.04</v>
       </c>
       <c r="BM106">
-        <v>2.63</v>
+        <v>1.95</v>
       </c>
       <c r="BN106">
-        <v>1.43</v>
+        <v>1.77</v>
       </c>
       <c r="BO106">
-        <v>3.4</v>
+        <v>2.65</v>
       </c>
       <c r="BP106">
-        <v>1.26</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="107" spans="1:68">
@@ -23011,7 +23011,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>7477929</v>
+        <v>7477926</v>
       </c>
       <c r="C107" t="s">
         <v>68</v>
@@ -23026,190 +23026,190 @@
         <v>0</v>
       </c>
       <c r="G107" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="H107" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L107">
         <v>2</v>
       </c>
       <c r="M107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O107" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>248</v>
+        <v>96</v>
       </c>
       <c r="Q107">
+        <v>3.2</v>
+      </c>
+      <c r="R107">
+        <v>2.25</v>
+      </c>
+      <c r="S107">
+        <v>3.1</v>
+      </c>
+      <c r="T107">
+        <v>1.33</v>
+      </c>
+      <c r="U107">
+        <v>3.25</v>
+      </c>
+      <c r="V107">
         <v>2.63</v>
       </c>
-      <c r="R107">
+      <c r="W107">
+        <v>1.44</v>
+      </c>
+      <c r="X107">
+        <v>6.5</v>
+      </c>
+      <c r="Y107">
+        <v>1.11</v>
+      </c>
+      <c r="Z107">
+        <v>2.6</v>
+      </c>
+      <c r="AA107">
+        <v>3.5</v>
+      </c>
+      <c r="AB107">
+        <v>2.6</v>
+      </c>
+      <c r="AC107">
+        <v>1.01</v>
+      </c>
+      <c r="AD107">
+        <v>11</v>
+      </c>
+      <c r="AE107">
+        <v>1.2</v>
+      </c>
+      <c r="AF107">
+        <v>4</v>
+      </c>
+      <c r="AG107">
+        <v>1.61</v>
+      </c>
+      <c r="AH107">
         <v>2.2</v>
       </c>
-      <c r="S107">
+      <c r="AI107">
+        <v>1.57</v>
+      </c>
+      <c r="AJ107">
+        <v>2.25</v>
+      </c>
+      <c r="AK107">
+        <v>1.5</v>
+      </c>
+      <c r="AL107">
+        <v>1.25</v>
+      </c>
+      <c r="AM107">
+        <v>1.45</v>
+      </c>
+      <c r="AN107">
+        <v>2</v>
+      </c>
+      <c r="AO107">
+        <v>1.75</v>
+      </c>
+      <c r="AP107">
+        <v>1.83</v>
+      </c>
+      <c r="AQ107">
+        <v>1.17</v>
+      </c>
+      <c r="AR107">
+        <v>1.42</v>
+      </c>
+      <c r="AS107">
+        <v>1.37</v>
+      </c>
+      <c r="AT107">
+        <v>2.79</v>
+      </c>
+      <c r="AU107">
         <v>4</v>
       </c>
-      <c r="T107">
-        <v>1.4</v>
-      </c>
-      <c r="U107">
-        <v>2.75</v>
-      </c>
-      <c r="V107">
-        <v>2.75</v>
-      </c>
-      <c r="W107">
-        <v>1.4</v>
-      </c>
-      <c r="X107">
-        <v>8</v>
-      </c>
-      <c r="Y107">
-        <v>1.08</v>
-      </c>
-      <c r="Z107">
-        <v>2.05</v>
-      </c>
-      <c r="AA107">
-        <v>3.4</v>
-      </c>
-      <c r="AB107">
-        <v>3.6</v>
-      </c>
-      <c r="AC107">
-        <v>1.02</v>
-      </c>
-      <c r="AD107">
-        <v>10</v>
-      </c>
-      <c r="AE107">
-        <v>1.22</v>
-      </c>
-      <c r="AF107">
-        <v>3.8</v>
-      </c>
-      <c r="AG107">
-        <v>1.87</v>
-      </c>
-      <c r="AH107">
-        <v>1.9</v>
-      </c>
-      <c r="AI107">
-        <v>1.75</v>
-      </c>
-      <c r="AJ107">
-        <v>2</v>
-      </c>
-      <c r="AK107">
-        <v>1.32</v>
-      </c>
-      <c r="AL107">
-        <v>1.28</v>
-      </c>
-      <c r="AM107">
-        <v>1.76</v>
-      </c>
-      <c r="AN107">
-        <v>1.25</v>
-      </c>
-      <c r="AO107">
-        <v>0.33</v>
-      </c>
-      <c r="AP107">
-        <v>1.33</v>
-      </c>
-      <c r="AQ107">
-        <v>0.8</v>
-      </c>
-      <c r="AR107">
-        <v>1.55</v>
-      </c>
-      <c r="AS107">
-        <v>1.29</v>
-      </c>
-      <c r="AT107">
-        <v>2.84</v>
-      </c>
-      <c r="AU107">
-        <v>7</v>
-      </c>
       <c r="AV107">
         <v>3</v>
       </c>
       <c r="AW107">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AX107">
         <v>5</v>
       </c>
       <c r="AY107">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="AZ107">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA107">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB107">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC107">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD107">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="BE107">
-        <v>8.5</v>
+        <v>6.4</v>
       </c>
       <c r="BF107">
-        <v>2.32</v>
+        <v>1.95</v>
       </c>
       <c r="BG107">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="BH107">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="BI107">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="BJ107">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="BK107">
-        <v>1.68</v>
+        <v>1.74</v>
       </c>
       <c r="BL107">
-        <v>2.04</v>
+        <v>1.96</v>
       </c>
       <c r="BM107">
-        <v>1.95</v>
+        <v>2.17</v>
       </c>
       <c r="BN107">
-        <v>1.77</v>
+        <v>1.6</v>
       </c>
       <c r="BO107">
-        <v>2.65</v>
+        <v>2.8</v>
       </c>
       <c r="BP107">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
     </row>
     <row r="108" spans="1:68">
@@ -23217,7 +23217,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>7477926</v>
+        <v>7477925</v>
       </c>
       <c r="C108" t="s">
         <v>68</v>
@@ -23229,193 +23229,193 @@
         <v>45570.45833333334</v>
       </c>
       <c r="F108">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G108" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H108" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J108">
         <v>0</v>
       </c>
       <c r="K108">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L108">
         <v>2</v>
       </c>
       <c r="M108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O108" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P108" t="s">
-        <v>96</v>
+        <v>144</v>
       </c>
       <c r="Q108">
+        <v>2.75</v>
+      </c>
+      <c r="R108">
+        <v>2.05</v>
+      </c>
+      <c r="S108">
+        <v>4.33</v>
+      </c>
+      <c r="T108">
+        <v>1.44</v>
+      </c>
+      <c r="U108">
+        <v>2.63</v>
+      </c>
+      <c r="V108">
+        <v>3.25</v>
+      </c>
+      <c r="W108">
+        <v>1.33</v>
+      </c>
+      <c r="X108">
+        <v>10</v>
+      </c>
+      <c r="Y108">
+        <v>1.06</v>
+      </c>
+      <c r="Z108">
+        <v>2.05</v>
+      </c>
+      <c r="AA108">
+        <v>3.3</v>
+      </c>
+      <c r="AB108">
+        <v>3.75</v>
+      </c>
+      <c r="AC108">
+        <v>1.05</v>
+      </c>
+      <c r="AD108">
+        <v>8</v>
+      </c>
+      <c r="AE108">
+        <v>1.3</v>
+      </c>
+      <c r="AF108">
         <v>3.2</v>
       </c>
-      <c r="R108">
-        <v>2.25</v>
-      </c>
-      <c r="S108">
-        <v>3.1</v>
-      </c>
-      <c r="T108">
-        <v>1.33</v>
-      </c>
-      <c r="U108">
-        <v>3.25</v>
-      </c>
-      <c r="V108">
-        <v>2.63</v>
-      </c>
-      <c r="W108">
-        <v>1.44</v>
-      </c>
-      <c r="X108">
-        <v>6.5</v>
-      </c>
-      <c r="Y108">
-        <v>1.11</v>
-      </c>
-      <c r="Z108">
-        <v>2.6</v>
-      </c>
-      <c r="AA108">
-        <v>3.5</v>
-      </c>
-      <c r="AB108">
-        <v>2.6</v>
-      </c>
-      <c r="AC108">
-        <v>1.01</v>
-      </c>
-      <c r="AD108">
-        <v>11</v>
-      </c>
-      <c r="AE108">
-        <v>1.2</v>
-      </c>
-      <c r="AF108">
-        <v>4</v>
-      </c>
       <c r="AG108">
-        <v>1.61</v>
+        <v>2.13</v>
       </c>
       <c r="AH108">
-        <v>2.2</v>
+        <v>1.65</v>
       </c>
       <c r="AI108">
-        <v>1.57</v>
+        <v>1.95</v>
       </c>
       <c r="AJ108">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AK108">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="AL108">
         <v>1.25</v>
       </c>
       <c r="AM108">
-        <v>1.45</v>
+        <v>1.77</v>
       </c>
       <c r="AN108">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AO108">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AP108">
-        <v>1.83</v>
+        <v>1.4</v>
       </c>
       <c r="AQ108">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR108">
-        <v>1.42</v>
+        <v>1.52</v>
       </c>
       <c r="AS108">
-        <v>1.37</v>
+        <v>1.02</v>
       </c>
       <c r="AT108">
-        <v>2.79</v>
+        <v>2.54</v>
       </c>
       <c r="AU108">
         <v>4</v>
       </c>
       <c r="AV108">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW108">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX108">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY108">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ108">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA108">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="BB108">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BC108">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BD108">
-        <v>1.93</v>
+        <v>1.65</v>
       </c>
       <c r="BE108">
-        <v>6.4</v>
+        <v>6.25</v>
       </c>
       <c r="BF108">
-        <v>1.95</v>
+        <v>2.33</v>
       </c>
       <c r="BG108">
-        <v>1.26</v>
+        <v>1.32</v>
       </c>
       <c r="BH108">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="BI108">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="BJ108">
-        <v>2.5</v>
+        <v>2.28</v>
       </c>
       <c r="BK108">
-        <v>1.74</v>
+        <v>1.89</v>
       </c>
       <c r="BL108">
-        <v>1.96</v>
+        <v>1.8</v>
       </c>
       <c r="BM108">
-        <v>2.17</v>
+        <v>2.38</v>
       </c>
       <c r="BN108">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="BO108">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="BP108">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="109" spans="1:68">
@@ -23423,7 +23423,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>7477925</v>
+        <v>7477922</v>
       </c>
       <c r="C109" t="s">
         <v>68</v>
@@ -23435,58 +23435,58 @@
         <v>45570.45833333334</v>
       </c>
       <c r="F109">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G109" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H109" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="I109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J109">
         <v>0</v>
       </c>
       <c r="K109">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L109">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N109">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O109" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="P109" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="Q109">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="R109">
         <v>2.05</v>
       </c>
       <c r="S109">
-        <v>4.33</v>
+        <v>5</v>
       </c>
       <c r="T109">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U109">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="V109">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W109">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="X109">
         <v>10</v>
@@ -23495,37 +23495,37 @@
         <v>1.06</v>
       </c>
       <c r="Z109">
+        <v>1.91</v>
+      </c>
+      <c r="AA109">
+        <v>3.4</v>
+      </c>
+      <c r="AB109">
+        <v>4.2</v>
+      </c>
+      <c r="AC109">
+        <v>1.02</v>
+      </c>
+      <c r="AD109">
+        <v>7.1</v>
+      </c>
+      <c r="AE109">
+        <v>1.34</v>
+      </c>
+      <c r="AF109">
+        <v>2.73</v>
+      </c>
+      <c r="AG109">
+        <v>2.2</v>
+      </c>
+      <c r="AH109">
+        <v>1.6</v>
+      </c>
+      <c r="AI109">
         <v>2.05</v>
       </c>
-      <c r="AA109">
-        <v>3.3</v>
-      </c>
-      <c r="AB109">
-        <v>3.75</v>
-      </c>
-      <c r="AC109">
-        <v>1.05</v>
-      </c>
-      <c r="AD109">
-        <v>8</v>
-      </c>
-      <c r="AE109">
-        <v>1.3</v>
-      </c>
-      <c r="AF109">
-        <v>3.2</v>
-      </c>
-      <c r="AG109">
-        <v>2.13</v>
-      </c>
-      <c r="AH109">
-        <v>1.65</v>
-      </c>
-      <c r="AI109">
-        <v>1.95</v>
-      </c>
       <c r="AJ109">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AK109">
         <v>1.25</v>
@@ -23537,91 +23537,91 @@
         <v>1.77</v>
       </c>
       <c r="AN109">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AO109">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP109">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="AQ109">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AR109">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="AS109">
-        <v>1.02</v>
+        <v>0.92</v>
       </c>
       <c r="AT109">
-        <v>2.54</v>
+        <v>2.36</v>
       </c>
       <c r="AU109">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV109">
         <v>5</v>
       </c>
       <c r="AW109">
+        <v>3</v>
+      </c>
+      <c r="AX109">
         <v>5</v>
       </c>
-      <c r="AX109">
-        <v>3</v>
-      </c>
       <c r="AY109">
+        <v>12</v>
+      </c>
+      <c r="AZ109">
+        <v>13</v>
+      </c>
+      <c r="BA109">
+        <v>7</v>
+      </c>
+      <c r="BB109">
+        <v>4</v>
+      </c>
+      <c r="BC109">
         <v>11</v>
       </c>
-      <c r="AZ109">
-        <v>12</v>
-      </c>
-      <c r="BA109">
-        <v>3</v>
-      </c>
-      <c r="BB109">
-        <v>6</v>
-      </c>
-      <c r="BC109">
-        <v>9</v>
-      </c>
       <c r="BD109">
+        <v>1.45</v>
+      </c>
+      <c r="BE109">
+        <v>6.75</v>
+      </c>
+      <c r="BF109">
+        <v>2.8</v>
+      </c>
+      <c r="BG109">
+        <v>1.24</v>
+      </c>
+      <c r="BH109">
+        <v>3.55</v>
+      </c>
+      <c r="BI109">
+        <v>1.43</v>
+      </c>
+      <c r="BJ109">
+        <v>2.55</v>
+      </c>
+      <c r="BK109">
+        <v>1.7</v>
+      </c>
+      <c r="BL109">
+        <v>2.02</v>
+      </c>
+      <c r="BM109">
+        <v>2.08</v>
+      </c>
+      <c r="BN109">
         <v>1.65</v>
       </c>
-      <c r="BE109">
-        <v>6.25</v>
-      </c>
-      <c r="BF109">
-        <v>2.33</v>
-      </c>
-      <c r="BG109">
-        <v>1.32</v>
-      </c>
-      <c r="BH109">
-        <v>3.05</v>
-      </c>
-      <c r="BI109">
-        <v>1.54</v>
-      </c>
-      <c r="BJ109">
-        <v>2.28</v>
-      </c>
-      <c r="BK109">
-        <v>1.89</v>
-      </c>
-      <c r="BL109">
-        <v>1.8</v>
-      </c>
-      <c r="BM109">
-        <v>2.38</v>
-      </c>
-      <c r="BN109">
-        <v>1.5</v>
-      </c>
       <c r="BO109">
-        <v>3.05</v>
+        <v>2.65</v>
       </c>
       <c r="BP109">
-        <v>1.32</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="110" spans="1:68">
@@ -23668,7 +23668,7 @@
         <v>4</v>
       </c>
       <c r="O110" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P110" t="s">
         <v>249</v>
@@ -23835,7 +23835,7 @@
         <v>110</v>
       </c>
       <c r="B111">
-        <v>7477920</v>
+        <v>7477917</v>
       </c>
       <c r="C111" t="s">
         <v>68</v>
@@ -23847,193 +23847,193 @@
         <v>45570.45833333334</v>
       </c>
       <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111" t="s">
+        <v>93</v>
+      </c>
+      <c r="H111" t="s">
+        <v>82</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>2</v>
+      </c>
+      <c r="K111">
+        <v>2</v>
+      </c>
+      <c r="L111">
+        <v>2</v>
+      </c>
+      <c r="M111">
+        <v>2</v>
+      </c>
+      <c r="N111">
+        <v>4</v>
+      </c>
+      <c r="O111" t="s">
+        <v>171</v>
+      </c>
+      <c r="P111" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q111">
+        <v>1.91</v>
+      </c>
+      <c r="R111">
+        <v>2.5</v>
+      </c>
+      <c r="S111">
+        <v>7</v>
+      </c>
+      <c r="T111">
+        <v>1.3</v>
+      </c>
+      <c r="U111">
+        <v>3.4</v>
+      </c>
+      <c r="V111">
+        <v>2.5</v>
+      </c>
+      <c r="W111">
+        <v>1.5</v>
+      </c>
+      <c r="X111">
+        <v>6</v>
+      </c>
+      <c r="Y111">
+        <v>1.13</v>
+      </c>
+      <c r="Z111">
+        <v>1.44</v>
+      </c>
+      <c r="AA111">
+        <v>4.4</v>
+      </c>
+      <c r="AB111">
+        <v>7.5</v>
+      </c>
+      <c r="AC111">
+        <v>1.04</v>
+      </c>
+      <c r="AD111">
         <v>10</v>
       </c>
-      <c r="G111" t="s">
-        <v>83</v>
-      </c>
-      <c r="H111" t="s">
-        <v>80</v>
-      </c>
-      <c r="I111">
-        <v>0</v>
-      </c>
-      <c r="J111">
-        <v>0</v>
-      </c>
-      <c r="K111">
-        <v>0</v>
-      </c>
-      <c r="L111">
-        <v>1</v>
-      </c>
-      <c r="M111">
-        <v>0</v>
-      </c>
-      <c r="N111">
-        <v>1</v>
-      </c>
-      <c r="O111" t="s">
-        <v>170</v>
-      </c>
-      <c r="P111" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q111">
-        <v>3.75</v>
-      </c>
-      <c r="R111">
-        <v>2.2</v>
-      </c>
-      <c r="S111">
-        <v>2.75</v>
-      </c>
-      <c r="T111">
-        <v>1.4</v>
-      </c>
-      <c r="U111">
-        <v>2.75</v>
-      </c>
-      <c r="V111">
-        <v>2.75</v>
-      </c>
-      <c r="W111">
-        <v>1.4</v>
-      </c>
-      <c r="X111">
-        <v>8</v>
-      </c>
-      <c r="Y111">
-        <v>1.08</v>
-      </c>
-      <c r="Z111">
+      <c r="AE111">
+        <v>1.22</v>
+      </c>
+      <c r="AF111">
         <v>4.2</v>
       </c>
-      <c r="AA111">
-        <v>3.6</v>
-      </c>
-      <c r="AB111">
-        <v>1.85</v>
-      </c>
-      <c r="AC111">
-        <v>1.05</v>
-      </c>
-      <c r="AD111">
-        <v>9.5</v>
-      </c>
-      <c r="AE111">
-        <v>1.28</v>
-      </c>
-      <c r="AF111">
-        <v>3.55</v>
-      </c>
       <c r="AG111">
-        <v>1.89</v>
+        <v>1.65</v>
       </c>
       <c r="AH111">
-        <v>1.89</v>
+        <v>2.13</v>
       </c>
       <c r="AI111">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="AJ111">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AK111">
-        <v>1.7</v>
+        <v>1.07</v>
       </c>
       <c r="AL111">
-        <v>1.25</v>
+        <v>1.17</v>
       </c>
       <c r="AM111">
+        <v>3.12</v>
+      </c>
+      <c r="AN111">
+        <v>1</v>
+      </c>
+      <c r="AO111">
+        <v>0</v>
+      </c>
+      <c r="AP111">
         <v>1.33</v>
       </c>
-      <c r="AN111">
-        <v>1.75</v>
-      </c>
-      <c r="AO111">
-        <v>3</v>
-      </c>
-      <c r="AP111">
-        <v>1.83</v>
-      </c>
       <c r="AQ111">
-        <v>2.4</v>
+        <v>0.57</v>
       </c>
       <c r="AR111">
-        <v>1.26</v>
+        <v>1.46</v>
       </c>
       <c r="AS111">
-        <v>1.32</v>
+        <v>1.03</v>
       </c>
       <c r="AT111">
-        <v>2.58</v>
+        <v>2.49</v>
       </c>
       <c r="AU111">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV111">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW111">
         <v>5</v>
       </c>
       <c r="AX111">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY111">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AZ111">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BA111">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BB111">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC111">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD111">
+        <v>1.28</v>
+      </c>
+      <c r="BE111">
+        <v>7.5</v>
+      </c>
+      <c r="BF111">
+        <v>3.65</v>
+      </c>
+      <c r="BG111">
+        <v>1.19</v>
+      </c>
+      <c r="BH111">
+        <v>4.1</v>
+      </c>
+      <c r="BI111">
+        <v>1.34</v>
+      </c>
+      <c r="BJ111">
+        <v>2.9</v>
+      </c>
+      <c r="BK111">
+        <v>1.56</v>
+      </c>
+      <c r="BL111">
+        <v>2.23</v>
+      </c>
+      <c r="BM111">
+        <v>1.88</v>
+      </c>
+      <c r="BN111">
+        <v>1.8</v>
+      </c>
+      <c r="BO111">
         <v>2.33</v>
       </c>
-      <c r="BE111">
-        <v>6.5</v>
-      </c>
-      <c r="BF111">
-        <v>1.65</v>
-      </c>
-      <c r="BG111">
-        <v>1.21</v>
-      </c>
-      <c r="BH111">
-        <v>3.8</v>
-      </c>
-      <c r="BI111">
-        <v>1.38</v>
-      </c>
-      <c r="BJ111">
-        <v>2.75</v>
-      </c>
-      <c r="BK111">
-        <v>1.63</v>
-      </c>
-      <c r="BL111">
-        <v>2.12</v>
-      </c>
-      <c r="BM111">
-        <v>1.98</v>
-      </c>
-      <c r="BN111">
-        <v>1.72</v>
-      </c>
-      <c r="BO111">
-        <v>2.5</v>
-      </c>
       <c r="BP111">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="112" spans="1:68">
@@ -24041,7 +24041,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>7477917</v>
+        <v>7477931</v>
       </c>
       <c r="C112" t="s">
         <v>68</v>
@@ -24053,193 +24053,193 @@
         <v>45570.45833333334</v>
       </c>
       <c r="F112">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G112" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="H112" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I112">
         <v>0</v>
       </c>
       <c r="J112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M112">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N112">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O112" t="s">
-        <v>171</v>
+        <v>96</v>
       </c>
       <c r="P112" t="s">
-        <v>250</v>
+        <v>96</v>
       </c>
       <c r="Q112">
+        <v>2.38</v>
+      </c>
+      <c r="R112">
+        <v>2.2</v>
+      </c>
+      <c r="S112">
+        <v>5</v>
+      </c>
+      <c r="T112">
+        <v>1.4</v>
+      </c>
+      <c r="U112">
+        <v>2.75</v>
+      </c>
+      <c r="V112">
+        <v>2.75</v>
+      </c>
+      <c r="W112">
+        <v>1.4</v>
+      </c>
+      <c r="X112">
+        <v>8</v>
+      </c>
+      <c r="Y112">
+        <v>1.08</v>
+      </c>
+      <c r="Z112">
+        <v>1.8</v>
+      </c>
+      <c r="AA112">
+        <v>3.6</v>
+      </c>
+      <c r="AB112">
+        <v>4.6</v>
+      </c>
+      <c r="AC112">
+        <v>1.05</v>
+      </c>
+      <c r="AD112">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE112">
+        <v>1.26</v>
+      </c>
+      <c r="AF112">
+        <v>3.14</v>
+      </c>
+      <c r="AG112">
+        <v>1.94</v>
+      </c>
+      <c r="AH112">
+        <v>1.84</v>
+      </c>
+      <c r="AI112">
         <v>1.91</v>
       </c>
-      <c r="R112">
-        <v>2.5</v>
-      </c>
-      <c r="S112">
-        <v>7</v>
-      </c>
-      <c r="T112">
-        <v>1.3</v>
-      </c>
-      <c r="U112">
+      <c r="AJ112">
+        <v>1.91</v>
+      </c>
+      <c r="AK112">
+        <v>1.23</v>
+      </c>
+      <c r="AL112">
+        <v>1.28</v>
+      </c>
+      <c r="AM112">
+        <v>1.96</v>
+      </c>
+      <c r="AN112">
+        <v>2</v>
+      </c>
+      <c r="AO112">
+        <v>1</v>
+      </c>
+      <c r="AP112">
+        <v>1.6</v>
+      </c>
+      <c r="AQ112">
+        <v>0.83</v>
+      </c>
+      <c r="AR112">
+        <v>1.76</v>
+      </c>
+      <c r="AS112">
+        <v>1.23</v>
+      </c>
+      <c r="AT112">
+        <v>2.99</v>
+      </c>
+      <c r="AU112">
+        <v>5</v>
+      </c>
+      <c r="AV112">
+        <v>2</v>
+      </c>
+      <c r="AW112">
+        <v>3</v>
+      </c>
+      <c r="AX112">
+        <v>3</v>
+      </c>
+      <c r="AY112">
+        <v>14</v>
+      </c>
+      <c r="AZ112">
+        <v>5</v>
+      </c>
+      <c r="BA112">
+        <v>3</v>
+      </c>
+      <c r="BB112">
+        <v>2</v>
+      </c>
+      <c r="BC112">
+        <v>5</v>
+      </c>
+      <c r="BD112">
+        <v>1.37</v>
+      </c>
+      <c r="BE112">
+        <v>8.5</v>
+      </c>
+      <c r="BF112">
+        <v>3.86</v>
+      </c>
+      <c r="BG112">
+        <v>1.38</v>
+      </c>
+      <c r="BH112">
+        <v>2.75</v>
+      </c>
+      <c r="BI112">
+        <v>1.54</v>
+      </c>
+      <c r="BJ112">
+        <v>2.25</v>
+      </c>
+      <c r="BK112">
+        <v>2</v>
+      </c>
+      <c r="BL112">
+        <v>1.8</v>
+      </c>
+      <c r="BM112">
+        <v>2.63</v>
+      </c>
+      <c r="BN112">
+        <v>1.43</v>
+      </c>
+      <c r="BO112">
         <v>3.4</v>
       </c>
-      <c r="V112">
-        <v>2.5</v>
-      </c>
-      <c r="W112">
-        <v>1.5</v>
-      </c>
-      <c r="X112">
-        <v>6</v>
-      </c>
-      <c r="Y112">
-        <v>1.13</v>
-      </c>
-      <c r="Z112">
-        <v>1.44</v>
-      </c>
-      <c r="AA112">
-        <v>4.4</v>
-      </c>
-      <c r="AB112">
-        <v>7.5</v>
-      </c>
-      <c r="AC112">
-        <v>1.04</v>
-      </c>
-      <c r="AD112">
-        <v>10</v>
-      </c>
-      <c r="AE112">
-        <v>1.22</v>
-      </c>
-      <c r="AF112">
-        <v>4.2</v>
-      </c>
-      <c r="AG112">
-        <v>1.65</v>
-      </c>
-      <c r="AH112">
-        <v>2.13</v>
-      </c>
-      <c r="AI112">
-        <v>1.95</v>
-      </c>
-      <c r="AJ112">
-        <v>1.8</v>
-      </c>
-      <c r="AK112">
-        <v>1.07</v>
-      </c>
-      <c r="AL112">
-        <v>1.17</v>
-      </c>
-      <c r="AM112">
-        <v>3.12</v>
-      </c>
-      <c r="AN112">
-        <v>1</v>
-      </c>
-      <c r="AO112">
-        <v>0</v>
-      </c>
-      <c r="AP112">
-        <v>1.33</v>
-      </c>
-      <c r="AQ112">
-        <v>0.57</v>
-      </c>
-      <c r="AR112">
-        <v>1.46</v>
-      </c>
-      <c r="AS112">
-        <v>1.03</v>
-      </c>
-      <c r="AT112">
-        <v>2.49</v>
-      </c>
-      <c r="AU112">
-        <v>6</v>
-      </c>
-      <c r="AV112">
-        <v>3</v>
-      </c>
-      <c r="AW112">
-        <v>5</v>
-      </c>
-      <c r="AX112">
-        <v>4</v>
-      </c>
-      <c r="AY112">
-        <v>21</v>
-      </c>
-      <c r="AZ112">
-        <v>8</v>
-      </c>
-      <c r="BA112">
-        <v>8</v>
-      </c>
-      <c r="BB112">
-        <v>3</v>
-      </c>
-      <c r="BC112">
-        <v>11</v>
-      </c>
-      <c r="BD112">
-        <v>1.28</v>
-      </c>
-      <c r="BE112">
-        <v>7.5</v>
-      </c>
-      <c r="BF112">
-        <v>3.65</v>
-      </c>
-      <c r="BG112">
-        <v>1.19</v>
-      </c>
-      <c r="BH112">
-        <v>4.1</v>
-      </c>
-      <c r="BI112">
-        <v>1.34</v>
-      </c>
-      <c r="BJ112">
-        <v>2.9</v>
-      </c>
-      <c r="BK112">
-        <v>1.56</v>
-      </c>
-      <c r="BL112">
-        <v>2.23</v>
-      </c>
-      <c r="BM112">
-        <v>1.88</v>
-      </c>
-      <c r="BN112">
-        <v>1.8</v>
-      </c>
-      <c r="BO112">
-        <v>2.33</v>
-      </c>
       <c r="BP112">
-        <v>1.5</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="113" spans="1:68">
@@ -24247,7 +24247,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>7477932</v>
+        <v>7477934</v>
       </c>
       <c r="C113" t="s">
         <v>68</v>
@@ -24259,193 +24259,193 @@
         <v>45570.45833333334</v>
       </c>
       <c r="F113">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G113" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="H113" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="I113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K113">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L113">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N113">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O113" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>217</v>
+        <v>96</v>
       </c>
       <c r="Q113">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R113">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="S113">
         <v>5</v>
       </c>
       <c r="T113">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U113">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V113">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="W113">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="X113">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y113">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="Z113">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="AA113">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="AB113">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="AC113">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AD113">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE113">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AF113">
-        <v>3.84</v>
+        <v>3.94</v>
       </c>
       <c r="AG113">
-        <v>1.6</v>
+        <v>1.74</v>
       </c>
       <c r="AH113">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AI113">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AJ113">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="AK113">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="AL113">
         <v>1.23</v>
       </c>
       <c r="AM113">
-        <v>2.47</v>
+        <v>2.31</v>
       </c>
       <c r="AN113">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO113">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP113">
-        <v>2.67</v>
+        <v>2.4</v>
       </c>
       <c r="AQ113">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="AR113">
-        <v>1.52</v>
+        <v>1.39</v>
       </c>
       <c r="AS113">
-        <v>1.04</v>
+        <v>1.5</v>
       </c>
       <c r="AT113">
-        <v>2.56</v>
+        <v>2.89</v>
       </c>
       <c r="AU113">
+        <v>5</v>
+      </c>
+      <c r="AV113">
+        <v>4</v>
+      </c>
+      <c r="AW113">
+        <v>3</v>
+      </c>
+      <c r="AX113">
+        <v>3</v>
+      </c>
+      <c r="AY113">
+        <v>10</v>
+      </c>
+      <c r="AZ113">
         <v>9</v>
       </c>
-      <c r="AV113">
+      <c r="BA113">
         <v>7</v>
       </c>
-      <c r="AW113">
-        <v>7</v>
-      </c>
-      <c r="AX113">
-        <v>5</v>
-      </c>
-      <c r="AY113">
-        <v>16</v>
-      </c>
-      <c r="AZ113">
-        <v>15</v>
-      </c>
-      <c r="BA113">
-        <v>4</v>
-      </c>
       <c r="BB113">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC113">
         <v>9</v>
       </c>
       <c r="BD113">
-        <v>1.41</v>
+        <v>1.55</v>
       </c>
       <c r="BE113">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="BF113">
-        <v>3.49</v>
+        <v>2.91</v>
       </c>
       <c r="BG113">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="BH113">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="BI113">
-        <v>1.48</v>
+        <v>1.37</v>
       </c>
       <c r="BJ113">
-        <v>2.43</v>
+        <v>2.8</v>
       </c>
       <c r="BK113">
-        <v>1.95</v>
+        <v>1.61</v>
       </c>
       <c r="BL113">
-        <v>1.85</v>
+        <v>2.15</v>
       </c>
       <c r="BM113">
-        <v>2.23</v>
+        <v>1.98</v>
       </c>
       <c r="BN113">
-        <v>1.57</v>
+        <v>1.82</v>
       </c>
       <c r="BO113">
-        <v>2.8</v>
+        <v>2.48</v>
       </c>
       <c r="BP113">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="114" spans="1:68">
@@ -24453,7 +24453,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>7477922</v>
+        <v>7477920</v>
       </c>
       <c r="C114" t="s">
         <v>68</v>
@@ -24465,22 +24465,22 @@
         <v>45570.45833333334</v>
       </c>
       <c r="F114">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G114" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H114" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="I114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J114">
         <v>0</v>
       </c>
       <c r="K114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L114">
         <v>1</v>
@@ -24492,166 +24492,166 @@
         <v>1</v>
       </c>
       <c r="O114" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="P114" t="s">
         <v>96</v>
       </c>
       <c r="Q114">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="R114">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S114">
-        <v>5</v>
+        <v>2.75</v>
       </c>
       <c r="T114">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="U114">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="V114">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="W114">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="X114">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Y114">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="Z114">
-        <v>1.91</v>
+        <v>4.2</v>
       </c>
       <c r="AA114">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AB114">
-        <v>4.2</v>
+        <v>1.85</v>
       </c>
       <c r="AC114">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="AD114">
-        <v>7.1</v>
+        <v>9.5</v>
       </c>
       <c r="AE114">
-        <v>1.34</v>
+        <v>1.28</v>
       </c>
       <c r="AF114">
-        <v>2.73</v>
+        <v>3.55</v>
       </c>
       <c r="AG114">
-        <v>2.2</v>
+        <v>1.89</v>
       </c>
       <c r="AH114">
-        <v>1.6</v>
+        <v>1.89</v>
       </c>
       <c r="AI114">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="AJ114">
+        <v>2</v>
+      </c>
+      <c r="AK114">
         <v>1.7</v>
-      </c>
-      <c r="AK114">
-        <v>1.25</v>
       </c>
       <c r="AL114">
         <v>1.25</v>
       </c>
       <c r="AM114">
-        <v>1.77</v>
+        <v>1.33</v>
       </c>
       <c r="AN114">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AO114">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP114">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AQ114">
-        <v>0.5</v>
+        <v>2.4</v>
       </c>
       <c r="AR114">
-        <v>1.44</v>
+        <v>1.26</v>
       </c>
       <c r="AS114">
-        <v>0.92</v>
+        <v>1.32</v>
       </c>
       <c r="AT114">
-        <v>2.36</v>
+        <v>2.58</v>
       </c>
       <c r="AU114">
+        <v>2</v>
+      </c>
+      <c r="AV114">
+        <v>0</v>
+      </c>
+      <c r="AW114">
         <v>5</v>
       </c>
-      <c r="AV114">
+      <c r="AX114">
+        <v>2</v>
+      </c>
+      <c r="AY114">
+        <v>7</v>
+      </c>
+      <c r="AZ114">
+        <v>4</v>
+      </c>
+      <c r="BA114">
         <v>5</v>
       </c>
-      <c r="AW114">
-        <v>3</v>
-      </c>
-      <c r="AX114">
+      <c r="BB114">
         <v>5</v>
       </c>
-      <c r="AY114">
-        <v>12</v>
-      </c>
-      <c r="AZ114">
-        <v>13</v>
-      </c>
-      <c r="BA114">
-        <v>7</v>
-      </c>
-      <c r="BB114">
-        <v>4</v>
-      </c>
       <c r="BC114">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD114">
-        <v>1.45</v>
+        <v>2.33</v>
       </c>
       <c r="BE114">
-        <v>6.75</v>
+        <v>6.5</v>
       </c>
       <c r="BF114">
-        <v>2.8</v>
+        <v>1.65</v>
       </c>
       <c r="BG114">
-        <v>1.24</v>
+        <v>1.21</v>
       </c>
       <c r="BH114">
-        <v>3.55</v>
+        <v>3.8</v>
       </c>
       <c r="BI114">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="BJ114">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="BK114">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="BL114">
-        <v>2.02</v>
+        <v>2.12</v>
       </c>
       <c r="BM114">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="BN114">
-        <v>1.65</v>
+        <v>1.72</v>
       </c>
       <c r="BO114">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="BP114">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="115" spans="1:68">
@@ -24659,7 +24659,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>7477934</v>
+        <v>7477932</v>
       </c>
       <c r="C115" t="s">
         <v>68</v>
@@ -24671,193 +24671,193 @@
         <v>45570.45833333334</v>
       </c>
       <c r="F115">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G115" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="H115" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K115">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L115">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N115">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O115" t="s">
         <v>173</v>
       </c>
       <c r="P115" t="s">
-        <v>96</v>
+        <v>217</v>
       </c>
       <c r="Q115">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R115">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="S115">
         <v>5</v>
       </c>
       <c r="T115">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U115">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="V115">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="W115">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="X115">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y115">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="Z115">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AA115">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="AB115">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="AC115">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AD115">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE115">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="AF115">
-        <v>3.94</v>
+        <v>3.84</v>
       </c>
       <c r="AG115">
-        <v>1.74</v>
+        <v>1.6</v>
       </c>
       <c r="AH115">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AI115">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AJ115">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AK115">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="AL115">
         <v>1.23</v>
       </c>
       <c r="AM115">
-        <v>2.31</v>
+        <v>2.47</v>
       </c>
       <c r="AN115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO115">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP115">
-        <v>2.4</v>
+        <v>2.67</v>
       </c>
       <c r="AQ115">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR115">
-        <v>1.39</v>
+        <v>1.52</v>
       </c>
       <c r="AS115">
-        <v>1.5</v>
+        <v>1.04</v>
       </c>
       <c r="AT115">
-        <v>2.89</v>
+        <v>2.56</v>
       </c>
       <c r="AU115">
+        <v>9</v>
+      </c>
+      <c r="AV115">
+        <v>7</v>
+      </c>
+      <c r="AW115">
+        <v>7</v>
+      </c>
+      <c r="AX115">
         <v>5</v>
       </c>
-      <c r="AV115">
+      <c r="AY115">
+        <v>16</v>
+      </c>
+      <c r="AZ115">
+        <v>15</v>
+      </c>
+      <c r="BA115">
         <v>4</v>
       </c>
-      <c r="AW115">
-        <v>3</v>
-      </c>
-      <c r="AX115">
-        <v>3</v>
-      </c>
-      <c r="AY115">
-        <v>10</v>
-      </c>
-      <c r="AZ115">
-        <v>9</v>
-      </c>
-      <c r="BA115">
-        <v>7</v>
-      </c>
       <c r="BB115">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BC115">
         <v>9</v>
       </c>
       <c r="BD115">
-        <v>1.55</v>
+        <v>1.41</v>
       </c>
       <c r="BE115">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="BF115">
-        <v>2.91</v>
+        <v>3.49</v>
       </c>
       <c r="BG115">
-        <v>1.21</v>
+        <v>1.28</v>
       </c>
       <c r="BH115">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="BI115">
-        <v>1.37</v>
+        <v>1.48</v>
       </c>
       <c r="BJ115">
+        <v>2.43</v>
+      </c>
+      <c r="BK115">
+        <v>1.95</v>
+      </c>
+      <c r="BL115">
+        <v>1.85</v>
+      </c>
+      <c r="BM115">
+        <v>2.23</v>
+      </c>
+      <c r="BN115">
+        <v>1.57</v>
+      </c>
+      <c r="BO115">
         <v>2.8</v>
       </c>
-      <c r="BK115">
-        <v>1.61</v>
-      </c>
-      <c r="BL115">
-        <v>2.15</v>
-      </c>
-      <c r="BM115">
-        <v>1.98</v>
-      </c>
-      <c r="BN115">
-        <v>1.82</v>
-      </c>
-      <c r="BO115">
-        <v>2.48</v>
-      </c>
       <c r="BP115">
-        <v>1.47</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="116" spans="1:68">
@@ -25895,7 +25895,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>7477967</v>
+        <v>7477956</v>
       </c>
       <c r="C121" t="s">
         <v>68</v>
@@ -25910,190 +25910,190 @@
         <v>12</v>
       </c>
       <c r="G121" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H121" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L121">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O121" t="s">
+        <v>178</v>
+      </c>
+      <c r="P121" t="s">
         <v>96</v>
       </c>
-      <c r="P121" t="s">
-        <v>179</v>
-      </c>
       <c r="Q121">
-        <v>2.88</v>
+        <v>3.75</v>
       </c>
       <c r="R121">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="S121">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="T121">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U121">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V121">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="W121">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="X121">
+        <v>9</v>
+      </c>
+      <c r="Y121">
+        <v>1.07</v>
+      </c>
+      <c r="Z121">
+        <v>3</v>
+      </c>
+      <c r="AA121">
+        <v>3.3</v>
+      </c>
+      <c r="AB121">
+        <v>2.3</v>
+      </c>
+      <c r="AC121">
+        <v>1.07</v>
+      </c>
+      <c r="AD121">
+        <v>9.5</v>
+      </c>
+      <c r="AE121">
+        <v>1.38</v>
+      </c>
+      <c r="AF121">
+        <v>3</v>
+      </c>
+      <c r="AG121">
+        <v>2.1</v>
+      </c>
+      <c r="AH121">
+        <v>1.67</v>
+      </c>
+      <c r="AI121">
+        <v>1.91</v>
+      </c>
+      <c r="AJ121">
+        <v>1.91</v>
+      </c>
+      <c r="AK121">
+        <v>1.6</v>
+      </c>
+      <c r="AL121">
+        <v>1.28</v>
+      </c>
+      <c r="AM121">
+        <v>1.38</v>
+      </c>
+      <c r="AN121">
+        <v>0.25</v>
+      </c>
+      <c r="AO121">
+        <v>1</v>
+      </c>
+      <c r="AP121">
+        <v>0.8</v>
+      </c>
+      <c r="AQ121">
+        <v>0.83</v>
+      </c>
+      <c r="AR121">
+        <v>1.32</v>
+      </c>
+      <c r="AS121">
+        <v>1.11</v>
+      </c>
+      <c r="AT121">
+        <v>2.43</v>
+      </c>
+      <c r="AU121">
+        <v>5</v>
+      </c>
+      <c r="AV121">
+        <v>3</v>
+      </c>
+      <c r="AW121">
+        <v>5</v>
+      </c>
+      <c r="AX121">
+        <v>2</v>
+      </c>
+      <c r="AY121">
+        <v>12</v>
+      </c>
+      <c r="AZ121">
         <v>8</v>
       </c>
-      <c r="Y121">
-        <v>1.08</v>
-      </c>
-      <c r="Z121">
-        <v>2.25</v>
-      </c>
-      <c r="AA121">
-        <v>3.4</v>
-      </c>
-      <c r="AB121">
-        <v>3.1</v>
-      </c>
-      <c r="AC121">
-        <v>1.05</v>
-      </c>
-      <c r="AD121">
-        <v>11</v>
-      </c>
-      <c r="AE121">
-        <v>1.3</v>
-      </c>
-      <c r="AF121">
-        <v>3.5</v>
-      </c>
-      <c r="AG121">
-        <v>1.85</v>
-      </c>
-      <c r="AH121">
-        <v>1.83</v>
-      </c>
-      <c r="AI121">
-        <v>1.75</v>
-      </c>
-      <c r="AJ121">
-        <v>2</v>
-      </c>
-      <c r="AK121">
-        <v>1.38</v>
-      </c>
-      <c r="AL121">
-        <v>1.25</v>
-      </c>
-      <c r="AM121">
-        <v>1.63</v>
-      </c>
-      <c r="AN121">
-        <v>1.6</v>
-      </c>
-      <c r="AO121">
-        <v>1</v>
-      </c>
-      <c r="AP121">
-        <v>1.33</v>
-      </c>
-      <c r="AQ121">
-        <v>1.33</v>
-      </c>
-      <c r="AR121">
-        <v>1.58</v>
-      </c>
-      <c r="AS121">
-        <v>0.96</v>
-      </c>
-      <c r="AT121">
-        <v>2.54</v>
-      </c>
-      <c r="AU121">
-        <v>7</v>
-      </c>
-      <c r="AV121">
-        <v>8</v>
-      </c>
-      <c r="AW121">
-        <v>7</v>
-      </c>
-      <c r="AX121">
-        <v>3</v>
-      </c>
-      <c r="AY121">
-        <v>19</v>
-      </c>
-      <c r="AZ121">
-        <v>15</v>
-      </c>
       <c r="BA121">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BB121">
         <v>4</v>
       </c>
       <c r="BC121">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="BD121">
-        <v>1.84</v>
+        <v>2.05</v>
       </c>
       <c r="BE121">
-        <v>6.4</v>
+        <v>6.25</v>
       </c>
       <c r="BF121">
+        <v>1.85</v>
+      </c>
+      <c r="BG121">
+        <v>1.4</v>
+      </c>
+      <c r="BH121">
+        <v>2.7</v>
+      </c>
+      <c r="BI121">
+        <v>1.67</v>
+      </c>
+      <c r="BJ121">
         <v>2.05</v>
       </c>
-      <c r="BG121">
+      <c r="BK121">
+        <v>2.08</v>
+      </c>
+      <c r="BL121">
+        <v>1.65</v>
+      </c>
+      <c r="BM121">
+        <v>2.65</v>
+      </c>
+      <c r="BN121">
+        <v>1.4</v>
+      </c>
+      <c r="BO121">
+        <v>3.55</v>
+      </c>
+      <c r="BP121">
         <v>1.24</v>
-      </c>
-      <c r="BH121">
-        <v>3.55</v>
-      </c>
-      <c r="BI121">
-        <v>1.43</v>
-      </c>
-      <c r="BJ121">
-        <v>2.55</v>
-      </c>
-      <c r="BK121">
-        <v>1.7</v>
-      </c>
-      <c r="BL121">
-        <v>2.02</v>
-      </c>
-      <c r="BM121">
-        <v>2.08</v>
-      </c>
-      <c r="BN121">
-        <v>1.65</v>
-      </c>
-      <c r="BO121">
-        <v>2.65</v>
-      </c>
-      <c r="BP121">
-        <v>1.41</v>
       </c>
     </row>
     <row r="122" spans="1:68">
@@ -26101,7 +26101,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>7477964</v>
+        <v>7477967</v>
       </c>
       <c r="C122" t="s">
         <v>68</v>
@@ -26116,190 +26116,190 @@
         <v>12</v>
       </c>
       <c r="G122" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H122" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="I122">
         <v>0</v>
       </c>
       <c r="J122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N122">
         <v>1</v>
       </c>
       <c r="O122" t="s">
-        <v>178</v>
+        <v>96</v>
       </c>
       <c r="P122" t="s">
-        <v>96</v>
+        <v>180</v>
       </c>
       <c r="Q122">
-        <v>3.75</v>
+        <v>2.88</v>
       </c>
       <c r="R122">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="S122">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="T122">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U122">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V122">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="W122">
+        <v>1.4</v>
+      </c>
+      <c r="X122">
+        <v>8</v>
+      </c>
+      <c r="Y122">
+        <v>1.08</v>
+      </c>
+      <c r="Z122">
+        <v>2.25</v>
+      </c>
+      <c r="AA122">
+        <v>3.4</v>
+      </c>
+      <c r="AB122">
+        <v>3.1</v>
+      </c>
+      <c r="AC122">
+        <v>1.05</v>
+      </c>
+      <c r="AD122">
+        <v>11</v>
+      </c>
+      <c r="AE122">
+        <v>1.3</v>
+      </c>
+      <c r="AF122">
+        <v>3.5</v>
+      </c>
+      <c r="AG122">
+        <v>1.85</v>
+      </c>
+      <c r="AH122">
+        <v>1.83</v>
+      </c>
+      <c r="AI122">
+        <v>1.75</v>
+      </c>
+      <c r="AJ122">
+        <v>2</v>
+      </c>
+      <c r="AK122">
+        <v>1.38</v>
+      </c>
+      <c r="AL122">
+        <v>1.25</v>
+      </c>
+      <c r="AM122">
+        <v>1.63</v>
+      </c>
+      <c r="AN122">
+        <v>1.6</v>
+      </c>
+      <c r="AO122">
+        <v>1</v>
+      </c>
+      <c r="AP122">
         <v>1.33</v>
       </c>
-      <c r="X122">
-        <v>10</v>
-      </c>
-      <c r="Y122">
-        <v>1.06</v>
-      </c>
-      <c r="Z122">
-        <v>3</v>
-      </c>
-      <c r="AA122">
-        <v>3.25</v>
-      </c>
-      <c r="AB122">
-        <v>2.3</v>
-      </c>
-      <c r="AC122">
-        <v>1.07</v>
-      </c>
-      <c r="AD122">
-        <v>9</v>
-      </c>
-      <c r="AE122">
-        <v>1.36</v>
-      </c>
-      <c r="AF122">
-        <v>3.1</v>
-      </c>
-      <c r="AG122">
-        <v>2.05</v>
-      </c>
-      <c r="AH122">
-        <v>1.67</v>
-      </c>
-      <c r="AI122">
-        <v>1.91</v>
-      </c>
-      <c r="AJ122">
-        <v>1.91</v>
-      </c>
-      <c r="AK122">
-        <v>1.63</v>
-      </c>
-      <c r="AL122">
-        <v>1.28</v>
-      </c>
-      <c r="AM122">
-        <v>1.36</v>
-      </c>
-      <c r="AN122">
-        <v>0.8</v>
-      </c>
-      <c r="AO122">
-        <v>1.2</v>
-      </c>
-      <c r="AP122">
-        <v>1.17</v>
-      </c>
       <c r="AQ122">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR122">
-        <v>1.4</v>
+        <v>1.58</v>
       </c>
       <c r="AS122">
-        <v>1.04</v>
+        <v>0.96</v>
       </c>
       <c r="AT122">
-        <v>2.44</v>
+        <v>2.54</v>
       </c>
       <c r="AU122">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AV122">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AW122">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AX122">
         <v>3</v>
       </c>
       <c r="AY122">
+        <v>19</v>
+      </c>
+      <c r="AZ122">
+        <v>15</v>
+      </c>
+      <c r="BA122">
         <v>8</v>
-      </c>
-      <c r="AZ122">
-        <v>6</v>
-      </c>
-      <c r="BA122">
-        <v>0</v>
       </c>
       <c r="BB122">
         <v>4</v>
       </c>
       <c r="BC122">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="BD122">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="BE122">
-        <v>5.8</v>
+        <v>6.4</v>
       </c>
       <c r="BF122">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="BG122">
+        <v>1.24</v>
+      </c>
+      <c r="BH122">
+        <v>3.55</v>
+      </c>
+      <c r="BI122">
+        <v>1.43</v>
+      </c>
+      <c r="BJ122">
+        <v>2.55</v>
+      </c>
+      <c r="BK122">
+        <v>1.7</v>
+      </c>
+      <c r="BL122">
+        <v>2.02</v>
+      </c>
+      <c r="BM122">
+        <v>2.08</v>
+      </c>
+      <c r="BN122">
+        <v>1.65</v>
+      </c>
+      <c r="BO122">
+        <v>2.65</v>
+      </c>
+      <c r="BP122">
         <v>1.41</v>
-      </c>
-      <c r="BH122">
-        <v>2.65</v>
-      </c>
-      <c r="BI122">
-        <v>1.68</v>
-      </c>
-      <c r="BJ122">
-        <v>2.02</v>
-      </c>
-      <c r="BK122">
-        <v>2.1</v>
-      </c>
-      <c r="BL122">
-        <v>1.64</v>
-      </c>
-      <c r="BM122">
-        <v>2.7</v>
-      </c>
-      <c r="BN122">
-        <v>1.38</v>
-      </c>
-      <c r="BO122">
-        <v>3.65</v>
-      </c>
-      <c r="BP122">
-        <v>1.23</v>
       </c>
     </row>
     <row r="123" spans="1:68">
@@ -26307,7 +26307,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>7477962</v>
+        <v>7477964</v>
       </c>
       <c r="C123" t="s">
         <v>68</v>
@@ -26322,190 +26322,190 @@
         <v>12</v>
       </c>
       <c r="G123" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H123" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I123">
         <v>0</v>
       </c>
       <c r="J123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N123">
         <v>1</v>
       </c>
       <c r="O123" t="s">
+        <v>179</v>
+      </c>
+      <c r="P123" t="s">
         <v>96</v>
       </c>
-      <c r="P123" t="s">
-        <v>94</v>
-      </c>
       <c r="Q123">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="R123">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S123">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="T123">
+        <v>1.44</v>
+      </c>
+      <c r="U123">
+        <v>2.63</v>
+      </c>
+      <c r="V123">
+        <v>3.25</v>
+      </c>
+      <c r="W123">
+        <v>1.33</v>
+      </c>
+      <c r="X123">
+        <v>10</v>
+      </c>
+      <c r="Y123">
+        <v>1.06</v>
+      </c>
+      <c r="Z123">
+        <v>3</v>
+      </c>
+      <c r="AA123">
+        <v>3.25</v>
+      </c>
+      <c r="AB123">
+        <v>2.3</v>
+      </c>
+      <c r="AC123">
+        <v>1.07</v>
+      </c>
+      <c r="AD123">
+        <v>9</v>
+      </c>
+      <c r="AE123">
+        <v>1.36</v>
+      </c>
+      <c r="AF123">
+        <v>3.1</v>
+      </c>
+      <c r="AG123">
+        <v>2.05</v>
+      </c>
+      <c r="AH123">
+        <v>1.67</v>
+      </c>
+      <c r="AI123">
+        <v>1.91</v>
+      </c>
+      <c r="AJ123">
+        <v>1.91</v>
+      </c>
+      <c r="AK123">
+        <v>1.63</v>
+      </c>
+      <c r="AL123">
+        <v>1.28</v>
+      </c>
+      <c r="AM123">
+        <v>1.36</v>
+      </c>
+      <c r="AN123">
+        <v>0.8</v>
+      </c>
+      <c r="AO123">
+        <v>1.2</v>
+      </c>
+      <c r="AP123">
+        <v>1.17</v>
+      </c>
+      <c r="AQ123">
+        <v>1</v>
+      </c>
+      <c r="AR123">
         <v>1.4</v>
       </c>
-      <c r="U123">
-        <v>2.75</v>
-      </c>
-      <c r="V123">
-        <v>3</v>
-      </c>
-      <c r="W123">
-        <v>1.36</v>
-      </c>
-      <c r="X123">
-        <v>8</v>
-      </c>
-      <c r="Y123">
-        <v>1.08</v>
-      </c>
-      <c r="Z123">
-        <v>2.45</v>
-      </c>
-      <c r="AA123">
-        <v>3.3</v>
-      </c>
-      <c r="AB123">
-        <v>2.8</v>
-      </c>
-      <c r="AC123">
-        <v>1.05</v>
-      </c>
-      <c r="AD123">
-        <v>11</v>
-      </c>
-      <c r="AE123">
-        <v>1.33</v>
-      </c>
-      <c r="AF123">
-        <v>3.3</v>
-      </c>
-      <c r="AG123">
-        <v>1.91</v>
-      </c>
-      <c r="AH123">
-        <v>1.8</v>
-      </c>
-      <c r="AI123">
-        <v>1.75</v>
-      </c>
-      <c r="AJ123">
-        <v>2</v>
-      </c>
-      <c r="AK123">
-        <v>1.42</v>
-      </c>
-      <c r="AL123">
-        <v>1.25</v>
-      </c>
-      <c r="AM123">
-        <v>1.57</v>
-      </c>
-      <c r="AN123">
-        <v>2.2</v>
-      </c>
-      <c r="AO123">
-        <v>0.4</v>
-      </c>
-      <c r="AP123">
-        <v>1.83</v>
-      </c>
-      <c r="AQ123">
-        <v>0.83</v>
-      </c>
-      <c r="AR123">
-        <v>1.32</v>
-      </c>
       <c r="AS123">
-        <v>1.12</v>
+        <v>1.04</v>
       </c>
       <c r="AT123">
         <v>2.44</v>
       </c>
       <c r="AU123">
+        <v>2</v>
+      </c>
+      <c r="AV123">
+        <v>2</v>
+      </c>
+      <c r="AW123">
+        <v>2</v>
+      </c>
+      <c r="AX123">
+        <v>3</v>
+      </c>
+      <c r="AY123">
+        <v>8</v>
+      </c>
+      <c r="AZ123">
+        <v>6</v>
+      </c>
+      <c r="BA123">
+        <v>0</v>
+      </c>
+      <c r="BB123">
         <v>4</v>
       </c>
-      <c r="AV123">
-        <v>7</v>
-      </c>
-      <c r="AW123">
-        <v>2</v>
-      </c>
-      <c r="AX123">
-        <v>0</v>
-      </c>
-      <c r="AY123">
-        <v>15</v>
-      </c>
-      <c r="AZ123">
-        <v>11</v>
-      </c>
-      <c r="BA123">
-        <v>9</v>
-      </c>
-      <c r="BB123">
-        <v>2</v>
-      </c>
       <c r="BC123">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="BD123">
-        <v>1.77</v>
+        <v>1.98</v>
       </c>
       <c r="BE123">
-        <v>6.25</v>
+        <v>5.8</v>
       </c>
       <c r="BF123">
-        <v>2.15</v>
+        <v>1.92</v>
       </c>
       <c r="BG123">
-        <v>1.28</v>
+        <v>1.41</v>
       </c>
       <c r="BH123">
-        <v>3.3</v>
+        <v>2.65</v>
       </c>
       <c r="BI123">
-        <v>1.49</v>
+        <v>1.68</v>
       </c>
       <c r="BJ123">
-        <v>2.4</v>
+        <v>2.02</v>
       </c>
       <c r="BK123">
-        <v>1.78</v>
+        <v>2.1</v>
       </c>
       <c r="BL123">
-        <v>1.91</v>
+        <v>1.64</v>
       </c>
       <c r="BM123">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="BN123">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="BO123">
-        <v>2.8</v>
+        <v>3.65</v>
       </c>
       <c r="BP123">
-        <v>1.36</v>
+        <v>1.23</v>
       </c>
     </row>
     <row r="124" spans="1:68">
@@ -26513,7 +26513,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>7477961</v>
+        <v>7477962</v>
       </c>
       <c r="C124" t="s">
         <v>68</v>
@@ -26525,46 +26525,46 @@
         <v>45584.45833333334</v>
       </c>
       <c r="F124">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G124" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H124" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124">
         <v>1</v>
       </c>
       <c r="K124">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M124">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N124">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O124" t="s">
-        <v>179</v>
+        <v>96</v>
       </c>
       <c r="P124" t="s">
-        <v>254</v>
+        <v>94</v>
       </c>
       <c r="Q124">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="R124">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S124">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="T124">
         <v>1.4</v>
@@ -26585,133 +26585,133 @@
         <v>1.08</v>
       </c>
       <c r="Z124">
-        <v>3.7</v>
+        <v>2.45</v>
       </c>
       <c r="AA124">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AB124">
-        <v>2</v>
+        <v>2.8</v>
       </c>
       <c r="AC124">
         <v>1.05</v>
       </c>
       <c r="AD124">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE124">
         <v>1.33</v>
       </c>
       <c r="AF124">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="AG124">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AH124">
+        <v>1.8</v>
+      </c>
+      <c r="AI124">
         <v>1.75</v>
       </c>
-      <c r="AI124">
-        <v>1.8</v>
-      </c>
       <c r="AJ124">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AK124">
-        <v>1.87</v>
+        <v>1.42</v>
       </c>
       <c r="AL124">
         <v>1.25</v>
       </c>
       <c r="AM124">
-        <v>1.25</v>
+        <v>1.57</v>
       </c>
       <c r="AN124">
-        <v>1.75</v>
+        <v>2.2</v>
       </c>
       <c r="AO124">
-        <v>2.25</v>
+        <v>0.4</v>
       </c>
       <c r="AP124">
-        <v>1.4</v>
+        <v>1.83</v>
       </c>
       <c r="AQ124">
-        <v>2.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR124">
-        <v>1.41</v>
+        <v>1.32</v>
       </c>
       <c r="AS124">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="AT124">
-        <v>2.51</v>
+        <v>2.44</v>
       </c>
       <c r="AU124">
         <v>4</v>
       </c>
       <c r="AV124">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW124">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY124">
+        <v>15</v>
+      </c>
+      <c r="AZ124">
+        <v>11</v>
+      </c>
+      <c r="BA124">
         <v>9</v>
       </c>
-      <c r="AZ124">
-        <v>8</v>
-      </c>
-      <c r="BA124">
-        <v>8</v>
-      </c>
       <c r="BB124">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BC124">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BD124">
+        <v>1.77</v>
+      </c>
+      <c r="BE124">
+        <v>6.25</v>
+      </c>
+      <c r="BF124">
+        <v>2.15</v>
+      </c>
+      <c r="BG124">
+        <v>1.28</v>
+      </c>
+      <c r="BH124">
+        <v>3.3</v>
+      </c>
+      <c r="BI124">
+        <v>1.49</v>
+      </c>
+      <c r="BJ124">
         <v>2.4</v>
       </c>
-      <c r="BE124">
-        <v>6.4</v>
-      </c>
-      <c r="BF124">
-        <v>1.63</v>
-      </c>
-      <c r="BG124">
-        <v>1.29</v>
-      </c>
-      <c r="BH124">
-        <v>3.2</v>
-      </c>
-      <c r="BI124">
-        <v>1.5</v>
-      </c>
-      <c r="BJ124">
-        <v>2.33</v>
-      </c>
       <c r="BK124">
-        <v>1.84</v>
+        <v>1.78</v>
       </c>
       <c r="BL124">
-        <v>1.84</v>
+        <v>1.91</v>
       </c>
       <c r="BM124">
-        <v>2.32</v>
+        <v>2.2</v>
       </c>
       <c r="BN124">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="BO124">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="BP124">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="125" spans="1:68">
@@ -26719,7 +26719,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>7477959</v>
+        <v>7477961</v>
       </c>
       <c r="C125" t="s">
         <v>68</v>
@@ -26731,28 +26731,28 @@
         <v>45584.45833333334</v>
       </c>
       <c r="F125">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G125" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H125" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K125">
         <v>2</v>
       </c>
       <c r="L125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M125">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N125">
         <v>4</v>
@@ -26761,61 +26761,61 @@
         <v>180</v>
       </c>
       <c r="P125" t="s">
-        <v>205</v>
+        <v>254</v>
       </c>
       <c r="Q125">
-        <v>2</v>
+        <v>4.5</v>
       </c>
       <c r="R125">
-        <v>2.4</v>
+        <v>2.2</v>
       </c>
       <c r="S125">
-        <v>6</v>
+        <v>2.5</v>
       </c>
       <c r="T125">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="U125">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="V125">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="W125">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="X125">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y125">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="Z125">
-        <v>1.53</v>
+        <v>3.7</v>
       </c>
       <c r="AA125">
-        <v>4.33</v>
+        <v>3.5</v>
       </c>
       <c r="AB125">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="AC125">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="AD125">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AE125">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="AF125">
-        <v>4.33</v>
+        <v>3.25</v>
       </c>
       <c r="AG125">
-        <v>1.65</v>
+        <v>1.95</v>
       </c>
       <c r="AH125">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="AI125">
         <v>1.8</v>
@@ -26824,100 +26824,100 @@
         <v>1.95</v>
       </c>
       <c r="AK125">
-        <v>1.12</v>
+        <v>1.87</v>
       </c>
       <c r="AL125">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AM125">
-        <v>2.55</v>
+        <v>1.25</v>
       </c>
       <c r="AN125">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AO125">
-        <v>0.8</v>
+        <v>2.25</v>
       </c>
       <c r="AP125">
-        <v>2</v>
+        <v>1.4</v>
       </c>
       <c r="AQ125">
-        <v>0.67</v>
+        <v>2.4</v>
       </c>
       <c r="AR125">
-        <v>1.38</v>
+        <v>1.41</v>
       </c>
       <c r="AS125">
-        <v>1.17</v>
+        <v>1.1</v>
       </c>
       <c r="AT125">
-        <v>2.55</v>
+        <v>2.51</v>
       </c>
       <c r="AU125">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="AV125">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW125">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX125">
         <v>1</v>
       </c>
       <c r="AY125">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AZ125">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BA125">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BB125">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="BC125">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BD125">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="BE125">
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="BF125">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="BG125">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="BH125">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="BI125">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BJ125">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="BK125">
-        <v>1.91</v>
+        <v>1.84</v>
       </c>
       <c r="BL125">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="BM125">
-        <v>0</v>
+        <v>2.32</v>
       </c>
       <c r="BN125">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="BO125">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="BP125">
-        <v>0</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="126" spans="1:68">
@@ -26925,7 +26925,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>7477957</v>
+        <v>7477959</v>
       </c>
       <c r="C126" t="s">
         <v>68</v>
@@ -26940,88 +26940,88 @@
         <v>12</v>
       </c>
       <c r="G126" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H126" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="I126">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L126">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M126">
         <v>1</v>
       </c>
       <c r="N126">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O126" t="s">
         <v>181</v>
       </c>
       <c r="P126" t="s">
-        <v>255</v>
+        <v>205</v>
       </c>
       <c r="Q126">
-        <v>3.2</v>
+        <v>2</v>
       </c>
       <c r="R126">
+        <v>2.4</v>
+      </c>
+      <c r="S126">
+        <v>6</v>
+      </c>
+      <c r="T126">
+        <v>1.3</v>
+      </c>
+      <c r="U126">
+        <v>3.4</v>
+      </c>
+      <c r="V126">
+        <v>2.5</v>
+      </c>
+      <c r="W126">
+        <v>1.5</v>
+      </c>
+      <c r="X126">
+        <v>6</v>
+      </c>
+      <c r="Y126">
+        <v>1.13</v>
+      </c>
+      <c r="Z126">
+        <v>1.53</v>
+      </c>
+      <c r="AA126">
+        <v>4.33</v>
+      </c>
+      <c r="AB126">
+        <v>5.5</v>
+      </c>
+      <c r="AC126">
+        <v>1.02</v>
+      </c>
+      <c r="AD126">
+        <v>15</v>
+      </c>
+      <c r="AE126">
+        <v>1.2</v>
+      </c>
+      <c r="AF126">
+        <v>4.33</v>
+      </c>
+      <c r="AG126">
+        <v>1.65</v>
+      </c>
+      <c r="AH126">
         <v>2.1</v>
-      </c>
-      <c r="S126">
-        <v>3.5</v>
-      </c>
-      <c r="T126">
-        <v>1.4</v>
-      </c>
-      <c r="U126">
-        <v>2.75</v>
-      </c>
-      <c r="V126">
-        <v>3</v>
-      </c>
-      <c r="W126">
-        <v>1.36</v>
-      </c>
-      <c r="X126">
-        <v>9</v>
-      </c>
-      <c r="Y126">
-        <v>1.07</v>
-      </c>
-      <c r="Z126">
-        <v>2.45</v>
-      </c>
-      <c r="AA126">
-        <v>3.3</v>
-      </c>
-      <c r="AB126">
-        <v>2.8</v>
-      </c>
-      <c r="AC126">
-        <v>1.05</v>
-      </c>
-      <c r="AD126">
-        <v>10</v>
-      </c>
-      <c r="AE126">
-        <v>1.33</v>
-      </c>
-      <c r="AF126">
-        <v>3.25</v>
-      </c>
-      <c r="AG126">
-        <v>1.95</v>
-      </c>
-      <c r="AH126">
-        <v>1.75</v>
       </c>
       <c r="AI126">
         <v>1.8</v>
@@ -27030,100 +27030,100 @@
         <v>1.95</v>
       </c>
       <c r="AK126">
-        <v>1.44</v>
+        <v>1.12</v>
       </c>
       <c r="AL126">
-        <v>1.28</v>
+        <v>1.17</v>
       </c>
       <c r="AM126">
-        <v>1.55</v>
+        <v>2.55</v>
       </c>
       <c r="AN126">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AO126">
-        <v>1.8</v>
+        <v>0.8</v>
       </c>
       <c r="AP126">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ126">
-        <v>1.67</v>
+        <v>0.67</v>
       </c>
       <c r="AR126">
-        <v>1.2</v>
+        <v>1.38</v>
       </c>
       <c r="AS126">
-        <v>1.45</v>
+        <v>1.17</v>
       </c>
       <c r="AT126">
-        <v>2.65</v>
+        <v>2.55</v>
       </c>
       <c r="AU126">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AV126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW126">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AX126">
+        <v>1</v>
+      </c>
+      <c r="AY126">
+        <v>17</v>
+      </c>
+      <c r="AZ126">
         <v>4</v>
       </c>
-      <c r="AY126">
-        <v>16</v>
-      </c>
-      <c r="AZ126">
+      <c r="BA126">
         <v>9</v>
       </c>
-      <c r="BA126">
-        <v>12</v>
-      </c>
       <c r="BB126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC126">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BD126">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="BE126">
-        <v>6.25</v>
+        <v>0</v>
       </c>
       <c r="BF126">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="BG126">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="BH126">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="BI126">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="BJ126">
-        <v>2.18</v>
+        <v>0</v>
       </c>
       <c r="BK126">
-        <v>1.96</v>
+        <v>1.91</v>
       </c>
       <c r="BL126">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="BM126">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="BN126">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="BO126">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="BP126">
-        <v>1.28</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:68">
@@ -27131,7 +27131,7 @@
         <v>126</v>
       </c>
       <c r="B127">
-        <v>7477954</v>
+        <v>7477953</v>
       </c>
       <c r="C127" t="s">
         <v>68</v>
@@ -27146,190 +27146,190 @@
         <v>12</v>
       </c>
       <c r="G127" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H127" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="I127">
         <v>0</v>
       </c>
       <c r="J127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K127">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L127">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M127">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N127">
         <v>3</v>
       </c>
       <c r="O127" t="s">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="P127" t="s">
-        <v>181</v>
+        <v>255</v>
       </c>
       <c r="Q127">
+        <v>2.6</v>
+      </c>
+      <c r="R127">
+        <v>2.3</v>
+      </c>
+      <c r="S127">
+        <v>3.75</v>
+      </c>
+      <c r="T127">
+        <v>1.33</v>
+      </c>
+      <c r="U127">
+        <v>3.25</v>
+      </c>
+      <c r="V127">
+        <v>2.5</v>
+      </c>
+      <c r="W127">
+        <v>1.5</v>
+      </c>
+      <c r="X127">
+        <v>6.5</v>
+      </c>
+      <c r="Y127">
+        <v>1.11</v>
+      </c>
+      <c r="Z127">
+        <v>2</v>
+      </c>
+      <c r="AA127">
+        <v>3.6</v>
+      </c>
+      <c r="AB127">
+        <v>3.4</v>
+      </c>
+      <c r="AC127">
+        <v>1.02</v>
+      </c>
+      <c r="AD127">
+        <v>15</v>
+      </c>
+      <c r="AE127">
+        <v>1.22</v>
+      </c>
+      <c r="AF127">
+        <v>4.2</v>
+      </c>
+      <c r="AG127">
+        <v>1.7</v>
+      </c>
+      <c r="AH127">
+        <v>2.05</v>
+      </c>
+      <c r="AI127">
+        <v>1.62</v>
+      </c>
+      <c r="AJ127">
+        <v>2.2</v>
+      </c>
+      <c r="AK127">
+        <v>1.3</v>
+      </c>
+      <c r="AL127">
+        <v>1.22</v>
+      </c>
+      <c r="AM127">
+        <v>1.87</v>
+      </c>
+      <c r="AN127">
+        <v>1.6</v>
+      </c>
+      <c r="AO127">
         <v>1.8</v>
-      </c>
-      <c r="R127">
-        <v>2.6</v>
-      </c>
-      <c r="S127">
-        <v>7</v>
-      </c>
-      <c r="T127">
-        <v>1.29</v>
-      </c>
-      <c r="U127">
-        <v>3.5</v>
-      </c>
-      <c r="V127">
-        <v>2.25</v>
-      </c>
-      <c r="W127">
-        <v>1.57</v>
-      </c>
-      <c r="X127">
-        <v>5.5</v>
-      </c>
-      <c r="Y127">
-        <v>1.14</v>
-      </c>
-      <c r="Z127">
-        <v>1.36</v>
-      </c>
-      <c r="AA127">
-        <v>5</v>
-      </c>
-      <c r="AB127">
-        <v>7.5</v>
-      </c>
-      <c r="AC127">
-        <v>1.01</v>
-      </c>
-      <c r="AD127">
-        <v>19</v>
-      </c>
-      <c r="AE127">
-        <v>1.18</v>
-      </c>
-      <c r="AF127">
-        <v>5</v>
-      </c>
-      <c r="AG127">
-        <v>1.57</v>
-      </c>
-      <c r="AH127">
-        <v>2.25</v>
-      </c>
-      <c r="AI127">
-        <v>1.8</v>
-      </c>
-      <c r="AJ127">
-        <v>1.95</v>
-      </c>
-      <c r="AK127">
-        <v>1.07</v>
-      </c>
-      <c r="AL127">
-        <v>1.12</v>
-      </c>
-      <c r="AM127">
-        <v>3.1</v>
-      </c>
-      <c r="AN127">
-        <v>1</v>
-      </c>
-      <c r="AO127">
-        <v>0.6</v>
       </c>
       <c r="AP127">
         <v>1.33</v>
       </c>
       <c r="AQ127">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="AR127">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="AS127">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AT127">
-        <v>2.7</v>
+        <v>2.69</v>
       </c>
       <c r="AU127">
         <v>6</v>
       </c>
       <c r="AV127">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW127">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX127">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY127">
         <v>19</v>
       </c>
       <c r="AZ127">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA127">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BB127">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BC127">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BD127">
-        <v>1.29</v>
+        <v>1.56</v>
       </c>
       <c r="BE127">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="BF127">
-        <v>3.55</v>
+        <v>2.48</v>
       </c>
       <c r="BG127">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="BH127">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="BI127">
+        <v>1.43</v>
+      </c>
+      <c r="BJ127">
+        <v>2.55</v>
+      </c>
+      <c r="BK127">
+        <v>1.7</v>
+      </c>
+      <c r="BL127">
+        <v>2.02</v>
+      </c>
+      <c r="BM127">
+        <v>2.07</v>
+      </c>
+      <c r="BN127">
+        <v>1.66</v>
+      </c>
+      <c r="BO127">
+        <v>2.65</v>
+      </c>
+      <c r="BP127">
         <v>1.41</v>
-      </c>
-      <c r="BJ127">
-        <v>2.65</v>
-      </c>
-      <c r="BK127">
-        <v>1.68</v>
-      </c>
-      <c r="BL127">
-        <v>2.04</v>
-      </c>
-      <c r="BM127">
-        <v>2.05</v>
-      </c>
-      <c r="BN127">
-        <v>1.67</v>
-      </c>
-      <c r="BO127">
-        <v>2.55</v>
-      </c>
-      <c r="BP127">
-        <v>1.44</v>
       </c>
     </row>
     <row r="128" spans="1:68">
@@ -27337,7 +27337,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>7477956</v>
+        <v>7477954</v>
       </c>
       <c r="C128" t="s">
         <v>68</v>
@@ -27352,190 +27352,190 @@
         <v>12</v>
       </c>
       <c r="G128" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="H128" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="I128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J128">
         <v>0</v>
       </c>
       <c r="K128">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L128">
         <v>2</v>
       </c>
       <c r="M128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O128" t="s">
+        <v>182</v>
+      </c>
+      <c r="P128" t="s">
         <v>183</v>
       </c>
-      <c r="P128" t="s">
-        <v>96</v>
-      </c>
       <c r="Q128">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="R128">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="S128">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="T128">
-        <v>1.44</v>
+        <v>1.29</v>
       </c>
       <c r="U128">
-        <v>2.63</v>
+        <v>3.5</v>
       </c>
       <c r="V128">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="W128">
+        <v>1.57</v>
+      </c>
+      <c r="X128">
+        <v>5.5</v>
+      </c>
+      <c r="Y128">
+        <v>1.14</v>
+      </c>
+      <c r="Z128">
+        <v>1.36</v>
+      </c>
+      <c r="AA128">
+        <v>5</v>
+      </c>
+      <c r="AB128">
+        <v>7.5</v>
+      </c>
+      <c r="AC128">
+        <v>1.01</v>
+      </c>
+      <c r="AD128">
+        <v>19</v>
+      </c>
+      <c r="AE128">
+        <v>1.18</v>
+      </c>
+      <c r="AF128">
+        <v>5</v>
+      </c>
+      <c r="AG128">
+        <v>1.57</v>
+      </c>
+      <c r="AH128">
+        <v>2.25</v>
+      </c>
+      <c r="AI128">
+        <v>1.8</v>
+      </c>
+      <c r="AJ128">
+        <v>1.95</v>
+      </c>
+      <c r="AK128">
+        <v>1.07</v>
+      </c>
+      <c r="AL128">
+        <v>1.12</v>
+      </c>
+      <c r="AM128">
+        <v>3.1</v>
+      </c>
+      <c r="AN128">
+        <v>1</v>
+      </c>
+      <c r="AO128">
+        <v>0.6</v>
+      </c>
+      <c r="AP128">
         <v>1.33</v>
       </c>
-      <c r="X128">
+      <c r="AQ128">
+        <v>0.5</v>
+      </c>
+      <c r="AR128">
+        <v>1.5</v>
+      </c>
+      <c r="AS128">
+        <v>1.2</v>
+      </c>
+      <c r="AT128">
+        <v>2.7</v>
+      </c>
+      <c r="AU128">
+        <v>6</v>
+      </c>
+      <c r="AV128">
+        <v>5</v>
+      </c>
+      <c r="AW128">
+        <v>4</v>
+      </c>
+      <c r="AX128">
+        <v>4</v>
+      </c>
+      <c r="AY128">
+        <v>19</v>
+      </c>
+      <c r="AZ128">
         <v>9</v>
       </c>
-      <c r="Y128">
-        <v>1.07</v>
-      </c>
-      <c r="Z128">
-        <v>3</v>
-      </c>
-      <c r="AA128">
-        <v>3.3</v>
-      </c>
-      <c r="AB128">
-        <v>2.3</v>
-      </c>
-      <c r="AC128">
-        <v>1.07</v>
-      </c>
-      <c r="AD128">
-        <v>9.5</v>
-      </c>
-      <c r="AE128">
-        <v>1.38</v>
-      </c>
-      <c r="AF128">
-        <v>3</v>
-      </c>
-      <c r="AG128">
-        <v>2.1</v>
-      </c>
-      <c r="AH128">
-        <v>1.67</v>
-      </c>
-      <c r="AI128">
-        <v>1.91</v>
-      </c>
-      <c r="AJ128">
-        <v>1.91</v>
-      </c>
-      <c r="AK128">
-        <v>1.6</v>
-      </c>
-      <c r="AL128">
-        <v>1.28</v>
-      </c>
-      <c r="AM128">
-        <v>1.38</v>
-      </c>
-      <c r="AN128">
-        <v>0.25</v>
-      </c>
-      <c r="AO128">
-        <v>1</v>
-      </c>
-      <c r="AP128">
-        <v>0.8</v>
-      </c>
-      <c r="AQ128">
-        <v>0.83</v>
-      </c>
-      <c r="AR128">
-        <v>1.32</v>
-      </c>
-      <c r="AS128">
-        <v>1.11</v>
-      </c>
-      <c r="AT128">
-        <v>2.43</v>
-      </c>
-      <c r="AU128">
-        <v>5</v>
-      </c>
-      <c r="AV128">
-        <v>3</v>
-      </c>
-      <c r="AW128">
-        <v>5</v>
-      </c>
-      <c r="AX128">
-        <v>2</v>
-      </c>
-      <c r="AY128">
-        <v>12</v>
-      </c>
-      <c r="AZ128">
-        <v>8</v>
-      </c>
       <c r="BA128">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BB128">
         <v>4</v>
       </c>
       <c r="BC128">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="BD128">
+        <v>1.29</v>
+      </c>
+      <c r="BE128">
+        <v>7</v>
+      </c>
+      <c r="BF128">
+        <v>3.55</v>
+      </c>
+      <c r="BG128">
+        <v>1.24</v>
+      </c>
+      <c r="BH128">
+        <v>3.55</v>
+      </c>
+      <c r="BI128">
+        <v>1.41</v>
+      </c>
+      <c r="BJ128">
+        <v>2.65</v>
+      </c>
+      <c r="BK128">
+        <v>1.68</v>
+      </c>
+      <c r="BL128">
+        <v>2.04</v>
+      </c>
+      <c r="BM128">
         <v>2.05</v>
       </c>
-      <c r="BE128">
-        <v>6.25</v>
-      </c>
-      <c r="BF128">
-        <v>1.85</v>
-      </c>
-      <c r="BG128">
-        <v>1.4</v>
-      </c>
-      <c r="BH128">
-        <v>2.7</v>
-      </c>
-      <c r="BI128">
+      <c r="BN128">
         <v>1.67</v>
       </c>
-      <c r="BJ128">
-        <v>2.05</v>
-      </c>
-      <c r="BK128">
-        <v>2.08</v>
-      </c>
-      <c r="BL128">
-        <v>1.65</v>
-      </c>
-      <c r="BM128">
-        <v>2.65</v>
-      </c>
-      <c r="BN128">
-        <v>1.4</v>
-      </c>
       <c r="BO128">
-        <v>3.55</v>
+        <v>2.55</v>
       </c>
       <c r="BP128">
-        <v>1.24</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="129" spans="1:68">
@@ -27543,7 +27543,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>7477953</v>
+        <v>7477957</v>
       </c>
       <c r="C129" t="s">
         <v>68</v>
@@ -27558,10 +27558,10 @@
         <v>12</v>
       </c>
       <c r="G129" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="H129" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -27576,172 +27576,172 @@
         <v>1</v>
       </c>
       <c r="M129">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N129">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O129" t="s">
-        <v>137</v>
+        <v>183</v>
       </c>
       <c r="P129" t="s">
         <v>256</v>
       </c>
       <c r="Q129">
-        <v>2.6</v>
+        <v>3.2</v>
       </c>
       <c r="R129">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="S129">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T129">
+        <v>1.4</v>
+      </c>
+      <c r="U129">
+        <v>2.75</v>
+      </c>
+      <c r="V129">
+        <v>3</v>
+      </c>
+      <c r="W129">
+        <v>1.36</v>
+      </c>
+      <c r="X129">
+        <v>9</v>
+      </c>
+      <c r="Y129">
+        <v>1.07</v>
+      </c>
+      <c r="Z129">
+        <v>2.45</v>
+      </c>
+      <c r="AA129">
+        <v>3.3</v>
+      </c>
+      <c r="AB129">
+        <v>2.8</v>
+      </c>
+      <c r="AC129">
+        <v>1.05</v>
+      </c>
+      <c r="AD129">
+        <v>10</v>
+      </c>
+      <c r="AE129">
         <v>1.33</v>
       </c>
-      <c r="U129">
+      <c r="AF129">
         <v>3.25</v>
       </c>
-      <c r="V129">
-        <v>2.5</v>
-      </c>
-      <c r="W129">
-        <v>1.5</v>
-      </c>
-      <c r="X129">
-        <v>6.5</v>
-      </c>
-      <c r="Y129">
-        <v>1.11</v>
-      </c>
-      <c r="Z129">
-        <v>2</v>
-      </c>
-      <c r="AA129">
-        <v>3.6</v>
-      </c>
-      <c r="AB129">
-        <v>3.4</v>
-      </c>
-      <c r="AC129">
-        <v>1.02</v>
-      </c>
-      <c r="AD129">
-        <v>15</v>
-      </c>
-      <c r="AE129">
-        <v>1.22</v>
-      </c>
-      <c r="AF129">
-        <v>4.2</v>
-      </c>
       <c r="AG129">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="AH129">
-        <v>2.05</v>
+        <v>1.75</v>
       </c>
       <c r="AI129">
-        <v>1.62</v>
+        <v>1.8</v>
       </c>
       <c r="AJ129">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="AK129">
-        <v>1.3</v>
+        <v>1.44</v>
       </c>
       <c r="AL129">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="AM129">
-        <v>1.87</v>
+        <v>1.55</v>
       </c>
       <c r="AN129">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="AO129">
         <v>1.8</v>
       </c>
       <c r="AP129">
+        <v>1.83</v>
+      </c>
+      <c r="AQ129">
+        <v>1.67</v>
+      </c>
+      <c r="AR129">
+        <v>1.2</v>
+      </c>
+      <c r="AS129">
+        <v>1.45</v>
+      </c>
+      <c r="AT129">
+        <v>2.65</v>
+      </c>
+      <c r="AU129">
+        <v>8</v>
+      </c>
+      <c r="AV129">
+        <v>3</v>
+      </c>
+      <c r="AW129">
+        <v>5</v>
+      </c>
+      <c r="AX129">
+        <v>4</v>
+      </c>
+      <c r="AY129">
+        <v>16</v>
+      </c>
+      <c r="AZ129">
+        <v>9</v>
+      </c>
+      <c r="BA129">
+        <v>12</v>
+      </c>
+      <c r="BB129">
+        <v>2</v>
+      </c>
+      <c r="BC129">
+        <v>14</v>
+      </c>
+      <c r="BD129">
+        <v>1.9</v>
+      </c>
+      <c r="BE129">
+        <v>6.25</v>
+      </c>
+      <c r="BF129">
+        <v>1.98</v>
+      </c>
+      <c r="BG129">
         <v>1.33</v>
       </c>
-      <c r="AQ129">
-        <v>2</v>
-      </c>
-      <c r="AR129">
-        <v>1.56</v>
-      </c>
-      <c r="AS129">
-        <v>1.13</v>
-      </c>
-      <c r="AT129">
-        <v>2.69</v>
-      </c>
-      <c r="AU129">
-        <v>6</v>
-      </c>
-      <c r="AV129">
-        <v>3</v>
-      </c>
-      <c r="AW129">
-        <v>6</v>
-      </c>
-      <c r="AX129">
-        <v>6</v>
-      </c>
-      <c r="AY129">
-        <v>19</v>
-      </c>
-      <c r="AZ129">
-        <v>11</v>
-      </c>
-      <c r="BA129">
-        <v>4</v>
-      </c>
-      <c r="BB129">
-        <v>6</v>
-      </c>
-      <c r="BC129">
-        <v>10</v>
-      </c>
-      <c r="BD129">
-        <v>1.56</v>
-      </c>
-      <c r="BE129">
-        <v>6.5</v>
-      </c>
-      <c r="BF129">
+      <c r="BH129">
+        <v>2.95</v>
+      </c>
+      <c r="BI129">
+        <v>1.58</v>
+      </c>
+      <c r="BJ129">
+        <v>2.18</v>
+      </c>
+      <c r="BK129">
+        <v>1.96</v>
+      </c>
+      <c r="BL129">
+        <v>1.73</v>
+      </c>
+      <c r="BM129">
         <v>2.48</v>
       </c>
-      <c r="BG129">
-        <v>1.25</v>
-      </c>
-      <c r="BH129">
-        <v>3.45</v>
-      </c>
-      <c r="BI129">
-        <v>1.43</v>
-      </c>
-      <c r="BJ129">
-        <v>2.55</v>
-      </c>
-      <c r="BK129">
-        <v>1.7</v>
-      </c>
-      <c r="BL129">
-        <v>2.02</v>
-      </c>
-      <c r="BM129">
-        <v>2.07</v>
-      </c>
       <c r="BN129">
-        <v>1.66</v>
+        <v>1.47</v>
       </c>
       <c r="BO129">
-        <v>2.65</v>
+        <v>3.2</v>
       </c>
       <c r="BP129">
-        <v>1.41</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="130" spans="1:68">
@@ -27749,7 +27749,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>7727007</v>
+        <v>7727006</v>
       </c>
       <c r="C130" t="s">
         <v>68</v>
@@ -27758,88 +27758,88 @@
         <v>69</v>
       </c>
       <c r="E130" s="2">
-        <v>45586.875</v>
+        <v>45587.65625</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G130" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H130" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="I130">
         <v>0</v>
       </c>
       <c r="J130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M130">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N130">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O130" t="s">
-        <v>96</v>
+        <v>184</v>
       </c>
       <c r="P130" t="s">
-        <v>96</v>
+        <v>257</v>
       </c>
       <c r="Q130">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="R130">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S130">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="T130">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="U130">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="V130">
-        <v>2.75</v>
+        <v>2.85</v>
       </c>
       <c r="W130">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="X130">
-        <v>7</v>
+        <v>6.95</v>
       </c>
       <c r="Y130">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="Z130">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="AA130">
         <v>3.3</v>
       </c>
       <c r="AB130">
-        <v>2.81</v>
+        <v>2.97</v>
       </c>
       <c r="AC130">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AD130">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE130">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AF130">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="AG130">
         <v>1.8</v>
@@ -27848,106 +27848,106 @@
         <v>1.9</v>
       </c>
       <c r="AI130">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AJ130">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AK130">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
       <c r="AL130">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AM130">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AN130">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="AO130">
-        <v>1.2</v>
+        <v>2.25</v>
       </c>
       <c r="AP130">
-        <v>2.67</v>
+        <v>1.33</v>
       </c>
       <c r="AQ130">
-        <v>1.17</v>
+        <v>2.4</v>
       </c>
       <c r="AR130">
-        <v>1.61</v>
+        <v>0.95</v>
       </c>
       <c r="AS130">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
       <c r="AT130">
-        <v>2.87</v>
+        <v>2.14</v>
       </c>
       <c r="AU130">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV130">
+        <v>3</v>
+      </c>
+      <c r="AW130">
+        <v>10</v>
+      </c>
+      <c r="AX130">
+        <v>2</v>
+      </c>
+      <c r="AY130">
+        <v>24</v>
+      </c>
+      <c r="AZ130">
+        <v>5</v>
+      </c>
+      <c r="BA130">
         <v>4</v>
       </c>
-      <c r="AW130">
-        <v>3</v>
-      </c>
-      <c r="AX130">
-        <v>3</v>
-      </c>
-      <c r="AY130">
-        <v>6</v>
-      </c>
-      <c r="AZ130">
-        <v>10</v>
-      </c>
-      <c r="BA130">
+      <c r="BB130">
+        <v>1</v>
+      </c>
+      <c r="BC130">
         <v>5</v>
       </c>
-      <c r="BB130">
-        <v>3</v>
-      </c>
-      <c r="BC130">
-        <v>8</v>
-      </c>
       <c r="BD130">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="BE130">
-        <v>6.4</v>
+        <v>6.25</v>
       </c>
       <c r="BF130">
         <v>2.07</v>
       </c>
       <c r="BG130">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="BH130">
-        <v>3.7</v>
+        <v>3.05</v>
       </c>
       <c r="BI130">
-        <v>1.4</v>
+        <v>1.52</v>
       </c>
       <c r="BJ130">
-        <v>2.7</v>
+        <v>2.33</v>
       </c>
       <c r="BK130">
-        <v>1.65</v>
+        <v>1.86</v>
       </c>
       <c r="BL130">
-        <v>2.08</v>
+        <v>1.83</v>
       </c>
       <c r="BM130">
-        <v>2.02</v>
+        <v>2.33</v>
       </c>
       <c r="BN130">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="BO130">
-        <v>2.55</v>
+        <v>3.05</v>
       </c>
       <c r="BP130">
-        <v>1.44</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="131" spans="1:68">
@@ -27955,7 +27955,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>7726999</v>
+        <v>7727005</v>
       </c>
       <c r="C131" t="s">
         <v>68</v>
@@ -27964,76 +27964,76 @@
         <v>69</v>
       </c>
       <c r="E131" s="2">
-        <v>45586.875</v>
+        <v>45587.65625</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G131" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="H131" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K131">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M131">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N131">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="O131" t="s">
-        <v>184</v>
+        <v>103</v>
       </c>
       <c r="P131" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q131">
-        <v>4.5</v>
+        <v>2.05</v>
       </c>
       <c r="R131">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="S131">
-        <v>2.4</v>
+        <v>5.5</v>
       </c>
       <c r="T131">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="U131">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="V131">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W131">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X131">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y131">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="Z131">
-        <v>3.89</v>
+        <v>1.52</v>
       </c>
       <c r="AA131">
-        <v>3.5</v>
+        <v>4.2</v>
       </c>
       <c r="AB131">
-        <v>1.88</v>
+        <v>5.59</v>
       </c>
       <c r="AC131">
         <v>1.03</v>
@@ -28042,16 +28042,16 @@
         <v>13</v>
       </c>
       <c r="AE131">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AF131">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AG131">
-        <v>1.8</v>
+        <v>1.68</v>
       </c>
       <c r="AH131">
-        <v>1.9</v>
+        <v>2.06</v>
       </c>
       <c r="AI131">
         <v>1.75</v>
@@ -28060,100 +28060,100 @@
         <v>2</v>
       </c>
       <c r="AK131">
-        <v>1.9</v>
+        <v>1.12</v>
       </c>
       <c r="AL131">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="AM131">
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
       <c r="AN131">
-        <v>0.25</v>
+        <v>1.75</v>
       </c>
       <c r="AO131">
+        <v>1</v>
+      </c>
+      <c r="AP131">
         <v>1.6</v>
       </c>
-      <c r="AP131">
-        <v>0.2</v>
-      </c>
       <c r="AQ131">
-        <v>1.83</v>
+        <v>1</v>
       </c>
       <c r="AR131">
-        <v>1.07</v>
+        <v>1.63</v>
       </c>
       <c r="AS131">
-        <v>1.46</v>
+        <v>1.12</v>
       </c>
       <c r="AT131">
-        <v>2.53</v>
+        <v>2.75</v>
       </c>
       <c r="AU131">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV131">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AW131">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AX131">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY131">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="AZ131">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="BA131">
         <v>5</v>
       </c>
       <c r="BB131">
+        <v>1</v>
+      </c>
+      <c r="BC131">
         <v>6</v>
       </c>
-      <c r="BC131">
-        <v>11</v>
-      </c>
       <c r="BD131">
-        <v>2.35</v>
+        <v>1.4</v>
       </c>
       <c r="BE131">
-        <v>6.25</v>
+        <v>6.75</v>
       </c>
       <c r="BF131">
-        <v>1.65</v>
+        <v>3.05</v>
       </c>
       <c r="BG131">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="BH131">
-        <v>3.2</v>
+        <v>2.8</v>
       </c>
       <c r="BI131">
-        <v>1.49</v>
+        <v>1.63</v>
       </c>
       <c r="BJ131">
-        <v>2.4</v>
+        <v>2.12</v>
       </c>
       <c r="BK131">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="BL131">
-        <v>1.88</v>
+        <v>1.71</v>
       </c>
       <c r="BM131">
-        <v>2.25</v>
+        <v>2.55</v>
       </c>
       <c r="BN131">
-        <v>1.56</v>
+        <v>1.44</v>
       </c>
       <c r="BO131">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="BP131">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
     </row>
     <row r="132" spans="1:68">
@@ -28161,7 +28161,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>7727000</v>
+        <v>7726997</v>
       </c>
       <c r="C132" t="s">
         <v>68</v>
@@ -28170,34 +28170,34 @@
         <v>69</v>
       </c>
       <c r="E132" s="2">
-        <v>45586.875</v>
+        <v>45587.65625</v>
       </c>
       <c r="F132">
         <v>13</v>
       </c>
       <c r="G132" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H132" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132">
         <v>0</v>
       </c>
       <c r="K132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M132">
         <v>0</v>
       </c>
       <c r="N132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O132" t="s">
         <v>185</v>
@@ -28206,160 +28206,160 @@
         <v>96</v>
       </c>
       <c r="Q132">
+        <v>2.5</v>
+      </c>
+      <c r="R132">
+        <v>2.25</v>
+      </c>
+      <c r="S132">
         <v>4.33</v>
       </c>
-      <c r="R132">
-        <v>2.2</v>
-      </c>
-      <c r="S132">
+      <c r="T132">
+        <v>1.33</v>
+      </c>
+      <c r="U132">
+        <v>3.25</v>
+      </c>
+      <c r="V132">
+        <v>2.63</v>
+      </c>
+      <c r="W132">
+        <v>1.44</v>
+      </c>
+      <c r="X132">
+        <v>6.5</v>
+      </c>
+      <c r="Y132">
+        <v>1.11</v>
+      </c>
+      <c r="Z132">
+        <v>1.84</v>
+      </c>
+      <c r="AA132">
+        <v>3.5</v>
+      </c>
+      <c r="AB132">
+        <v>4.07</v>
+      </c>
+      <c r="AC132">
+        <v>1.03</v>
+      </c>
+      <c r="AD132">
+        <v>13</v>
+      </c>
+      <c r="AE132">
+        <v>1.22</v>
+      </c>
+      <c r="AF132">
+        <v>4</v>
+      </c>
+      <c r="AG132">
+        <v>1.75</v>
+      </c>
+      <c r="AH132">
+        <v>1.96</v>
+      </c>
+      <c r="AI132">
+        <v>1.67</v>
+      </c>
+      <c r="AJ132">
+        <v>2.1</v>
+      </c>
+      <c r="AK132">
+        <v>1.25</v>
+      </c>
+      <c r="AL132">
+        <v>1.22</v>
+      </c>
+      <c r="AM132">
+        <v>1.95</v>
+      </c>
+      <c r="AN132">
         <v>2.6</v>
       </c>
-      <c r="T132">
-        <v>1.4</v>
-      </c>
-      <c r="U132">
-        <v>2.75</v>
-      </c>
-      <c r="V132">
-        <v>2.75</v>
-      </c>
-      <c r="W132">
-        <v>1.4</v>
-      </c>
-      <c r="X132">
-        <v>8</v>
-      </c>
-      <c r="Y132">
-        <v>1.08</v>
-      </c>
-      <c r="Z132">
-        <v>3.78</v>
-      </c>
-      <c r="AA132">
-        <v>3.3</v>
-      </c>
-      <c r="AB132">
-        <v>1.97</v>
-      </c>
-      <c r="AC132">
-        <v>1.05</v>
-      </c>
-      <c r="AD132">
-        <v>11</v>
-      </c>
-      <c r="AE132">
-        <v>1.3</v>
-      </c>
-      <c r="AF132">
-        <v>3.4</v>
-      </c>
-      <c r="AG132">
-        <v>1.9</v>
-      </c>
-      <c r="AH132">
+      <c r="AO132">
+        <v>2.25</v>
+      </c>
+      <c r="AP132">
+        <v>2.67</v>
+      </c>
+      <c r="AQ132">
         <v>1.8</v>
       </c>
-      <c r="AI132">
-        <v>1.8</v>
-      </c>
-      <c r="AJ132">
-        <v>1.95</v>
-      </c>
-      <c r="AK132">
-        <v>1.85</v>
-      </c>
-      <c r="AL132">
-        <v>1.25</v>
-      </c>
-      <c r="AM132">
-        <v>1.28</v>
-      </c>
-      <c r="AN132">
-        <v>0.67</v>
-      </c>
-      <c r="AO132">
-        <v>2.2</v>
-      </c>
-      <c r="AP132">
-        <v>1</v>
-      </c>
-      <c r="AQ132">
-        <v>1.83</v>
-      </c>
       <c r="AR132">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="AS132">
-        <v>0.97</v>
+        <v>1.29</v>
       </c>
       <c r="AT132">
-        <v>1.98</v>
+        <v>2.93</v>
       </c>
       <c r="AU132">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV132">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW132">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX132">
         <v>4</v>
       </c>
       <c r="AY132">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="AZ132">
         <v>9</v>
       </c>
       <c r="BA132">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BB132">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="BC132">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BD132">
-        <v>2.33</v>
+        <v>1.65</v>
       </c>
       <c r="BE132">
         <v>6.4</v>
       </c>
       <c r="BF132">
-        <v>1.65</v>
+        <v>2.35</v>
       </c>
       <c r="BG132">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="BH132">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="BI132">
-        <v>1.48</v>
+        <v>1.37</v>
       </c>
       <c r="BJ132">
-        <v>2.45</v>
+        <v>2.8</v>
       </c>
       <c r="BK132">
-        <v>1.76</v>
+        <v>1.61</v>
       </c>
       <c r="BL132">
-        <v>1.93</v>
+        <v>2.15</v>
       </c>
       <c r="BM132">
-        <v>2.18</v>
+        <v>1.98</v>
       </c>
       <c r="BN132">
-        <v>1.58</v>
+        <v>1.72</v>
       </c>
       <c r="BO132">
-        <v>2.8</v>
+        <v>2.48</v>
       </c>
       <c r="BP132">
-        <v>1.36</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="133" spans="1:68">
@@ -28367,7 +28367,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>7727001</v>
+        <v>7726998</v>
       </c>
       <c r="C133" t="s">
         <v>68</v>
@@ -28376,49 +28376,49 @@
         <v>69</v>
       </c>
       <c r="E133" s="2">
-        <v>45586.875</v>
+        <v>45587.65625</v>
       </c>
       <c r="F133">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G133" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H133" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I133">
         <v>0</v>
       </c>
       <c r="J133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L133">
         <v>1</v>
       </c>
       <c r="M133">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N133">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O133" t="s">
-        <v>99</v>
+        <v>186</v>
       </c>
       <c r="P133" t="s">
-        <v>258</v>
+        <v>96</v>
       </c>
       <c r="Q133">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="R133">
         <v>2.2</v>
       </c>
       <c r="S133">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="T133">
         <v>1.36</v>
@@ -28433,19 +28433,19 @@
         <v>1.4</v>
       </c>
       <c r="X133">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Y133">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="Z133">
-        <v>2.3</v>
+        <v>2.08</v>
       </c>
       <c r="AA133">
         <v>3.4</v>
       </c>
       <c r="AB133">
-        <v>2.89</v>
+        <v>3.33</v>
       </c>
       <c r="AC133">
         <v>1.05</v>
@@ -28454,118 +28454,118 @@
         <v>11</v>
       </c>
       <c r="AE133">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AF133">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AG133">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="AH133">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="AI133">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AJ133">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="AK133">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="AL133">
         <v>1.25</v>
       </c>
       <c r="AM133">
-        <v>1.57</v>
+        <v>1.72</v>
       </c>
       <c r="AN133">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AO133">
-        <v>0.25</v>
+        <v>0.67</v>
       </c>
       <c r="AP133">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AQ133">
-        <v>0.8</v>
+        <v>0.57</v>
       </c>
       <c r="AR133">
-        <v>1.36</v>
+        <v>1.15</v>
       </c>
       <c r="AS133">
-        <v>1.2</v>
+        <v>1.12</v>
       </c>
       <c r="AT133">
-        <v>2.56</v>
+        <v>2.27</v>
       </c>
       <c r="AU133">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV133">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW133">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AX133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY133">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="AZ133">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA133">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="BB133">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BC133">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BD133">
-        <v>1.7</v>
+        <v>1.74</v>
       </c>
       <c r="BE133">
-        <v>6.75</v>
+        <v>6.4</v>
       </c>
       <c r="BF133">
-        <v>2.23</v>
+        <v>2.18</v>
       </c>
       <c r="BG133">
-        <v>1.17</v>
+        <v>1.24</v>
       </c>
       <c r="BH133">
-        <v>4.35</v>
+        <v>3.55</v>
       </c>
       <c r="BI133">
-        <v>1.3</v>
+        <v>1.43</v>
       </c>
       <c r="BJ133">
-        <v>3.05</v>
+        <v>2.55</v>
       </c>
       <c r="BK133">
-        <v>1.52</v>
+        <v>1.72</v>
       </c>
       <c r="BL133">
-        <v>2.33</v>
+        <v>1.98</v>
       </c>
       <c r="BM133">
-        <v>1.81</v>
+        <v>2.1</v>
       </c>
       <c r="BN133">
-        <v>1.88</v>
+        <v>1.64</v>
       </c>
       <c r="BO133">
-        <v>2.23</v>
+        <v>2.65</v>
       </c>
       <c r="BP133">
-        <v>1.57</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="134" spans="1:68">
@@ -28573,7 +28573,7 @@
         <v>133</v>
       </c>
       <c r="B134">
-        <v>7727002</v>
+        <v>7726999</v>
       </c>
       <c r="C134" t="s">
         <v>68</v>
@@ -28582,196 +28582,196 @@
         <v>69</v>
       </c>
       <c r="E134" s="2">
-        <v>45586.875</v>
+        <v>45587.65625</v>
       </c>
       <c r="F134">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G134" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H134" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K134">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M134">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N134">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O134" t="s">
-        <v>137</v>
+        <v>187</v>
       </c>
       <c r="P134" t="s">
-        <v>96</v>
+        <v>259</v>
       </c>
       <c r="Q134">
+        <v>4.5</v>
+      </c>
+      <c r="R134">
+        <v>2.25</v>
+      </c>
+      <c r="S134">
+        <v>2.4</v>
+      </c>
+      <c r="T134">
+        <v>1.36</v>
+      </c>
+      <c r="U134">
+        <v>3</v>
+      </c>
+      <c r="V134">
+        <v>2.63</v>
+      </c>
+      <c r="W134">
+        <v>1.44</v>
+      </c>
+      <c r="X134">
+        <v>7</v>
+      </c>
+      <c r="Y134">
+        <v>1.1</v>
+      </c>
+      <c r="Z134">
+        <v>3.89</v>
+      </c>
+      <c r="AA134">
         <v>3.5</v>
       </c>
-      <c r="R134">
-        <v>2.05</v>
-      </c>
-      <c r="S134">
-        <v>3.25</v>
-      </c>
-      <c r="T134">
-        <v>1.44</v>
-      </c>
-      <c r="U134">
-        <v>2.63</v>
-      </c>
-      <c r="V134">
-        <v>3.4</v>
-      </c>
-      <c r="W134">
-        <v>1.3</v>
-      </c>
-      <c r="X134">
-        <v>10</v>
-      </c>
-      <c r="Y134">
-        <v>1.06</v>
-      </c>
-      <c r="Z134">
-        <v>2.6</v>
-      </c>
-      <c r="AA134">
-        <v>3.2</v>
-      </c>
       <c r="AB134">
-        <v>2.65</v>
+        <v>1.88</v>
       </c>
       <c r="AC134">
-        <v>1.06</v>
+        <v>1.03</v>
       </c>
       <c r="AD134">
-        <v>9.5</v>
+        <v>13</v>
       </c>
       <c r="AE134">
-        <v>1.35</v>
+        <v>1.25</v>
       </c>
       <c r="AF134">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="AG134">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AH134">
-        <v>1.72</v>
+        <v>1.9</v>
       </c>
       <c r="AI134">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AJ134">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AK134">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="AL134">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AM134">
-        <v>1.47</v>
+        <v>1.25</v>
       </c>
       <c r="AN134">
-        <v>0.4</v>
+        <v>0.25</v>
       </c>
       <c r="AO134">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AP134">
-        <v>0.83</v>
+        <v>0.2</v>
       </c>
       <c r="AQ134">
-        <v>0.86</v>
+        <v>1.83</v>
       </c>
       <c r="AR134">
-        <v>1.33</v>
+        <v>1.07</v>
       </c>
       <c r="AS134">
-        <v>1.41</v>
+        <v>1.46</v>
       </c>
       <c r="AT134">
-        <v>2.74</v>
+        <v>2.53</v>
       </c>
       <c r="AU134">
+        <v>3</v>
+      </c>
+      <c r="AV134">
         <v>6</v>
       </c>
-      <c r="AV134">
-        <v>3</v>
-      </c>
       <c r="AW134">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX134">
         <v>5</v>
       </c>
       <c r="AY134">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ134">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA134">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB134">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BC134">
         <v>11</v>
       </c>
       <c r="BD134">
-        <v>1.93</v>
+        <v>2.35</v>
       </c>
       <c r="BE134">
         <v>6.25</v>
       </c>
       <c r="BF134">
-        <v>1.97</v>
+        <v>1.65</v>
       </c>
       <c r="BG134">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="BH134">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="BI134">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="BJ134">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="BK134">
+        <v>1.81</v>
+      </c>
+      <c r="BL134">
         <v>1.88</v>
       </c>
-      <c r="BL134">
-        <v>1.81</v>
-      </c>
       <c r="BM134">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="BN134">
-        <v>1.5</v>
+        <v>1.56</v>
       </c>
       <c r="BO134">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="BP134">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="135" spans="1:68">
@@ -28779,7 +28779,7 @@
         <v>134</v>
       </c>
       <c r="B135">
-        <v>7727003</v>
+        <v>7727000</v>
       </c>
       <c r="C135" t="s">
         <v>68</v>
@@ -28788,196 +28788,196 @@
         <v>69</v>
       </c>
       <c r="E135" s="2">
-        <v>45586.875</v>
+        <v>45587.65625</v>
       </c>
       <c r="F135">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G135" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H135" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I135">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K135">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="L135">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N135">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O135" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P135" t="s">
-        <v>217</v>
+        <v>96</v>
       </c>
       <c r="Q135">
-        <v>3.1</v>
+        <v>4.33</v>
       </c>
       <c r="R135">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S135">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="T135">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="U135">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="V135">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="W135">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="X135">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Y135">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="Z135">
-        <v>2.62</v>
+        <v>3.78</v>
       </c>
       <c r="AA135">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="AB135">
-        <v>2.48</v>
+        <v>1.97</v>
       </c>
       <c r="AC135">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="AD135">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AE135">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AF135">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="AG135">
-        <v>1.64</v>
+        <v>1.9</v>
       </c>
       <c r="AH135">
-        <v>2.12</v>
+        <v>1.8</v>
       </c>
       <c r="AI135">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="AJ135">
-        <v>2.25</v>
+        <v>1.95</v>
       </c>
       <c r="AK135">
-        <v>1.53</v>
+        <v>1.85</v>
       </c>
       <c r="AL135">
         <v>1.25</v>
       </c>
       <c r="AM135">
-        <v>1.47</v>
+        <v>1.28</v>
       </c>
       <c r="AN135">
-        <v>1.33</v>
+        <v>0.67</v>
       </c>
       <c r="AO135">
-        <v>1.4</v>
+        <v>2.2</v>
       </c>
       <c r="AP135">
-        <v>1.57</v>
+        <v>1</v>
       </c>
       <c r="AQ135">
-        <v>1.17</v>
+        <v>1.83</v>
       </c>
       <c r="AR135">
-        <v>1.19</v>
+        <v>1.01</v>
       </c>
       <c r="AS135">
-        <v>1.3</v>
+        <v>0.97</v>
       </c>
       <c r="AT135">
-        <v>2.49</v>
+        <v>1.98</v>
       </c>
       <c r="AU135">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AV135">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW135">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX135">
         <v>4</v>
       </c>
       <c r="AY135">
+        <v>9</v>
+      </c>
+      <c r="AZ135">
+        <v>9</v>
+      </c>
+      <c r="BA135">
+        <v>0</v>
+      </c>
+      <c r="BB135">
         <v>10</v>
       </c>
-      <c r="AZ135">
-        <v>12</v>
-      </c>
-      <c r="BA135">
-        <v>2</v>
-      </c>
-      <c r="BB135">
-        <v>3</v>
-      </c>
       <c r="BC135">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BD135">
-        <v>1.85</v>
+        <v>2.33</v>
       </c>
       <c r="BE135">
         <v>6.4</v>
       </c>
       <c r="BF135">
-        <v>2.02</v>
+        <v>1.65</v>
       </c>
       <c r="BG135">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="BH135">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="BI135">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="BJ135">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="BK135">
-        <v>1.72</v>
+        <v>1.76</v>
       </c>
       <c r="BL135">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="BM135">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="BN135">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="BO135">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="BP135">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="136" spans="1:68">
@@ -28985,7 +28985,7 @@
         <v>135</v>
       </c>
       <c r="B136">
-        <v>7726998</v>
+        <v>7727001</v>
       </c>
       <c r="C136" t="s">
         <v>68</v>
@@ -28994,49 +28994,49 @@
         <v>69</v>
       </c>
       <c r="E136" s="2">
-        <v>45586.875</v>
+        <v>45587.65625</v>
       </c>
       <c r="F136">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G136" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H136" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="I136">
         <v>0</v>
       </c>
       <c r="J136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L136">
         <v>1</v>
       </c>
       <c r="M136">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N136">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O136" t="s">
-        <v>187</v>
+        <v>99</v>
       </c>
       <c r="P136" t="s">
-        <v>96</v>
+        <v>260</v>
       </c>
       <c r="Q136">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R136">
         <v>2.2</v>
       </c>
       <c r="S136">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="T136">
         <v>1.36</v>
@@ -29051,19 +29051,19 @@
         <v>1.4</v>
       </c>
       <c r="X136">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y136">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z136">
-        <v>2.08</v>
+        <v>2.3</v>
       </c>
       <c r="AA136">
         <v>3.4</v>
       </c>
       <c r="AB136">
-        <v>3.33</v>
+        <v>2.89</v>
       </c>
       <c r="AC136">
         <v>1.05</v>
@@ -29072,118 +29072,118 @@
         <v>11</v>
       </c>
       <c r="AE136">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AF136">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AG136">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AH136">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AI136">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AJ136">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AK136">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="AL136">
         <v>1.25</v>
       </c>
       <c r="AM136">
-        <v>1.72</v>
+        <v>1.57</v>
       </c>
       <c r="AN136">
+        <v>2.25</v>
+      </c>
+      <c r="AO136">
+        <v>0.25</v>
+      </c>
+      <c r="AP136">
         <v>1.8</v>
       </c>
-      <c r="AO136">
-        <v>0.67</v>
-      </c>
-      <c r="AP136">
-        <v>2</v>
-      </c>
       <c r="AQ136">
-        <v>0.57</v>
+        <v>0.8</v>
       </c>
       <c r="AR136">
-        <v>1.15</v>
+        <v>1.36</v>
       </c>
       <c r="AS136">
-        <v>1.12</v>
+        <v>1.2</v>
       </c>
       <c r="AT136">
-        <v>2.27</v>
+        <v>2.56</v>
       </c>
       <c r="AU136">
+        <v>7</v>
+      </c>
+      <c r="AV136">
         <v>6</v>
       </c>
-      <c r="AV136">
+      <c r="AW136">
+        <v>9</v>
+      </c>
+      <c r="AX136">
+        <v>1</v>
+      </c>
+      <c r="AY136">
+        <v>20</v>
+      </c>
+      <c r="AZ136">
+        <v>12</v>
+      </c>
+      <c r="BA136">
+        <v>8</v>
+      </c>
+      <c r="BB136">
         <v>5</v>
       </c>
-      <c r="AW136">
-        <v>5</v>
-      </c>
-      <c r="AX136">
-        <v>2</v>
-      </c>
-      <c r="AY136">
-        <v>15</v>
-      </c>
-      <c r="AZ136">
-        <v>16</v>
-      </c>
-      <c r="BA136">
-        <v>5</v>
-      </c>
-      <c r="BB136">
-        <v>10</v>
-      </c>
       <c r="BC136">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BD136">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="BE136">
-        <v>6.4</v>
+        <v>6.75</v>
       </c>
       <c r="BF136">
-        <v>2.18</v>
+        <v>2.23</v>
       </c>
       <c r="BG136">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="BH136">
-        <v>3.55</v>
+        <v>4.35</v>
       </c>
       <c r="BI136">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
       <c r="BJ136">
-        <v>2.55</v>
+        <v>3.05</v>
       </c>
       <c r="BK136">
-        <v>1.72</v>
+        <v>1.52</v>
       </c>
       <c r="BL136">
-        <v>1.98</v>
+        <v>2.33</v>
       </c>
       <c r="BM136">
-        <v>2.1</v>
+        <v>1.81</v>
       </c>
       <c r="BN136">
-        <v>1.64</v>
+        <v>1.88</v>
       </c>
       <c r="BO136">
-        <v>2.65</v>
+        <v>2.23</v>
       </c>
       <c r="BP136">
-        <v>1.41</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="137" spans="1:68">
@@ -29191,7 +29191,7 @@
         <v>136</v>
       </c>
       <c r="B137">
-        <v>7726997</v>
+        <v>7727002</v>
       </c>
       <c r="C137" t="s">
         <v>68</v>
@@ -29200,196 +29200,196 @@
         <v>69</v>
       </c>
       <c r="E137" s="2">
-        <v>45586.875</v>
+        <v>45587.65625</v>
       </c>
       <c r="F137">
         <v>13</v>
       </c>
       <c r="G137" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="H137" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="I137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137">
         <v>0</v>
       </c>
       <c r="K137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M137">
         <v>0</v>
       </c>
       <c r="N137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O137" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="P137" t="s">
         <v>96</v>
       </c>
       <c r="Q137">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="R137">
-        <v>2.25</v>
+        <v>2.05</v>
       </c>
       <c r="S137">
-        <v>4.33</v>
+        <v>3.25</v>
       </c>
       <c r="T137">
+        <v>1.44</v>
+      </c>
+      <c r="U137">
+        <v>2.63</v>
+      </c>
+      <c r="V137">
+        <v>3.4</v>
+      </c>
+      <c r="W137">
+        <v>1.3</v>
+      </c>
+      <c r="X137">
+        <v>10</v>
+      </c>
+      <c r="Y137">
+        <v>1.06</v>
+      </c>
+      <c r="Z137">
+        <v>2.6</v>
+      </c>
+      <c r="AA137">
+        <v>3.2</v>
+      </c>
+      <c r="AB137">
+        <v>2.65</v>
+      </c>
+      <c r="AC137">
+        <v>1.06</v>
+      </c>
+      <c r="AD137">
+        <v>9.5</v>
+      </c>
+      <c r="AE137">
+        <v>1.35</v>
+      </c>
+      <c r="AF137">
+        <v>3.2</v>
+      </c>
+      <c r="AG137">
+        <v>2</v>
+      </c>
+      <c r="AH137">
+        <v>1.72</v>
+      </c>
+      <c r="AI137">
+        <v>1.91</v>
+      </c>
+      <c r="AJ137">
+        <v>1.91</v>
+      </c>
+      <c r="AK137">
+        <v>1.5</v>
+      </c>
+      <c r="AL137">
+        <v>1.28</v>
+      </c>
+      <c r="AM137">
+        <v>1.47</v>
+      </c>
+      <c r="AN137">
+        <v>0.4</v>
+      </c>
+      <c r="AO137">
+        <v>1</v>
+      </c>
+      <c r="AP137">
+        <v>0.83</v>
+      </c>
+      <c r="AQ137">
+        <v>0.86</v>
+      </c>
+      <c r="AR137">
         <v>1.33</v>
       </c>
-      <c r="U137">
-        <v>3.25</v>
-      </c>
-      <c r="V137">
-        <v>2.63</v>
-      </c>
-      <c r="W137">
-        <v>1.44</v>
-      </c>
-      <c r="X137">
-        <v>6.5</v>
-      </c>
-      <c r="Y137">
-        <v>1.11</v>
-      </c>
-      <c r="Z137">
-        <v>1.84</v>
-      </c>
-      <c r="AA137">
-        <v>3.5</v>
-      </c>
-      <c r="AB137">
-        <v>4.07</v>
-      </c>
-      <c r="AC137">
-        <v>1.03</v>
-      </c>
-      <c r="AD137">
-        <v>13</v>
-      </c>
-      <c r="AE137">
-        <v>1.22</v>
-      </c>
-      <c r="AF137">
-        <v>4</v>
-      </c>
-      <c r="AG137">
-        <v>1.75</v>
-      </c>
-      <c r="AH137">
-        <v>1.96</v>
-      </c>
-      <c r="AI137">
-        <v>1.67</v>
-      </c>
-      <c r="AJ137">
-        <v>2.1</v>
-      </c>
-      <c r="AK137">
-        <v>1.25</v>
-      </c>
-      <c r="AL137">
-        <v>1.22</v>
-      </c>
-      <c r="AM137">
-        <v>1.95</v>
-      </c>
-      <c r="AN137">
-        <v>2.6</v>
-      </c>
-      <c r="AO137">
-        <v>2.25</v>
-      </c>
-      <c r="AP137">
-        <v>2.67</v>
-      </c>
-      <c r="AQ137">
-        <v>1.8</v>
-      </c>
-      <c r="AR137">
-        <v>1.64</v>
-      </c>
       <c r="AS137">
-        <v>1.29</v>
+        <v>1.41</v>
       </c>
       <c r="AT137">
-        <v>2.93</v>
+        <v>2.74</v>
       </c>
       <c r="AU137">
         <v>6</v>
       </c>
       <c r="AV137">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW137">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX137">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY137">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AZ137">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA137">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BB137">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="BC137">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BD137">
-        <v>1.65</v>
+        <v>1.93</v>
       </c>
       <c r="BE137">
-        <v>6.4</v>
+        <v>6.25</v>
       </c>
       <c r="BF137">
-        <v>2.35</v>
+        <v>1.97</v>
       </c>
       <c r="BG137">
-        <v>1.21</v>
+        <v>1.3</v>
       </c>
       <c r="BH137">
-        <v>3.8</v>
+        <v>3.15</v>
       </c>
       <c r="BI137">
-        <v>1.37</v>
+        <v>1.53</v>
       </c>
       <c r="BJ137">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="BK137">
-        <v>1.61</v>
+        <v>1.88</v>
       </c>
       <c r="BL137">
-        <v>2.15</v>
+        <v>1.81</v>
       </c>
       <c r="BM137">
-        <v>1.98</v>
+        <v>2.33</v>
       </c>
       <c r="BN137">
-        <v>1.72</v>
+        <v>1.5</v>
       </c>
       <c r="BO137">
-        <v>2.48</v>
+        <v>3.05</v>
       </c>
       <c r="BP137">
-        <v>1.47</v>
+        <v>1.32</v>
       </c>
     </row>
     <row r="138" spans="1:68">
@@ -29397,7 +29397,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>7719517</v>
+        <v>7727007</v>
       </c>
       <c r="C138" t="s">
         <v>68</v>
@@ -29406,55 +29406,55 @@
         <v>69</v>
       </c>
       <c r="E138" s="2">
-        <v>45586.875</v>
+        <v>45587.65625</v>
       </c>
       <c r="F138">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G138" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H138" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="I138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J138">
         <v>0</v>
       </c>
       <c r="K138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L138">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M138">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N138">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O138" t="s">
-        <v>189</v>
+        <v>96</v>
       </c>
       <c r="P138" t="s">
-        <v>259</v>
+        <v>96</v>
       </c>
       <c r="Q138">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R138">
         <v>2.2</v>
       </c>
       <c r="S138">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="T138">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U138">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="V138">
         <v>2.75</v>
@@ -29463,139 +29463,139 @@
         <v>1.4</v>
       </c>
       <c r="X138">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Y138">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="Z138">
-        <v>2.2</v>
+        <v>2.4</v>
       </c>
       <c r="AA138">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="AB138">
-        <v>3.25</v>
+        <v>2.81</v>
       </c>
       <c r="AC138">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AD138">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE138">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AF138">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="AG138">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AH138">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="AI138">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AJ138">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AK138">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="AL138">
         <v>1.25</v>
       </c>
       <c r="AM138">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="AN138">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="AO138">
         <v>1.2</v>
       </c>
       <c r="AP138">
-        <v>1.17</v>
+        <v>2.67</v>
       </c>
       <c r="AQ138">
         <v>1.17</v>
       </c>
       <c r="AR138">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="AS138">
-        <v>1.05</v>
+        <v>1.26</v>
       </c>
       <c r="AT138">
-        <v>2.59</v>
+        <v>2.87</v>
       </c>
       <c r="AU138">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AV138">
+        <v>4</v>
+      </c>
+      <c r="AW138">
+        <v>3</v>
+      </c>
+      <c r="AX138">
+        <v>3</v>
+      </c>
+      <c r="AY138">
         <v>6</v>
-      </c>
-      <c r="AW138">
-        <v>7</v>
-      </c>
-      <c r="AX138">
-        <v>2</v>
-      </c>
-      <c r="AY138">
-        <v>21</v>
       </c>
       <c r="AZ138">
         <v>10</v>
       </c>
       <c r="BA138">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="BB138">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC138">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="BD138">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="BE138">
-        <v>6.25</v>
+        <v>6.4</v>
       </c>
       <c r="BF138">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="BG138">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="BH138">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="BI138">
+        <v>1.4</v>
+      </c>
+      <c r="BJ138">
+        <v>2.7</v>
+      </c>
+      <c r="BK138">
+        <v>1.65</v>
+      </c>
+      <c r="BL138">
+        <v>2.08</v>
+      </c>
+      <c r="BM138">
+        <v>2.02</v>
+      </c>
+      <c r="BN138">
+        <v>1.7</v>
+      </c>
+      <c r="BO138">
+        <v>2.55</v>
+      </c>
+      <c r="BP138">
         <v>1.44</v>
-      </c>
-      <c r="BJ138">
-        <v>2.55</v>
-      </c>
-      <c r="BK138">
-        <v>1.72</v>
-      </c>
-      <c r="BL138">
-        <v>1.98</v>
-      </c>
-      <c r="BM138">
-        <v>2.12</v>
-      </c>
-      <c r="BN138">
-        <v>1.63</v>
-      </c>
-      <c r="BO138">
-        <v>2.7</v>
-      </c>
-      <c r="BP138">
-        <v>1.4</v>
       </c>
     </row>
     <row r="139" spans="1:68">
@@ -29603,7 +29603,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>7727006</v>
+        <v>7719517</v>
       </c>
       <c r="C139" t="s">
         <v>68</v>
@@ -29612,82 +29612,82 @@
         <v>69</v>
       </c>
       <c r="E139" s="2">
-        <v>45586.875</v>
+        <v>45587.65625</v>
       </c>
       <c r="F139">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G139" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H139" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K139">
         <v>1</v>
       </c>
       <c r="L139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M139">
         <v>2</v>
       </c>
       <c r="N139">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O139" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P139" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q139">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="R139">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S139">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="T139">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="U139">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="V139">
-        <v>2.85</v>
+        <v>2.75</v>
       </c>
       <c r="W139">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="X139">
-        <v>6.95</v>
+        <v>8</v>
       </c>
       <c r="Y139">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="Z139">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="AA139">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="AB139">
-        <v>2.97</v>
+        <v>3.25</v>
       </c>
       <c r="AC139">
         <v>1.05</v>
       </c>
       <c r="AD139">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE139">
         <v>1.3</v>
@@ -29696,112 +29696,112 @@
         <v>3.4</v>
       </c>
       <c r="AG139">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AH139">
-        <v>1.9</v>
+        <v>1.83</v>
       </c>
       <c r="AI139">
         <v>1.75</v>
       </c>
       <c r="AJ139">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="AK139">
         <v>1.38</v>
       </c>
       <c r="AL139">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AM139">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="AN139">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="AO139">
-        <v>2.25</v>
+        <v>1.2</v>
       </c>
       <c r="AP139">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AQ139">
-        <v>2.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR139">
-        <v>0.95</v>
+        <v>1.54</v>
       </c>
       <c r="AS139">
-        <v>1.19</v>
+        <v>1.05</v>
       </c>
       <c r="AT139">
-        <v>2.14</v>
+        <v>2.59</v>
       </c>
       <c r="AU139">
+        <v>10</v>
+      </c>
+      <c r="AV139">
+        <v>6</v>
+      </c>
+      <c r="AW139">
+        <v>7</v>
+      </c>
+      <c r="AX139">
+        <v>2</v>
+      </c>
+      <c r="AY139">
+        <v>21</v>
+      </c>
+      <c r="AZ139">
+        <v>10</v>
+      </c>
+      <c r="BA139">
+        <v>11</v>
+      </c>
+      <c r="BB139">
         <v>5</v>
       </c>
-      <c r="AV139">
-        <v>3</v>
-      </c>
-      <c r="AW139">
-        <v>10</v>
-      </c>
-      <c r="AX139">
-        <v>2</v>
-      </c>
-      <c r="AY139">
-        <v>24</v>
-      </c>
-      <c r="AZ139">
-        <v>5</v>
-      </c>
-      <c r="BA139">
-        <v>4</v>
-      </c>
-      <c r="BB139">
-        <v>1</v>
-      </c>
       <c r="BC139">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="BD139">
-        <v>1.84</v>
+        <v>1.77</v>
       </c>
       <c r="BE139">
         <v>6.25</v>
       </c>
       <c r="BF139">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="BG139">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="BH139">
-        <v>3.05</v>
+        <v>3.4</v>
       </c>
       <c r="BI139">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="BJ139">
-        <v>2.33</v>
+        <v>2.55</v>
       </c>
       <c r="BK139">
-        <v>1.86</v>
+        <v>1.72</v>
       </c>
       <c r="BL139">
-        <v>1.83</v>
+        <v>1.98</v>
       </c>
       <c r="BM139">
-        <v>2.33</v>
+        <v>2.12</v>
       </c>
       <c r="BN139">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="BO139">
-        <v>3.05</v>
+        <v>2.7</v>
       </c>
       <c r="BP139">
-        <v>1.32</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="140" spans="1:68">
@@ -29818,10 +29818,10 @@
         <v>69</v>
       </c>
       <c r="E140" s="2">
-        <v>45586.875</v>
+        <v>45587.65625</v>
       </c>
       <c r="F140">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G140" t="s">
         <v>76</v>
@@ -29851,7 +29851,7 @@
         <v>96</v>
       </c>
       <c r="P140" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q140">
         <v>2.3</v>
@@ -30015,7 +30015,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>7727005</v>
+        <v>7727003</v>
       </c>
       <c r="C141" t="s">
         <v>68</v>
@@ -30024,55 +30024,55 @@
         <v>69</v>
       </c>
       <c r="E141" s="2">
-        <v>45586.875</v>
+        <v>45587.65625</v>
       </c>
       <c r="F141">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G141" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H141" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K141">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L141">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M141">
         <v>1</v>
       </c>
       <c r="N141">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O141" t="s">
-        <v>103</v>
+        <v>190</v>
       </c>
       <c r="P141" t="s">
-        <v>262</v>
+        <v>217</v>
       </c>
       <c r="Q141">
-        <v>2.05</v>
+        <v>3.1</v>
       </c>
       <c r="R141">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="S141">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="T141">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U141">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="V141">
         <v>2.5</v>
@@ -30087,133 +30087,133 @@
         <v>1.13</v>
       </c>
       <c r="Z141">
-        <v>1.52</v>
+        <v>2.62</v>
       </c>
       <c r="AA141">
-        <v>4.2</v>
+        <v>3.45</v>
       </c>
       <c r="AB141">
-        <v>5.59</v>
+        <v>2.48</v>
       </c>
       <c r="AC141">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AD141">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE141">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AF141">
+        <v>4.5</v>
+      </c>
+      <c r="AG141">
+        <v>1.64</v>
+      </c>
+      <c r="AH141">
+        <v>2.12</v>
+      </c>
+      <c r="AI141">
+        <v>1.57</v>
+      </c>
+      <c r="AJ141">
+        <v>2.25</v>
+      </c>
+      <c r="AK141">
+        <v>1.53</v>
+      </c>
+      <c r="AL141">
+        <v>1.25</v>
+      </c>
+      <c r="AM141">
+        <v>1.47</v>
+      </c>
+      <c r="AN141">
+        <v>1.33</v>
+      </c>
+      <c r="AO141">
+        <v>1.4</v>
+      </c>
+      <c r="AP141">
+        <v>1.57</v>
+      </c>
+      <c r="AQ141">
+        <v>1.17</v>
+      </c>
+      <c r="AR141">
+        <v>1.19</v>
+      </c>
+      <c r="AS141">
+        <v>1.3</v>
+      </c>
+      <c r="AT141">
+        <v>2.49</v>
+      </c>
+      <c r="AU141">
+        <v>7</v>
+      </c>
+      <c r="AV141">
+        <v>5</v>
+      </c>
+      <c r="AW141">
+        <v>2</v>
+      </c>
+      <c r="AX141">
         <v>4</v>
       </c>
-      <c r="AG141">
-        <v>1.68</v>
-      </c>
-      <c r="AH141">
-        <v>2.06</v>
-      </c>
-      <c r="AI141">
-        <v>1.75</v>
-      </c>
-      <c r="AJ141">
-        <v>2</v>
-      </c>
-      <c r="AK141">
-        <v>1.12</v>
-      </c>
-      <c r="AL141">
-        <v>1.18</v>
-      </c>
-      <c r="AM141">
-        <v>2.5</v>
-      </c>
-      <c r="AN141">
-        <v>1.75</v>
-      </c>
-      <c r="AO141">
-        <v>1</v>
-      </c>
-      <c r="AP141">
-        <v>1.6</v>
-      </c>
-      <c r="AQ141">
-        <v>1</v>
-      </c>
-      <c r="AR141">
+      <c r="AY141">
+        <v>10</v>
+      </c>
+      <c r="AZ141">
+        <v>12</v>
+      </c>
+      <c r="BA141">
+        <v>2</v>
+      </c>
+      <c r="BB141">
+        <v>3</v>
+      </c>
+      <c r="BC141">
+        <v>5</v>
+      </c>
+      <c r="BD141">
+        <v>1.85</v>
+      </c>
+      <c r="BE141">
+        <v>6.4</v>
+      </c>
+      <c r="BF141">
+        <v>2.02</v>
+      </c>
+      <c r="BG141">
+        <v>1.24</v>
+      </c>
+      <c r="BH141">
+        <v>3.55</v>
+      </c>
+      <c r="BI141">
+        <v>1.44</v>
+      </c>
+      <c r="BJ141">
+        <v>2.55</v>
+      </c>
+      <c r="BK141">
+        <v>1.72</v>
+      </c>
+      <c r="BL141">
+        <v>1.98</v>
+      </c>
+      <c r="BM141">
+        <v>2.12</v>
+      </c>
+      <c r="BN141">
         <v>1.63</v>
       </c>
-      <c r="AS141">
-        <v>1.12</v>
-      </c>
-      <c r="AT141">
-        <v>2.75</v>
-      </c>
-      <c r="AU141">
-        <v>4</v>
-      </c>
-      <c r="AV141">
-        <v>4</v>
-      </c>
-      <c r="AW141">
-        <v>9</v>
-      </c>
-      <c r="AX141">
-        <v>3</v>
-      </c>
-      <c r="AY141">
-        <v>18</v>
-      </c>
-      <c r="AZ141">
-        <v>9</v>
-      </c>
-      <c r="BA141">
-        <v>5</v>
-      </c>
-      <c r="BB141">
-        <v>1</v>
-      </c>
-      <c r="BC141">
-        <v>6</v>
-      </c>
-      <c r="BD141">
+      <c r="BO141">
+        <v>2.7</v>
+      </c>
+      <c r="BP141">
         <v>1.4</v>
-      </c>
-      <c r="BE141">
-        <v>6.75</v>
-      </c>
-      <c r="BF141">
-        <v>3.05</v>
-      </c>
-      <c r="BG141">
-        <v>1.36</v>
-      </c>
-      <c r="BH141">
-        <v>2.8</v>
-      </c>
-      <c r="BI141">
-        <v>1.63</v>
-      </c>
-      <c r="BJ141">
-        <v>2.12</v>
-      </c>
-      <c r="BK141">
-        <v>2</v>
-      </c>
-      <c r="BL141">
-        <v>1.71</v>
-      </c>
-      <c r="BM141">
-        <v>2.55</v>
-      </c>
-      <c r="BN141">
-        <v>1.44</v>
-      </c>
-      <c r="BO141">
-        <v>3.4</v>
-      </c>
-      <c r="BP141">
-        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="273">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -589,6 +589,30 @@
     <t>['8', '17', '28', '70', '73']</t>
   </si>
   <si>
+    <t>['84']</t>
+  </si>
+  <si>
+    <t>['16', '63']</t>
+  </si>
+  <si>
+    <t>['16', '29', '55']</t>
+  </si>
+  <si>
+    <t>['70', '72']</t>
+  </si>
+  <si>
+    <t>['5', '45+5', '59']</t>
+  </si>
+  <si>
+    <t>['90+9']</t>
+  </si>
+  <si>
+    <t>['42', '66']</t>
+  </si>
+  <si>
+    <t>['23', '90+7']</t>
+  </si>
+  <si>
     <t>['13', '18']</t>
   </si>
   <si>
@@ -754,9 +778,6 @@
     <t>['79', '90+4']</t>
   </si>
   <si>
-    <t>['84']</t>
-  </si>
-  <si>
     <t>['64']</t>
   </si>
   <si>
@@ -803,6 +824,15 @@
   </si>
   <si>
     <t>['31', '90']</t>
+  </si>
+  <si>
+    <t>['45+2', '48']</t>
+  </si>
+  <si>
+    <t>['9']</t>
+  </si>
+  <si>
+    <t>['16', '72']</t>
   </si>
 </sst>
 </file>
@@ -1164,7 +1194,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP141"/>
+  <dimension ref="A1:BP152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1423,7 +1453,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1835,7 +1865,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2247,7 +2277,7 @@
         <v>96</v>
       </c>
       <c r="P6" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2453,7 +2483,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -3071,7 +3101,7 @@
         <v>101</v>
       </c>
       <c r="P10" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3483,7 +3513,7 @@
         <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="Q12">
         <v>2.1</v>
@@ -3895,7 +3925,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3973,10 +4003,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ14">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4179,10 +4209,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4385,7 +4415,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ16">
         <v>0.83</v>
@@ -4591,10 +4621,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ17">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4719,7 +4749,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4797,10 +4827,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ18">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -4925,7 +4955,7 @@
         <v>108</v>
       </c>
       <c r="P19" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="Q19">
         <v>3.25</v>
@@ -5003,10 +5033,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ19">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5131,7 +5161,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5209,10 +5239,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ20">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR20">
         <v>0</v>
@@ -5337,7 +5367,7 @@
         <v>109</v>
       </c>
       <c r="P21" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5415,10 +5445,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ21">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR21">
         <v>0</v>
@@ -5543,7 +5573,7 @@
         <v>110</v>
       </c>
       <c r="P22" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -5621,10 +5651,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ22">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5749,7 +5779,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="Q23">
         <v>2.75</v>
@@ -5830,7 +5860,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ23">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR23">
         <v>0</v>
@@ -5955,7 +5985,7 @@
         <v>111</v>
       </c>
       <c r="P24" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -6033,10 +6063,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ24">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6239,10 +6269,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ25">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR25">
         <v>0</v>
@@ -6448,7 +6478,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ26">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR26">
         <v>2.06</v>
@@ -6654,7 +6684,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ27">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR27">
         <v>1.26</v>
@@ -6857,7 +6887,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ28">
         <v>0.86</v>
@@ -7272,7 +7302,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ30">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR30">
         <v>0.89</v>
@@ -7397,7 +7427,7 @@
         <v>116</v>
       </c>
       <c r="P31" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7475,7 +7505,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ31">
         <v>2.4</v>
@@ -7603,7 +7633,7 @@
         <v>117</v>
       </c>
       <c r="P32" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="Q32">
         <v>4.33</v>
@@ -7684,7 +7714,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ32">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AR32">
         <v>1.32</v>
@@ -7887,7 +7917,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ33">
         <v>0.57</v>
@@ -8015,7 +8045,7 @@
         <v>119</v>
       </c>
       <c r="P34" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -8096,7 +8126,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ34">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR34">
         <v>1.76</v>
@@ -8299,7 +8329,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ35">
         <v>1.8</v>
@@ -8427,7 +8457,7 @@
         <v>121</v>
       </c>
       <c r="P36" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="Q36">
         <v>4.5</v>
@@ -8505,7 +8535,7 @@
         <v>0</v>
       </c>
       <c r="AP36">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ36">
         <v>1.17</v>
@@ -8633,7 +8663,7 @@
         <v>122</v>
       </c>
       <c r="P37" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="Q37">
         <v>2.2</v>
@@ -8917,7 +8947,7 @@
         <v>3</v>
       </c>
       <c r="AP38">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ38">
         <v>1.17</v>
@@ -9045,7 +9075,7 @@
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9251,7 +9281,7 @@
         <v>96</v>
       </c>
       <c r="P40" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="Q40">
         <v>2.05</v>
@@ -9329,10 +9359,10 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ40">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR40">
         <v>1.76</v>
@@ -9663,7 +9693,7 @@
         <v>96</v>
       </c>
       <c r="P42" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="Q42">
         <v>3.6</v>
@@ -9744,7 +9774,7 @@
         <v>1</v>
       </c>
       <c r="AQ42">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR42">
         <v>1.22</v>
@@ -9869,7 +9899,7 @@
         <v>126</v>
       </c>
       <c r="P43" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -9947,10 +9977,10 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ43">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR43">
         <v>1.81</v>
@@ -10153,10 +10183,10 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ44">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR44">
         <v>1.4</v>
@@ -10281,7 +10311,7 @@
         <v>96</v>
       </c>
       <c r="P45" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -10362,7 +10392,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ45">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR45">
         <v>0.79</v>
@@ -10565,7 +10595,7 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ46">
         <v>1.17</v>
@@ -10771,10 +10801,10 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ47">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR47">
         <v>1.27</v>
@@ -11517,7 +11547,7 @@
         <v>131</v>
       </c>
       <c r="P51" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="Q51">
         <v>2.3</v>
@@ -11598,7 +11628,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ51">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR51">
         <v>1.65</v>
@@ -11801,7 +11831,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ52">
         <v>0.86</v>
@@ -12007,7 +12037,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ53">
         <v>0.5</v>
@@ -12135,7 +12165,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="Q54">
         <v>3.5</v>
@@ -12213,7 +12243,7 @@
         <v>0.5</v>
       </c>
       <c r="AP54">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ54">
         <v>1.83</v>
@@ -12422,7 +12452,7 @@
         <v>2</v>
       </c>
       <c r="AQ55">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR55">
         <v>1.23</v>
@@ -12625,7 +12655,7 @@
         <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ56">
         <v>1.17</v>
@@ -12753,7 +12783,7 @@
         <v>135</v>
       </c>
       <c r="P57" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="Q57">
         <v>2.2</v>
@@ -12831,10 +12861,10 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ57">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR57">
         <v>1.85</v>
@@ -12959,7 +12989,7 @@
         <v>96</v>
       </c>
       <c r="P58" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13037,10 +13067,10 @@
         <v>0</v>
       </c>
       <c r="AP58">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ58">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR58">
         <v>1.57</v>
@@ -13165,7 +13195,7 @@
         <v>136</v>
       </c>
       <c r="P59" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13371,7 +13401,7 @@
         <v>137</v>
       </c>
       <c r="P60" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="Q60">
         <v>4.5</v>
@@ -13452,7 +13482,7 @@
         <v>1</v>
       </c>
       <c r="AQ60">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR60">
         <v>0.65</v>
@@ -13577,7 +13607,7 @@
         <v>96</v>
       </c>
       <c r="P61" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -13864,7 +13894,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ62">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR62">
         <v>1.44</v>
@@ -13989,7 +14019,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="Q63">
         <v>2.88</v>
@@ -14067,7 +14097,7 @@
         <v>1.5</v>
       </c>
       <c r="AP63">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ63">
         <v>1.17</v>
@@ -14195,7 +14225,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="Q64">
         <v>2.5</v>
@@ -14276,7 +14306,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ64">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR64">
         <v>1.77</v>
@@ -14482,7 +14512,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ65">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR65">
         <v>1.55</v>
@@ -14685,7 +14715,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ66">
         <v>0.83</v>
@@ -14813,7 +14843,7 @@
         <v>141</v>
       </c>
       <c r="P67" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="Q67">
         <v>2.4</v>
@@ -14894,7 +14924,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ67">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR67">
         <v>1.92</v>
@@ -15019,7 +15049,7 @@
         <v>96</v>
       </c>
       <c r="P68" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="Q68">
         <v>3.75</v>
@@ -15097,10 +15127,10 @@
         <v>3</v>
       </c>
       <c r="AP68">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ68">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AR68">
         <v>1.79</v>
@@ -15225,7 +15255,7 @@
         <v>142</v>
       </c>
       <c r="P69" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="Q69">
         <v>2.05</v>
@@ -15306,7 +15336,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ69">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR69">
         <v>0.98</v>
@@ -15431,7 +15461,7 @@
         <v>143</v>
       </c>
       <c r="P70" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="Q70">
         <v>2.3</v>
@@ -15509,7 +15539,7 @@
         <v>0</v>
       </c>
       <c r="AP70">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ70">
         <v>0.57</v>
@@ -15637,7 +15667,7 @@
         <v>144</v>
       </c>
       <c r="P71" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="Q71">
         <v>1.83</v>
@@ -15715,7 +15745,7 @@
         <v>0.5</v>
       </c>
       <c r="AP71">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ71">
         <v>1</v>
@@ -15843,7 +15873,7 @@
         <v>145</v>
       </c>
       <c r="P72" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="Q72">
         <v>3.1</v>
@@ -15921,7 +15951,7 @@
         <v>0.5</v>
       </c>
       <c r="AP72">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ72">
         <v>1.17</v>
@@ -16049,7 +16079,7 @@
         <v>146</v>
       </c>
       <c r="P73" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="Q73">
         <v>4.33</v>
@@ -16130,7 +16160,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ73">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR73">
         <v>0.86</v>
@@ -16255,7 +16285,7 @@
         <v>147</v>
       </c>
       <c r="P74" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16333,7 +16363,7 @@
         <v>0.5</v>
       </c>
       <c r="AP74">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ74">
         <v>0.8</v>
@@ -16542,7 +16572,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ75">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR75">
         <v>1.51</v>
@@ -16667,7 +16697,7 @@
         <v>149</v>
       </c>
       <c r="P76" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="Q76">
         <v>2.2</v>
@@ -16745,7 +16775,7 @@
         <v>0</v>
       </c>
       <c r="AP76">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ76">
         <v>0.5</v>
@@ -16873,7 +16903,7 @@
         <v>96</v>
       </c>
       <c r="P77" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="Q77">
         <v>2.4</v>
@@ -16951,7 +16981,7 @@
         <v>1.33</v>
       </c>
       <c r="AP77">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ77">
         <v>1.17</v>
@@ -17079,7 +17109,7 @@
         <v>150</v>
       </c>
       <c r="P78" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="Q78">
         <v>3.15</v>
@@ -17160,7 +17190,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ78">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR78">
         <v>1.23</v>
@@ -17366,7 +17396,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ79">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR79">
         <v>0.73</v>
@@ -17491,7 +17521,7 @@
         <v>96</v>
       </c>
       <c r="P80" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="Q80">
         <v>4.33</v>
@@ -17775,7 +17805,7 @@
         <v>2</v>
       </c>
       <c r="AP81">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ81">
         <v>1.17</v>
@@ -17903,7 +17933,7 @@
         <v>96</v>
       </c>
       <c r="P82" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -17981,7 +18011,7 @@
         <v>1.5</v>
       </c>
       <c r="AP82">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ82">
         <v>2.4</v>
@@ -18187,7 +18217,7 @@
         <v>0.33</v>
       </c>
       <c r="AP83">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ83">
         <v>0.86</v>
@@ -18396,7 +18426,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ84">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR84">
         <v>0.73</v>
@@ -18727,7 +18757,7 @@
         <v>96</v>
       </c>
       <c r="P86" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -18805,7 +18835,7 @@
         <v>2.33</v>
       </c>
       <c r="AP86">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ86">
         <v>1.83</v>
@@ -19014,7 +19044,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ87">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR87">
         <v>1.36</v>
@@ -19220,7 +19250,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ88">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR88">
         <v>1.55</v>
@@ -19345,7 +19375,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="Q89">
         <v>2.05</v>
@@ -19426,7 +19456,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ89">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR89">
         <v>1.7</v>
@@ -19551,7 +19581,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="Q90">
         <v>3.4</v>
@@ -19757,7 +19787,7 @@
         <v>119</v>
       </c>
       <c r="P91" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -19838,7 +19868,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ91">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR91">
         <v>1.71</v>
@@ -20044,7 +20074,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ92">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR92">
         <v>0.93</v>
@@ -20250,7 +20280,7 @@
         <v>2</v>
       </c>
       <c r="AQ93">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR93">
         <v>1.15</v>
@@ -20375,7 +20405,7 @@
         <v>96</v>
       </c>
       <c r="P94" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="Q94">
         <v>4.5</v>
@@ -20453,10 +20483,10 @@
         <v>1.5</v>
       </c>
       <c r="AP94">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ94">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR94">
         <v>1.05</v>
@@ -20581,7 +20611,7 @@
         <v>96</v>
       </c>
       <c r="P95" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -20662,7 +20692,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ95">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR95">
         <v>1.27</v>
@@ -20787,7 +20817,7 @@
         <v>96</v>
       </c>
       <c r="P96" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="Q96">
         <v>3.2</v>
@@ -21071,7 +21101,7 @@
         <v>0.5</v>
       </c>
       <c r="AP97">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ97">
         <v>0.86</v>
@@ -21199,7 +21229,7 @@
         <v>158</v>
       </c>
       <c r="P98" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="Q98">
         <v>4.75</v>
@@ -21277,7 +21307,7 @@
         <v>2</v>
       </c>
       <c r="AP98">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ98">
         <v>1.8</v>
@@ -21405,7 +21435,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="Q99">
         <v>2.5</v>
@@ -21817,7 +21847,7 @@
         <v>161</v>
       </c>
       <c r="P101" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="Q101">
         <v>2.75</v>
@@ -22023,7 +22053,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="Q102">
         <v>3.6</v>
@@ -22229,7 +22259,7 @@
         <v>163</v>
       </c>
       <c r="P103" t="s">
-        <v>246</v>
+        <v>191</v>
       </c>
       <c r="Q103">
         <v>2.2</v>
@@ -22307,10 +22337,10 @@
         <v>0.75</v>
       </c>
       <c r="AP103">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ103">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR103">
         <v>1.21</v>
@@ -22435,7 +22465,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -22516,7 +22546,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ104">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR104">
         <v>1.16</v>
@@ -22719,10 +22749,10 @@
         <v>2.25</v>
       </c>
       <c r="AP105">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ105">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR105">
         <v>1.27</v>
@@ -22847,7 +22877,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="Q106">
         <v>2.63</v>
@@ -22925,7 +22955,7 @@
         <v>0.33</v>
       </c>
       <c r="AP106">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ106">
         <v>0.8</v>
@@ -23131,7 +23161,7 @@
         <v>1.75</v>
       </c>
       <c r="AP107">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ107">
         <v>1.17</v>
@@ -23337,10 +23367,10 @@
         <v>1.5</v>
       </c>
       <c r="AP108">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ108">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR108">
         <v>1.52</v>
@@ -23671,7 +23701,7 @@
         <v>170</v>
       </c>
       <c r="P110" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -23752,7 +23782,7 @@
         <v>0.2</v>
       </c>
       <c r="AQ110">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR110">
         <v>0.92</v>
@@ -23877,7 +23907,7 @@
         <v>171</v>
       </c>
       <c r="P111" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="Q111">
         <v>1.91</v>
@@ -23955,7 +23985,7 @@
         <v>0</v>
       </c>
       <c r="AP111">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ111">
         <v>0.57</v>
@@ -24367,10 +24397,10 @@
         <v>1</v>
       </c>
       <c r="AP113">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ113">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR113">
         <v>1.39</v>
@@ -24573,10 +24603,10 @@
         <v>3</v>
       </c>
       <c r="AP114">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ114">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AR114">
         <v>1.26</v>
@@ -24701,7 +24731,7 @@
         <v>173</v>
       </c>
       <c r="P115" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="Q115">
         <v>2.1</v>
@@ -24907,7 +24937,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25113,7 +25143,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25319,7 +25349,7 @@
         <v>96</v>
       </c>
       <c r="P118" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="Q118">
         <v>3.4</v>
@@ -25397,10 +25427,10 @@
         <v>1.4</v>
       </c>
       <c r="AP118">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AQ118">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR118">
         <v>0.98</v>
@@ -25603,10 +25633,10 @@
         <v>0.75</v>
       </c>
       <c r="AP119">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ119">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AR119">
         <v>1.25</v>
@@ -25809,10 +25839,10 @@
         <v>1.4</v>
       </c>
       <c r="AP120">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ120">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR120">
         <v>1.35</v>
@@ -26015,7 +26045,7 @@
         <v>1</v>
       </c>
       <c r="AP121">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AQ121">
         <v>0.83</v>
@@ -26221,10 +26251,10 @@
         <v>1</v>
       </c>
       <c r="AP122">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ122">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR122">
         <v>1.58</v>
@@ -26427,10 +26457,10 @@
         <v>1.2</v>
       </c>
       <c r="AP123">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ123">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR123">
         <v>1.4</v>
@@ -26633,10 +26663,10 @@
         <v>0.4</v>
       </c>
       <c r="AP124">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ124">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR124">
         <v>1.32</v>
@@ -26761,7 +26791,7 @@
         <v>180</v>
       </c>
       <c r="P125" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="Q125">
         <v>4.5</v>
@@ -26839,10 +26869,10 @@
         <v>2.25</v>
       </c>
       <c r="AP125">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ125">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AR125">
         <v>1.41</v>
@@ -26967,7 +26997,7 @@
         <v>181</v>
       </c>
       <c r="P126" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="Q126">
         <v>2</v>
@@ -27045,10 +27075,10 @@
         <v>0.8</v>
       </c>
       <c r="AP126">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ126">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AR126">
         <v>1.38</v>
@@ -27173,7 +27203,7 @@
         <v>137</v>
       </c>
       <c r="P127" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="Q127">
         <v>2.6</v>
@@ -27254,7 +27284,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ127">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR127">
         <v>1.56</v>
@@ -27457,10 +27487,10 @@
         <v>0.6</v>
       </c>
       <c r="AP128">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ128">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR128">
         <v>1.5</v>
@@ -27585,7 +27615,7 @@
         <v>183</v>
       </c>
       <c r="P129" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="Q129">
         <v>3.2</v>
@@ -27663,10 +27693,10 @@
         <v>1.8</v>
       </c>
       <c r="AP129">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ129">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AR129">
         <v>1.2</v>
@@ -27791,7 +27821,7 @@
         <v>184</v>
       </c>
       <c r="P130" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -27997,7 +28027,7 @@
         <v>103</v>
       </c>
       <c r="P131" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="Q131">
         <v>2.05</v>
@@ -28615,7 +28645,7 @@
         <v>187</v>
       </c>
       <c r="P134" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="Q134">
         <v>4.5</v>
@@ -29027,7 +29057,7 @@
         <v>99</v>
       </c>
       <c r="P136" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="Q136">
         <v>3.1</v>
@@ -29645,7 +29675,7 @@
         <v>189</v>
       </c>
       <c r="P139" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="Q139">
         <v>2.88</v>
@@ -29851,7 +29881,7 @@
         <v>96</v>
       </c>
       <c r="P140" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="Q140">
         <v>2.3</v>
@@ -30057,7 +30087,7 @@
         <v>190</v>
       </c>
       <c r="P141" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="Q141">
         <v>3.1</v>
@@ -30214,6 +30244,2272 @@
       </c>
       <c r="BP141">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="142" spans="1:68">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>7727014</v>
+      </c>
+      <c r="C142" t="s">
+        <v>68</v>
+      </c>
+      <c r="D142" t="s">
+        <v>69</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45591.35416666666</v>
+      </c>
+      <c r="F142">
+        <v>0</v>
+      </c>
+      <c r="G142" t="s">
+        <v>92</v>
+      </c>
+      <c r="H142" t="s">
+        <v>80</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>1</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+      <c r="N142">
+        <v>2</v>
+      </c>
+      <c r="O142" t="s">
+        <v>160</v>
+      </c>
+      <c r="P142" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q142">
+        <v>4.33</v>
+      </c>
+      <c r="R142">
+        <v>2.4</v>
+      </c>
+      <c r="S142">
+        <v>2.3</v>
+      </c>
+      <c r="T142">
+        <v>1.29</v>
+      </c>
+      <c r="U142">
+        <v>3.5</v>
+      </c>
+      <c r="V142">
+        <v>2.38</v>
+      </c>
+      <c r="W142">
+        <v>1.53</v>
+      </c>
+      <c r="X142">
+        <v>5.5</v>
+      </c>
+      <c r="Y142">
+        <v>1.14</v>
+      </c>
+      <c r="Z142">
+        <v>3.1</v>
+      </c>
+      <c r="AA142">
+        <v>3.4</v>
+      </c>
+      <c r="AB142">
+        <v>2.15</v>
+      </c>
+      <c r="AC142">
+        <v>1.02</v>
+      </c>
+      <c r="AD142">
+        <v>15</v>
+      </c>
+      <c r="AE142">
+        <v>1.22</v>
+      </c>
+      <c r="AF142">
+        <v>4.2</v>
+      </c>
+      <c r="AG142">
+        <v>1.85</v>
+      </c>
+      <c r="AH142">
+        <v>1.83</v>
+      </c>
+      <c r="AI142">
+        <v>1.57</v>
+      </c>
+      <c r="AJ142">
+        <v>2.25</v>
+      </c>
+      <c r="AK142">
+        <v>2.05</v>
+      </c>
+      <c r="AL142">
+        <v>1.2</v>
+      </c>
+      <c r="AM142">
+        <v>1.22</v>
+      </c>
+      <c r="AN142">
+        <v>1.83</v>
+      </c>
+      <c r="AO142">
+        <v>2.4</v>
+      </c>
+      <c r="AP142">
+        <v>1.71</v>
+      </c>
+      <c r="AQ142">
+        <v>2.17</v>
+      </c>
+      <c r="AR142">
+        <v>1.27</v>
+      </c>
+      <c r="AS142">
+        <v>1.09</v>
+      </c>
+      <c r="AT142">
+        <v>2.36</v>
+      </c>
+      <c r="AU142">
+        <v>6</v>
+      </c>
+      <c r="AV142">
+        <v>5</v>
+      </c>
+      <c r="AW142">
+        <v>5</v>
+      </c>
+      <c r="AX142">
+        <v>9</v>
+      </c>
+      <c r="AY142">
+        <v>12</v>
+      </c>
+      <c r="AZ142">
+        <v>20</v>
+      </c>
+      <c r="BA142">
+        <v>3</v>
+      </c>
+      <c r="BB142">
+        <v>6</v>
+      </c>
+      <c r="BC142">
+        <v>9</v>
+      </c>
+      <c r="BD142">
+        <v>2.48</v>
+      </c>
+      <c r="BE142">
+        <v>6.75</v>
+      </c>
+      <c r="BF142">
+        <v>1.57</v>
+      </c>
+      <c r="BG142">
+        <v>1.21</v>
+      </c>
+      <c r="BH142">
+        <v>3.8</v>
+      </c>
+      <c r="BI142">
+        <v>1.37</v>
+      </c>
+      <c r="BJ142">
+        <v>2.8</v>
+      </c>
+      <c r="BK142">
+        <v>1.63</v>
+      </c>
+      <c r="BL142">
+        <v>2.12</v>
+      </c>
+      <c r="BM142">
+        <v>1.98</v>
+      </c>
+      <c r="BN142">
+        <v>1.72</v>
+      </c>
+      <c r="BO142">
+        <v>2.48</v>
+      </c>
+      <c r="BP142">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="143" spans="1:68">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>7727016</v>
+      </c>
+      <c r="C143" t="s">
+        <v>68</v>
+      </c>
+      <c r="D143" t="s">
+        <v>69</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45591.35416666666</v>
+      </c>
+      <c r="F143">
+        <v>14</v>
+      </c>
+      <c r="G143" t="s">
+        <v>84</v>
+      </c>
+      <c r="H143" t="s">
+        <v>79</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>1</v>
+      </c>
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <v>1</v>
+      </c>
+      <c r="O143" t="s">
+        <v>183</v>
+      </c>
+      <c r="P143" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q143">
+        <v>2.3</v>
+      </c>
+      <c r="R143">
+        <v>2.38</v>
+      </c>
+      <c r="S143">
+        <v>4.5</v>
+      </c>
+      <c r="T143">
+        <v>1.3</v>
+      </c>
+      <c r="U143">
+        <v>3.4</v>
+      </c>
+      <c r="V143">
+        <v>2.5</v>
+      </c>
+      <c r="W143">
+        <v>1.5</v>
+      </c>
+      <c r="X143">
+        <v>6</v>
+      </c>
+      <c r="Y143">
+        <v>1.13</v>
+      </c>
+      <c r="Z143">
+        <v>1.73</v>
+      </c>
+      <c r="AA143">
+        <v>3.8</v>
+      </c>
+      <c r="AB143">
+        <v>4.33</v>
+      </c>
+      <c r="AC143">
+        <v>1.02</v>
+      </c>
+      <c r="AD143">
+        <v>15</v>
+      </c>
+      <c r="AE143">
+        <v>1.22</v>
+      </c>
+      <c r="AF143">
+        <v>4.2</v>
+      </c>
+      <c r="AG143">
+        <v>1.63</v>
+      </c>
+      <c r="AH143">
+        <v>2.1</v>
+      </c>
+      <c r="AI143">
+        <v>1.67</v>
+      </c>
+      <c r="AJ143">
+        <v>2.1</v>
+      </c>
+      <c r="AK143">
+        <v>1.22</v>
+      </c>
+      <c r="AL143">
+        <v>1.2</v>
+      </c>
+      <c r="AM143">
+        <v>2.05</v>
+      </c>
+      <c r="AN143">
+        <v>2.5</v>
+      </c>
+      <c r="AO143">
+        <v>0.67</v>
+      </c>
+      <c r="AP143">
+        <v>2.57</v>
+      </c>
+      <c r="AQ143">
+        <v>0.57</v>
+      </c>
+      <c r="AR143">
+        <v>1.29</v>
+      </c>
+      <c r="AS143">
+        <v>1.05</v>
+      </c>
+      <c r="AT143">
+        <v>2.34</v>
+      </c>
+      <c r="AU143">
+        <v>7</v>
+      </c>
+      <c r="AV143">
+        <v>5</v>
+      </c>
+      <c r="AW143">
+        <v>3</v>
+      </c>
+      <c r="AX143">
+        <v>4</v>
+      </c>
+      <c r="AY143">
+        <v>15</v>
+      </c>
+      <c r="AZ143">
+        <v>15</v>
+      </c>
+      <c r="BA143">
+        <v>4</v>
+      </c>
+      <c r="BB143">
+        <v>10</v>
+      </c>
+      <c r="BC143">
+        <v>14</v>
+      </c>
+      <c r="BD143">
+        <v>1.49</v>
+      </c>
+      <c r="BE143">
+        <v>6.75</v>
+      </c>
+      <c r="BF143">
+        <v>2.65</v>
+      </c>
+      <c r="BG143">
+        <v>1.22</v>
+      </c>
+      <c r="BH143">
+        <v>3.7</v>
+      </c>
+      <c r="BI143">
+        <v>1.4</v>
+      </c>
+      <c r="BJ143">
+        <v>2.7</v>
+      </c>
+      <c r="BK143">
+        <v>1.65</v>
+      </c>
+      <c r="BL143">
+        <v>2.08</v>
+      </c>
+      <c r="BM143">
+        <v>2</v>
+      </c>
+      <c r="BN143">
+        <v>1.7</v>
+      </c>
+      <c r="BO143">
+        <v>2.55</v>
+      </c>
+      <c r="BP143">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="144" spans="1:68">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>7727010</v>
+      </c>
+      <c r="C144" t="s">
+        <v>68</v>
+      </c>
+      <c r="D144" t="s">
+        <v>69</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45591.45833333334</v>
+      </c>
+      <c r="F144">
+        <v>14</v>
+      </c>
+      <c r="G144" t="s">
+        <v>88</v>
+      </c>
+      <c r="H144" t="s">
+        <v>78</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>1</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>1</v>
+      </c>
+      <c r="O144" t="s">
+        <v>191</v>
+      </c>
+      <c r="P144" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q144">
+        <v>3</v>
+      </c>
+      <c r="R144">
+        <v>2.2</v>
+      </c>
+      <c r="S144">
+        <v>3.5</v>
+      </c>
+      <c r="T144">
+        <v>1.36</v>
+      </c>
+      <c r="U144">
+        <v>3</v>
+      </c>
+      <c r="V144">
+        <v>2.75</v>
+      </c>
+      <c r="W144">
+        <v>1.4</v>
+      </c>
+      <c r="X144">
+        <v>7</v>
+      </c>
+      <c r="Y144">
+        <v>1.1</v>
+      </c>
+      <c r="Z144">
+        <v>2.3</v>
+      </c>
+      <c r="AA144">
+        <v>3.3</v>
+      </c>
+      <c r="AB144">
+        <v>2.95</v>
+      </c>
+      <c r="AC144">
+        <v>1.04</v>
+      </c>
+      <c r="AD144">
+        <v>11</v>
+      </c>
+      <c r="AE144">
+        <v>1.28</v>
+      </c>
+      <c r="AF144">
+        <v>3.6</v>
+      </c>
+      <c r="AG144">
+        <v>1.78</v>
+      </c>
+      <c r="AH144">
+        <v>1.9</v>
+      </c>
+      <c r="AI144">
+        <v>1.67</v>
+      </c>
+      <c r="AJ144">
+        <v>2.1</v>
+      </c>
+      <c r="AK144">
+        <v>1.36</v>
+      </c>
+      <c r="AL144">
+        <v>1.25</v>
+      </c>
+      <c r="AM144">
+        <v>1.68</v>
+      </c>
+      <c r="AN144">
+        <v>0.8</v>
+      </c>
+      <c r="AO144">
+        <v>0.5</v>
+      </c>
+      <c r="AP144">
+        <v>1.17</v>
+      </c>
+      <c r="AQ144">
+        <v>0.43</v>
+      </c>
+      <c r="AR144">
+        <v>1.31</v>
+      </c>
+      <c r="AS144">
+        <v>1.2</v>
+      </c>
+      <c r="AT144">
+        <v>2.51</v>
+      </c>
+      <c r="AU144">
+        <v>6</v>
+      </c>
+      <c r="AV144">
+        <v>6</v>
+      </c>
+      <c r="AW144">
+        <v>2</v>
+      </c>
+      <c r="AX144">
+        <v>3</v>
+      </c>
+      <c r="AY144">
+        <v>14</v>
+      </c>
+      <c r="AZ144">
+        <v>16</v>
+      </c>
+      <c r="BA144">
+        <v>4</v>
+      </c>
+      <c r="BB144">
+        <v>3</v>
+      </c>
+      <c r="BC144">
+        <v>7</v>
+      </c>
+      <c r="BD144">
+        <v>1.84</v>
+      </c>
+      <c r="BE144">
+        <v>6.4</v>
+      </c>
+      <c r="BF144">
+        <v>2.05</v>
+      </c>
+      <c r="BG144">
+        <v>1.35</v>
+      </c>
+      <c r="BH144">
+        <v>2.88</v>
+      </c>
+      <c r="BI144">
+        <v>1.61</v>
+      </c>
+      <c r="BJ144">
+        <v>2.15</v>
+      </c>
+      <c r="BK144">
+        <v>1.98</v>
+      </c>
+      <c r="BL144">
+        <v>1.72</v>
+      </c>
+      <c r="BM144">
+        <v>2.55</v>
+      </c>
+      <c r="BN144">
+        <v>1.44</v>
+      </c>
+      <c r="BO144">
+        <v>3.4</v>
+      </c>
+      <c r="BP144">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="145" spans="1:68">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>7727012</v>
+      </c>
+      <c r="C145" t="s">
+        <v>68</v>
+      </c>
+      <c r="D145" t="s">
+        <v>69</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45591.45833333334</v>
+      </c>
+      <c r="F145">
+        <v>14</v>
+      </c>
+      <c r="G145" t="s">
+        <v>90</v>
+      </c>
+      <c r="H145" t="s">
+        <v>81</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+      <c r="L145">
+        <v>2</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>2</v>
+      </c>
+      <c r="O145" t="s">
+        <v>192</v>
+      </c>
+      <c r="P145" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q145">
+        <v>2.2</v>
+      </c>
+      <c r="R145">
+        <v>2.25</v>
+      </c>
+      <c r="S145">
+        <v>5.5</v>
+      </c>
+      <c r="T145">
+        <v>1.36</v>
+      </c>
+      <c r="U145">
+        <v>3</v>
+      </c>
+      <c r="V145">
+        <v>2.63</v>
+      </c>
+      <c r="W145">
+        <v>1.44</v>
+      </c>
+      <c r="X145">
+        <v>7</v>
+      </c>
+      <c r="Y145">
+        <v>1.1</v>
+      </c>
+      <c r="Z145">
+        <v>1.65</v>
+      </c>
+      <c r="AA145">
+        <v>3.9</v>
+      </c>
+      <c r="AB145">
+        <v>4.8</v>
+      </c>
+      <c r="AC145">
+        <v>1.03</v>
+      </c>
+      <c r="AD145">
+        <v>13</v>
+      </c>
+      <c r="AE145">
+        <v>1.25</v>
+      </c>
+      <c r="AF145">
+        <v>3.75</v>
+      </c>
+      <c r="AG145">
+        <v>1.78</v>
+      </c>
+      <c r="AH145">
+        <v>1.9</v>
+      </c>
+      <c r="AI145">
+        <v>1.8</v>
+      </c>
+      <c r="AJ145">
+        <v>1.95</v>
+      </c>
+      <c r="AK145">
+        <v>1.18</v>
+      </c>
+      <c r="AL145">
+        <v>1.2</v>
+      </c>
+      <c r="AM145">
+        <v>2.25</v>
+      </c>
+      <c r="AN145">
+        <v>2</v>
+      </c>
+      <c r="AO145">
+        <v>1.67</v>
+      </c>
+      <c r="AP145">
+        <v>2.14</v>
+      </c>
+      <c r="AQ145">
+        <v>1.43</v>
+      </c>
+      <c r="AR145">
+        <v>1.46</v>
+      </c>
+      <c r="AS145">
+        <v>0.97</v>
+      </c>
+      <c r="AT145">
+        <v>2.43</v>
+      </c>
+      <c r="AU145">
+        <v>5</v>
+      </c>
+      <c r="AV145">
+        <v>2</v>
+      </c>
+      <c r="AW145">
+        <v>1</v>
+      </c>
+      <c r="AX145">
+        <v>2</v>
+      </c>
+      <c r="AY145">
+        <v>9</v>
+      </c>
+      <c r="AZ145">
+        <v>5</v>
+      </c>
+      <c r="BA145">
+        <v>7</v>
+      </c>
+      <c r="BB145">
+        <v>4</v>
+      </c>
+      <c r="BC145">
+        <v>11</v>
+      </c>
+      <c r="BD145">
+        <v>1.5</v>
+      </c>
+      <c r="BE145">
+        <v>6.75</v>
+      </c>
+      <c r="BF145">
+        <v>2.65</v>
+      </c>
+      <c r="BG145">
+        <v>1.17</v>
+      </c>
+      <c r="BH145">
+        <v>4.3</v>
+      </c>
+      <c r="BI145">
+        <v>1.3</v>
+      </c>
+      <c r="BJ145">
+        <v>3.15</v>
+      </c>
+      <c r="BK145">
+        <v>1.52</v>
+      </c>
+      <c r="BL145">
+        <v>2.33</v>
+      </c>
+      <c r="BM145">
+        <v>1.83</v>
+      </c>
+      <c r="BN145">
+        <v>1.85</v>
+      </c>
+      <c r="BO145">
+        <v>2.25</v>
+      </c>
+      <c r="BP145">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="146" spans="1:68">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>7727015</v>
+      </c>
+      <c r="C146" t="s">
+        <v>68</v>
+      </c>
+      <c r="D146" t="s">
+        <v>69</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45591.45833333334</v>
+      </c>
+      <c r="F146">
+        <v>14</v>
+      </c>
+      <c r="G146" t="s">
+        <v>87</v>
+      </c>
+      <c r="H146" t="s">
+        <v>77</v>
+      </c>
+      <c r="I146">
+        <v>2</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>2</v>
+      </c>
+      <c r="L146">
+        <v>3</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>3</v>
+      </c>
+      <c r="O146" t="s">
+        <v>193</v>
+      </c>
+      <c r="P146" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q146">
+        <v>2.6</v>
+      </c>
+      <c r="R146">
+        <v>2.3</v>
+      </c>
+      <c r="S146">
+        <v>4</v>
+      </c>
+      <c r="T146">
+        <v>1.33</v>
+      </c>
+      <c r="U146">
+        <v>3.25</v>
+      </c>
+      <c r="V146">
+        <v>2.5</v>
+      </c>
+      <c r="W146">
+        <v>1.5</v>
+      </c>
+      <c r="X146">
+        <v>6.5</v>
+      </c>
+      <c r="Y146">
+        <v>1.11</v>
+      </c>
+      <c r="Z146">
+        <v>1.98</v>
+      </c>
+      <c r="AA146">
+        <v>3.5</v>
+      </c>
+      <c r="AB146">
+        <v>3.6</v>
+      </c>
+      <c r="AC146">
+        <v>1.03</v>
+      </c>
+      <c r="AD146">
+        <v>13</v>
+      </c>
+      <c r="AE146">
+        <v>1.25</v>
+      </c>
+      <c r="AF146">
+        <v>3.75</v>
+      </c>
+      <c r="AG146">
+        <v>1.68</v>
+      </c>
+      <c r="AH146">
+        <v>2.05</v>
+      </c>
+      <c r="AI146">
+        <v>1.62</v>
+      </c>
+      <c r="AJ146">
+        <v>2.2</v>
+      </c>
+      <c r="AK146">
+        <v>1.33</v>
+      </c>
+      <c r="AL146">
+        <v>1.22</v>
+      </c>
+      <c r="AM146">
+        <v>1.78</v>
+      </c>
+      <c r="AN146">
+        <v>1.17</v>
+      </c>
+      <c r="AO146">
+        <v>0.6</v>
+      </c>
+      <c r="AP146">
+        <v>1.43</v>
+      </c>
+      <c r="AQ146">
+        <v>0.5</v>
+      </c>
+      <c r="AR146">
+        <v>1.26</v>
+      </c>
+      <c r="AS146">
+        <v>1.5</v>
+      </c>
+      <c r="AT146">
+        <v>2.76</v>
+      </c>
+      <c r="AU146">
+        <v>5</v>
+      </c>
+      <c r="AV146">
+        <v>4</v>
+      </c>
+      <c r="AW146">
+        <v>5</v>
+      </c>
+      <c r="AX146">
+        <v>4</v>
+      </c>
+      <c r="AY146">
+        <v>13</v>
+      </c>
+      <c r="AZ146">
+        <v>14</v>
+      </c>
+      <c r="BA146">
+        <v>7</v>
+      </c>
+      <c r="BB146">
+        <v>9</v>
+      </c>
+      <c r="BC146">
+        <v>16</v>
+      </c>
+      <c r="BD146">
+        <v>1.58</v>
+      </c>
+      <c r="BE146">
+        <v>6.25</v>
+      </c>
+      <c r="BF146">
+        <v>2.48</v>
+      </c>
+      <c r="BG146">
+        <v>1.33</v>
+      </c>
+      <c r="BH146">
+        <v>2.95</v>
+      </c>
+      <c r="BI146">
+        <v>1.56</v>
+      </c>
+      <c r="BJ146">
+        <v>2.23</v>
+      </c>
+      <c r="BK146">
+        <v>1.91</v>
+      </c>
+      <c r="BL146">
+        <v>1.77</v>
+      </c>
+      <c r="BM146">
+        <v>2.4</v>
+      </c>
+      <c r="BN146">
+        <v>1.49</v>
+      </c>
+      <c r="BO146">
+        <v>3.15</v>
+      </c>
+      <c r="BP146">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:68">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>7727017</v>
+      </c>
+      <c r="C147" t="s">
+        <v>68</v>
+      </c>
+      <c r="D147" t="s">
+        <v>69</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45591.45833333334</v>
+      </c>
+      <c r="F147">
+        <v>0</v>
+      </c>
+      <c r="G147" t="s">
+        <v>85</v>
+      </c>
+      <c r="H147" t="s">
+        <v>76</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>2</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <v>2</v>
+      </c>
+      <c r="O147" t="s">
+        <v>194</v>
+      </c>
+      <c r="P147" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q147">
+        <v>2.63</v>
+      </c>
+      <c r="R147">
+        <v>2.1</v>
+      </c>
+      <c r="S147">
+        <v>4.5</v>
+      </c>
+      <c r="T147">
+        <v>1.44</v>
+      </c>
+      <c r="U147">
+        <v>2.63</v>
+      </c>
+      <c r="V147">
+        <v>3.25</v>
+      </c>
+      <c r="W147">
+        <v>1.33</v>
+      </c>
+      <c r="X147">
+        <v>9</v>
+      </c>
+      <c r="Y147">
+        <v>1.07</v>
+      </c>
+      <c r="Z147">
+        <v>1.93</v>
+      </c>
+      <c r="AA147">
+        <v>3.4</v>
+      </c>
+      <c r="AB147">
+        <v>3.9</v>
+      </c>
+      <c r="AC147">
+        <v>1.08</v>
+      </c>
+      <c r="AD147">
+        <v>8.5</v>
+      </c>
+      <c r="AE147">
+        <v>1.53</v>
+      </c>
+      <c r="AF147">
+        <v>2.37</v>
+      </c>
+      <c r="AG147">
+        <v>2.05</v>
+      </c>
+      <c r="AH147">
+        <v>1.68</v>
+      </c>
+      <c r="AI147">
+        <v>1.95</v>
+      </c>
+      <c r="AJ147">
+        <v>1.8</v>
+      </c>
+      <c r="AK147">
+        <v>1.3</v>
+      </c>
+      <c r="AL147">
+        <v>1.28</v>
+      </c>
+      <c r="AM147">
+        <v>1.72</v>
+      </c>
+      <c r="AN147">
+        <v>1.33</v>
+      </c>
+      <c r="AO147">
+        <v>0.83</v>
+      </c>
+      <c r="AP147">
+        <v>1.57</v>
+      </c>
+      <c r="AQ147">
+        <v>0.71</v>
+      </c>
+      <c r="AR147">
+        <v>1.62</v>
+      </c>
+      <c r="AS147">
+        <v>1.12</v>
+      </c>
+      <c r="AT147">
+        <v>2.74</v>
+      </c>
+      <c r="AU147">
+        <v>6</v>
+      </c>
+      <c r="AV147">
+        <v>2</v>
+      </c>
+      <c r="AW147">
+        <v>4</v>
+      </c>
+      <c r="AX147">
+        <v>2</v>
+      </c>
+      <c r="AY147">
+        <v>14</v>
+      </c>
+      <c r="AZ147">
+        <v>6</v>
+      </c>
+      <c r="BA147">
+        <v>6</v>
+      </c>
+      <c r="BB147">
+        <v>3</v>
+      </c>
+      <c r="BC147">
+        <v>9</v>
+      </c>
+      <c r="BD147">
+        <v>1.63</v>
+      </c>
+      <c r="BE147">
+        <v>6.4</v>
+      </c>
+      <c r="BF147">
+        <v>2.4</v>
+      </c>
+      <c r="BG147">
+        <v>1.27</v>
+      </c>
+      <c r="BH147">
+        <v>3.3</v>
+      </c>
+      <c r="BI147">
+        <v>1.47</v>
+      </c>
+      <c r="BJ147">
+        <v>2.48</v>
+      </c>
+      <c r="BK147">
+        <v>1.74</v>
+      </c>
+      <c r="BL147">
+        <v>1.95</v>
+      </c>
+      <c r="BM147">
+        <v>2.15</v>
+      </c>
+      <c r="BN147">
+        <v>1.61</v>
+      </c>
+      <c r="BO147">
+        <v>2.7</v>
+      </c>
+      <c r="BP147">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="148" spans="1:68">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>7727018</v>
+      </c>
+      <c r="C148" t="s">
+        <v>68</v>
+      </c>
+      <c r="D148" t="s">
+        <v>69</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45591.45833333334</v>
+      </c>
+      <c r="F148">
+        <v>14</v>
+      </c>
+      <c r="G148" t="s">
+        <v>82</v>
+      </c>
+      <c r="H148" t="s">
+        <v>70</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>1</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>2</v>
+      </c>
+      <c r="N148">
+        <v>2</v>
+      </c>
+      <c r="O148" t="s">
+        <v>96</v>
+      </c>
+      <c r="P148" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q148">
+        <v>4</v>
+      </c>
+      <c r="R148">
+        <v>2.3</v>
+      </c>
+      <c r="S148">
+        <v>2.5</v>
+      </c>
+      <c r="T148">
+        <v>1.33</v>
+      </c>
+      <c r="U148">
+        <v>3.25</v>
+      </c>
+      <c r="V148">
+        <v>2.63</v>
+      </c>
+      <c r="W148">
+        <v>1.44</v>
+      </c>
+      <c r="X148">
+        <v>6.5</v>
+      </c>
+      <c r="Y148">
+        <v>1.11</v>
+      </c>
+      <c r="Z148">
+        <v>3.8</v>
+      </c>
+      <c r="AA148">
+        <v>3.4</v>
+      </c>
+      <c r="AB148">
+        <v>1.93</v>
+      </c>
+      <c r="AC148">
+        <v>1.03</v>
+      </c>
+      <c r="AD148">
+        <v>13</v>
+      </c>
+      <c r="AE148">
+        <v>1.25</v>
+      </c>
+      <c r="AF148">
+        <v>3.75</v>
+      </c>
+      <c r="AG148">
+        <v>1.71</v>
+      </c>
+      <c r="AH148">
+        <v>1.98</v>
+      </c>
+      <c r="AI148">
+        <v>1.62</v>
+      </c>
+      <c r="AJ148">
+        <v>2.2</v>
+      </c>
+      <c r="AK148">
+        <v>1.78</v>
+      </c>
+      <c r="AL148">
+        <v>1.25</v>
+      </c>
+      <c r="AM148">
+        <v>1.3</v>
+      </c>
+      <c r="AN148">
+        <v>0.67</v>
+      </c>
+      <c r="AO148">
+        <v>2</v>
+      </c>
+      <c r="AP148">
+        <v>0.57</v>
+      </c>
+      <c r="AQ148">
+        <v>2.14</v>
+      </c>
+      <c r="AR148">
+        <v>1.04</v>
+      </c>
+      <c r="AS148">
+        <v>1.11</v>
+      </c>
+      <c r="AT148">
+        <v>2.15</v>
+      </c>
+      <c r="AU148">
+        <v>2</v>
+      </c>
+      <c r="AV148">
+        <v>7</v>
+      </c>
+      <c r="AW148">
+        <v>2</v>
+      </c>
+      <c r="AX148">
+        <v>2</v>
+      </c>
+      <c r="AY148">
+        <v>4</v>
+      </c>
+      <c r="AZ148">
+        <v>9</v>
+      </c>
+      <c r="BA148">
+        <v>4</v>
+      </c>
+      <c r="BB148">
+        <v>8</v>
+      </c>
+      <c r="BC148">
+        <v>12</v>
+      </c>
+      <c r="BD148">
+        <v>2.08</v>
+      </c>
+      <c r="BE148">
+        <v>6.4</v>
+      </c>
+      <c r="BF148">
+        <v>1.79</v>
+      </c>
+      <c r="BG148">
+        <v>1.23</v>
+      </c>
+      <c r="BH148">
+        <v>3.65</v>
+      </c>
+      <c r="BI148">
+        <v>1.4</v>
+      </c>
+      <c r="BJ148">
+        <v>2.7</v>
+      </c>
+      <c r="BK148">
+        <v>1.65</v>
+      </c>
+      <c r="BL148">
+        <v>2.08</v>
+      </c>
+      <c r="BM148">
+        <v>2</v>
+      </c>
+      <c r="BN148">
+        <v>1.7</v>
+      </c>
+      <c r="BO148">
+        <v>2.55</v>
+      </c>
+      <c r="BP148">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="149" spans="1:68">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>7727019</v>
+      </c>
+      <c r="C149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D149" t="s">
+        <v>69</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45591.45833333334</v>
+      </c>
+      <c r="F149">
+        <v>14</v>
+      </c>
+      <c r="G149" t="s">
+        <v>86</v>
+      </c>
+      <c r="H149" t="s">
+        <v>75</v>
+      </c>
+      <c r="I149">
+        <v>2</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>2</v>
+      </c>
+      <c r="L149">
+        <v>3</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>3</v>
+      </c>
+      <c r="O149" t="s">
+        <v>195</v>
+      </c>
+      <c r="P149" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q149">
+        <v>2.5</v>
+      </c>
+      <c r="R149">
+        <v>2.3</v>
+      </c>
+      <c r="S149">
+        <v>4</v>
+      </c>
+      <c r="T149">
+        <v>1.33</v>
+      </c>
+      <c r="U149">
+        <v>3.25</v>
+      </c>
+      <c r="V149">
+        <v>2.5</v>
+      </c>
+      <c r="W149">
+        <v>1.5</v>
+      </c>
+      <c r="X149">
+        <v>6</v>
+      </c>
+      <c r="Y149">
+        <v>1.13</v>
+      </c>
+      <c r="Z149">
+        <v>1.93</v>
+      </c>
+      <c r="AA149">
+        <v>3.4</v>
+      </c>
+      <c r="AB149">
+        <v>3.8</v>
+      </c>
+      <c r="AC149">
+        <v>1.05</v>
+      </c>
+      <c r="AD149">
+        <v>10</v>
+      </c>
+      <c r="AE149">
+        <v>1.33</v>
+      </c>
+      <c r="AF149">
+        <v>3.3</v>
+      </c>
+      <c r="AG149">
+        <v>1.66</v>
+      </c>
+      <c r="AH149">
+        <v>2.05</v>
+      </c>
+      <c r="AI149">
+        <v>1.62</v>
+      </c>
+      <c r="AJ149">
+        <v>2.2</v>
+      </c>
+      <c r="AK149">
+        <v>1.25</v>
+      </c>
+      <c r="AL149">
+        <v>1.25</v>
+      </c>
+      <c r="AM149">
+        <v>1.87</v>
+      </c>
+      <c r="AN149">
+        <v>2.4</v>
+      </c>
+      <c r="AO149">
+        <v>1</v>
+      </c>
+      <c r="AP149">
+        <v>2.5</v>
+      </c>
+      <c r="AQ149">
+        <v>0.86</v>
+      </c>
+      <c r="AR149">
+        <v>1.48</v>
+      </c>
+      <c r="AS149">
+        <v>0.98</v>
+      </c>
+      <c r="AT149">
+        <v>2.46</v>
+      </c>
+      <c r="AU149">
+        <v>6</v>
+      </c>
+      <c r="AV149">
+        <v>3</v>
+      </c>
+      <c r="AW149">
+        <v>3</v>
+      </c>
+      <c r="AX149">
+        <v>1</v>
+      </c>
+      <c r="AY149">
+        <v>15</v>
+      </c>
+      <c r="AZ149">
+        <v>5</v>
+      </c>
+      <c r="BA149">
+        <v>2</v>
+      </c>
+      <c r="BB149">
+        <v>6</v>
+      </c>
+      <c r="BC149">
+        <v>8</v>
+      </c>
+      <c r="BD149">
+        <v>1.65</v>
+      </c>
+      <c r="BE149">
+        <v>6.4</v>
+      </c>
+      <c r="BF149">
+        <v>2.33</v>
+      </c>
+      <c r="BG149">
+        <v>1.26</v>
+      </c>
+      <c r="BH149">
+        <v>3.4</v>
+      </c>
+      <c r="BI149">
+        <v>1.46</v>
+      </c>
+      <c r="BJ149">
+        <v>2.5</v>
+      </c>
+      <c r="BK149">
+        <v>1.74</v>
+      </c>
+      <c r="BL149">
+        <v>1.96</v>
+      </c>
+      <c r="BM149">
+        <v>2.17</v>
+      </c>
+      <c r="BN149">
+        <v>1.6</v>
+      </c>
+      <c r="BO149">
+        <v>2.8</v>
+      </c>
+      <c r="BP149">
+        <v>1.37</v>
+      </c>
+    </row>
+    <row r="150" spans="1:68">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>7727009</v>
+      </c>
+      <c r="C150" t="s">
+        <v>68</v>
+      </c>
+      <c r="D150" t="s">
+        <v>69</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45591.45833333334</v>
+      </c>
+      <c r="F150">
+        <v>14</v>
+      </c>
+      <c r="G150" t="s">
+        <v>93</v>
+      </c>
+      <c r="H150" t="s">
+        <v>74</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>1</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <v>1</v>
+      </c>
+      <c r="O150" t="s">
+        <v>196</v>
+      </c>
+      <c r="P150" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q150">
+        <v>2.2</v>
+      </c>
+      <c r="R150">
+        <v>2.5</v>
+      </c>
+      <c r="S150">
+        <v>4.5</v>
+      </c>
+      <c r="T150">
+        <v>1.29</v>
+      </c>
+      <c r="U150">
+        <v>3.5</v>
+      </c>
+      <c r="V150">
+        <v>2.25</v>
+      </c>
+      <c r="W150">
+        <v>1.57</v>
+      </c>
+      <c r="X150">
+        <v>5.5</v>
+      </c>
+      <c r="Y150">
+        <v>1.14</v>
+      </c>
+      <c r="Z150">
+        <v>1.66</v>
+      </c>
+      <c r="AA150">
+        <v>4</v>
+      </c>
+      <c r="AB150">
+        <v>4.6</v>
+      </c>
+      <c r="AC150">
+        <v>1.02</v>
+      </c>
+      <c r="AD150">
+        <v>19</v>
+      </c>
+      <c r="AE150">
+        <v>1.16</v>
+      </c>
+      <c r="AF150">
+        <v>5</v>
+      </c>
+      <c r="AG150">
+        <v>1.53</v>
+      </c>
+      <c r="AH150">
+        <v>2.3</v>
+      </c>
+      <c r="AI150">
+        <v>1.57</v>
+      </c>
+      <c r="AJ150">
+        <v>2.25</v>
+      </c>
+      <c r="AK150">
+        <v>1.2</v>
+      </c>
+      <c r="AL150">
+        <v>1.18</v>
+      </c>
+      <c r="AM150">
+        <v>2.2</v>
+      </c>
+      <c r="AN150">
+        <v>1.33</v>
+      </c>
+      <c r="AO150">
+        <v>1.17</v>
+      </c>
+      <c r="AP150">
+        <v>1.57</v>
+      </c>
+      <c r="AQ150">
+        <v>1</v>
+      </c>
+      <c r="AR150">
+        <v>1.5</v>
+      </c>
+      <c r="AS150">
+        <v>1.24</v>
+      </c>
+      <c r="AT150">
+        <v>2.74</v>
+      </c>
+      <c r="AU150">
+        <v>12</v>
+      </c>
+      <c r="AV150">
+        <v>3</v>
+      </c>
+      <c r="AW150">
+        <v>7</v>
+      </c>
+      <c r="AX150">
+        <v>3</v>
+      </c>
+      <c r="AY150">
+        <v>26</v>
+      </c>
+      <c r="AZ150">
+        <v>8</v>
+      </c>
+      <c r="BA150">
+        <v>15</v>
+      </c>
+      <c r="BB150">
+        <v>3</v>
+      </c>
+      <c r="BC150">
+        <v>18</v>
+      </c>
+      <c r="BD150">
+        <v>1.5</v>
+      </c>
+      <c r="BE150">
+        <v>6.75</v>
+      </c>
+      <c r="BF150">
+        <v>2.65</v>
+      </c>
+      <c r="BG150">
+        <v>1.19</v>
+      </c>
+      <c r="BH150">
+        <v>4.1</v>
+      </c>
+      <c r="BI150">
+        <v>1.34</v>
+      </c>
+      <c r="BJ150">
+        <v>2.9</v>
+      </c>
+      <c r="BK150">
+        <v>1.56</v>
+      </c>
+      <c r="BL150">
+        <v>2.23</v>
+      </c>
+      <c r="BM150">
+        <v>1.88</v>
+      </c>
+      <c r="BN150">
+        <v>1.8</v>
+      </c>
+      <c r="BO150">
+        <v>2.33</v>
+      </c>
+      <c r="BP150">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:68">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>7727013</v>
+      </c>
+      <c r="C151" t="s">
+        <v>68</v>
+      </c>
+      <c r="D151" t="s">
+        <v>69</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45591.45833333334</v>
+      </c>
+      <c r="F151">
+        <v>14</v>
+      </c>
+      <c r="G151" t="s">
+        <v>89</v>
+      </c>
+      <c r="H151" t="s">
+        <v>73</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151">
+        <v>1</v>
+      </c>
+      <c r="K151">
+        <v>2</v>
+      </c>
+      <c r="L151">
+        <v>2</v>
+      </c>
+      <c r="M151">
+        <v>1</v>
+      </c>
+      <c r="N151">
+        <v>3</v>
+      </c>
+      <c r="O151" t="s">
+        <v>197</v>
+      </c>
+      <c r="P151" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q151">
+        <v>3.2</v>
+      </c>
+      <c r="R151">
+        <v>2.2</v>
+      </c>
+      <c r="S151">
+        <v>3.25</v>
+      </c>
+      <c r="T151">
+        <v>1.4</v>
+      </c>
+      <c r="U151">
+        <v>2.75</v>
+      </c>
+      <c r="V151">
+        <v>2.75</v>
+      </c>
+      <c r="W151">
+        <v>1.4</v>
+      </c>
+      <c r="X151">
+        <v>8</v>
+      </c>
+      <c r="Y151">
+        <v>1.08</v>
+      </c>
+      <c r="Z151">
+        <v>2.6</v>
+      </c>
+      <c r="AA151">
+        <v>3.25</v>
+      </c>
+      <c r="AB151">
+        <v>2.6</v>
+      </c>
+      <c r="AC151">
+        <v>1.05</v>
+      </c>
+      <c r="AD151">
+        <v>10</v>
+      </c>
+      <c r="AE151">
+        <v>1.33</v>
+      </c>
+      <c r="AF151">
+        <v>3.3</v>
+      </c>
+      <c r="AG151">
+        <v>1.83</v>
+      </c>
+      <c r="AH151">
+        <v>1.85</v>
+      </c>
+      <c r="AI151">
+        <v>1.7</v>
+      </c>
+      <c r="AJ151">
+        <v>2.05</v>
+      </c>
+      <c r="AK151">
+        <v>1.45</v>
+      </c>
+      <c r="AL151">
+        <v>1.28</v>
+      </c>
+      <c r="AM151">
+        <v>1.52</v>
+      </c>
+      <c r="AN151">
+        <v>1.4</v>
+      </c>
+      <c r="AO151">
+        <v>1.67</v>
+      </c>
+      <c r="AP151">
+        <v>1.67</v>
+      </c>
+      <c r="AQ151">
+        <v>1.43</v>
+      </c>
+      <c r="AR151">
+        <v>1.33</v>
+      </c>
+      <c r="AS151">
+        <v>1.33</v>
+      </c>
+      <c r="AT151">
+        <v>2.66</v>
+      </c>
+      <c r="AU151">
+        <v>6</v>
+      </c>
+      <c r="AV151">
+        <v>3</v>
+      </c>
+      <c r="AW151">
+        <v>5</v>
+      </c>
+      <c r="AX151">
+        <v>2</v>
+      </c>
+      <c r="AY151">
+        <v>13</v>
+      </c>
+      <c r="AZ151">
+        <v>7</v>
+      </c>
+      <c r="BA151">
+        <v>11</v>
+      </c>
+      <c r="BB151">
+        <v>4</v>
+      </c>
+      <c r="BC151">
+        <v>15</v>
+      </c>
+      <c r="BD151">
+        <v>1.9</v>
+      </c>
+      <c r="BE151">
+        <v>6.4</v>
+      </c>
+      <c r="BF151">
+        <v>1.98</v>
+      </c>
+      <c r="BG151">
+        <v>1.3</v>
+      </c>
+      <c r="BH151">
+        <v>3.05</v>
+      </c>
+      <c r="BI151">
+        <v>1.55</v>
+      </c>
+      <c r="BJ151">
+        <v>2.25</v>
+      </c>
+      <c r="BK151">
+        <v>1.9</v>
+      </c>
+      <c r="BL151">
+        <v>1.79</v>
+      </c>
+      <c r="BM151">
+        <v>2.4</v>
+      </c>
+      <c r="BN151">
+        <v>1.49</v>
+      </c>
+      <c r="BO151">
+        <v>3.15</v>
+      </c>
+      <c r="BP151">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:68">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>7727011</v>
+      </c>
+      <c r="C152" t="s">
+        <v>68</v>
+      </c>
+      <c r="D152" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45591.45833333334</v>
+      </c>
+      <c r="F152">
+        <v>14</v>
+      </c>
+      <c r="G152" t="s">
+        <v>83</v>
+      </c>
+      <c r="H152" t="s">
+        <v>71</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152">
+        <v>1</v>
+      </c>
+      <c r="K152">
+        <v>2</v>
+      </c>
+      <c r="L152">
+        <v>2</v>
+      </c>
+      <c r="M152">
+        <v>2</v>
+      </c>
+      <c r="N152">
+        <v>4</v>
+      </c>
+      <c r="O152" t="s">
+        <v>198</v>
+      </c>
+      <c r="P152" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q152">
+        <v>3.25</v>
+      </c>
+      <c r="R152">
+        <v>2.1</v>
+      </c>
+      <c r="S152">
+        <v>3.4</v>
+      </c>
+      <c r="T152">
+        <v>1.44</v>
+      </c>
+      <c r="U152">
+        <v>2.63</v>
+      </c>
+      <c r="V152">
+        <v>3</v>
+      </c>
+      <c r="W152">
+        <v>1.36</v>
+      </c>
+      <c r="X152">
+        <v>9</v>
+      </c>
+      <c r="Y152">
+        <v>1.07</v>
+      </c>
+      <c r="Z152">
+        <v>2.6</v>
+      </c>
+      <c r="AA152">
+        <v>3.25</v>
+      </c>
+      <c r="AB152">
+        <v>2.6</v>
+      </c>
+      <c r="AC152">
+        <v>1.07</v>
+      </c>
+      <c r="AD152">
+        <v>9</v>
+      </c>
+      <c r="AE152">
+        <v>1.38</v>
+      </c>
+      <c r="AF152">
+        <v>3</v>
+      </c>
+      <c r="AG152">
+        <v>1.95</v>
+      </c>
+      <c r="AH152">
+        <v>1.75</v>
+      </c>
+      <c r="AI152">
+        <v>1.8</v>
+      </c>
+      <c r="AJ152">
+        <v>1.95</v>
+      </c>
+      <c r="AK152">
+        <v>1.42</v>
+      </c>
+      <c r="AL152">
+        <v>1.3</v>
+      </c>
+      <c r="AM152">
+        <v>1.55</v>
+      </c>
+      <c r="AN152">
+        <v>1.83</v>
+      </c>
+      <c r="AO152">
+        <v>1.33</v>
+      </c>
+      <c r="AP152">
+        <v>1.71</v>
+      </c>
+      <c r="AQ152">
+        <v>1.29</v>
+      </c>
+      <c r="AR152">
+        <v>1.28</v>
+      </c>
+      <c r="AS152">
+        <v>1.03</v>
+      </c>
+      <c r="AT152">
+        <v>2.31</v>
+      </c>
+      <c r="AU152">
+        <v>8</v>
+      </c>
+      <c r="AV152">
+        <v>3</v>
+      </c>
+      <c r="AW152">
+        <v>8</v>
+      </c>
+      <c r="AX152">
+        <v>8</v>
+      </c>
+      <c r="AY152">
+        <v>20</v>
+      </c>
+      <c r="AZ152">
+        <v>15</v>
+      </c>
+      <c r="BA152">
+        <v>6</v>
+      </c>
+      <c r="BB152">
+        <v>2</v>
+      </c>
+      <c r="BC152">
+        <v>8</v>
+      </c>
+      <c r="BD152">
+        <v>2.02</v>
+      </c>
+      <c r="BE152">
+        <v>6.4</v>
+      </c>
+      <c r="BF152">
+        <v>1.86</v>
+      </c>
+      <c r="BG152">
+        <v>1.24</v>
+      </c>
+      <c r="BH152">
+        <v>3.55</v>
+      </c>
+      <c r="BI152">
+        <v>1.41</v>
+      </c>
+      <c r="BJ152">
+        <v>2.63</v>
+      </c>
+      <c r="BK152">
+        <v>1.7</v>
+      </c>
+      <c r="BL152">
+        <v>2.02</v>
+      </c>
+      <c r="BM152">
+        <v>2.08</v>
+      </c>
+      <c r="BN152">
+        <v>1.65</v>
+      </c>
+      <c r="BO152">
+        <v>2.65</v>
+      </c>
+      <c r="BP152">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -30260,7 +30260,7 @@
         <v>69</v>
       </c>
       <c r="E142" s="2">
-        <v>45591.35416666666</v>
+        <v>45590.875</v>
       </c>
       <c r="F142">
         <v>0</v>
@@ -30466,7 +30466,7 @@
         <v>69</v>
       </c>
       <c r="E143" s="2">
-        <v>45591.35416666666</v>
+        <v>45590.875</v>
       </c>
       <c r="F143">
         <v>14</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -826,7 +826,7 @@
     <t>['31', '90']</t>
   </si>
   <si>
-    <t>['45+2', '48']</t>
+    <t>['45+2', '47']</t>
   </si>
   <si>
     <t>['9']</t>
@@ -27520,13 +27520,13 @@
         <v>9</v>
       </c>
       <c r="BA128">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BB128">
         <v>4</v>
       </c>
       <c r="BC128">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BD128">
         <v>1.29</v>
@@ -30260,10 +30260,10 @@
         <v>69</v>
       </c>
       <c r="E142" s="2">
-        <v>45590.875</v>
+        <v>45591.35416666666</v>
       </c>
       <c r="F142">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G142" t="s">
         <v>92</v>
@@ -30466,7 +30466,7 @@
         <v>69</v>
       </c>
       <c r="E143" s="2">
-        <v>45590.875</v>
+        <v>45591.35416666666</v>
       </c>
       <c r="F143">
         <v>14</v>
@@ -31228,13 +31228,13 @@
         <v>14</v>
       </c>
       <c r="BA146">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB146">
         <v>9</v>
       </c>
       <c r="BC146">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BD146">
         <v>1.58</v>
@@ -31293,7 +31293,7 @@
         <v>45591.45833333334</v>
       </c>
       <c r="F147">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G147" t="s">
         <v>85</v>
@@ -31499,7 +31499,7 @@
         <v>45591.45833333334</v>
       </c>
       <c r="F148">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G148" t="s">
         <v>82</v>
@@ -32117,7 +32117,7 @@
         <v>45591.45833333334</v>
       </c>
       <c r="F151">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G151" t="s">
         <v>89</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="275">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -613,6 +613,9 @@
     <t>['23', '90+7']</t>
   </si>
   <si>
+    <t>['45+1', '90+2']</t>
+  </si>
+  <si>
     <t>['13', '18']</t>
   </si>
   <si>
@@ -833,6 +836,9 @@
   </si>
   <si>
     <t>['16', '72']</t>
+  </si>
+  <si>
+    <t>['20', '41']</t>
   </si>
 </sst>
 </file>
@@ -1194,7 +1200,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP152"/>
+  <dimension ref="A1:BP153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1453,7 +1459,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1865,7 +1871,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2277,7 +2283,7 @@
         <v>96</v>
       </c>
       <c r="P6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2483,7 +2489,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -3101,7 +3107,7 @@
         <v>101</v>
       </c>
       <c r="P10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3513,7 +3519,7 @@
         <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q12">
         <v>2.1</v>
@@ -3925,7 +3931,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4418,7 +4424,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ16">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4749,7 +4755,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4955,7 +4961,7 @@
         <v>108</v>
       </c>
       <c r="P19" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q19">
         <v>3.25</v>
@@ -5161,7 +5167,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5367,7 +5373,7 @@
         <v>109</v>
       </c>
       <c r="P21" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5573,7 +5579,7 @@
         <v>110</v>
       </c>
       <c r="P22" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -5779,7 +5785,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q23">
         <v>2.75</v>
@@ -5857,7 +5863,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ23">
         <v>1.43</v>
@@ -5985,7 +5991,7 @@
         <v>111</v>
       </c>
       <c r="P24" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -7427,7 +7433,7 @@
         <v>116</v>
       </c>
       <c r="P31" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7633,7 +7639,7 @@
         <v>117</v>
       </c>
       <c r="P32" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q32">
         <v>4.33</v>
@@ -8045,7 +8051,7 @@
         <v>119</v>
       </c>
       <c r="P34" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -8457,7 +8463,7 @@
         <v>121</v>
       </c>
       <c r="P36" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q36">
         <v>4.5</v>
@@ -8663,7 +8669,7 @@
         <v>122</v>
       </c>
       <c r="P37" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q37">
         <v>2.2</v>
@@ -9075,7 +9081,7 @@
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9153,7 +9159,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ39">
         <v>1.83</v>
@@ -9281,7 +9287,7 @@
         <v>96</v>
       </c>
       <c r="P40" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q40">
         <v>2.05</v>
@@ -9693,7 +9699,7 @@
         <v>96</v>
       </c>
       <c r="P42" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q42">
         <v>3.6</v>
@@ -9899,7 +9905,7 @@
         <v>126</v>
       </c>
       <c r="P43" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10311,7 +10317,7 @@
         <v>96</v>
       </c>
       <c r="P45" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -11216,7 +11222,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ49">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR49">
         <v>1.57</v>
@@ -11547,7 +11553,7 @@
         <v>131</v>
       </c>
       <c r="P51" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q51">
         <v>2.3</v>
@@ -12165,7 +12171,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q54">
         <v>3.5</v>
@@ -12783,7 +12789,7 @@
         <v>135</v>
       </c>
       <c r="P57" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q57">
         <v>2.2</v>
@@ -12989,7 +12995,7 @@
         <v>96</v>
       </c>
       <c r="P58" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13195,7 +13201,7 @@
         <v>136</v>
       </c>
       <c r="P59" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13401,7 +13407,7 @@
         <v>137</v>
       </c>
       <c r="P60" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q60">
         <v>4.5</v>
@@ -13607,7 +13613,7 @@
         <v>96</v>
       </c>
       <c r="P61" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -13688,7 +13694,7 @@
         <v>2</v>
       </c>
       <c r="AQ61">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR61">
         <v>1.3</v>
@@ -13891,7 +13897,7 @@
         <v>1.5</v>
       </c>
       <c r="AP62">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ62">
         <v>1.43</v>
@@ -14019,7 +14025,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q63">
         <v>2.88</v>
@@ -14225,7 +14231,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q64">
         <v>2.5</v>
@@ -14718,7 +14724,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ66">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR66">
         <v>1.83</v>
@@ -14843,7 +14849,7 @@
         <v>141</v>
       </c>
       <c r="P67" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q67">
         <v>2.4</v>
@@ -15049,7 +15055,7 @@
         <v>96</v>
       </c>
       <c r="P68" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q68">
         <v>3.75</v>
@@ -15255,7 +15261,7 @@
         <v>142</v>
       </c>
       <c r="P69" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q69">
         <v>2.05</v>
@@ -15461,7 +15467,7 @@
         <v>143</v>
       </c>
       <c r="P70" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q70">
         <v>2.3</v>
@@ -15667,7 +15673,7 @@
         <v>144</v>
       </c>
       <c r="P71" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q71">
         <v>1.83</v>
@@ -15873,7 +15879,7 @@
         <v>145</v>
       </c>
       <c r="P72" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q72">
         <v>3.1</v>
@@ -16079,7 +16085,7 @@
         <v>146</v>
       </c>
       <c r="P73" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q73">
         <v>4.33</v>
@@ -16285,7 +16291,7 @@
         <v>147</v>
       </c>
       <c r="P74" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16697,7 +16703,7 @@
         <v>149</v>
       </c>
       <c r="P76" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q76">
         <v>2.2</v>
@@ -16903,7 +16909,7 @@
         <v>96</v>
       </c>
       <c r="P77" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q77">
         <v>2.4</v>
@@ -17109,7 +17115,7 @@
         <v>150</v>
       </c>
       <c r="P78" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q78">
         <v>3.15</v>
@@ -17521,7 +17527,7 @@
         <v>96</v>
       </c>
       <c r="P80" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q80">
         <v>4.33</v>
@@ -17933,7 +17939,7 @@
         <v>96</v>
       </c>
       <c r="P82" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -18757,7 +18763,7 @@
         <v>96</v>
       </c>
       <c r="P86" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -19247,7 +19253,7 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ88">
         <v>0.43</v>
@@ -19375,7 +19381,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q89">
         <v>2.05</v>
@@ -19581,7 +19587,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q90">
         <v>3.4</v>
@@ -19787,7 +19793,7 @@
         <v>119</v>
       </c>
       <c r="P91" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20405,7 +20411,7 @@
         <v>96</v>
       </c>
       <c r="P94" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q94">
         <v>4.5</v>
@@ -20611,7 +20617,7 @@
         <v>96</v>
       </c>
       <c r="P95" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -20817,7 +20823,7 @@
         <v>96</v>
       </c>
       <c r="P96" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q96">
         <v>3.2</v>
@@ -21229,7 +21235,7 @@
         <v>158</v>
       </c>
       <c r="P98" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q98">
         <v>4.75</v>
@@ -21435,7 +21441,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q99">
         <v>2.5</v>
@@ -21513,7 +21519,7 @@
         <v>2.5</v>
       </c>
       <c r="AP99">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ99">
         <v>1.83</v>
@@ -21847,7 +21853,7 @@
         <v>161</v>
       </c>
       <c r="P101" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q101">
         <v>2.75</v>
@@ -22053,7 +22059,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q102">
         <v>3.6</v>
@@ -22465,7 +22471,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -22877,7 +22883,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q106">
         <v>2.63</v>
@@ -23701,7 +23707,7 @@
         <v>170</v>
       </c>
       <c r="P110" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -23907,7 +23913,7 @@
         <v>171</v>
       </c>
       <c r="P111" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q111">
         <v>1.91</v>
@@ -24194,7 +24200,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ112">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR112">
         <v>1.76</v>
@@ -24731,7 +24737,7 @@
         <v>173</v>
       </c>
       <c r="P115" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q115">
         <v>2.1</v>
@@ -24937,7 +24943,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25143,7 +25149,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25349,7 +25355,7 @@
         <v>96</v>
       </c>
       <c r="P118" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q118">
         <v>3.4</v>
@@ -26048,7 +26054,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ121">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR121">
         <v>1.32</v>
@@ -26791,7 +26797,7 @@
         <v>180</v>
       </c>
       <c r="P125" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q125">
         <v>4.5</v>
@@ -26997,7 +27003,7 @@
         <v>181</v>
       </c>
       <c r="P126" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q126">
         <v>2</v>
@@ -27203,7 +27209,7 @@
         <v>137</v>
       </c>
       <c r="P127" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q127">
         <v>2.6</v>
@@ -27281,7 +27287,7 @@
         <v>1.8</v>
       </c>
       <c r="AP127">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AQ127">
         <v>2.14</v>
@@ -27615,7 +27621,7 @@
         <v>183</v>
       </c>
       <c r="P129" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q129">
         <v>3.2</v>
@@ -27821,7 +27827,7 @@
         <v>184</v>
       </c>
       <c r="P130" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28027,7 +28033,7 @@
         <v>103</v>
       </c>
       <c r="P131" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q131">
         <v>2.05</v>
@@ -28645,7 +28651,7 @@
         <v>187</v>
       </c>
       <c r="P134" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q134">
         <v>4.5</v>
@@ -29057,7 +29063,7 @@
         <v>99</v>
       </c>
       <c r="P136" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q136">
         <v>3.1</v>
@@ -29675,7 +29681,7 @@
         <v>189</v>
       </c>
       <c r="P139" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q139">
         <v>2.88</v>
@@ -29881,7 +29887,7 @@
         <v>96</v>
       </c>
       <c r="P140" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q140">
         <v>2.3</v>
@@ -30087,7 +30093,7 @@
         <v>190</v>
       </c>
       <c r="P141" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q141">
         <v>3.1</v>
@@ -31529,7 +31535,7 @@
         <v>96</v>
       </c>
       <c r="P148" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -32147,7 +32153,7 @@
         <v>197</v>
       </c>
       <c r="P151" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q151">
         <v>3.2</v>
@@ -32353,7 +32359,7 @@
         <v>198</v>
       </c>
       <c r="P152" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q152">
         <v>3.25</v>
@@ -32510,6 +32516,212 @@
       </c>
       <c r="BP152">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="153" spans="1:68">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>7727008</v>
+      </c>
+      <c r="C153" t="s">
+        <v>68</v>
+      </c>
+      <c r="D153" t="s">
+        <v>69</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45593.70833333334</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153" t="s">
+        <v>91</v>
+      </c>
+      <c r="H153" t="s">
+        <v>72</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153">
+        <v>2</v>
+      </c>
+      <c r="K153">
+        <v>3</v>
+      </c>
+      <c r="L153">
+        <v>2</v>
+      </c>
+      <c r="M153">
+        <v>2</v>
+      </c>
+      <c r="N153">
+        <v>4</v>
+      </c>
+      <c r="O153" t="s">
+        <v>199</v>
+      </c>
+      <c r="P153" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q153">
+        <v>2.38</v>
+      </c>
+      <c r="R153">
+        <v>2.25</v>
+      </c>
+      <c r="S153">
+        <v>4.75</v>
+      </c>
+      <c r="T153">
+        <v>1.36</v>
+      </c>
+      <c r="U153">
+        <v>3</v>
+      </c>
+      <c r="V153">
+        <v>2.75</v>
+      </c>
+      <c r="W153">
+        <v>1.4</v>
+      </c>
+      <c r="X153">
+        <v>7</v>
+      </c>
+      <c r="Y153">
+        <v>1.1</v>
+      </c>
+      <c r="Z153">
+        <v>1.73</v>
+      </c>
+      <c r="AA153">
+        <v>3.75</v>
+      </c>
+      <c r="AB153">
+        <v>4.5</v>
+      </c>
+      <c r="AC153">
+        <v>1.04</v>
+      </c>
+      <c r="AD153">
+        <v>12</v>
+      </c>
+      <c r="AE153">
+        <v>1.28</v>
+      </c>
+      <c r="AF153">
+        <v>3.75</v>
+      </c>
+      <c r="AG153">
+        <v>1.66</v>
+      </c>
+      <c r="AH153">
+        <v>2.12</v>
+      </c>
+      <c r="AI153">
+        <v>1.8</v>
+      </c>
+      <c r="AJ153">
+        <v>1.95</v>
+      </c>
+      <c r="AK153">
+        <v>1.2</v>
+      </c>
+      <c r="AL153">
+        <v>1.22</v>
+      </c>
+      <c r="AM153">
+        <v>2.05</v>
+      </c>
+      <c r="AN153">
+        <v>1.33</v>
+      </c>
+      <c r="AO153">
+        <v>0.83</v>
+      </c>
+      <c r="AP153">
+        <v>1.29</v>
+      </c>
+      <c r="AQ153">
+        <v>0.86</v>
+      </c>
+      <c r="AR153">
+        <v>1.56</v>
+      </c>
+      <c r="AS153">
+        <v>1.05</v>
+      </c>
+      <c r="AT153">
+        <v>2.61</v>
+      </c>
+      <c r="AU153">
+        <v>7</v>
+      </c>
+      <c r="AV153">
+        <v>6</v>
+      </c>
+      <c r="AW153">
+        <v>9</v>
+      </c>
+      <c r="AX153">
+        <v>3</v>
+      </c>
+      <c r="AY153">
+        <v>25</v>
+      </c>
+      <c r="AZ153">
+        <v>12</v>
+      </c>
+      <c r="BA153">
+        <v>2</v>
+      </c>
+      <c r="BB153">
+        <v>4</v>
+      </c>
+      <c r="BC153">
+        <v>6</v>
+      </c>
+      <c r="BD153">
+        <v>1.48</v>
+      </c>
+      <c r="BE153">
+        <v>6.75</v>
+      </c>
+      <c r="BF153">
+        <v>2.8</v>
+      </c>
+      <c r="BG153">
+        <v>1.3</v>
+      </c>
+      <c r="BH153">
+        <v>3.1</v>
+      </c>
+      <c r="BI153">
+        <v>1.52</v>
+      </c>
+      <c r="BJ153">
+        <v>2.33</v>
+      </c>
+      <c r="BK153">
+        <v>1.85</v>
+      </c>
+      <c r="BL153">
+        <v>1.83</v>
+      </c>
+      <c r="BM153">
+        <v>2.33</v>
+      </c>
+      <c r="BN153">
+        <v>1.52</v>
+      </c>
+      <c r="BO153">
+        <v>2.95</v>
+      </c>
+      <c r="BP153">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="278">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -616,6 +616,12 @@
     <t>['45+1', '90+2']</t>
   </si>
   <si>
+    <t>['18', '33', '42', '68']</t>
+  </si>
+  <si>
+    <t>['18', '88']</t>
+  </si>
+  <si>
     <t>['13', '18']</t>
   </si>
   <si>
@@ -839,6 +845,9 @@
   </si>
   <si>
     <t>['20', '41']</t>
+  </si>
+  <si>
+    <t>['13', '16', '61', '88']</t>
   </si>
 </sst>
 </file>
@@ -1200,7 +1209,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP153"/>
+  <dimension ref="A1:BP156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1459,7 +1468,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1871,7 +1880,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2155,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ5">
         <v>0.5</v>
@@ -2283,7 +2292,7 @@
         <v>96</v>
       </c>
       <c r="P6" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2489,7 +2498,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -2570,7 +2579,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ7">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2773,7 +2782,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ8">
         <v>0.57</v>
@@ -3107,7 +3116,7 @@
         <v>101</v>
       </c>
       <c r="P10" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3394,7 +3403,7 @@
         <v>2</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3519,7 +3528,7 @@
         <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q12">
         <v>2.1</v>
@@ -3600,7 +3609,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ12">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3931,7 +3940,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4755,7 +4764,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4961,7 +4970,7 @@
         <v>108</v>
       </c>
       <c r="P19" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q19">
         <v>3.25</v>
@@ -5167,7 +5176,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5373,7 +5382,7 @@
         <v>109</v>
       </c>
       <c r="P21" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5451,7 +5460,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ21">
         <v>2.14</v>
@@ -5579,7 +5588,7 @@
         <v>110</v>
       </c>
       <c r="P22" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -5785,7 +5794,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q23">
         <v>2.75</v>
@@ -5991,7 +6000,7 @@
         <v>111</v>
       </c>
       <c r="P24" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -6481,7 +6490,7 @@
         <v>1</v>
       </c>
       <c r="AP26">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ26">
         <v>0.57</v>
@@ -7102,7 +7111,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ29">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR29">
         <v>1.43</v>
@@ -7433,7 +7442,7 @@
         <v>116</v>
       </c>
       <c r="P31" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7511,7 +7520,7 @@
         <v>3</v>
       </c>
       <c r="AP31">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ31">
         <v>2.4</v>
@@ -7639,7 +7648,7 @@
         <v>117</v>
       </c>
       <c r="P32" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q32">
         <v>4.33</v>
@@ -8051,7 +8060,7 @@
         <v>119</v>
       </c>
       <c r="P34" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -8338,7 +8347,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ35">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR35">
         <v>1.31</v>
@@ -8463,7 +8472,7 @@
         <v>121</v>
       </c>
       <c r="P36" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q36">
         <v>4.5</v>
@@ -8669,7 +8678,7 @@
         <v>122</v>
       </c>
       <c r="P37" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q37">
         <v>2.2</v>
@@ -8750,7 +8759,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ37">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR37">
         <v>1.62</v>
@@ -9081,7 +9090,7 @@
         <v>124</v>
       </c>
       <c r="P39" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q39">
         <v>2.63</v>
@@ -9287,7 +9296,7 @@
         <v>96</v>
       </c>
       <c r="P40" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q40">
         <v>2.05</v>
@@ -9699,7 +9708,7 @@
         <v>96</v>
       </c>
       <c r="P42" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q42">
         <v>3.6</v>
@@ -9905,7 +9914,7 @@
         <v>126</v>
       </c>
       <c r="P43" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q43">
         <v>3</v>
@@ -10317,7 +10326,7 @@
         <v>96</v>
       </c>
       <c r="P45" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q45">
         <v>2.63</v>
@@ -11013,7 +11022,7 @@
         <v>3</v>
       </c>
       <c r="AP48">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ48">
         <v>1.83</v>
@@ -11553,7 +11562,7 @@
         <v>131</v>
       </c>
       <c r="P51" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q51">
         <v>2.3</v>
@@ -12171,7 +12180,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q54">
         <v>3.5</v>
@@ -12455,7 +12464,7 @@
         <v>3</v>
       </c>
       <c r="AP55">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ55">
         <v>2.14</v>
@@ -12789,7 +12798,7 @@
         <v>135</v>
       </c>
       <c r="P57" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q57">
         <v>2.2</v>
@@ -12995,7 +13004,7 @@
         <v>96</v>
       </c>
       <c r="P58" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q58">
         <v>2.75</v>
@@ -13201,7 +13210,7 @@
         <v>136</v>
       </c>
       <c r="P59" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q59">
         <v>2.75</v>
@@ -13407,7 +13416,7 @@
         <v>137</v>
       </c>
       <c r="P60" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q60">
         <v>4.5</v>
@@ -13613,7 +13622,7 @@
         <v>96</v>
       </c>
       <c r="P61" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -14025,7 +14034,7 @@
         <v>96</v>
       </c>
       <c r="P63" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q63">
         <v>2.88</v>
@@ -14231,7 +14240,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q64">
         <v>2.5</v>
@@ -14721,7 +14730,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ66">
         <v>0.86</v>
@@ -14849,7 +14858,7 @@
         <v>141</v>
       </c>
       <c r="P67" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q67">
         <v>2.4</v>
@@ -14927,7 +14936,7 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ67">
         <v>0.86</v>
@@ -15055,7 +15064,7 @@
         <v>96</v>
       </c>
       <c r="P68" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q68">
         <v>3.75</v>
@@ -15261,7 +15270,7 @@
         <v>142</v>
       </c>
       <c r="P69" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q69">
         <v>2.05</v>
@@ -15467,7 +15476,7 @@
         <v>143</v>
       </c>
       <c r="P70" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q70">
         <v>2.3</v>
@@ -15673,7 +15682,7 @@
         <v>144</v>
       </c>
       <c r="P71" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q71">
         <v>1.83</v>
@@ -15754,7 +15763,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ71">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR71">
         <v>1.27</v>
@@ -15879,7 +15888,7 @@
         <v>145</v>
       </c>
       <c r="P72" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q72">
         <v>3.1</v>
@@ -16085,7 +16094,7 @@
         <v>146</v>
       </c>
       <c r="P73" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q73">
         <v>4.33</v>
@@ -16291,7 +16300,7 @@
         <v>147</v>
       </c>
       <c r="P74" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q74">
         <v>2.3</v>
@@ -16372,7 +16381,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ74">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR74">
         <v>1.34</v>
@@ -16703,7 +16712,7 @@
         <v>149</v>
       </c>
       <c r="P76" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q76">
         <v>2.2</v>
@@ -16909,7 +16918,7 @@
         <v>96</v>
       </c>
       <c r="P77" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q77">
         <v>2.4</v>
@@ -17115,7 +17124,7 @@
         <v>150</v>
       </c>
       <c r="P78" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q78">
         <v>3.15</v>
@@ -17527,7 +17536,7 @@
         <v>96</v>
       </c>
       <c r="P80" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q80">
         <v>4.33</v>
@@ -17608,7 +17617,7 @@
         <v>1</v>
       </c>
       <c r="AQ80">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR80">
         <v>0.8100000000000001</v>
@@ -17939,7 +17948,7 @@
         <v>96</v>
       </c>
       <c r="P82" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q82">
         <v>3.4</v>
@@ -18635,7 +18644,7 @@
         <v>2</v>
       </c>
       <c r="AP85">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ85">
         <v>1.17</v>
@@ -18763,7 +18772,7 @@
         <v>96</v>
       </c>
       <c r="P86" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -19381,7 +19390,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q89">
         <v>2.05</v>
@@ -19587,7 +19596,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q90">
         <v>3.4</v>
@@ -19793,7 +19802,7 @@
         <v>119</v>
       </c>
       <c r="P91" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -20283,7 +20292,7 @@
         <v>1.25</v>
       </c>
       <c r="AP93">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ93">
         <v>1.29</v>
@@ -20411,7 +20420,7 @@
         <v>96</v>
       </c>
       <c r="P94" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q94">
         <v>4.5</v>
@@ -20617,7 +20626,7 @@
         <v>96</v>
       </c>
       <c r="P95" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -20823,7 +20832,7 @@
         <v>96</v>
       </c>
       <c r="P96" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q96">
         <v>3.2</v>
@@ -21235,7 +21244,7 @@
         <v>158</v>
       </c>
       <c r="P98" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q98">
         <v>4.75</v>
@@ -21316,7 +21325,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ98">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR98">
         <v>1.4</v>
@@ -21441,7 +21450,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q99">
         <v>2.5</v>
@@ -21853,7 +21862,7 @@
         <v>161</v>
       </c>
       <c r="P101" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q101">
         <v>2.75</v>
@@ -22059,7 +22068,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q102">
         <v>3.6</v>
@@ -22471,7 +22480,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -22883,7 +22892,7 @@
         <v>166</v>
       </c>
       <c r="P106" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q106">
         <v>2.63</v>
@@ -22964,7 +22973,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ106">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR106">
         <v>1.55</v>
@@ -23373,7 +23382,7 @@
         <v>1.5</v>
       </c>
       <c r="AP108">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ108">
         <v>0.86</v>
@@ -23707,7 +23716,7 @@
         <v>170</v>
       </c>
       <c r="P110" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q110">
         <v>3</v>
@@ -23913,7 +23922,7 @@
         <v>171</v>
       </c>
       <c r="P111" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q111">
         <v>1.91</v>
@@ -24197,7 +24206,7 @@
         <v>1</v>
       </c>
       <c r="AP112">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ112">
         <v>0.86</v>
@@ -24737,7 +24746,7 @@
         <v>173</v>
       </c>
       <c r="P115" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q115">
         <v>2.1</v>
@@ -24818,7 +24827,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ115">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR115">
         <v>1.52</v>
@@ -24943,7 +24952,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25149,7 +25158,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25355,7 +25364,7 @@
         <v>96</v>
       </c>
       <c r="P118" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q118">
         <v>3.4</v>
@@ -26797,7 +26806,7 @@
         <v>180</v>
       </c>
       <c r="P125" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q125">
         <v>4.5</v>
@@ -26875,7 +26884,7 @@
         <v>2.25</v>
       </c>
       <c r="AP125">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ125">
         <v>2.17</v>
@@ -27003,7 +27012,7 @@
         <v>181</v>
       </c>
       <c r="P126" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q126">
         <v>2</v>
@@ -27209,7 +27218,7 @@
         <v>137</v>
       </c>
       <c r="P127" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q127">
         <v>2.6</v>
@@ -27621,7 +27630,7 @@
         <v>183</v>
       </c>
       <c r="P129" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q129">
         <v>3.2</v>
@@ -27827,7 +27836,7 @@
         <v>184</v>
       </c>
       <c r="P130" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q130">
         <v>3</v>
@@ -28033,7 +28042,7 @@
         <v>103</v>
       </c>
       <c r="P131" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q131">
         <v>2.05</v>
@@ -28111,10 +28120,10 @@
         <v>1</v>
       </c>
       <c r="AP131">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AQ131">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR131">
         <v>1.63</v>
@@ -28320,7 +28329,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ132">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR132">
         <v>1.64</v>
@@ -28651,7 +28660,7 @@
         <v>187</v>
       </c>
       <c r="P134" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q134">
         <v>4.5</v>
@@ -29063,7 +29072,7 @@
         <v>99</v>
       </c>
       <c r="P136" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q136">
         <v>3.1</v>
@@ -29144,7 +29153,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ136">
-        <v>0.8</v>
+        <v>0.67</v>
       </c>
       <c r="AR136">
         <v>1.36</v>
@@ -29681,7 +29690,7 @@
         <v>189</v>
       </c>
       <c r="P139" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q139">
         <v>2.88</v>
@@ -29887,7 +29896,7 @@
         <v>96</v>
       </c>
       <c r="P140" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q140">
         <v>2.3</v>
@@ -29965,7 +29974,7 @@
         <v>0</v>
       </c>
       <c r="AP140">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ140">
         <v>0.5</v>
@@ -30093,7 +30102,7 @@
         <v>190</v>
       </c>
       <c r="P141" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q141">
         <v>3.1</v>
@@ -31535,7 +31544,7 @@
         <v>96</v>
       </c>
       <c r="P148" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q148">
         <v>4</v>
@@ -32153,7 +32162,7 @@
         <v>197</v>
       </c>
       <c r="P151" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q151">
         <v>3.2</v>
@@ -32231,7 +32240,7 @@
         <v>1.67</v>
       </c>
       <c r="AP151">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ151">
         <v>1.43</v>
@@ -32359,7 +32368,7 @@
         <v>198</v>
       </c>
       <c r="P152" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q152">
         <v>3.25</v>
@@ -32565,7 +32574,7 @@
         <v>199</v>
       </c>
       <c r="P153" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q153">
         <v>2.38</v>
@@ -32722,6 +32731,624 @@
       </c>
       <c r="BP153">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="154" spans="1:68">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>7726996</v>
+      </c>
+      <c r="C154" t="s">
+        <v>68</v>
+      </c>
+      <c r="D154" t="s">
+        <v>69</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45594.69791666666</v>
+      </c>
+      <c r="F154">
+        <v>0</v>
+      </c>
+      <c r="G154" t="s">
+        <v>73</v>
+      </c>
+      <c r="H154" t="s">
+        <v>84</v>
+      </c>
+      <c r="I154">
+        <v>3</v>
+      </c>
+      <c r="J154">
+        <v>1</v>
+      </c>
+      <c r="K154">
+        <v>4</v>
+      </c>
+      <c r="L154">
+        <v>4</v>
+      </c>
+      <c r="M154">
+        <v>1</v>
+      </c>
+      <c r="N154">
+        <v>5</v>
+      </c>
+      <c r="O154" t="s">
+        <v>200</v>
+      </c>
+      <c r="P154" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q154">
+        <v>2.6</v>
+      </c>
+      <c r="R154">
+        <v>2.1</v>
+      </c>
+      <c r="S154">
+        <v>4.33</v>
+      </c>
+      <c r="T154">
+        <v>1.4</v>
+      </c>
+      <c r="U154">
+        <v>2.75</v>
+      </c>
+      <c r="V154">
+        <v>3</v>
+      </c>
+      <c r="W154">
+        <v>1.36</v>
+      </c>
+      <c r="X154">
+        <v>8</v>
+      </c>
+      <c r="Y154">
+        <v>1.08</v>
+      </c>
+      <c r="Z154">
+        <v>1.85</v>
+      </c>
+      <c r="AA154">
+        <v>3.55</v>
+      </c>
+      <c r="AB154">
+        <v>3.85</v>
+      </c>
+      <c r="AC154">
+        <v>1.04</v>
+      </c>
+      <c r="AD154">
+        <v>10</v>
+      </c>
+      <c r="AE154">
+        <v>1.25</v>
+      </c>
+      <c r="AF154">
+        <v>3.95</v>
+      </c>
+      <c r="AG154">
+        <v>1.93</v>
+      </c>
+      <c r="AH154">
+        <v>1.75</v>
+      </c>
+      <c r="AI154">
+        <v>1.91</v>
+      </c>
+      <c r="AJ154">
+        <v>1.91</v>
+      </c>
+      <c r="AK154">
+        <v>1.2</v>
+      </c>
+      <c r="AL154">
+        <v>1.2</v>
+      </c>
+      <c r="AM154">
+        <v>2.05</v>
+      </c>
+      <c r="AN154">
+        <v>1.6</v>
+      </c>
+      <c r="AO154">
+        <v>0.8</v>
+      </c>
+      <c r="AP154">
+        <v>1.83</v>
+      </c>
+      <c r="AQ154">
+        <v>0.67</v>
+      </c>
+      <c r="AR154">
+        <v>1.62</v>
+      </c>
+      <c r="AS154">
+        <v>1.21</v>
+      </c>
+      <c r="AT154">
+        <v>2.83</v>
+      </c>
+      <c r="AU154">
+        <v>10</v>
+      </c>
+      <c r="AV154">
+        <v>2</v>
+      </c>
+      <c r="AW154">
+        <v>6</v>
+      </c>
+      <c r="AX154">
+        <v>0</v>
+      </c>
+      <c r="AY154">
+        <v>17</v>
+      </c>
+      <c r="AZ154">
+        <v>3</v>
+      </c>
+      <c r="BA154">
+        <v>4</v>
+      </c>
+      <c r="BB154">
+        <v>2</v>
+      </c>
+      <c r="BC154">
+        <v>6</v>
+      </c>
+      <c r="BD154">
+        <v>1.47</v>
+      </c>
+      <c r="BE154">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF154">
+        <v>3.36</v>
+      </c>
+      <c r="BG154">
+        <v>1.18</v>
+      </c>
+      <c r="BH154">
+        <v>3.68</v>
+      </c>
+      <c r="BI154">
+        <v>1.4</v>
+      </c>
+      <c r="BJ154">
+        <v>2.64</v>
+      </c>
+      <c r="BK154">
+        <v>1.85</v>
+      </c>
+      <c r="BL154">
+        <v>1.95</v>
+      </c>
+      <c r="BM154">
+        <v>2.15</v>
+      </c>
+      <c r="BN154">
+        <v>1.59</v>
+      </c>
+      <c r="BO154">
+        <v>2.78</v>
+      </c>
+      <c r="BP154">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="155" spans="1:68">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>7477849</v>
+      </c>
+      <c r="C155" t="s">
+        <v>68</v>
+      </c>
+      <c r="D155" t="s">
+        <v>69</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45594.69791666666</v>
+      </c>
+      <c r="F155">
+        <v>5</v>
+      </c>
+      <c r="G155" t="s">
+        <v>89</v>
+      </c>
+      <c r="H155" t="s">
+        <v>87</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155">
+        <v>1</v>
+      </c>
+      <c r="K155">
+        <v>2</v>
+      </c>
+      <c r="L155">
+        <v>2</v>
+      </c>
+      <c r="M155">
+        <v>1</v>
+      </c>
+      <c r="N155">
+        <v>3</v>
+      </c>
+      <c r="O155" t="s">
+        <v>201</v>
+      </c>
+      <c r="P155" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q155">
+        <v>2.5</v>
+      </c>
+      <c r="R155">
+        <v>2.2</v>
+      </c>
+      <c r="S155">
+        <v>4.75</v>
+      </c>
+      <c r="T155">
+        <v>1.4</v>
+      </c>
+      <c r="U155">
+        <v>2.75</v>
+      </c>
+      <c r="V155">
+        <v>3</v>
+      </c>
+      <c r="W155">
+        <v>1.36</v>
+      </c>
+      <c r="X155">
+        <v>8</v>
+      </c>
+      <c r="Y155">
+        <v>1.08</v>
+      </c>
+      <c r="Z155">
+        <v>1.73</v>
+      </c>
+      <c r="AA155">
+        <v>3.45</v>
+      </c>
+      <c r="AB155">
+        <v>4.6</v>
+      </c>
+      <c r="AC155">
+        <v>1.06</v>
+      </c>
+      <c r="AD155">
+        <v>8.5</v>
+      </c>
+      <c r="AE155">
+        <v>1.33</v>
+      </c>
+      <c r="AF155">
+        <v>3.25</v>
+      </c>
+      <c r="AG155">
+        <v>1.93</v>
+      </c>
+      <c r="AH155">
+        <v>1.75</v>
+      </c>
+      <c r="AI155">
+        <v>1.91</v>
+      </c>
+      <c r="AJ155">
+        <v>1.91</v>
+      </c>
+      <c r="AK155">
+        <v>1.17</v>
+      </c>
+      <c r="AL155">
+        <v>1.22</v>
+      </c>
+      <c r="AM155">
+        <v>2.1</v>
+      </c>
+      <c r="AN155">
+        <v>1.67</v>
+      </c>
+      <c r="AO155">
+        <v>1</v>
+      </c>
+      <c r="AP155">
+        <v>1.86</v>
+      </c>
+      <c r="AQ155">
+        <v>0.83</v>
+      </c>
+      <c r="AR155">
+        <v>1.34</v>
+      </c>
+      <c r="AS155">
+        <v>1.09</v>
+      </c>
+      <c r="AT155">
+        <v>2.43</v>
+      </c>
+      <c r="AU155">
+        <v>6</v>
+      </c>
+      <c r="AV155">
+        <v>4</v>
+      </c>
+      <c r="AW155">
+        <v>5</v>
+      </c>
+      <c r="AX155">
+        <v>2</v>
+      </c>
+      <c r="AY155">
+        <v>13</v>
+      </c>
+      <c r="AZ155">
+        <v>10</v>
+      </c>
+      <c r="BA155">
+        <v>9</v>
+      </c>
+      <c r="BB155">
+        <v>0</v>
+      </c>
+      <c r="BC155">
+        <v>9</v>
+      </c>
+      <c r="BD155">
+        <v>1.45</v>
+      </c>
+      <c r="BE155">
+        <v>8.5</v>
+      </c>
+      <c r="BF155">
+        <v>3.33</v>
+      </c>
+      <c r="BG155">
+        <v>1.3</v>
+      </c>
+      <c r="BH155">
+        <v>3.22</v>
+      </c>
+      <c r="BI155">
+        <v>1.53</v>
+      </c>
+      <c r="BJ155">
+        <v>2.34</v>
+      </c>
+      <c r="BK155">
+        <v>1.98</v>
+      </c>
+      <c r="BL155">
+        <v>1.82</v>
+      </c>
+      <c r="BM155">
+        <v>2.41</v>
+      </c>
+      <c r="BN155">
+        <v>1.5</v>
+      </c>
+      <c r="BO155">
+        <v>3.22</v>
+      </c>
+      <c r="BP155">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:68">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>7477947</v>
+      </c>
+      <c r="C156" t="s">
+        <v>68</v>
+      </c>
+      <c r="D156" t="s">
+        <v>69</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45594.69791666666</v>
+      </c>
+      <c r="F156">
+        <v>11</v>
+      </c>
+      <c r="G156" t="s">
+        <v>76</v>
+      </c>
+      <c r="H156" t="s">
+        <v>93</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>2</v>
+      </c>
+      <c r="K156">
+        <v>2</v>
+      </c>
+      <c r="L156">
+        <v>1</v>
+      </c>
+      <c r="M156">
+        <v>4</v>
+      </c>
+      <c r="N156">
+        <v>5</v>
+      </c>
+      <c r="O156" t="s">
+        <v>109</v>
+      </c>
+      <c r="P156" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q156">
+        <v>3.5</v>
+      </c>
+      <c r="R156">
+        <v>2.05</v>
+      </c>
+      <c r="S156">
+        <v>3.2</v>
+      </c>
+      <c r="T156">
+        <v>1.44</v>
+      </c>
+      <c r="U156">
+        <v>2.63</v>
+      </c>
+      <c r="V156">
+        <v>3.25</v>
+      </c>
+      <c r="W156">
+        <v>1.33</v>
+      </c>
+      <c r="X156">
+        <v>9</v>
+      </c>
+      <c r="Y156">
+        <v>1.07</v>
+      </c>
+      <c r="Z156">
+        <v>3</v>
+      </c>
+      <c r="AA156">
+        <v>3.15</v>
+      </c>
+      <c r="AB156">
+        <v>2.3</v>
+      </c>
+      <c r="AC156">
+        <v>1.07</v>
+      </c>
+      <c r="AD156">
+        <v>8</v>
+      </c>
+      <c r="AE156">
+        <v>1.38</v>
+      </c>
+      <c r="AF156">
+        <v>3</v>
+      </c>
+      <c r="AG156">
+        <v>2</v>
+      </c>
+      <c r="AH156">
+        <v>1.73</v>
+      </c>
+      <c r="AI156">
+        <v>1.91</v>
+      </c>
+      <c r="AJ156">
+        <v>1.91</v>
+      </c>
+      <c r="AK156">
+        <v>1.5</v>
+      </c>
+      <c r="AL156">
+        <v>1.28</v>
+      </c>
+      <c r="AM156">
+        <v>1.42</v>
+      </c>
+      <c r="AN156">
+        <v>2</v>
+      </c>
+      <c r="AO156">
+        <v>1.8</v>
+      </c>
+      <c r="AP156">
+        <v>1.71</v>
+      </c>
+      <c r="AQ156">
+        <v>2</v>
+      </c>
+      <c r="AR156">
+        <v>1.12</v>
+      </c>
+      <c r="AS156">
+        <v>1.17</v>
+      </c>
+      <c r="AT156">
+        <v>2.29</v>
+      </c>
+      <c r="AU156">
+        <v>6</v>
+      </c>
+      <c r="AV156">
+        <v>7</v>
+      </c>
+      <c r="AW156">
+        <v>2</v>
+      </c>
+      <c r="AX156">
+        <v>3</v>
+      </c>
+      <c r="AY156">
+        <v>17</v>
+      </c>
+      <c r="AZ156">
+        <v>13</v>
+      </c>
+      <c r="BA156">
+        <v>10</v>
+      </c>
+      <c r="BB156">
+        <v>4</v>
+      </c>
+      <c r="BC156">
+        <v>14</v>
+      </c>
+      <c r="BD156">
+        <v>2.14</v>
+      </c>
+      <c r="BE156">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF156">
+        <v>1.95</v>
+      </c>
+      <c r="BG156">
+        <v>1.18</v>
+      </c>
+      <c r="BH156">
+        <v>4.25</v>
+      </c>
+      <c r="BI156">
+        <v>1.28</v>
+      </c>
+      <c r="BJ156">
+        <v>2.97</v>
+      </c>
+      <c r="BK156">
+        <v>1.55</v>
+      </c>
+      <c r="BL156">
+        <v>2.23</v>
+      </c>
+      <c r="BM156">
+        <v>1.96</v>
+      </c>
+      <c r="BN156">
+        <v>1.79</v>
+      </c>
+      <c r="BO156">
+        <v>2.48</v>
+      </c>
+      <c r="BP156">
+        <v>1.45</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -32956,7 +32956,7 @@
         <v>45594.69791666666</v>
       </c>
       <c r="F155">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G155" t="s">
         <v>89</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="280">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -622,6 +622,9 @@
     <t>['18', '33', '42', '68']</t>
   </si>
   <si>
+    <t>['32', '86']</t>
+  </si>
+  <si>
     <t>['13', '18']</t>
   </si>
   <si>
@@ -1212,7 +1215,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP158"/>
+  <dimension ref="A1:BP159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1471,7 +1474,7 @@
         <v>94</v>
       </c>
       <c r="P2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q2">
         <v>2.6</v>
@@ -1549,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ2">
         <v>2.4</v>
@@ -1883,7 +1886,7 @@
         <v>96</v>
       </c>
       <c r="P4" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q4">
         <v>3.2</v>
@@ -2295,7 +2298,7 @@
         <v>96</v>
       </c>
       <c r="P6" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q6">
         <v>2.75</v>
@@ -2501,7 +2504,7 @@
         <v>98</v>
       </c>
       <c r="P7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q7">
         <v>4</v>
@@ -3119,7 +3122,7 @@
         <v>101</v>
       </c>
       <c r="P10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q10">
         <v>3.75</v>
@@ -3531,7 +3534,7 @@
         <v>103</v>
       </c>
       <c r="P12" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q12">
         <v>2.1</v>
@@ -3818,7 +3821,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ13">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3943,7 +3946,7 @@
         <v>105</v>
       </c>
       <c r="P14" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4767,7 +4770,7 @@
         <v>107</v>
       </c>
       <c r="P18" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q18">
         <v>4.33</v>
@@ -4973,7 +4976,7 @@
         <v>108</v>
       </c>
       <c r="P19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q19">
         <v>3.25</v>
@@ -5179,7 +5182,7 @@
         <v>96</v>
       </c>
       <c r="P20" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q20">
         <v>2.88</v>
@@ -5385,7 +5388,7 @@
         <v>109</v>
       </c>
       <c r="P21" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q21">
         <v>2.75</v>
@@ -5591,7 +5594,7 @@
         <v>110</v>
       </c>
       <c r="P22" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q22">
         <v>2.3</v>
@@ -5797,7 +5800,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q23">
         <v>2.75</v>
@@ -6003,7 +6006,7 @@
         <v>111</v>
       </c>
       <c r="P24" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q24">
         <v>2.5</v>
@@ -6908,7 +6911,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ28">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR28">
         <v>0.87</v>
@@ -7445,7 +7448,7 @@
         <v>116</v>
       </c>
       <c r="P31" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q31">
         <v>2.88</v>
@@ -7651,7 +7654,7 @@
         <v>117</v>
       </c>
       <c r="P32" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q32">
         <v>4.33</v>
@@ -8063,7 +8066,7 @@
         <v>119</v>
       </c>
       <c r="P34" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -8475,7 +8478,7 @@
         <v>121</v>
       </c>
       <c r="P36" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q36">
         <v>4.5</v>
@@ -8681,7 +8684,7 @@
         <v>122</v>
       </c>
       <c r="P37" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q37">
         <v>2.2</v>
@@ -8759,7 +8762,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ37">
         <v>0.83</v>
@@ -8887,7 +8890,7 @@
         <v>123</v>
       </c>
       <c r="P38" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q38">
         <v>2.63</v>
@@ -9711,7 +9714,7 @@
         <v>96</v>
       </c>
       <c r="P42" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q42">
         <v>2.63</v>
@@ -10123,7 +10126,7 @@
         <v>127</v>
       </c>
       <c r="P44" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q44">
         <v>3</v>
@@ -10329,7 +10332,7 @@
         <v>96</v>
       </c>
       <c r="P45" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q45">
         <v>3.6</v>
@@ -10741,7 +10744,7 @@
         <v>96</v>
       </c>
       <c r="P47" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q47">
         <v>2.05</v>
@@ -11359,7 +11362,7 @@
         <v>130</v>
       </c>
       <c r="P50" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q50">
         <v>2.3</v>
@@ -11437,7 +11440,7 @@
         <v>0.5</v>
       </c>
       <c r="AP50">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ50">
         <v>0.57</v>
@@ -11852,7 +11855,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ52">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR52">
         <v>1.21</v>
@@ -12183,7 +12186,7 @@
         <v>119</v>
       </c>
       <c r="P54" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q54">
         <v>3.5</v>
@@ -12389,7 +12392,7 @@
         <v>134</v>
       </c>
       <c r="P55" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q55">
         <v>2.75</v>
@@ -12801,7 +12804,7 @@
         <v>136</v>
       </c>
       <c r="P57" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q57">
         <v>2.2</v>
@@ -13213,7 +13216,7 @@
         <v>137</v>
       </c>
       <c r="P59" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q59">
         <v>4.5</v>
@@ -13419,7 +13422,7 @@
         <v>96</v>
       </c>
       <c r="P60" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q60">
         <v>2.75</v>
@@ -13625,7 +13628,7 @@
         <v>96</v>
       </c>
       <c r="P61" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q61">
         <v>2.75</v>
@@ -13831,7 +13834,7 @@
         <v>96</v>
       </c>
       <c r="P62" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q62">
         <v>2.88</v>
@@ -14243,7 +14246,7 @@
         <v>139</v>
       </c>
       <c r="P64" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q64">
         <v>2.5</v>
@@ -14861,7 +14864,7 @@
         <v>141</v>
       </c>
       <c r="P67" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q67">
         <v>1.83</v>
@@ -15067,7 +15070,7 @@
         <v>142</v>
       </c>
       <c r="P68" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q68">
         <v>2.3</v>
@@ -15273,7 +15276,7 @@
         <v>143</v>
       </c>
       <c r="P69" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q69">
         <v>4.33</v>
@@ -15479,7 +15482,7 @@
         <v>144</v>
       </c>
       <c r="P70" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q70">
         <v>3.1</v>
@@ -15685,7 +15688,7 @@
         <v>145</v>
       </c>
       <c r="P71" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q71">
         <v>2.2</v>
@@ -15891,7 +15894,7 @@
         <v>146</v>
       </c>
       <c r="P72" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q72">
         <v>2.3</v>
@@ -16097,7 +16100,7 @@
         <v>147</v>
       </c>
       <c r="P73" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q73">
         <v>2.05</v>
@@ -16303,7 +16306,7 @@
         <v>96</v>
       </c>
       <c r="P74" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q74">
         <v>3.75</v>
@@ -16509,7 +16512,7 @@
         <v>148</v>
       </c>
       <c r="P75" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q75">
         <v>2.4</v>
@@ -16921,7 +16924,7 @@
         <v>150</v>
       </c>
       <c r="P77" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q77">
         <v>3.15</v>
@@ -17127,7 +17130,7 @@
         <v>96</v>
       </c>
       <c r="P78" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q78">
         <v>2.4</v>
@@ -17745,7 +17748,7 @@
         <v>96</v>
       </c>
       <c r="P81" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q81">
         <v>4.33</v>
@@ -18569,7 +18572,7 @@
         <v>96</v>
       </c>
       <c r="P85" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q85">
         <v>3.4</v>
@@ -18775,7 +18778,7 @@
         <v>96</v>
       </c>
       <c r="P86" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -19062,7 +19065,7 @@
         <v>0.57</v>
       </c>
       <c r="AQ87">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR87">
         <v>1.22</v>
@@ -19393,7 +19396,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q89">
         <v>2.05</v>
@@ -19599,7 +19602,7 @@
         <v>155</v>
       </c>
       <c r="P90" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q90">
         <v>3.4</v>
@@ -19805,7 +19808,7 @@
         <v>119</v>
       </c>
       <c r="P91" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q91">
         <v>2.88</v>
@@ -19883,7 +19886,7 @@
         <v>1.67</v>
       </c>
       <c r="AP91">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ91">
         <v>1.43</v>
@@ -20217,7 +20220,7 @@
         <v>96</v>
       </c>
       <c r="P93" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q93">
         <v>4.5</v>
@@ -20423,7 +20426,7 @@
         <v>157</v>
       </c>
       <c r="P94" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q94">
         <v>4.75</v>
@@ -20629,7 +20632,7 @@
         <v>96</v>
       </c>
       <c r="P95" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q95">
         <v>2.75</v>
@@ -20835,7 +20838,7 @@
         <v>96</v>
       </c>
       <c r="P96" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q96">
         <v>3.2</v>
@@ -21122,7 +21125,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ97">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR97">
         <v>1.36</v>
@@ -21453,7 +21456,7 @@
         <v>159</v>
       </c>
       <c r="P99" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q99">
         <v>2.5</v>
@@ -21865,7 +21868,7 @@
         <v>161</v>
       </c>
       <c r="P101" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q101">
         <v>2.75</v>
@@ -21943,7 +21946,7 @@
         <v>1.75</v>
       </c>
       <c r="AP101">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ101">
         <v>2</v>
@@ -22071,7 +22074,7 @@
         <v>162</v>
       </c>
       <c r="P102" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q102">
         <v>3.6</v>
@@ -22483,7 +22486,7 @@
         <v>164</v>
       </c>
       <c r="P104" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q104">
         <v>2.63</v>
@@ -23101,7 +23104,7 @@
         <v>167</v>
       </c>
       <c r="P107" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23513,7 +23516,7 @@
         <v>168</v>
       </c>
       <c r="P109" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q109">
         <v>2.63</v>
@@ -24337,7 +24340,7 @@
         <v>171</v>
       </c>
       <c r="P113" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q113">
         <v>3</v>
@@ -24543,7 +24546,7 @@
         <v>172</v>
       </c>
       <c r="P114" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q114">
         <v>1.91</v>
@@ -24955,7 +24958,7 @@
         <v>174</v>
       </c>
       <c r="P116" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q116">
         <v>3</v>
@@ -25036,7 +25039,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ116">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR116">
         <v>1.13</v>
@@ -25161,7 +25164,7 @@
         <v>175</v>
       </c>
       <c r="P117" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q117">
         <v>2.75</v>
@@ -25367,7 +25370,7 @@
         <v>96</v>
       </c>
       <c r="P118" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q118">
         <v>3.4</v>
@@ -26397,7 +26400,7 @@
         <v>179</v>
       </c>
       <c r="P123" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q123">
         <v>4.5</v>
@@ -26603,7 +26606,7 @@
         <v>180</v>
       </c>
       <c r="P124" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q124">
         <v>2</v>
@@ -26809,7 +26812,7 @@
         <v>181</v>
       </c>
       <c r="P125" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q125">
         <v>3.2</v>
@@ -27427,7 +27430,7 @@
         <v>137</v>
       </c>
       <c r="P128" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q128">
         <v>2.6</v>
@@ -28045,7 +28048,7 @@
         <v>96</v>
       </c>
       <c r="P131" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q131">
         <v>2.3</v>
@@ -28663,7 +28666,7 @@
         <v>186</v>
       </c>
       <c r="P134" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q134">
         <v>4.5</v>
@@ -29075,7 +29078,7 @@
         <v>99</v>
       </c>
       <c r="P136" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q136">
         <v>3.1</v>
@@ -29281,7 +29284,7 @@
         <v>188</v>
       </c>
       <c r="P137" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q137">
         <v>2.88</v>
@@ -29359,7 +29362,7 @@
         <v>1.2</v>
       </c>
       <c r="AP137">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ137">
         <v>1.17</v>
@@ -29487,7 +29490,7 @@
         <v>189</v>
       </c>
       <c r="P138" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29693,7 +29696,7 @@
         <v>103</v>
       </c>
       <c r="P139" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q139">
         <v>2.05</v>
@@ -29980,7 +29983,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ140">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR140">
         <v>1.33</v>
@@ -30105,7 +30108,7 @@
         <v>190</v>
       </c>
       <c r="P141" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q141">
         <v>3.1</v>
@@ -31135,7 +31138,7 @@
         <v>193</v>
       </c>
       <c r="P146" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q146">
         <v>3.2</v>
@@ -31753,7 +31756,7 @@
         <v>96</v>
       </c>
       <c r="P149" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q149">
         <v>4</v>
@@ -32165,7 +32168,7 @@
         <v>197</v>
       </c>
       <c r="P151" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q151">
         <v>3.25</v>
@@ -32577,7 +32580,7 @@
         <v>199</v>
       </c>
       <c r="P153" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q153">
         <v>2.38</v>
@@ -32783,7 +32786,7 @@
         <v>200</v>
       </c>
       <c r="P154" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q154">
         <v>2.5</v>
@@ -33195,7 +33198,7 @@
         <v>109</v>
       </c>
       <c r="P156" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q156">
         <v>3.5</v>
@@ -33368,10 +33371,10 @@
         <v>69</v>
       </c>
       <c r="E157" s="2">
-        <v>45600.875</v>
+        <v>45601.69791666666</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G157" t="s">
         <v>78</v>
@@ -33607,7 +33610,7 @@
         <v>96</v>
       </c>
       <c r="P158" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q158">
         <v>2.75</v>
@@ -33764,6 +33767,212 @@
       </c>
       <c r="BP158">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="159" spans="1:68">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>7727020</v>
+      </c>
+      <c r="C159" t="s">
+        <v>68</v>
+      </c>
+      <c r="D159" t="s">
+        <v>69</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45604.67708333334</v>
+      </c>
+      <c r="F159">
+        <v>15</v>
+      </c>
+      <c r="G159" t="s">
+        <v>70</v>
+      </c>
+      <c r="H159" t="s">
+        <v>85</v>
+      </c>
+      <c r="I159">
+        <v>1</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>1</v>
+      </c>
+      <c r="L159">
+        <v>2</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <v>2</v>
+      </c>
+      <c r="O159" t="s">
+        <v>202</v>
+      </c>
+      <c r="P159" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q159">
+        <v>2.88</v>
+      </c>
+      <c r="R159">
+        <v>2.2</v>
+      </c>
+      <c r="S159">
+        <v>3.6</v>
+      </c>
+      <c r="T159">
+        <v>1.36</v>
+      </c>
+      <c r="U159">
+        <v>3</v>
+      </c>
+      <c r="V159">
+        <v>2.75</v>
+      </c>
+      <c r="W159">
+        <v>1.4</v>
+      </c>
+      <c r="X159">
+        <v>8</v>
+      </c>
+      <c r="Y159">
+        <v>1.08</v>
+      </c>
+      <c r="Z159">
+        <v>2.25</v>
+      </c>
+      <c r="AA159">
+        <v>3.1</v>
+      </c>
+      <c r="AB159">
+        <v>2.8</v>
+      </c>
+      <c r="AC159">
+        <v>1.05</v>
+      </c>
+      <c r="AD159">
+        <v>11</v>
+      </c>
+      <c r="AE159">
+        <v>1.3</v>
+      </c>
+      <c r="AF159">
+        <v>3.5</v>
+      </c>
+      <c r="AG159">
+        <v>1.85</v>
+      </c>
+      <c r="AH159">
+        <v>1.85</v>
+      </c>
+      <c r="AI159">
+        <v>1.7</v>
+      </c>
+      <c r="AJ159">
+        <v>2.05</v>
+      </c>
+      <c r="AK159">
+        <v>1.4</v>
+      </c>
+      <c r="AL159">
+        <v>1.25</v>
+      </c>
+      <c r="AM159">
+        <v>1.6</v>
+      </c>
+      <c r="AN159">
+        <v>1.17</v>
+      </c>
+      <c r="AO159">
+        <v>0.86</v>
+      </c>
+      <c r="AP159">
+        <v>1.43</v>
+      </c>
+      <c r="AQ159">
+        <v>0.75</v>
+      </c>
+      <c r="AR159">
+        <v>1.65</v>
+      </c>
+      <c r="AS159">
+        <v>1.37</v>
+      </c>
+      <c r="AT159">
+        <v>3.02</v>
+      </c>
+      <c r="AU159">
+        <v>7</v>
+      </c>
+      <c r="AV159">
+        <v>3</v>
+      </c>
+      <c r="AW159">
+        <v>6</v>
+      </c>
+      <c r="AX159">
+        <v>1</v>
+      </c>
+      <c r="AY159">
+        <v>19</v>
+      </c>
+      <c r="AZ159">
+        <v>10</v>
+      </c>
+      <c r="BA159">
+        <v>8</v>
+      </c>
+      <c r="BB159">
+        <v>5</v>
+      </c>
+      <c r="BC159">
+        <v>13</v>
+      </c>
+      <c r="BD159">
+        <v>0</v>
+      </c>
+      <c r="BE159">
+        <v>0</v>
+      </c>
+      <c r="BF159">
+        <v>0</v>
+      </c>
+      <c r="BG159">
+        <v>0</v>
+      </c>
+      <c r="BH159">
+        <v>0</v>
+      </c>
+      <c r="BI159">
+        <v>0</v>
+      </c>
+      <c r="BJ159">
+        <v>0</v>
+      </c>
+      <c r="BK159">
+        <v>0</v>
+      </c>
+      <c r="BL159">
+        <v>0</v>
+      </c>
+      <c r="BM159">
+        <v>0</v>
+      </c>
+      <c r="BN159">
+        <v>0</v>
+      </c>
+      <c r="BO159">
+        <v>0</v>
+      </c>
+      <c r="BP159">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/England EFL League One_20242025.xlsx
@@ -33816,7 +33816,7 @@
         <v>69</v>
       </c>
       <c r="E159" s="2">
-        <v>45603.875</v>
+        <v>45604.67708333334</v>
       </c>
       <c r="F159">
         <v>15</v>
@@ -34437,7 +34437,7 @@
         <v>45605.5</v>
       </c>
       <c r="F162">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G162" t="s">
         <v>79</v>
@@ -34990,13 +34990,13 @@
         <v>13</v>
       </c>
       <c r="BA164">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB164">
         <v>8</v>
       </c>
       <c r="BC164">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD164">
         <v>1.7</v>
@@ -35055,7 +35055,7 @@
         <v>45605.5</v>
       </c>
       <c r="F165">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G165" t="s">
         <v>74</v>
@@ -35467,7 +35467,7 @@
         <v>45605.5</v>
       </c>
       <c r="F167">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G167" t="s">
         <v>73</v>
@@ -35611,10 +35611,10 @@
         <v>4</v>
       </c>
       <c r="BB167">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BC167">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD167">
         <v>1.76</v>
@@ -36085,7 +36085,7 @@
         <v>45605.5</v>
       </c>
       <c r="F170">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G170" t="s">
         <v>80</v>
@@ -36229,10 +36229,10 @@
         <v>10</v>
       </c>
       <c r="BB170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC170">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD170">
         <v>1.23</v>
